--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341754EC-4A57-4C6E-AC87-6891019147C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7A0EF-2C8B-4445-9A23-055F3C34A4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="495" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="4740" yWindow="915" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1170,10 +1170,10 @@
   <dimension ref="A1:HL104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L82" sqref="L82"/>
+      <selection pane="bottomRight" activeCell="AC98" sqref="AC98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,7 +6553,7 @@
         <v>30</v>
       </c>
       <c r="AC98" s="9">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="99" spans="1:163" x14ac:dyDescent="0.25">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="AC99" s="2">
         <f>NPV(AC98,V103:FG103)+main!I5-main!I6</f>
-        <v>2182388.3314489378</v>
+        <v>2347392.7300867992</v>
       </c>
     </row>
     <row r="100" spans="1:163" x14ac:dyDescent="0.25">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="AC100" s="2">
         <f>AC99/main!I3</f>
-        <v>178.15414950603574</v>
+        <v>191.62389633361627</v>
       </c>
     </row>
     <row r="101" spans="1:163" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="AC101" s="3">
         <f>AC100/main!I2-1</f>
-        <v>0.14201377888484457</v>
+        <v>0.22835830983087346</v>
       </c>
     </row>
     <row r="102" spans="1:163" x14ac:dyDescent="0.25">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7A0EF-2C8B-4445-9A23-055F3C34A4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16589FEA-D58D-4175-BD8D-BFEDFEEA6B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="915" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
@@ -89,13 +89,22 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={6FF532F1-830D-4259-9AB9-82FDC064399F}</author>
     <author>tc={B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}</author>
     <author>tc={3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}</author>
     <author>tc={B2A26FD5-756A-4436-88C9-DC45B78A3F12}</author>
     <author>tc={50D81D40-768D-4E6C-B865-C43BC614BF3C}</author>
   </authors>
   <commentList>
-    <comment ref="V13" authorId="0" shapeId="0" xr:uid="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Normalized </t>
+      </text>
+    </comment>
+    <comment ref="V13" authorId="1" shapeId="0" xr:uid="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +112,7 @@
     “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
       </text>
     </comment>
-    <comment ref="J73" authorId="1" shapeId="0" xr:uid="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
+    <comment ref="J73" authorId="2" shapeId="0" xr:uid="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +120,7 @@
     "16B-18B Debt 1st Quarter"</t>
       </text>
     </comment>
-    <comment ref="J100" authorId="2" shapeId="0" xr:uid="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
+    <comment ref="J100" authorId="3" shapeId="0" xr:uid="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +128,7 @@
     Acquisition of Wiz</t>
       </text>
     </comment>
-    <comment ref="V102" authorId="3" shapeId="0" xr:uid="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
+    <comment ref="V102" authorId="4" shapeId="0" xr:uid="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
   <si>
     <t>GOOGL</t>
   </si>
@@ -492,6 +501,21 @@
   </si>
   <si>
     <t>Consensus</t>
+  </si>
+  <si>
+    <t>Expected Move</t>
+  </si>
+  <si>
+    <t>Actual Move</t>
+  </si>
+  <si>
+    <t>No Change</t>
+  </si>
+  <si>
+    <t>5% incr</t>
+  </si>
+  <si>
+    <t>3% incr</t>
   </si>
 </sst>
 </file>
@@ -501,7 +525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +540,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1019,6 +1049,9 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L10" dT="2025-04-24T20:04:58.81" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
+    <text xml:space="preserve">Normalized </text>
+  </threadedComment>
   <threadedComment ref="V13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
     <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
   </threadedComment>
@@ -1038,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B77E1F6-E010-4C2A-A7A7-05E6849E9A4F}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,10 +1203,10 @@
   <dimension ref="A1:HL104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC98" sqref="AC98"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1217,9 @@
     <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="9.42578125" style="2" customWidth="1"/>
-    <col min="14" max="20" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="13.5703125" style="2" customWidth="1"/>
+    <col min="16" max="20" width="9.140625" style="2"/>
     <col min="21" max="21" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="2"/>
@@ -1469,7 +1504,6 @@
       <c r="I7" s="2">
         <v>-1174</v>
       </c>
-      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1499,12 +1533,15 @@
         <f>-2783-20</f>
         <v>-2803</v>
       </c>
-      <c r="L8" s="6"/>
       <c r="M8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -1522,14 +1559,17 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>2.0099999999999998</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1567,14 +1607,18 @@
         <f>I11/I15</f>
         <v>0.27478994707036308</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="P10" s="4"/>
+      <c r="N10" s="10">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1606,14 +1650,21 @@
       <c r="I11" s="2">
         <v>14848</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="2">
+        <f>I11*0.93</f>
+        <v>13808.640000000001</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="10">
-        <v>2.0299999999999998</v>
+      <c r="N11" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1651,6 +1702,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
+      <c r="N12" s="3"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1686,10 +1738,6 @@
       <c r="M13" s="5">
         <f t="shared" si="6"/>
         <v>31667.148435359992</v>
-      </c>
-      <c r="N13" s="2">
-        <f>SUM(J13:M13)</f>
-        <v>109218.92033135999</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1722,6 +1770,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1763,20 +1812,20 @@
         <v>54034</v>
       </c>
       <c r="J15" s="2">
-        <f>I15*0.92</f>
-        <v>49711.28</v>
+        <f>I15*0.93</f>
+        <v>50251.62</v>
       </c>
       <c r="K15" s="2">
-        <f>J15*1.05</f>
-        <v>52196.844000000005</v>
+        <f>J15*1.06</f>
+        <v>53266.717200000006</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ref="L15:M15" si="8">K15*1.05</f>
-        <v>54806.686200000004</v>
+        <f t="shared" ref="L15:M15" si="8">K15*1.06</f>
+        <v>56462.720232000007</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="8"/>
-        <v>57547.020510000009</v>
+        <v>59850.483445920014</v>
       </c>
       <c r="P15" s="2">
         <v>161857</v>
@@ -1798,23 +1847,23 @@
       </c>
       <c r="V15" s="2">
         <f>SUM(J15:M15)</f>
-        <v>214261.83071000001</v>
+        <v>219831.54087792002</v>
       </c>
       <c r="W15" s="2">
         <f>V15*1.09</f>
-        <v>233545.39547390002</v>
+        <v>239616.37955693284</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" ref="X15:Z15" si="9">W15*1.09</f>
-        <v>254564.48106655103</v>
+        <v>261181.8537170568</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="9"/>
-        <v>277475.28436254064</v>
+        <v>284688.22055159195</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="9"/>
-        <v>302448.05995516933</v>
+        <v>310310.16040123522</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -1924,20 +1973,20 @@
         <v>7954</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ref="J16:J18" si="12">I17*0.93</f>
-        <v>7397.22</v>
+        <f>I17*0.92</f>
+        <v>7317.68</v>
       </c>
       <c r="K17" s="2">
         <f>J17*1.02</f>
-        <v>7545.1644000000006</v>
+        <v>7464.0336000000007</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17:M17" si="13">K17*1.02</f>
-        <v>7696.067688000001</v>
+        <f t="shared" ref="L17:M17" si="12">K17*1.02</f>
+        <v>7613.3142720000005</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="13"/>
-        <v>7849.9890417600009</v>
+        <f t="shared" si="12"/>
+        <v>7765.580557440001</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1954,23 +2003,23 @@
       </c>
       <c r="V17" s="2">
         <f>SUM(J17:M17)</f>
-        <v>30488.441129760002</v>
+        <v>30160.608429440003</v>
       </c>
       <c r="W17" s="2">
         <f>V17*1.03</f>
-        <v>31403.094363652803</v>
+        <v>31065.426682323203</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" ref="X17:Z17" si="14">W17*1.03</f>
-        <v>32345.187194562386</v>
+        <f t="shared" ref="X17:Z17" si="13">W17*1.03</f>
+        <v>31997.3894827929</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="14"/>
-        <v>33315.54281039926</v>
+        <f t="shared" si="13"/>
+        <v>32957.31116727669</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="14"/>
-        <v>34315.00909471124</v>
+        <f t="shared" si="13"/>
+        <v>33946.030502294991</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2006,16 +2055,16 @@
         <v>10702.36</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:M18" si="15">J18*1.02</f>
-        <v>10916.407200000001</v>
+        <f>J18*1.03</f>
+        <v>11023.4308</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="15"/>
-        <v>11134.735344000002</v>
+        <f t="shared" ref="L18:M18" si="14">K18*1.03</f>
+        <v>11354.133724000001</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="15"/>
-        <v>11357.430050880002</v>
+        <f t="shared" si="14"/>
+        <v>11694.757735720001</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2030,23 +2079,23 @@
       </c>
       <c r="V18" s="2">
         <f>SUM(J18:M18)</f>
-        <v>44110.932594880003</v>
+        <v>44774.682259720001</v>
       </c>
       <c r="W18" s="2">
         <f>V18*1.1</f>
-        <v>48522.02585436801</v>
+        <v>49252.150485692007</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" ref="X18:Z18" si="16">W18*1.1</f>
-        <v>53374.228439804814</v>
+        <f t="shared" ref="X18:Z18" si="15">W18*1.1</f>
+        <v>54177.365534261211</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="16"/>
-        <v>58711.651283785301</v>
+        <f t="shared" si="15"/>
+        <v>59595.102087687337</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="16"/>
-        <v>64582.816412163833</v>
+        <f t="shared" si="15"/>
+        <v>65554.612296456078</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2058,92 +2107,92 @@
         <v>61961</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:P19" si="17">SUM(C15:C18)</f>
+        <f t="shared" ref="C19:P19" si="16">SUM(C15:C18)</f>
         <v>66285</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>67986</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>76311</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>70398</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>73928</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>76510</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>84094</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="17"/>
-        <v>77446.02</v>
+        <f t="shared" si="16"/>
+        <v>77906.819999999992</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="17"/>
-        <v>80871.685200000007</v>
+        <f t="shared" si="16"/>
+        <v>81967.45120000001</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="17"/>
-        <v>84463.555007999996</v>
+        <f t="shared" si="16"/>
+        <v>86256.234004000013</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="17"/>
-        <v>88230.069325200006</v>
+        <f t="shared" si="16"/>
+        <v>90786.451461640027</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>161857</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="18">SUM(Q15:Q18)</f>
+        <f t="shared" ref="Q19" si="17">SUM(Q15:Q18)</f>
         <v>182527</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19" si="19">SUM(R15:R18)</f>
+        <f t="shared" ref="R19" si="18">SUM(R15:R18)</f>
         <v>257637</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19" si="20">SUM(S15:S18)</f>
+        <f t="shared" ref="S19" si="19">SUM(S15:S18)</f>
         <v>253528</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" ref="T19" si="21">SUM(T15:T18)</f>
+        <f t="shared" ref="T19" si="20">SUM(T15:T18)</f>
         <v>272543</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19" si="22">SUM(U15:U18)</f>
+        <f t="shared" ref="U19" si="21">SUM(U15:U18)</f>
         <v>304930</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" ref="V19" si="23">SUM(V15:V18)</f>
-        <v>331011.32953320001</v>
+        <f t="shared" ref="V19" si="22">SUM(V15:V18)</f>
+        <v>336916.95666564</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" ref="W19" si="24">SUM(W15:W18)</f>
-        <v>360257.1545513224</v>
+        <f t="shared" ref="W19" si="23">SUM(W15:W18)</f>
+        <v>366720.59558434965</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" ref="X19" si="25">SUM(X15:X18)</f>
-        <v>392217.06583485403</v>
+        <f t="shared" ref="X19" si="24">SUM(X15:X18)</f>
+        <v>399289.77786804666</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" ref="Y19" si="26">SUM(Y15:Y18)</f>
-        <v>427148.29619539389</v>
+        <f t="shared" ref="Y19" si="25">SUM(Y15:Y18)</f>
+        <v>434886.4515452247</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" ref="Z19" si="27">SUM(Z15:Z18)</f>
-        <v>465332.74315196666</v>
+        <f t="shared" ref="Z19" si="26">SUM(Z15:Z18)</f>
+        <v>473797.66088990855</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2179,18 +2228,18 @@
         <v>13628.699999999999</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ref="K20:M20" si="28">J20*1.14</f>
+        <f t="shared" ref="K20:M20" si="27">J20*1.14</f>
         <v>15536.717999999997</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>17711.858519999994</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>20191.518712799992</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="3"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2212,15 +2261,15 @@
         <v>80482.554279359974</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" ref="X20:Z20" si="29">W20*1.2</f>
+        <f t="shared" ref="X20:Z20" si="28">W20*1.2</f>
         <v>96579.065135231969</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>115894.87816227836</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>139073.85379473402</v>
       </c>
     </row>
@@ -2269,13 +2318,14 @@
         <v>398.41200000000003</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21:M21" si="30">K21*1.02</f>
+        <f t="shared" ref="L21:M21" si="29">K21*1.02</f>
         <v>406.38024000000001</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>414.50784480000004</v>
       </c>
+      <c r="N21" s="3"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="2">
@@ -2299,15 +2349,15 @@
         <v>1690.3950890400001</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21:Z21" si="31">W21*1.05</f>
+        <f t="shared" ref="X21:Z21" si="30">W21*1.05</f>
         <v>1774.9148434920003</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1863.6605856666004</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1956.8436149499305</v>
       </c>
     </row>
@@ -2320,96 +2370,96 @@
         <v>69787</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:Z22" si="32">SUM(C19:C21)</f>
+        <f t="shared" ref="C22:Z22" si="31">SUM(C19:C21)</f>
         <v>74604</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>76693</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>86310</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>80539</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>84742</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>88268</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>96469</v>
       </c>
       <c r="J22" s="5">
         <f>SUM(J19:J21)</f>
-        <v>91465.32</v>
+        <v>91926.12</v>
       </c>
       <c r="K22" s="5">
-        <f>J22*1.11</f>
-        <v>101526.50520000001</v>
+        <f t="shared" ref="K22:M22" si="32">SUM(K19:K21)</f>
+        <v>97902.581200000001</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" ref="L22:M22" si="33">K22*1.11</f>
-        <v>112694.42077200003</v>
+        <f t="shared" si="32"/>
+        <v>104374.47276400001</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="33"/>
-        <v>125090.80705692004</v>
+        <f t="shared" si="32"/>
+        <v>111392.47801924002</v>
       </c>
       <c r="N22" s="5">
         <f>SUM(J22:M22)</f>
-        <v>430777.05302892008</v>
+        <v>405595.65198324004</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>161857</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>182527</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>257637</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>282836</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>307394</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>350018</v>
       </c>
       <c r="V22" s="5">
         <f>SUM(J22:M22)</f>
-        <v>430777.05302892008</v>
+        <v>405595.65198324004</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="32"/>
-        <v>442430.10391972237</v>
+        <f t="shared" si="31"/>
+        <v>448893.54495274962</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="32"/>
-        <v>490571.04581357795</v>
+        <f t="shared" si="31"/>
+        <v>497643.75784677058</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="32"/>
-        <v>544906.83494333888</v>
+        <f t="shared" si="31"/>
+        <v>552644.99029316974</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="32"/>
-        <v>606363.44056165067</v>
+        <f t="shared" si="31"/>
+        <v>614828.35829959251</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2442,19 +2492,19 @@
       </c>
       <c r="J23" s="2">
         <f>J22*(1-J43)</f>
-        <v>38415.434400000006</v>
+        <v>38608.970399999998</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:M23" si="34">K22*(1-K43)</f>
-        <v>42641.132184000009</v>
+        <f t="shared" ref="K23:M23" si="33">K22*(1-K43)</f>
+        <v>41119.084104000001</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="34"/>
-        <v>47331.656724240012</v>
+        <f t="shared" si="33"/>
+        <v>43837.278560880004</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="34"/>
-        <v>52538.138963906422</v>
+        <f t="shared" si="33"/>
+        <v>46784.840768080816</v>
       </c>
       <c r="P23" s="2">
         <v>71896</v>
@@ -2476,23 +2526,23 @@
       </c>
       <c r="V23" s="2">
         <f>SUM(J23:M23)</f>
-        <v>180926.36227214645</v>
+        <v>170350.17383296083</v>
       </c>
       <c r="W23" s="2">
         <f>W22*(1-W43)</f>
-        <v>185820.64364628342</v>
+        <v>188535.28888015487</v>
       </c>
       <c r="X23" s="2">
         <f>X22*(1-X43)</f>
-        <v>206039.83924170275</v>
+        <v>209010.37829564366</v>
       </c>
       <c r="Y23" s="2">
         <f>Y22*(1-Y43)</f>
-        <v>228860.87067620235</v>
+        <v>232110.89592313132</v>
       </c>
       <c r="Z23" s="2">
         <f>Z22*(1-Z43)</f>
-        <v>254672.64503589331</v>
+        <v>258227.91048582888</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2504,48 +2554,48 @@
         <v>39175</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:M24" si="35">C22-C23</f>
+        <f t="shared" ref="C24:M24" si="34">C22-C23</f>
         <v>42688</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>43464</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>48735</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>46827</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>49235</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>51794</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>55856</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="35"/>
-        <v>53049.885600000001</v>
+        <f t="shared" si="34"/>
+        <v>53317.149599999997</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="35"/>
-        <v>58885.373016000005</v>
+        <f t="shared" si="34"/>
+        <v>56783.497095999999</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="35"/>
-        <v>65362.764047760014</v>
+        <f t="shared" si="34"/>
+        <v>60537.194203120001</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="35"/>
-        <v>72552.668093013606</v>
+        <f t="shared" si="34"/>
+        <v>64607.637251159205</v>
       </c>
       <c r="P24" s="2">
         <f>P22-P23</f>
@@ -2560,36 +2610,36 @@
         <v>146698</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24:U24" si="36">S22-S23</f>
+        <f t="shared" ref="S24:U24" si="35">S22-S23</f>
         <v>156633</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>174062</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>203716</v>
       </c>
       <c r="V24" s="2">
         <f>V22-V23</f>
-        <v>249850.69075677363</v>
+        <v>235245.4781502792</v>
       </c>
       <c r="W24" s="2">
         <f>W22-W23</f>
-        <v>256609.46027343895</v>
+        <v>260358.25607259476</v>
       </c>
       <c r="X24" s="2">
         <f>X22-X23</f>
-        <v>284531.2065718752</v>
+        <v>288633.37955112691</v>
       </c>
       <c r="Y24" s="2">
         <f>Y22-Y23</f>
-        <v>316045.96426713653</v>
+        <v>320534.09437003842</v>
       </c>
       <c r="Z24" s="2">
         <f>Z22-Z23</f>
-        <v>351690.79552575736</v>
+        <v>356600.44781376363</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2622,19 +2672,19 @@
       </c>
       <c r="J25" s="2">
         <f>I25*(1+J39)</f>
-        <v>12435.695789528243</v>
+        <v>12498.346514631643</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25:M25" si="37">J25*(1+K39)</f>
-        <v>13803.622326376351</v>
+        <f t="shared" ref="K25:M25" si="36">J25*(1+K39)</f>
+        <v>13310.91081092579</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="37"/>
-        <v>15322.020782277752</v>
+        <f t="shared" si="36"/>
+        <v>14190.834203450064</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="37"/>
-        <v>17007.443068328306</v>
+        <f t="shared" si="36"/>
+        <v>15145.007636653767</v>
       </c>
       <c r="P25" s="2">
         <v>26018</v>
@@ -2656,23 +2706,23 @@
       </c>
       <c r="V25" s="2">
         <f>U25*(1+V38)</f>
-        <v>60706.903409837527</v>
+        <v>57158.235089981943</v>
       </c>
       <c r="W25" s="2">
         <f>V25*(1+W38)</f>
-        <v>62349.100063265963</v>
+        <v>63259.955197559357</v>
       </c>
       <c r="X25" s="2">
         <f>W25*(1+X38)</f>
-        <v>69133.322874253747</v>
+        <v>70130.039025278151</v>
       </c>
       <c r="Y25" s="2">
         <f>X25*(1+Y38)</f>
-        <v>76790.549458642519</v>
+        <v>77881.042664094115</v>
       </c>
       <c r="Z25" s="2">
         <f>Y25*(1+Z38)</f>
-        <v>85451.271275031526</v>
+        <v>86644.182874839884</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -2705,19 +2755,19 @@
       </c>
       <c r="J26" s="2">
         <f>I26*(1+J39)</f>
-        <v>6981.0939385709398</v>
+        <v>7016.2645156475137</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26:M26" si="38">J26*(1+K39)</f>
-        <v>7749.014271813744</v>
+        <f t="shared" ref="K26:M26" si="37">J26*(1+K39)</f>
+        <v>7472.4181382164224</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="38"/>
-        <v>8601.4058417132565</v>
+        <f t="shared" si="37"/>
+        <v>7966.385501677556</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="38"/>
-        <v>9547.5604843017154</v>
+        <f t="shared" si="37"/>
+        <v>8502.035012860757</v>
       </c>
       <c r="P26" s="2">
         <v>18464</v>
@@ -2739,23 +2789,23 @@
       </c>
       <c r="V26" s="2">
         <f>U26*(1+V38/2)</f>
-        <v>31016.046081384688</v>
+        <v>30015.748382011694</v>
       </c>
       <c r="W26" s="2">
         <f>V26*(1+W38/2)</f>
-        <v>31435.557242525363</v>
+        <v>31617.859566499654</v>
       </c>
       <c r="X26" s="2">
         <f>W26*(1+X38/2)</f>
-        <v>33145.813078651707</v>
+        <v>33334.722509229607</v>
       </c>
       <c r="Y26" s="2">
         <f>X26*(1+Y38/2)</f>
-        <v>34981.432939776256</v>
+        <v>35176.854347876011</v>
       </c>
       <c r="Z26" s="2">
         <f>Y26*(1+Z38/2)</f>
-        <v>36954.100550347517</v>
+        <v>37155.896334723584</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -2788,19 +2838,19 @@
       </c>
       <c r="J27" s="2">
         <f>I27*(1+J39)</f>
-        <v>4176.5202769801699</v>
+        <v>4197.5614819268367</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:M27" si="39">J27*(1+K39)</f>
-        <v>4635.9375074479894</v>
+        <f t="shared" ref="K27:M27" si="38">J27*(1+K39)</f>
+        <v>4470.4606680488032</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="39"/>
-        <v>5145.8906332672686</v>
+        <f t="shared" si="38"/>
+        <v>4765.9823624731271</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="39"/>
-        <v>5711.9386029266689</v>
+        <f t="shared" si="38"/>
+        <v>5086.4408843747979</v>
       </c>
       <c r="P27" s="2">
         <f>9551+1697</f>
@@ -2823,23 +2873,23 @@
       </c>
       <c r="V27" s="2">
         <f>U27*(1+V38/3)</f>
-        <v>15279.190971487482</v>
+        <v>14938.947785864544</v>
       </c>
       <c r="W27" s="2">
         <f>V27*(1+W38/3)</f>
-        <v>15416.964628579255</v>
+        <v>15470.532184552152</v>
       </c>
       <c r="X27" s="2">
         <f>W27*(1+X38/3)</f>
-        <v>15976.139356058715</v>
+        <v>16030.569745098275</v>
       </c>
       <c r="Y27" s="2">
         <f>X27*(1+Y38/3)</f>
-        <v>16565.979941886497</v>
+        <v>16621.153590734728</v>
       </c>
       <c r="Z27" s="2">
         <f>Y27*(1+Z38/3)</f>
-        <v>17188.770744938938</v>
+        <v>17244.55518885389</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -2851,92 +2901,92 @@
         <v>21760</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:K28" si="40">SUM(C25:C27)</f>
+        <f t="shared" ref="C28:K28" si="39">SUM(C25:C27)</f>
         <v>20850</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="39"/>
+        <v>22121</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="39"/>
+        <v>25038</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="39"/>
+        <v>21355</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="39"/>
+        <v>21810</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="39"/>
+        <v>23273</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="39"/>
+        <v>24884</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="39"/>
+        <v>23712.172512205994</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="39"/>
+        <v>25253.789617191014</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" ref="L28:M28" si="40">SUM(L25:L27)</f>
+        <v>26923.202067600745</v>
+      </c>
+      <c r="M28" s="2">
         <f t="shared" si="40"/>
-        <v>22121</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="40"/>
-        <v>25038</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="40"/>
-        <v>21355</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="40"/>
-        <v>21810</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="40"/>
-        <v>23273</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="40"/>
-        <v>24884</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="40"/>
-        <v>23593.310005079351</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="40"/>
-        <v>26188.574105638087</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" ref="L28:M28" si="41">SUM(L25:L27)</f>
-        <v>29069.317257258277</v>
-      </c>
-      <c r="M28" s="2">
+        <v>28733.483533889321</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ref="P28:Z28" si="41">SUM(P25:P27)</f>
+        <v>55730</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="41"/>
-        <v>32266.942155556688</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" ref="P28:Z28" si="42">SUM(P25:P27)</f>
-        <v>55730</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="42"/>
         <v>56571</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>67984</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>81791</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>89589</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>91322</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="42"/>
-        <v>107002.14046270969</v>
+        <f t="shared" si="41"/>
+        <v>102112.93125785817</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="42"/>
-        <v>109201.62193437059</v>
+        <f t="shared" si="41"/>
+        <v>110348.34694861116</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="42"/>
-        <v>118255.27530896418</v>
+        <f t="shared" si="41"/>
+        <v>119495.33127960603</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="42"/>
-        <v>128337.96234030527</v>
+        <f t="shared" si="41"/>
+        <v>129679.05060270485</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="42"/>
-        <v>139594.14257031798</v>
+        <f t="shared" si="41"/>
+        <v>141044.63439841737</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -2948,92 +2998,92 @@
         <v>17415</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:K29" si="43">C24-C28</f>
+        <f t="shared" ref="C29:K29" si="42">C24-C28</f>
         <v>21838</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="42"/>
+        <v>21343</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="42"/>
+        <v>23697</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="42"/>
+        <v>25472</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="42"/>
+        <v>27425</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="42"/>
+        <v>28521</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="42"/>
+        <v>30972</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="42"/>
+        <v>29604.977087794003</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="42"/>
+        <v>31529.707478808985</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" ref="L29:M29" si="43">L24-L28</f>
+        <v>33613.992135519256</v>
+      </c>
+      <c r="M29" s="2">
         <f t="shared" si="43"/>
-        <v>21343</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="43"/>
-        <v>23697</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="43"/>
-        <v>25472</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="43"/>
-        <v>27425</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="43"/>
-        <v>28521</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="43"/>
-        <v>30972</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="43"/>
-        <v>29456.57559492065</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="43"/>
-        <v>32696.798910361918</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" ref="L29:M29" si="44">L24-L28</f>
-        <v>36293.446790501737</v>
-      </c>
-      <c r="M29" s="2">
+        <v>35874.153717269888</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ref="P29:Z29" si="44">P24-P28</f>
+        <v>34231</v>
+      </c>
+      <c r="Q29" s="2">
         <f t="shared" si="44"/>
-        <v>40285.725937456918</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" ref="P29:Z29" si="45">P24-P28</f>
-        <v>34231</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="45"/>
         <v>41224</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>78714</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>74842</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>84473</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>112394</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="45"/>
-        <v>142848.55029406393</v>
+        <f t="shared" si="44"/>
+        <v>133132.54689242103</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="45"/>
-        <v>147407.83833906834</v>
+        <f t="shared" si="44"/>
+        <v>150009.90912398358</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="45"/>
-        <v>166275.93126291101</v>
+        <f t="shared" si="44"/>
+        <v>169138.04827152088</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="45"/>
-        <v>187708.00192683126</v>
+        <f t="shared" si="44"/>
+        <v>190855.04376733355</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="45"/>
-        <v>212096.65295543938</v>
+        <f t="shared" si="44"/>
+        <v>215555.81341534626</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3050,19 +3100,19 @@
       </c>
       <c r="W30" s="2">
         <f>V56*$AC$96</f>
-        <v>12353.840528291508</v>
+        <v>11881.64276297166</v>
       </c>
       <c r="X30" s="2">
         <f>W56*$AC$96</f>
-        <v>20196.795721245198</v>
+        <v>19828.109784677687</v>
       </c>
       <c r="Y30" s="2">
         <f>X56*$AC$96</f>
-        <v>29338.693228675187</v>
+        <v>29091.188042208934</v>
       </c>
       <c r="Z30" s="2">
         <f>Y56*$AC$96</f>
-        <v>39967.278818992796</v>
+        <v>39860.691113912704</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3093,6 +3143,9 @@
       <c r="I31" s="2">
         <v>1271</v>
       </c>
+      <c r="J31" s="2">
+        <v>1000</v>
+      </c>
       <c r="P31" s="2">
         <v>5394</v>
       </c>
@@ -3115,15 +3168,15 @@
         <v>1616</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" ref="X31:Z31" si="46">W31*1.01</f>
+        <f t="shared" ref="X31:Z31" si="45">W31*1.01</f>
         <v>1632.16</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1648.4816000000001</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1664.966416</v>
       </c>
     </row>
@@ -3136,94 +3189,94 @@
         <v>18205</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:K32" si="47">C29+SUM(C30:C31)</f>
+        <f t="shared" ref="C32:K32" si="46">C29+SUM(C30:C31)</f>
         <v>21903</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="46"/>
+        <v>21197</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="46"/>
+        <v>24412</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="46"/>
+        <v>28315</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="46"/>
+        <v>27551</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="46"/>
+        <v>31706</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="46"/>
+        <v>32243</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="46"/>
+        <v>31876.587087794003</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="46"/>
+        <v>31529.707478808985</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" ref="L32:M32" si="47">L29+SUM(L30:L31)</f>
+        <v>33613.992135519256</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="47"/>
-        <v>21197</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="47"/>
-        <v>24412</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="47"/>
-        <v>28315</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="47"/>
-        <v>27551</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="47"/>
-        <v>31706</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="47"/>
-        <v>32243</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="47"/>
-        <v>30728.185594920651</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="47"/>
-        <v>32696.798910361918</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" ref="L32:M32" si="48">L29+SUM(L30:L31)</f>
-        <v>36293.446790501737</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="48"/>
-        <v>40285.725937456918</v>
+        <v>35874.153717269888</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="2">
-        <f t="shared" ref="P32:U32" si="49">SUM(P29:P31)</f>
+        <f t="shared" ref="P32:U32" si="48">SUM(P29:P31)</f>
         <v>39625</v>
       </c>
       <c r="Q32" s="2">
+        <f t="shared" si="48"/>
+        <v>48082</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="48"/>
+        <v>78714</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="48"/>
+        <v>74842</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="48"/>
+        <v>85897</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="48"/>
+        <v>119819</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" ref="V32:Z32" si="49">SUM(V29:V31)</f>
+        <v>139818.98689242103</v>
+      </c>
+      <c r="W32" s="2">
         <f t="shared" si="49"/>
-        <v>48082</v>
-      </c>
-      <c r="R32" s="2">
+        <v>163507.55188695525</v>
+      </c>
+      <c r="X32" s="2">
         <f t="shared" si="49"/>
-        <v>78714</v>
-      </c>
-      <c r="S32" s="2">
+        <v>190598.31805619856</v>
+      </c>
+      <c r="Y32" s="2">
         <f t="shared" si="49"/>
-        <v>74842</v>
-      </c>
-      <c r="T32" s="2">
+        <v>221594.71340954248</v>
+      </c>
+      <c r="Z32" s="2">
         <f t="shared" si="49"/>
-        <v>85897</v>
-      </c>
-      <c r="U32" s="2">
-        <f t="shared" si="49"/>
-        <v>119819</v>
-      </c>
-      <c r="V32" s="2">
-        <f t="shared" ref="V32:Z32" si="50">SUM(V29:V31)</f>
-        <v>149534.99029406393</v>
-      </c>
-      <c r="W32" s="2">
-        <f t="shared" si="50"/>
-        <v>161377.67886735985</v>
-      </c>
-      <c r="X32" s="2">
-        <f t="shared" si="50"/>
-        <v>188104.88698415621</v>
-      </c>
-      <c r="Y32" s="2">
-        <f t="shared" si="50"/>
-        <v>218695.17675550646</v>
-      </c>
-      <c r="Z32" s="2">
-        <f t="shared" si="50"/>
-        <v>253728.8981904322</v>
+        <v>257081.47094525897</v>
       </c>
     </row>
     <row r="33" spans="1:220" x14ac:dyDescent="0.25">
@@ -3256,19 +3309,19 @@
       </c>
       <c r="J33" s="2">
         <f>J32*J40</f>
-        <v>5838.3552630349241</v>
+        <v>6056.5515466808611</v>
       </c>
       <c r="K33" s="2">
         <f>K32*K40</f>
-        <v>6212.391792968765</v>
+        <v>5990.6444209737074</v>
       </c>
       <c r="L33" s="2">
         <f>L32*L40</f>
-        <v>6895.7548901953305</v>
+        <v>6386.6585057486591</v>
       </c>
       <c r="M33" s="2">
         <f>M32*M40</f>
-        <v>7654.2879281168143</v>
+        <v>6816.0892062812791</v>
       </c>
       <c r="P33" s="2">
         <v>5282</v>
@@ -3290,23 +3343,23 @@
       </c>
       <c r="V33" s="2">
         <f>V32*V40</f>
-        <v>28411.648155872146</v>
+        <v>26565.607509559995</v>
       </c>
       <c r="W33" s="2">
         <f>W32*W40</f>
-        <v>30661.758984798373</v>
+        <v>31066.434858521498</v>
       </c>
       <c r="X33" s="2">
         <f>X32*X40</f>
-        <v>35739.928526989679</v>
+        <v>36213.680430677727</v>
       </c>
       <c r="Y33" s="2">
         <f>Y32*Y40</f>
-        <v>41552.083583546228</v>
+        <v>42102.995547813072</v>
       </c>
       <c r="Z33" s="2">
         <f>Z32*Z40</f>
-        <v>48208.490656182119</v>
+        <v>48845.479479599206</v>
       </c>
     </row>
     <row r="34" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3318,868 +3371,868 @@
         <v>15051</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:K34" si="51">C32-C33</f>
+        <f t="shared" ref="C34:K34" si="50">C32-C33</f>
         <v>18368</v>
       </c>
       <c r="D34" s="5">
+        <f t="shared" si="50"/>
+        <v>19689</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="50"/>
+        <v>20687</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="50"/>
+        <v>23662</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="50"/>
+        <v>23619</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="50"/>
+        <v>26301</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="50"/>
+        <v>26536</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="50"/>
+        <v>25820.035541113142</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="50"/>
+        <v>25539.063057835279</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" ref="L34:M34" si="51">L32-L33</f>
+        <v>27227.333629770597</v>
+      </c>
+      <c r="M34" s="5">
         <f t="shared" si="51"/>
-        <v>19689</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="51"/>
-        <v>20687</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="51"/>
-        <v>23662</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="51"/>
-        <v>23619</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="51"/>
-        <v>26301</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="51"/>
-        <v>26536</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="51"/>
-        <v>24889.830331885729</v>
-      </c>
-      <c r="K34" s="5">
-        <f t="shared" si="51"/>
-        <v>26484.407117393152</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" ref="L34:M34" si="52">L32-L33</f>
-        <v>29397.691900306407</v>
-      </c>
-      <c r="M34" s="5">
+        <v>29058.06451098861</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" ref="P34:U34" si="52">P32-P33</f>
+        <v>34343</v>
+      </c>
+      <c r="Q34" s="5">
         <f t="shared" si="52"/>
-        <v>32631.438009340105</v>
-      </c>
-      <c r="P34" s="5">
-        <f t="shared" ref="P34:U34" si="53">P32-P33</f>
-        <v>34343</v>
-      </c>
-      <c r="Q34" s="5">
+        <v>40269</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="52"/>
+        <v>64013</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="52"/>
+        <v>63486</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" si="52"/>
+        <v>73975</v>
+      </c>
+      <c r="U34" s="5">
+        <f t="shared" si="52"/>
+        <v>100122</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" ref="V34:Z34" si="53">V32-V33</f>
+        <v>113253.37938286104</v>
+      </c>
+      <c r="W34" s="5">
         <f t="shared" si="53"/>
-        <v>40269</v>
-      </c>
-      <c r="R34" s="5">
+        <v>132441.11702843374</v>
+      </c>
+      <c r="X34" s="5">
         <f t="shared" si="53"/>
-        <v>64013</v>
-      </c>
-      <c r="S34" s="5">
+        <v>154384.63762552085</v>
+      </c>
+      <c r="Y34" s="5">
         <f t="shared" si="53"/>
-        <v>63486</v>
-      </c>
-      <c r="T34" s="5">
+        <v>179491.71786172941</v>
+      </c>
+      <c r="Z34" s="5">
         <f t="shared" si="53"/>
-        <v>73975</v>
-      </c>
-      <c r="U34" s="5">
-        <f t="shared" si="53"/>
-        <v>100122</v>
-      </c>
-      <c r="V34" s="5">
-        <f t="shared" ref="V34:Z34" si="54">V32-V33</f>
-        <v>121123.34213819179</v>
-      </c>
-      <c r="W34" s="5">
+        <v>208235.99146565975</v>
+      </c>
+      <c r="AA34" s="5">
+        <f t="shared" ref="AA34:BF34" si="54">Z34*(1+$AC$97)</f>
+        <v>210318.35138031637</v>
+      </c>
+      <c r="AB34" s="5">
         <f t="shared" si="54"/>
-        <v>130715.91988256147</v>
-      </c>
-      <c r="X34" s="5">
+        <v>212421.53489411954</v>
+      </c>
+      <c r="AC34" s="5">
         <f t="shared" si="54"/>
-        <v>152364.95845716653</v>
-      </c>
-      <c r="Y34" s="5">
+        <v>214545.75024306073</v>
+      </c>
+      <c r="AD34" s="5">
         <f t="shared" si="54"/>
-        <v>177143.09317196024</v>
-      </c>
-      <c r="Z34" s="5">
+        <v>216691.20774549132</v>
+      </c>
+      <c r="AE34" s="5">
         <f t="shared" si="54"/>
-        <v>205520.40753425009</v>
-      </c>
-      <c r="AA34" s="5">
-        <f t="shared" ref="AA34:BF34" si="55">Z34*(1+$AC$97)</f>
-        <v>207575.6116095926</v>
-      </c>
-      <c r="AB34" s="5">
+        <v>218858.11982294623</v>
+      </c>
+      <c r="AF34" s="5">
+        <f t="shared" si="54"/>
+        <v>221046.70102117569</v>
+      </c>
+      <c r="AG34" s="5">
+        <f t="shared" si="54"/>
+        <v>223257.16803138744</v>
+      </c>
+      <c r="AH34" s="5">
+        <f t="shared" si="54"/>
+        <v>225489.73971170132</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="54"/>
+        <v>227744.63710881834</v>
+      </c>
+      <c r="AJ34" s="5">
+        <f t="shared" si="54"/>
+        <v>230022.08347990652</v>
+      </c>
+      <c r="AK34" s="5">
+        <f t="shared" si="54"/>
+        <v>232322.3043147056</v>
+      </c>
+      <c r="AL34" s="5">
+        <f t="shared" si="54"/>
+        <v>234645.52735785267</v>
+      </c>
+      <c r="AM34" s="5">
+        <f t="shared" si="54"/>
+        <v>236991.98263143119</v>
+      </c>
+      <c r="AN34" s="5">
+        <f t="shared" si="54"/>
+        <v>239361.90245774551</v>
+      </c>
+      <c r="AO34" s="5">
+        <f t="shared" si="54"/>
+        <v>241755.52148232298</v>
+      </c>
+      <c r="AP34" s="5">
+        <f t="shared" si="54"/>
+        <v>244173.0766971462</v>
+      </c>
+      <c r="AQ34" s="5">
+        <f t="shared" si="54"/>
+        <v>246614.80746411765</v>
+      </c>
+      <c r="AR34" s="5">
+        <f t="shared" si="54"/>
+        <v>249080.95553875883</v>
+      </c>
+      <c r="AS34" s="5">
+        <f t="shared" si="54"/>
+        <v>251571.76509414642</v>
+      </c>
+      <c r="AT34" s="5">
+        <f t="shared" si="54"/>
+        <v>254087.48274508788</v>
+      </c>
+      <c r="AU34" s="5">
+        <f t="shared" si="54"/>
+        <v>256628.35757253875</v>
+      </c>
+      <c r="AV34" s="5">
+        <f t="shared" si="54"/>
+        <v>259194.64114826414</v>
+      </c>
+      <c r="AW34" s="5">
+        <f t="shared" si="54"/>
+        <v>261786.58755974678</v>
+      </c>
+      <c r="AX34" s="5">
+        <f t="shared" si="54"/>
+        <v>264404.45343534427</v>
+      </c>
+      <c r="AY34" s="5">
+        <f t="shared" si="54"/>
+        <v>267048.4979696977</v>
+      </c>
+      <c r="AZ34" s="5">
+        <f t="shared" si="54"/>
+        <v>269718.98294939467</v>
+      </c>
+      <c r="BA34" s="5">
+        <f t="shared" si="54"/>
+        <v>272416.17277888861</v>
+      </c>
+      <c r="BB34" s="5">
+        <f t="shared" si="54"/>
+        <v>275140.33450667752</v>
+      </c>
+      <c r="BC34" s="5">
+        <f t="shared" si="54"/>
+        <v>277891.73785174428</v>
+      </c>
+      <c r="BD34" s="5">
+        <f t="shared" si="54"/>
+        <v>280670.65523026173</v>
+      </c>
+      <c r="BE34" s="5">
+        <f t="shared" si="54"/>
+        <v>283477.36178256437</v>
+      </c>
+      <c r="BF34" s="5">
+        <f t="shared" si="54"/>
+        <v>286312.13540039002</v>
+      </c>
+      <c r="BG34" s="5">
+        <f t="shared" ref="BG34:CL34" si="55">BF34*(1+$AC$97)</f>
+        <v>289175.25675439392</v>
+      </c>
+      <c r="BH34" s="5">
         <f t="shared" si="55"/>
-        <v>209651.36772568853</v>
-      </c>
-      <c r="AC34" s="5">
+        <v>292067.00932193786</v>
+      </c>
+      <c r="BI34" s="5">
         <f t="shared" si="55"/>
-        <v>211747.88140294541</v>
-      </c>
-      <c r="AD34" s="5">
+        <v>294987.67941515724</v>
+      </c>
+      <c r="BJ34" s="5">
         <f t="shared" si="55"/>
-        <v>213865.36021697486</v>
-      </c>
-      <c r="AE34" s="5">
+        <v>297937.55620930879</v>
+      </c>
+      <c r="BK34" s="5">
         <f t="shared" si="55"/>
-        <v>216004.0138191446</v>
-      </c>
-      <c r="AF34" s="5">
+        <v>300916.9317714019</v>
+      </c>
+      <c r="BL34" s="5">
         <f t="shared" si="55"/>
-        <v>218164.05395733606</v>
-      </c>
-      <c r="AG34" s="5">
+        <v>303926.10108911589</v>
+      </c>
+      <c r="BM34" s="5">
         <f t="shared" si="55"/>
-        <v>220345.69449690942</v>
-      </c>
-      <c r="AH34" s="5">
+        <v>306965.36210000707</v>
+      </c>
+      <c r="BN34" s="5">
         <f t="shared" si="55"/>
-        <v>222549.15144187852</v>
-      </c>
-      <c r="AI34" s="5">
+        <v>310035.01572100713</v>
+      </c>
+      <c r="BO34" s="5">
         <f t="shared" si="55"/>
-        <v>224774.64295629732</v>
-      </c>
-      <c r="AJ34" s="5">
+        <v>313135.36587821721</v>
+      </c>
+      <c r="BP34" s="5">
         <f t="shared" si="55"/>
-        <v>227022.3893858603</v>
-      </c>
-      <c r="AK34" s="5">
+        <v>316266.71953699942</v>
+      </c>
+      <c r="BQ34" s="5">
         <f t="shared" si="55"/>
-        <v>229292.61327971891</v>
-      </c>
-      <c r="AL34" s="5">
+        <v>319429.38673236943</v>
+      </c>
+      <c r="BR34" s="5">
         <f t="shared" si="55"/>
-        <v>231585.53941251611</v>
-      </c>
-      <c r="AM34" s="5">
+        <v>322623.68059969315</v>
+      </c>
+      <c r="BS34" s="5">
         <f t="shared" si="55"/>
-        <v>233901.39480664127</v>
-      </c>
-      <c r="AN34" s="5">
+        <v>325849.91740569007</v>
+      </c>
+      <c r="BT34" s="5">
         <f t="shared" si="55"/>
-        <v>236240.40875470769</v>
-      </c>
-      <c r="AO34" s="5">
+        <v>329108.41657974699</v>
+      </c>
+      <c r="BU34" s="5">
         <f t="shared" si="55"/>
-        <v>238602.81284225476</v>
-      </c>
-      <c r="AP34" s="5">
+        <v>332399.50074554444</v>
+      </c>
+      <c r="BV34" s="5">
         <f t="shared" si="55"/>
-        <v>240988.84097067732</v>
-      </c>
-      <c r="AQ34" s="5">
+        <v>335723.49575299991</v>
+      </c>
+      <c r="BW34" s="5">
         <f t="shared" si="55"/>
-        <v>243398.72938038409</v>
-      </c>
-      <c r="AR34" s="5">
+        <v>339080.7307105299</v>
+      </c>
+      <c r="BX34" s="5">
         <f t="shared" si="55"/>
-        <v>245832.71667418792</v>
-      </c>
-      <c r="AS34" s="5">
+        <v>342471.53801763518</v>
+      </c>
+      <c r="BY34" s="5">
         <f t="shared" si="55"/>
-        <v>248291.04384092981</v>
-      </c>
-      <c r="AT34" s="5">
+        <v>345896.25339781155</v>
+      </c>
+      <c r="BZ34" s="5">
         <f t="shared" si="55"/>
-        <v>250773.95427933912</v>
-      </c>
-      <c r="AU34" s="5">
+        <v>349355.21593178966</v>
+      </c>
+      <c r="CA34" s="5">
         <f t="shared" si="55"/>
-        <v>253281.69382213251</v>
-      </c>
-      <c r="AV34" s="5">
+        <v>352848.76809110754</v>
+      </c>
+      <c r="CB34" s="5">
         <f t="shared" si="55"/>
-        <v>255814.51076035385</v>
-      </c>
-      <c r="AW34" s="5">
+        <v>356377.25577201863</v>
+      </c>
+      <c r="CC34" s="5">
         <f t="shared" si="55"/>
-        <v>258372.65586795739</v>
-      </c>
-      <c r="AX34" s="5">
+        <v>359941.02832973882</v>
+      </c>
+      <c r="CD34" s="5">
         <f t="shared" si="55"/>
-        <v>260956.38242663696</v>
-      </c>
-      <c r="AY34" s="5">
+        <v>363540.43861303624</v>
+      </c>
+      <c r="CE34" s="5">
         <f t="shared" si="55"/>
-        <v>263565.94625090336</v>
-      </c>
-      <c r="AZ34" s="5">
+        <v>367175.84299916663</v>
+      </c>
+      <c r="CF34" s="5">
         <f t="shared" si="55"/>
-        <v>266201.6057134124</v>
-      </c>
-      <c r="BA34" s="5">
+        <v>370847.6014291583</v>
+      </c>
+      <c r="CG34" s="5">
         <f t="shared" si="55"/>
-        <v>268863.62177054654</v>
-      </c>
-      <c r="BB34" s="5">
+        <v>374556.07744344987</v>
+      </c>
+      <c r="CH34" s="5">
         <f t="shared" si="55"/>
-        <v>271552.25798825198</v>
-      </c>
-      <c r="BC34" s="5">
+        <v>378301.63821788435</v>
+      </c>
+      <c r="CI34" s="5">
         <f t="shared" si="55"/>
-        <v>274267.78056813451</v>
-      </c>
-      <c r="BD34" s="5">
+        <v>382084.65460006322</v>
+      </c>
+      <c r="CJ34" s="5">
         <f t="shared" si="55"/>
-        <v>277010.45837381587</v>
-      </c>
-      <c r="BE34" s="5">
+        <v>385905.50114606385</v>
+      </c>
+      <c r="CK34" s="5">
         <f t="shared" si="55"/>
-        <v>279780.56295755401</v>
-      </c>
-      <c r="BF34" s="5">
+        <v>389764.55615752446</v>
+      </c>
+      <c r="CL34" s="5">
         <f t="shared" si="55"/>
-        <v>282578.36858712957</v>
-      </c>
-      <c r="BG34" s="5">
-        <f t="shared" ref="BG34:CL34" si="56">BF34*(1+$AC$97)</f>
-        <v>285404.15227300086</v>
-      </c>
-      <c r="BH34" s="5">
+        <v>393662.20171909971</v>
+      </c>
+      <c r="CM34" s="5">
+        <f t="shared" ref="CM34:DR34" si="56">CL34*(1+$AC$97)</f>
+        <v>397598.82373629074</v>
+      </c>
+      <c r="CN34" s="5">
         <f t="shared" si="56"/>
-        <v>288258.19379573088</v>
-      </c>
-      <c r="BI34" s="5">
+        <v>401574.81197365368</v>
+      </c>
+      <c r="CO34" s="5">
         <f t="shared" si="56"/>
-        <v>291140.77573368821</v>
-      </c>
-      <c r="BJ34" s="5">
+        <v>405590.56009339023</v>
+      </c>
+      <c r="CP34" s="5">
         <f t="shared" si="56"/>
-        <v>294052.18349102506</v>
-      </c>
-      <c r="BK34" s="5">
+        <v>409646.46569432411</v>
+      </c>
+      <c r="CQ34" s="5">
         <f t="shared" si="56"/>
-        <v>296992.70532593533</v>
-      </c>
-      <c r="BL34" s="5">
+        <v>413742.93035126734</v>
+      </c>
+      <c r="CR34" s="5">
         <f t="shared" si="56"/>
-        <v>299962.63237919466</v>
-      </c>
-      <c r="BM34" s="5">
+        <v>417880.35965478001</v>
+      </c>
+      <c r="CS34" s="5">
         <f t="shared" si="56"/>
-        <v>302962.25870298664</v>
-      </c>
-      <c r="BN34" s="5">
+        <v>422059.16325132782</v>
+      </c>
+      <c r="CT34" s="5">
         <f t="shared" si="56"/>
-        <v>305991.88129001652</v>
-      </c>
-      <c r="BO34" s="5">
+        <v>426279.75488384109</v>
+      </c>
+      <c r="CU34" s="5">
         <f t="shared" si="56"/>
-        <v>309051.80010291666</v>
-      </c>
-      <c r="BP34" s="5">
+        <v>430542.55243267951</v>
+      </c>
+      <c r="CV34" s="5">
         <f t="shared" si="56"/>
-        <v>312142.31810394581</v>
-      </c>
-      <c r="BQ34" s="5">
+        <v>434847.97795700631</v>
+      </c>
+      <c r="CW34" s="5">
         <f t="shared" si="56"/>
-        <v>315263.74128498527</v>
-      </c>
-      <c r="BR34" s="5">
+        <v>439196.45773657638</v>
+      </c>
+      <c r="CX34" s="5">
         <f t="shared" si="56"/>
-        <v>318416.37869783514</v>
-      </c>
-      <c r="BS34" s="5">
+        <v>443588.42231394217</v>
+      </c>
+      <c r="CY34" s="5">
         <f t="shared" si="56"/>
-        <v>321600.54248481349</v>
-      </c>
-      <c r="BT34" s="5">
+        <v>448024.3065370816</v>
+      </c>
+      <c r="CZ34" s="5">
         <f t="shared" si="56"/>
-        <v>324816.5479096616</v>
-      </c>
-      <c r="BU34" s="5">
+        <v>452504.54960245243</v>
+      </c>
+      <c r="DA34" s="5">
         <f t="shared" si="56"/>
-        <v>328064.71338875825</v>
-      </c>
-      <c r="BV34" s="5">
+        <v>457029.59509847697</v>
+      </c>
+      <c r="DB34" s="5">
         <f t="shared" si="56"/>
-        <v>331345.36052264582</v>
-      </c>
-      <c r="BW34" s="5">
+        <v>461599.89104946173</v>
+      </c>
+      <c r="DC34" s="5">
         <f t="shared" si="56"/>
-        <v>334658.81412787229</v>
-      </c>
-      <c r="BX34" s="5">
+        <v>466215.88995995634</v>
+      </c>
+      <c r="DD34" s="5">
         <f t="shared" si="56"/>
-        <v>338005.402269151</v>
-      </c>
-      <c r="BY34" s="5">
+        <v>470878.04885955591</v>
+      </c>
+      <c r="DE34" s="5">
         <f t="shared" si="56"/>
-        <v>341385.45629184251</v>
-      </c>
-      <c r="BZ34" s="5">
+        <v>475586.82934815146</v>
+      </c>
+      <c r="DF34" s="5">
         <f t="shared" si="56"/>
-        <v>344799.31085476093</v>
-      </c>
-      <c r="CA34" s="5">
+        <v>480342.69764163299</v>
+      </c>
+      <c r="DG34" s="5">
         <f t="shared" si="56"/>
-        <v>348247.30396330851</v>
-      </c>
-      <c r="CB34" s="5">
+        <v>485146.1246180493</v>
+      </c>
+      <c r="DH34" s="5">
         <f t="shared" si="56"/>
-        <v>351729.77700294158</v>
-      </c>
-      <c r="CC34" s="5">
+        <v>489997.58586422983</v>
+      </c>
+      <c r="DI34" s="5">
         <f t="shared" si="56"/>
-        <v>355247.07477297098</v>
-      </c>
-      <c r="CD34" s="5">
+        <v>494897.56172287214</v>
+      </c>
+      <c r="DJ34" s="5">
         <f t="shared" si="56"/>
-        <v>358799.54552070069</v>
-      </c>
-      <c r="CE34" s="5">
+        <v>499846.53734010085</v>
+      </c>
+      <c r="DK34" s="5">
         <f t="shared" si="56"/>
-        <v>362387.5409759077</v>
-      </c>
-      <c r="CF34" s="5">
+        <v>504845.00271350186</v>
+      </c>
+      <c r="DL34" s="5">
         <f t="shared" si="56"/>
-        <v>366011.41638566676</v>
-      </c>
-      <c r="CG34" s="5">
+        <v>509893.45274063689</v>
+      </c>
+      <c r="DM34" s="5">
         <f t="shared" si="56"/>
-        <v>369671.53054952342</v>
-      </c>
-      <c r="CH34" s="5">
+        <v>514992.38726804324</v>
+      </c>
+      <c r="DN34" s="5">
         <f t="shared" si="56"/>
-        <v>373368.24585501867</v>
-      </c>
-      <c r="CI34" s="5">
+        <v>520142.3111407237</v>
+      </c>
+      <c r="DO34" s="5">
         <f t="shared" si="56"/>
-        <v>377101.92831356887</v>
-      </c>
-      <c r="CJ34" s="5">
+        <v>525343.73425213096</v>
+      </c>
+      <c r="DP34" s="5">
         <f t="shared" si="56"/>
-        <v>380872.94759670459</v>
-      </c>
-      <c r="CK34" s="5">
+        <v>530597.17159465223</v>
+      </c>
+      <c r="DQ34" s="5">
         <f t="shared" si="56"/>
-        <v>384681.67707267165</v>
-      </c>
-      <c r="CL34" s="5">
+        <v>535903.1433105988</v>
+      </c>
+      <c r="DR34" s="5">
         <f t="shared" si="56"/>
-        <v>388528.49384339835</v>
-      </c>
-      <c r="CM34" s="5">
-        <f t="shared" ref="CM34:DR34" si="57">CL34*(1+$AC$97)</f>
-        <v>392413.77878183231</v>
-      </c>
-      <c r="CN34" s="5">
+        <v>541262.17474370485</v>
+      </c>
+      <c r="DS34" s="5">
+        <f t="shared" ref="DS34:EX34" si="57">DR34*(1+$AC$97)</f>
+        <v>546674.7964911419</v>
+      </c>
+      <c r="DT34" s="5">
         <f t="shared" si="57"/>
-        <v>396337.91656965064</v>
-      </c>
-      <c r="CO34" s="5">
+        <v>552141.54445605329</v>
+      </c>
+      <c r="DU34" s="5">
         <f t="shared" si="57"/>
-        <v>400301.29573534714</v>
-      </c>
-      <c r="CP34" s="5">
+        <v>557662.95990061387</v>
+      </c>
+      <c r="DV34" s="5">
         <f t="shared" si="57"/>
-        <v>404304.30869270064</v>
-      </c>
-      <c r="CQ34" s="5">
+        <v>563239.58949962002</v>
+      </c>
+      <c r="DW34" s="5">
         <f t="shared" si="57"/>
-        <v>408347.35177962767</v>
-      </c>
-      <c r="CR34" s="5">
+        <v>568871.98539461626</v>
+      </c>
+      <c r="DX34" s="5">
         <f t="shared" si="57"/>
-        <v>412430.82529742393</v>
-      </c>
-      <c r="CS34" s="5">
+        <v>574560.70524856239</v>
+      </c>
+      <c r="DY34" s="5">
         <f t="shared" si="57"/>
-        <v>416555.13355039817</v>
-      </c>
-      <c r="CT34" s="5">
+        <v>580306.31230104796</v>
+      </c>
+      <c r="DZ34" s="5">
         <f t="shared" si="57"/>
-        <v>420720.68488590216</v>
-      </c>
-      <c r="CU34" s="5">
+        <v>586109.37542405841</v>
+      </c>
+      <c r="EA34" s="5">
         <f t="shared" si="57"/>
-        <v>424927.89173476119</v>
-      </c>
-      <c r="CV34" s="5">
+        <v>591970.46917829895</v>
+      </c>
+      <c r="EB34" s="5">
         <f t="shared" si="57"/>
-        <v>429177.17065210879</v>
-      </c>
-      <c r="CW34" s="5">
+        <v>597890.1738700819</v>
+      </c>
+      <c r="EC34" s="5">
         <f t="shared" si="57"/>
-        <v>433468.94235862989</v>
-      </c>
-      <c r="CX34" s="5">
+        <v>603869.0756087827</v>
+      </c>
+      <c r="ED34" s="5">
         <f t="shared" si="57"/>
-        <v>437803.63178221619</v>
-      </c>
-      <c r="CY34" s="5">
+        <v>609907.76636487059</v>
+      </c>
+      <c r="EE34" s="5">
         <f t="shared" si="57"/>
-        <v>442181.66810003837</v>
-      </c>
-      <c r="CZ34" s="5">
+        <v>616006.84402851935</v>
+      </c>
+      <c r="EF34" s="5">
         <f t="shared" si="57"/>
-        <v>446603.48478103877</v>
-      </c>
-      <c r="DA34" s="5">
+        <v>622166.91246880451</v>
+      </c>
+      <c r="EG34" s="5">
         <f t="shared" si="57"/>
-        <v>451069.51962884917</v>
-      </c>
-      <c r="DB34" s="5">
+        <v>628388.58159349253</v>
+      </c>
+      <c r="EH34" s="5">
         <f t="shared" si="57"/>
-        <v>455580.21482513769</v>
-      </c>
-      <c r="DC34" s="5">
+        <v>634672.46740942751</v>
+      </c>
+      <c r="EI34" s="5">
         <f t="shared" si="57"/>
-        <v>460136.01697338908</v>
-      </c>
-      <c r="DD34" s="5">
+        <v>641019.19208352175</v>
+      </c>
+      <c r="EJ34" s="5">
         <f t="shared" si="57"/>
-        <v>464737.37714312295</v>
-      </c>
-      <c r="DE34" s="5">
+        <v>647429.38400435692</v>
+      </c>
+      <c r="EK34" s="5">
         <f t="shared" si="57"/>
-        <v>469384.75091455417</v>
-      </c>
-      <c r="DF34" s="5">
+        <v>653903.67784440052</v>
+      </c>
+      <c r="EL34" s="5">
         <f t="shared" si="57"/>
-        <v>474078.59842369973</v>
-      </c>
-      <c r="DG34" s="5">
+        <v>660442.71462284448</v>
+      </c>
+      <c r="EM34" s="5">
         <f t="shared" si="57"/>
-        <v>478819.38440793671</v>
-      </c>
-      <c r="DH34" s="5">
+        <v>667047.14176907297</v>
+      </c>
+      <c r="EN34" s="5">
         <f t="shared" si="57"/>
-        <v>483607.5782520161</v>
-      </c>
-      <c r="DI34" s="5">
+        <v>673717.61318676372</v>
+      </c>
+      <c r="EO34" s="5">
         <f t="shared" si="57"/>
-        <v>488443.65403453627</v>
-      </c>
-      <c r="DJ34" s="5">
+        <v>680454.7893186314</v>
+      </c>
+      <c r="EP34" s="5">
         <f t="shared" si="57"/>
-        <v>493328.09057488164</v>
-      </c>
-      <c r="DK34" s="5">
+        <v>687259.33721181774</v>
+      </c>
+      <c r="EQ34" s="5">
         <f t="shared" si="57"/>
-        <v>498261.37148063048</v>
-      </c>
-      <c r="DL34" s="5">
+        <v>694131.93058393593</v>
+      </c>
+      <c r="ER34" s="5">
         <f t="shared" si="57"/>
-        <v>503243.98519543681</v>
-      </c>
-      <c r="DM34" s="5">
+        <v>701073.2498897753</v>
+      </c>
+      <c r="ES34" s="5">
         <f t="shared" si="57"/>
-        <v>508276.42504739115</v>
-      </c>
-      <c r="DN34" s="5">
+        <v>708083.982388673</v>
+      </c>
+      <c r="ET34" s="5">
         <f t="shared" si="57"/>
-        <v>513359.18929786509</v>
-      </c>
-      <c r="DO34" s="5">
+        <v>715164.82221255975</v>
+      </c>
+      <c r="EU34" s="5">
         <f t="shared" si="57"/>
-        <v>518492.78119084373</v>
-      </c>
-      <c r="DP34" s="5">
+        <v>722316.47043468535</v>
+      </c>
+      <c r="EV34" s="5">
         <f t="shared" si="57"/>
-        <v>523677.70900275215</v>
-      </c>
-      <c r="DQ34" s="5">
+        <v>729539.63513903227</v>
+      </c>
+      <c r="EW34" s="5">
         <f t="shared" si="57"/>
-        <v>528914.48609277967</v>
-      </c>
-      <c r="DR34" s="5">
+        <v>736835.03149042255</v>
+      </c>
+      <c r="EX34" s="5">
         <f t="shared" si="57"/>
-        <v>534203.6309537075</v>
-      </c>
-      <c r="DS34" s="5">
-        <f t="shared" ref="DS34:EX34" si="58">DR34*(1+$AC$97)</f>
-        <v>539545.66726324463</v>
-      </c>
-      <c r="DT34" s="5">
+        <v>744203.38180532679</v>
+      </c>
+      <c r="EY34" s="5">
+        <f t="shared" ref="EY34:GD34" si="58">EX34*(1+$AC$97)</f>
+        <v>751645.4156233801</v>
+      </c>
+      <c r="EZ34" s="5">
         <f t="shared" si="58"/>
-        <v>544941.12393587711</v>
-      </c>
-      <c r="DU34" s="5">
+        <v>759161.86977961392</v>
+      </c>
+      <c r="FA34" s="5">
         <f t="shared" si="58"/>
-        <v>550390.53517523594</v>
-      </c>
-      <c r="DV34" s="5">
+        <v>766753.48847741005</v>
+      </c>
+      <c r="FB34" s="5">
         <f t="shared" si="58"/>
-        <v>555894.44052698836</v>
-      </c>
-      <c r="DW34" s="5">
+        <v>774421.02336218418</v>
+      </c>
+      <c r="FC34" s="5">
         <f t="shared" si="58"/>
-        <v>561453.38493225828</v>
-      </c>
-      <c r="DX34" s="5">
+        <v>782165.23359580606</v>
+      </c>
+      <c r="FD34" s="5">
         <f t="shared" si="58"/>
-        <v>567067.91878158087</v>
-      </c>
-      <c r="DY34" s="5">
+        <v>789986.88593176415</v>
+      </c>
+      <c r="FE34" s="5">
         <f t="shared" si="58"/>
-        <v>572738.59796939674</v>
-      </c>
-      <c r="DZ34" s="5">
+        <v>797886.75479108177</v>
+      </c>
+      <c r="FF34" s="5">
         <f t="shared" si="58"/>
-        <v>578465.9839490907</v>
-      </c>
-      <c r="EA34" s="5">
+        <v>805865.62233899254</v>
+      </c>
+      <c r="FG34" s="5">
         <f t="shared" si="58"/>
-        <v>584250.6437885816</v>
-      </c>
-      <c r="EB34" s="5">
+        <v>813924.27856238245</v>
+      </c>
+      <c r="FH34" s="5">
         <f t="shared" si="58"/>
-        <v>590093.15022646741</v>
-      </c>
-      <c r="EC34" s="5">
+        <v>822063.52134800632</v>
+      </c>
+      <c r="FI34" s="5">
         <f t="shared" si="58"/>
-        <v>595994.0817287321</v>
-      </c>
-      <c r="ED34" s="5">
+        <v>830284.15656148642</v>
+      </c>
+      <c r="FJ34" s="5">
         <f t="shared" si="58"/>
-        <v>601954.02254601941</v>
-      </c>
-      <c r="EE34" s="5">
+        <v>838586.99812710134</v>
+      </c>
+      <c r="FK34" s="5">
         <f t="shared" si="58"/>
-        <v>607973.5627714796</v>
-      </c>
-      <c r="EF34" s="5">
+        <v>846972.86810837232</v>
+      </c>
+      <c r="FL34" s="5">
         <f t="shared" si="58"/>
-        <v>614053.29839919438</v>
-      </c>
-      <c r="EG34" s="5">
+        <v>855442.59678945609</v>
+      </c>
+      <c r="FM34" s="5">
         <f t="shared" si="58"/>
-        <v>620193.83138318628</v>
-      </c>
-      <c r="EH34" s="5">
+        <v>863997.0227573507</v>
+      </c>
+      <c r="FN34" s="5">
         <f t="shared" si="58"/>
-        <v>626395.7696970182</v>
-      </c>
-      <c r="EI34" s="5">
+        <v>872636.99298492423</v>
+      </c>
+      <c r="FO34" s="5">
         <f t="shared" si="58"/>
-        <v>632659.7273939884</v>
-      </c>
-      <c r="EJ34" s="5">
+        <v>881363.36291477352</v>
+      </c>
+      <c r="FP34" s="5">
         <f t="shared" si="58"/>
-        <v>638986.32466792827</v>
-      </c>
-      <c r="EK34" s="5">
+        <v>890176.9965439213</v>
+      </c>
+      <c r="FQ34" s="5">
         <f t="shared" si="58"/>
-        <v>645376.18791460758</v>
-      </c>
-      <c r="EL34" s="5">
+        <v>899078.76650936052</v>
+      </c>
+      <c r="FR34" s="5">
         <f t="shared" si="58"/>
-        <v>651829.94979375368</v>
-      </c>
-      <c r="EM34" s="5">
+        <v>908069.55417445418</v>
+      </c>
+      <c r="FS34" s="5">
         <f t="shared" si="58"/>
-        <v>658348.24929169123</v>
-      </c>
-      <c r="EN34" s="5">
+        <v>917150.24971619877</v>
+      </c>
+      <c r="FT34" s="5">
         <f t="shared" si="58"/>
-        <v>664931.7317846081</v>
-      </c>
-      <c r="EO34" s="5">
+        <v>926321.75221336074</v>
+      </c>
+      <c r="FU34" s="5">
         <f t="shared" si="58"/>
-        <v>671581.04910245421</v>
-      </c>
-      <c r="EP34" s="5">
+        <v>935584.96973549435</v>
+      </c>
+      <c r="FV34" s="5">
         <f t="shared" si="58"/>
-        <v>678296.85959347873</v>
-      </c>
-      <c r="EQ34" s="5">
+        <v>944940.8194328493</v>
+      </c>
+      <c r="FW34" s="5">
         <f t="shared" si="58"/>
-        <v>685079.82818941353</v>
-      </c>
-      <c r="ER34" s="5">
+        <v>954390.22762717784</v>
+      </c>
+      <c r="FX34" s="5">
         <f t="shared" si="58"/>
-        <v>691930.62647130771</v>
-      </c>
-      <c r="ES34" s="5">
+        <v>963934.12990344968</v>
+      </c>
+      <c r="FY34" s="5">
         <f t="shared" si="58"/>
-        <v>698849.93273602077</v>
-      </c>
-      <c r="ET34" s="5">
+        <v>973573.47120248422</v>
+      </c>
+      <c r="FZ34" s="5">
         <f t="shared" si="58"/>
-        <v>705838.43206338095</v>
-      </c>
-      <c r="EU34" s="5">
+        <v>983309.20591450902</v>
+      </c>
+      <c r="GA34" s="5">
         <f t="shared" si="58"/>
-        <v>712896.81638401479</v>
-      </c>
-      <c r="EV34" s="5">
+        <v>993142.29797365412</v>
+      </c>
+      <c r="GB34" s="5">
         <f t="shared" si="58"/>
-        <v>720025.78454785491</v>
-      </c>
-      <c r="EW34" s="5">
+        <v>1003073.7209533907</v>
+      </c>
+      <c r="GC34" s="5">
         <f t="shared" si="58"/>
-        <v>727226.04239333351</v>
-      </c>
-      <c r="EX34" s="5">
+        <v>1013104.4581629246</v>
+      </c>
+      <c r="GD34" s="5">
         <f t="shared" si="58"/>
-        <v>734498.3028172669</v>
-      </c>
-      <c r="EY34" s="5">
-        <f t="shared" ref="EY34:GD34" si="59">EX34*(1+$AC$97)</f>
-        <v>741843.28584543953</v>
-      </c>
-      <c r="EZ34" s="5">
+        <v>1023235.5027445538</v>
+      </c>
+      <c r="GE34" s="5">
+        <f t="shared" ref="GE34:HL34" si="59">GD34*(1+$AC$97)</f>
+        <v>1033467.8577719994</v>
+      </c>
+      <c r="GF34" s="5">
         <f t="shared" si="59"/>
-        <v>749261.71870389394</v>
-      </c>
-      <c r="FA34" s="5">
+        <v>1043802.5363497194</v>
+      </c>
+      <c r="GG34" s="5">
         <f t="shared" si="59"/>
-        <v>756754.33589093294</v>
-      </c>
-      <c r="FB34" s="5">
+        <v>1054240.5617132166</v>
+      </c>
+      <c r="GH34" s="5">
         <f t="shared" si="59"/>
-        <v>764321.87924984226</v>
-      </c>
-      <c r="FC34" s="5">
+        <v>1064782.9673303487</v>
+      </c>
+      <c r="GI34" s="5">
         <f t="shared" si="59"/>
-        <v>771965.09804234072</v>
-      </c>
-      <c r="FD34" s="5">
+        <v>1075430.7970036522</v>
+      </c>
+      <c r="GJ34" s="5">
         <f t="shared" si="59"/>
-        <v>779684.74902276415</v>
-      </c>
-      <c r="FE34" s="5">
+        <v>1086185.1049736887</v>
+      </c>
+      <c r="GK34" s="5">
         <f t="shared" si="59"/>
-        <v>787481.59651299182</v>
-      </c>
-      <c r="FF34" s="5">
+        <v>1097046.9560234256</v>
+      </c>
+      <c r="GL34" s="5">
         <f t="shared" si="59"/>
-        <v>795356.4124781217</v>
-      </c>
-      <c r="FG34" s="5">
+        <v>1108017.4255836599</v>
+      </c>
+      <c r="GM34" s="5">
         <f t="shared" si="59"/>
-        <v>803309.97660290287</v>
-      </c>
-      <c r="FH34" s="5">
+        <v>1119097.5998394964</v>
+      </c>
+      <c r="GN34" s="5">
         <f t="shared" si="59"/>
-        <v>811343.07636893191</v>
-      </c>
-      <c r="FI34" s="5">
+        <v>1130288.5758378913</v>
+      </c>
+      <c r="GO34" s="5">
         <f t="shared" si="59"/>
-        <v>819456.50713262125</v>
-      </c>
-      <c r="FJ34" s="5">
+        <v>1141591.4615962703</v>
+      </c>
+      <c r="GP34" s="5">
         <f t="shared" si="59"/>
-        <v>827651.07220394746</v>
-      </c>
-      <c r="FK34" s="5">
+        <v>1153007.376212233</v>
+      </c>
+      <c r="GQ34" s="5">
         <f t="shared" si="59"/>
-        <v>835927.58292598696</v>
-      </c>
-      <c r="FL34" s="5">
+        <v>1164537.4499743553</v>
+      </c>
+      <c r="GR34" s="5">
         <f t="shared" si="59"/>
-        <v>844286.85875524685</v>
-      </c>
-      <c r="FM34" s="5">
+        <v>1176182.8244740989</v>
+      </c>
+      <c r="GS34" s="5">
         <f t="shared" si="59"/>
-        <v>852729.72734279931</v>
-      </c>
-      <c r="FN34" s="5">
+        <v>1187944.6527188399</v>
+      </c>
+      <c r="GT34" s="5">
         <f t="shared" si="59"/>
-        <v>861257.02461622725</v>
-      </c>
-      <c r="FO34" s="5">
+        <v>1199824.0992460283</v>
+      </c>
+      <c r="GU34" s="5">
         <f t="shared" si="59"/>
-        <v>869869.59486238949</v>
-      </c>
-      <c r="FP34" s="5">
+        <v>1211822.3402384887</v>
+      </c>
+      <c r="GV34" s="5">
         <f t="shared" si="59"/>
-        <v>878568.29081101343</v>
-      </c>
-      <c r="FQ34" s="5">
+        <v>1223940.5636408736</v>
+      </c>
+      <c r="GW34" s="5">
         <f t="shared" si="59"/>
-        <v>887353.97371912352</v>
-      </c>
-      <c r="FR34" s="5">
+        <v>1236179.9692772825</v>
+      </c>
+      <c r="GX34" s="5">
         <f t="shared" si="59"/>
-        <v>896227.5134563148</v>
-      </c>
-      <c r="FS34" s="5">
+        <v>1248541.7689700553</v>
+      </c>
+      <c r="GY34" s="5">
         <f t="shared" si="59"/>
-        <v>905189.78859087802</v>
-      </c>
-      <c r="FT34" s="5">
+        <v>1261027.1866597559</v>
+      </c>
+      <c r="GZ34" s="5">
         <f t="shared" si="59"/>
-        <v>914241.68647678685</v>
-      </c>
-      <c r="FU34" s="5">
+        <v>1273637.4585263534</v>
+      </c>
+      <c r="HA34" s="5">
         <f t="shared" si="59"/>
-        <v>923384.10334155476</v>
-      </c>
-      <c r="FV34" s="5">
+        <v>1286373.8331116168</v>
+      </c>
+      <c r="HB34" s="5">
         <f t="shared" si="59"/>
-        <v>932617.94437497028</v>
-      </c>
-      <c r="FW34" s="5">
+        <v>1299237.5714427331</v>
+      </c>
+      <c r="HC34" s="5">
         <f t="shared" si="59"/>
-        <v>941944.12381871999</v>
-      </c>
-      <c r="FX34" s="5">
+        <v>1312229.9471571604</v>
+      </c>
+      <c r="HD34" s="5">
         <f t="shared" si="59"/>
-        <v>951363.56505690725</v>
-      </c>
-      <c r="FY34" s="5">
+        <v>1325352.246628732</v>
+      </c>
+      <c r="HE34" s="5">
         <f t="shared" si="59"/>
-        <v>960877.20070747635</v>
-      </c>
-      <c r="FZ34" s="5">
+        <v>1338605.7690950192</v>
+      </c>
+      <c r="HF34" s="5">
         <f t="shared" si="59"/>
-        <v>970485.97271455114</v>
-      </c>
-      <c r="GA34" s="5">
+        <v>1351991.8267859693</v>
+      </c>
+      <c r="HG34" s="5">
         <f t="shared" si="59"/>
-        <v>980190.83244169666</v>
-      </c>
-      <c r="GB34" s="5">
+        <v>1365511.7450538289</v>
+      </c>
+      <c r="HH34" s="5">
         <f t="shared" si="59"/>
-        <v>989992.74076611362</v>
-      </c>
-      <c r="GC34" s="5">
+        <v>1379166.8625043673</v>
+      </c>
+      <c r="HI34" s="5">
         <f t="shared" si="59"/>
-        <v>999892.66817377473</v>
-      </c>
-      <c r="GD34" s="5">
+        <v>1392958.531129411</v>
+      </c>
+      <c r="HJ34" s="5">
         <f t="shared" si="59"/>
-        <v>1009891.5948555125</v>
-      </c>
-      <c r="GE34" s="5">
-        <f t="shared" ref="GE34:HL34" si="60">GD34*(1+$AC$97)</f>
-        <v>1019990.5108040676</v>
-      </c>
-      <c r="GF34" s="5">
-        <f t="shared" si="60"/>
-        <v>1030190.4159121083</v>
-      </c>
-      <c r="GG34" s="5">
-        <f t="shared" si="60"/>
-        <v>1040492.3200712294</v>
-      </c>
-      <c r="GH34" s="5">
-        <f t="shared" si="60"/>
-        <v>1050897.2432719416</v>
-      </c>
-      <c r="GI34" s="5">
-        <f t="shared" si="60"/>
-        <v>1061406.2157046609</v>
-      </c>
-      <c r="GJ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1072020.2778617074</v>
-      </c>
-      <c r="GK34" s="5">
-        <f t="shared" si="60"/>
-        <v>1082740.4806403245</v>
-      </c>
-      <c r="GL34" s="5">
-        <f t="shared" si="60"/>
-        <v>1093567.8854467277</v>
-      </c>
-      <c r="GM34" s="5">
-        <f t="shared" si="60"/>
-        <v>1104503.5643011951</v>
-      </c>
-      <c r="GN34" s="5">
-        <f t="shared" si="60"/>
-        <v>1115548.5999442071</v>
-      </c>
-      <c r="GO34" s="5">
-        <f t="shared" si="60"/>
-        <v>1126704.0859436493</v>
-      </c>
-      <c r="GP34" s="5">
-        <f t="shared" si="60"/>
-        <v>1137971.1268030859</v>
-      </c>
-      <c r="GQ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1149350.8380711167</v>
-      </c>
-      <c r="GR34" s="5">
-        <f t="shared" si="60"/>
-        <v>1160844.3464518278</v>
-      </c>
-      <c r="GS34" s="5">
-        <f t="shared" si="60"/>
-        <v>1172452.7899163461</v>
-      </c>
-      <c r="GT34" s="5">
-        <f t="shared" si="60"/>
-        <v>1184177.3178155096</v>
-      </c>
-      <c r="GU34" s="5">
-        <f t="shared" si="60"/>
-        <v>1196019.0909936647</v>
-      </c>
-      <c r="GV34" s="5">
-        <f t="shared" si="60"/>
-        <v>1207979.2819036013</v>
-      </c>
-      <c r="GW34" s="5">
-        <f t="shared" si="60"/>
-        <v>1220059.0747226372</v>
-      </c>
-      <c r="GX34" s="5">
-        <f t="shared" si="60"/>
-        <v>1232259.6654698637</v>
-      </c>
-      <c r="GY34" s="5">
-        <f t="shared" si="60"/>
-        <v>1244582.2621245624</v>
-      </c>
-      <c r="GZ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1257028.084745808</v>
-      </c>
-      <c r="HA34" s="5">
-        <f t="shared" si="60"/>
-        <v>1269598.3655932662</v>
-      </c>
-      <c r="HB34" s="5">
-        <f t="shared" si="60"/>
-        <v>1282294.3492491988</v>
-      </c>
-      <c r="HC34" s="5">
-        <f t="shared" si="60"/>
-        <v>1295117.2927416908</v>
-      </c>
-      <c r="HD34" s="5">
-        <f t="shared" si="60"/>
-        <v>1308068.4656691076</v>
-      </c>
-      <c r="HE34" s="5">
-        <f t="shared" si="60"/>
-        <v>1321149.1503257987</v>
-      </c>
-      <c r="HF34" s="5">
-        <f t="shared" si="60"/>
-        <v>1334360.6418290567</v>
-      </c>
-      <c r="HG34" s="5">
-        <f t="shared" si="60"/>
-        <v>1347704.2482473473</v>
-      </c>
-      <c r="HH34" s="5">
-        <f t="shared" si="60"/>
-        <v>1361181.2907298207</v>
-      </c>
-      <c r="HI34" s="5">
-        <f t="shared" si="60"/>
-        <v>1374793.1036371191</v>
-      </c>
-      <c r="HJ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1388541.0346734903</v>
+        <v>1406888.116440705</v>
       </c>
       <c r="HK34" s="5">
-        <f t="shared" si="60"/>
-        <v>1402426.4450202251</v>
+        <f t="shared" si="59"/>
+        <v>1420956.9976051121</v>
       </c>
       <c r="HL34" s="5">
-        <f t="shared" si="60"/>
-        <v>1416450.7094704274</v>
+        <f t="shared" si="59"/>
+        <v>1435166.5675811633</v>
       </c>
     </row>
     <row r="35" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4191,19 +4244,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" ref="C35:F35" si="61">C34/C36</f>
+        <f t="shared" ref="C35:F35" si="60">C34/C36</f>
         <v>1.439047320589157</v>
       </c>
       <c r="D35" s="8" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="8" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="8">
@@ -4219,20 +4272,20 @@
         <v>2.1662040816326531</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:M35" si="62">J34/J36</f>
-        <v>2.0318228842355697</v>
+        <f t="shared" ref="J35:M35" si="61">J34/J36</f>
+        <v>2.1077580033561749</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="62"/>
-        <v>2.1619924177463798</v>
+        <f t="shared" si="61"/>
+        <v>2.0848214741090025</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="62"/>
-        <v>2.3998115836984821</v>
+        <f t="shared" si="61"/>
+        <v>2.2226394799812734</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="62"/>
-        <v>2.6637908579053149</v>
+        <f t="shared" si="61"/>
+        <v>2.3720868988562129</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -4242,28 +4295,28 @@
       <c r="S35" s="8"/>
       <c r="T35" s="3"/>
       <c r="U35" s="8">
-        <f t="shared" ref="U35" si="63">U34/U36</f>
+        <f t="shared" ref="U35" si="62">U34/U36</f>
         <v>8.1732244897959188</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" ref="V35" si="64">V34/V36</f>
-        <v>9.6937448690029449</v>
+        <f t="shared" ref="V35" si="63">V34/V36</f>
+        <v>9.06389590899248</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ref="W35" si="65">W34/W36</f>
-        <v>10.256331543014184</v>
+        <f t="shared" ref="W35" si="64">W34/W36</f>
+        <v>10.391695268572821</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" ref="X35" si="66">X34/X36</f>
-        <v>11.720563539307806</v>
+        <f t="shared" ref="X35" si="65">X34/X36</f>
+        <v>11.875925889426961</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" ref="Y35" si="67">Y34/Y36</f>
-        <v>13.359415214620743</v>
+        <f t="shared" ref="Y35" si="66">Y34/Y36</f>
+        <v>13.536538984179616</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" ref="Z35" si="68">Z34/Z36</f>
-        <v>15.195605318577197</v>
+        <f t="shared" ref="Z35" si="67">Z34/Z36</f>
+        <v>15.396388015177751</v>
       </c>
     </row>
     <row r="36" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4304,19 +4357,19 @@
         <v>12495</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" ref="W36:Z36" si="69">V36*1.02</f>
+        <f t="shared" ref="W36:Z36" si="68">V36*1.02</f>
         <v>12744.9</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>12999.798000000001</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>13259.793960000001</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>13524.989839200001</v>
       </c>
     </row>
@@ -4338,79 +4391,79 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6">
-        <f t="shared" ref="F38:M38" si="70">F22/B22-1</f>
+        <f t="shared" ref="F38:M38" si="69">F22/B22-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.1356649573498554</v>
+        <f t="shared" si="69"/>
+        <v>0.14138640906889832</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.19806595548842387</v>
+        <f t="shared" si="69"/>
+        <v>0.15530175355785802</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.27673019409072408</v>
+        <f t="shared" si="69"/>
+        <v>0.18247238822676404</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.29669434799697347</v>
+        <f t="shared" si="69"/>
+        <v>0.15469713606692337</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38:Z38" si="71">Q22/P22-1</f>
+        <f t="shared" ref="Q38:Z38" si="70">Q22/P22-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>8.6827702272695095E-2</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.13866243322901561</v>
       </c>
       <c r="V38" s="6">
-        <f t="shared" si="71"/>
-        <v>0.23072828548508961</v>
+        <f t="shared" si="70"/>
+        <v>0.15878512528852817</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" si="71"/>
-        <v>2.7051234063806939E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.10675137358548104</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="71"/>
-        <v>0.10881027639699359</v>
+        <f t="shared" si="70"/>
+        <v>0.10860083296397671</v>
       </c>
       <c r="Y38" s="6">
-        <f t="shared" si="71"/>
-        <v>0.11076028557626927</v>
+        <f t="shared" si="70"/>
+        <v>0.11052330422947776</v>
       </c>
       <c r="Z38" s="6">
-        <f t="shared" si="71"/>
-        <v>0.11278369379364128</v>
+        <f t="shared" si="70"/>
+        <v>0.11251955432263205</v>
       </c>
     </row>
     <row r="39" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4418,48 +4471,48 @@
         <v>44</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" ref="C39:M39" si="72">C22/B22-1</f>
+        <f t="shared" ref="C39:M39" si="71">C22/B22-1</f>
         <v>6.9024316849843004E-2</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>2.8001179561417677E-2</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.12539605961430644</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-6.6863631097207721E-2</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>5.218589751548941E-2</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>4.1608647423945655E-2</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>9.2910227942176071E-2</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="72"/>
-        <v>-5.1868268562958009E-2</v>
+        <f t="shared" si="71"/>
+        <v>-4.709160455690431E-2</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="72"/>
-        <v>0.1100000000000001</v>
+        <f t="shared" si="71"/>
+        <v>6.5013743645440547E-2</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="72"/>
-        <v>0.1100000000000001</v>
+        <f t="shared" si="71"/>
+        <v>6.6105423214316783E-2</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="72"/>
-        <v>0.1100000000000001</v>
+        <f t="shared" si="71"/>
+        <v>6.7238713350038726E-2</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -4479,35 +4532,35 @@
         <v>32</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" ref="B40:I40" si="73">B33/B32</f>
+        <f t="shared" ref="B40:I40" si="72">B33/B32</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.16432986049796927</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.14271714275343908</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.17047246577934777</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.17699965884067859</v>
       </c>
       <c r="J40" s="3">
@@ -4525,27 +4578,27 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3">
-        <f t="shared" ref="P40:U40" si="74">P33/P32</f>
+        <f t="shared" ref="P40:U40" si="73">P33/P32</f>
         <v>0.13329968454258675</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.18676474324770689</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.15173298415328293</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.13879413716427816</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.16438962101169263</v>
       </c>
       <c r="V40" s="3">
@@ -4596,98 +4649,98 @@
         <v>45</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" ref="B42:M42" si="75">B34/B22</f>
+        <f t="shared" ref="B42:M42" si="74">B34/B22</f>
         <v>0.21567054035851949</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.2462066377137955</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.25672486406842865</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.23968253968253969</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.29379555246526529</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.27871657501593072</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.29796755336022113</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.27507282132083882</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="75"/>
-        <v>0.27212314275930732</v>
+        <f t="shared" si="74"/>
+        <v>0.28087811756999148</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="75"/>
-        <v>0.26086199919145003</v>
+        <f t="shared" si="74"/>
+        <v>0.26086199919145009</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.26086199919145009</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="75"/>
-        <v>0.26086199919145003</v>
+        <f t="shared" si="74"/>
+        <v>0.26086199919145009</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3">
-        <f t="shared" ref="P42:Z42" si="76">P34/P22</f>
+        <f t="shared" ref="P42:Z42" si="75">P34/P22</f>
         <v>0.21218112284300339</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0.22061941520980458</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0.24846198333313926</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0.2244622325305124</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0.24065206217427795</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0.28604814609534368</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.28117408131779065</v>
+        <f t="shared" si="75"/>
+        <v>0.27922730144932834</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.29544987722236798</v>
+        <f t="shared" si="75"/>
+        <v>0.29503903212146759</v>
       </c>
       <c r="X42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.31058693691243</v>
+        <f t="shared" si="75"/>
+        <v>0.31023123507771877</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.32508877079947096</v>
+        <f t="shared" si="75"/>
+        <v>0.32478665511201288</v>
       </c>
       <c r="Z42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.33893931227760793</v>
+        <f t="shared" si="75"/>
+        <v>0.33868963370780447</v>
       </c>
     </row>
     <row r="43" spans="1:220" x14ac:dyDescent="0.25">
@@ -4695,35 +4748,35 @@
         <v>18</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:I43" si="77">B24/B22</f>
+        <f t="shared" ref="B43:I43" si="76">B24/B22</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.58142018152696207</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.58099879634655782</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.58678116644763678</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0.5790046543449191</v>
       </c>
       <c r="J43" s="6">
@@ -4741,27 +4794,27 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:U43" si="78">P24/P22</f>
+        <f t="shared" ref="P43:U43" si="77">P24/P22</f>
         <v>0.5558054331910266</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0.5693980290098084</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0.55379442503783116</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0.56625047984020505</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0.58201578204549476</v>
       </c>
       <c r="V43" s="6">
@@ -4785,98 +4838,98 @@
         <v>19</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:M44" si="79">B29/B22</f>
+        <f t="shared" ref="B44:M44" si="78">B29/B22</f>
         <v>0.24954504420594092</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.29271888906761029</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.27829136948613303</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.27455683003128256</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.31626913669154072</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.32362936914398999</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.32311823084243441</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.32105650519856122</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="79"/>
-        <v>0.32205185085364213</v>
+        <f t="shared" si="78"/>
+        <v>0.32205185085364207</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.32205185085364207</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>0.32205185085364207</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="79"/>
-        <v>0.32205185085364202</v>
+        <f t="shared" si="78"/>
+        <v>0.32205185085364207</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3">
-        <f t="shared" ref="P44:Z44" si="80">P29/P22</f>
+        <f t="shared" ref="P44:Z44" si="79">P29/P22</f>
         <v>0.21148915400631421</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0.22585151785763202</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0.3055228868524319</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0.26461270842467011</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0.27480367216015927</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0.32110920009828064</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.33160668445464719</v>
+        <f t="shared" si="79"/>
+        <v>0.32823958107401585</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.33317768622230792</v>
+        <f t="shared" si="79"/>
+        <v>0.33417702439845415</v>
       </c>
       <c r="X44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.33894363045245351</v>
+        <f t="shared" si="79"/>
+        <v>0.3398777651775553</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.34447723884092907</v>
+        <f t="shared" si="79"/>
+        <v>0.34534836489893422</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.34978469803354661</v>
+        <f t="shared" si="79"/>
+        <v>0.35059510594387805</v>
       </c>
     </row>
     <row r="45" spans="1:220" x14ac:dyDescent="0.25">
@@ -4909,40 +4962,40 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" ref="R45:Z45" si="81">R103/R22</f>
+        <f t="shared" ref="R45:Z45" si="80">R103/R22</f>
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.21217242500954617</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.22607793255561268</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.20354381774651589</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.16325763325529391</v>
+        <f t="shared" si="80"/>
+        <v>0.15399001216473063</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.1988594200599999</v>
+        <f t="shared" si="80"/>
+        <v>0.19983934283990704</v>
       </c>
       <c r="X45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.23841712578694008</v>
+        <f t="shared" si="80"/>
+        <v>0.23908713015979607</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.27236557154397362</v>
+        <f t="shared" si="80"/>
+        <v>0.27280168801919685</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.30160161903192478</v>
+        <f t="shared" si="80"/>
+        <v>0.30186600344829084</v>
       </c>
     </row>
     <row r="46" spans="1:220" x14ac:dyDescent="0.25">
@@ -4977,91 +5030,91 @@
         <v>105</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:M47" si="82">C19/B19-1</f>
+        <f t="shared" ref="C47:M47" si="81">C19/B19-1</f>
         <v>6.9785833023998878E-2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2.5661914460285207E-2</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0.12245168122848815</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-7.7485552541573299E-2</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.014346998494279E-2</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>3.4925873823179243E-2</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>9.9124297477453993E-2</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="82"/>
-        <v>-7.9054153685161777E-2</v>
+        <f t="shared" si="81"/>
+        <v>-7.357457131305456E-2</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="82"/>
-        <v>4.4232940569444379E-2</v>
+        <f t="shared" si="81"/>
+        <v>5.2121639671597775E-2</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="82"/>
-        <v>4.441443008287882E-2</v>
+        <f t="shared" si="81"/>
+        <v>5.2322998229326512E-2</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="82"/>
-        <v>4.4593367125540295E-2</v>
+        <f t="shared" si="81"/>
+        <v>5.2520464288180468E-2</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3">
-        <f t="shared" ref="Q47:Z47" si="83">Q19/P19-1</f>
+        <f t="shared" ref="Q47:Z47" si="82">Q19/P19-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>-1.5948796174462543E-2</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>7.5001577735003711E-2</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.11883262457667221</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="83"/>
-        <v>8.5532186184370307E-2</v>
+        <f t="shared" si="82"/>
+        <v>0.10489934301524939</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="83"/>
-        <v>8.8352942660196998E-2</v>
+        <f t="shared" si="82"/>
+        <v>8.8459895915203424E-2</v>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="83"/>
-        <v>8.8714161203365061E-2</v>
+        <f t="shared" si="82"/>
+        <v>8.88119802265257E-2</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="83"/>
-        <v>8.9060964968943779E-2</v>
+        <f t="shared" si="82"/>
+        <v>8.9149974906048479E-2</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="83"/>
-        <v>8.9393888016600531E-2</v>
+        <f t="shared" si="82"/>
+        <v>8.9474411553695843E-2</v>
       </c>
       <c r="AC47" s="8"/>
     </row>
@@ -5070,47 +5123,47 @@
         <v>38</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ref="C48:M48" si="84">C20/B20-1</f>
+        <f t="shared" ref="C48:M48" si="83">C20/B20-1</f>
         <v>7.7408103031929132E-2</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>4.731664798904256E-2</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>9.2854595172987775E-2</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>4.155787641427322E-2</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>8.0739502820137865E-2</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>9.7226249154344302E-2</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>5.3025631991544087E-2</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="N48" s="3"/>
@@ -5120,31 +5173,31 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3">
-        <f t="shared" ref="T48:Z48" si="85">T20/S20-1</f>
+        <f t="shared" ref="T48:Z48" si="84">T20/S20-1</f>
         <v>0.25905631659056327</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.30648573500967125</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.55147690746489575</v>
       </c>
       <c r="W48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="X48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Z48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AC48" s="8"/>
@@ -5154,96 +5207,96 @@
         <v>53</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" ref="B49:M49" si="86">B20/B22</f>
+        <f t="shared" ref="B49:M49" si="85">B20/B22</f>
         <v>0.10681072406035508</v>
       </c>
       <c r="C49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.10764838346469358</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.10967102603888229</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.10649982620785541</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.11887408584660848</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.1221000212409431</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.12861965831331854</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.12392582072997543</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.14825710037582354</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.15869569330619443</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.16969531007881675</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="85"/>
+        <v>0.18126465154417748</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" ref="P49:Z49" si="86">P20/P22</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <f t="shared" si="86"/>
-        <v>0.10764838346469358</v>
-      </c>
-      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <f t="shared" si="86"/>
-        <v>0.10967102603888229</v>
-      </c>
-      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <f t="shared" si="86"/>
-        <v>0.10649982620785541</v>
-      </c>
-      <c r="F49" s="3">
+        <v>9.2916036148156522E-2</v>
+      </c>
+      <c r="T49" s="3">
         <f t="shared" si="86"/>
-        <v>0.11887408584660848</v>
-      </c>
-      <c r="G49" s="3">
+        <v>0.10764035732642797</v>
+      </c>
+      <c r="U49" s="3">
         <f t="shared" si="86"/>
-        <v>0.1221000212409431</v>
-      </c>
-      <c r="H49" s="3">
+        <v>0.12350507688176036</v>
+      </c>
+      <c r="V49" s="3">
         <f t="shared" si="86"/>
-        <v>0.12861965831331854</v>
-      </c>
-      <c r="I49" s="3">
+        <v>0.1653587628586595</v>
+      </c>
+      <c r="W49" s="3">
         <f t="shared" si="86"/>
-        <v>0.12392582072997543</v>
-      </c>
-      <c r="J49" s="3">
+        <v>0.17929095925812777</v>
+      </c>
+      <c r="X49" s="3">
         <f t="shared" si="86"/>
-        <v>0.14900401594833973</v>
-      </c>
-      <c r="K49" s="3">
+        <v>0.19407269479901648</v>
+      </c>
+      <c r="Y49" s="3">
         <f t="shared" si="86"/>
-        <v>0.15303115151451105</v>
-      </c>
-      <c r="L49" s="3">
+        <v>0.20970945217615722</v>
+      </c>
+      <c r="Z49" s="3">
         <f t="shared" si="86"/>
-        <v>0.15716712858247078</v>
-      </c>
-      <c r="M49" s="3">
-        <f t="shared" si="86"/>
-        <v>0.16141488881442945</v>
-      </c>
-      <c r="P49" s="3">
-        <f t="shared" ref="P49:Z49" si="87">P20/P22</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <f t="shared" si="87"/>
-        <v>9.2916036148156522E-2</v>
-      </c>
-      <c r="T49" s="3">
-        <f t="shared" si="87"/>
-        <v>0.10764035732642797</v>
-      </c>
-      <c r="U49" s="3">
-        <f t="shared" si="87"/>
-        <v>0.12350507688176036</v>
-      </c>
-      <c r="V49" s="3">
-        <f t="shared" si="87"/>
-        <v>0.15569259031143737</v>
-      </c>
-      <c r="W49" s="3">
-        <f t="shared" si="87"/>
-        <v>0.18191021263318757</v>
-      </c>
-      <c r="X49" s="3">
-        <f t="shared" si="87"/>
-        <v>0.19687069989029277</v>
-      </c>
-      <c r="Y49" s="3">
-        <f t="shared" si="87"/>
-        <v>0.21268751047016959</v>
-      </c>
-      <c r="Z49" s="3">
-        <f t="shared" si="87"/>
-        <v>0.22935725423339404</v>
+        <v>0.22619947814275404</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
@@ -5338,96 +5391,96 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" ref="B56:M56" si="88">B58-B73</f>
+        <f t="shared" ref="B56:M56" si="87">B58-B73</f>
         <v>0</v>
       </c>
       <c r="C56" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="87"/>
+        <v>84774</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="87"/>
+        <v>72477.035541113146</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="87"/>
+        <v>115016.09859894842</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="87"/>
+        <v>142243.432228719</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="87"/>
+        <v>171301.4967397076</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" ref="P56:U56" si="88">P58-P73</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="D56" s="2">
+      <c r="R56" s="2">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="E56" s="2">
+      <c r="S56" s="2">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="F56" s="2">
+      <c r="T56" s="2">
         <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
+        <v>99046</v>
+      </c>
+      <c r="U56" s="2">
         <f t="shared" si="88"/>
         <v>84774</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="88"/>
-        <v>71546.830331885722</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="88"/>
-        <v>115031.23744927888</v>
-      </c>
-      <c r="L56" s="2">
-        <f t="shared" si="88"/>
-        <v>144428.92934958529</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="88"/>
-        <v>177060.3673589254</v>
-      </c>
-      <c r="P56" s="2">
-        <f t="shared" ref="P56:U56" si="89">P58-P73</f>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="2">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <f t="shared" si="89"/>
-        <v>99046</v>
-      </c>
-      <c r="U56" s="2">
-        <f t="shared" si="89"/>
-        <v>84774</v>
-      </c>
       <c r="V56" s="2">
         <f>U56+V34</f>
-        <v>205897.3421381918</v>
+        <v>198027.37938286102</v>
       </c>
       <c r="W56" s="2">
         <f>V56+W34</f>
-        <v>336613.26202075329</v>
+        <v>330468.49641129479</v>
       </c>
       <c r="X56" s="2">
         <f>W56+X34</f>
-        <v>488978.22047791979</v>
+        <v>484853.13403681561</v>
       </c>
       <c r="Y56" s="2">
         <f>X56+Y34</f>
-        <v>666121.31364988</v>
+        <v>664344.85189854505</v>
       </c>
       <c r="Z56" s="2">
         <f>Y56+Z34</f>
-        <v>871641.72118413006</v>
+        <v>872580.84336420475</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -5440,19 +5493,19 @@
       </c>
       <c r="J58" s="2">
         <f>I58+J34+J100</f>
-        <v>88546.830331885722</v>
+        <v>89477.035541113146</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" ref="K58:M58" si="90">J58+K34+K100</f>
-        <v>115031.23744927888</v>
+        <f t="shared" ref="K58:M58" si="89">J58+K34+K100</f>
+        <v>115016.09859894842</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="90"/>
-        <v>144428.92934958529</v>
+        <f t="shared" si="89"/>
+        <v>142243.432228719</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="90"/>
-        <v>177060.3673589254</v>
+        <f t="shared" si="89"/>
+        <v>171301.4967397076</v>
       </c>
       <c r="T58" s="2">
         <f>24048+86868</f>
@@ -5472,19 +5525,19 @@
       </c>
       <c r="J59" s="2">
         <f>J80*J22/90</f>
-        <v>54879.192000000003</v>
+        <v>55155.671999999991</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" ref="K59:M59" si="91">K80*K22/90</f>
-        <v>60915.90312000001</v>
+        <f t="shared" ref="K59:M59" si="90">K80*K22/90</f>
+        <v>58741.548719999999</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="91"/>
-        <v>67616.652463200022</v>
+        <f t="shared" si="90"/>
+        <v>62624.683658400005</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="91"/>
-        <v>75054.484234152027</v>
+        <f t="shared" si="90"/>
+        <v>66835.486811544019</v>
       </c>
       <c r="T59" s="2">
         <v>47964</v>
@@ -5771,79 +5824,79 @@
         <v>56</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" ref="B80:M80" si="92">(B59/B22)*90</f>
+        <f t="shared" ref="B80:I80" si="91">(B59/B22)*90</f>
         <v>0</v>
       </c>
       <c r="C80" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="91"/>
+        <v>48.830194155635489</v>
+      </c>
+      <c r="J80" s="2">
+        <v>54</v>
+      </c>
+      <c r="K80" s="2">
+        <v>54</v>
+      </c>
+      <c r="L80" s="2">
+        <v>54</v>
+      </c>
+      <c r="M80" s="2">
+        <v>54</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" ref="R80:Y80" si="92">(R59/R22)*360</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="2">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="D80" s="2">
+      <c r="T80" s="2">
+        <f t="shared" si="92"/>
+        <v>56.172339082740713</v>
+      </c>
+      <c r="U80" s="2">
+        <f t="shared" si="92"/>
+        <v>53.832660034626791</v>
+      </c>
+      <c r="V80" s="2">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="E80" s="2">
+      <c r="W80" s="2">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="F80" s="2">
+      <c r="X80" s="2">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="G80" s="2">
+      <c r="Y80" s="2">
         <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
-        <f t="shared" si="92"/>
-        <v>48.830194155635489</v>
-      </c>
-      <c r="J80" s="2">
-        <v>54</v>
-      </c>
-      <c r="K80" s="2">
-        <v>54</v>
-      </c>
-      <c r="L80" s="2">
-        <v>54</v>
-      </c>
-      <c r="M80" s="2">
-        <v>54</v>
-      </c>
-      <c r="R80" s="2">
-        <f t="shared" ref="R80:Y80" si="93">(R59/R22)*360</f>
-        <v>0</v>
-      </c>
-      <c r="S80" s="2">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="T80" s="2">
-        <f t="shared" si="93"/>
-        <v>56.172339082740713</v>
-      </c>
-      <c r="U80" s="2">
-        <f t="shared" si="93"/>
-        <v>53.832660034626791</v>
-      </c>
-      <c r="V80" s="2">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="2">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="X80" s="2">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="Y80" s="2">
-        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Z80" s="2">
@@ -5856,84 +5909,84 @@
         <v>57</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" ref="B82:M83" si="94">+B34</f>
+        <f t="shared" ref="B82:M82" si="93">+B34</f>
         <v>15051</v>
       </c>
       <c r="C82" s="2">
+        <f t="shared" si="93"/>
+        <v>18368</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="93"/>
+        <v>19689</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="93"/>
+        <v>20687</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="93"/>
+        <v>23662</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="93"/>
+        <v>23619</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="93"/>
+        <v>26301</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="93"/>
+        <v>26536</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="93"/>
+        <v>25820.035541113142</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="93"/>
+        <v>25539.063057835279</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" si="93"/>
+        <v>27227.333629770597</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="93"/>
+        <v>29058.06451098861</v>
+      </c>
+      <c r="S82" s="2">
+        <f t="shared" ref="S82:Z82" si="94">+S34</f>
+        <v>63486</v>
+      </c>
+      <c r="T82" s="2">
         <f t="shared" si="94"/>
-        <v>18368</v>
-      </c>
-      <c r="D82" s="2">
+        <v>73975</v>
+      </c>
+      <c r="U82" s="2">
         <f t="shared" si="94"/>
-        <v>19689</v>
-      </c>
-      <c r="E82" s="2">
+        <v>100122</v>
+      </c>
+      <c r="V82" s="2">
         <f t="shared" si="94"/>
-        <v>20687</v>
-      </c>
-      <c r="F82" s="2">
+        <v>113253.37938286104</v>
+      </c>
+      <c r="W82" s="2">
         <f t="shared" si="94"/>
-        <v>23662</v>
-      </c>
-      <c r="G82" s="2">
+        <v>132441.11702843374</v>
+      </c>
+      <c r="X82" s="2">
         <f t="shared" si="94"/>
-        <v>23619</v>
-      </c>
-      <c r="H82" s="2">
+        <v>154384.63762552085</v>
+      </c>
+      <c r="Y82" s="2">
         <f t="shared" si="94"/>
-        <v>26301</v>
-      </c>
-      <c r="I82" s="2">
+        <v>179491.71786172941</v>
+      </c>
+      <c r="Z82" s="2">
         <f t="shared" si="94"/>
-        <v>26536</v>
-      </c>
-      <c r="J82" s="2">
-        <f t="shared" si="94"/>
-        <v>24889.830331885729</v>
-      </c>
-      <c r="K82" s="2">
-        <f t="shared" si="94"/>
-        <v>26484.407117393152</v>
-      </c>
-      <c r="L82" s="2">
-        <f t="shared" si="94"/>
-        <v>29397.691900306407</v>
-      </c>
-      <c r="M82" s="2">
-        <f t="shared" si="94"/>
-        <v>32631.438009340105</v>
-      </c>
-      <c r="S82" s="2">
-        <f t="shared" ref="S82:Z82" si="95">+S34</f>
-        <v>63486</v>
-      </c>
-      <c r="T82" s="2">
-        <f t="shared" si="95"/>
-        <v>73975</v>
-      </c>
-      <c r="U82" s="2">
-        <f t="shared" si="95"/>
-        <v>100122</v>
-      </c>
-      <c r="V82" s="2">
-        <f t="shared" si="95"/>
-        <v>121123.34213819179</v>
-      </c>
-      <c r="W82" s="2">
-        <f t="shared" si="95"/>
-        <v>130715.91988256147</v>
-      </c>
-      <c r="X82" s="2">
-        <f t="shared" si="95"/>
-        <v>152364.95845716653</v>
-      </c>
-      <c r="Y82" s="2">
-        <f t="shared" si="95"/>
-        <v>177143.09317196024</v>
-      </c>
-      <c r="Z82" s="2">
-        <f t="shared" si="95"/>
-        <v>205520.40753425009</v>
+        <v>208235.99146565975</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
@@ -5951,19 +6004,19 @@
       </c>
       <c r="J83" s="2">
         <f>J82</f>
-        <v>24889.830331885729</v>
+        <v>25820.035541113142</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83:M83" si="96">K82</f>
-        <v>26484.407117393152</v>
+        <f t="shared" ref="K83:M83" si="95">K82</f>
+        <v>25539.063057835279</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="96"/>
-        <v>29397.691900306407</v>
+        <f t="shared" si="95"/>
+        <v>27227.333629770597</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="96"/>
-        <v>32631.438009340105</v>
+        <f t="shared" si="95"/>
+        <v>29058.06451098861</v>
       </c>
       <c r="S83" s="2">
         <v>59972</v>
@@ -5976,23 +6029,23 @@
       </c>
       <c r="V83" s="2">
         <f>V82</f>
-        <v>121123.34213819179</v>
+        <v>113253.37938286104</v>
       </c>
       <c r="W83" s="2">
-        <f t="shared" ref="W83:Z83" si="97">W82</f>
-        <v>130715.91988256147</v>
+        <f t="shared" ref="W83:Z83" si="96">W82</f>
+        <v>132441.11702843374</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="97"/>
-        <v>152364.95845716653</v>
+        <f t="shared" si="96"/>
+        <v>154384.63762552085</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="97"/>
-        <v>177143.09317196024</v>
+        <f t="shared" si="96"/>
+        <v>179491.71786172941</v>
       </c>
       <c r="Z83" s="2">
-        <f t="shared" si="97"/>
-        <v>205520.40753425009</v>
+        <f t="shared" si="96"/>
+        <v>208235.99146565975</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
@@ -6016,19 +6069,19 @@
         <v>16842.100000000002</v>
       </c>
       <c r="W84" s="2">
-        <f t="shared" ref="W84:Z84" si="98">V84*1.1</f>
+        <f t="shared" ref="W84:Z84" si="97">V84*1.1</f>
         <v>18526.310000000005</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>20378.941000000006</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>22416.835100000008</v>
       </c>
       <c r="Z84" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>24658.51861000001</v>
       </c>
     </row>
@@ -6053,19 +6106,19 @@
         <v>23240.7</v>
       </c>
       <c r="W85" s="2">
-        <f t="shared" ref="W85:Z85" si="99">V85*1.02</f>
+        <f t="shared" ref="W85:Z85" si="98">V85*1.02</f>
         <v>23705.514000000003</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>24179.624280000004</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>24663.216765600006</v>
       </c>
       <c r="Z85" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>25156.481100912006</v>
       </c>
     </row>
@@ -6086,23 +6139,23 @@
         <v>-5257</v>
       </c>
       <c r="V86" s="2">
-        <f t="shared" ref="V86:V95" si="100">U86*1.1</f>
+        <f t="shared" ref="V86:V95" si="99">U86*1.1</f>
         <v>-5782.7000000000007</v>
       </c>
       <c r="W86" s="2">
-        <f t="shared" ref="W86:W95" si="101">V86*1.1</f>
+        <f t="shared" ref="W86:W95" si="100">V86*1.1</f>
         <v>-6360.9700000000012</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" ref="X86:X95" si="102">W86*1.1</f>
+        <f t="shared" ref="X86:X95" si="101">W86*1.1</f>
         <v>-6997.0670000000018</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" ref="Y86:Y95" si="103">X86*1.1</f>
+        <f t="shared" ref="Y86:Y95" si="102">X86*1.1</f>
         <v>-7696.7737000000025</v>
       </c>
       <c r="Z86" s="2">
-        <f t="shared" ref="Z86:Z95" si="104">Y86*1.1</f>
+        <f t="shared" ref="Z86:Z95" si="103">Y86*1.1</f>
         <v>-8466.4510700000028</v>
       </c>
     </row>
@@ -6123,23 +6176,23 @@
         <v>-2671</v>
       </c>
       <c r="V87" s="2">
+        <f t="shared" si="99"/>
+        <v>-2938.1000000000004</v>
+      </c>
+      <c r="W87" s="2">
         <f t="shared" si="100"/>
-        <v>-2938.1000000000004</v>
-      </c>
-      <c r="W87" s="2">
+        <v>-3231.9100000000008</v>
+      </c>
+      <c r="X87" s="2">
         <f t="shared" si="101"/>
-        <v>-3231.9100000000008</v>
-      </c>
-      <c r="X87" s="2">
+        <v>-3555.101000000001</v>
+      </c>
+      <c r="Y87" s="2">
         <f t="shared" si="102"/>
-        <v>-3555.101000000001</v>
-      </c>
-      <c r="Y87" s="2">
+        <v>-3910.6111000000014</v>
+      </c>
+      <c r="Z87" s="2">
         <f t="shared" si="103"/>
-        <v>-3910.6111000000014</v>
-      </c>
-      <c r="Z87" s="2">
-        <f t="shared" si="104"/>
         <v>-4301.6722100000015</v>
       </c>
     </row>
@@ -6160,23 +6213,23 @@
         <v>3419</v>
       </c>
       <c r="V88" s="2">
+        <f t="shared" si="99"/>
+        <v>3760.9</v>
+      </c>
+      <c r="W88" s="2">
         <f t="shared" si="100"/>
-        <v>3760.9</v>
-      </c>
-      <c r="W88" s="2">
+        <v>4136.9900000000007</v>
+      </c>
+      <c r="X88" s="2">
         <f t="shared" si="101"/>
-        <v>4136.9900000000007</v>
-      </c>
-      <c r="X88" s="2">
+        <v>4550.6890000000012</v>
+      </c>
+      <c r="Y88" s="2">
         <f t="shared" si="102"/>
-        <v>4550.6890000000012</v>
-      </c>
-      <c r="Y88" s="2">
+        <v>5005.7579000000014</v>
+      </c>
+      <c r="Z88" s="2">
         <f t="shared" si="103"/>
-        <v>5005.7579000000014</v>
-      </c>
-      <c r="Z88" s="2">
-        <f t="shared" si="104"/>
         <v>5506.3336900000022</v>
       </c>
     </row>
@@ -6197,23 +6250,23 @@
         <v>-5891</v>
       </c>
       <c r="V89" s="2">
+        <f t="shared" si="99"/>
+        <v>-6480.1</v>
+      </c>
+      <c r="W89" s="2">
         <f t="shared" si="100"/>
-        <v>-6480.1</v>
-      </c>
-      <c r="W89" s="2">
+        <v>-7128.1100000000006</v>
+      </c>
+      <c r="X89" s="2">
         <f t="shared" si="101"/>
-        <v>-7128.1100000000006</v>
-      </c>
-      <c r="X89" s="2">
+        <v>-7840.9210000000012</v>
+      </c>
+      <c r="Y89" s="2">
         <f t="shared" si="102"/>
-        <v>-7840.9210000000012</v>
-      </c>
-      <c r="Y89" s="2">
+        <v>-8625.0131000000019</v>
+      </c>
+      <c r="Z89" s="2">
         <f t="shared" si="103"/>
-        <v>-8625.0131000000019</v>
-      </c>
-      <c r="Z89" s="2">
-        <f t="shared" si="104"/>
         <v>-9487.5144100000034</v>
       </c>
     </row>
@@ -6234,23 +6287,23 @@
         <v>-2418</v>
       </c>
       <c r="V90" s="2">
+        <f t="shared" si="99"/>
+        <v>-2659.8</v>
+      </c>
+      <c r="W90" s="2">
         <f t="shared" si="100"/>
-        <v>-2659.8</v>
-      </c>
-      <c r="W90" s="2">
+        <v>-2925.7800000000007</v>
+      </c>
+      <c r="X90" s="2">
         <f t="shared" si="101"/>
-        <v>-2925.7800000000007</v>
-      </c>
-      <c r="X90" s="2">
+        <v>-3218.3580000000011</v>
+      </c>
+      <c r="Y90" s="2">
         <f t="shared" si="102"/>
-        <v>-3218.3580000000011</v>
-      </c>
-      <c r="Y90" s="2">
+        <v>-3540.1938000000014</v>
+      </c>
+      <c r="Z90" s="2">
         <f t="shared" si="103"/>
-        <v>-3540.1938000000014</v>
-      </c>
-      <c r="Z90" s="2">
-        <f t="shared" si="104"/>
         <v>-3894.213180000002</v>
       </c>
     </row>
@@ -6271,23 +6324,23 @@
         <v>-1397</v>
       </c>
       <c r="V91" s="2">
+        <f t="shared" si="99"/>
+        <v>-1536.7</v>
+      </c>
+      <c r="W91" s="2">
         <f t="shared" si="100"/>
-        <v>-1536.7</v>
-      </c>
-      <c r="W91" s="2">
+        <v>-1690.3700000000001</v>
+      </c>
+      <c r="X91" s="2">
         <f t="shared" si="101"/>
-        <v>-1690.3700000000001</v>
-      </c>
-      <c r="X91" s="2">
+        <v>-1859.4070000000004</v>
+      </c>
+      <c r="Y91" s="2">
         <f t="shared" si="102"/>
-        <v>-1859.4070000000004</v>
-      </c>
-      <c r="Y91" s="2">
+        <v>-2045.3477000000005</v>
+      </c>
+      <c r="Z91" s="2">
         <f t="shared" si="103"/>
-        <v>-2045.3477000000005</v>
-      </c>
-      <c r="Z91" s="2">
-        <f t="shared" si="104"/>
         <v>-2249.8824700000009</v>
       </c>
     </row>
@@ -6308,23 +6361,23 @@
         <v>-1161</v>
       </c>
       <c r="V92" s="2">
+        <f t="shared" si="99"/>
+        <v>-1277.1000000000001</v>
+      </c>
+      <c r="W92" s="2">
         <f t="shared" si="100"/>
-        <v>-1277.1000000000001</v>
-      </c>
-      <c r="W92" s="2">
+        <v>-1404.8100000000002</v>
+      </c>
+      <c r="X92" s="2">
         <f t="shared" si="101"/>
-        <v>-1404.8100000000002</v>
-      </c>
-      <c r="X92" s="2">
+        <v>-1545.2910000000004</v>
+      </c>
+      <c r="Y92" s="2">
         <f t="shared" si="102"/>
-        <v>-1545.2910000000004</v>
-      </c>
-      <c r="Y92" s="2">
+        <v>-1699.8201000000006</v>
+      </c>
+      <c r="Z92" s="2">
         <f t="shared" si="103"/>
-        <v>-1699.8201000000006</v>
-      </c>
-      <c r="Z92" s="2">
-        <f t="shared" si="104"/>
         <v>-1869.8021100000008</v>
       </c>
     </row>
@@ -6345,23 +6398,23 @@
         <v>-1161</v>
       </c>
       <c r="V93" s="2">
+        <f t="shared" si="99"/>
+        <v>-1277.1000000000001</v>
+      </c>
+      <c r="W93" s="2">
         <f t="shared" si="100"/>
-        <v>-1277.1000000000001</v>
-      </c>
-      <c r="W93" s="2">
+        <v>-1404.8100000000002</v>
+      </c>
+      <c r="X93" s="2">
         <f t="shared" si="101"/>
-        <v>-1404.8100000000002</v>
-      </c>
-      <c r="X93" s="2">
+        <v>-1545.2910000000004</v>
+      </c>
+      <c r="Y93" s="2">
         <f t="shared" si="102"/>
-        <v>-1545.2910000000004</v>
-      </c>
-      <c r="Y93" s="2">
+        <v>-1699.8201000000006</v>
+      </c>
+      <c r="Z93" s="2">
         <f t="shared" si="103"/>
-        <v>-1699.8201000000006</v>
-      </c>
-      <c r="Z93" s="2">
-        <f t="shared" si="104"/>
         <v>-1869.8021100000008</v>
       </c>
     </row>
@@ -6382,23 +6435,23 @@
         <v>1059</v>
       </c>
       <c r="V94" s="2">
+        <f t="shared" si="99"/>
+        <v>1164.9000000000001</v>
+      </c>
+      <c r="W94" s="2">
         <f t="shared" si="100"/>
-        <v>1164.9000000000001</v>
-      </c>
-      <c r="W94" s="2">
+        <v>1281.3900000000001</v>
+      </c>
+      <c r="X94" s="2">
         <f t="shared" si="101"/>
-        <v>1281.3900000000001</v>
-      </c>
-      <c r="X94" s="2">
+        <v>1409.5290000000002</v>
+      </c>
+      <c r="Y94" s="2">
         <f t="shared" si="102"/>
-        <v>1409.5290000000002</v>
-      </c>
-      <c r="Y94" s="2">
+        <v>1550.4819000000005</v>
+      </c>
+      <c r="Z94" s="2">
         <f t="shared" si="103"/>
-        <v>1550.4819000000005</v>
-      </c>
-      <c r="Z94" s="2">
-        <f t="shared" si="104"/>
         <v>1705.5300900000007</v>
       </c>
     </row>
@@ -6419,23 +6472,23 @@
         <v>1043</v>
       </c>
       <c r="V95" s="2">
+        <f t="shared" si="99"/>
+        <v>1147.3000000000002</v>
+      </c>
+      <c r="W95" s="2">
         <f t="shared" si="100"/>
-        <v>1147.3000000000002</v>
-      </c>
-      <c r="W95" s="2">
+        <v>1262.0300000000002</v>
+      </c>
+      <c r="X95" s="2">
         <f t="shared" si="101"/>
-        <v>1262.0300000000002</v>
-      </c>
-      <c r="X95" s="2">
+        <v>1388.2330000000004</v>
+      </c>
+      <c r="Y95" s="2">
         <f t="shared" si="102"/>
-        <v>1388.2330000000004</v>
-      </c>
-      <c r="Y95" s="2">
+        <v>1527.0563000000006</v>
+      </c>
+      <c r="Z95" s="2">
         <f t="shared" si="103"/>
-        <v>1527.0563000000006</v>
-      </c>
-      <c r="Z95" s="2">
-        <f t="shared" si="104"/>
         <v>1679.7619300000008</v>
       </c>
     </row>
@@ -6472,32 +6525,32 @@
         <v>91495</v>
       </c>
       <c r="T96" s="5">
-        <f t="shared" ref="T96:Z96" si="105">SUM(T83:T95)</f>
+        <f t="shared" ref="T96:Z96" si="104">SUM(T83:T95)</f>
         <v>101746</v>
       </c>
       <c r="U96" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>123779</v>
       </c>
       <c r="V96" s="5">
-        <f t="shared" si="105"/>
-        <v>145327.64213819173</v>
+        <f t="shared" si="104"/>
+        <v>137457.67938286098</v>
       </c>
       <c r="W96" s="5">
-        <f t="shared" si="105"/>
-        <v>155481.39388256148</v>
+        <f t="shared" si="104"/>
+        <v>157206.59102843376</v>
       </c>
       <c r="X96" s="5">
-        <f t="shared" si="105"/>
-        <v>177710.53873716656</v>
+        <f t="shared" si="104"/>
+        <v>179730.21790552087</v>
       </c>
       <c r="Y96" s="5">
-        <f t="shared" si="105"/>
-        <v>203088.86153756018</v>
+        <f t="shared" si="104"/>
+        <v>205437.48622732935</v>
       </c>
       <c r="Z96" s="5">
-        <f t="shared" si="105"/>
-        <v>232087.69539516213</v>
+        <f t="shared" si="104"/>
+        <v>234803.27932657179</v>
       </c>
       <c r="AB96" s="2" t="s">
         <v>55</v>
@@ -6581,7 +6634,7 @@
       </c>
       <c r="AC99" s="2">
         <f>NPV(AC98,V103:FG103)+main!I5-main!I6</f>
-        <v>2347392.7300867992</v>
+        <v>2373426.4435886247</v>
       </c>
     </row>
     <row r="100" spans="1:163" x14ac:dyDescent="0.25">
@@ -6608,7 +6661,7 @@
       </c>
       <c r="AC100" s="2">
         <f>AC99/main!I3</f>
-        <v>191.62389633361627</v>
+        <v>193.74909743580611</v>
       </c>
     </row>
     <row r="101" spans="1:163" x14ac:dyDescent="0.25">
@@ -6632,7 +6685,7 @@
       </c>
       <c r="AC101" s="3">
         <f>AC100/main!I2-1</f>
-        <v>0.22835830983087346</v>
+        <v>0.24198139381926986</v>
       </c>
     </row>
     <row r="102" spans="1:163" x14ac:dyDescent="0.25">
@@ -6658,11 +6711,11 @@
         <v>-31485</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" ref="T102:U102" si="106">T97</f>
+        <f t="shared" ref="T102:U102" si="105">T97</f>
         <v>-32251</v>
       </c>
       <c r="U102" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>-52535</v>
       </c>
       <c r="V102" s="2">
@@ -6673,15 +6726,15 @@
         <v>-67500</v>
       </c>
       <c r="X102" s="2">
-        <f t="shared" ref="X102:Z102" si="107">W102*0.9</f>
+        <f t="shared" ref="X102:Z102" si="106">W102*0.9</f>
         <v>-60750</v>
       </c>
       <c r="Y102" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-54675</v>
       </c>
       <c r="Z102" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-49207.5</v>
       </c>
     </row>
@@ -6694,39 +6747,39 @@
         <v>0</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" ref="C103:K103" si="108">C96+C102</f>
+        <f t="shared" ref="C103:K103" si="107">C96+C102</f>
         <v>39466</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>40386</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>24837</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="L103" s="5"/>
@@ -6750,605 +6803,605 @@
       </c>
       <c r="V103" s="5">
         <f>V96+V102</f>
-        <v>70327.642138191732</v>
+        <v>62457.679382860981</v>
       </c>
       <c r="W103" s="5">
-        <f t="shared" ref="W103:Z103" si="109">W96+W102</f>
-        <v>87981.393882561475</v>
+        <f t="shared" ref="W103:Z103" si="108">W96+W102</f>
+        <v>89706.591028433759</v>
       </c>
       <c r="X103" s="5">
+        <f t="shared" si="108"/>
+        <v>118980.21790552087</v>
+      </c>
+      <c r="Y103" s="5">
+        <f t="shared" si="108"/>
+        <v>150762.48622732935</v>
+      </c>
+      <c r="Z103" s="5">
+        <f t="shared" si="108"/>
+        <v>185595.77932657179</v>
+      </c>
+      <c r="AA103" s="5">
+        <f t="shared" ref="AA103:BF103" si="109">Z103*(1+$AC$97)</f>
+        <v>187451.73711983752</v>
+      </c>
+      <c r="AB103" s="5">
         <f t="shared" si="109"/>
-        <v>116960.53873716656</v>
-      </c>
-      <c r="Y103" s="5">
+        <v>189326.25449103588</v>
+      </c>
+      <c r="AC103" s="5">
         <f t="shared" si="109"/>
-        <v>148413.86153756018</v>
-      </c>
-      <c r="Z103" s="5">
+        <v>191219.51703594625</v>
+      </c>
+      <c r="AD103" s="5">
         <f t="shared" si="109"/>
-        <v>182880.19539516213</v>
-      </c>
-      <c r="AA103" s="5">
-        <f t="shared" ref="AA103:BF103" si="110">Z103*(1+$AC$97)</f>
-        <v>184708.99734911375</v>
-      </c>
-      <c r="AB103" s="5">
+        <v>193131.7122063057</v>
+      </c>
+      <c r="AE103" s="5">
+        <f t="shared" si="109"/>
+        <v>195063.02932836875</v>
+      </c>
+      <c r="AF103" s="5">
+        <f t="shared" si="109"/>
+        <v>197013.65962165245</v>
+      </c>
+      <c r="AG103" s="5">
+        <f t="shared" si="109"/>
+        <v>198983.79621786898</v>
+      </c>
+      <c r="AH103" s="5">
+        <f t="shared" si="109"/>
+        <v>200973.63418004767</v>
+      </c>
+      <c r="AI103" s="5">
+        <f t="shared" si="109"/>
+        <v>202983.37052184815</v>
+      </c>
+      <c r="AJ103" s="5">
+        <f t="shared" si="109"/>
+        <v>205013.20422706663</v>
+      </c>
+      <c r="AK103" s="5">
+        <f t="shared" si="109"/>
+        <v>207063.33626933731</v>
+      </c>
+      <c r="AL103" s="5">
+        <f t="shared" si="109"/>
+        <v>209133.96963203067</v>
+      </c>
+      <c r="AM103" s="5">
+        <f t="shared" si="109"/>
+        <v>211225.30932835097</v>
+      </c>
+      <c r="AN103" s="5">
+        <f t="shared" si="109"/>
+        <v>213337.56242163447</v>
+      </c>
+      <c r="AO103" s="5">
+        <f t="shared" si="109"/>
+        <v>215470.93804585081</v>
+      </c>
+      <c r="AP103" s="5">
+        <f t="shared" si="109"/>
+        <v>217625.64742630933</v>
+      </c>
+      <c r="AQ103" s="5">
+        <f t="shared" si="109"/>
+        <v>219801.90390057242</v>
+      </c>
+      <c r="AR103" s="5">
+        <f t="shared" si="109"/>
+        <v>221999.92293957816</v>
+      </c>
+      <c r="AS103" s="5">
+        <f t="shared" si="109"/>
+        <v>224219.92216897395</v>
+      </c>
+      <c r="AT103" s="5">
+        <f t="shared" si="109"/>
+        <v>226462.1213906637</v>
+      </c>
+      <c r="AU103" s="5">
+        <f t="shared" si="109"/>
+        <v>228726.74260457035</v>
+      </c>
+      <c r="AV103" s="5">
+        <f t="shared" si="109"/>
+        <v>231014.01003061605</v>
+      </c>
+      <c r="AW103" s="5">
+        <f t="shared" si="109"/>
+        <v>233324.15013092221</v>
+      </c>
+      <c r="AX103" s="5">
+        <f t="shared" si="109"/>
+        <v>235657.39163223142</v>
+      </c>
+      <c r="AY103" s="5">
+        <f t="shared" si="109"/>
+        <v>238013.96554855374</v>
+      </c>
+      <c r="AZ103" s="5">
+        <f t="shared" si="109"/>
+        <v>240394.10520403928</v>
+      </c>
+      <c r="BA103" s="5">
+        <f t="shared" si="109"/>
+        <v>242798.04625607969</v>
+      </c>
+      <c r="BB103" s="5">
+        <f t="shared" si="109"/>
+        <v>245226.0267186405</v>
+      </c>
+      <c r="BC103" s="5">
+        <f t="shared" si="109"/>
+        <v>247678.28698582691</v>
+      </c>
+      <c r="BD103" s="5">
+        <f t="shared" si="109"/>
+        <v>250155.06985568517</v>
+      </c>
+      <c r="BE103" s="5">
+        <f t="shared" si="109"/>
+        <v>252656.62055424202</v>
+      </c>
+      <c r="BF103" s="5">
+        <f t="shared" si="109"/>
+        <v>255183.18675978444</v>
+      </c>
+      <c r="BG103" s="5">
+        <f t="shared" ref="BG103:CL103" si="110">BF103*(1+$AC$97)</f>
+        <v>257735.01862738229</v>
+      </c>
+      <c r="BH103" s="5">
         <f t="shared" si="110"/>
-        <v>186556.0873226049</v>
-      </c>
-      <c r="AC103" s="5">
+        <v>260312.36881365612</v>
+      </c>
+      <c r="BI103" s="5">
         <f t="shared" si="110"/>
-        <v>188421.64819583096</v>
-      </c>
-      <c r="AD103" s="5">
+        <v>262915.49250179267</v>
+      </c>
+      <c r="BJ103" s="5">
         <f t="shared" si="110"/>
-        <v>190305.86467778927</v>
-      </c>
-      <c r="AE103" s="5">
+        <v>265544.64742681058</v>
+      </c>
+      <c r="BK103" s="5">
         <f t="shared" si="110"/>
-        <v>192208.92332456718</v>
-      </c>
-      <c r="AF103" s="5">
+        <v>268200.09390107868</v>
+      </c>
+      <c r="BL103" s="5">
         <f t="shared" si="110"/>
-        <v>194131.01255781285</v>
-      </c>
-      <c r="AG103" s="5">
+        <v>270882.0948400895</v>
+      </c>
+      <c r="BM103" s="5">
         <f t="shared" si="110"/>
-        <v>196072.32268339099</v>
-      </c>
-      <c r="AH103" s="5">
+        <v>273590.91578849038</v>
+      </c>
+      <c r="BN103" s="5">
         <f t="shared" si="110"/>
-        <v>198033.0459102249</v>
-      </c>
-      <c r="AI103" s="5">
+        <v>276326.82494637527</v>
+      </c>
+      <c r="BO103" s="5">
         <f t="shared" si="110"/>
-        <v>200013.37636932716</v>
-      </c>
-      <c r="AJ103" s="5">
+        <v>279090.09319583903</v>
+      </c>
+      <c r="BP103" s="5">
         <f t="shared" si="110"/>
-        <v>202013.51013302043</v>
-      </c>
-      <c r="AK103" s="5">
+        <v>281880.99412779743</v>
+      </c>
+      <c r="BQ103" s="5">
         <f t="shared" si="110"/>
-        <v>204033.64523435064</v>
-      </c>
-      <c r="AL103" s="5">
+        <v>284699.80406907538</v>
+      </c>
+      <c r="BR103" s="5">
         <f t="shared" si="110"/>
-        <v>206073.98168669414</v>
-      </c>
-      <c r="AM103" s="5">
+        <v>287546.80210976617</v>
+      </c>
+      <c r="BS103" s="5">
         <f t="shared" si="110"/>
-        <v>208134.72150356107</v>
-      </c>
-      <c r="AN103" s="5">
+        <v>290422.27013086382</v>
+      </c>
+      <c r="BT103" s="5">
         <f t="shared" si="110"/>
-        <v>210216.06871859668</v>
-      </c>
-      <c r="AO103" s="5">
+        <v>293326.49283217249</v>
+      </c>
+      <c r="BU103" s="5">
         <f t="shared" si="110"/>
-        <v>212318.22940578265</v>
-      </c>
-      <c r="AP103" s="5">
+        <v>296259.75776049419</v>
+      </c>
+      <c r="BV103" s="5">
         <f t="shared" si="110"/>
-        <v>214441.41169984048</v>
-      </c>
-      <c r="AQ103" s="5">
+        <v>299222.35533809912</v>
+      </c>
+      <c r="BW103" s="5">
         <f t="shared" si="110"/>
-        <v>216585.82581683889</v>
-      </c>
-      <c r="AR103" s="5">
+        <v>302214.57889148011</v>
+      </c>
+      <c r="BX103" s="5">
         <f t="shared" si="110"/>
-        <v>218751.68407500727</v>
-      </c>
-      <c r="AS103" s="5">
+        <v>305236.72468039492</v>
+      </c>
+      <c r="BY103" s="5">
         <f t="shared" si="110"/>
-        <v>220939.20091575733</v>
-      </c>
-      <c r="AT103" s="5">
+        <v>308289.09192719887</v>
+      </c>
+      <c r="BZ103" s="5">
         <f t="shared" si="110"/>
-        <v>223148.5929249149</v>
-      </c>
-      <c r="AU103" s="5">
+        <v>311371.98284647084</v>
+      </c>
+      <c r="CA103" s="5">
         <f t="shared" si="110"/>
-        <v>225380.07885416405</v>
-      </c>
-      <c r="AV103" s="5">
+        <v>314485.70267493557</v>
+      </c>
+      <c r="CB103" s="5">
         <f t="shared" si="110"/>
-        <v>227633.8796427057</v>
-      </c>
-      <c r="AW103" s="5">
+        <v>317630.55970168492</v>
+      </c>
+      <c r="CC103" s="5">
         <f t="shared" si="110"/>
-        <v>229910.21843913276</v>
-      </c>
-      <c r="AX103" s="5">
+        <v>320806.8652987018</v>
+      </c>
+      <c r="CD103" s="5">
         <f t="shared" si="110"/>
-        <v>232209.32062352408</v>
-      </c>
-      <c r="AY103" s="5">
+        <v>324014.93395168881</v>
+      </c>
+      <c r="CE103" s="5">
         <f t="shared" si="110"/>
-        <v>234531.41382975932</v>
-      </c>
-      <c r="AZ103" s="5">
+        <v>327255.08329120569</v>
+      </c>
+      <c r="CF103" s="5">
         <f t="shared" si="110"/>
-        <v>236876.72796805692</v>
-      </c>
-      <c r="BA103" s="5">
+        <v>330527.63412411773</v>
+      </c>
+      <c r="CG103" s="5">
         <f t="shared" si="110"/>
-        <v>239245.4952477375</v>
-      </c>
-      <c r="BB103" s="5">
+        <v>333832.91046535893</v>
+      </c>
+      <c r="CH103" s="5">
         <f t="shared" si="110"/>
-        <v>241637.95020021489</v>
-      </c>
-      <c r="BC103" s="5">
+        <v>337171.23957001255</v>
+      </c>
+      <c r="CI103" s="5">
         <f t="shared" si="110"/>
-        <v>244054.32970221704</v>
-      </c>
-      <c r="BD103" s="5">
+        <v>340542.95196571265</v>
+      </c>
+      <c r="CJ103" s="5">
         <f t="shared" si="110"/>
-        <v>246494.87299923922</v>
-      </c>
-      <c r="BE103" s="5">
+        <v>343948.38148536975</v>
+      </c>
+      <c r="CK103" s="5">
         <f t="shared" si="110"/>
-        <v>248959.82172923163</v>
-      </c>
-      <c r="BF103" s="5">
+        <v>347387.86530022346</v>
+      </c>
+      <c r="CL103" s="5">
         <f t="shared" si="110"/>
-        <v>251449.41994652394</v>
-      </c>
-      <c r="BG103" s="5">
-        <f t="shared" ref="BG103:CL103" si="111">BF103*(1+$AC$97)</f>
-        <v>253963.91414598917</v>
-      </c>
-      <c r="BH103" s="5">
+        <v>350861.74395322573</v>
+      </c>
+      <c r="CM103" s="5">
+        <f t="shared" ref="CM103:DR103" si="111">CL103*(1+$AC$97)</f>
+        <v>354370.36139275797</v>
+      </c>
+      <c r="CN103" s="5">
         <f t="shared" si="111"/>
-        <v>256503.55328744906</v>
-      </c>
-      <c r="BI103" s="5">
+        <v>357914.06500668556</v>
+      </c>
+      <c r="CO103" s="5">
         <f t="shared" si="111"/>
-        <v>259068.58882032355</v>
-      </c>
-      <c r="BJ103" s="5">
+        <v>361493.2056567524</v>
+      </c>
+      <c r="CP103" s="5">
         <f t="shared" si="111"/>
-        <v>261659.27470852679</v>
-      </c>
-      <c r="BK103" s="5">
+        <v>365108.13771331991</v>
+      </c>
+      <c r="CQ103" s="5">
         <f t="shared" si="111"/>
-        <v>264275.86745561205</v>
-      </c>
-      <c r="BL103" s="5">
+        <v>368759.21909045312</v>
+      </c>
+      <c r="CR103" s="5">
         <f t="shared" si="111"/>
-        <v>266918.62613016815</v>
-      </c>
-      <c r="BM103" s="5">
+        <v>372446.81128135766</v>
+      </c>
+      <c r="CS103" s="5">
         <f t="shared" si="111"/>
-        <v>269587.81239146984</v>
-      </c>
-      <c r="BN103" s="5">
+        <v>376171.27939417126</v>
+      </c>
+      <c r="CT103" s="5">
         <f t="shared" si="111"/>
-        <v>272283.69051538454</v>
-      </c>
-      <c r="BO103" s="5">
+        <v>379932.99218811298</v>
+      </c>
+      <c r="CU103" s="5">
         <f t="shared" si="111"/>
-        <v>275006.52742053842</v>
-      </c>
-      <c r="BP103" s="5">
+        <v>383732.32210999413</v>
+      </c>
+      <c r="CV103" s="5">
         <f t="shared" si="111"/>
-        <v>277756.59269474383</v>
-      </c>
-      <c r="BQ103" s="5">
+        <v>387569.6453310941</v>
+      </c>
+      <c r="CW103" s="5">
         <f t="shared" si="111"/>
-        <v>280534.15862169128</v>
-      </c>
-      <c r="BR103" s="5">
+        <v>391445.34178440506</v>
+      </c>
+      <c r="CX103" s="5">
         <f t="shared" si="111"/>
-        <v>283339.50020790822</v>
-      </c>
-      <c r="BS103" s="5">
+        <v>395359.79520224914</v>
+      </c>
+      <c r="CY103" s="5">
         <f t="shared" si="111"/>
-        <v>286172.8952099873</v>
-      </c>
-      <c r="BT103" s="5">
+        <v>399313.39315427165</v>
+      </c>
+      <c r="CZ103" s="5">
         <f t="shared" si="111"/>
-        <v>289034.62416208716</v>
-      </c>
-      <c r="BU103" s="5">
+        <v>403306.52708581439</v>
+      </c>
+      <c r="DA103" s="5">
         <f t="shared" si="111"/>
-        <v>291924.97040370805</v>
-      </c>
-      <c r="BV103" s="5">
+        <v>407339.59235667257</v>
+      </c>
+      <c r="DB103" s="5">
         <f t="shared" si="111"/>
-        <v>294844.22010774515</v>
-      </c>
-      <c r="BW103" s="5">
+        <v>411412.98828023928</v>
+      </c>
+      <c r="DC103" s="5">
         <f t="shared" si="111"/>
-        <v>297792.66230882262</v>
-      </c>
-      <c r="BX103" s="5">
+        <v>415527.11816304165</v>
+      </c>
+      <c r="DD103" s="5">
         <f t="shared" si="111"/>
-        <v>300770.58893191087</v>
-      </c>
-      <c r="BY103" s="5">
+        <v>419682.38934467209</v>
+      </c>
+      <c r="DE103" s="5">
         <f t="shared" si="111"/>
-        <v>303778.29482123</v>
-      </c>
-      <c r="BZ103" s="5">
+        <v>423879.2132381188</v>
+      </c>
+      <c r="DF103" s="5">
         <f t="shared" si="111"/>
-        <v>306816.07776944229</v>
-      </c>
-      <c r="CA103" s="5">
+        <v>428118.00537049997</v>
+      </c>
+      <c r="DG103" s="5">
         <f t="shared" si="111"/>
-        <v>309884.23854713672</v>
-      </c>
-      <c r="CB103" s="5">
+        <v>432399.18542420497</v>
+      </c>
+      <c r="DH103" s="5">
         <f t="shared" si="111"/>
-        <v>312983.08093260811</v>
-      </c>
-      <c r="CC103" s="5">
+        <v>436723.17727844702</v>
+      </c>
+      <c r="DI103" s="5">
         <f t="shared" si="111"/>
-        <v>316112.91174193419</v>
-      </c>
-      <c r="CD103" s="5">
+        <v>441090.40905123152</v>
+      </c>
+      <c r="DJ103" s="5">
         <f t="shared" si="111"/>
-        <v>319274.04085935355</v>
-      </c>
-      <c r="CE103" s="5">
+        <v>445501.31314174383</v>
+      </c>
+      <c r="DK103" s="5">
         <f t="shared" si="111"/>
-        <v>322466.78126794711</v>
-      </c>
-      <c r="CF103" s="5">
+        <v>449956.32627316128</v>
+      </c>
+      <c r="DL103" s="5">
         <f t="shared" si="111"/>
-        <v>325691.4490806266</v>
-      </c>
-      <c r="CG103" s="5">
+        <v>454455.88953589287</v>
+      </c>
+      <c r="DM103" s="5">
         <f t="shared" si="111"/>
-        <v>328948.36357143288</v>
-      </c>
-      <c r="CH103" s="5">
+        <v>459000.4484312518</v>
+      </c>
+      <c r="DN103" s="5">
         <f t="shared" si="111"/>
-        <v>332237.84720714722</v>
-      </c>
-      <c r="CI103" s="5">
+        <v>463590.45291556435</v>
+      </c>
+      <c r="DO103" s="5">
         <f t="shared" si="111"/>
-        <v>335560.22567921871</v>
-      </c>
-      <c r="CJ103" s="5">
+        <v>468226.35744471999</v>
+      </c>
+      <c r="DP103" s="5">
         <f t="shared" si="111"/>
-        <v>338915.8279360109</v>
-      </c>
-      <c r="CK103" s="5">
+        <v>472908.62101916719</v>
+      </c>
+      <c r="DQ103" s="5">
         <f t="shared" si="111"/>
-        <v>342304.986215371</v>
-      </c>
-      <c r="CL103" s="5">
+        <v>477637.70722935884</v>
+      </c>
+      <c r="DR103" s="5">
         <f t="shared" si="111"/>
-        <v>345728.03607752471</v>
-      </c>
-      <c r="CM103" s="5">
-        <f t="shared" ref="CM103:DR103" si="112">CL103*(1+$AC$97)</f>
-        <v>349185.31643829995</v>
-      </c>
-      <c r="CN103" s="5">
+        <v>482414.08430165244</v>
+      </c>
+      <c r="DS103" s="5">
+        <f t="shared" ref="DS103:EX103" si="112">DR103*(1+$AC$97)</f>
+        <v>487238.22514466895</v>
+      </c>
+      <c r="DT103" s="5">
         <f t="shared" si="112"/>
-        <v>352677.16960268293</v>
-      </c>
-      <c r="CO103" s="5">
+        <v>492110.60739611567</v>
+      </c>
+      <c r="DU103" s="5">
         <f t="shared" si="112"/>
-        <v>356203.94129870977</v>
-      </c>
-      <c r="CP103" s="5">
+        <v>497031.71347007685</v>
+      </c>
+      <c r="DV103" s="5">
         <f t="shared" si="112"/>
-        <v>359765.9807116969</v>
-      </c>
-      <c r="CQ103" s="5">
+        <v>502002.03060477762</v>
+      </c>
+      <c r="DW103" s="5">
         <f t="shared" si="112"/>
-        <v>363363.64051881386</v>
-      </c>
-      <c r="CR103" s="5">
+        <v>507022.05091082543</v>
+      </c>
+      <c r="DX103" s="5">
         <f t="shared" si="112"/>
-        <v>366997.27692400198</v>
-      </c>
-      <c r="CS103" s="5">
+        <v>512092.27141993371</v>
+      </c>
+      <c r="DY103" s="5">
         <f t="shared" si="112"/>
-        <v>370667.24969324202</v>
-      </c>
-      <c r="CT103" s="5">
+        <v>517213.19413413305</v>
+      </c>
+      <c r="DZ103" s="5">
         <f t="shared" si="112"/>
-        <v>374373.92219017446</v>
-      </c>
-      <c r="CU103" s="5">
+        <v>522385.32607547438</v>
+      </c>
+      <c r="EA103" s="5">
         <f t="shared" si="112"/>
-        <v>378117.66141207621</v>
-      </c>
-      <c r="CV103" s="5">
+        <v>527609.17933622911</v>
+      </c>
+      <c r="EB103" s="5">
         <f t="shared" si="112"/>
-        <v>381898.83802619699</v>
-      </c>
-      <c r="CW103" s="5">
+        <v>532885.27112959139</v>
+      </c>
+      <c r="EC103" s="5">
         <f t="shared" si="112"/>
-        <v>385717.82640645897</v>
-      </c>
-      <c r="CX103" s="5">
+        <v>538214.12384088733</v>
+      </c>
+      <c r="ED103" s="5">
         <f t="shared" si="112"/>
-        <v>389575.00467052357</v>
-      </c>
-      <c r="CY103" s="5">
+        <v>543596.26507929619</v>
+      </c>
+      <c r="EE103" s="5">
         <f t="shared" si="112"/>
-        <v>393470.75471722882</v>
-      </c>
-      <c r="CZ103" s="5">
+        <v>549032.22773008922</v>
+      </c>
+      <c r="EF103" s="5">
         <f t="shared" si="112"/>
-        <v>397405.46226440108</v>
-      </c>
-      <c r="DA103" s="5">
+        <v>554522.55000739009</v>
+      </c>
+      <c r="EG103" s="5">
         <f t="shared" si="112"/>
-        <v>401379.51688704512</v>
-      </c>
-      <c r="DB103" s="5">
+        <v>560067.77550746396</v>
+      </c>
+      <c r="EH103" s="5">
         <f t="shared" si="112"/>
-        <v>405393.31205591559</v>
-      </c>
-      <c r="DC103" s="5">
+        <v>565668.45326253865</v>
+      </c>
+      <c r="EI103" s="5">
         <f t="shared" si="112"/>
-        <v>409447.24517647474</v>
-      </c>
-      <c r="DD103" s="5">
+        <v>571325.13779516402</v>
+      </c>
+      <c r="EJ103" s="5">
         <f t="shared" si="112"/>
-        <v>413541.71762823948</v>
-      </c>
-      <c r="DE103" s="5">
+        <v>577038.38917311572</v>
+      </c>
+      <c r="EK103" s="5">
         <f t="shared" si="112"/>
-        <v>417677.13480452186</v>
-      </c>
-      <c r="DF103" s="5">
+        <v>582808.77306484687</v>
+      </c>
+      <c r="EL103" s="5">
         <f t="shared" si="112"/>
-        <v>421853.90615256707</v>
-      </c>
-      <c r="DG103" s="5">
+        <v>588636.86079549533</v>
+      </c>
+      <c r="EM103" s="5">
         <f t="shared" si="112"/>
-        <v>426072.44521409273</v>
-      </c>
-      <c r="DH103" s="5">
+        <v>594523.22940345027</v>
+      </c>
+      <c r="EN103" s="5">
         <f t="shared" si="112"/>
-        <v>430333.16966623365</v>
-      </c>
-      <c r="DI103" s="5">
+        <v>600468.46169748483</v>
+      </c>
+      <c r="EO103" s="5">
         <f t="shared" si="112"/>
-        <v>434636.501362896</v>
-      </c>
-      <c r="DJ103" s="5">
+        <v>606473.14631445974</v>
+      </c>
+      <c r="EP103" s="5">
         <f t="shared" si="112"/>
-        <v>438982.86637652497</v>
-      </c>
-      <c r="DK103" s="5">
+        <v>612537.87777760439</v>
+      </c>
+      <c r="EQ103" s="5">
         <f t="shared" si="112"/>
-        <v>443372.69504029024</v>
-      </c>
-      <c r="DL103" s="5">
+        <v>618663.25655538042</v>
+      </c>
+      <c r="ER103" s="5">
         <f t="shared" si="112"/>
-        <v>447806.42199069314</v>
-      </c>
-      <c r="DM103" s="5">
+        <v>624849.88912093418</v>
+      </c>
+      <c r="ES103" s="5">
         <f t="shared" si="112"/>
-        <v>452284.48621060007</v>
-      </c>
-      <c r="DN103" s="5">
+        <v>631098.38801214355</v>
+      </c>
+      <c r="ET103" s="5">
         <f t="shared" si="112"/>
-        <v>456807.33107270609</v>
-      </c>
-      <c r="DO103" s="5">
+        <v>637409.37189226504</v>
+      </c>
+      <c r="EU103" s="5">
         <f t="shared" si="112"/>
-        <v>461375.40438343317</v>
-      </c>
-      <c r="DP103" s="5">
+        <v>643783.46561118774</v>
+      </c>
+      <c r="EV103" s="5">
         <f t="shared" si="112"/>
-        <v>465989.15842726751</v>
-      </c>
-      <c r="DQ103" s="5">
+        <v>650221.30026729964</v>
+      </c>
+      <c r="EW103" s="5">
         <f t="shared" si="112"/>
-        <v>470649.05001154018</v>
-      </c>
-      <c r="DR103" s="5">
+        <v>656723.51326997264</v>
+      </c>
+      <c r="EX103" s="5">
         <f t="shared" si="112"/>
-        <v>475355.54051165556</v>
-      </c>
-      <c r="DS103" s="5">
-        <f t="shared" ref="DS103:EX103" si="113">DR103*(1+$AC$97)</f>
-        <v>480109.09591677214</v>
-      </c>
-      <c r="DT103" s="5">
+        <v>663290.74840267235</v>
+      </c>
+      <c r="EY103" s="5">
+        <f t="shared" ref="EY103:FG103" si="113">EX103*(1+$AC$97)</f>
+        <v>669923.6558866991</v>
+      </c>
+      <c r="EZ103" s="5">
         <f t="shared" si="113"/>
-        <v>484910.18687593989</v>
-      </c>
-      <c r="DU103" s="5">
+        <v>676622.89244556613</v>
+      </c>
+      <c r="FA103" s="5">
         <f t="shared" si="113"/>
-        <v>489759.28874469927</v>
-      </c>
-      <c r="DV103" s="5">
+        <v>683389.12137002184</v>
+      </c>
+      <c r="FB103" s="5">
         <f t="shared" si="113"/>
-        <v>494656.88163214625</v>
-      </c>
-      <c r="DW103" s="5">
+        <v>690223.01258372201</v>
+      </c>
+      <c r="FC103" s="5">
         <f t="shared" si="113"/>
-        <v>499603.45044846775</v>
-      </c>
-      <c r="DX103" s="5">
+        <v>697125.24270955927</v>
+      </c>
+      <c r="FD103" s="5">
         <f t="shared" si="113"/>
-        <v>504599.48495295242</v>
-      </c>
-      <c r="DY103" s="5">
+        <v>704096.49513665482</v>
+      </c>
+      <c r="FE103" s="5">
         <f t="shared" si="113"/>
-        <v>509645.47980248195</v>
-      </c>
-      <c r="DZ103" s="5">
+        <v>711137.46008802135</v>
+      </c>
+      <c r="FF103" s="5">
         <f t="shared" si="113"/>
-        <v>514741.93460050679</v>
-      </c>
-      <c r="EA103" s="5">
+        <v>718248.83468890155</v>
+      </c>
+      <c r="FG103" s="5">
         <f t="shared" si="113"/>
-        <v>519889.35394651187</v>
-      </c>
-      <c r="EB103" s="5">
-        <f t="shared" si="113"/>
-        <v>525088.24748597702</v>
-      </c>
-      <c r="EC103" s="5">
-        <f t="shared" si="113"/>
-        <v>530339.12996083684</v>
-      </c>
-      <c r="ED103" s="5">
-        <f t="shared" si="113"/>
-        <v>535642.52126044524</v>
-      </c>
-      <c r="EE103" s="5">
-        <f t="shared" si="113"/>
-        <v>540998.9464730497</v>
-      </c>
-      <c r="EF103" s="5">
-        <f t="shared" si="113"/>
-        <v>546408.93593778019</v>
-      </c>
-      <c r="EG103" s="5">
-        <f t="shared" si="113"/>
-        <v>551873.02529715805</v>
-      </c>
-      <c r="EH103" s="5">
-        <f t="shared" si="113"/>
-        <v>557391.75555012969</v>
-      </c>
-      <c r="EI103" s="5">
-        <f t="shared" si="113"/>
-        <v>562965.67310563102</v>
-      </c>
-      <c r="EJ103" s="5">
-        <f t="shared" si="113"/>
-        <v>568595.32983668731</v>
-      </c>
-      <c r="EK103" s="5">
-        <f t="shared" si="113"/>
-        <v>574281.28313505417</v>
-      </c>
-      <c r="EL103" s="5">
-        <f t="shared" si="113"/>
-        <v>580024.09596640477</v>
-      </c>
-      <c r="EM103" s="5">
-        <f t="shared" si="113"/>
-        <v>585824.33692606888</v>
-      </c>
-      <c r="EN103" s="5">
-        <f t="shared" si="113"/>
-        <v>591682.58029532956</v>
-      </c>
-      <c r="EO103" s="5">
-        <f t="shared" si="113"/>
-        <v>597599.4060982829</v>
-      </c>
-      <c r="EP103" s="5">
-        <f t="shared" si="113"/>
-        <v>603575.40015926573</v>
-      </c>
-      <c r="EQ103" s="5">
-        <f t="shared" si="113"/>
-        <v>609611.15416085836</v>
-      </c>
-      <c r="ER103" s="5">
-        <f t="shared" si="113"/>
-        <v>615707.26570246695</v>
-      </c>
-      <c r="ES103" s="5">
-        <f t="shared" si="113"/>
-        <v>621864.33835949167</v>
-      </c>
-      <c r="ET103" s="5">
-        <f t="shared" si="113"/>
-        <v>628082.9817430866</v>
-      </c>
-      <c r="EU103" s="5">
-        <f t="shared" si="113"/>
-        <v>634363.81156051741</v>
-      </c>
-      <c r="EV103" s="5">
-        <f t="shared" si="113"/>
-        <v>640707.44967612263</v>
-      </c>
-      <c r="EW103" s="5">
-        <f t="shared" si="113"/>
-        <v>647114.52417288383</v>
-      </c>
-      <c r="EX103" s="5">
-        <f t="shared" si="113"/>
-        <v>653585.6694146127</v>
-      </c>
-      <c r="EY103" s="5">
-        <f t="shared" ref="EY103:FG103" si="114">EX103*(1+$AC$97)</f>
-        <v>660121.52610875887</v>
-      </c>
-      <c r="EZ103" s="5">
-        <f t="shared" si="114"/>
-        <v>666722.74136984651</v>
-      </c>
-      <c r="FA103" s="5">
-        <f t="shared" si="114"/>
-        <v>673389.96878354496</v>
-      </c>
-      <c r="FB103" s="5">
-        <f t="shared" si="114"/>
-        <v>680123.86847138044</v>
-      </c>
-      <c r="FC103" s="5">
-        <f t="shared" si="114"/>
-        <v>686925.10715609428</v>
-      </c>
-      <c r="FD103" s="5">
-        <f t="shared" si="114"/>
-        <v>693794.35822765518</v>
-      </c>
-      <c r="FE103" s="5">
-        <f t="shared" si="114"/>
-        <v>700732.30180993176</v>
-      </c>
-      <c r="FF103" s="5">
-        <f t="shared" si="114"/>
-        <v>707739.62482803105</v>
-      </c>
-      <c r="FG103" s="5">
-        <f t="shared" si="114"/>
-        <v>714817.02107631136</v>
+        <v>725431.32303579058</v>
       </c>
     </row>
     <row r="104" spans="1:163" x14ac:dyDescent="0.25">
       <c r="S104" s="3">
-        <f t="shared" ref="S104:Z104" si="115">S103/S96</f>
+        <f t="shared" ref="S104:Z104" si="114">S103/S96</f>
         <v>0.65588283512760259</v>
       </c>
       <c r="T104" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0.6830243940793741</v>
       </c>
       <c r="U104" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0.57557420887226429</v>
       </c>
       <c r="V104" s="3">
-        <f t="shared" si="115"/>
-        <v>0.48392474482808528</v>
+        <f t="shared" si="114"/>
+        <v>0.45437751941743143</v>
       </c>
       <c r="W104" s="3">
-        <f t="shared" si="115"/>
-        <v>0.56586445288119658</v>
+        <f t="shared" si="114"/>
+        <v>0.57062868955798829</v>
       </c>
       <c r="X104" s="3">
-        <f t="shared" si="115"/>
-        <v>0.65815195636850155</v>
+        <f t="shared" si="114"/>
+        <v>0.66199339928506307</v>
       </c>
       <c r="Y104" s="3">
-        <f t="shared" si="115"/>
-        <v>0.73078287215722981</v>
+        <f t="shared" si="114"/>
+        <v>0.73386064537657592</v>
       </c>
       <c r="Z104" s="3">
-        <f t="shared" si="115"/>
-        <v>0.78797885033837201</v>
+        <f t="shared" si="114"/>
+        <v>0.79043095078940251</v>
       </c>
     </row>
   </sheetData>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16589FEA-D58D-4175-BD8D-BFEDFEEA6B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D009A-191E-4EF3-A620-EE58A936CB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="915" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="7275" yWindow="855" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -91,6 +91,10 @@
   <authors>
     <author>tc={6FF532F1-830D-4259-9AB9-82FDC064399F}</author>
     <author>tc={B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}</author>
+    <author>tc={27A2C0CB-24DD-49C9-8CEA-49FE631EF8FB}</author>
+    <author>tc={096FB016-FF97-4145-90B3-BC82A38B1387}</author>
+    <author>tc={1E7D3402-EC2F-4E86-9BC9-486984C5E5A7}</author>
+    <author>tc={CC9FFDAD-5D8D-42AF-A282-F7603C497A52}</author>
     <author>tc={3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}</author>
     <author>tc={B2A26FD5-756A-4436-88C9-DC45B78A3F12}</author>
     <author>tc={50D81D40-768D-4E6C-B865-C43BC614BF3C}</author>
@@ -112,7 +116,39 @@
     “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
       </text>
     </comment>
-    <comment ref="J73" authorId="2" shapeId="0" xr:uid="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
+    <comment ref="W13" authorId="2" shapeId="0" xr:uid="{27A2C0CB-24DD-49C9-8CEA-49FE631EF8FB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
+      </text>
+    </comment>
+    <comment ref="X13" authorId="3" shapeId="0" xr:uid="{096FB016-FF97-4145-90B3-BC82A38B1387}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="4" shapeId="0" xr:uid="{1E7D3402-EC2F-4E86-9BC9-486984C5E5A7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
+      </text>
+    </comment>
+    <comment ref="Z13" authorId="5" shapeId="0" xr:uid="{CC9FFDAD-5D8D-42AF-A282-F7603C497A52}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
+      </text>
+    </comment>
+    <comment ref="J73" authorId="6" shapeId="0" xr:uid="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +156,7 @@
     "16B-18B Debt 1st Quarter"</t>
       </text>
     </comment>
-    <comment ref="J100" authorId="3" shapeId="0" xr:uid="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
+    <comment ref="J100" authorId="7" shapeId="0" xr:uid="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +164,7 @@
     Acquisition of Wiz</t>
       </text>
     </comment>
-    <comment ref="V102" authorId="4" shapeId="0" xr:uid="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
+    <comment ref="V102" authorId="8" shapeId="0" xr:uid="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -525,7 +561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,12 +576,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -568,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -580,7 +610,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,8 +705,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13068300" y="180975"/>
-          <a:ext cx="9525" cy="14839950"/>
+          <a:off x="14116050" y="180975"/>
+          <a:ext cx="9525" cy="16744950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1055,6 +1084,18 @@
   <threadedComment ref="V13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
     <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
   </threadedComment>
+  <threadedComment ref="W13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{27A2C0CB-24DD-49C9-8CEA-49FE631EF8FB}">
+    <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
+  </threadedComment>
+  <threadedComment ref="X13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{096FB016-FF97-4145-90B3-BC82A38B1387}">
+    <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
+  </threadedComment>
+  <threadedComment ref="Y13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{1E7D3402-EC2F-4E86-9BC9-486984C5E5A7}">
+    <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
+  </threadedComment>
+  <threadedComment ref="Z13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{CC9FFDAD-5D8D-42AF-A282-F7603C497A52}">
+    <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
+  </threadedComment>
   <threadedComment ref="J73" dT="2025-04-24T04:58:21.95" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
     <text>"16B-18B Debt 1st Quarter"</text>
   </threadedComment>
@@ -1072,7 +1113,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,13 +1241,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
-  <dimension ref="A1:HL104"/>
+  <dimension ref="A1:HL109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="Z97" sqref="Z97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,19 +1506,19 @@
       </c>
       <c r="J6" s="2">
         <f>J3*J20</f>
-        <v>5451.48</v>
+        <v>5355.8400000000011</v>
       </c>
       <c r="K6" s="2">
         <f>K3*K20</f>
-        <v>6214.6871999999994</v>
+        <v>5998.5408000000025</v>
       </c>
       <c r="L6" s="2">
         <f>L3*L20</f>
-        <v>7084.7434079999985</v>
+        <v>6718.3656960000026</v>
       </c>
       <c r="M6" s="2">
         <f>M3*M20</f>
-        <v>8076.6074851199974</v>
+        <v>7524.5695795200045</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1654,7 +1695,7 @@
         <f>I11*0.93</f>
         <v>13808.640000000001</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="2" t="s">
         <v>117</v>
       </c>
       <c r="M11" s="5" t="s">
@@ -1707,8 +1748,8 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1725,19 +1766,19 @@
       <c r="G13" s="5"/>
       <c r="J13" s="5">
         <f>J20+J16</f>
-        <v>23263.86</v>
+        <v>23024.760000000002</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" ref="K13:M13" si="6">K20+K16</f>
-        <v>25749.987599999997</v>
+        <v>25980.434400000006</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="6"/>
-        <v>28537.924295999994</v>
+        <v>29317.768176000005</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="6"/>
-        <v>31667.148435359992</v>
+        <v>33086.337435840003</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1750,12 +1791,28 @@
         <v>64598</v>
       </c>
       <c r="U13" s="2">
-        <f>U16+U20</f>
+        <f t="shared" ref="U13:Z13" si="8">U16+U20</f>
         <v>79376</v>
       </c>
       <c r="V13" s="2">
-        <f>V16+V20</f>
-        <v>109218.92033135999</v>
+        <f t="shared" si="8"/>
+        <v>111409.30001184001</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="8"/>
+        <v>129897.87922836482</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="8"/>
+        <v>151628.98059389339</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="8"/>
+        <v>177196.48529491038</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="8"/>
+        <v>207306.49596599932</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -1765,10 +1822,10 @@
       <c r="E14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="5"/>
       <c r="O14" s="8"/>
       <c r="P14" s="3"/>
@@ -1820,11 +1877,11 @@
         <v>53266.717200000006</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ref="L15:M15" si="8">K15*1.06</f>
+        <f t="shared" ref="L15:M15" si="9">K15*1.06</f>
         <v>56462.720232000007</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59850.483445920014</v>
       </c>
       <c r="P15" s="2">
@@ -1850,20 +1907,20 @@
         <v>219831.54087792002</v>
       </c>
       <c r="W15" s="2">
-        <f>V15*1.09</f>
-        <v>239616.37955693284</v>
+        <f>V15*1.11</f>
+        <v>244013.01037449125</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" ref="X15:Z15" si="9">W15*1.09</f>
-        <v>261181.8537170568</v>
+        <f t="shared" ref="X15:Z15" si="10">W15*1.11</f>
+        <v>270854.44151568529</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="9"/>
-        <v>284688.22055159195</v>
+        <f t="shared" si="10"/>
+        <v>300648.43008241069</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="9"/>
-        <v>310310.16040123522</v>
+        <f t="shared" si="10"/>
+        <v>333719.7573914759</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -1899,16 +1956,16 @@
         <v>9635.16</v>
       </c>
       <c r="K16" s="2">
-        <f>J16*1.06</f>
-        <v>10213.2696</v>
+        <f>J16*1.14</f>
+        <v>10984.082399999999</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L16:M16" si="10">K16*1.06</f>
-        <v>10826.065775999999</v>
+        <f t="shared" ref="L16:M16" si="11">K16*1.14</f>
+        <v>12521.853935999998</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="10"/>
-        <v>11475.629722559999</v>
+        <f t="shared" si="11"/>
+        <v>14274.913487039996</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1925,23 +1982,23 @@
       </c>
       <c r="V16" s="2">
         <f>SUM(J16:M16)</f>
-        <v>42150.125098559998</v>
+        <v>47416.009823039989</v>
       </c>
       <c r="W16" s="2">
-        <f>V16*1.11</f>
-        <v>46786.638859401603</v>
+        <f>V16*1.12</f>
+        <v>53105.931001804791</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" ref="X16:Z16" si="11">W16*1.11</f>
-        <v>51933.169133935786</v>
+        <f t="shared" ref="X16:Z16" si="12">W16*1.12</f>
+        <v>59478.642722021374</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="11"/>
-        <v>57645.817738668724</v>
+        <f t="shared" si="12"/>
+        <v>66616.07984866394</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="11"/>
-        <v>63986.85768992229</v>
+        <f t="shared" si="12"/>
+        <v>74610.009430503618</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -1981,11 +2038,11 @@
         <v>7464.0336000000007</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17:M17" si="12">K17*1.02</f>
+        <f t="shared" ref="L17:M17" si="13">K17*1.02</f>
         <v>7613.3142720000005</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7765.580557440001</v>
       </c>
       <c r="N17" s="3"/>
@@ -2006,20 +2063,20 @@
         <v>30160.608429440003</v>
       </c>
       <c r="W17" s="2">
-        <f>V17*1.03</f>
-        <v>31065.426682323203</v>
+        <f>V17*1.01</f>
+        <v>30462.214513734401</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" ref="X17:Z17" si="13">W17*1.03</f>
-        <v>31997.3894827929</v>
+        <f t="shared" ref="X17:Z17" si="14">W17*1.01</f>
+        <v>30766.836658871747</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="13"/>
-        <v>32957.31116727669</v>
+        <f t="shared" si="14"/>
+        <v>31074.505025460465</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="13"/>
-        <v>33946.030502294991</v>
+        <f t="shared" si="14"/>
+        <v>31385.25007571507</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2059,11 +2116,11 @@
         <v>11023.4308</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" ref="L18:M18" si="14">K18*1.03</f>
+        <f t="shared" ref="L18:M18" si="15">K18*1.03</f>
         <v>11354.133724000001</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11694.757735720001</v>
       </c>
       <c r="Q18" s="4"/>
@@ -2082,20 +2139,20 @@
         <v>44774.682259720001</v>
       </c>
       <c r="W18" s="2">
-        <f>V18*1.1</f>
-        <v>49252.150485692007</v>
+        <f>V18*1.12</f>
+        <v>50147.644130886409</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" ref="X18:Z18" si="15">W18*1.1</f>
-        <v>54177.365534261211</v>
+        <f t="shared" ref="X18:Z18" si="16">W18*1.12</f>
+        <v>56165.361426592783</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="15"/>
-        <v>59595.102087687337</v>
+        <f t="shared" si="16"/>
+        <v>62905.204797783925</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="15"/>
-        <v>65554.612296456078</v>
+        <f t="shared" si="16"/>
+        <v>70453.829373518005</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2107,92 +2164,92 @@
         <v>61961</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:P19" si="16">SUM(C15:C18)</f>
+        <f t="shared" ref="C19:P19" si="17">SUM(C15:C18)</f>
         <v>66285</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>67986</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>76311</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>70398</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>73928</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>76510</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>84094</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>77906.819999999992</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="16"/>
-        <v>81967.45120000001</v>
+        <f t="shared" si="17"/>
+        <v>82738.26400000001</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="16"/>
-        <v>86256.234004000013</v>
+        <f t="shared" si="17"/>
+        <v>87952.022164000009</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="16"/>
-        <v>90786.451461640027</v>
+        <f t="shared" si="17"/>
+        <v>93585.735226120014</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>161857</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="17">SUM(Q15:Q18)</f>
+        <f t="shared" ref="Q19" si="18">SUM(Q15:Q18)</f>
         <v>182527</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19" si="18">SUM(R15:R18)</f>
+        <f t="shared" ref="R19" si="19">SUM(R15:R18)</f>
         <v>257637</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19" si="19">SUM(S15:S18)</f>
+        <f t="shared" ref="S19" si="20">SUM(S15:S18)</f>
         <v>253528</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" ref="T19" si="20">SUM(T15:T18)</f>
+        <f t="shared" ref="T19" si="21">SUM(T15:T18)</f>
         <v>272543</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19" si="21">SUM(U15:U18)</f>
+        <f t="shared" ref="U19" si="22">SUM(U15:U18)</f>
         <v>304930</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" ref="V19" si="22">SUM(V15:V18)</f>
-        <v>336916.95666564</v>
+        <f t="shared" ref="V19" si="23">SUM(V15:V18)</f>
+        <v>342182.84139011998</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" ref="W19" si="23">SUM(W15:W18)</f>
-        <v>366720.59558434965</v>
+        <f t="shared" ref="W19" si="24">SUM(W15:W18)</f>
+        <v>377728.80002091685</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" ref="X19" si="24">SUM(X15:X18)</f>
-        <v>399289.77786804666</v>
+        <f t="shared" ref="X19" si="25">SUM(X15:X18)</f>
+        <v>417265.28232317121</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" ref="Y19" si="25">SUM(Y15:Y18)</f>
-        <v>434886.4515452247</v>
+        <f t="shared" ref="Y19" si="26">SUM(Y15:Y18)</f>
+        <v>461244.219754319</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" ref="Z19" si="26">SUM(Z15:Z18)</f>
-        <v>473797.66088990855</v>
+        <f t="shared" ref="Z19" si="27">SUM(Z15:Z18)</f>
+        <v>510168.84627121262</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2224,22 +2281,22 @@
         <v>11955</v>
       </c>
       <c r="J20" s="2">
-        <f>I20*1.14</f>
-        <v>13628.699999999999</v>
+        <f>I20*1.12</f>
+        <v>13389.600000000002</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ref="K20:M20" si="27">J20*1.14</f>
-        <v>15536.717999999997</v>
+        <f t="shared" ref="K20:M20" si="28">J20*1.12</f>
+        <v>14996.352000000004</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="27"/>
-        <v>17711.858519999994</v>
+        <f t="shared" si="28"/>
+        <v>16795.914240000006</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="27"/>
-        <v>20191.518712799992</v>
-      </c>
-      <c r="N20" s="8"/>
+        <f t="shared" si="28"/>
+        <v>18811.423948800009</v>
+      </c>
+      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2254,23 +2311,23 @@
       </c>
       <c r="V20" s="2">
         <f>SUM(J20:M20)</f>
-        <v>67068.795232799981</v>
+        <v>63993.29018880002</v>
       </c>
       <c r="W20" s="2">
         <f>V20*1.2</f>
-        <v>80482.554279359974</v>
+        <v>76791.948226560024</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" ref="X20:Z20" si="28">W20*1.2</f>
-        <v>96579.065135231969</v>
+        <f t="shared" ref="X20:Z20" si="29">W20*1.2</f>
+        <v>92150.33787187202</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="28"/>
-        <v>115894.87816227836</v>
+        <f t="shared" si="29"/>
+        <v>110580.40544624643</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="28"/>
-        <v>139073.85379473402</v>
+        <f t="shared" si="29"/>
+        <v>132696.4865354957</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2318,11 +2375,11 @@
         <v>398.41200000000003</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21:M21" si="29">K21*1.02</f>
+        <f t="shared" ref="L21:M21" si="30">K21*1.02</f>
         <v>406.38024000000001</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>414.50784480000004</v>
       </c>
       <c r="N21" s="3"/>
@@ -2349,15 +2406,15 @@
         <v>1690.3950890400001</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21:Z21" si="30">W21*1.05</f>
+        <f t="shared" ref="X21:Z21" si="31">W21*1.05</f>
         <v>1774.9148434920003</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1863.6605856666004</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1956.8436149499305</v>
       </c>
     </row>
@@ -2370,96 +2427,96 @@
         <v>69787</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:Z22" si="31">SUM(C19:C21)</f>
+        <f t="shared" ref="C22:Z22" si="32">SUM(C19:C21)</f>
         <v>74604</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>76693</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>86310</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>80539</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>84742</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>88268</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>96469</v>
       </c>
       <c r="J22" s="5">
         <f>SUM(J19:J21)</f>
-        <v>91926.12</v>
+        <v>91687.02</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ref="K22:M22" si="32">SUM(K19:K21)</f>
-        <v>97902.581200000001</v>
+        <f t="shared" ref="K22:M22" si="33">SUM(K19:K21)</f>
+        <v>98133.028000000006</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="32"/>
-        <v>104374.47276400001</v>
+        <f t="shared" si="33"/>
+        <v>105154.31664400001</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="32"/>
-        <v>111392.47801924002</v>
+        <f t="shared" si="33"/>
+        <v>112811.66701972003</v>
       </c>
       <c r="N22" s="5">
         <f>SUM(J22:M22)</f>
-        <v>405595.65198324004</v>
+        <v>407786.03166372003</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>161857</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>182527</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>257637</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>282836</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>307394</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>350018</v>
       </c>
       <c r="V22" s="5">
         <f>SUM(J22:M22)</f>
-        <v>405595.65198324004</v>
+        <v>407786.03166372003</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="31"/>
-        <v>448893.54495274962</v>
+        <f t="shared" si="32"/>
+        <v>456211.14333651686</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="31"/>
-        <v>497643.75784677058</v>
+        <f t="shared" si="32"/>
+        <v>511190.53503853519</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="31"/>
-        <v>552644.99029316974</v>
+        <f t="shared" si="32"/>
+        <v>573688.2857862321</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="31"/>
-        <v>614828.35829959251</v>
+        <f t="shared" si="32"/>
+        <v>644822.17642165825</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2492,19 +2549,19 @@
       </c>
       <c r="J23" s="2">
         <f>J22*(1-J43)</f>
-        <v>38608.970399999998</v>
+        <v>38508.548400000007</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:M23" si="33">K22*(1-K43)</f>
-        <v>41119.084104000001</v>
+        <f t="shared" ref="K23:M23" si="34">K22*(1-K43)</f>
+        <v>41215.871760000009</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="33"/>
-        <v>43837.278560880004</v>
+        <f t="shared" si="34"/>
+        <v>44164.812990480008</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="33"/>
-        <v>46784.840768080816</v>
+        <f t="shared" si="34"/>
+        <v>47380.900148282417</v>
       </c>
       <c r="P23" s="2">
         <v>71896</v>
@@ -2526,23 +2583,23 @@
       </c>
       <c r="V23" s="2">
         <f>SUM(J23:M23)</f>
-        <v>170350.17383296083</v>
+        <v>171270.13329876243</v>
       </c>
       <c r="W23" s="2">
         <f>W22*(1-W43)</f>
-        <v>188535.28888015487</v>
+        <v>191608.68020133709</v>
       </c>
       <c r="X23" s="2">
         <f>X22*(1-X43)</f>
-        <v>209010.37829564366</v>
+        <v>214700.02471618479</v>
       </c>
       <c r="Y23" s="2">
         <f>Y22*(1-Y43)</f>
-        <v>232110.89592313132</v>
+        <v>240949.0800302175</v>
       </c>
       <c r="Z23" s="2">
         <f>Z22*(1-Z43)</f>
-        <v>258227.91048582888</v>
+        <v>270825.3140970965</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2554,48 +2611,48 @@
         <v>39175</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:M24" si="34">C22-C23</f>
+        <f t="shared" ref="C24:M24" si="35">C22-C23</f>
         <v>42688</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>43464</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>48735</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>46827</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>49235</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>51794</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>55856</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="34"/>
-        <v>53317.149599999997</v>
+        <f t="shared" si="35"/>
+        <v>53178.471599999997</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="34"/>
-        <v>56783.497095999999</v>
+        <f t="shared" si="35"/>
+        <v>56917.156239999997</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="34"/>
-        <v>60537.194203120001</v>
+        <f t="shared" si="35"/>
+        <v>60989.503653519998</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="34"/>
-        <v>64607.637251159205</v>
+        <f t="shared" si="35"/>
+        <v>65430.766871437612</v>
       </c>
       <c r="P24" s="2">
         <f>P22-P23</f>
@@ -2610,36 +2667,36 @@
         <v>146698</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24:U24" si="35">S22-S23</f>
+        <f t="shared" ref="S24:U24" si="36">S22-S23</f>
         <v>156633</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>174062</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>203716</v>
       </c>
       <c r="V24" s="2">
         <f>V22-V23</f>
-        <v>235245.4781502792</v>
+        <v>236515.8983649576</v>
       </c>
       <c r="W24" s="2">
         <f>W22-W23</f>
-        <v>260358.25607259476</v>
+        <v>264602.46313517977</v>
       </c>
       <c r="X24" s="2">
         <f>X22-X23</f>
-        <v>288633.37955112691</v>
+        <v>296490.51032235043</v>
       </c>
       <c r="Y24" s="2">
         <f>Y22-Y23</f>
-        <v>320534.09437003842</v>
+        <v>332739.20575601456</v>
       </c>
       <c r="Z24" s="2">
         <f>Z22-Z23</f>
-        <v>356600.44781376363</v>
+        <v>373996.86232456175</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2672,19 +2729,19 @@
       </c>
       <c r="J25" s="2">
         <f>I25*(1+J39)</f>
-        <v>12498.346514631643</v>
+        <v>12465.838293337758</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25:M25" si="36">J25*(1+K39)</f>
-        <v>13310.91081092579</v>
+        <f t="shared" ref="K25:M25" si="37">J25*(1+K39)</f>
+        <v>13342.24253644176</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="36"/>
-        <v>14190.834203450064</v>
+        <f t="shared" si="37"/>
+        <v>14296.862381725779</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="36"/>
-        <v>15145.007636653767</v>
+        <f t="shared" si="37"/>
+        <v>15337.961672979383</v>
       </c>
       <c r="P25" s="2">
         <v>26018</v>
@@ -2706,23 +2763,23 @@
       </c>
       <c r="V25" s="2">
         <f>U25*(1+V38)</f>
-        <v>57158.235089981943</v>
+        <v>57466.912552624875</v>
       </c>
       <c r="W25" s="2">
         <f>V25*(1+W38)</f>
-        <v>63259.955197559357</v>
+        <v>64291.181756986873</v>
       </c>
       <c r="X25" s="2">
         <f>W25*(1+X38)</f>
-        <v>70130.039025278151</v>
+        <v>72039.107506787623</v>
       </c>
       <c r="Y25" s="2">
         <f>X25*(1+Y38)</f>
-        <v>77881.042664094115</v>
+        <v>80846.551847881216</v>
       </c>
       <c r="Z25" s="2">
         <f>Y25*(1+Z38)</f>
-        <v>86644.182874839884</v>
+        <v>90871.037130018231</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -2755,19 +2812,19 @@
       </c>
       <c r="J26" s="2">
         <f>I26*(1+J39)</f>
-        <v>7016.2645156475137</v>
+        <v>6998.0151992868186</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26:M26" si="37">J26*(1+K39)</f>
-        <v>7472.4181382164224</v>
+        <f t="shared" ref="K26:M26" si="38">J26*(1+K39)</f>
+        <v>7490.0069987664438</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="37"/>
-        <v>7966.385501677556</v>
+        <f t="shared" si="38"/>
+        <v>8025.9071147184286</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="37"/>
-        <v>8502.035012860757</v>
+        <f t="shared" si="38"/>
+        <v>8610.3546659154617</v>
       </c>
       <c r="P26" s="2">
         <v>18464</v>
@@ -2789,23 +2846,23 @@
       </c>
       <c r="V26" s="2">
         <f>U26*(1+V38/2)</f>
-        <v>30015.748382011694</v>
+        <v>30102.75830457966</v>
       </c>
       <c r="W26" s="2">
         <f>V26*(1+W38/2)</f>
-        <v>31617.859566499654</v>
+        <v>31890.128787343761</v>
       </c>
       <c r="X26" s="2">
         <f>W26*(1+X38/2)</f>
-        <v>33334.722509229607</v>
+        <v>33811.716968207082</v>
       </c>
       <c r="Y26" s="2">
         <f>X26*(1+Y38/2)</f>
-        <v>35176.854347876011</v>
+        <v>35878.613863384715</v>
       </c>
       <c r="Z26" s="2">
         <f>Y26*(1+Z38/2)</f>
-        <v>37155.896334723584</v>
+        <v>38102.979828266638</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -2838,19 +2895,19 @@
       </c>
       <c r="J27" s="2">
         <f>I27*(1+J39)</f>
-        <v>4197.5614819268367</v>
+        <v>4186.643617120526</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:M27" si="38">J27*(1+K39)</f>
-        <v>4470.4606680488032</v>
+        <f t="shared" ref="K27:M27" si="39">J27*(1+K39)</f>
+        <v>4480.983407519514</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="38"/>
-        <v>4765.9823624731271</v>
+        <f t="shared" si="39"/>
+        <v>4801.5918566256523</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="38"/>
-        <v>5086.4408843747979</v>
+        <f t="shared" si="39"/>
+        <v>5151.2443709571653</v>
       </c>
       <c r="P27" s="2">
         <f>9551+1697</f>
@@ -2873,23 +2930,23 @@
       </c>
       <c r="V27" s="2">
         <f>U27*(1+V38/3)</f>
-        <v>14938.947785864544</v>
+        <v>14968.54350847181</v>
       </c>
       <c r="W27" s="2">
         <f>V27*(1+W38/3)</f>
-        <v>15470.532184552152</v>
+        <v>15561.054723254025</v>
       </c>
       <c r="X27" s="2">
         <f>W27*(1+X38/3)</f>
-        <v>16030.569745098275</v>
+        <v>16186.158059302417</v>
       </c>
       <c r="Y27" s="2">
         <f>X27*(1+Y38/3)</f>
-        <v>16621.153590734728</v>
+        <v>16845.793689343212</v>
       </c>
       <c r="Z27" s="2">
         <f>Y27*(1+Z38/3)</f>
-        <v>17244.55518885389</v>
+        <v>17542.052659968947</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -2901,92 +2958,92 @@
         <v>21760</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:K28" si="39">SUM(C25:C27)</f>
+        <f t="shared" ref="C28:K28" si="40">SUM(C25:C27)</f>
         <v>20850</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>22121</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>25038</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>21355</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>21810</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>23273</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>24884</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="39"/>
-        <v>23712.172512205994</v>
+        <f t="shared" si="40"/>
+        <v>23650.497109745105</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="39"/>
-        <v>25253.789617191014</v>
+        <f t="shared" si="40"/>
+        <v>25313.232942727718</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28:M28" si="40">SUM(L25:L27)</f>
-        <v>26923.202067600745</v>
+        <f t="shared" ref="L28:M28" si="41">SUM(L25:L27)</f>
+        <v>27124.36135306986</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="40"/>
-        <v>28733.483533889321</v>
+        <f t="shared" si="41"/>
+        <v>29099.560709852012</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" ref="P28:Z28" si="41">SUM(P25:P27)</f>
+        <f t="shared" ref="P28:Z28" si="42">SUM(P25:P27)</f>
         <v>55730</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>56571</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>67984</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>81791</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>89589</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>91322</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="41"/>
-        <v>102112.93125785817</v>
+        <f t="shared" si="42"/>
+        <v>102538.21436567634</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="41"/>
-        <v>110348.34694861116</v>
+        <f t="shared" si="42"/>
+        <v>111742.36526758465</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="41"/>
-        <v>119495.33127960603</v>
+        <f t="shared" si="42"/>
+        <v>122036.98253429712</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="41"/>
-        <v>129679.05060270485</v>
+        <f t="shared" si="42"/>
+        <v>133570.95940060914</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="41"/>
-        <v>141044.63439841737</v>
+        <f t="shared" si="42"/>
+        <v>146516.06961825379</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -2998,92 +3055,92 @@
         <v>17415</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:K29" si="42">C24-C28</f>
+        <f t="shared" ref="C29:K29" si="43">C24-C28</f>
         <v>21838</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>21343</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>23697</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>25472</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>27425</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28521</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>30972</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="42"/>
-        <v>29604.977087794003</v>
+        <f t="shared" si="43"/>
+        <v>29527.974490254892</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="42"/>
-        <v>31529.707478808985</v>
+        <f t="shared" si="43"/>
+        <v>31603.923297272278</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29:M29" si="43">L24-L28</f>
-        <v>33613.992135519256</v>
+        <f t="shared" ref="L29:M29" si="44">L24-L28</f>
+        <v>33865.142300450141</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="43"/>
-        <v>35874.153717269888</v>
+        <f t="shared" si="44"/>
+        <v>36331.2061615856</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" ref="P29:Z29" si="44">P24-P28</f>
+        <f t="shared" ref="P29:Z29" si="45">P24-P28</f>
         <v>34231</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>41224</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>78714</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>74842</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>84473</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>112394</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="44"/>
-        <v>133132.54689242103</v>
+        <f t="shared" si="45"/>
+        <v>133977.68399928126</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="44"/>
-        <v>150009.90912398358</v>
+        <f t="shared" si="45"/>
+        <v>152860.09786759512</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="44"/>
-        <v>169138.04827152088</v>
+        <f t="shared" si="45"/>
+        <v>174453.52778805332</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="44"/>
-        <v>190855.04376733355</v>
+        <f t="shared" si="45"/>
+        <v>199168.24635540543</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="44"/>
-        <v>215555.81341534626</v>
+        <f t="shared" si="45"/>
+        <v>227480.79270630796</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3100,19 +3157,19 @@
       </c>
       <c r="W30" s="2">
         <f>V56*$AC$96</f>
-        <v>11881.64276297166</v>
+        <v>11922.71642636507</v>
       </c>
       <c r="X30" s="2">
         <f>W56*$AC$96</f>
-        <v>19828.109784677687</v>
+        <v>20009.698801051534</v>
       </c>
       <c r="Y30" s="2">
         <f>X56*$AC$96</f>
-        <v>29091.188042208934</v>
+        <v>29539.934589282031</v>
       </c>
       <c r="Z30" s="2">
         <f>Y56*$AC$96</f>
-        <v>39860.691113912704</v>
+        <v>40735.268388953846</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3168,15 +3225,15 @@
         <v>1616</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" ref="X31:Z31" si="45">W31*1.01</f>
+        <f t="shared" ref="X31:Z31" si="46">W31*1.01</f>
         <v>1632.16</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1648.4816000000001</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1664.966416</v>
       </c>
     </row>
@@ -3189,94 +3246,94 @@
         <v>18205</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:K32" si="46">C29+SUM(C30:C31)</f>
+        <f t="shared" ref="C32:K32" si="47">C29+SUM(C30:C31)</f>
         <v>21903</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>21197</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>24412</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>28315</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>27551</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>31706</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>32243</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="46"/>
-        <v>31876.587087794003</v>
+        <f t="shared" si="47"/>
+        <v>31799.584490254892</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="46"/>
-        <v>31529.707478808985</v>
+        <f t="shared" si="47"/>
+        <v>31603.923297272278</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" ref="L32:M32" si="47">L29+SUM(L30:L31)</f>
-        <v>33613.992135519256</v>
+        <f t="shared" ref="L32:M32" si="48">L29+SUM(L30:L31)</f>
+        <v>33865.142300450141</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="47"/>
-        <v>35874.153717269888</v>
+        <f t="shared" si="48"/>
+        <v>36331.2061615856</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="2">
-        <f t="shared" ref="P32:U32" si="48">SUM(P29:P31)</f>
+        <f t="shared" ref="P32:U32" si="49">SUM(P29:P31)</f>
         <v>39625</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>48082</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>78714</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>74842</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>85897</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>119819</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" ref="V32:Z32" si="49">SUM(V29:V31)</f>
-        <v>139818.98689242103</v>
+        <f t="shared" ref="V32:Z32" si="50">SUM(V29:V31)</f>
+        <v>140664.12399928126</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="49"/>
-        <v>163507.55188695525</v>
+        <f t="shared" si="50"/>
+        <v>166398.8142939602</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="49"/>
-        <v>190598.31805619856</v>
+        <f t="shared" si="50"/>
+        <v>196095.38658910486</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="49"/>
-        <v>221594.71340954248</v>
+        <f t="shared" si="50"/>
+        <v>230356.66254468745</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="49"/>
-        <v>257081.47094525897</v>
+        <f t="shared" si="50"/>
+        <v>269881.02751126181</v>
       </c>
     </row>
     <row r="33" spans="1:220" x14ac:dyDescent="0.25">
@@ -3309,19 +3366,19 @@
       </c>
       <c r="J33" s="2">
         <f>J32*J40</f>
-        <v>6056.5515466808611</v>
+        <v>6041.9210531484296</v>
       </c>
       <c r="K33" s="2">
         <f>K32*K40</f>
-        <v>5990.6444209737074</v>
+        <v>6004.7454264817334</v>
       </c>
       <c r="L33" s="2">
         <f>L32*L40</f>
-        <v>6386.6585057486591</v>
+        <v>6434.3770370855273</v>
       </c>
       <c r="M33" s="2">
         <f>M32*M40</f>
-        <v>6816.0892062812791</v>
+        <v>6902.9291707012644</v>
       </c>
       <c r="P33" s="2">
         <v>5282</v>
@@ -3343,23 +3400,23 @@
       </c>
       <c r="V33" s="2">
         <f>V32*V40</f>
-        <v>26565.607509559995</v>
+        <v>26726.183559863439</v>
       </c>
       <c r="W33" s="2">
         <f>W32*W40</f>
-        <v>31066.434858521498</v>
+        <v>31615.774715852436</v>
       </c>
       <c r="X33" s="2">
         <f>X32*X40</f>
-        <v>36213.680430677727</v>
+        <v>37258.123451929925</v>
       </c>
       <c r="Y33" s="2">
         <f>Y32*Y40</f>
-        <v>42102.995547813072</v>
+        <v>43767.765883490618</v>
       </c>
       <c r="Z33" s="2">
         <f>Z32*Z40</f>
-        <v>48845.479479599206</v>
+        <v>51277.395227139743</v>
       </c>
     </row>
     <row r="34" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3371,868 +3428,868 @@
         <v>15051</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:K34" si="50">C32-C33</f>
+        <f t="shared" ref="C34:K34" si="51">C32-C33</f>
         <v>18368</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>19689</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>20687</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>23662</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>23619</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>26301</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>26536</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="50"/>
-        <v>25820.035541113142</v>
+        <f t="shared" si="51"/>
+        <v>25757.663437106465</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="50"/>
-        <v>25539.063057835279</v>
+        <f t="shared" si="51"/>
+        <v>25599.177870790547</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" ref="L34:M34" si="51">L32-L33</f>
-        <v>27227.333629770597</v>
+        <f t="shared" ref="L34:M34" si="52">L32-L33</f>
+        <v>27430.765263364614</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="51"/>
-        <v>29058.06451098861</v>
+        <f t="shared" si="52"/>
+        <v>29428.276990884337</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34:U34" si="52">P32-P33</f>
+        <f t="shared" ref="P34:U34" si="53">P32-P33</f>
         <v>34343</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>40269</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>64013</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>63486</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>73975</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>100122</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:Z34" si="53">V32-V33</f>
-        <v>113253.37938286104</v>
+        <f t="shared" ref="V34:Z34" si="54">V32-V33</f>
+        <v>113937.94043941783</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="53"/>
-        <v>132441.11702843374</v>
+        <f t="shared" si="54"/>
+        <v>134783.03957810777</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="53"/>
-        <v>154384.63762552085</v>
+        <f t="shared" si="54"/>
+        <v>158837.26313717494</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="53"/>
-        <v>179491.71786172941</v>
+        <f t="shared" si="54"/>
+        <v>186588.89666119684</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="53"/>
-        <v>208235.99146565975</v>
+        <f t="shared" si="54"/>
+        <v>218603.63228412205</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" ref="AA34:BF34" si="54">Z34*(1+$AC$97)</f>
-        <v>210318.35138031637</v>
+        <f t="shared" ref="AA34:BF34" si="55">Z34*(1+$AC$97)</f>
+        <v>220789.66860696327</v>
       </c>
       <c r="AB34" s="5">
-        <f t="shared" si="54"/>
-        <v>212421.53489411954</v>
+        <f t="shared" si="55"/>
+        <v>222997.56529303291</v>
       </c>
       <c r="AC34" s="5">
-        <f t="shared" si="54"/>
-        <v>214545.75024306073</v>
+        <f t="shared" si="55"/>
+        <v>225227.54094596324</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" si="54"/>
-        <v>216691.20774549132</v>
+        <f t="shared" si="55"/>
+        <v>227479.81635542287</v>
       </c>
       <c r="AE34" s="5">
-        <f t="shared" si="54"/>
-        <v>218858.11982294623</v>
+        <f t="shared" si="55"/>
+        <v>229754.61451897709</v>
       </c>
       <c r="AF34" s="5">
-        <f t="shared" si="54"/>
-        <v>221046.70102117569</v>
+        <f t="shared" si="55"/>
+        <v>232052.16066416688</v>
       </c>
       <c r="AG34" s="5">
-        <f t="shared" si="54"/>
-        <v>223257.16803138744</v>
+        <f t="shared" si="55"/>
+        <v>234372.68227080855</v>
       </c>
       <c r="AH34" s="5">
-        <f t="shared" si="54"/>
-        <v>225489.73971170132</v>
+        <f t="shared" si="55"/>
+        <v>236716.40909351665</v>
       </c>
       <c r="AI34" s="5">
-        <f t="shared" si="54"/>
-        <v>227744.63710881834</v>
+        <f t="shared" si="55"/>
+        <v>239083.57318445182</v>
       </c>
       <c r="AJ34" s="5">
-        <f t="shared" si="54"/>
-        <v>230022.08347990652</v>
+        <f t="shared" si="55"/>
+        <v>241474.40891629635</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="54"/>
-        <v>232322.3043147056</v>
+        <f t="shared" si="55"/>
+        <v>243889.15300545932</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="54"/>
-        <v>234645.52735785267</v>
+        <f t="shared" si="55"/>
+        <v>246328.04453551391</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" si="54"/>
-        <v>236991.98263143119</v>
+        <f t="shared" si="55"/>
+        <v>248791.32498086905</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="54"/>
-        <v>239361.90245774551</v>
+        <f t="shared" si="55"/>
+        <v>251279.23823067773</v>
       </c>
       <c r="AO34" s="5">
-        <f t="shared" si="54"/>
-        <v>241755.52148232298</v>
+        <f t="shared" si="55"/>
+        <v>253792.0306129845</v>
       </c>
       <c r="AP34" s="5">
-        <f t="shared" si="54"/>
-        <v>244173.0766971462</v>
+        <f t="shared" si="55"/>
+        <v>256329.95091911434</v>
       </c>
       <c r="AQ34" s="5">
-        <f t="shared" si="54"/>
-        <v>246614.80746411765</v>
+        <f t="shared" si="55"/>
+        <v>258893.2504283055</v>
       </c>
       <c r="AR34" s="5">
-        <f t="shared" si="54"/>
-        <v>249080.95553875883</v>
+        <f t="shared" si="55"/>
+        <v>261482.18293258856</v>
       </c>
       <c r="AS34" s="5">
-        <f t="shared" si="54"/>
-        <v>251571.76509414642</v>
+        <f t="shared" si="55"/>
+        <v>264097.00476191443</v>
       </c>
       <c r="AT34" s="5">
-        <f t="shared" si="54"/>
-        <v>254087.48274508788</v>
+        <f t="shared" si="55"/>
+        <v>266737.97480953357</v>
       </c>
       <c r="AU34" s="5">
-        <f t="shared" si="54"/>
-        <v>256628.35757253875</v>
+        <f t="shared" si="55"/>
+        <v>269405.35455762892</v>
       </c>
       <c r="AV34" s="5">
-        <f t="shared" si="54"/>
-        <v>259194.64114826414</v>
+        <f t="shared" si="55"/>
+        <v>272099.40810320521</v>
       </c>
       <c r="AW34" s="5">
-        <f t="shared" si="54"/>
-        <v>261786.58755974678</v>
+        <f t="shared" si="55"/>
+        <v>274820.40218423726</v>
       </c>
       <c r="AX34" s="5">
-        <f t="shared" si="54"/>
-        <v>264404.45343534427</v>
+        <f t="shared" si="55"/>
+        <v>277568.60620607965</v>
       </c>
       <c r="AY34" s="5">
-        <f t="shared" si="54"/>
-        <v>267048.4979696977</v>
+        <f t="shared" si="55"/>
+        <v>280344.29226814047</v>
       </c>
       <c r="AZ34" s="5">
-        <f t="shared" si="54"/>
-        <v>269718.98294939467</v>
+        <f t="shared" si="55"/>
+        <v>283147.73519082187</v>
       </c>
       <c r="BA34" s="5">
-        <f t="shared" si="54"/>
-        <v>272416.17277888861</v>
+        <f t="shared" si="55"/>
+        <v>285979.21254273009</v>
       </c>
       <c r="BB34" s="5">
-        <f t="shared" si="54"/>
-        <v>275140.33450667752</v>
+        <f t="shared" si="55"/>
+        <v>288839.00466815737</v>
       </c>
       <c r="BC34" s="5">
-        <f t="shared" si="54"/>
-        <v>277891.73785174428</v>
+        <f t="shared" si="55"/>
+        <v>291727.39471483894</v>
       </c>
       <c r="BD34" s="5">
-        <f t="shared" si="54"/>
-        <v>280670.65523026173</v>
+        <f t="shared" si="55"/>
+        <v>294644.66866198735</v>
       </c>
       <c r="BE34" s="5">
-        <f t="shared" si="54"/>
-        <v>283477.36178256437</v>
+        <f t="shared" si="55"/>
+        <v>297591.11534860724</v>
       </c>
       <c r="BF34" s="5">
-        <f t="shared" si="54"/>
-        <v>286312.13540039002</v>
+        <f t="shared" si="55"/>
+        <v>300567.0265020933</v>
       </c>
       <c r="BG34" s="5">
-        <f t="shared" ref="BG34:CL34" si="55">BF34*(1+$AC$97)</f>
-        <v>289175.25675439392</v>
+        <f t="shared" ref="BG34:CL34" si="56">BF34*(1+$AC$97)</f>
+        <v>303572.69676711422</v>
       </c>
       <c r="BH34" s="5">
-        <f t="shared" si="55"/>
-        <v>292067.00932193786</v>
+        <f t="shared" si="56"/>
+        <v>306608.42373478535</v>
       </c>
       <c r="BI34" s="5">
-        <f t="shared" si="55"/>
-        <v>294987.67941515724</v>
+        <f t="shared" si="56"/>
+        <v>309674.50797213323</v>
       </c>
       <c r="BJ34" s="5">
-        <f t="shared" si="55"/>
-        <v>297937.55620930879</v>
+        <f t="shared" si="56"/>
+        <v>312771.25305185455</v>
       </c>
       <c r="BK34" s="5">
-        <f t="shared" si="55"/>
-        <v>300916.9317714019</v>
+        <f t="shared" si="56"/>
+        <v>315898.96558237309</v>
       </c>
       <c r="BL34" s="5">
-        <f t="shared" si="55"/>
-        <v>303926.10108911589</v>
+        <f t="shared" si="56"/>
+        <v>319057.95523819682</v>
       </c>
       <c r="BM34" s="5">
-        <f t="shared" si="55"/>
-        <v>306965.36210000707</v>
+        <f t="shared" si="56"/>
+        <v>322248.53479057882</v>
       </c>
       <c r="BN34" s="5">
-        <f t="shared" si="55"/>
-        <v>310035.01572100713</v>
+        <f t="shared" si="56"/>
+        <v>325471.0201384846</v>
       </c>
       <c r="BO34" s="5">
-        <f t="shared" si="55"/>
-        <v>313135.36587821721</v>
+        <f t="shared" si="56"/>
+        <v>328725.73033986945</v>
       </c>
       <c r="BP34" s="5">
-        <f t="shared" si="55"/>
-        <v>316266.71953699942</v>
+        <f t="shared" si="56"/>
+        <v>332012.98764326813</v>
       </c>
       <c r="BQ34" s="5">
-        <f t="shared" si="55"/>
-        <v>319429.38673236943</v>
+        <f t="shared" si="56"/>
+        <v>335333.11751970084</v>
       </c>
       <c r="BR34" s="5">
-        <f t="shared" si="55"/>
-        <v>322623.68059969315</v>
+        <f t="shared" si="56"/>
+        <v>338686.44869489787</v>
       </c>
       <c r="BS34" s="5">
-        <f t="shared" si="55"/>
-        <v>325849.91740569007</v>
+        <f t="shared" si="56"/>
+        <v>342073.31318184687</v>
       </c>
       <c r="BT34" s="5">
-        <f t="shared" si="55"/>
-        <v>329108.41657974699</v>
+        <f t="shared" si="56"/>
+        <v>345494.04631366534</v>
       </c>
       <c r="BU34" s="5">
-        <f t="shared" si="55"/>
-        <v>332399.50074554444</v>
+        <f t="shared" si="56"/>
+        <v>348948.98677680199</v>
       </c>
       <c r="BV34" s="5">
-        <f t="shared" si="55"/>
-        <v>335723.49575299991</v>
+        <f t="shared" si="56"/>
+        <v>352438.47664457001</v>
       </c>
       <c r="BW34" s="5">
-        <f t="shared" si="55"/>
-        <v>339080.7307105299</v>
+        <f t="shared" si="56"/>
+        <v>355962.86141101574</v>
       </c>
       <c r="BX34" s="5">
-        <f t="shared" si="55"/>
-        <v>342471.53801763518</v>
+        <f t="shared" si="56"/>
+        <v>359522.49002512591</v>
       </c>
       <c r="BY34" s="5">
-        <f t="shared" si="55"/>
-        <v>345896.25339781155</v>
+        <f t="shared" si="56"/>
+        <v>363117.71492537716</v>
       </c>
       <c r="BZ34" s="5">
-        <f t="shared" si="55"/>
-        <v>349355.21593178966</v>
+        <f t="shared" si="56"/>
+        <v>366748.89207463094</v>
       </c>
       <c r="CA34" s="5">
-        <f t="shared" si="55"/>
-        <v>352848.76809110754</v>
+        <f t="shared" si="56"/>
+        <v>370416.38099537726</v>
       </c>
       <c r="CB34" s="5">
-        <f t="shared" si="55"/>
-        <v>356377.25577201863</v>
+        <f t="shared" si="56"/>
+        <v>374120.54480533104</v>
       </c>
       <c r="CC34" s="5">
-        <f t="shared" si="55"/>
-        <v>359941.02832973882</v>
+        <f t="shared" si="56"/>
+        <v>377861.75025338435</v>
       </c>
       <c r="CD34" s="5">
-        <f t="shared" si="55"/>
-        <v>363540.43861303624</v>
+        <f t="shared" si="56"/>
+        <v>381640.36775591818</v>
       </c>
       <c r="CE34" s="5">
-        <f t="shared" si="55"/>
-        <v>367175.84299916663</v>
+        <f t="shared" si="56"/>
+        <v>385456.77143347735</v>
       </c>
       <c r="CF34" s="5">
-        <f t="shared" si="55"/>
-        <v>370847.6014291583</v>
+        <f t="shared" si="56"/>
+        <v>389311.3391478121</v>
       </c>
       <c r="CG34" s="5">
-        <f t="shared" si="55"/>
-        <v>374556.07744344987</v>
+        <f t="shared" si="56"/>
+        <v>393204.45253929024</v>
       </c>
       <c r="CH34" s="5">
-        <f t="shared" si="55"/>
-        <v>378301.63821788435</v>
+        <f t="shared" si="56"/>
+        <v>397136.49706468312</v>
       </c>
       <c r="CI34" s="5">
-        <f t="shared" si="55"/>
-        <v>382084.65460006322</v>
+        <f t="shared" si="56"/>
+        <v>401107.86203532998</v>
       </c>
       <c r="CJ34" s="5">
-        <f t="shared" si="55"/>
-        <v>385905.50114606385</v>
+        <f t="shared" si="56"/>
+        <v>405118.94065568328</v>
       </c>
       <c r="CK34" s="5">
-        <f t="shared" si="55"/>
-        <v>389764.55615752446</v>
+        <f t="shared" si="56"/>
+        <v>409170.13006224012</v>
       </c>
       <c r="CL34" s="5">
-        <f t="shared" si="55"/>
-        <v>393662.20171909971</v>
+        <f t="shared" si="56"/>
+        <v>413261.83136286255</v>
       </c>
       <c r="CM34" s="5">
-        <f t="shared" ref="CM34:DR34" si="56">CL34*(1+$AC$97)</f>
-        <v>397598.82373629074</v>
+        <f t="shared" ref="CM34:DR34" si="57">CL34*(1+$AC$97)</f>
+        <v>417394.4496764912</v>
       </c>
       <c r="CN34" s="5">
-        <f t="shared" si="56"/>
-        <v>401574.81197365368</v>
+        <f t="shared" si="57"/>
+        <v>421568.39417325612</v>
       </c>
       <c r="CO34" s="5">
-        <f t="shared" si="56"/>
-        <v>405590.56009339023</v>
+        <f t="shared" si="57"/>
+        <v>425784.07811498869</v>
       </c>
       <c r="CP34" s="5">
-        <f t="shared" si="56"/>
-        <v>409646.46569432411</v>
+        <f t="shared" si="57"/>
+        <v>430041.91889613855</v>
       </c>
       <c r="CQ34" s="5">
-        <f t="shared" si="56"/>
-        <v>413742.93035126734</v>
+        <f t="shared" si="57"/>
+        <v>434342.33808509994</v>
       </c>
       <c r="CR34" s="5">
-        <f t="shared" si="56"/>
-        <v>417880.35965478001</v>
+        <f t="shared" si="57"/>
+        <v>438685.76146595093</v>
       </c>
       <c r="CS34" s="5">
-        <f t="shared" si="56"/>
-        <v>422059.16325132782</v>
+        <f t="shared" si="57"/>
+        <v>443072.61908061046</v>
       </c>
       <c r="CT34" s="5">
-        <f t="shared" si="56"/>
-        <v>426279.75488384109</v>
+        <f t="shared" si="57"/>
+        <v>447503.34527141659</v>
       </c>
       <c r="CU34" s="5">
-        <f t="shared" si="56"/>
-        <v>430542.55243267951</v>
+        <f t="shared" si="57"/>
+        <v>451978.37872413074</v>
       </c>
       <c r="CV34" s="5">
-        <f t="shared" si="56"/>
-        <v>434847.97795700631</v>
+        <f t="shared" si="57"/>
+        <v>456498.16251137207</v>
       </c>
       <c r="CW34" s="5">
-        <f t="shared" si="56"/>
-        <v>439196.45773657638</v>
+        <f t="shared" si="57"/>
+        <v>461063.14413648582</v>
       </c>
       <c r="CX34" s="5">
-        <f t="shared" si="56"/>
-        <v>443588.42231394217</v>
+        <f t="shared" si="57"/>
+        <v>465673.7755778507</v>
       </c>
       <c r="CY34" s="5">
-        <f t="shared" si="56"/>
-        <v>448024.3065370816</v>
+        <f t="shared" si="57"/>
+        <v>470330.51333362923</v>
       </c>
       <c r="CZ34" s="5">
-        <f t="shared" si="56"/>
-        <v>452504.54960245243</v>
+        <f t="shared" si="57"/>
+        <v>475033.81846696552</v>
       </c>
       <c r="DA34" s="5">
-        <f t="shared" si="56"/>
-        <v>457029.59509847697</v>
+        <f t="shared" si="57"/>
+        <v>479784.15665163519</v>
       </c>
       <c r="DB34" s="5">
-        <f t="shared" si="56"/>
-        <v>461599.89104946173</v>
+        <f t="shared" si="57"/>
+        <v>484581.99821815157</v>
       </c>
       <c r="DC34" s="5">
-        <f t="shared" si="56"/>
-        <v>466215.88995995634</v>
+        <f t="shared" si="57"/>
+        <v>489427.8182003331</v>
       </c>
       <c r="DD34" s="5">
-        <f t="shared" si="56"/>
-        <v>470878.04885955591</v>
+        <f t="shared" si="57"/>
+        <v>494322.09638233646</v>
       </c>
       <c r="DE34" s="5">
-        <f t="shared" si="56"/>
-        <v>475586.82934815146</v>
+        <f t="shared" si="57"/>
+        <v>499265.31734615983</v>
       </c>
       <c r="DF34" s="5">
-        <f t="shared" si="56"/>
-        <v>480342.69764163299</v>
+        <f t="shared" si="57"/>
+        <v>504257.97051962145</v>
       </c>
       <c r="DG34" s="5">
-        <f t="shared" si="56"/>
-        <v>485146.1246180493</v>
+        <f t="shared" si="57"/>
+        <v>509300.55022481765</v>
       </c>
       <c r="DH34" s="5">
-        <f t="shared" si="56"/>
-        <v>489997.58586422983</v>
+        <f t="shared" si="57"/>
+        <v>514393.55572706583</v>
       </c>
       <c r="DI34" s="5">
-        <f t="shared" si="56"/>
-        <v>494897.56172287214</v>
+        <f t="shared" si="57"/>
+        <v>519537.49128433649</v>
       </c>
       <c r="DJ34" s="5">
-        <f t="shared" si="56"/>
-        <v>499846.53734010085</v>
+        <f t="shared" si="57"/>
+        <v>524732.86619717989</v>
       </c>
       <c r="DK34" s="5">
-        <f t="shared" si="56"/>
-        <v>504845.00271350186</v>
+        <f t="shared" si="57"/>
+        <v>529980.19485915173</v>
       </c>
       <c r="DL34" s="5">
-        <f t="shared" si="56"/>
-        <v>509893.45274063689</v>
+        <f t="shared" si="57"/>
+        <v>535279.99680774321</v>
       </c>
       <c r="DM34" s="5">
-        <f t="shared" si="56"/>
-        <v>514992.38726804324</v>
+        <f t="shared" si="57"/>
+        <v>540632.79677582067</v>
       </c>
       <c r="DN34" s="5">
-        <f t="shared" si="56"/>
-        <v>520142.3111407237</v>
+        <f t="shared" si="57"/>
+        <v>546039.12474357884</v>
       </c>
       <c r="DO34" s="5">
-        <f t="shared" si="56"/>
-        <v>525343.73425213096</v>
+        <f t="shared" si="57"/>
+        <v>551499.51599101466</v>
       </c>
       <c r="DP34" s="5">
-        <f t="shared" si="56"/>
-        <v>530597.17159465223</v>
+        <f t="shared" si="57"/>
+        <v>557014.51115092484</v>
       </c>
       <c r="DQ34" s="5">
-        <f t="shared" si="56"/>
-        <v>535903.1433105988</v>
+        <f t="shared" si="57"/>
+        <v>562584.65626243409</v>
       </c>
       <c r="DR34" s="5">
-        <f t="shared" si="56"/>
-        <v>541262.17474370485</v>
+        <f t="shared" si="57"/>
+        <v>568210.50282505841</v>
       </c>
       <c r="DS34" s="5">
-        <f t="shared" ref="DS34:EX34" si="57">DR34*(1+$AC$97)</f>
-        <v>546674.7964911419</v>
+        <f t="shared" ref="DS34:EX34" si="58">DR34*(1+$AC$97)</f>
+        <v>573892.60785330902</v>
       </c>
       <c r="DT34" s="5">
-        <f t="shared" si="57"/>
-        <v>552141.54445605329</v>
+        <f t="shared" si="58"/>
+        <v>579631.53393184207</v>
       </c>
       <c r="DU34" s="5">
-        <f t="shared" si="57"/>
-        <v>557662.95990061387</v>
+        <f t="shared" si="58"/>
+        <v>585427.84927116055</v>
       </c>
       <c r="DV34" s="5">
-        <f t="shared" si="57"/>
-        <v>563239.58949962002</v>
+        <f t="shared" si="58"/>
+        <v>591282.12776387215</v>
       </c>
       <c r="DW34" s="5">
-        <f t="shared" si="57"/>
-        <v>568871.98539461626</v>
+        <f t="shared" si="58"/>
+        <v>597194.94904151093</v>
       </c>
       <c r="DX34" s="5">
-        <f t="shared" si="57"/>
-        <v>574560.70524856239</v>
+        <f t="shared" si="58"/>
+        <v>603166.8985319261</v>
       </c>
       <c r="DY34" s="5">
-        <f t="shared" si="57"/>
-        <v>580306.31230104796</v>
+        <f t="shared" si="58"/>
+        <v>609198.56751724542</v>
       </c>
       <c r="DZ34" s="5">
-        <f t="shared" si="57"/>
-        <v>586109.37542405841</v>
+        <f t="shared" si="58"/>
+        <v>615290.55319241784</v>
       </c>
       <c r="EA34" s="5">
-        <f t="shared" si="57"/>
-        <v>591970.46917829895</v>
+        <f t="shared" si="58"/>
+        <v>621443.45872434205</v>
       </c>
       <c r="EB34" s="5">
-        <f t="shared" si="57"/>
-        <v>597890.1738700819</v>
+        <f t="shared" si="58"/>
+        <v>627657.89331158553</v>
       </c>
       <c r="EC34" s="5">
-        <f t="shared" si="57"/>
-        <v>603869.0756087827</v>
+        <f t="shared" si="58"/>
+        <v>633934.47224470135</v>
       </c>
       <c r="ED34" s="5">
-        <f t="shared" si="57"/>
-        <v>609907.76636487059</v>
+        <f t="shared" si="58"/>
+        <v>640273.81696714833</v>
       </c>
       <c r="EE34" s="5">
-        <f t="shared" si="57"/>
-        <v>616006.84402851935</v>
+        <f t="shared" si="58"/>
+        <v>646676.55513681984</v>
       </c>
       <c r="EF34" s="5">
-        <f t="shared" si="57"/>
-        <v>622166.91246880451</v>
+        <f t="shared" si="58"/>
+        <v>653143.32068818808</v>
       </c>
       <c r="EG34" s="5">
-        <f t="shared" si="57"/>
-        <v>628388.58159349253</v>
+        <f t="shared" si="58"/>
+        <v>659674.75389506994</v>
       </c>
       <c r="EH34" s="5">
-        <f t="shared" si="57"/>
-        <v>634672.46740942751</v>
+        <f t="shared" si="58"/>
+        <v>666271.5014340207</v>
       </c>
       <c r="EI34" s="5">
-        <f t="shared" si="57"/>
-        <v>641019.19208352175</v>
+        <f t="shared" si="58"/>
+        <v>672934.21644836094</v>
       </c>
       <c r="EJ34" s="5">
-        <f t="shared" si="57"/>
-        <v>647429.38400435692</v>
+        <f t="shared" si="58"/>
+        <v>679663.55861284456</v>
       </c>
       <c r="EK34" s="5">
-        <f t="shared" si="57"/>
-        <v>653903.67784440052</v>
+        <f t="shared" si="58"/>
+        <v>686460.19419897301</v>
       </c>
       <c r="EL34" s="5">
-        <f t="shared" si="57"/>
-        <v>660442.71462284448</v>
+        <f t="shared" si="58"/>
+        <v>693324.79614096275</v>
       </c>
       <c r="EM34" s="5">
-        <f t="shared" si="57"/>
-        <v>667047.14176907297</v>
+        <f t="shared" si="58"/>
+        <v>700258.04410237237</v>
       </c>
       <c r="EN34" s="5">
-        <f t="shared" si="57"/>
-        <v>673717.61318676372</v>
+        <f t="shared" si="58"/>
+        <v>707260.62454339606</v>
       </c>
       <c r="EO34" s="5">
-        <f t="shared" si="57"/>
-        <v>680454.7893186314</v>
+        <f t="shared" si="58"/>
+        <v>714333.23078882997</v>
       </c>
       <c r="EP34" s="5">
-        <f t="shared" si="57"/>
-        <v>687259.33721181774</v>
+        <f t="shared" si="58"/>
+        <v>721476.56309671828</v>
       </c>
       <c r="EQ34" s="5">
-        <f t="shared" si="57"/>
-        <v>694131.93058393593</v>
+        <f t="shared" si="58"/>
+        <v>728691.3287276855</v>
       </c>
       <c r="ER34" s="5">
-        <f t="shared" si="57"/>
-        <v>701073.2498897753</v>
+        <f t="shared" si="58"/>
+        <v>735978.24201496236</v>
       </c>
       <c r="ES34" s="5">
-        <f t="shared" si="57"/>
-        <v>708083.982388673</v>
+        <f t="shared" si="58"/>
+        <v>743338.02443511202</v>
       </c>
       <c r="ET34" s="5">
-        <f t="shared" si="57"/>
-        <v>715164.82221255975</v>
+        <f t="shared" si="58"/>
+        <v>750771.40467946313</v>
       </c>
       <c r="EU34" s="5">
-        <f t="shared" si="57"/>
-        <v>722316.47043468535</v>
+        <f t="shared" si="58"/>
+        <v>758279.11872625782</v>
       </c>
       <c r="EV34" s="5">
-        <f t="shared" si="57"/>
-        <v>729539.63513903227</v>
+        <f t="shared" si="58"/>
+        <v>765861.90991352045</v>
       </c>
       <c r="EW34" s="5">
-        <f t="shared" si="57"/>
-        <v>736835.03149042255</v>
+        <f t="shared" si="58"/>
+        <v>773520.52901265561</v>
       </c>
       <c r="EX34" s="5">
-        <f t="shared" si="57"/>
-        <v>744203.38180532679</v>
+        <f t="shared" si="58"/>
+        <v>781255.73430278222</v>
       </c>
       <c r="EY34" s="5">
-        <f t="shared" ref="EY34:GD34" si="58">EX34*(1+$AC$97)</f>
-        <v>751645.4156233801</v>
+        <f t="shared" ref="EY34:GD34" si="59">EX34*(1+$AC$97)</f>
+        <v>789068.29164581001</v>
       </c>
       <c r="EZ34" s="5">
-        <f t="shared" si="58"/>
-        <v>759161.86977961392</v>
+        <f t="shared" si="59"/>
+        <v>796958.97456226812</v>
       </c>
       <c r="FA34" s="5">
-        <f t="shared" si="58"/>
-        <v>766753.48847741005</v>
+        <f t="shared" si="59"/>
+        <v>804928.56430789083</v>
       </c>
       <c r="FB34" s="5">
-        <f t="shared" si="58"/>
-        <v>774421.02336218418</v>
+        <f t="shared" si="59"/>
+        <v>812977.8499509698</v>
       </c>
       <c r="FC34" s="5">
-        <f t="shared" si="58"/>
-        <v>782165.23359580606</v>
+        <f t="shared" si="59"/>
+        <v>821107.62845047947</v>
       </c>
       <c r="FD34" s="5">
-        <f t="shared" si="58"/>
-        <v>789986.88593176415</v>
+        <f t="shared" si="59"/>
+        <v>829318.70473498432</v>
       </c>
       <c r="FE34" s="5">
-        <f t="shared" si="58"/>
-        <v>797886.75479108177</v>
+        <f t="shared" si="59"/>
+        <v>837611.89178233419</v>
       </c>
       <c r="FF34" s="5">
-        <f t="shared" si="58"/>
-        <v>805865.62233899254</v>
+        <f t="shared" si="59"/>
+        <v>845988.01070015749</v>
       </c>
       <c r="FG34" s="5">
-        <f t="shared" si="58"/>
-        <v>813924.27856238245</v>
+        <f t="shared" si="59"/>
+        <v>854447.89080715913</v>
       </c>
       <c r="FH34" s="5">
-        <f t="shared" si="58"/>
-        <v>822063.52134800632</v>
+        <f t="shared" si="59"/>
+        <v>862992.36971523077</v>
       </c>
       <c r="FI34" s="5">
-        <f t="shared" si="58"/>
-        <v>830284.15656148642</v>
+        <f t="shared" si="59"/>
+        <v>871622.29341238306</v>
       </c>
       <c r="FJ34" s="5">
-        <f t="shared" si="58"/>
-        <v>838586.99812710134</v>
+        <f t="shared" si="59"/>
+        <v>880338.51634650689</v>
       </c>
       <c r="FK34" s="5">
-        <f t="shared" si="58"/>
-        <v>846972.86810837232</v>
+        <f t="shared" si="59"/>
+        <v>889141.90150997194</v>
       </c>
       <c r="FL34" s="5">
-        <f t="shared" si="58"/>
-        <v>855442.59678945609</v>
+        <f t="shared" si="59"/>
+        <v>898033.3205250717</v>
       </c>
       <c r="FM34" s="5">
-        <f t="shared" si="58"/>
-        <v>863997.0227573507</v>
+        <f t="shared" si="59"/>
+        <v>907013.65373032237</v>
       </c>
       <c r="FN34" s="5">
-        <f t="shared" si="58"/>
-        <v>872636.99298492423</v>
+        <f t="shared" si="59"/>
+        <v>916083.79026762559</v>
       </c>
       <c r="FO34" s="5">
-        <f t="shared" si="58"/>
-        <v>881363.36291477352</v>
+        <f t="shared" si="59"/>
+        <v>925244.6281703019</v>
       </c>
       <c r="FP34" s="5">
-        <f t="shared" si="58"/>
-        <v>890176.9965439213</v>
+        <f t="shared" si="59"/>
+        <v>934497.07445200498</v>
       </c>
       <c r="FQ34" s="5">
-        <f t="shared" si="58"/>
-        <v>899078.76650936052</v>
+        <f t="shared" si="59"/>
+        <v>943842.04519652505</v>
       </c>
       <c r="FR34" s="5">
-        <f t="shared" si="58"/>
-        <v>908069.55417445418</v>
+        <f t="shared" si="59"/>
+        <v>953280.46564849035</v>
       </c>
       <c r="FS34" s="5">
-        <f t="shared" si="58"/>
-        <v>917150.24971619877</v>
+        <f t="shared" si="59"/>
+        <v>962813.27030497522</v>
       </c>
       <c r="FT34" s="5">
-        <f t="shared" si="58"/>
-        <v>926321.75221336074</v>
+        <f t="shared" si="59"/>
+        <v>972441.40300802502</v>
       </c>
       <c r="FU34" s="5">
-        <f t="shared" si="58"/>
-        <v>935584.96973549435</v>
+        <f t="shared" si="59"/>
+        <v>982165.81703810534</v>
       </c>
       <c r="FV34" s="5">
-        <f t="shared" si="58"/>
-        <v>944940.8194328493</v>
+        <f t="shared" si="59"/>
+        <v>991987.47520848643</v>
       </c>
       <c r="FW34" s="5">
-        <f t="shared" si="58"/>
-        <v>954390.22762717784</v>
+        <f t="shared" si="59"/>
+        <v>1001907.3499605713</v>
       </c>
       <c r="FX34" s="5">
-        <f t="shared" si="58"/>
-        <v>963934.12990344968</v>
+        <f t="shared" si="59"/>
+        <v>1011926.423460177</v>
       </c>
       <c r="FY34" s="5">
-        <f t="shared" si="58"/>
-        <v>973573.47120248422</v>
+        <f t="shared" si="59"/>
+        <v>1022045.6876947788</v>
       </c>
       <c r="FZ34" s="5">
-        <f t="shared" si="58"/>
-        <v>983309.20591450902</v>
+        <f t="shared" si="59"/>
+        <v>1032266.1445717266</v>
       </c>
       <c r="GA34" s="5">
-        <f t="shared" si="58"/>
-        <v>993142.29797365412</v>
+        <f t="shared" si="59"/>
+        <v>1042588.8060174439</v>
       </c>
       <c r="GB34" s="5">
-        <f t="shared" si="58"/>
-        <v>1003073.7209533907</v>
+        <f t="shared" si="59"/>
+        <v>1053014.6940776184</v>
       </c>
       <c r="GC34" s="5">
-        <f t="shared" si="58"/>
-        <v>1013104.4581629246</v>
+        <f t="shared" si="59"/>
+        <v>1063544.8410183946</v>
       </c>
       <c r="GD34" s="5">
-        <f t="shared" si="58"/>
-        <v>1023235.5027445538</v>
+        <f t="shared" si="59"/>
+        <v>1074180.2894285785</v>
       </c>
       <c r="GE34" s="5">
-        <f t="shared" ref="GE34:HL34" si="59">GD34*(1+$AC$97)</f>
-        <v>1033467.8577719994</v>
+        <f t="shared" ref="GE34:HL34" si="60">GD34*(1+$AC$97)</f>
+        <v>1084922.0923228643</v>
       </c>
       <c r="GF34" s="5">
-        <f t="shared" si="59"/>
-        <v>1043802.5363497194</v>
+        <f t="shared" si="60"/>
+        <v>1095771.313246093</v>
       </c>
       <c r="GG34" s="5">
-        <f t="shared" si="59"/>
-        <v>1054240.5617132166</v>
+        <f t="shared" si="60"/>
+        <v>1106729.0263785538</v>
       </c>
       <c r="GH34" s="5">
-        <f t="shared" si="59"/>
-        <v>1064782.9673303487</v>
+        <f t="shared" si="60"/>
+        <v>1117796.3166423393</v>
       </c>
       <c r="GI34" s="5">
-        <f t="shared" si="59"/>
-        <v>1075430.7970036522</v>
+        <f t="shared" si="60"/>
+        <v>1128974.2798087627</v>
       </c>
       <c r="GJ34" s="5">
-        <f t="shared" si="59"/>
-        <v>1086185.1049736887</v>
+        <f t="shared" si="60"/>
+        <v>1140264.0226068504</v>
       </c>
       <c r="GK34" s="5">
-        <f t="shared" si="59"/>
-        <v>1097046.9560234256</v>
+        <f t="shared" si="60"/>
+        <v>1151666.6628329188</v>
       </c>
       <c r="GL34" s="5">
-        <f t="shared" si="59"/>
-        <v>1108017.4255836599</v>
+        <f t="shared" si="60"/>
+        <v>1163183.3294612479</v>
       </c>
       <c r="GM34" s="5">
-        <f t="shared" si="59"/>
-        <v>1119097.5998394964</v>
+        <f t="shared" si="60"/>
+        <v>1174815.1627558605</v>
       </c>
       <c r="GN34" s="5">
-        <f t="shared" si="59"/>
-        <v>1130288.5758378913</v>
+        <f t="shared" si="60"/>
+        <v>1186563.314383419</v>
       </c>
       <c r="GO34" s="5">
-        <f t="shared" si="59"/>
-        <v>1141591.4615962703</v>
+        <f t="shared" si="60"/>
+        <v>1198428.9475272533</v>
       </c>
       <c r="GP34" s="5">
-        <f t="shared" si="59"/>
-        <v>1153007.376212233</v>
+        <f t="shared" si="60"/>
+        <v>1210413.2370025259</v>
       </c>
       <c r="GQ34" s="5">
-        <f t="shared" si="59"/>
-        <v>1164537.4499743553</v>
+        <f t="shared" si="60"/>
+        <v>1222517.3693725513</v>
       </c>
       <c r="GR34" s="5">
-        <f t="shared" si="59"/>
-        <v>1176182.8244740989</v>
+        <f t="shared" si="60"/>
+        <v>1234742.5430662769</v>
       </c>
       <c r="GS34" s="5">
-        <f t="shared" si="59"/>
-        <v>1187944.6527188399</v>
+        <f t="shared" si="60"/>
+        <v>1247089.9684969396</v>
       </c>
       <c r="GT34" s="5">
-        <f t="shared" si="59"/>
-        <v>1199824.0992460283</v>
+        <f t="shared" si="60"/>
+        <v>1259560.868181909</v>
       </c>
       <c r="GU34" s="5">
-        <f t="shared" si="59"/>
-        <v>1211822.3402384887</v>
+        <f t="shared" si="60"/>
+        <v>1272156.4768637281</v>
       </c>
       <c r="GV34" s="5">
-        <f t="shared" si="59"/>
-        <v>1223940.5636408736</v>
+        <f t="shared" si="60"/>
+        <v>1284878.0416323654</v>
       </c>
       <c r="GW34" s="5">
-        <f t="shared" si="59"/>
-        <v>1236179.9692772825</v>
+        <f t="shared" si="60"/>
+        <v>1297726.822048689</v>
       </c>
       <c r="GX34" s="5">
-        <f t="shared" si="59"/>
-        <v>1248541.7689700553</v>
+        <f t="shared" si="60"/>
+        <v>1310704.0902691758</v>
       </c>
       <c r="GY34" s="5">
-        <f t="shared" si="59"/>
-        <v>1261027.1866597559</v>
+        <f t="shared" si="60"/>
+        <v>1323811.1311718675</v>
       </c>
       <c r="GZ34" s="5">
-        <f t="shared" si="59"/>
-        <v>1273637.4585263534</v>
+        <f t="shared" si="60"/>
+        <v>1337049.2424835861</v>
       </c>
       <c r="HA34" s="5">
-        <f t="shared" si="59"/>
-        <v>1286373.8331116168</v>
+        <f t="shared" si="60"/>
+        <v>1350419.734908422</v>
       </c>
       <c r="HB34" s="5">
-        <f t="shared" si="59"/>
-        <v>1299237.5714427331</v>
+        <f t="shared" si="60"/>
+        <v>1363923.9322575063</v>
       </c>
       <c r="HC34" s="5">
-        <f t="shared" si="59"/>
-        <v>1312229.9471571604</v>
+        <f t="shared" si="60"/>
+        <v>1377563.1715800813</v>
       </c>
       <c r="HD34" s="5">
-        <f t="shared" si="59"/>
-        <v>1325352.246628732</v>
+        <f t="shared" si="60"/>
+        <v>1391338.8032958822</v>
       </c>
       <c r="HE34" s="5">
-        <f t="shared" si="59"/>
-        <v>1338605.7690950192</v>
+        <f t="shared" si="60"/>
+        <v>1405252.191328841</v>
       </c>
       <c r="HF34" s="5">
-        <f t="shared" si="59"/>
-        <v>1351991.8267859693</v>
+        <f t="shared" si="60"/>
+        <v>1419304.7132421294</v>
       </c>
       <c r="HG34" s="5">
-        <f t="shared" si="59"/>
-        <v>1365511.7450538289</v>
+        <f t="shared" si="60"/>
+        <v>1433497.7603745507</v>
       </c>
       <c r="HH34" s="5">
-        <f t="shared" si="59"/>
-        <v>1379166.8625043673</v>
+        <f t="shared" si="60"/>
+        <v>1447832.7379782961</v>
       </c>
       <c r="HI34" s="5">
-        <f t="shared" si="59"/>
-        <v>1392958.531129411</v>
+        <f t="shared" si="60"/>
+        <v>1462311.065358079</v>
       </c>
       <c r="HJ34" s="5">
-        <f t="shared" si="59"/>
-        <v>1406888.116440705</v>
+        <f t="shared" si="60"/>
+        <v>1476934.1760116599</v>
       </c>
       <c r="HK34" s="5">
-        <f t="shared" si="59"/>
-        <v>1420956.9976051121</v>
+        <f t="shared" si="60"/>
+        <v>1491703.5177717765</v>
       </c>
       <c r="HL34" s="5">
-        <f t="shared" si="59"/>
-        <v>1435166.5675811633</v>
+        <f t="shared" si="60"/>
+        <v>1506620.5529494942</v>
       </c>
     </row>
     <row r="35" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4244,19 +4301,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" ref="C35:F35" si="60">C34/C36</f>
+        <f t="shared" ref="C35:F35" si="61">C34/C36</f>
         <v>1.439047320589157</v>
       </c>
       <c r="D35" s="8" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="8" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="8">
@@ -4272,20 +4329,20 @@
         <v>2.1662040816326531</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:M35" si="61">J34/J36</f>
-        <v>2.1077580033561749</v>
+        <f t="shared" ref="J35:M35" si="62">J34/J36</f>
+        <v>2.1026664030290991</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="61"/>
-        <v>2.0848214741090025</v>
+        <f t="shared" si="62"/>
+        <v>2.0897288057788201</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="61"/>
-        <v>2.2226394799812734</v>
+        <f t="shared" si="62"/>
+        <v>2.2392461439481317</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="61"/>
-        <v>2.3720868988562129</v>
+        <f t="shared" si="62"/>
+        <v>2.4023083257864766</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -4295,28 +4352,28 @@
       <c r="S35" s="8"/>
       <c r="T35" s="3"/>
       <c r="U35" s="8">
-        <f t="shared" ref="U35" si="62">U34/U36</f>
+        <f t="shared" ref="U35" si="63">U34/U36</f>
         <v>8.1732244897959188</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" ref="V35" si="63">V34/V36</f>
-        <v>9.06389590899248</v>
+        <f t="shared" ref="V35" si="64">V34/V36</f>
+        <v>9.1186827082367206</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ref="W35" si="64">W34/W36</f>
-        <v>10.391695268572821</v>
+        <f t="shared" ref="W35" si="65">W34/W36</f>
+        <v>10.575448970027836</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" ref="X35" si="65">X34/X36</f>
-        <v>11.875925889426961</v>
+        <f t="shared" ref="X35" si="66">X34/X36</f>
+        <v>12.218440866325379</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" ref="Y35" si="66">Y34/Y36</f>
-        <v>13.536538984179616</v>
+        <f t="shared" ref="Y35" si="67">Y34/Y36</f>
+        <v>14.071779487982091</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" ref="Z35" si="67">Z34/Z36</f>
-        <v>15.396388015177751</v>
+        <f t="shared" ref="Z35" si="68">Z34/Z36</f>
+        <v>16.162942440853797</v>
       </c>
     </row>
     <row r="36" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4357,19 +4414,19 @@
         <v>12495</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" ref="W36:Z36" si="68">V36*1.02</f>
+        <f t="shared" ref="W36:Z36" si="69">V36*1.02</f>
         <v>12744.9</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>12999.798000000001</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>13259.793960000001</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>13524.989839200001</v>
       </c>
     </row>
@@ -4391,79 +4448,79 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6">
-        <f t="shared" ref="F38:M38" si="69">F22/B22-1</f>
+        <f t="shared" ref="F38:M38" si="70">F22/B22-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="69"/>
-        <v>0.14138640906889832</v>
+        <f t="shared" si="70"/>
+        <v>0.13841766100895225</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="69"/>
-        <v>0.15530175355785802</v>
+        <f t="shared" si="70"/>
+        <v>0.15802114653890631</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="69"/>
-        <v>0.18247238822676404</v>
+        <f t="shared" si="70"/>
+        <v>0.19130734404314143</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="69"/>
-        <v>0.15469713606692337</v>
+        <f t="shared" si="70"/>
+        <v>0.16940848375872064</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38:Z38" si="70">Q22/P22-1</f>
+        <f t="shared" ref="Q38:Z38" si="71">Q22/P22-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>8.6827702272695095E-2</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.13866243322901561</v>
       </c>
       <c r="V38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.15878512528852817</v>
+        <f t="shared" si="71"/>
+        <v>0.16504303111188579</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.10675137358548104</v>
+        <f t="shared" si="71"/>
+        <v>0.11875127619067283</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.10860083296397671</v>
+        <f t="shared" si="71"/>
+        <v>0.12051303986115847</v>
       </c>
       <c r="Y38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.11052330422947776</v>
+        <f t="shared" si="71"/>
+        <v>0.1222592095586934</v>
       </c>
       <c r="Z38" s="6">
-        <f t="shared" si="70"/>
-        <v>0.11251955432263205</v>
+        <f t="shared" si="71"/>
+        <v>0.12399397442452242</v>
       </c>
     </row>
     <row r="39" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4471,48 +4528,48 @@
         <v>44</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" ref="C39:M39" si="71">C22/B22-1</f>
+        <f t="shared" ref="C39:M39" si="72">C22/B22-1</f>
         <v>6.9024316849843004E-2</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2.8001179561417677E-2</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.12539605961430644</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-6.6863631097207721E-2</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5.218589751548941E-2</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4.1608647423945655E-2</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>9.2910227942176071E-2</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="71"/>
-        <v>-4.709160455690431E-2</v>
+        <f t="shared" si="72"/>
+        <v>-4.9570120971503706E-2</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="71"/>
-        <v>6.5013743645440547E-2</v>
+        <f t="shared" si="72"/>
+        <v>7.0304477122279607E-2</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="71"/>
-        <v>6.6105423214316783E-2</v>
+        <f t="shared" si="72"/>
+        <v>7.1548680266953602E-2</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="71"/>
-        <v>6.7238713350038726E-2</v>
+        <f t="shared" si="72"/>
+        <v>7.2820123986388374E-2</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -4532,35 +4589,35 @@
         <v>32</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" ref="B40:I40" si="72">B33/B32</f>
+        <f t="shared" ref="B40:I40" si="73">B33/B32</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.16432986049796927</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.14271714275343908</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.17047246577934777</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.17699965884067859</v>
       </c>
       <c r="J40" s="3">
@@ -4578,27 +4635,27 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3">
-        <f t="shared" ref="P40:U40" si="73">P33/P32</f>
+        <f t="shared" ref="P40:U40" si="74">P33/P32</f>
         <v>0.13329968454258675</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.18676474324770689</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.15173298415328293</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.13879413716427816</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.16438962101169263</v>
       </c>
       <c r="V40" s="3">
@@ -4649,98 +4706,98 @@
         <v>45</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" ref="B42:M42" si="74">B34/B22</f>
+        <f t="shared" ref="B42:M42" si="75">B34/B22</f>
         <v>0.21567054035851949</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.2462066377137955</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.25672486406842865</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.23968253968253969</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.29379555246526529</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.27871657501593072</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.29796755336022113</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.27507282132083882</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="74"/>
-        <v>0.28087811756999148</v>
+        <f t="shared" si="75"/>
+        <v>0.28093031529551798</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
+        <v>0.26086199919145003</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="75"/>
         <v>0.26086199919145009</v>
       </c>
-      <c r="L42" s="3">
-        <f t="shared" si="74"/>
-        <v>0.26086199919145009</v>
-      </c>
       <c r="M42" s="3">
-        <f t="shared" si="74"/>
-        <v>0.26086199919145009</v>
+        <f t="shared" si="75"/>
+        <v>0.26086199919145003</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3">
-        <f t="shared" ref="P42:Z42" si="75">P34/P22</f>
+        <f t="shared" ref="P42:Z42" si="76">P34/P22</f>
         <v>0.21218112284300339</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.22061941520980458</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.24846198333313926</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.2244622325305124</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.24065206217427795</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.28604814609534368</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="75"/>
-        <v>0.27922730144932834</v>
+        <f t="shared" si="76"/>
+        <v>0.27940618754047103</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="75"/>
-        <v>0.29503903212146759</v>
+        <f t="shared" si="76"/>
+        <v>0.29544004250393158</v>
       </c>
       <c r="X42" s="3">
-        <f t="shared" si="75"/>
-        <v>0.31023123507771877</v>
+        <f t="shared" si="76"/>
+        <v>0.31072027404654762</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="75"/>
-        <v>0.32478665511201288</v>
+        <f t="shared" si="76"/>
+        <v>0.32524439017519635</v>
       </c>
       <c r="Z42" s="3">
-        <f t="shared" si="75"/>
-        <v>0.33868963370780447</v>
+        <f t="shared" si="76"/>
+        <v>0.33901382470626146</v>
       </c>
     </row>
     <row r="43" spans="1:220" x14ac:dyDescent="0.25">
@@ -4748,35 +4805,35 @@
         <v>18</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:I43" si="76">B24/B22</f>
+        <f t="shared" ref="B43:I43" si="77">B24/B22</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.58142018152696207</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.58099879634655782</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.58678116644763678</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.5790046543449191</v>
       </c>
       <c r="J43" s="6">
@@ -4794,27 +4851,27 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:U43" si="77">P24/P22</f>
+        <f t="shared" ref="P43:U43" si="78">P24/P22</f>
         <v>0.5558054331910266</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.5693980290098084</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.55379442503783116</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.56625047984020505</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.58201578204549476</v>
       </c>
       <c r="V43" s="6">
@@ -4838,98 +4895,98 @@
         <v>19</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:M44" si="78">B29/B22</f>
+        <f t="shared" ref="B44:M44" si="79">B29/B22</f>
         <v>0.24954504420594092</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.29271888906761029</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.27829136948613303</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.27455683003128256</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.31626913669154072</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.32362936914398999</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.32311823084243441</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.32105650519856122</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
+        <v>0.32205185085364202</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="79"/>
+        <v>0.32205185085364202</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="79"/>
         <v>0.32205185085364207</v>
       </c>
-      <c r="K44" s="3">
-        <f t="shared" si="78"/>
-        <v>0.32205185085364207</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="78"/>
-        <v>0.32205185085364207</v>
-      </c>
       <c r="M44" s="3">
-        <f t="shared" si="78"/>
-        <v>0.32205185085364207</v>
+        <f t="shared" si="79"/>
+        <v>0.32205185085364202</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3">
-        <f t="shared" ref="P44:Z44" si="79">P29/P22</f>
+        <f t="shared" ref="P44:Z44" si="80">P29/P22</f>
         <v>0.21148915400631421</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.22585151785763202</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.3055228868524319</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.26461270842467011</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.27480367216015927</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.32110920009828064</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="79"/>
-        <v>0.32823958107401585</v>
+        <f t="shared" si="80"/>
+        <v>0.32854897813117273</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="79"/>
-        <v>0.33417702439845415</v>
+        <f t="shared" si="80"/>
+        <v>0.33506436679658286</v>
       </c>
       <c r="X44" s="3">
-        <f t="shared" si="79"/>
-        <v>0.3398777651775553</v>
+        <f t="shared" si="80"/>
+        <v>0.34126908819800911</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" si="79"/>
-        <v>0.34534836489893422</v>
+        <f t="shared" si="80"/>
+        <v>0.34717154121849991</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" si="79"/>
-        <v>0.35059510594387805</v>
+        <f t="shared" si="80"/>
+        <v>0.35278065957451665</v>
       </c>
     </row>
     <row r="45" spans="1:220" x14ac:dyDescent="0.25">
@@ -4962,40 +5019,40 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" ref="R45:Z45" si="80">R103/R22</f>
+        <f t="shared" ref="R45:Z45" si="81">R103/R22</f>
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.21217242500954617</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.22607793255561268</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.20354381774651589</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="80"/>
-        <v>0.15399001216473063</v>
+        <f t="shared" si="81"/>
+        <v>0.1579700854943456</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="80"/>
-        <v>0.19983934283990704</v>
+        <f t="shared" si="81"/>
+        <v>0.20141300801310172</v>
       </c>
       <c r="X45" s="3">
-        <f t="shared" si="80"/>
-        <v>0.23908713015979607</v>
+        <f t="shared" si="81"/>
+        <v>0.24042264936340807</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="80"/>
-        <v>0.27280168801919685</v>
+        <f t="shared" si="81"/>
+        <v>0.27553402750938583</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="80"/>
-        <v>0.30186600344829084</v>
+        <f t="shared" si="81"/>
+        <v>0.30721875337367138</v>
       </c>
     </row>
     <row r="46" spans="1:220" x14ac:dyDescent="0.25">
@@ -5030,91 +5087,91 @@
         <v>105</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:M47" si="81">C19/B19-1</f>
+        <f t="shared" ref="C47:M47" si="82">C19/B19-1</f>
         <v>6.9785833023998878E-2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2.5661914460285207E-2</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.12245168122848815</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-7.7485552541573299E-2</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.014346998494279E-2</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>3.4925873823179243E-2</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>9.9124297477453993E-2</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-7.357457131305456E-2</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="81"/>
-        <v>5.2121639671597775E-2</v>
+        <f t="shared" si="82"/>
+        <v>6.2015674622581507E-2</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="81"/>
-        <v>5.2322998229326512E-2</v>
+        <f t="shared" si="82"/>
+        <v>6.3015078053849427E-2</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="81"/>
-        <v>5.2520464288180468E-2</v>
+        <f t="shared" si="82"/>
+        <v>6.4054389239795784E-2</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3">
-        <f t="shared" ref="Q47:Z47" si="82">Q19/P19-1</f>
+        <f t="shared" ref="Q47:Z47" si="83">Q19/P19-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-1.5948796174462543E-2</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>7.5001577735003711E-2</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.11883262457667221</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="82"/>
-        <v>0.10489934301524939</v>
+        <f t="shared" si="83"/>
+        <v>0.12216850224681064</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="82"/>
-        <v>8.8459895915203424E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.10388001480843156</v>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="82"/>
-        <v>8.88119802265257E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.10466896434707929</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="82"/>
-        <v>8.9149974906048479E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.10539802685306121</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="82"/>
-        <v>8.9474411553695843E-2</v>
+        <f t="shared" si="83"/>
+        <v>0.10607098023462114</v>
       </c>
       <c r="AC47" s="8"/>
     </row>
@@ -5123,48 +5180,48 @@
         <v>38</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ref="C48:M48" si="83">C20/B20-1</f>
+        <f t="shared" ref="C48:M48" si="84">C20/B20-1</f>
         <v>7.7408103031929132E-2</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>4.731664798904256E-2</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>9.2854595172987775E-2</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>4.155787641427322E-2</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>8.0739502820137865E-2</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>9.7226249154344302E-2</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>5.3025631991544087E-2</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="83"/>
-        <v>0.1399999999999999</v>
+        <f t="shared" si="84"/>
+        <v>0.12000000000000011</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="83"/>
-        <v>0.1399999999999999</v>
+        <f t="shared" si="84"/>
+        <v>0.12000000000000011</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="83"/>
-        <v>0.1399999999999999</v>
+        <f t="shared" si="84"/>
+        <v>0.12000000000000011</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="83"/>
-        <v>0.1399999999999999</v>
+        <f t="shared" si="84"/>
+        <v>0.12000000000000011</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -5173,31 +5230,31 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3">
-        <f t="shared" ref="T48:Z48" si="84">T20/S20-1</f>
+        <f t="shared" ref="T48:Z48" si="85">T20/S20-1</f>
         <v>0.25905631659056327</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.30648573500967125</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="84"/>
-        <v>0.55147690746489575</v>
+        <f t="shared" si="85"/>
+        <v>0.48033242010687305</v>
       </c>
       <c r="W48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="X48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Z48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AC48" s="8"/>
@@ -5207,97 +5264,103 @@
         <v>53</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" ref="B49:M49" si="85">B20/B22</f>
+        <f t="shared" ref="B49:M49" si="86">B20/B22</f>
         <v>0.10681072406035508</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.10764838346469358</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.10967102603888229</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.10649982620785541</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.11887408584660848</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.1221000212409431</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.12861965831331854</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.12392582072997543</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="85"/>
-        <v>0.14825710037582354</v>
+        <f t="shared" si="86"/>
+        <v>0.14603593834765272</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="85"/>
-        <v>0.15869569330619443</v>
+        <f t="shared" si="86"/>
+        <v>0.1528165624319674</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="85"/>
-        <v>0.16969531007881675</v>
+        <f t="shared" si="86"/>
+        <v>0.15972634101995625</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="85"/>
-        <v>0.18126465154417748</v>
+        <f t="shared" si="86"/>
+        <v>0.16675069561299613</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" ref="P49:Z49" si="86">P20/P22</f>
+        <f t="shared" ref="P49:Z49" si="87">P20/P22</f>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>9.2916036148156522E-2</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.10764035732642797</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.12350507688176036</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="86"/>
-        <v>0.1653587628586595</v>
+        <f t="shared" si="87"/>
+        <v>0.15692859789168051</v>
       </c>
       <c r="W49" s="3">
-        <f t="shared" si="86"/>
-        <v>0.17929095925812777</v>
+        <f t="shared" si="87"/>
+        <v>0.16832545488683004</v>
       </c>
       <c r="X49" s="3">
-        <f t="shared" si="86"/>
-        <v>0.19407269479901648</v>
+        <f t="shared" si="87"/>
+        <v>0.18026612692452421</v>
       </c>
       <c r="Y49" s="3">
-        <f t="shared" si="86"/>
-        <v>0.20970945217615722</v>
+        <f t="shared" si="87"/>
+        <v>0.19275346592565937</v>
       </c>
       <c r="Z49" s="3">
-        <f t="shared" si="86"/>
-        <v>0.22619947814275404</v>
-      </c>
+        <f t="shared" si="87"/>
+        <v>0.20578772161943079</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -5319,7 +5382,26 @@
       <c r="U51" s="2">
         <v>170447</v>
       </c>
-      <c r="V51" s="3"/>
+      <c r="V51" s="2">
+        <f>U51*(1+V38)</f>
+        <v>198578.0895239276</v>
+      </c>
+      <c r="W51" s="2">
+        <f t="shared" ref="W51:Z51" si="88">V51*(1+W38)</f>
+        <v>222159.49107839967</v>
+      </c>
+      <c r="X51" s="2">
+        <f t="shared" si="88"/>
+        <v>248932.60668226553</v>
+      </c>
+      <c r="Y51" s="2">
+        <f t="shared" si="88"/>
+        <v>279366.91040862445</v>
+      </c>
+      <c r="Z51" s="2">
+        <f t="shared" si="88"/>
+        <v>314006.72395288927</v>
+      </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -5341,7 +5423,26 @@
       <c r="U52" s="2">
         <v>102127</v>
       </c>
-      <c r="V52" s="3"/>
+      <c r="V52" s="2">
+        <f>U52*(1+V38)</f>
+        <v>118982.34963836356</v>
+      </c>
+      <c r="W52" s="2">
+        <f t="shared" ref="W52:Z52" si="89">V52*(1+W38)</f>
+        <v>133111.65550208409</v>
+      </c>
+      <c r="X52" s="2">
+        <f t="shared" si="89"/>
+        <v>149153.34574759155</v>
+      </c>
+      <c r="Y52" s="2">
+        <f t="shared" si="89"/>
+        <v>167388.71590172659</v>
+      </c>
+      <c r="Z52" s="2">
+        <f t="shared" si="89"/>
+        <v>188143.90806019894</v>
+      </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -5362,6 +5463,26 @@
       </c>
       <c r="U53" s="2">
         <v>56815</v>
+      </c>
+      <c r="V53" s="2">
+        <f>U53*(1+V38)</f>
+        <v>66191.919812621796</v>
+      </c>
+      <c r="W53" s="2">
+        <f t="shared" ref="W53:Z53" si="90">V53*(1+W38)</f>
+        <v>74052.29476388132</v>
+      </c>
+      <c r="X53" s="2">
+        <f t="shared" si="90"/>
+        <v>82976.561914571212</v>
+      </c>
+      <c r="Y53" s="2">
+        <f t="shared" si="90"/>
+        <v>93121.210786144671</v>
+      </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="90"/>
+        <v>104667.67981474246</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -5385,102 +5506,122 @@
       <c r="U54" s="2">
         <v>20418</v>
       </c>
+      <c r="V54" s="2">
+        <f>U54*(1+V38)</f>
+        <v>23787.848609242483</v>
+      </c>
+      <c r="W54" s="2">
+        <f t="shared" ref="W54:Z54" si="91">V54*(1+W38)</f>
+        <v>26612.685989420548</v>
+      </c>
+      <c r="X54" s="2">
+        <f t="shared" si="91"/>
+        <v>29819.86167687608</v>
+      </c>
+      <c r="Y54" s="2">
+        <f t="shared" si="91"/>
+        <v>33465.614394640521</v>
+      </c>
+      <c r="Z54" s="2">
+        <f t="shared" si="91"/>
+        <v>37615.148929990508</v>
+      </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" ref="B56:M56" si="87">B58-B73</f>
+        <f t="shared" ref="B56:M56" si="92">B58-B73</f>
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>84774</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="87"/>
-        <v>72477.035541113146</v>
+        <f t="shared" si="92"/>
+        <v>72414.663437106472</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="87"/>
-        <v>115016.09859894842</v>
+        <f t="shared" si="92"/>
+        <v>115013.84130789702</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="87"/>
-        <v>142243.432228719</v>
+        <f t="shared" si="92"/>
+        <v>142444.60657126163</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="87"/>
-        <v>171301.4967397076</v>
+        <f t="shared" si="92"/>
+        <v>171872.88356214596</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" ref="P56:U56" si="88">P58-P73</f>
+        <f t="shared" ref="P56:Y56" si="93">P58-P73</f>
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>99046</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>84774</v>
       </c>
       <c r="V56" s="2">
         <f>U56+V34</f>
-        <v>198027.37938286102</v>
+        <v>198711.94043941784</v>
       </c>
       <c r="W56" s="2">
         <f>V56+W34</f>
-        <v>330468.49641129479</v>
+        <v>333494.98001752561</v>
       </c>
       <c r="X56" s="2">
         <f>W56+X34</f>
-        <v>484853.13403681561</v>
+        <v>492332.24315470055</v>
       </c>
       <c r="Y56" s="2">
         <f>X56+Y34</f>
-        <v>664344.85189854505</v>
+        <v>678921.13981589745</v>
       </c>
       <c r="Z56" s="2">
         <f>Y56+Z34</f>
-        <v>872580.84336420475</v>
+        <v>897524.7721000195</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -5493,19 +5634,19 @@
       </c>
       <c r="J58" s="2">
         <f>I58+J34+J100</f>
-        <v>89477.035541113146</v>
+        <v>89414.663437106472</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" ref="K58:M58" si="89">J58+K34+K100</f>
-        <v>115016.09859894842</v>
+        <f t="shared" ref="K58:M58" si="94">J58+K34+K100</f>
+        <v>115013.84130789702</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="89"/>
-        <v>142243.432228719</v>
+        <f t="shared" si="94"/>
+        <v>142444.60657126163</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="89"/>
-        <v>171301.4967397076</v>
+        <f t="shared" si="94"/>
+        <v>171872.88356214596</v>
       </c>
       <c r="T58" s="2">
         <f>24048+86868</f>
@@ -5515,6 +5656,26 @@
         <f>23466+72191</f>
         <v>95657</v>
       </c>
+      <c r="V58" s="2">
+        <f>U58+V34+V100</f>
+        <v>209594.94043941784</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" ref="W58" si="95">V58+W34+W100</f>
+        <v>344377.98001752561</v>
+      </c>
+      <c r="X58" s="2">
+        <f t="shared" ref="X58" si="96">W58+X34+X100</f>
+        <v>503215.24315470055</v>
+      </c>
+      <c r="Y58" s="2">
+        <f t="shared" ref="Y58:Z58" si="97">X58+Y34+Y100</f>
+        <v>689804.13981589745</v>
+      </c>
+      <c r="Z58" s="2">
+        <f t="shared" si="97"/>
+        <v>908407.7721000195</v>
+      </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -5525,25 +5686,45 @@
       </c>
       <c r="J59" s="2">
         <f>J80*J22/90</f>
-        <v>55155.671999999991</v>
+        <v>55012.212</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" ref="K59:M59" si="90">K80*K22/90</f>
-        <v>58741.548719999999</v>
+        <f t="shared" ref="K59:M59" si="98">K80*K22/90</f>
+        <v>58879.816800000001</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="90"/>
-        <v>62624.683658400005</v>
+        <f t="shared" si="98"/>
+        <v>63092.589986400009</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="90"/>
-        <v>66835.486811544019</v>
+        <f t="shared" si="98"/>
+        <v>67687.000211832026</v>
       </c>
       <c r="T59" s="2">
         <v>47964</v>
       </c>
       <c r="U59" s="2">
         <v>52340</v>
+      </c>
+      <c r="V59" s="2">
+        <f>V80*V22/360</f>
+        <v>61167.904749558009</v>
+      </c>
+      <c r="W59" s="2">
+        <f t="shared" ref="W59:Z59" si="99">W80*W22/360</f>
+        <v>68431.671500477532</v>
+      </c>
+      <c r="X59" s="2">
+        <f t="shared" si="99"/>
+        <v>76678.580255780282</v>
+      </c>
+      <c r="Y59" s="2">
+        <f t="shared" si="99"/>
+        <v>86053.242867934823</v>
+      </c>
+      <c r="Z59" s="2">
+        <f t="shared" si="99"/>
+        <v>96723.326463248741</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -5649,6 +5830,26 @@
         <f>SUM(U58:U65)</f>
         <v>450256</v>
       </c>
+      <c r="V66" s="2">
+        <f t="shared" ref="V66:Z66" si="100">SUM(V58:V65)</f>
+        <v>270762.84518897586</v>
+      </c>
+      <c r="W66" s="2">
+        <f t="shared" si="100"/>
+        <v>412809.65151800314</v>
+      </c>
+      <c r="X66" s="2">
+        <f t="shared" si="100"/>
+        <v>579893.82341048087</v>
+      </c>
+      <c r="Y66" s="2">
+        <f t="shared" si="100"/>
+        <v>775857.38268383231</v>
+      </c>
+      <c r="Z66" s="2">
+        <f t="shared" si="100"/>
+        <v>1005131.0985632682</v>
+      </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -5784,6 +5985,26 @@
         <f>SUM(U68:U75)</f>
         <v>125172</v>
       </c>
+      <c r="V76" s="2">
+        <f t="shared" ref="V76:Z76" si="101">SUM(V68:V75)</f>
+        <v>0</v>
+      </c>
+      <c r="W76" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -5801,6 +6022,26 @@
         <f>U66-U76</f>
         <v>325084</v>
       </c>
+      <c r="V77" s="2">
+        <f t="shared" ref="V77:Z77" si="102">V66-V76</f>
+        <v>270762.84518897586</v>
+      </c>
+      <c r="W77" s="2">
+        <f t="shared" si="102"/>
+        <v>412809.65151800314</v>
+      </c>
+      <c r="X77" s="2">
+        <f t="shared" si="102"/>
+        <v>579893.82341048087</v>
+      </c>
+      <c r="Y77" s="2">
+        <f t="shared" si="102"/>
+        <v>775857.38268383231</v>
+      </c>
+      <c r="Z77" s="2">
+        <f t="shared" si="102"/>
+        <v>1005131.0985632682</v>
+      </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -5818,41 +6059,61 @@
         <f>U76+U77</f>
         <v>450256</v>
       </c>
+      <c r="V78" s="2">
+        <f t="shared" ref="V78:Z78" si="103">V76+V77</f>
+        <v>270762.84518897586</v>
+      </c>
+      <c r="W78" s="2">
+        <f t="shared" si="103"/>
+        <v>412809.65151800314</v>
+      </c>
+      <c r="X78" s="2">
+        <f t="shared" si="103"/>
+        <v>579893.82341048087</v>
+      </c>
+      <c r="Y78" s="2">
+        <f t="shared" si="103"/>
+        <v>775857.38268383231</v>
+      </c>
+      <c r="Z78" s="2">
+        <f t="shared" si="103"/>
+        <v>1005131.0985632682</v>
+      </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" ref="B80:I80" si="91">(B59/B22)*90</f>
+        <f t="shared" ref="B80:I80" si="104">(B59/B22)*90</f>
         <v>0</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="104"/>
         <v>48.830194155635489</v>
       </c>
       <c r="J80" s="2">
@@ -5868,40 +6129,35 @@
         <v>54</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" ref="R80:Y80" si="92">(R59/R22)*360</f>
+        <f t="shared" ref="R80:Y80" si="105">(R59/R22)*360</f>
         <v>0</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>56.172339082740713</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>53.832660034626791</v>
       </c>
       <c r="V80" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Z80" s="2">
-        <f>(Z59/Z22)*365</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
@@ -5909,84 +6165,84 @@
         <v>57</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" ref="B82:M82" si="93">+B34</f>
+        <f t="shared" ref="B82:M82" si="106">+B34</f>
         <v>15051</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>18368</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>19689</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>20687</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>23662</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>23619</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>26301</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>26536</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="93"/>
-        <v>25820.035541113142</v>
+        <f t="shared" si="106"/>
+        <v>25757.663437106465</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="93"/>
-        <v>25539.063057835279</v>
+        <f t="shared" si="106"/>
+        <v>25599.177870790547</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="93"/>
-        <v>27227.333629770597</v>
+        <f t="shared" si="106"/>
+        <v>27430.765263364614</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="93"/>
-        <v>29058.06451098861</v>
+        <f t="shared" si="106"/>
+        <v>29428.276990884337</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" ref="S82:Z82" si="94">+S34</f>
+        <f t="shared" ref="S82:Z82" si="107">+S34</f>
         <v>63486</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="107"/>
         <v>73975</v>
       </c>
       <c r="U82" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="107"/>
         <v>100122</v>
       </c>
       <c r="V82" s="2">
-        <f t="shared" si="94"/>
-        <v>113253.37938286104</v>
+        <f t="shared" si="107"/>
+        <v>113937.94043941783</v>
       </c>
       <c r="W82" s="2">
-        <f t="shared" si="94"/>
-        <v>132441.11702843374</v>
+        <f t="shared" si="107"/>
+        <v>134783.03957810777</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" si="94"/>
-        <v>154384.63762552085</v>
+        <f t="shared" si="107"/>
+        <v>158837.26313717494</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="94"/>
-        <v>179491.71786172941</v>
+        <f t="shared" si="107"/>
+        <v>186588.89666119684</v>
       </c>
       <c r="Z82" s="2">
-        <f t="shared" si="94"/>
-        <v>208235.99146565975</v>
+        <f t="shared" si="107"/>
+        <v>218603.63228412205</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
@@ -6004,19 +6260,19 @@
       </c>
       <c r="J83" s="2">
         <f>J82</f>
-        <v>25820.035541113142</v>
+        <v>25757.663437106465</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83:M83" si="95">K82</f>
-        <v>25539.063057835279</v>
+        <f t="shared" ref="K83:M83" si="108">K82</f>
+        <v>25599.177870790547</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="95"/>
-        <v>27227.333629770597</v>
+        <f t="shared" si="108"/>
+        <v>27430.765263364614</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="95"/>
-        <v>29058.06451098861</v>
+        <f t="shared" si="108"/>
+        <v>29428.276990884337</v>
       </c>
       <c r="S83" s="2">
         <v>59972</v>
@@ -6029,23 +6285,23 @@
       </c>
       <c r="V83" s="2">
         <f>V82</f>
-        <v>113253.37938286104</v>
+        <v>113937.94043941783</v>
       </c>
       <c r="W83" s="2">
-        <f t="shared" ref="W83:Z83" si="96">W82</f>
-        <v>132441.11702843374</v>
+        <f t="shared" ref="W83:Z83" si="109">W82</f>
+        <v>134783.03957810777</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="96"/>
-        <v>154384.63762552085</v>
+        <f t="shared" si="109"/>
+        <v>158837.26313717494</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="96"/>
-        <v>179491.71786172941</v>
+        <f t="shared" si="109"/>
+        <v>186588.89666119684</v>
       </c>
       <c r="Z83" s="2">
-        <f t="shared" si="96"/>
-        <v>208235.99146565975</v>
+        <f t="shared" si="109"/>
+        <v>218603.63228412205</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
@@ -6065,24 +6321,24 @@
         <v>15311</v>
       </c>
       <c r="V84" s="2">
-        <f>U84*1.1</f>
-        <v>16842.100000000002</v>
+        <f>U84*1.2</f>
+        <v>18373.2</v>
       </c>
       <c r="W84" s="2">
-        <f t="shared" ref="W84:Z84" si="97">V84*1.1</f>
-        <v>18526.310000000005</v>
+        <f t="shared" ref="W84:Z84" si="110">V84*1.2</f>
+        <v>22047.84</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="97"/>
-        <v>20378.941000000006</v>
+        <f t="shared" si="110"/>
+        <v>26457.407999999999</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="97"/>
-        <v>22416.835100000008</v>
+        <f t="shared" si="110"/>
+        <v>31748.889599999999</v>
       </c>
       <c r="Z84" s="2">
-        <f t="shared" si="97"/>
-        <v>24658.51861000001</v>
+        <f t="shared" si="110"/>
+        <v>38098.667519999995</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
@@ -6102,24 +6358,24 @@
         <v>22785</v>
       </c>
       <c r="V85" s="2">
-        <f>U85*1.02</f>
-        <v>23240.7</v>
+        <f>U85*1.05</f>
+        <v>23924.25</v>
       </c>
       <c r="W85" s="2">
-        <f t="shared" ref="W85:Z85" si="98">V85*1.02</f>
-        <v>23705.514000000003</v>
+        <f t="shared" ref="W85:Z85" si="111">V85*1.05</f>
+        <v>25120.462500000001</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="98"/>
-        <v>24179.624280000004</v>
+        <f t="shared" si="111"/>
+        <v>26376.485625000001</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="98"/>
-        <v>24663.216765600006</v>
+        <f t="shared" si="111"/>
+        <v>27695.309906250004</v>
       </c>
       <c r="Z85" s="2">
-        <f t="shared" si="98"/>
-        <v>25156.481100912006</v>
+        <f t="shared" si="111"/>
+        <v>29080.075401562506</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
@@ -6139,24 +6395,24 @@
         <v>-5257</v>
       </c>
       <c r="V86" s="2">
-        <f t="shared" ref="V86:V95" si="99">U86*1.1</f>
-        <v>-5782.7000000000007</v>
+        <f>U86*(1+V38)</f>
+        <v>-6124.6312145551838</v>
       </c>
       <c r="W86" s="2">
-        <f t="shared" ref="W86:W95" si="100">V86*1.1</f>
-        <v>-6360.9700000000012</v>
+        <f t="shared" ref="W86:Z86" si="112">V86*(1+W38)</f>
+        <v>-6851.9389874808421</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" ref="X86:X95" si="101">W86*1.1</f>
-        <v>-6997.0670000000018</v>
+        <f t="shared" si="112"/>
+        <v>-7677.6869838053462</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" ref="Y86:Y95" si="102">X86*1.1</f>
-        <v>-7696.7737000000025</v>
+        <f t="shared" si="112"/>
+        <v>-8616.3549256844562</v>
       </c>
       <c r="Z86" s="2">
-        <f t="shared" ref="Z86:Z95" si="103">Y86*1.1</f>
-        <v>-8466.4510700000028</v>
+        <f t="shared" si="112"/>
+        <v>-9684.7310179723827</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
@@ -6176,24 +6432,24 @@
         <v>-2671</v>
       </c>
       <c r="V87" s="2">
-        <f t="shared" si="99"/>
-        <v>-2938.1000000000004</v>
+        <f>U87*(1+V38)</f>
+        <v>-3111.8299360998471</v>
       </c>
       <c r="W87" s="2">
-        <f t="shared" si="100"/>
-        <v>-3231.9100000000008</v>
+        <f t="shared" ref="W87:Z87" si="113">V87*(1+W38)</f>
+        <v>-3481.363712300044</v>
       </c>
       <c r="X87" s="2">
-        <f t="shared" si="101"/>
-        <v>-3555.101000000001</v>
+        <f t="shared" si="113"/>
+        <v>-3900.9134361316496</v>
       </c>
       <c r="Y87" s="2">
-        <f t="shared" si="102"/>
-        <v>-3910.6111000000014</v>
+        <f t="shared" si="113"/>
+        <v>-4377.8360293899914</v>
       </c>
       <c r="Z87" s="2">
-        <f t="shared" si="103"/>
-        <v>-4301.6722100000015</v>
+        <f t="shared" si="113"/>
+        <v>-4920.6613180529266</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
@@ -6213,24 +6469,24 @@
         <v>3419</v>
       </c>
       <c r="V88" s="2">
-        <f t="shared" si="99"/>
-        <v>3760.9</v>
+        <f>U88*(1+V38)</f>
+        <v>3983.2821233715376</v>
       </c>
       <c r="W88" s="2">
-        <f t="shared" si="100"/>
-        <v>4136.9900000000007</v>
+        <f t="shared" ref="W88:Z88" si="114">V88*(1+W38)</f>
+        <v>4456.3019589494006</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="101"/>
-        <v>4550.6890000000012</v>
+        <f t="shared" si="114"/>
+        <v>4993.3444545616285</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="102"/>
-        <v>5005.7579000000014</v>
+        <f t="shared" si="114"/>
+        <v>5603.826800630618</v>
       </c>
       <c r="Z88" s="2">
-        <f t="shared" si="103"/>
-        <v>5506.3336900000022</v>
+        <f t="shared" si="114"/>
+        <v>6298.6675576274638</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
@@ -6250,24 +6506,24 @@
         <v>-5891</v>
       </c>
       <c r="V89" s="2">
-        <f t="shared" si="99"/>
-        <v>-6480.1</v>
+        <f>U89*(1+V38)</f>
+        <v>-6863.2684962801195</v>
       </c>
       <c r="W89" s="2">
-        <f t="shared" si="100"/>
-        <v>-7128.1100000000006</v>
+        <f t="shared" ref="W89:Z89" si="115">V89*(1+W38)</f>
+        <v>-7678.2903890526241</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" si="101"/>
-        <v>-7840.9210000000012</v>
+        <f t="shared" si="115"/>
+        <v>-8603.6245047740722</v>
       </c>
       <c r="Y89" s="2">
-        <f t="shared" si="102"/>
-        <v>-8625.0131000000019</v>
+        <f t="shared" si="115"/>
+        <v>-9655.4968360675557</v>
       </c>
       <c r="Z89" s="2">
-        <f t="shared" si="103"/>
-        <v>-9487.5144100000034</v>
+        <f t="shared" si="115"/>
+        <v>-10852.720263814974</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
@@ -6287,24 +6543,24 @@
         <v>-2418</v>
       </c>
       <c r="V90" s="2">
-        <f t="shared" si="99"/>
-        <v>-2659.8</v>
+        <f>U90*(1+V38)</f>
+        <v>-2817.0740492285399</v>
       </c>
       <c r="W90" s="2">
-        <f t="shared" si="100"/>
-        <v>-2925.7800000000007</v>
+        <f t="shared" ref="W90:Z90" si="116">V90*(1+W38)</f>
+        <v>-3151.6051876980555</v>
       </c>
       <c r="X90" s="2">
-        <f t="shared" si="101"/>
-        <v>-3218.3580000000011</v>
+        <f t="shared" si="116"/>
+        <v>-3531.4147093097449</v>
       </c>
       <c r="Y90" s="2">
-        <f t="shared" si="102"/>
-        <v>-3540.1938000000014</v>
+        <f t="shared" si="116"/>
+        <v>-3963.1626802938972</v>
       </c>
       <c r="Z90" s="2">
-        <f t="shared" si="103"/>
-        <v>-3894.213180000002</v>
+        <f t="shared" si="116"/>
+        <v>-4454.5709723144801</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
@@ -6324,24 +6580,24 @@
         <v>-1397</v>
       </c>
       <c r="V91" s="2">
-        <f t="shared" si="99"/>
-        <v>-1536.7</v>
+        <f>U91*(1+V38)</f>
+        <v>-1627.5651144633046</v>
       </c>
       <c r="W91" s="2">
-        <f t="shared" si="100"/>
-        <v>-1690.3700000000001</v>
+        <f t="shared" ref="W91:Z91" si="117">V91*(1+W38)</f>
+        <v>-1820.8405488892404</v>
       </c>
       <c r="X91" s="2">
-        <f t="shared" si="101"/>
-        <v>-1859.4070000000004</v>
+        <f t="shared" si="117"/>
+        <v>-2040.2755785383431</v>
       </c>
       <c r="Y91" s="2">
-        <f t="shared" si="102"/>
-        <v>-2045.3477000000005</v>
+        <f t="shared" si="117"/>
+        <v>-2289.7180580523468</v>
       </c>
       <c r="Z91" s="2">
-        <f t="shared" si="103"/>
-        <v>-2249.8824700000009</v>
+        <f t="shared" si="117"/>
+        <v>-2573.6293003818569</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
@@ -6361,24 +6617,24 @@
         <v>-1161</v>
       </c>
       <c r="V92" s="2">
-        <f t="shared" si="99"/>
-        <v>-1277.1000000000001</v>
+        <f>U92*(1+V38)</f>
+        <v>-1352.6149591208994</v>
       </c>
       <c r="W92" s="2">
-        <f t="shared" si="100"/>
-        <v>-1404.8100000000002</v>
+        <f t="shared" ref="W92:Z92" si="118">V92*(1+W38)</f>
+        <v>-1513.2397117111009</v>
       </c>
       <c r="X92" s="2">
-        <f t="shared" si="101"/>
-        <v>-1545.2910000000004</v>
+        <f t="shared" si="118"/>
+        <v>-1695.6048294080288</v>
       </c>
       <c r="Y92" s="2">
-        <f t="shared" si="102"/>
-        <v>-1699.8201000000006</v>
+        <f t="shared" si="118"/>
+        <v>-1902.9081355753576</v>
       </c>
       <c r="Z92" s="2">
-        <f t="shared" si="103"/>
-        <v>-1869.8021100000008</v>
+        <f t="shared" si="118"/>
+        <v>-2138.857278270104</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
@@ -6398,24 +6654,24 @@
         <v>-1161</v>
       </c>
       <c r="V93" s="2">
-        <f t="shared" si="99"/>
-        <v>-1277.1000000000001</v>
+        <f>U93*(1+V38)</f>
+        <v>-1352.6149591208994</v>
       </c>
       <c r="W93" s="2">
-        <f t="shared" si="100"/>
-        <v>-1404.8100000000002</v>
+        <f t="shared" ref="W93:Z93" si="119">V93*(1+W38)</f>
+        <v>-1513.2397117111009</v>
       </c>
       <c r="X93" s="2">
-        <f t="shared" si="101"/>
-        <v>-1545.2910000000004</v>
+        <f t="shared" si="119"/>
+        <v>-1695.6048294080288</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" si="102"/>
-        <v>-1699.8201000000006</v>
+        <f t="shared" si="119"/>
+        <v>-1902.9081355753576</v>
       </c>
       <c r="Z93" s="2">
-        <f t="shared" si="103"/>
-        <v>-1869.8021100000008</v>
+        <f t="shared" si="119"/>
+        <v>-2138.857278270104</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
@@ -6435,24 +6691,24 @@
         <v>1059</v>
       </c>
       <c r="V94" s="2">
-        <f t="shared" si="99"/>
-        <v>1164.9000000000001</v>
+        <f>U94*(1+V38)</f>
+        <v>1233.780569947487</v>
       </c>
       <c r="W94" s="2">
-        <f t="shared" si="100"/>
-        <v>1281.3900000000001</v>
+        <f t="shared" ref="W94:Z94" si="120">V94*(1+W38)</f>
+        <v>1380.2935871680068</v>
       </c>
       <c r="X94" s="2">
-        <f t="shared" si="101"/>
-        <v>1409.5290000000002</v>
+        <f t="shared" si="120"/>
+        <v>1546.636963258486</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" si="102"/>
-        <v>1550.4819000000005</v>
+        <f t="shared" si="120"/>
+        <v>1735.7275758607266</v>
       </c>
       <c r="Z94" s="2">
-        <f t="shared" si="103"/>
-        <v>1705.5300900000007</v>
+        <f t="shared" si="120"/>
+        <v>1950.9473365099398</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
@@ -6472,24 +6728,24 @@
         <v>1043</v>
       </c>
       <c r="V95" s="2">
-        <f t="shared" si="99"/>
-        <v>1147.3000000000002</v>
+        <f>U95*(1+V38)</f>
+        <v>1215.139881449697</v>
       </c>
       <c r="W95" s="2">
-        <f t="shared" si="100"/>
-        <v>1262.0300000000002</v>
+        <f t="shared" ref="W95:Z95" si="121">V95*(1+W38)</f>
+        <v>1359.4392931220314</v>
       </c>
       <c r="X95" s="2">
-        <f t="shared" si="101"/>
-        <v>1388.2330000000004</v>
+        <f t="shared" si="121"/>
+        <v>1523.2694548428717</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" si="102"/>
-        <v>1527.0563000000006</v>
+        <f t="shared" si="121"/>
+        <v>1709.5031743368629</v>
       </c>
       <c r="Z95" s="2">
-        <f t="shared" si="103"/>
-        <v>1679.7619300000008</v>
+        <f t="shared" si="121"/>
+        <v>1921.4712672142277</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
@@ -6525,32 +6781,32 @@
         <v>91495</v>
       </c>
       <c r="T96" s="5">
-        <f t="shared" ref="T96:Z96" si="104">SUM(T83:T95)</f>
+        <f t="shared" ref="T96:Z96" si="122">SUM(T83:T95)</f>
         <v>101746</v>
       </c>
       <c r="U96" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>123779</v>
       </c>
       <c r="V96" s="5">
-        <f t="shared" si="104"/>
-        <v>137457.67938286098</v>
+        <f t="shared" si="122"/>
+        <v>139417.99428531778</v>
       </c>
       <c r="W96" s="5">
-        <f t="shared" si="104"/>
-        <v>157206.59102843376</v>
+        <f t="shared" si="122"/>
+        <v>163136.85866850417</v>
       </c>
       <c r="X96" s="5">
-        <f t="shared" si="104"/>
-        <v>179730.21790552087</v>
+        <f t="shared" si="122"/>
+        <v>190589.28276346272</v>
       </c>
       <c r="Y96" s="5">
-        <f t="shared" si="104"/>
-        <v>205437.48622732935</v>
+        <f t="shared" si="122"/>
+        <v>222373.76891763607</v>
       </c>
       <c r="Z96" s="5">
-        <f t="shared" si="104"/>
-        <v>234803.27932657179</v>
+        <f t="shared" si="122"/>
+        <v>259189.43393795946</v>
       </c>
       <c r="AB96" s="2" t="s">
         <v>55</v>
@@ -6575,6 +6831,25 @@
       <c r="U97" s="2">
         <v>-52535</v>
       </c>
+      <c r="V97" s="2">
+        <v>-75000</v>
+      </c>
+      <c r="W97" s="2">
+        <f>V97*0.95</f>
+        <v>-71250</v>
+      </c>
+      <c r="X97" s="2">
+        <f t="shared" ref="X97:Z97" si="123">W97*0.95</f>
+        <v>-67687.5</v>
+      </c>
+      <c r="Y97" s="2">
+        <f t="shared" si="123"/>
+        <v>-64303.125</v>
+      </c>
+      <c r="Z97" s="2">
+        <f t="shared" si="123"/>
+        <v>-61087.96875</v>
+      </c>
       <c r="AB97" s="2" t="s">
         <v>29</v>
       </c>
@@ -6634,7 +6909,7 @@
       </c>
       <c r="AC99" s="2">
         <f>NPV(AC98,V103:FG103)+main!I5-main!I6</f>
-        <v>2373426.4435886247</v>
+        <v>2516897.9388082037</v>
       </c>
     </row>
     <row r="100" spans="1:163" x14ac:dyDescent="0.25">
@@ -6661,7 +6936,7 @@
       </c>
       <c r="AC100" s="2">
         <f>AC99/main!I3</f>
-        <v>193.74909743580611</v>
+        <v>205.46105622924111</v>
       </c>
     </row>
     <row r="101" spans="1:163" x14ac:dyDescent="0.25">
@@ -6685,7 +6960,7 @@
       </c>
       <c r="AC101" s="3">
         <f>AC100/main!I2-1</f>
-        <v>0.24198139381926986</v>
+        <v>0.31705805275154564</v>
       </c>
     </row>
     <row r="102" spans="1:163" x14ac:dyDescent="0.25">
@@ -6711,31 +6986,32 @@
         <v>-31485</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" ref="T102:U102" si="105">T97</f>
+        <f t="shared" ref="T102:Z102" si="124">T97</f>
         <v>-32251</v>
       </c>
       <c r="U102" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>-52535</v>
       </c>
       <c r="V102" s="2">
+        <f t="shared" si="124"/>
         <v>-75000</v>
       </c>
       <c r="W102" s="2">
-        <f>V102*0.9</f>
-        <v>-67500</v>
+        <f t="shared" si="124"/>
+        <v>-71250</v>
       </c>
       <c r="X102" s="2">
-        <f t="shared" ref="X102:Z102" si="106">W102*0.9</f>
-        <v>-60750</v>
+        <f t="shared" si="124"/>
+        <v>-67687.5</v>
       </c>
       <c r="Y102" s="2">
-        <f t="shared" si="106"/>
-        <v>-54675</v>
+        <f t="shared" si="124"/>
+        <v>-64303.125</v>
       </c>
       <c r="Z102" s="2">
-        <f t="shared" si="106"/>
-        <v>-49207.5</v>
+        <f t="shared" si="124"/>
+        <v>-61087.96875</v>
       </c>
     </row>
     <row r="103" spans="1:163" x14ac:dyDescent="0.25">
@@ -6747,39 +7023,39 @@
         <v>0</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" ref="C103:K103" si="107">C96+C102</f>
+        <f t="shared" ref="C103:K103" si="125">C96+C102</f>
         <v>39466</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>40386</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>24837</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="L103" s="5"/>
@@ -6803,606 +7079,612 @@
       </c>
       <c r="V103" s="5">
         <f>V96+V102</f>
-        <v>62457.679382860981</v>
+        <v>64417.994285317778</v>
       </c>
       <c r="W103" s="5">
-        <f t="shared" ref="W103:Z103" si="108">W96+W102</f>
-        <v>89706.591028433759</v>
+        <f t="shared" ref="W103:Z103" si="126">W96+W102</f>
+        <v>91886.858668504166</v>
       </c>
       <c r="X103" s="5">
-        <f t="shared" si="108"/>
-        <v>118980.21790552087</v>
+        <f t="shared" si="126"/>
+        <v>122901.78276346272</v>
       </c>
       <c r="Y103" s="5">
-        <f t="shared" si="108"/>
-        <v>150762.48622732935</v>
+        <f t="shared" si="126"/>
+        <v>158070.64391763607</v>
       </c>
       <c r="Z103" s="5">
-        <f t="shared" si="108"/>
-        <v>185595.77932657179</v>
+        <f t="shared" si="126"/>
+        <v>198101.46518795946</v>
       </c>
       <c r="AA103" s="5">
-        <f t="shared" ref="AA103:BF103" si="109">Z103*(1+$AC$97)</f>
-        <v>187451.73711983752</v>
+        <f t="shared" ref="AA103:BF103" si="127">Z103*(1+$AC$97)</f>
+        <v>200082.47983983907</v>
       </c>
       <c r="AB103" s="5">
-        <f t="shared" si="109"/>
-        <v>189326.25449103588</v>
+        <f t="shared" si="127"/>
+        <v>202083.30463823746</v>
       </c>
       <c r="AC103" s="5">
-        <f t="shared" si="109"/>
-        <v>191219.51703594625</v>
+        <f t="shared" si="127"/>
+        <v>204104.13768461984</v>
       </c>
       <c r="AD103" s="5">
-        <f t="shared" si="109"/>
-        <v>193131.7122063057</v>
+        <f t="shared" si="127"/>
+        <v>206145.17906146604</v>
       </c>
       <c r="AE103" s="5">
-        <f t="shared" si="109"/>
-        <v>195063.02932836875</v>
+        <f t="shared" si="127"/>
+        <v>208206.63085208071</v>
       </c>
       <c r="AF103" s="5">
-        <f t="shared" si="109"/>
-        <v>197013.65962165245</v>
+        <f t="shared" si="127"/>
+        <v>210288.69716060153</v>
       </c>
       <c r="AG103" s="5">
-        <f t="shared" si="109"/>
-        <v>198983.79621786898</v>
+        <f t="shared" si="127"/>
+        <v>212391.58413220756</v>
       </c>
       <c r="AH103" s="5">
-        <f t="shared" si="109"/>
-        <v>200973.63418004767</v>
+        <f t="shared" si="127"/>
+        <v>214515.49997352963</v>
       </c>
       <c r="AI103" s="5">
-        <f t="shared" si="109"/>
-        <v>202983.37052184815</v>
+        <f t="shared" si="127"/>
+        <v>216660.65497326493</v>
       </c>
       <c r="AJ103" s="5">
-        <f t="shared" si="109"/>
-        <v>205013.20422706663</v>
+        <f t="shared" si="127"/>
+        <v>218827.26152299758</v>
       </c>
       <c r="AK103" s="5">
-        <f t="shared" si="109"/>
-        <v>207063.33626933731</v>
+        <f t="shared" si="127"/>
+        <v>221015.53413822755</v>
       </c>
       <c r="AL103" s="5">
-        <f t="shared" si="109"/>
-        <v>209133.96963203067</v>
+        <f t="shared" si="127"/>
+        <v>223225.68947960983</v>
       </c>
       <c r="AM103" s="5">
-        <f t="shared" si="109"/>
-        <v>211225.30932835097</v>
+        <f t="shared" si="127"/>
+        <v>225457.94637440593</v>
       </c>
       <c r="AN103" s="5">
-        <f t="shared" si="109"/>
-        <v>213337.56242163447</v>
+        <f t="shared" si="127"/>
+        <v>227712.52583815</v>
       </c>
       <c r="AO103" s="5">
-        <f t="shared" si="109"/>
-        <v>215470.93804585081</v>
+        <f t="shared" si="127"/>
+        <v>229989.65109653151</v>
       </c>
       <c r="AP103" s="5">
-        <f t="shared" si="109"/>
-        <v>217625.64742630933</v>
+        <f t="shared" si="127"/>
+        <v>232289.54760749682</v>
       </c>
       <c r="AQ103" s="5">
-        <f t="shared" si="109"/>
-        <v>219801.90390057242</v>
+        <f t="shared" si="127"/>
+        <v>234612.44308357179</v>
       </c>
       <c r="AR103" s="5">
-        <f t="shared" si="109"/>
-        <v>221999.92293957816</v>
+        <f t="shared" si="127"/>
+        <v>236958.56751440751</v>
       </c>
       <c r="AS103" s="5">
-        <f t="shared" si="109"/>
-        <v>224219.92216897395</v>
+        <f t="shared" si="127"/>
+        <v>239328.15318955158</v>
       </c>
       <c r="AT103" s="5">
-        <f t="shared" si="109"/>
-        <v>226462.1213906637</v>
+        <f t="shared" si="127"/>
+        <v>241721.43472144709</v>
       </c>
       <c r="AU103" s="5">
-        <f t="shared" si="109"/>
-        <v>228726.74260457035</v>
+        <f t="shared" si="127"/>
+        <v>244138.64906866156</v>
       </c>
       <c r="AV103" s="5">
-        <f t="shared" si="109"/>
-        <v>231014.01003061605</v>
+        <f t="shared" si="127"/>
+        <v>246580.03555934818</v>
       </c>
       <c r="AW103" s="5">
-        <f t="shared" si="109"/>
-        <v>233324.15013092221</v>
+        <f t="shared" si="127"/>
+        <v>249045.83591494165</v>
       </c>
       <c r="AX103" s="5">
-        <f t="shared" si="109"/>
-        <v>235657.39163223142</v>
+        <f t="shared" si="127"/>
+        <v>251536.29427409108</v>
       </c>
       <c r="AY103" s="5">
-        <f t="shared" si="109"/>
-        <v>238013.96554855374</v>
+        <f t="shared" si="127"/>
+        <v>254051.65721683198</v>
       </c>
       <c r="AZ103" s="5">
-        <f t="shared" si="109"/>
-        <v>240394.10520403928</v>
+        <f t="shared" si="127"/>
+        <v>256592.17378900031</v>
       </c>
       <c r="BA103" s="5">
-        <f t="shared" si="109"/>
-        <v>242798.04625607969</v>
+        <f t="shared" si="127"/>
+        <v>259158.09552689031</v>
       </c>
       <c r="BB103" s="5">
-        <f t="shared" si="109"/>
-        <v>245226.0267186405</v>
+        <f t="shared" si="127"/>
+        <v>261749.67648215921</v>
       </c>
       <c r="BC103" s="5">
-        <f t="shared" si="109"/>
-        <v>247678.28698582691</v>
+        <f t="shared" si="127"/>
+        <v>264367.17324698082</v>
       </c>
       <c r="BD103" s="5">
-        <f t="shared" si="109"/>
-        <v>250155.06985568517</v>
+        <f t="shared" si="127"/>
+        <v>267010.84497945063</v>
       </c>
       <c r="BE103" s="5">
-        <f t="shared" si="109"/>
-        <v>252656.62055424202</v>
+        <f t="shared" si="127"/>
+        <v>269680.95342924516</v>
       </c>
       <c r="BF103" s="5">
-        <f t="shared" si="109"/>
-        <v>255183.18675978444</v>
+        <f t="shared" si="127"/>
+        <v>272377.76296353759</v>
       </c>
       <c r="BG103" s="5">
-        <f t="shared" ref="BG103:CL103" si="110">BF103*(1+$AC$97)</f>
-        <v>257735.01862738229</v>
+        <f t="shared" ref="BG103:CL103" si="128">BF103*(1+$AC$97)</f>
+        <v>275101.54059317295</v>
       </c>
       <c r="BH103" s="5">
-        <f t="shared" si="110"/>
-        <v>260312.36881365612</v>
+        <f t="shared" si="128"/>
+        <v>277852.55599910469</v>
       </c>
       <c r="BI103" s="5">
-        <f t="shared" si="110"/>
-        <v>262915.49250179267</v>
+        <f t="shared" si="128"/>
+        <v>280631.08155909576</v>
       </c>
       <c r="BJ103" s="5">
-        <f t="shared" si="110"/>
-        <v>265544.64742681058</v>
+        <f t="shared" si="128"/>
+        <v>283437.39237468672</v>
       </c>
       <c r="BK103" s="5">
-        <f t="shared" si="110"/>
-        <v>268200.09390107868</v>
+        <f t="shared" si="128"/>
+        <v>286271.76629843359</v>
       </c>
       <c r="BL103" s="5">
-        <f t="shared" si="110"/>
-        <v>270882.0948400895</v>
+        <f t="shared" si="128"/>
+        <v>289134.48396141792</v>
       </c>
       <c r="BM103" s="5">
-        <f t="shared" si="110"/>
-        <v>273590.91578849038</v>
+        <f t="shared" si="128"/>
+        <v>292025.8288010321</v>
       </c>
       <c r="BN103" s="5">
-        <f t="shared" si="110"/>
-        <v>276326.82494637527</v>
+        <f t="shared" si="128"/>
+        <v>294946.08708904241</v>
       </c>
       <c r="BO103" s="5">
-        <f t="shared" si="110"/>
-        <v>279090.09319583903</v>
+        <f t="shared" si="128"/>
+        <v>297895.54795993282</v>
       </c>
       <c r="BP103" s="5">
-        <f t="shared" si="110"/>
-        <v>281880.99412779743</v>
+        <f t="shared" si="128"/>
+        <v>300874.50343953213</v>
       </c>
       <c r="BQ103" s="5">
-        <f t="shared" si="110"/>
-        <v>284699.80406907538</v>
+        <f t="shared" si="128"/>
+        <v>303883.24847392744</v>
       </c>
       <c r="BR103" s="5">
-        <f t="shared" si="110"/>
-        <v>287546.80210976617</v>
+        <f t="shared" si="128"/>
+        <v>306922.08095866669</v>
       </c>
       <c r="BS103" s="5">
-        <f t="shared" si="110"/>
-        <v>290422.27013086382</v>
+        <f t="shared" si="128"/>
+        <v>309991.30176825338</v>
       </c>
       <c r="BT103" s="5">
-        <f t="shared" si="110"/>
-        <v>293326.49283217249</v>
+        <f t="shared" si="128"/>
+        <v>313091.21478593594</v>
       </c>
       <c r="BU103" s="5">
-        <f t="shared" si="110"/>
-        <v>296259.75776049419</v>
+        <f t="shared" si="128"/>
+        <v>316222.12693379528</v>
       </c>
       <c r="BV103" s="5">
-        <f t="shared" si="110"/>
-        <v>299222.35533809912</v>
+        <f t="shared" si="128"/>
+        <v>319384.34820313327</v>
       </c>
       <c r="BW103" s="5">
-        <f t="shared" si="110"/>
-        <v>302214.57889148011</v>
+        <f t="shared" si="128"/>
+        <v>322578.19168516458</v>
       </c>
       <c r="BX103" s="5">
-        <f t="shared" si="110"/>
-        <v>305236.72468039492</v>
+        <f t="shared" si="128"/>
+        <v>325803.97360201622</v>
       </c>
       <c r="BY103" s="5">
-        <f t="shared" si="110"/>
-        <v>308289.09192719887</v>
+        <f t="shared" si="128"/>
+        <v>329062.01333803637</v>
       </c>
       <c r="BZ103" s="5">
-        <f t="shared" si="110"/>
-        <v>311371.98284647084</v>
+        <f t="shared" si="128"/>
+        <v>332352.63347141672</v>
       </c>
       <c r="CA103" s="5">
-        <f t="shared" si="110"/>
-        <v>314485.70267493557</v>
+        <f t="shared" si="128"/>
+        <v>335676.15980613086</v>
       </c>
       <c r="CB103" s="5">
-        <f t="shared" si="110"/>
-        <v>317630.55970168492</v>
+        <f t="shared" si="128"/>
+        <v>339032.92140419217</v>
       </c>
       <c r="CC103" s="5">
-        <f t="shared" si="110"/>
-        <v>320806.8652987018</v>
+        <f t="shared" si="128"/>
+        <v>342423.2506182341</v>
       </c>
       <c r="CD103" s="5">
-        <f t="shared" si="110"/>
-        <v>324014.93395168881</v>
+        <f t="shared" si="128"/>
+        <v>345847.48312441644</v>
       </c>
       <c r="CE103" s="5">
-        <f t="shared" si="110"/>
-        <v>327255.08329120569</v>
+        <f t="shared" si="128"/>
+        <v>349305.95795566059</v>
       </c>
       <c r="CF103" s="5">
-        <f t="shared" si="110"/>
-        <v>330527.63412411773</v>
+        <f t="shared" si="128"/>
+        <v>352799.01753521722</v>
       </c>
       <c r="CG103" s="5">
-        <f t="shared" si="110"/>
-        <v>333832.91046535893</v>
+        <f t="shared" si="128"/>
+        <v>356327.00771056942</v>
       </c>
       <c r="CH103" s="5">
-        <f t="shared" si="110"/>
-        <v>337171.23957001255</v>
+        <f t="shared" si="128"/>
+        <v>359890.27778767509</v>
       </c>
       <c r="CI103" s="5">
-        <f t="shared" si="110"/>
-        <v>340542.95196571265</v>
+        <f t="shared" si="128"/>
+        <v>363489.18056555185</v>
       </c>
       <c r="CJ103" s="5">
-        <f t="shared" si="110"/>
-        <v>343948.38148536975</v>
+        <f t="shared" si="128"/>
+        <v>367124.07237120735</v>
       </c>
       <c r="CK103" s="5">
-        <f t="shared" si="110"/>
-        <v>347387.86530022346</v>
+        <f t="shared" si="128"/>
+        <v>370795.31309491943</v>
       </c>
       <c r="CL103" s="5">
-        <f t="shared" si="110"/>
-        <v>350861.74395322573</v>
+        <f t="shared" si="128"/>
+        <v>374503.2662258686</v>
       </c>
       <c r="CM103" s="5">
-        <f t="shared" ref="CM103:DR103" si="111">CL103*(1+$AC$97)</f>
-        <v>354370.36139275797</v>
+        <f t="shared" ref="CM103:DR103" si="129">CL103*(1+$AC$97)</f>
+        <v>378248.29888812732</v>
       </c>
       <c r="CN103" s="5">
-        <f t="shared" si="111"/>
-        <v>357914.06500668556</v>
+        <f t="shared" si="129"/>
+        <v>382030.78187700862</v>
       </c>
       <c r="CO103" s="5">
-        <f t="shared" si="111"/>
-        <v>361493.2056567524</v>
+        <f t="shared" si="129"/>
+        <v>385851.08969577873</v>
       </c>
       <c r="CP103" s="5">
-        <f t="shared" si="111"/>
-        <v>365108.13771331991</v>
+        <f t="shared" si="129"/>
+        <v>389709.6005927365</v>
       </c>
       <c r="CQ103" s="5">
-        <f t="shared" si="111"/>
-        <v>368759.21909045312</v>
+        <f t="shared" si="129"/>
+        <v>393606.69659866387</v>
       </c>
       <c r="CR103" s="5">
-        <f t="shared" si="111"/>
-        <v>372446.81128135766</v>
+        <f t="shared" si="129"/>
+        <v>397542.76356465049</v>
       </c>
       <c r="CS103" s="5">
-        <f t="shared" si="111"/>
-        <v>376171.27939417126</v>
+        <f t="shared" si="129"/>
+        <v>401518.19120029698</v>
       </c>
       <c r="CT103" s="5">
-        <f t="shared" si="111"/>
-        <v>379932.99218811298</v>
+        <f t="shared" si="129"/>
+        <v>405533.37311229995</v>
       </c>
       <c r="CU103" s="5">
-        <f t="shared" si="111"/>
-        <v>383732.32210999413</v>
+        <f t="shared" si="129"/>
+        <v>409588.70684342296</v>
       </c>
       <c r="CV103" s="5">
-        <f t="shared" si="111"/>
-        <v>387569.6453310941</v>
+        <f t="shared" si="129"/>
+        <v>413684.59391185717</v>
       </c>
       <c r="CW103" s="5">
-        <f t="shared" si="111"/>
-        <v>391445.34178440506</v>
+        <f t="shared" si="129"/>
+        <v>417821.43985097576</v>
       </c>
       <c r="CX103" s="5">
-        <f t="shared" si="111"/>
-        <v>395359.79520224914</v>
+        <f t="shared" si="129"/>
+        <v>421999.65424948552</v>
       </c>
       <c r="CY103" s="5">
-        <f t="shared" si="111"/>
-        <v>399313.39315427165</v>
+        <f t="shared" si="129"/>
+        <v>426219.65079198038</v>
       </c>
       <c r="CZ103" s="5">
-        <f t="shared" si="111"/>
-        <v>403306.52708581439</v>
+        <f t="shared" si="129"/>
+        <v>430481.8472999002</v>
       </c>
       <c r="DA103" s="5">
-        <f t="shared" si="111"/>
-        <v>407339.59235667257</v>
+        <f t="shared" si="129"/>
+        <v>434786.66577289923</v>
       </c>
       <c r="DB103" s="5">
-        <f t="shared" si="111"/>
-        <v>411412.98828023928</v>
+        <f t="shared" si="129"/>
+        <v>439134.5324306282</v>
       </c>
       <c r="DC103" s="5">
-        <f t="shared" si="111"/>
-        <v>415527.11816304165</v>
+        <f t="shared" si="129"/>
+        <v>443525.87775493448</v>
       </c>
       <c r="DD103" s="5">
-        <f t="shared" si="111"/>
-        <v>419682.38934467209</v>
+        <f t="shared" si="129"/>
+        <v>447961.13653248386</v>
       </c>
       <c r="DE103" s="5">
-        <f t="shared" si="111"/>
-        <v>423879.2132381188</v>
+        <f t="shared" si="129"/>
+        <v>452440.74789780867</v>
       </c>
       <c r="DF103" s="5">
-        <f t="shared" si="111"/>
-        <v>428118.00537049997</v>
+        <f t="shared" si="129"/>
+        <v>456965.15537678677</v>
       </c>
       <c r="DG103" s="5">
-        <f t="shared" si="111"/>
-        <v>432399.18542420497</v>
+        <f t="shared" si="129"/>
+        <v>461534.80693055462</v>
       </c>
       <c r="DH103" s="5">
-        <f t="shared" si="111"/>
-        <v>436723.17727844702</v>
+        <f t="shared" si="129"/>
+        <v>466150.15499986015</v>
       </c>
       <c r="DI103" s="5">
-        <f t="shared" si="111"/>
-        <v>441090.40905123152</v>
+        <f t="shared" si="129"/>
+        <v>470811.65654985874</v>
       </c>
       <c r="DJ103" s="5">
-        <f t="shared" si="111"/>
-        <v>445501.31314174383</v>
+        <f t="shared" si="129"/>
+        <v>475519.77311535733</v>
       </c>
       <c r="DK103" s="5">
-        <f t="shared" si="111"/>
-        <v>449956.32627316128</v>
+        <f t="shared" si="129"/>
+        <v>480274.9708465109</v>
       </c>
       <c r="DL103" s="5">
-        <f t="shared" si="111"/>
-        <v>454455.88953589287</v>
+        <f t="shared" si="129"/>
+        <v>485077.72055497603</v>
       </c>
       <c r="DM103" s="5">
-        <f t="shared" si="111"/>
-        <v>459000.4484312518</v>
+        <f t="shared" si="129"/>
+        <v>489928.49776052579</v>
       </c>
       <c r="DN103" s="5">
-        <f t="shared" si="111"/>
-        <v>463590.45291556435</v>
+        <f t="shared" si="129"/>
+        <v>494827.78273813106</v>
       </c>
       <c r="DO103" s="5">
-        <f t="shared" si="111"/>
-        <v>468226.35744471999</v>
+        <f t="shared" si="129"/>
+        <v>499776.06056551239</v>
       </c>
       <c r="DP103" s="5">
-        <f t="shared" si="111"/>
-        <v>472908.62101916719</v>
+        <f t="shared" si="129"/>
+        <v>504773.82117116754</v>
       </c>
       <c r="DQ103" s="5">
-        <f t="shared" si="111"/>
-        <v>477637.70722935884</v>
+        <f t="shared" si="129"/>
+        <v>509821.55938287923</v>
       </c>
       <c r="DR103" s="5">
-        <f t="shared" si="111"/>
-        <v>482414.08430165244</v>
+        <f t="shared" si="129"/>
+        <v>514919.77497670805</v>
       </c>
       <c r="DS103" s="5">
-        <f t="shared" ref="DS103:EX103" si="112">DR103*(1+$AC$97)</f>
-        <v>487238.22514466895</v>
+        <f t="shared" ref="DS103:EX103" si="130">DR103*(1+$AC$97)</f>
+        <v>520068.97272647516</v>
       </c>
       <c r="DT103" s="5">
-        <f t="shared" si="112"/>
-        <v>492110.60739611567</v>
+        <f t="shared" si="130"/>
+        <v>525269.6624537399</v>
       </c>
       <c r="DU103" s="5">
-        <f t="shared" si="112"/>
-        <v>497031.71347007685</v>
+        <f t="shared" si="130"/>
+        <v>530522.35907827725</v>
       </c>
       <c r="DV103" s="5">
-        <f t="shared" si="112"/>
-        <v>502002.03060477762</v>
+        <f t="shared" si="130"/>
+        <v>535827.58266905998</v>
       </c>
       <c r="DW103" s="5">
-        <f t="shared" si="112"/>
-        <v>507022.05091082543</v>
+        <f t="shared" si="130"/>
+        <v>541185.85849575058</v>
       </c>
       <c r="DX103" s="5">
-        <f t="shared" si="112"/>
-        <v>512092.27141993371</v>
+        <f t="shared" si="130"/>
+        <v>546597.71708070813</v>
       </c>
       <c r="DY103" s="5">
-        <f t="shared" si="112"/>
-        <v>517213.19413413305</v>
+        <f t="shared" si="130"/>
+        <v>552063.6942515152</v>
       </c>
       <c r="DZ103" s="5">
-        <f t="shared" si="112"/>
-        <v>522385.32607547438</v>
+        <f t="shared" si="130"/>
+        <v>557584.33119403035</v>
       </c>
       <c r="EA103" s="5">
-        <f t="shared" si="112"/>
-        <v>527609.17933622911</v>
+        <f t="shared" si="130"/>
+        <v>563160.17450597067</v>
       </c>
       <c r="EB103" s="5">
-        <f t="shared" si="112"/>
-        <v>532885.27112959139</v>
+        <f t="shared" si="130"/>
+        <v>568791.77625103039</v>
       </c>
       <c r="EC103" s="5">
-        <f t="shared" si="112"/>
-        <v>538214.12384088733</v>
+        <f t="shared" si="130"/>
+        <v>574479.69401354075</v>
       </c>
       <c r="ED103" s="5">
-        <f t="shared" si="112"/>
-        <v>543596.26507929619</v>
+        <f t="shared" si="130"/>
+        <v>580224.49095367617</v>
       </c>
       <c r="EE103" s="5">
-        <f t="shared" si="112"/>
-        <v>549032.22773008922</v>
+        <f t="shared" si="130"/>
+        <v>586026.73586321296</v>
       </c>
       <c r="EF103" s="5">
-        <f t="shared" si="112"/>
-        <v>554522.55000739009</v>
+        <f t="shared" si="130"/>
+        <v>591887.00322184514</v>
       </c>
       <c r="EG103" s="5">
-        <f t="shared" si="112"/>
-        <v>560067.77550746396</v>
+        <f t="shared" si="130"/>
+        <v>597805.87325406354</v>
       </c>
       <c r="EH103" s="5">
-        <f t="shared" si="112"/>
-        <v>565668.45326253865</v>
+        <f t="shared" si="130"/>
+        <v>603783.93198660424</v>
       </c>
       <c r="EI103" s="5">
-        <f t="shared" si="112"/>
-        <v>571325.13779516402</v>
+        <f t="shared" si="130"/>
+        <v>609821.77130647027</v>
       </c>
       <c r="EJ103" s="5">
-        <f t="shared" si="112"/>
-        <v>577038.38917311572</v>
+        <f t="shared" si="130"/>
+        <v>615919.98901953502</v>
       </c>
       <c r="EK103" s="5">
-        <f t="shared" si="112"/>
-        <v>582808.77306484687</v>
+        <f t="shared" si="130"/>
+        <v>622079.18890973041</v>
       </c>
       <c r="EL103" s="5">
-        <f t="shared" si="112"/>
-        <v>588636.86079549533</v>
+        <f t="shared" si="130"/>
+        <v>628299.98079882772</v>
       </c>
       <c r="EM103" s="5">
-        <f t="shared" si="112"/>
-        <v>594523.22940345027</v>
+        <f t="shared" si="130"/>
+        <v>634582.98060681601</v>
       </c>
       <c r="EN103" s="5">
-        <f t="shared" si="112"/>
-        <v>600468.46169748483</v>
+        <f t="shared" si="130"/>
+        <v>640928.81041288422</v>
       </c>
       <c r="EO103" s="5">
-        <f t="shared" si="112"/>
-        <v>606473.14631445974</v>
+        <f t="shared" si="130"/>
+        <v>647338.09851701302</v>
       </c>
       <c r="EP103" s="5">
-        <f t="shared" si="112"/>
-        <v>612537.87777760439</v>
+        <f t="shared" si="130"/>
+        <v>653811.47950218315</v>
       </c>
       <c r="EQ103" s="5">
-        <f t="shared" si="112"/>
-        <v>618663.25655538042</v>
+        <f t="shared" si="130"/>
+        <v>660349.59429720498</v>
       </c>
       <c r="ER103" s="5">
-        <f t="shared" si="112"/>
-        <v>624849.88912093418</v>
+        <f t="shared" si="130"/>
+        <v>666953.090240177</v>
       </c>
       <c r="ES103" s="5">
-        <f t="shared" si="112"/>
-        <v>631098.38801214355</v>
+        <f t="shared" si="130"/>
+        <v>673622.62114257878</v>
       </c>
       <c r="ET103" s="5">
-        <f t="shared" si="112"/>
-        <v>637409.37189226504</v>
+        <f t="shared" si="130"/>
+        <v>680358.84735400463</v>
       </c>
       <c r="EU103" s="5">
-        <f t="shared" si="112"/>
-        <v>643783.46561118774</v>
+        <f t="shared" si="130"/>
+        <v>687162.43582754466</v>
       </c>
       <c r="EV103" s="5">
-        <f t="shared" si="112"/>
-        <v>650221.30026729964</v>
+        <f t="shared" si="130"/>
+        <v>694034.0601858201</v>
       </c>
       <c r="EW103" s="5">
-        <f t="shared" si="112"/>
-        <v>656723.51326997264</v>
+        <f t="shared" si="130"/>
+        <v>700974.40078767831</v>
       </c>
       <c r="EX103" s="5">
-        <f t="shared" si="112"/>
-        <v>663290.74840267235</v>
+        <f t="shared" si="130"/>
+        <v>707984.14479555516</v>
       </c>
       <c r="EY103" s="5">
-        <f t="shared" ref="EY103:FG103" si="113">EX103*(1+$AC$97)</f>
-        <v>669923.6558866991</v>
+        <f t="shared" ref="EY103:FG103" si="131">EX103*(1+$AC$97)</f>
+        <v>715063.98624351074</v>
       </c>
       <c r="EZ103" s="5">
-        <f t="shared" si="113"/>
-        <v>676622.89244556613</v>
+        <f t="shared" si="131"/>
+        <v>722214.62610594591</v>
       </c>
       <c r="FA103" s="5">
-        <f t="shared" si="113"/>
-        <v>683389.12137002184</v>
+        <f t="shared" si="131"/>
+        <v>729436.77236700535</v>
       </c>
       <c r="FB103" s="5">
-        <f t="shared" si="113"/>
-        <v>690223.01258372201</v>
+        <f t="shared" si="131"/>
+        <v>736731.14009067544</v>
       </c>
       <c r="FC103" s="5">
-        <f t="shared" si="113"/>
-        <v>697125.24270955927</v>
+        <f t="shared" si="131"/>
+        <v>744098.45149158221</v>
       </c>
       <c r="FD103" s="5">
-        <f t="shared" si="113"/>
-        <v>704096.49513665482</v>
+        <f t="shared" si="131"/>
+        <v>751539.43600649806</v>
       </c>
       <c r="FE103" s="5">
-        <f t="shared" si="113"/>
-        <v>711137.46008802135</v>
+        <f t="shared" si="131"/>
+        <v>759054.83036656305</v>
       </c>
       <c r="FF103" s="5">
-        <f t="shared" si="113"/>
-        <v>718248.83468890155</v>
+        <f t="shared" si="131"/>
+        <v>766645.37867022865</v>
       </c>
       <c r="FG103" s="5">
-        <f t="shared" si="113"/>
-        <v>725431.32303579058</v>
+        <f t="shared" si="131"/>
+        <v>774311.83245693089</v>
       </c>
     </row>
     <row r="104" spans="1:163" x14ac:dyDescent="0.25">
       <c r="S104" s="3">
-        <f t="shared" ref="S104:Z104" si="114">S103/S96</f>
+        <f t="shared" ref="S104:Z104" si="132">S103/S96</f>
         <v>0.65588283512760259</v>
       </c>
       <c r="T104" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="132"/>
         <v>0.6830243940793741</v>
       </c>
       <c r="U104" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="132"/>
         <v>0.57557420887226429</v>
       </c>
       <c r="V104" s="3">
-        <f t="shared" si="114"/>
-        <v>0.45437751941743143</v>
+        <f t="shared" si="132"/>
+        <v>0.46204935464418517</v>
       </c>
       <c r="W104" s="3">
-        <f t="shared" si="114"/>
-        <v>0.57062868955798829</v>
+        <f t="shared" si="132"/>
+        <v>0.56325014112978133</v>
       </c>
       <c r="X104" s="3">
-        <f t="shared" si="114"/>
-        <v>0.66199339928506307</v>
+        <f t="shared" si="132"/>
+        <v>0.64485148892655275</v>
       </c>
       <c r="Y104" s="3">
-        <f t="shared" si="114"/>
-        <v>0.73386064537657592</v>
+        <f t="shared" si="132"/>
+        <v>0.71083313777077317</v>
       </c>
       <c r="Z104" s="3">
-        <f t="shared" si="114"/>
-        <v>0.79043095078940251</v>
-      </c>
+        <f t="shared" si="132"/>
+        <v>0.76431150058137698</v>
+      </c>
+    </row>
+    <row r="109" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D009A-191E-4EF3-A620-EE58A936CB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8141EA-7C70-4DCA-98D8-5DA1AF5AD569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7275" yWindow="855" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <author>tc={50D81D40-768D-4E6C-B865-C43BC614BF3C}</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1078,7 +1078,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L10" dT="2025-04-24T20:04:58.81" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
+  <threadedComment ref="M10" dT="2025-04-24T20:04:58.81" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
     <text xml:space="preserve">Normalized </text>
   </threadedComment>
   <threadedComment ref="V13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
@@ -1244,10 +1244,10 @@
   <dimension ref="A1:HL109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z97" sqref="Z97"/>
+      <selection pane="bottomRight" activeCell="W84" sqref="W84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
     <col min="21" max="21" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="8.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9" style="2" customWidth="1"/>
     <col min="25" max="25" width="9.42578125" style="2" customWidth="1"/>
     <col min="26" max="26" width="9.7109375" style="2" customWidth="1"/>
     <col min="27" max="28" width="9.140625" style="2"/>
@@ -1574,13 +1574,13 @@
         <f>-2783-20</f>
         <v>-2803</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>121</v>
       </c>
       <c r="R8" s="4"/>
@@ -1600,19 +1600,18 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1648,28 +1647,55 @@
         <f>I11/I15</f>
         <v>0.27478994707036308</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="J10" s="6">
+        <f>J11/J15</f>
+        <v>0.27478994707036314</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>2.2400000000000002</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="S10" s="6">
+        <f>S11/S15</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <f>T11/T15</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <f>U11/U15</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" ref="V10:Z10" si="6">V11/V15</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1695,24 +1721,22 @@
         <f>I11*0.93</f>
         <v>13808.640000000001</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>2.11</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -1749,7 +1773,9 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="U12" s="2">
+        <v>183323</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1760,58 +1786,86 @@
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="5">
+        <f>B20+B16</f>
+        <v>14147</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C20+C16</f>
+        <v>15696</v>
+      </c>
+      <c r="D13" s="5">
+        <f>D20+D16</f>
+        <v>16363</v>
+      </c>
+      <c r="E13" s="5">
+        <f>E20+E16</f>
+        <v>18392</v>
+      </c>
+      <c r="F13" s="5">
+        <f>F20+F16</f>
+        <v>17664</v>
+      </c>
+      <c r="G13" s="5">
+        <f>G20+G16</f>
+        <v>19010</v>
+      </c>
+      <c r="H13" s="5">
+        <f>H20+H16</f>
+        <v>20274</v>
+      </c>
+      <c r="I13" s="5">
+        <f>I20+I16</f>
+        <v>22428</v>
+      </c>
       <c r="J13" s="5">
         <f>J20+J16</f>
         <v>23024.760000000002</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" ref="K13:M13" si="6">K20+K16</f>
+        <f t="shared" ref="K13:M13" si="7">K20+K16</f>
         <v>25980.434400000006</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29317.768176000005</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33086.337435840003</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="S13" s="2">
-        <f t="shared" ref="S13:T13" si="7">S16+S20</f>
+        <f t="shared" ref="S13:T13" si="8">S16+S20</f>
         <v>55523</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64598</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" ref="U13:Z13" si="8">U16+U20</f>
+        <f t="shared" ref="U13:Z13" si="9">U16+U20</f>
         <v>79376</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>111409.30001184001</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>129897.87922836482</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>151628.98059389339</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>177196.48529491038</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>207306.49596599932</v>
       </c>
     </row>
@@ -1877,11 +1931,11 @@
         <v>53266.717200000006</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ref="L15:M15" si="9">K15*1.06</f>
+        <f t="shared" ref="L15:M15" si="10">K15*1.06</f>
         <v>56462.720232000007</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59850.483445920014</v>
       </c>
       <c r="P15" s="2">
@@ -1911,15 +1965,15 @@
         <v>244013.01037449125</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" ref="X15:Z15" si="10">W15*1.11</f>
+        <f t="shared" ref="X15:Z15" si="11">W15*1.11</f>
         <v>270854.44151568529</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300648.43008241069</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>333719.7573914759</v>
       </c>
     </row>
@@ -1960,11 +2014,11 @@
         <v>10984.082399999999</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L16:M16" si="11">K16*1.14</f>
+        <f t="shared" ref="L16:M16" si="12">K16*1.14</f>
         <v>12521.853935999998</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14274.913487039996</v>
       </c>
       <c r="N16" s="3"/>
@@ -1989,15 +2043,15 @@
         <v>53105.931001804791</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" ref="X16:Z16" si="12">W16*1.12</f>
+        <f t="shared" ref="X16:Z16" si="13">W16*1.12</f>
         <v>59478.642722021374</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>66616.07984866394</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>74610.009430503618</v>
       </c>
     </row>
@@ -2038,11 +2092,11 @@
         <v>7464.0336000000007</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17:M17" si="13">K17*1.02</f>
+        <f t="shared" ref="L17:M17" si="14">K17*1.02</f>
         <v>7613.3142720000005</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7765.580557440001</v>
       </c>
       <c r="N17" s="3"/>
@@ -2067,15 +2121,15 @@
         <v>30462.214513734401</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" ref="X17:Z17" si="14">W17*1.01</f>
+        <f t="shared" ref="X17:Z17" si="15">W17*1.01</f>
         <v>30766.836658871747</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31074.505025460465</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31385.25007571507</v>
       </c>
     </row>
@@ -2116,11 +2170,11 @@
         <v>11023.4308</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" ref="L18:M18" si="15">K18*1.03</f>
+        <f t="shared" ref="L18:M18" si="16">K18*1.03</f>
         <v>11354.133724000001</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11694.757735720001</v>
       </c>
       <c r="Q18" s="4"/>
@@ -2143,15 +2197,15 @@
         <v>50147.644130886409</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" ref="X18:Z18" si="16">W18*1.12</f>
+        <f t="shared" ref="X18:Z18" si="17">W18*1.12</f>
         <v>56165.361426592783</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>62905.204797783925</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>70453.829373518005</v>
       </c>
     </row>
@@ -2164,91 +2218,91 @@
         <v>61961</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:P19" si="17">SUM(C15:C18)</f>
+        <f t="shared" ref="C19:P19" si="18">SUM(C15:C18)</f>
         <v>66285</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>67986</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>76311</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>70398</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>73928</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>76510</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>84094</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>77906.819999999992</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82738.26400000001</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>87952.022164000009</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93585.735226120014</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>161857</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="18">SUM(Q15:Q18)</f>
+        <f t="shared" ref="Q19" si="19">SUM(Q15:Q18)</f>
         <v>182527</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19" si="19">SUM(R15:R18)</f>
+        <f t="shared" ref="R19" si="20">SUM(R15:R18)</f>
         <v>257637</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19" si="20">SUM(S15:S18)</f>
+        <f t="shared" ref="S19" si="21">SUM(S15:S18)</f>
         <v>253528</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" ref="T19" si="21">SUM(T15:T18)</f>
+        <f t="shared" ref="T19" si="22">SUM(T15:T18)</f>
         <v>272543</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19" si="22">SUM(U15:U18)</f>
+        <f t="shared" ref="U19" si="23">SUM(U15:U18)</f>
         <v>304930</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" ref="V19" si="23">SUM(V15:V18)</f>
+        <f t="shared" ref="V19" si="24">SUM(V15:V18)</f>
         <v>342182.84139011998</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" ref="W19" si="24">SUM(W15:W18)</f>
+        <f t="shared" ref="W19" si="25">SUM(W15:W18)</f>
         <v>377728.80002091685</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" ref="X19" si="25">SUM(X15:X18)</f>
+        <f t="shared" ref="X19" si="26">SUM(X15:X18)</f>
         <v>417265.28232317121</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" ref="Y19" si="26">SUM(Y15:Y18)</f>
+        <f t="shared" ref="Y19" si="27">SUM(Y15:Y18)</f>
         <v>461244.219754319</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" ref="Z19" si="27">SUM(Z15:Z18)</f>
+        <f t="shared" ref="Z19" si="28">SUM(Z15:Z18)</f>
         <v>510168.84627121262</v>
       </c>
     </row>
@@ -2285,15 +2339,15 @@
         <v>13389.600000000002</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ref="K20:M20" si="28">J20*1.12</f>
+        <f t="shared" ref="K20:M20" si="29">J20*1.12</f>
         <v>14996.352000000004</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16795.914240000006</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>18811.423948800009</v>
       </c>
       <c r="N20" s="3"/>
@@ -2318,15 +2372,15 @@
         <v>76791.948226560024</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" ref="X20:Z20" si="29">W20*1.2</f>
+        <f t="shared" ref="X20:Z20" si="30">W20*1.2</f>
         <v>92150.33787187202</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>110580.40544624643</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>132696.4865354957</v>
       </c>
     </row>
@@ -2375,11 +2429,11 @@
         <v>398.41200000000003</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21:M21" si="30">K21*1.02</f>
+        <f t="shared" ref="L21:M21" si="31">K21*1.02</f>
         <v>406.38024000000001</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>414.50784480000004</v>
       </c>
       <c r="N21" s="3"/>
@@ -2406,15 +2460,15 @@
         <v>1690.3950890400001</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21:Z21" si="31">W21*1.05</f>
+        <f t="shared" ref="X21:Z21" si="32">W21*1.05</f>
         <v>1774.9148434920003</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1863.6605856666004</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1956.8436149499305</v>
       </c>
     </row>
@@ -2427,31 +2481,31 @@
         <v>69787</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:Z22" si="32">SUM(C19:C21)</f>
+        <f t="shared" ref="C22:Z22" si="33">SUM(C19:C21)</f>
         <v>74604</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>76693</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>86310</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>80539</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>84742</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>88268</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>96469</v>
       </c>
       <c r="J22" s="5">
@@ -2459,43 +2513,39 @@
         <v>91687.02</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ref="K22:M22" si="33">SUM(K19:K21)</f>
+        <f t="shared" ref="K22:M22" si="34">SUM(K19:K21)</f>
         <v>98133.028000000006</v>
       </c>
       <c r="L22" s="5">
+        <f t="shared" si="34"/>
+        <v>105154.31664400001</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="34"/>
+        <v>112811.66701972003</v>
+      </c>
+      <c r="P22" s="5">
         <f t="shared" si="33"/>
-        <v>105154.31664400001</v>
-      </c>
-      <c r="M22" s="5">
+        <v>161857</v>
+      </c>
+      <c r="Q22" s="5">
         <f t="shared" si="33"/>
-        <v>112811.66701972003</v>
-      </c>
-      <c r="N22" s="5">
-        <f>SUM(J22:M22)</f>
-        <v>407786.03166372003</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="32"/>
-        <v>161857</v>
-      </c>
-      <c r="Q22" s="5">
-        <f t="shared" si="32"/>
         <v>182527</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>257637</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>282836</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>307394</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>350018</v>
       </c>
       <c r="V22" s="5">
@@ -2503,19 +2553,19 @@
         <v>407786.03166372003</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>456211.14333651686</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>511190.53503853519</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>573688.2857862321</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>644822.17642165825</v>
       </c>
     </row>
@@ -2552,15 +2602,15 @@
         <v>38508.548400000007</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:M23" si="34">K22*(1-K43)</f>
+        <f t="shared" ref="K23:M23" si="35">K22*(1-K43)</f>
         <v>41215.871760000009</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>44164.812990480008</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>47380.900148282417</v>
       </c>
       <c r="P23" s="2">
@@ -2587,19 +2637,19 @@
       </c>
       <c r="W23" s="2">
         <f>W22*(1-W43)</f>
-        <v>191608.68020133709</v>
+        <v>187046.56876797194</v>
       </c>
       <c r="X23" s="2">
         <f>X22*(1-X43)</f>
-        <v>214700.02471618479</v>
+        <v>209588.11936579944</v>
       </c>
       <c r="Y23" s="2">
         <f>Y22*(1-Y43)</f>
-        <v>240949.0800302175</v>
+        <v>235212.19717235517</v>
       </c>
       <c r="Z23" s="2">
         <f>Z22*(1-Z43)</f>
-        <v>270825.3140970965</v>
+        <v>264377.0923328799</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2611,47 +2661,47 @@
         <v>39175</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:M24" si="35">C22-C23</f>
+        <f t="shared" ref="C24:M24" si="36">C22-C23</f>
         <v>42688</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>43464</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>48735</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>46827</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>49235</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>51794</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>55856</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>53178.471599999997</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>56917.156239999997</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>60989.503653519998</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>65430.766871437612</v>
       </c>
       <c r="P24" s="2">
@@ -2667,15 +2717,15 @@
         <v>146698</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24:U24" si="36">S22-S23</f>
+        <f t="shared" ref="S24:U24" si="37">S22-S23</f>
         <v>156633</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>174062</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>203716</v>
       </c>
       <c r="V24" s="2">
@@ -2684,19 +2734,19 @@
       </c>
       <c r="W24" s="2">
         <f>W22-W23</f>
-        <v>264602.46313517977</v>
+        <v>269164.57456854492</v>
       </c>
       <c r="X24" s="2">
         <f>X22-X23</f>
-        <v>296490.51032235043</v>
+        <v>301602.41567273578</v>
       </c>
       <c r="Y24" s="2">
         <f>Y22-Y23</f>
-        <v>332739.20575601456</v>
+        <v>338476.08861387696</v>
       </c>
       <c r="Z24" s="2">
         <f>Z22-Z23</f>
-        <v>373996.86232456175</v>
+        <v>380445.08408877836</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2732,15 +2782,15 @@
         <v>12465.838293337758</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25:M25" si="37">J25*(1+K39)</f>
+        <f t="shared" ref="K25:M25" si="38">J25*(1+K39)</f>
         <v>13342.24253644176</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>14296.862381725779</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>15337.961672979383</v>
       </c>
       <c r="P25" s="2">
@@ -2815,15 +2865,15 @@
         <v>6998.0151992868186</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26:M26" si="38">J26*(1+K39)</f>
+        <f t="shared" ref="K26:M26" si="39">J26*(1+K39)</f>
         <v>7490.0069987664438</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8025.9071147184286</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8610.3546659154617</v>
       </c>
       <c r="P26" s="2">
@@ -2898,15 +2948,15 @@
         <v>4186.643617120526</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:M27" si="39">J27*(1+K39)</f>
+        <f t="shared" ref="K27:M27" si="40">J27*(1+K39)</f>
         <v>4480.983407519514</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4801.5918566256523</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5151.2443709571653</v>
       </c>
       <c r="P27" s="2">
@@ -2958,91 +3008,91 @@
         <v>21760</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:K28" si="40">SUM(C25:C27)</f>
+        <f t="shared" ref="C28:K28" si="41">SUM(C25:C27)</f>
         <v>20850</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>22121</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>25038</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>21355</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>21810</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>23273</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>24884</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>23650.497109745105</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>25313.232942727718</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28:M28" si="41">SUM(L25:L27)</f>
+        <f t="shared" ref="L28:M28" si="42">SUM(L25:L27)</f>
         <v>27124.36135306986</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>29099.560709852012</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" ref="P28:Z28" si="42">SUM(P25:P27)</f>
+        <f t="shared" ref="P28:Z28" si="43">SUM(P25:P27)</f>
         <v>55730</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>56571</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>67984</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>81791</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>89589</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>91322</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>102538.21436567634</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>111742.36526758465</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>122036.98253429712</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>133570.95940060914</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>146516.06961825379</v>
       </c>
     </row>
@@ -3055,92 +3105,92 @@
         <v>17415</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:K29" si="43">C24-C28</f>
+        <f t="shared" ref="C29:K29" si="44">C24-C28</f>
         <v>21838</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>21343</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>23697</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>25472</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>27425</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>28521</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>30972</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>29527.974490254892</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>31603.923297272278</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29:M29" si="44">L24-L28</f>
+        <f t="shared" ref="L29:M29" si="45">L24-L28</f>
         <v>33865.142300450141</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>36331.2061615856</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" ref="P29:Z29" si="45">P24-P28</f>
+        <f t="shared" ref="P29:Z29" si="46">P24-P28</f>
         <v>34231</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>41224</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>78714</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>74842</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>84473</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>112394</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>133977.68399928126</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="45"/>
-        <v>152860.09786759512</v>
+        <f t="shared" si="46"/>
+        <v>157422.20930096027</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="45"/>
-        <v>174453.52778805332</v>
+        <f t="shared" si="46"/>
+        <v>179565.43313843868</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="45"/>
-        <v>199168.24635540543</v>
+        <f t="shared" si="46"/>
+        <v>204905.12921326782</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="45"/>
-        <v>227480.79270630796</v>
+        <f t="shared" si="46"/>
+        <v>233929.01447052456</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3161,15 +3211,15 @@
       </c>
       <c r="X30" s="2">
         <f>W56*$AC$96</f>
-        <v>20009.698801051534</v>
+        <v>20231.417416713084</v>
       </c>
       <c r="Y30" s="2">
         <f>X56*$AC$96</f>
-        <v>29539.934589282031</v>
+        <v>30020.867329693458</v>
       </c>
       <c r="Z30" s="2">
         <f>Y56*$AC$96</f>
-        <v>40735.268388953846</v>
+        <v>41518.38696744138</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3225,15 +3275,15 @@
         <v>1616</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" ref="X31:Z31" si="46">W31*1.01</f>
+        <f t="shared" ref="X31:Z31" si="47">W31*1.01</f>
         <v>1632.16</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1648.4816000000001</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1664.966416</v>
       </c>
     </row>
@@ -3246,94 +3296,94 @@
         <v>18205</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:K32" si="47">C29+SUM(C30:C31)</f>
+        <f t="shared" ref="C32:K32" si="48">C29+SUM(C30:C31)</f>
         <v>21903</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>21197</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>24412</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>28315</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>27551</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>31706</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>32243</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>31799.584490254892</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>31603.923297272278</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" ref="L32:M32" si="48">L29+SUM(L30:L31)</f>
+        <f t="shared" ref="L32:M32" si="49">L29+SUM(L30:L31)</f>
         <v>33865.142300450141</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>36331.2061615856</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="2">
-        <f t="shared" ref="P32:U32" si="49">SUM(P29:P31)</f>
+        <f t="shared" ref="P32:U32" si="50">SUM(P29:P31)</f>
         <v>39625</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>48082</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>78714</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>74842</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>85897</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>119819</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" ref="V32:Z32" si="50">SUM(V29:V31)</f>
+        <f t="shared" ref="V32:Z32" si="51">SUM(V29:V31)</f>
         <v>140664.12399928126</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="50"/>
-        <v>166398.8142939602</v>
+        <f t="shared" si="51"/>
+        <v>170960.92572732535</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="50"/>
-        <v>196095.38658910486</v>
+        <f t="shared" si="51"/>
+        <v>201429.01055515176</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="50"/>
-        <v>230356.66254468745</v>
+        <f t="shared" si="51"/>
+        <v>236574.47814296128</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="50"/>
-        <v>269881.02751126181</v>
+        <f t="shared" si="51"/>
+        <v>277112.3678539659</v>
       </c>
     </row>
     <row r="33" spans="1:220" x14ac:dyDescent="0.25">
@@ -3404,19 +3454,19 @@
       </c>
       <c r="W33" s="2">
         <f>W32*W40</f>
-        <v>31615.774715852436</v>
+        <v>32482.575888191815</v>
       </c>
       <c r="X33" s="2">
         <f>X32*X40</f>
-        <v>37258.123451929925</v>
+        <v>38271.512005478835</v>
       </c>
       <c r="Y33" s="2">
         <f>Y32*Y40</f>
-        <v>43767.765883490618</v>
+        <v>44949.150847162644</v>
       </c>
       <c r="Z33" s="2">
         <f>Z32*Z40</f>
-        <v>51277.395227139743</v>
+        <v>52651.349892253522</v>
       </c>
     </row>
     <row r="34" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3428,868 +3478,868 @@
         <v>15051</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:K34" si="51">C32-C33</f>
+        <f t="shared" ref="C34:K34" si="52">C32-C33</f>
         <v>18368</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>19689</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>20687</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>23662</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>23619</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>26301</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>26536</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>25757.663437106465</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>25599.177870790547</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" ref="L34:M34" si="52">L32-L33</f>
+        <f t="shared" ref="L34:M34" si="53">L32-L33</f>
         <v>27430.765263364614</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>29428.276990884337</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34:U34" si="53">P32-P33</f>
+        <f t="shared" ref="P34:U34" si="54">P32-P33</f>
         <v>34343</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>40269</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>64013</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>63486</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>73975</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>100122</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:Z34" si="54">V32-V33</f>
+        <f t="shared" ref="V34:Z34" si="55">V32-V33</f>
         <v>113937.94043941783</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="54"/>
-        <v>134783.03957810777</v>
+        <f t="shared" si="55"/>
+        <v>138478.34983913353</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="54"/>
-        <v>158837.26313717494</v>
+        <f t="shared" si="55"/>
+        <v>163157.49854967292</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="54"/>
-        <v>186588.89666119684</v>
+        <f t="shared" si="55"/>
+        <v>191625.32729579863</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="54"/>
-        <v>218603.63228412205</v>
+        <f t="shared" si="55"/>
+        <v>224461.01796171238</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" ref="AA34:BF34" si="55">Z34*(1+$AC$97)</f>
-        <v>220789.66860696327</v>
+        <f t="shared" ref="AA34:BF34" si="56">Z34*(1+$AC$97)</f>
+        <v>226705.62814132951</v>
       </c>
       <c r="AB34" s="5">
-        <f t="shared" si="55"/>
-        <v>222997.56529303291</v>
+        <f t="shared" si="56"/>
+        <v>228972.68442274281</v>
       </c>
       <c r="AC34" s="5">
-        <f t="shared" si="55"/>
-        <v>225227.54094596324</v>
+        <f t="shared" si="56"/>
+        <v>231262.41126697024</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" si="55"/>
-        <v>227479.81635542287</v>
+        <f t="shared" si="56"/>
+        <v>233575.03537963994</v>
       </c>
       <c r="AE34" s="5">
-        <f t="shared" si="55"/>
-        <v>229754.61451897709</v>
+        <f t="shared" si="56"/>
+        <v>235910.78573343635</v>
       </c>
       <c r="AF34" s="5">
-        <f t="shared" si="55"/>
-        <v>232052.16066416688</v>
+        <f t="shared" si="56"/>
+        <v>238269.89359077072</v>
       </c>
       <c r="AG34" s="5">
-        <f t="shared" si="55"/>
-        <v>234372.68227080855</v>
+        <f t="shared" si="56"/>
+        <v>240652.59252667843</v>
       </c>
       <c r="AH34" s="5">
-        <f t="shared" si="55"/>
-        <v>236716.40909351665</v>
+        <f t="shared" si="56"/>
+        <v>243059.11845194522</v>
       </c>
       <c r="AI34" s="5">
-        <f t="shared" si="55"/>
-        <v>239083.57318445182</v>
+        <f t="shared" si="56"/>
+        <v>245489.70963646469</v>
       </c>
       <c r="AJ34" s="5">
-        <f t="shared" si="55"/>
-        <v>241474.40891629635</v>
+        <f t="shared" si="56"/>
+        <v>247944.60673282933</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="55"/>
-        <v>243889.15300545932</v>
+        <f t="shared" si="56"/>
+        <v>250424.05280015763</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="55"/>
-        <v>246328.04453551391</v>
+        <f t="shared" si="56"/>
+        <v>252928.2933281592</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" si="55"/>
-        <v>248791.32498086905</v>
+        <f t="shared" si="56"/>
+        <v>255457.57626144079</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="55"/>
-        <v>251279.23823067773</v>
+        <f t="shared" si="56"/>
+        <v>258012.15202405519</v>
       </c>
       <c r="AO34" s="5">
-        <f t="shared" si="55"/>
-        <v>253792.0306129845</v>
+        <f t="shared" si="56"/>
+        <v>260592.27354429575</v>
       </c>
       <c r="AP34" s="5">
-        <f t="shared" si="55"/>
-        <v>256329.95091911434</v>
+        <f t="shared" si="56"/>
+        <v>263198.19627973868</v>
       </c>
       <c r="AQ34" s="5">
-        <f t="shared" si="55"/>
-        <v>258893.2504283055</v>
+        <f t="shared" si="56"/>
+        <v>265830.17824253609</v>
       </c>
       <c r="AR34" s="5">
-        <f t="shared" si="55"/>
-        <v>261482.18293258856</v>
+        <f t="shared" si="56"/>
+        <v>268488.48002496146</v>
       </c>
       <c r="AS34" s="5">
-        <f t="shared" si="55"/>
-        <v>264097.00476191443</v>
+        <f t="shared" si="56"/>
+        <v>271173.36482521106</v>
       </c>
       <c r="AT34" s="5">
-        <f t="shared" si="55"/>
-        <v>266737.97480953357</v>
+        <f t="shared" si="56"/>
+        <v>273885.09847346315</v>
       </c>
       <c r="AU34" s="5">
-        <f t="shared" si="55"/>
-        <v>269405.35455762892</v>
+        <f t="shared" si="56"/>
+        <v>276623.94945819781</v>
       </c>
       <c r="AV34" s="5">
-        <f t="shared" si="55"/>
-        <v>272099.40810320521</v>
+        <f t="shared" si="56"/>
+        <v>279390.1889527798</v>
       </c>
       <c r="AW34" s="5">
-        <f t="shared" si="55"/>
-        <v>274820.40218423726</v>
+        <f t="shared" si="56"/>
+        <v>282184.0908423076</v>
       </c>
       <c r="AX34" s="5">
-        <f t="shared" si="55"/>
-        <v>277568.60620607965</v>
+        <f t="shared" si="56"/>
+        <v>285005.93175073067</v>
       </c>
       <c r="AY34" s="5">
-        <f t="shared" si="55"/>
-        <v>280344.29226814047</v>
+        <f t="shared" si="56"/>
+        <v>287855.99106823799</v>
       </c>
       <c r="AZ34" s="5">
-        <f t="shared" si="55"/>
-        <v>283147.73519082187</v>
+        <f t="shared" si="56"/>
+        <v>290734.55097892036</v>
       </c>
       <c r="BA34" s="5">
-        <f t="shared" si="55"/>
-        <v>285979.21254273009</v>
+        <f t="shared" si="56"/>
+        <v>293641.89648870955</v>
       </c>
       <c r="BB34" s="5">
-        <f t="shared" si="55"/>
-        <v>288839.00466815737</v>
+        <f t="shared" si="56"/>
+        <v>296578.31545359665</v>
       </c>
       <c r="BC34" s="5">
-        <f t="shared" si="55"/>
-        <v>291727.39471483894</v>
+        <f t="shared" si="56"/>
+        <v>299544.09860813263</v>
       </c>
       <c r="BD34" s="5">
-        <f t="shared" si="55"/>
-        <v>294644.66866198735</v>
+        <f t="shared" si="56"/>
+        <v>302539.53959421394</v>
       </c>
       <c r="BE34" s="5">
-        <f t="shared" si="55"/>
-        <v>297591.11534860724</v>
+        <f t="shared" si="56"/>
+        <v>305564.93499015609</v>
       </c>
       <c r="BF34" s="5">
-        <f t="shared" si="55"/>
-        <v>300567.0265020933</v>
+        <f t="shared" si="56"/>
+        <v>308620.58434005769</v>
       </c>
       <c r="BG34" s="5">
-        <f t="shared" ref="BG34:CL34" si="56">BF34*(1+$AC$97)</f>
-        <v>303572.69676711422</v>
+        <f t="shared" ref="BG34:CL34" si="57">BF34*(1+$AC$97)</f>
+        <v>311706.79018345824</v>
       </c>
       <c r="BH34" s="5">
-        <f t="shared" si="56"/>
-        <v>306608.42373478535</v>
+        <f t="shared" si="57"/>
+        <v>314823.85808529286</v>
       </c>
       <c r="BI34" s="5">
-        <f t="shared" si="56"/>
-        <v>309674.50797213323</v>
+        <f t="shared" si="57"/>
+        <v>317972.09666614578</v>
       </c>
       <c r="BJ34" s="5">
-        <f t="shared" si="56"/>
-        <v>312771.25305185455</v>
+        <f t="shared" si="57"/>
+        <v>321151.81763280724</v>
       </c>
       <c r="BK34" s="5">
-        <f t="shared" si="56"/>
-        <v>315898.96558237309</v>
+        <f t="shared" si="57"/>
+        <v>324363.33580913534</v>
       </c>
       <c r="BL34" s="5">
-        <f t="shared" si="56"/>
-        <v>319057.95523819682</v>
+        <f t="shared" si="57"/>
+        <v>327606.96916722669</v>
       </c>
       <c r="BM34" s="5">
-        <f t="shared" si="56"/>
-        <v>322248.53479057882</v>
+        <f t="shared" si="57"/>
+        <v>330883.03885889897</v>
       </c>
       <c r="BN34" s="5">
-        <f t="shared" si="56"/>
-        <v>325471.0201384846</v>
+        <f t="shared" si="57"/>
+        <v>334191.86924748798</v>
       </c>
       <c r="BO34" s="5">
-        <f t="shared" si="56"/>
-        <v>328725.73033986945</v>
+        <f t="shared" si="57"/>
+        <v>337533.78793996287</v>
       </c>
       <c r="BP34" s="5">
-        <f t="shared" si="56"/>
-        <v>332012.98764326813</v>
+        <f t="shared" si="57"/>
+        <v>340909.12581936253</v>
       </c>
       <c r="BQ34" s="5">
-        <f t="shared" si="56"/>
-        <v>335333.11751970084</v>
+        <f t="shared" si="57"/>
+        <v>344318.21707755618</v>
       </c>
       <c r="BR34" s="5">
-        <f t="shared" si="56"/>
-        <v>338686.44869489787</v>
+        <f t="shared" si="57"/>
+        <v>347761.39924833173</v>
       </c>
       <c r="BS34" s="5">
-        <f t="shared" si="56"/>
-        <v>342073.31318184687</v>
+        <f t="shared" si="57"/>
+        <v>351239.01324081502</v>
       </c>
       <c r="BT34" s="5">
-        <f t="shared" si="56"/>
-        <v>345494.04631366534</v>
+        <f t="shared" si="57"/>
+        <v>354751.40337322321</v>
       </c>
       <c r="BU34" s="5">
-        <f t="shared" si="56"/>
-        <v>348948.98677680199</v>
+        <f t="shared" si="57"/>
+        <v>358298.91740695544</v>
       </c>
       <c r="BV34" s="5">
-        <f t="shared" si="56"/>
-        <v>352438.47664457001</v>
+        <f t="shared" si="57"/>
+        <v>361881.90658102499</v>
       </c>
       <c r="BW34" s="5">
-        <f t="shared" si="56"/>
-        <v>355962.86141101574</v>
+        <f t="shared" si="57"/>
+        <v>365500.72564683523</v>
       </c>
       <c r="BX34" s="5">
-        <f t="shared" si="56"/>
-        <v>359522.49002512591</v>
+        <f t="shared" si="57"/>
+        <v>369155.73290330358</v>
       </c>
       <c r="BY34" s="5">
-        <f t="shared" si="56"/>
-        <v>363117.71492537716</v>
+        <f t="shared" si="57"/>
+        <v>372847.29023233661</v>
       </c>
       <c r="BZ34" s="5">
-        <f t="shared" si="56"/>
-        <v>366748.89207463094</v>
+        <f t="shared" si="57"/>
+        <v>376575.76313465997</v>
       </c>
       <c r="CA34" s="5">
-        <f t="shared" si="56"/>
-        <v>370416.38099537726</v>
+        <f t="shared" si="57"/>
+        <v>380341.52076600655</v>
       </c>
       <c r="CB34" s="5">
-        <f t="shared" si="56"/>
-        <v>374120.54480533104</v>
+        <f t="shared" si="57"/>
+        <v>384144.93597366661</v>
       </c>
       <c r="CC34" s="5">
-        <f t="shared" si="56"/>
-        <v>377861.75025338435</v>
+        <f t="shared" si="57"/>
+        <v>387986.3853334033</v>
       </c>
       <c r="CD34" s="5">
-        <f t="shared" si="56"/>
-        <v>381640.36775591818</v>
+        <f t="shared" si="57"/>
+        <v>391866.24918673735</v>
       </c>
       <c r="CE34" s="5">
-        <f t="shared" si="56"/>
-        <v>385456.77143347735</v>
+        <f t="shared" si="57"/>
+        <v>395784.91167860472</v>
       </c>
       <c r="CF34" s="5">
-        <f t="shared" si="56"/>
-        <v>389311.3391478121</v>
+        <f t="shared" si="57"/>
+        <v>399742.76079539076</v>
       </c>
       <c r="CG34" s="5">
-        <f t="shared" si="56"/>
-        <v>393204.45253929024</v>
+        <f t="shared" si="57"/>
+        <v>403740.18840334465</v>
       </c>
       <c r="CH34" s="5">
-        <f t="shared" si="56"/>
-        <v>397136.49706468312</v>
+        <f t="shared" si="57"/>
+        <v>407777.59028737812</v>
       </c>
       <c r="CI34" s="5">
-        <f t="shared" si="56"/>
-        <v>401107.86203532998</v>
+        <f t="shared" si="57"/>
+        <v>411855.36619025189</v>
       </c>
       <c r="CJ34" s="5">
-        <f t="shared" si="56"/>
-        <v>405118.94065568328</v>
+        <f t="shared" si="57"/>
+        <v>415973.91985215445</v>
       </c>
       <c r="CK34" s="5">
-        <f t="shared" si="56"/>
-        <v>409170.13006224012</v>
+        <f t="shared" si="57"/>
+        <v>420133.65905067598</v>
       </c>
       <c r="CL34" s="5">
-        <f t="shared" si="56"/>
-        <v>413261.83136286255</v>
+        <f t="shared" si="57"/>
+        <v>424334.99564118276</v>
       </c>
       <c r="CM34" s="5">
-        <f t="shared" ref="CM34:DR34" si="57">CL34*(1+$AC$97)</f>
-        <v>417394.4496764912</v>
+        <f t="shared" ref="CM34:DR34" si="58">CL34*(1+$AC$97)</f>
+        <v>428578.34559759457</v>
       </c>
       <c r="CN34" s="5">
-        <f t="shared" si="57"/>
-        <v>421568.39417325612</v>
+        <f t="shared" si="58"/>
+        <v>432864.1290535705</v>
       </c>
       <c r="CO34" s="5">
-        <f t="shared" si="57"/>
-        <v>425784.07811498869</v>
+        <f t="shared" si="58"/>
+        <v>437192.77034410619</v>
       </c>
       <c r="CP34" s="5">
-        <f t="shared" si="57"/>
-        <v>430041.91889613855</v>
+        <f t="shared" si="58"/>
+        <v>441564.69804754725</v>
       </c>
       <c r="CQ34" s="5">
-        <f t="shared" si="57"/>
-        <v>434342.33808509994</v>
+        <f t="shared" si="58"/>
+        <v>445980.34502802271</v>
       </c>
       <c r="CR34" s="5">
-        <f t="shared" si="57"/>
-        <v>438685.76146595093</v>
+        <f t="shared" si="58"/>
+        <v>450440.14847830293</v>
       </c>
       <c r="CS34" s="5">
-        <f t="shared" si="57"/>
-        <v>443072.61908061046</v>
+        <f t="shared" si="58"/>
+        <v>454944.54996308597</v>
       </c>
       <c r="CT34" s="5">
-        <f t="shared" si="57"/>
-        <v>447503.34527141659</v>
+        <f t="shared" si="58"/>
+        <v>459493.99546271685</v>
       </c>
       <c r="CU34" s="5">
-        <f t="shared" si="57"/>
-        <v>451978.37872413074</v>
+        <f t="shared" si="58"/>
+        <v>464088.93541734404</v>
       </c>
       <c r="CV34" s="5">
-        <f t="shared" si="57"/>
-        <v>456498.16251137207</v>
+        <f t="shared" si="58"/>
+        <v>468729.82477151748</v>
       </c>
       <c r="CW34" s="5">
-        <f t="shared" si="57"/>
-        <v>461063.14413648582</v>
+        <f t="shared" si="58"/>
+        <v>473417.12301923265</v>
       </c>
       <c r="CX34" s="5">
-        <f t="shared" si="57"/>
-        <v>465673.7755778507</v>
+        <f t="shared" si="58"/>
+        <v>478151.294249425</v>
       </c>
       <c r="CY34" s="5">
-        <f t="shared" si="57"/>
-        <v>470330.51333362923</v>
+        <f t="shared" si="58"/>
+        <v>482932.80719191924</v>
       </c>
       <c r="CZ34" s="5">
-        <f t="shared" si="57"/>
-        <v>475033.81846696552</v>
+        <f t="shared" si="58"/>
+        <v>487762.13526383846</v>
       </c>
       <c r="DA34" s="5">
-        <f t="shared" si="57"/>
-        <v>479784.15665163519</v>
+        <f t="shared" si="58"/>
+        <v>492639.75661647687</v>
       </c>
       <c r="DB34" s="5">
-        <f t="shared" si="57"/>
-        <v>484581.99821815157</v>
+        <f t="shared" si="58"/>
+        <v>497566.15418264165</v>
       </c>
       <c r="DC34" s="5">
-        <f t="shared" si="57"/>
-        <v>489427.8182003331</v>
+        <f t="shared" si="58"/>
+        <v>502541.81572446809</v>
       </c>
       <c r="DD34" s="5">
-        <f t="shared" si="57"/>
-        <v>494322.09638233646</v>
+        <f t="shared" si="58"/>
+        <v>507567.23388171277</v>
       </c>
       <c r="DE34" s="5">
-        <f t="shared" si="57"/>
-        <v>499265.31734615983</v>
+        <f t="shared" si="58"/>
+        <v>512642.90622052993</v>
       </c>
       <c r="DF34" s="5">
-        <f t="shared" si="57"/>
-        <v>504257.97051962145</v>
+        <f t="shared" si="58"/>
+        <v>517769.33528273524</v>
       </c>
       <c r="DG34" s="5">
-        <f t="shared" si="57"/>
-        <v>509300.55022481765</v>
+        <f t="shared" si="58"/>
+        <v>522947.02863556257</v>
       </c>
       <c r="DH34" s="5">
-        <f t="shared" si="57"/>
-        <v>514393.55572706583</v>
+        <f t="shared" si="58"/>
+        <v>528176.49892191822</v>
       </c>
       <c r="DI34" s="5">
-        <f t="shared" si="57"/>
-        <v>519537.49128433649</v>
+        <f t="shared" si="58"/>
+        <v>533458.26391113736</v>
       </c>
       <c r="DJ34" s="5">
-        <f t="shared" si="57"/>
-        <v>524732.86619717989</v>
+        <f t="shared" si="58"/>
+        <v>538792.84655024868</v>
       </c>
       <c r="DK34" s="5">
-        <f t="shared" si="57"/>
-        <v>529980.19485915173</v>
+        <f t="shared" si="58"/>
+        <v>544180.77501575113</v>
       </c>
       <c r="DL34" s="5">
-        <f t="shared" si="57"/>
-        <v>535279.99680774321</v>
+        <f t="shared" si="58"/>
+        <v>549622.58276590868</v>
       </c>
       <c r="DM34" s="5">
-        <f t="shared" si="57"/>
-        <v>540632.79677582067</v>
+        <f t="shared" si="58"/>
+        <v>555118.80859356781</v>
       </c>
       <c r="DN34" s="5">
-        <f t="shared" si="57"/>
-        <v>546039.12474357884</v>
+        <f t="shared" si="58"/>
+        <v>560669.99667950347</v>
       </c>
       <c r="DO34" s="5">
-        <f t="shared" si="57"/>
-        <v>551499.51599101466</v>
+        <f t="shared" si="58"/>
+        <v>566276.69664629851</v>
       </c>
       <c r="DP34" s="5">
-        <f t="shared" si="57"/>
-        <v>557014.51115092484</v>
+        <f t="shared" si="58"/>
+        <v>571939.46361276146</v>
       </c>
       <c r="DQ34" s="5">
-        <f t="shared" si="57"/>
-        <v>562584.65626243409</v>
+        <f t="shared" si="58"/>
+        <v>577658.8582488891</v>
       </c>
       <c r="DR34" s="5">
-        <f t="shared" si="57"/>
-        <v>568210.50282505841</v>
+        <f t="shared" si="58"/>
+        <v>583435.44683137804</v>
       </c>
       <c r="DS34" s="5">
-        <f t="shared" ref="DS34:EX34" si="58">DR34*(1+$AC$97)</f>
-        <v>573892.60785330902</v>
+        <f t="shared" ref="DS34:EX34" si="59">DR34*(1+$AC$97)</f>
+        <v>589269.80129969178</v>
       </c>
       <c r="DT34" s="5">
-        <f t="shared" si="58"/>
-        <v>579631.53393184207</v>
+        <f t="shared" si="59"/>
+        <v>595162.49931268871</v>
       </c>
       <c r="DU34" s="5">
-        <f t="shared" si="58"/>
-        <v>585427.84927116055</v>
+        <f t="shared" si="59"/>
+        <v>601114.12430581555</v>
       </c>
       <c r="DV34" s="5">
-        <f t="shared" si="58"/>
-        <v>591282.12776387215</v>
+        <f t="shared" si="59"/>
+        <v>607125.26554887369</v>
       </c>
       <c r="DW34" s="5">
-        <f t="shared" si="58"/>
-        <v>597194.94904151093</v>
+        <f t="shared" si="59"/>
+        <v>613196.51820436248</v>
       </c>
       <c r="DX34" s="5">
-        <f t="shared" si="58"/>
-        <v>603166.8985319261</v>
+        <f t="shared" si="59"/>
+        <v>619328.48338640609</v>
       </c>
       <c r="DY34" s="5">
-        <f t="shared" si="58"/>
-        <v>609198.56751724542</v>
+        <f t="shared" si="59"/>
+        <v>625521.76822027017</v>
       </c>
       <c r="DZ34" s="5">
-        <f t="shared" si="58"/>
-        <v>615290.55319241784</v>
+        <f t="shared" si="59"/>
+        <v>631776.98590247286</v>
       </c>
       <c r="EA34" s="5">
-        <f t="shared" si="58"/>
-        <v>621443.45872434205</v>
+        <f t="shared" si="59"/>
+        <v>638094.75576149765</v>
       </c>
       <c r="EB34" s="5">
-        <f t="shared" si="58"/>
-        <v>627657.89331158553</v>
+        <f t="shared" si="59"/>
+        <v>644475.70331911265</v>
       </c>
       <c r="EC34" s="5">
-        <f t="shared" si="58"/>
-        <v>633934.47224470135</v>
+        <f t="shared" si="59"/>
+        <v>650920.46035230381</v>
       </c>
       <c r="ED34" s="5">
-        <f t="shared" si="58"/>
-        <v>640273.81696714833</v>
+        <f t="shared" si="59"/>
+        <v>657429.66495582683</v>
       </c>
       <c r="EE34" s="5">
-        <f t="shared" si="58"/>
-        <v>646676.55513681984</v>
+        <f t="shared" si="59"/>
+        <v>664003.96160538506</v>
       </c>
       <c r="EF34" s="5">
-        <f t="shared" si="58"/>
-        <v>653143.32068818808</v>
+        <f t="shared" si="59"/>
+        <v>670644.00122143887</v>
       </c>
       <c r="EG34" s="5">
-        <f t="shared" si="58"/>
-        <v>659674.75389506994</v>
+        <f t="shared" si="59"/>
+        <v>677350.44123365323</v>
       </c>
       <c r="EH34" s="5">
-        <f t="shared" si="58"/>
-        <v>666271.5014340207</v>
+        <f t="shared" si="59"/>
+        <v>684123.94564598973</v>
       </c>
       <c r="EI34" s="5">
-        <f t="shared" si="58"/>
-        <v>672934.21644836094</v>
+        <f t="shared" si="59"/>
+        <v>690965.18510244961</v>
       </c>
       <c r="EJ34" s="5">
-        <f t="shared" si="58"/>
-        <v>679663.55861284456</v>
+        <f t="shared" si="59"/>
+        <v>697874.83695347409</v>
       </c>
       <c r="EK34" s="5">
-        <f t="shared" si="58"/>
-        <v>686460.19419897301</v>
+        <f t="shared" si="59"/>
+        <v>704853.58532300883</v>
       </c>
       <c r="EL34" s="5">
-        <f t="shared" si="58"/>
-        <v>693324.79614096275</v>
+        <f t="shared" si="59"/>
+        <v>711902.12117623887</v>
       </c>
       <c r="EM34" s="5">
-        <f t="shared" si="58"/>
-        <v>700258.04410237237</v>
+        <f t="shared" si="59"/>
+        <v>719021.14238800132</v>
       </c>
       <c r="EN34" s="5">
-        <f t="shared" si="58"/>
-        <v>707260.62454339606</v>
+        <f t="shared" si="59"/>
+        <v>726211.35381188139</v>
       </c>
       <c r="EO34" s="5">
-        <f t="shared" si="58"/>
-        <v>714333.23078882997</v>
+        <f t="shared" si="59"/>
+        <v>733473.46735000017</v>
       </c>
       <c r="EP34" s="5">
-        <f t="shared" si="58"/>
-        <v>721476.56309671828</v>
+        <f t="shared" si="59"/>
+        <v>740808.20202350023</v>
       </c>
       <c r="EQ34" s="5">
-        <f t="shared" si="58"/>
-        <v>728691.3287276855</v>
+        <f t="shared" si="59"/>
+        <v>748216.28404373524</v>
       </c>
       <c r="ER34" s="5">
-        <f t="shared" si="58"/>
-        <v>735978.24201496236</v>
+        <f t="shared" si="59"/>
+        <v>755698.44688417262</v>
       </c>
       <c r="ES34" s="5">
-        <f t="shared" si="58"/>
-        <v>743338.02443511202</v>
+        <f t="shared" si="59"/>
+        <v>763255.43135301431</v>
       </c>
       <c r="ET34" s="5">
-        <f t="shared" si="58"/>
-        <v>750771.40467946313</v>
+        <f t="shared" si="59"/>
+        <v>770887.98566654441</v>
       </c>
       <c r="EU34" s="5">
-        <f t="shared" si="58"/>
-        <v>758279.11872625782</v>
+        <f t="shared" si="59"/>
+        <v>778596.86552320991</v>
       </c>
       <c r="EV34" s="5">
-        <f t="shared" si="58"/>
-        <v>765861.90991352045</v>
+        <f t="shared" si="59"/>
+        <v>786382.83417844202</v>
       </c>
       <c r="EW34" s="5">
-        <f t="shared" si="58"/>
-        <v>773520.52901265561</v>
+        <f t="shared" si="59"/>
+        <v>794246.66252022644</v>
       </c>
       <c r="EX34" s="5">
-        <f t="shared" si="58"/>
-        <v>781255.73430278222</v>
+        <f t="shared" si="59"/>
+        <v>802189.12914542865</v>
       </c>
       <c r="EY34" s="5">
-        <f t="shared" ref="EY34:GD34" si="59">EX34*(1+$AC$97)</f>
-        <v>789068.29164581001</v>
+        <f t="shared" ref="EY34:GD34" si="60">EX34*(1+$AC$97)</f>
+        <v>810211.02043688297</v>
       </c>
       <c r="EZ34" s="5">
-        <f t="shared" si="59"/>
-        <v>796958.97456226812</v>
+        <f t="shared" si="60"/>
+        <v>818313.1306412518</v>
       </c>
       <c r="FA34" s="5">
-        <f t="shared" si="59"/>
-        <v>804928.56430789083</v>
+        <f t="shared" si="60"/>
+        <v>826496.26194766432</v>
       </c>
       <c r="FB34" s="5">
-        <f t="shared" si="59"/>
-        <v>812977.8499509698</v>
+        <f t="shared" si="60"/>
+        <v>834761.22456714092</v>
       </c>
       <c r="FC34" s="5">
-        <f t="shared" si="59"/>
-        <v>821107.62845047947</v>
+        <f t="shared" si="60"/>
+        <v>843108.83681281237</v>
       </c>
       <c r="FD34" s="5">
-        <f t="shared" si="59"/>
-        <v>829318.70473498432</v>
+        <f t="shared" si="60"/>
+        <v>851539.92518094054</v>
       </c>
       <c r="FE34" s="5">
-        <f t="shared" si="59"/>
-        <v>837611.89178233419</v>
+        <f t="shared" si="60"/>
+        <v>860055.32443275</v>
       </c>
       <c r="FF34" s="5">
-        <f t="shared" si="59"/>
-        <v>845988.01070015749</v>
+        <f t="shared" si="60"/>
+        <v>868655.87767707754</v>
       </c>
       <c r="FG34" s="5">
-        <f t="shared" si="59"/>
-        <v>854447.89080715913</v>
+        <f t="shared" si="60"/>
+        <v>877342.43645384838</v>
       </c>
       <c r="FH34" s="5">
-        <f t="shared" si="59"/>
-        <v>862992.36971523077</v>
+        <f t="shared" si="60"/>
+        <v>886115.86081838689</v>
       </c>
       <c r="FI34" s="5">
-        <f t="shared" si="59"/>
-        <v>871622.29341238306</v>
+        <f t="shared" si="60"/>
+        <v>894977.01942657074</v>
       </c>
       <c r="FJ34" s="5">
-        <f t="shared" si="59"/>
-        <v>880338.51634650689</v>
+        <f t="shared" si="60"/>
+        <v>903926.7896208365</v>
       </c>
       <c r="FK34" s="5">
-        <f t="shared" si="59"/>
-        <v>889141.90150997194</v>
+        <f t="shared" si="60"/>
+        <v>912966.05751704483</v>
       </c>
       <c r="FL34" s="5">
-        <f t="shared" si="59"/>
-        <v>898033.3205250717</v>
+        <f t="shared" si="60"/>
+        <v>922095.71809221525</v>
       </c>
       <c r="FM34" s="5">
-        <f t="shared" si="59"/>
-        <v>907013.65373032237</v>
+        <f t="shared" si="60"/>
+        <v>931316.6752731374</v>
       </c>
       <c r="FN34" s="5">
-        <f t="shared" si="59"/>
-        <v>916083.79026762559</v>
+        <f t="shared" si="60"/>
+        <v>940629.84202586883</v>
       </c>
       <c r="FO34" s="5">
-        <f t="shared" si="59"/>
-        <v>925244.6281703019</v>
+        <f t="shared" si="60"/>
+        <v>950036.14044612751</v>
       </c>
       <c r="FP34" s="5">
-        <f t="shared" si="59"/>
-        <v>934497.07445200498</v>
+        <f t="shared" si="60"/>
+        <v>959536.50185058883</v>
       </c>
       <c r="FQ34" s="5">
-        <f t="shared" si="59"/>
-        <v>943842.04519652505</v>
+        <f t="shared" si="60"/>
+        <v>969131.86686909478</v>
       </c>
       <c r="FR34" s="5">
-        <f t="shared" si="59"/>
-        <v>953280.46564849035</v>
+        <f t="shared" si="60"/>
+        <v>978823.18553778576</v>
       </c>
       <c r="FS34" s="5">
-        <f t="shared" si="59"/>
-        <v>962813.27030497522</v>
+        <f t="shared" si="60"/>
+        <v>988611.41739316366</v>
       </c>
       <c r="FT34" s="5">
-        <f t="shared" si="59"/>
-        <v>972441.40300802502</v>
+        <f t="shared" si="60"/>
+        <v>998497.53156709531</v>
       </c>
       <c r="FU34" s="5">
-        <f t="shared" si="59"/>
-        <v>982165.81703810534</v>
+        <f t="shared" si="60"/>
+        <v>1008482.5068827663</v>
       </c>
       <c r="FV34" s="5">
-        <f t="shared" si="59"/>
-        <v>991987.47520848643</v>
+        <f t="shared" si="60"/>
+        <v>1018567.331951594</v>
       </c>
       <c r="FW34" s="5">
-        <f t="shared" si="59"/>
-        <v>1001907.3499605713</v>
+        <f t="shared" si="60"/>
+        <v>1028753.00527111</v>
       </c>
       <c r="FX34" s="5">
-        <f t="shared" si="59"/>
-        <v>1011926.423460177</v>
+        <f t="shared" si="60"/>
+        <v>1039040.5353238211</v>
       </c>
       <c r="FY34" s="5">
-        <f t="shared" si="59"/>
-        <v>1022045.6876947788</v>
+        <f t="shared" si="60"/>
+        <v>1049430.9406770593</v>
       </c>
       <c r="FZ34" s="5">
-        <f t="shared" si="59"/>
-        <v>1032266.1445717266</v>
+        <f t="shared" si="60"/>
+        <v>1059925.25008383</v>
       </c>
       <c r="GA34" s="5">
-        <f t="shared" si="59"/>
-        <v>1042588.8060174439</v>
+        <f t="shared" si="60"/>
+        <v>1070524.5025846683</v>
       </c>
       <c r="GB34" s="5">
-        <f t="shared" si="59"/>
-        <v>1053014.6940776184</v>
+        <f t="shared" si="60"/>
+        <v>1081229.747610515</v>
       </c>
       <c r="GC34" s="5">
-        <f t="shared" si="59"/>
-        <v>1063544.8410183946</v>
+        <f t="shared" si="60"/>
+        <v>1092042.0450866201</v>
       </c>
       <c r="GD34" s="5">
-        <f t="shared" si="59"/>
-        <v>1074180.2894285785</v>
+        <f t="shared" si="60"/>
+        <v>1102962.4655374864</v>
       </c>
       <c r="GE34" s="5">
-        <f t="shared" ref="GE34:HL34" si="60">GD34*(1+$AC$97)</f>
-        <v>1084922.0923228643</v>
+        <f t="shared" ref="GE34:HL34" si="61">GD34*(1+$AC$97)</f>
+        <v>1113992.0901928612</v>
       </c>
       <c r="GF34" s="5">
-        <f t="shared" si="60"/>
-        <v>1095771.313246093</v>
+        <f t="shared" si="61"/>
+        <v>1125132.0110947897</v>
       </c>
       <c r="GG34" s="5">
-        <f t="shared" si="60"/>
-        <v>1106729.0263785538</v>
+        <f t="shared" si="61"/>
+        <v>1136383.3312057375</v>
       </c>
       <c r="GH34" s="5">
-        <f t="shared" si="60"/>
-        <v>1117796.3166423393</v>
+        <f t="shared" si="61"/>
+        <v>1147747.164517795</v>
       </c>
       <c r="GI34" s="5">
-        <f t="shared" si="60"/>
-        <v>1128974.2798087627</v>
+        <f t="shared" si="61"/>
+        <v>1159224.636162973</v>
       </c>
       <c r="GJ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1140264.0226068504</v>
+        <f t="shared" si="61"/>
+        <v>1170816.8825246028</v>
       </c>
       <c r="GK34" s="5">
-        <f t="shared" si="60"/>
-        <v>1151666.6628329188</v>
+        <f t="shared" si="61"/>
+        <v>1182525.0513498487</v>
       </c>
       <c r="GL34" s="5">
-        <f t="shared" si="60"/>
-        <v>1163183.3294612479</v>
+        <f t="shared" si="61"/>
+        <v>1194350.3018633472</v>
       </c>
       <c r="GM34" s="5">
-        <f t="shared" si="60"/>
-        <v>1174815.1627558605</v>
+        <f t="shared" si="61"/>
+        <v>1206293.8048819806</v>
       </c>
       <c r="GN34" s="5">
-        <f t="shared" si="60"/>
-        <v>1186563.314383419</v>
+        <f t="shared" si="61"/>
+        <v>1218356.7429308004</v>
       </c>
       <c r="GO34" s="5">
-        <f t="shared" si="60"/>
-        <v>1198428.9475272533</v>
+        <f t="shared" si="61"/>
+        <v>1230540.3103601085</v>
       </c>
       <c r="GP34" s="5">
-        <f t="shared" si="60"/>
-        <v>1210413.2370025259</v>
+        <f t="shared" si="61"/>
+        <v>1242845.7134637097</v>
       </c>
       <c r="GQ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1222517.3693725513</v>
+        <f t="shared" si="61"/>
+        <v>1255274.1705983467</v>
       </c>
       <c r="GR34" s="5">
-        <f t="shared" si="60"/>
-        <v>1234742.5430662769</v>
+        <f t="shared" si="61"/>
+        <v>1267826.9123043302</v>
       </c>
       <c r="GS34" s="5">
-        <f t="shared" si="60"/>
-        <v>1247089.9684969396</v>
+        <f t="shared" si="61"/>
+        <v>1280505.1814273736</v>
       </c>
       <c r="GT34" s="5">
-        <f t="shared" si="60"/>
-        <v>1259560.868181909</v>
+        <f t="shared" si="61"/>
+        <v>1293310.2332416472</v>
       </c>
       <c r="GU34" s="5">
-        <f t="shared" si="60"/>
-        <v>1272156.4768637281</v>
+        <f t="shared" si="61"/>
+        <v>1306243.3355740637</v>
       </c>
       <c r="GV34" s="5">
-        <f t="shared" si="60"/>
-        <v>1284878.0416323654</v>
+        <f t="shared" si="61"/>
+        <v>1319305.7689298044</v>
       </c>
       <c r="GW34" s="5">
-        <f t="shared" si="60"/>
-        <v>1297726.822048689</v>
+        <f t="shared" si="61"/>
+        <v>1332498.8266191024</v>
       </c>
       <c r="GX34" s="5">
-        <f t="shared" si="60"/>
-        <v>1310704.0902691758</v>
+        <f t="shared" si="61"/>
+        <v>1345823.8148852934</v>
       </c>
       <c r="GY34" s="5">
-        <f t="shared" si="60"/>
-        <v>1323811.1311718675</v>
+        <f t="shared" si="61"/>
+        <v>1359282.0530341463</v>
       </c>
       <c r="GZ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1337049.2424835861</v>
+        <f t="shared" si="61"/>
+        <v>1372874.8735644878</v>
       </c>
       <c r="HA34" s="5">
-        <f t="shared" si="60"/>
-        <v>1350419.734908422</v>
+        <f t="shared" si="61"/>
+        <v>1386603.6223001326</v>
       </c>
       <c r="HB34" s="5">
-        <f t="shared" si="60"/>
-        <v>1363923.9322575063</v>
+        <f t="shared" si="61"/>
+        <v>1400469.658523134</v>
       </c>
       <c r="HC34" s="5">
-        <f t="shared" si="60"/>
-        <v>1377563.1715800813</v>
+        <f t="shared" si="61"/>
+        <v>1414474.3551083654</v>
       </c>
       <c r="HD34" s="5">
-        <f t="shared" si="60"/>
-        <v>1391338.8032958822</v>
+        <f t="shared" si="61"/>
+        <v>1428619.098659449</v>
       </c>
       <c r="HE34" s="5">
-        <f t="shared" si="60"/>
-        <v>1405252.191328841</v>
+        <f t="shared" si="61"/>
+        <v>1442905.2896460434</v>
       </c>
       <c r="HF34" s="5">
-        <f t="shared" si="60"/>
-        <v>1419304.7132421294</v>
+        <f t="shared" si="61"/>
+        <v>1457334.342542504</v>
       </c>
       <c r="HG34" s="5">
-        <f t="shared" si="60"/>
-        <v>1433497.7603745507</v>
+        <f t="shared" si="61"/>
+        <v>1471907.685967929</v>
       </c>
       <c r="HH34" s="5">
-        <f t="shared" si="60"/>
-        <v>1447832.7379782961</v>
+        <f t="shared" si="61"/>
+        <v>1486626.7628276083</v>
       </c>
       <c r="HI34" s="5">
-        <f t="shared" si="60"/>
-        <v>1462311.065358079</v>
+        <f t="shared" si="61"/>
+        <v>1501493.0304558843</v>
       </c>
       <c r="HJ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1476934.1760116599</v>
+        <f t="shared" si="61"/>
+        <v>1516507.9607604432</v>
       </c>
       <c r="HK34" s="5">
-        <f t="shared" si="60"/>
-        <v>1491703.5177717765</v>
+        <f t="shared" si="61"/>
+        <v>1531673.0403680478</v>
       </c>
       <c r="HL34" s="5">
-        <f t="shared" si="60"/>
-        <v>1506620.5529494942</v>
+        <f t="shared" si="61"/>
+        <v>1546989.7707717284</v>
       </c>
     </row>
     <row r="35" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4301,19 +4351,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" ref="C35:F35" si="61">C34/C36</f>
+        <f t="shared" ref="C35:F35" si="62">C34/C36</f>
         <v>1.439047320589157</v>
       </c>
       <c r="D35" s="8" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="8" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="8">
@@ -4329,19 +4379,19 @@
         <v>2.1662040816326531</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:M35" si="62">J34/J36</f>
+        <f t="shared" ref="J35:M35" si="63">J34/J36</f>
         <v>2.1026664030290991</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2.0897288057788201</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2.2392461439481317</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2.4023083257864766</v>
       </c>
       <c r="N35" s="8"/>
@@ -4352,28 +4402,28 @@
       <c r="S35" s="8"/>
       <c r="T35" s="3"/>
       <c r="U35" s="8">
-        <f t="shared" ref="U35" si="63">U34/U36</f>
+        <f t="shared" ref="U35" si="64">U34/U36</f>
         <v>8.1732244897959188</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" ref="V35" si="64">V34/V36</f>
+        <f t="shared" ref="V35" si="65">V34/V36</f>
         <v>9.1186827082367206</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ref="W35" si="65">W34/W36</f>
-        <v>10.575448970027836</v>
+        <f t="shared" ref="W35" si="66">W34/W36</f>
+        <v>10.865393203487947</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" ref="X35" si="66">X34/X36</f>
-        <v>12.218440866325379</v>
+        <f t="shared" ref="X35" si="67">X34/X36</f>
+        <v>12.550771831198677</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" ref="Y35" si="67">Y34/Y36</f>
-        <v>14.071779487982091</v>
+        <f t="shared" ref="Y35" si="68">Y34/Y36</f>
+        <v>14.451606704739371</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" ref="Z35" si="68">Z34/Z36</f>
-        <v>16.162942440853797</v>
+        <f t="shared" ref="Z35" si="69">Z34/Z36</f>
+        <v>16.596021189690532</v>
       </c>
     </row>
     <row r="36" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4414,19 +4464,19 @@
         <v>12495</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" ref="W36:Z36" si="69">V36*1.02</f>
+        <f t="shared" ref="W36:Z36" si="70">V36*1.02</f>
         <v>12744.9</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>12999.798000000001</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>13259.793960000001</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>13524.989839200001</v>
       </c>
     </row>
@@ -4448,78 +4498,78 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6">
-        <f t="shared" ref="F38:M38" si="70">F22/B22-1</f>
+        <f t="shared" ref="F38:M38" si="71">F22/B22-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.13841766100895225</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.15802114653890631</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.19130734404314143</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.16940848375872064</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38:Z38" si="71">Q22/P22-1</f>
+        <f t="shared" ref="Q38:Z38" si="72">Q22/P22-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>8.6827702272695095E-2</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.13866243322901561</v>
       </c>
       <c r="V38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.16504303111188579</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.11875127619067283</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.12051303986115847</v>
       </c>
       <c r="Y38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.1222592095586934</v>
       </c>
       <c r="Z38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.12399397442452242</v>
       </c>
     </row>
@@ -4528,47 +4578,47 @@
         <v>44</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" ref="C39:M39" si="72">C22/B22-1</f>
+        <f t="shared" ref="C39:M39" si="73">C22/B22-1</f>
         <v>6.9024316849843004E-2</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2.8001179561417677E-2</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.12539605961430644</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-6.6863631097207721E-2</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>5.218589751548941E-2</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4.1608647423945655E-2</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>9.2910227942176071E-2</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-4.9570120971503706E-2</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7.0304477122279607E-2</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7.1548680266953602E-2</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7.2820123986388374E-2</v>
       </c>
       <c r="N39" s="6"/>
@@ -4589,35 +4639,35 @@
         <v>32</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" ref="B40:I40" si="73">B33/B32</f>
+        <f t="shared" ref="B40:I40" si="74">B33/B32</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.16432986049796927</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.14271714275343908</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.17047246577934777</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.17699965884067859</v>
       </c>
       <c r="J40" s="3">
@@ -4635,27 +4685,27 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3">
-        <f t="shared" ref="P40:U40" si="74">P33/P32</f>
+        <f t="shared" ref="P40:U40" si="75">P33/P32</f>
         <v>0.13329968454258675</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.18676474324770689</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.15173298415328293</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.13879413716427816</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.16438962101169263</v>
       </c>
       <c r="V40" s="3">
@@ -4706,98 +4756,98 @@
         <v>45</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" ref="B42:M42" si="75">B34/B22</f>
+        <f t="shared" ref="B42:M42" si="76">B34/B22</f>
         <v>0.21567054035851949</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.2462066377137955</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.25672486406842865</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.23968253968253969</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.29379555246526529</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.27871657501593072</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.29796755336022113</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.27507282132083882</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.28093031529551798</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.26086199919145003</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.26086199919145009</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.26086199919145003</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3">
-        <f t="shared" ref="P42:Z42" si="76">P34/P22</f>
+        <f t="shared" ref="P42:Z42" si="77">P34/P22</f>
         <v>0.21218112284300339</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.22061941520980458</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.24846198333313926</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.2244622325305124</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.24065206217427795</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.28604814609534368</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.27940618754047103</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.29544004250393158</v>
+        <f t="shared" si="77"/>
+        <v>0.30354004250393152</v>
       </c>
       <c r="X42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.31072027404654762</v>
+        <f t="shared" si="77"/>
+        <v>0.31917159525923849</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.32524439017519635</v>
+        <f t="shared" si="77"/>
+        <v>0.33402342708319149</v>
       </c>
       <c r="Z42" s="3">
-        <f t="shared" si="76"/>
-        <v>0.33901382470626146</v>
+        <f t="shared" si="77"/>
+        <v>0.34809754715218444</v>
       </c>
     </row>
     <row r="43" spans="1:220" x14ac:dyDescent="0.25">
@@ -4805,35 +4855,35 @@
         <v>18</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:I43" si="77">B24/B22</f>
+        <f t="shared" ref="B43:I43" si="78">B24/B22</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.58142018152696207</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.58099879634655782</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.58678116644763678</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.5790046543449191</v>
       </c>
       <c r="J43" s="6">
@@ -4851,43 +4901,43 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:U43" si="78">P24/P22</f>
+        <f t="shared" ref="P43:U43" si="79">P24/P22</f>
         <v>0.5558054331910266</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.5693980290098084</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.55379442503783116</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.56625047984020505</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.58201578204549476</v>
       </c>
       <c r="V43" s="6">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="W43" s="6">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="X43" s="6">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="Y43" s="6">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="Z43" s="6">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="44" spans="1:220" x14ac:dyDescent="0.25">
@@ -4895,98 +4945,98 @@
         <v>19</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:M44" si="79">B29/B22</f>
+        <f t="shared" ref="B44:M44" si="80">B29/B22</f>
         <v>0.24954504420594092</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.29271888906761029</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.27829136948613303</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.27455683003128256</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.31626913669154072</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.32362936914398999</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.32311823084243441</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.32105650519856122</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.32205185085364207</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3">
-        <f t="shared" ref="P44:Z44" si="80">P29/P22</f>
+        <f t="shared" ref="P44:Z44" si="81">P29/P22</f>
         <v>0.21148915400631421</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.22585151785763202</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.3055228868524319</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.26461270842467011</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.27480367216015927</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.32110920009828064</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.32854897813117273</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.33506436679658286</v>
+        <f t="shared" si="81"/>
+        <v>0.34506436679658281</v>
       </c>
       <c r="X44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.34126908819800911</v>
+        <f t="shared" si="81"/>
+        <v>0.35126908819800912</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.34717154121849991</v>
+        <f t="shared" si="81"/>
+        <v>0.35717154121850003</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" si="80"/>
-        <v>0.35278065957451665</v>
+        <f t="shared" si="81"/>
+        <v>0.36278065957451672</v>
       </c>
     </row>
     <row r="45" spans="1:220" x14ac:dyDescent="0.25">
@@ -5019,40 +5069,40 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" ref="R45:Z45" si="81">R103/R22</f>
+        <f t="shared" ref="R45:Z45" si="82">R103/R22</f>
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.21217242500954617</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.22607793255561268</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.20354381774651589</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.1579700854943456</v>
+        <f t="shared" si="82"/>
+        <v>0.1560927529214847</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.20141300801310172</v>
+        <f t="shared" si="82"/>
+        <v>0.20556956531934664</v>
       </c>
       <c r="X45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.24042264936340807</v>
+        <f t="shared" si="82"/>
+        <v>0.24267023506530563</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.27553402750938583</v>
+        <f t="shared" si="82"/>
+        <v>0.27565007611975717</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="81"/>
-        <v>0.30721875337367138</v>
+        <f t="shared" si="82"/>
+        <v>0.30497721764886399</v>
       </c>
     </row>
     <row r="46" spans="1:220" x14ac:dyDescent="0.25">
@@ -5087,90 +5137,90 @@
         <v>105</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:M47" si="82">C19/B19-1</f>
+        <f t="shared" ref="C47:M47" si="83">C19/B19-1</f>
         <v>6.9785833023998878E-2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2.5661914460285207E-2</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.12245168122848815</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-7.7485552541573299E-2</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>5.014346998494279E-2</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3.4925873823179243E-2</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>9.9124297477453993E-2</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-7.357457131305456E-2</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>6.2015674622581507E-2</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>6.3015078053849427E-2</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>6.4054389239795784E-2</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3">
-        <f t="shared" ref="Q47:Z47" si="83">Q19/P19-1</f>
+        <f t="shared" ref="Q47:Z47" si="84">Q19/P19-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-1.5948796174462543E-2</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>7.5001577735003711E-2</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.11883262457667221</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.12216850224681064</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.10388001480843156</v>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.10466896434707929</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.10539802685306121</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.10607098023462114</v>
       </c>
       <c r="AC47" s="8"/>
@@ -5180,47 +5230,47 @@
         <v>38</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ref="C48:M48" si="84">C20/B20-1</f>
+        <f t="shared" ref="C48:M48" si="85">C20/B20-1</f>
         <v>7.7408103031929132E-2</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.731664798904256E-2</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9.2854595172987775E-2</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4.155787641427322E-2</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>8.0739502820137865E-2</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9.7226249154344302E-2</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>5.3025631991544087E-2</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="N48" s="3"/>
@@ -5230,31 +5280,31 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3">
-        <f t="shared" ref="T48:Z48" si="85">T20/S20-1</f>
+        <f t="shared" ref="T48:Z48" si="86">T20/S20-1</f>
         <v>0.25905631659056327</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.30648573500967125</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.48033242010687305</v>
       </c>
       <c r="W48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="X48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Z48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AC48" s="8"/>
@@ -5264,95 +5314,95 @@
         <v>53</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" ref="B49:M49" si="86">B20/B22</f>
+        <f t="shared" ref="B49:M49" si="87">B20/B22</f>
         <v>0.10681072406035508</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.10764838346469358</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.10967102603888229</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.10649982620785541</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.11887408584660848</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.1221000212409431</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.12861965831331854</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.12392582072997543</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.14603593834765272</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.1528165624319674</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.15972634101995625</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.16675069561299613</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" ref="P49:Z49" si="87">P20/P22</f>
+        <f t="shared" ref="P49:Z49" si="88">P20/P22</f>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>9.2916036148156522E-2</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.10764035732642797</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.12350507688176036</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.15692859789168051</v>
       </c>
       <c r="W49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.16832545488683004</v>
       </c>
       <c r="X49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.18026612692452421</v>
       </c>
       <c r="Y49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.19275346592565937</v>
       </c>
       <c r="Z49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.20578772161943079</v>
       </c>
     </row>
@@ -5387,19 +5437,19 @@
         <v>198578.0895239276</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" ref="W51:Z51" si="88">V51*(1+W38)</f>
+        <f t="shared" ref="W51:Z51" si="89">V51*(1+W38)</f>
         <v>222159.49107839967</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>248932.60668226553</v>
       </c>
       <c r="Y51" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>279366.91040862445</v>
       </c>
       <c r="Z51" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>314006.72395288927</v>
       </c>
     </row>
@@ -5428,19 +5478,19 @@
         <v>118982.34963836356</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" ref="W52:Z52" si="89">V52*(1+W38)</f>
+        <f t="shared" ref="W52:Z52" si="90">V52*(1+W38)</f>
         <v>133111.65550208409</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>149153.34574759155</v>
       </c>
       <c r="Y52" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>167388.71590172659</v>
       </c>
       <c r="Z52" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>188143.90806019894</v>
       </c>
     </row>
@@ -5469,19 +5519,19 @@
         <v>66191.919812621796</v>
       </c>
       <c r="W53" s="2">
-        <f t="shared" ref="W53:Z53" si="90">V53*(1+W38)</f>
+        <f t="shared" ref="W53:Z53" si="91">V53*(1+W38)</f>
         <v>74052.29476388132</v>
       </c>
       <c r="X53" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>82976.561914571212</v>
       </c>
       <c r="Y53" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>93121.210786144671</v>
       </c>
       <c r="Z53" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>104667.67981474246</v>
       </c>
     </row>
@@ -5511,19 +5561,19 @@
         <v>23787.848609242483</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" ref="W54:Z54" si="91">V54*(1+W38)</f>
+        <f t="shared" ref="W54:Z54" si="92">V54*(1+W38)</f>
         <v>26612.685989420548</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>29819.86167687608</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>33465.614394640521</v>
       </c>
       <c r="Z54" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>37615.148929990508</v>
       </c>
     </row>
@@ -5532,75 +5582,75 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" ref="B56:M56" si="92">B58-B73</f>
+        <f t="shared" ref="B56:M56" si="93">B58-B73</f>
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" si="92"/>
-        <v>84774</v>
-      </c>
-      <c r="J56" s="2">
-        <f t="shared" si="92"/>
-        <v>72414.663437106472</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="92"/>
-        <v>115013.84130789702</v>
-      </c>
-      <c r="L56" s="2">
-        <f t="shared" si="92"/>
-        <v>142444.60657126163</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="92"/>
-        <v>171872.88356214596</v>
-      </c>
-      <c r="P56" s="2">
-        <f t="shared" ref="P56:Y56" si="93">P58-P73</f>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="R56" s="2">
+      <c r="D56" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="S56" s="2">
+      <c r="E56" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
+      <c r="F56" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="93"/>
+        <v>84774</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="93"/>
+        <v>72414.663437106472</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="93"/>
+        <v>115013.84130789702</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="93"/>
+        <v>142444.60657126163</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="93"/>
+        <v>171872.88356214596</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" ref="P56:Y56" si="94">P58-P73</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
       <c r="T56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>99046</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>84774</v>
       </c>
       <c r="V56" s="2">
@@ -5609,19 +5659,19 @@
       </c>
       <c r="W56" s="2">
         <f>V56+W34</f>
-        <v>333494.98001752561</v>
+        <v>337190.2902785514</v>
       </c>
       <c r="X56" s="2">
         <f>W56+X34</f>
-        <v>492332.24315470055</v>
+        <v>500347.78882822429</v>
       </c>
       <c r="Y56" s="2">
         <f>X56+Y34</f>
-        <v>678921.13981589745</v>
+        <v>691973.11612402298</v>
       </c>
       <c r="Z56" s="2">
         <f>Y56+Z34</f>
-        <v>897524.7721000195</v>
+        <v>916434.13408573531</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -5637,15 +5687,15 @@
         <v>89414.663437106472</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" ref="K58:M58" si="94">J58+K34+K100</f>
+        <f t="shared" ref="K58:M58" si="95">J58+K34+K100</f>
         <v>115013.84130789702</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>142444.60657126163</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>171872.88356214596</v>
       </c>
       <c r="T58" s="2">
@@ -5658,23 +5708,23 @@
       </c>
       <c r="V58" s="2">
         <f>U58+V34+V100</f>
-        <v>209594.94043941784</v>
+        <v>206180.19931522891</v>
       </c>
       <c r="W58" s="2">
-        <f t="shared" ref="W58" si="95">V58+W34+W100</f>
-        <v>344377.98001752561</v>
+        <f t="shared" ref="W58" si="96">V58+W34+W100</f>
+        <v>340838.30316381529</v>
       </c>
       <c r="X58" s="2">
-        <f t="shared" ref="X58" si="96">W58+X34+X100</f>
-        <v>503215.24315470055</v>
+        <f t="shared" ref="X58" si="97">W58+X34+X100</f>
+        <v>499715.16626560281</v>
       </c>
       <c r="Y58" s="2">
-        <f t="shared" ref="Y58:Z58" si="97">X58+Y34+Y100</f>
-        <v>689804.13981589745</v>
+        <f t="shared" ref="Y58:Z58" si="98">X58+Y34+Y100</f>
+        <v>686536.51100724877</v>
       </c>
       <c r="Z58" s="2">
-        <f t="shared" si="97"/>
-        <v>908407.7721000195</v>
+        <f t="shared" si="98"/>
+        <v>905597.88152485294</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -5689,15 +5739,15 @@
         <v>55012.212</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" ref="K59:M59" si="98">K80*K22/90</f>
+        <f t="shared" ref="K59:M59" si="99">K80*K22/90</f>
         <v>58879.816800000001</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>63092.589986400009</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>67687.000211832026</v>
       </c>
       <c r="T59" s="2">
@@ -5711,19 +5761,19 @@
         <v>61167.904749558009</v>
       </c>
       <c r="W59" s="2">
-        <f t="shared" ref="W59:Z59" si="99">W80*W22/360</f>
+        <f t="shared" ref="W59:Z59" si="100">W80*W22/360</f>
         <v>68431.671500477532</v>
       </c>
       <c r="X59" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>76678.580255780282</v>
       </c>
       <c r="Y59" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>86053.242867934823</v>
       </c>
       <c r="Z59" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>96723.326463248741</v>
       </c>
     </row>
@@ -5740,6 +5790,26 @@
       <c r="U60" s="2">
         <v>37982</v>
       </c>
+      <c r="V60" s="2">
+        <f>U60*(1+V38)</f>
+        <v>44250.664407691649</v>
+      </c>
+      <c r="W60" s="2">
+        <f t="shared" ref="W60:Z60" si="101">V60*(1+W38)</f>
+        <v>49505.487278390217</v>
+      </c>
+      <c r="X60" s="2">
+        <f t="shared" si="101"/>
+        <v>55471.544040116933</v>
+      </c>
+      <c r="Y60" s="2">
+        <f t="shared" si="101"/>
+        <v>62253.451167461877</v>
+      </c>
+      <c r="Z60" s="2">
+        <f t="shared" si="101"/>
+        <v>69972.503999358407</v>
+      </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -5754,6 +5824,26 @@
       <c r="U61" s="2">
         <v>17180</v>
       </c>
+      <c r="V61" s="2">
+        <f>U61*(1+V38)</f>
+        <v>20015.439274502198</v>
+      </c>
+      <c r="W61" s="2">
+        <f t="shared" ref="W61:Z61" si="102">V61*(1+W38)</f>
+        <v>22392.298231866247</v>
+      </c>
+      <c r="X61" s="2">
+        <f t="shared" si="102"/>
+        <v>25090.862161266094</v>
+      </c>
+      <c r="Y61" s="2">
+        <f t="shared" si="102"/>
+        <v>28158.451136248616</v>
+      </c>
+      <c r="Z61" s="2">
+        <f t="shared" si="102"/>
+        <v>31649.929406270792</v>
+      </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -5768,6 +5858,26 @@
       <c r="U62" s="2">
         <v>171036</v>
       </c>
+      <c r="V62" s="2">
+        <f>U62*(1+V38)</f>
+        <v>199264.29986925249</v>
+      </c>
+      <c r="W62" s="2">
+        <f t="shared" ref="W62:Z62" si="103">V62*(1+W38)</f>
+        <v>222927.18977796714</v>
+      </c>
+      <c r="X62" s="2">
+        <f t="shared" si="103"/>
+        <v>249792.82308581533</v>
+      </c>
+      <c r="Y62" s="2">
+        <f t="shared" si="103"/>
+        <v>280332.29618972167</v>
+      </c>
+      <c r="Z62" s="2">
+        <f t="shared" si="103"/>
+        <v>315091.81175383768</v>
+      </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -5782,6 +5892,26 @@
       <c r="U63" s="2">
         <v>13588</v>
       </c>
+      <c r="V63" s="2">
+        <f>U63*(1+V38)</f>
+        <v>15830.604706748303</v>
+      </c>
+      <c r="W63" s="2">
+        <f t="shared" ref="W63:Z63" si="104">V63*(1+W38)</f>
+        <v>17710.509218544736</v>
+      </c>
+      <c r="X63" s="2">
+        <f t="shared" si="104"/>
+        <v>19844.856521960632</v>
+      </c>
+      <c r="Y63" s="2">
+        <f t="shared" si="104"/>
+        <v>22271.072994141221</v>
+      </c>
+      <c r="Z63" s="2">
+        <f t="shared" si="104"/>
+        <v>25032.551849383439</v>
+      </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -5796,6 +5926,26 @@
       <c r="U64" s="2">
         <v>31885</v>
       </c>
+      <c r="V64" s="2">
+        <f>U64*(1+V38)</f>
+        <v>37147.39704700248</v>
+      </c>
+      <c r="W64" s="2">
+        <f t="shared" ref="W64:Z64" si="105">V64*(1+W38)</f>
+        <v>41558.697853495658</v>
+      </c>
+      <c r="X64" s="2">
+        <f t="shared" si="105"/>
+        <v>46567.062864491818</v>
+      </c>
+      <c r="Y64" s="2">
+        <f t="shared" si="105"/>
+        <v>52260.315161774575</v>
+      </c>
+      <c r="Z64" s="2">
+        <f t="shared" si="105"/>
+        <v>58740.279343361137</v>
+      </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -5813,6 +5963,26 @@
         <f>15714+14874</f>
         <v>30588</v>
       </c>
+      <c r="V65" s="2">
+        <f>U65*(1+V38)</f>
+        <v>35636.336235650364</v>
+      </c>
+      <c r="W65" s="2">
+        <f t="shared" ref="W65:Z65" si="106">V65*(1+W38)</f>
+        <v>39868.196642393763</v>
+      </c>
+      <c r="X65" s="2">
+        <f t="shared" si="106"/>
+        <v>44672.834213551068</v>
+      </c>
+      <c r="Y65" s="2">
+        <f t="shared" si="106"/>
+        <v>50134.499613246378</v>
+      </c>
+      <c r="Z65" s="2">
+        <f t="shared" si="106"/>
+        <v>56350.875476077483</v>
+      </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -5831,24 +6001,24 @@
         <v>450256</v>
       </c>
       <c r="V66" s="2">
-        <f t="shared" ref="V66:Z66" si="100">SUM(V58:V65)</f>
-        <v>270762.84518897586</v>
+        <f t="shared" ref="V66:Z66" si="107">SUM(V58:V65)</f>
+        <v>619492.84560563439</v>
       </c>
       <c r="W66" s="2">
-        <f t="shared" si="100"/>
-        <v>412809.65151800314</v>
+        <f t="shared" si="107"/>
+        <v>803232.35366695048</v>
       </c>
       <c r="X66" s="2">
-        <f t="shared" si="100"/>
-        <v>579893.82341048087</v>
+        <f t="shared" si="107"/>
+        <v>1017833.7294085849</v>
       </c>
       <c r="Y66" s="2">
-        <f t="shared" si="100"/>
-        <v>775857.38268383231</v>
+        <f t="shared" si="107"/>
+        <v>1267999.8401377781</v>
       </c>
       <c r="Z66" s="2">
-        <f t="shared" si="100"/>
-        <v>1005131.0985632682</v>
+        <f t="shared" si="107"/>
+        <v>1559159.1598163904</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -5864,6 +6034,26 @@
       <c r="U68" s="2">
         <v>7987</v>
       </c>
+      <c r="V68" s="2">
+        <f>U68*(1+V38)</f>
+        <v>9305.1986894906313</v>
+      </c>
+      <c r="W68" s="2">
+        <f t="shared" ref="W68:Z68" si="108">V68*(1+W38)</f>
+        <v>10410.20290907542</v>
+      </c>
+      <c r="X68" s="2">
+        <f t="shared" si="108"/>
+        <v>11664.768107219574</v>
+      </c>
+      <c r="Y68" s="2">
+        <f t="shared" si="108"/>
+        <v>13090.893435693695</v>
+      </c>
+      <c r="Z68" s="2">
+        <f t="shared" si="108"/>
+        <v>14714.085341553247</v>
+      </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -5878,6 +6068,26 @@
       <c r="U69" s="2">
         <v>15069</v>
       </c>
+      <c r="V69" s="2">
+        <f>U69*(1+V38)</f>
+        <v>17556.033435825007</v>
+      </c>
+      <c r="W69" s="2">
+        <f t="shared" ref="W69:Z69" si="109">V69*(1+W38)</f>
+        <v>19640.834811175351</v>
+      </c>
+      <c r="X69" s="2">
+        <f t="shared" si="109"/>
+        <v>22007.811519680956</v>
+      </c>
+      <c r="Y69" s="2">
+        <f t="shared" si="109"/>
+        <v>24698.469160193858</v>
+      </c>
+      <c r="Z69" s="2">
+        <f t="shared" si="109"/>
+        <v>27760.93051356779</v>
+      </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -5892,6 +6102,26 @@
       <c r="U70" s="2">
         <v>51228</v>
       </c>
+      <c r="V70" s="2">
+        <f>U70*(1+V38)</f>
+        <v>59682.824397799683</v>
+      </c>
+      <c r="W70" s="2">
+        <f t="shared" ref="W70:Z70" si="110">V70*(1+W38)</f>
+        <v>66770.235961702216</v>
+      </c>
+      <c r="X70" s="2">
+        <f t="shared" si="110"/>
+        <v>74816.920069693791</v>
+      </c>
+      <c r="Y70" s="2">
+        <f t="shared" si="110"/>
+        <v>83963.977579030499</v>
+      </c>
+      <c r="Z70" s="2">
+        <f t="shared" si="110"/>
+        <v>94375.004867545984</v>
+      </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -5906,6 +6136,26 @@
       <c r="U71" s="2">
         <v>9802</v>
       </c>
+      <c r="V71" s="2">
+        <f>U71*(1+V38)</f>
+        <v>11419.751790958704</v>
+      </c>
+      <c r="W71" s="2">
+        <f t="shared" ref="W71:Z71" si="111">V71*(1+W38)</f>
+        <v>12775.861889915772</v>
+      </c>
+      <c r="X71" s="2">
+        <f t="shared" si="111"/>
+        <v>14315.519843115846</v>
+      </c>
+      <c r="Y71" s="2">
+        <f t="shared" si="111"/>
+        <v>16065.72398355698</v>
+      </c>
+      <c r="Z71" s="2">
+        <f t="shared" si="111"/>
+        <v>18057.776952285582</v>
+      </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -5920,6 +6170,26 @@
       <c r="U72" s="2">
         <v>5036</v>
       </c>
+      <c r="V72" s="2">
+        <f>U72*(1+V38)</f>
+        <v>5867.1567046794571</v>
+      </c>
+      <c r="W72" s="2">
+        <f t="shared" ref="W72:Z72" si="112">V72*(1+W38)</f>
+        <v>6563.8890509708053</v>
+      </c>
+      <c r="X72" s="2">
+        <f t="shared" si="112"/>
+        <v>7354.923273814672</v>
+      </c>
+      <c r="Y72" s="2">
+        <f t="shared" si="112"/>
+        <v>8254.1303796360917</v>
+      </c>
+      <c r="Z72" s="2">
+        <f t="shared" si="112"/>
+        <v>9277.5928108253629</v>
+      </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -5937,6 +6207,26 @@
       <c r="U73" s="2">
         <v>10883</v>
       </c>
+      <c r="V73" s="2">
+        <f>U73*(1+V38)</f>
+        <v>12679.163307590654</v>
+      </c>
+      <c r="W73" s="2">
+        <f t="shared" ref="W73:Z73" si="113">V73*(1+W38)</f>
+        <v>14184.830131396997</v>
+      </c>
+      <c r="X73" s="2">
+        <f t="shared" si="113"/>
+        <v>15894.287130445804</v>
+      </c>
+      <c r="Y73" s="2">
+        <f t="shared" si="113"/>
+        <v>17837.51011151302</v>
+      </c>
+      <c r="Z73" s="2">
+        <f t="shared" si="113"/>
+        <v>20049.253884077127</v>
+      </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -5951,6 +6241,26 @@
       <c r="U74" s="2">
         <v>8782</v>
       </c>
+      <c r="V74" s="2">
+        <f>U74*(1+V38)</f>
+        <v>10231.407899224581</v>
+      </c>
+      <c r="W74" s="2">
+        <f t="shared" ref="W74:Z74" si="114">V74*(1+W38)</f>
+        <v>11446.400644484831</v>
+      </c>
+      <c r="X74" s="2">
+        <f t="shared" si="114"/>
+        <v>12825.841181620421</v>
+      </c>
+      <c r="Y74" s="2">
+        <f t="shared" si="114"/>
+        <v>14393.918386410671</v>
+      </c>
+      <c r="Z74" s="2">
+        <f t="shared" si="114"/>
+        <v>16178.677534683939</v>
+      </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -5968,6 +6278,26 @@
         <f>11691+4694</f>
         <v>16385</v>
       </c>
+      <c r="V75" s="2">
+        <f>U75*(1+V38)</f>
+        <v>19089.23006476825</v>
+      </c>
+      <c r="W75" s="2">
+        <f t="shared" ref="W75:Z75" si="115">V75*(1+W38)</f>
+        <v>21356.100496456838</v>
+      </c>
+      <c r="X75" s="2">
+        <f t="shared" si="115"/>
+        <v>23929.789086865247</v>
+      </c>
+      <c r="Y75" s="2">
+        <f t="shared" si="115"/>
+        <v>26855.42618553164</v>
+      </c>
+      <c r="Z75" s="2">
+        <f t="shared" si="115"/>
+        <v>30185.337213140101</v>
+      </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -5986,24 +6316,24 @@
         <v>125172</v>
       </c>
       <c r="V76" s="2">
-        <f t="shared" ref="V76:Z76" si="101">SUM(V68:V75)</f>
-        <v>0</v>
+        <f t="shared" ref="V76:Z76" si="116">SUM(V68:V75)</f>
+        <v>145830.76629033696</v>
       </c>
       <c r="W76" s="2">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f t="shared" si="116"/>
+        <v>163148.35589517825</v>
       </c>
       <c r="X76" s="2">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f t="shared" si="116"/>
+        <v>182809.86021245632</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f t="shared" si="116"/>
+        <v>205160.04922156644</v>
       </c>
       <c r="Z76" s="2">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f t="shared" si="116"/>
+        <v>230598.65911767911</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
@@ -6023,24 +6353,24 @@
         <v>325084</v>
       </c>
       <c r="V77" s="2">
-        <f t="shared" ref="V77:Z77" si="102">V66-V76</f>
-        <v>270762.84518897586</v>
+        <f t="shared" ref="V77:Z77" si="117">V66-V76</f>
+        <v>473662.07931529742</v>
       </c>
       <c r="W77" s="2">
-        <f t="shared" si="102"/>
-        <v>412809.65151800314</v>
+        <f t="shared" si="117"/>
+        <v>640083.99777177221</v>
       </c>
       <c r="X77" s="2">
-        <f t="shared" si="102"/>
-        <v>579893.82341048087</v>
+        <f t="shared" si="117"/>
+        <v>835023.86919612857</v>
       </c>
       <c r="Y77" s="2">
-        <f t="shared" si="102"/>
-        <v>775857.38268383231</v>
+        <f t="shared" si="117"/>
+        <v>1062839.7909162117</v>
       </c>
       <c r="Z77" s="2">
-        <f t="shared" si="102"/>
-        <v>1005131.0985632682</v>
+        <f t="shared" si="117"/>
+        <v>1328560.5006987113</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
@@ -6060,24 +6390,24 @@
         <v>450256</v>
       </c>
       <c r="V78" s="2">
-        <f t="shared" ref="V78:Z78" si="103">V76+V77</f>
-        <v>270762.84518897586</v>
+        <f t="shared" ref="V78:Z78" si="118">V76+V77</f>
+        <v>619492.84560563439</v>
       </c>
       <c r="W78" s="2">
-        <f t="shared" si="103"/>
-        <v>412809.65151800314</v>
+        <f t="shared" si="118"/>
+        <v>803232.35366695048</v>
       </c>
       <c r="X78" s="2">
-        <f t="shared" si="103"/>
-        <v>579893.82341048087</v>
+        <f t="shared" si="118"/>
+        <v>1017833.7294085849</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" si="103"/>
-        <v>775857.38268383231</v>
+        <f t="shared" si="118"/>
+        <v>1267999.8401377781</v>
       </c>
       <c r="Z78" s="2">
-        <f t="shared" si="103"/>
-        <v>1005131.0985632682</v>
+        <f t="shared" si="118"/>
+        <v>1559159.1598163904</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
@@ -6085,35 +6415,35 @@
         <v>56</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" ref="B80:I80" si="104">(B59/B22)*90</f>
+        <f t="shared" ref="B80:I80" si="119">(B59/B22)*90</f>
         <v>0</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="119"/>
         <v>48.830194155635489</v>
       </c>
       <c r="J80" s="2">
@@ -6129,19 +6459,19 @@
         <v>54</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" ref="R80:Y80" si="105">(R59/R22)*360</f>
+        <f t="shared" ref="R80:Y80" si="120">(R59/R22)*360</f>
         <v>0</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>56.172339082740713</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>53.832660034626791</v>
       </c>
       <c r="V80" s="2">
@@ -6165,84 +6495,84 @@
         <v>57</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" ref="B82:M82" si="106">+B34</f>
+        <f t="shared" ref="B82:M82" si="121">+B34</f>
         <v>15051</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>18368</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>19689</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>20687</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>23662</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>23619</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>26301</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>26536</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>25757.663437106465</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>25599.177870790547</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>27430.765263364614</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="121"/>
         <v>29428.276990884337</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" ref="S82:Z82" si="107">+S34</f>
+        <f t="shared" ref="S82:Z82" si="122">+S34</f>
         <v>63486</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>73975</v>
       </c>
       <c r="U82" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>100122</v>
       </c>
       <c r="V82" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="122"/>
         <v>113937.94043941783</v>
       </c>
       <c r="W82" s="2">
-        <f t="shared" si="107"/>
-        <v>134783.03957810777</v>
+        <f t="shared" si="122"/>
+        <v>138478.34983913353</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" si="107"/>
-        <v>158837.26313717494</v>
+        <f t="shared" si="122"/>
+        <v>163157.49854967292</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="107"/>
-        <v>186588.89666119684</v>
+        <f t="shared" si="122"/>
+        <v>191625.32729579863</v>
       </c>
       <c r="Z82" s="2">
-        <f t="shared" si="107"/>
-        <v>218603.63228412205</v>
+        <f t="shared" si="122"/>
+        <v>224461.01796171238</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
@@ -6263,15 +6593,15 @@
         <v>25757.663437106465</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83:M83" si="108">K82</f>
+        <f t="shared" ref="K83:M83" si="123">K82</f>
         <v>25599.177870790547</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v>27430.765263364614</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v>29428.276990884337</v>
       </c>
       <c r="S83" s="2">
@@ -6288,20 +6618,20 @@
         <v>113937.94043941783</v>
       </c>
       <c r="W83" s="2">
-        <f t="shared" ref="W83:Z83" si="109">W82</f>
-        <v>134783.03957810777</v>
+        <f t="shared" ref="W83:Z83" si="124">W82</f>
+        <v>138478.34983913353</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="109"/>
-        <v>158837.26313717494</v>
+        <f t="shared" si="124"/>
+        <v>163157.49854967292</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="109"/>
-        <v>186588.89666119684</v>
+        <f t="shared" si="124"/>
+        <v>191625.32729579863</v>
       </c>
       <c r="Z83" s="2">
-        <f t="shared" si="109"/>
-        <v>218603.63228412205</v>
+        <f t="shared" si="124"/>
+        <v>224461.01796171238</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
@@ -6321,24 +6651,24 @@
         <v>15311</v>
       </c>
       <c r="V84" s="2">
-        <f>U84*1.2</f>
-        <v>18373.2</v>
+        <f>U84*1.15</f>
+        <v>17607.649999999998</v>
       </c>
       <c r="W84" s="2">
-        <f t="shared" ref="W84:Z84" si="110">V84*1.2</f>
-        <v>22047.84</v>
+        <f t="shared" ref="W84:Z84" si="125">V84*1.15</f>
+        <v>20248.797499999997</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="110"/>
-        <v>26457.407999999999</v>
+        <f t="shared" si="125"/>
+        <v>23286.117124999993</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="110"/>
-        <v>31748.889599999999</v>
+        <f t="shared" si="125"/>
+        <v>26779.034693749989</v>
       </c>
       <c r="Z84" s="2">
-        <f t="shared" si="110"/>
-        <v>38098.667519999995</v>
+        <f t="shared" si="125"/>
+        <v>30795.889897812485</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
@@ -6362,19 +6692,19 @@
         <v>23924.25</v>
       </c>
       <c r="W85" s="2">
-        <f t="shared" ref="W85:Z85" si="111">V85*1.05</f>
+        <f t="shared" ref="W85:Z85" si="126">V85*1.05</f>
         <v>25120.462500000001</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v>26376.485625000001</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v>27695.309906250004</v>
       </c>
       <c r="Z85" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v>29080.075401562506</v>
       </c>
     </row>
@@ -6399,19 +6729,19 @@
         <v>-6124.6312145551838</v>
       </c>
       <c r="W86" s="2">
-        <f t="shared" ref="W86:Z86" si="112">V86*(1+W38)</f>
+        <f t="shared" ref="W86:Z86" si="127">V86*(1+W38)</f>
         <v>-6851.9389874808421</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="127"/>
         <v>-7677.6869838053462</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="127"/>
         <v>-8616.3549256844562</v>
       </c>
       <c r="Z86" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="127"/>
         <v>-9684.7310179723827</v>
       </c>
     </row>
@@ -6436,19 +6766,19 @@
         <v>-3111.8299360998471</v>
       </c>
       <c r="W87" s="2">
-        <f t="shared" ref="W87:Z87" si="113">V87*(1+W38)</f>
+        <f t="shared" ref="W87:Z87" si="128">V87*(1+W38)</f>
         <v>-3481.363712300044</v>
       </c>
       <c r="X87" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="128"/>
         <v>-3900.9134361316496</v>
       </c>
       <c r="Y87" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="128"/>
         <v>-4377.8360293899914</v>
       </c>
       <c r="Z87" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="128"/>
         <v>-4920.6613180529266</v>
       </c>
     </row>
@@ -6473,19 +6803,19 @@
         <v>3983.2821233715376</v>
       </c>
       <c r="W88" s="2">
-        <f t="shared" ref="W88:Z88" si="114">V88*(1+W38)</f>
+        <f t="shared" ref="W88:Z88" si="129">V88*(1+W38)</f>
         <v>4456.3019589494006</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="129"/>
         <v>4993.3444545616285</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="129"/>
         <v>5603.826800630618</v>
       </c>
       <c r="Z88" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="129"/>
         <v>6298.6675576274638</v>
       </c>
     </row>
@@ -6510,19 +6840,19 @@
         <v>-6863.2684962801195</v>
       </c>
       <c r="W89" s="2">
-        <f t="shared" ref="W89:Z89" si="115">V89*(1+W38)</f>
+        <f t="shared" ref="W89:Z89" si="130">V89*(1+W38)</f>
         <v>-7678.2903890526241</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-8603.6245047740722</v>
       </c>
       <c r="Y89" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-9655.4968360675557</v>
       </c>
       <c r="Z89" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-10852.720263814974</v>
       </c>
     </row>
@@ -6547,19 +6877,19 @@
         <v>-2817.0740492285399</v>
       </c>
       <c r="W90" s="2">
-        <f t="shared" ref="W90:Z90" si="116">V90*(1+W38)</f>
+        <f t="shared" ref="W90:Z90" si="131">V90*(1+W38)</f>
         <v>-3151.6051876980555</v>
       </c>
       <c r="X90" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="131"/>
         <v>-3531.4147093097449</v>
       </c>
       <c r="Y90" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="131"/>
         <v>-3963.1626802938972</v>
       </c>
       <c r="Z90" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="131"/>
         <v>-4454.5709723144801</v>
       </c>
     </row>
@@ -6584,19 +6914,19 @@
         <v>-1627.5651144633046</v>
       </c>
       <c r="W91" s="2">
-        <f t="shared" ref="W91:Z91" si="117">V91*(1+W38)</f>
+        <f t="shared" ref="W91:Z91" si="132">V91*(1+W38)</f>
         <v>-1820.8405488892404</v>
       </c>
       <c r="X91" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="132"/>
         <v>-2040.2755785383431</v>
       </c>
       <c r="Y91" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="132"/>
         <v>-2289.7180580523468</v>
       </c>
       <c r="Z91" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="132"/>
         <v>-2573.6293003818569</v>
       </c>
     </row>
@@ -6621,19 +6951,19 @@
         <v>-1352.6149591208994</v>
       </c>
       <c r="W92" s="2">
-        <f t="shared" ref="W92:Z92" si="118">V92*(1+W38)</f>
+        <f t="shared" ref="W92:Z92" si="133">V92*(1+W38)</f>
         <v>-1513.2397117111009</v>
       </c>
       <c r="X92" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="133"/>
         <v>-1695.6048294080288</v>
       </c>
       <c r="Y92" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="133"/>
         <v>-1902.9081355753576</v>
       </c>
       <c r="Z92" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="133"/>
         <v>-2138.857278270104</v>
       </c>
     </row>
@@ -6658,19 +6988,19 @@
         <v>-1352.6149591208994</v>
       </c>
       <c r="W93" s="2">
-        <f t="shared" ref="W93:Z93" si="119">V93*(1+W38)</f>
+        <f t="shared" ref="W93:Z93" si="134">V93*(1+W38)</f>
         <v>-1513.2397117111009</v>
       </c>
       <c r="X93" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="134"/>
         <v>-1695.6048294080288</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="134"/>
         <v>-1902.9081355753576</v>
       </c>
       <c r="Z93" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="134"/>
         <v>-2138.857278270104</v>
       </c>
     </row>
@@ -6695,19 +7025,19 @@
         <v>1233.780569947487</v>
       </c>
       <c r="W94" s="2">
-        <f t="shared" ref="W94:Z94" si="120">V94*(1+W38)</f>
+        <f t="shared" ref="W94:Z94" si="135">V94*(1+W38)</f>
         <v>1380.2935871680068</v>
       </c>
       <c r="X94" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>1546.636963258486</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>1735.7275758607266</v>
       </c>
       <c r="Z94" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>1950.9473365099398</v>
       </c>
     </row>
@@ -6732,19 +7062,19 @@
         <v>1215.139881449697</v>
       </c>
       <c r="W95" s="2">
-        <f t="shared" ref="W95:Z95" si="121">V95*(1+W38)</f>
+        <f t="shared" ref="W95:Z95" si="136">V95*(1+W38)</f>
         <v>1359.4392931220314</v>
       </c>
       <c r="X95" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>1523.2694548428717</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>1709.5031743368629</v>
       </c>
       <c r="Z95" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>1921.4712672142277</v>
       </c>
     </row>
@@ -6781,32 +7111,32 @@
         <v>91495</v>
       </c>
       <c r="T96" s="5">
-        <f t="shared" ref="T96:Z96" si="122">SUM(T83:T95)</f>
+        <f t="shared" ref="T96:Z96" si="137">SUM(T83:T95)</f>
         <v>101746</v>
       </c>
       <c r="U96" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="137"/>
         <v>123779</v>
       </c>
       <c r="V96" s="5">
-        <f t="shared" si="122"/>
-        <v>139417.99428531778</v>
+        <f t="shared" si="137"/>
+        <v>138652.44428531779</v>
       </c>
       <c r="W96" s="5">
-        <f t="shared" si="122"/>
-        <v>163136.85866850417</v>
+        <f t="shared" si="137"/>
+        <v>165033.12642952992</v>
       </c>
       <c r="X96" s="5">
-        <f t="shared" si="122"/>
-        <v>190589.28276346272</v>
+        <f t="shared" si="137"/>
+        <v>191738.22730096069</v>
       </c>
       <c r="Y96" s="5">
-        <f t="shared" si="122"/>
-        <v>222373.76891763607</v>
+        <f t="shared" si="137"/>
+        <v>222440.34464598788</v>
       </c>
       <c r="Z96" s="5">
-        <f t="shared" si="122"/>
-        <v>259189.43393795946</v>
+        <f t="shared" si="137"/>
+        <v>257744.04199336225</v>
       </c>
       <c r="AB96" s="2" t="s">
         <v>55</v>
@@ -6839,15 +7169,15 @@
         <v>-71250</v>
       </c>
       <c r="X97" s="2">
-        <f t="shared" ref="X97:Z97" si="123">W97*0.95</f>
+        <f t="shared" ref="X97:Z97" si="138">W97*0.95</f>
         <v>-67687.5</v>
       </c>
       <c r="Y97" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>-64303.125</v>
       </c>
       <c r="Z97" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>-61087.96875</v>
       </c>
       <c r="AB97" s="2" t="s">
@@ -6877,6 +7207,26 @@
         <f>+-86679-5034</f>
         <v>-91713</v>
       </c>
+      <c r="V98" s="2">
+        <f>U98*(1+V38)</f>
+        <v>-106849.59151236438</v>
+      </c>
+      <c r="W98" s="2">
+        <f t="shared" ref="W98:Z98" si="139">V98*(1+W38)</f>
+        <v>-119538.11686490974</v>
+      </c>
+      <c r="X98" s="2">
+        <f t="shared" si="139"/>
+        <v>-133944.01870757842</v>
+      </c>
+      <c r="Y98" s="2">
+        <f t="shared" si="139"/>
+        <v>-150319.90855988179</v>
+      </c>
+      <c r="Z98" s="2">
+        <f t="shared" si="139"/>
+        <v>-168958.67145735232</v>
+      </c>
       <c r="AB98" s="2" t="s">
         <v>30</v>
       </c>
@@ -6904,12 +7254,32 @@
         <f>103428+882</f>
         <v>104310</v>
       </c>
+      <c r="V99" s="2">
+        <f>U99*(1+V38)</f>
+        <v>121525.63857528081</v>
+      </c>
+      <c r="W99" s="2">
+        <f t="shared" ref="W99:Z99" si="140">V99*(1+W38)</f>
+        <v>135956.96324598187</v>
+      </c>
+      <c r="X99" s="2">
+        <f t="shared" si="140"/>
+        <v>152341.55017704694</v>
+      </c>
+      <c r="Y99" s="2">
+        <f t="shared" si="140"/>
+        <v>170966.70768463874</v>
+      </c>
+      <c r="Z99" s="2">
+        <f t="shared" si="140"/>
+        <v>192165.54926473263</v>
+      </c>
       <c r="AB99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AC99" s="2">
         <f>NPV(AC98,V103:FG103)+main!I5-main!I6</f>
-        <v>2516897.9388082037</v>
+        <v>2503600.0751055134</v>
       </c>
     </row>
     <row r="100" spans="1:163" x14ac:dyDescent="0.25">
@@ -6931,12 +7301,32 @@
       <c r="U100" s="2">
         <v>-2931</v>
       </c>
+      <c r="V100" s="2">
+        <f>U100*(1+V38)</f>
+        <v>-3414.7411241889372</v>
+      </c>
+      <c r="W100" s="2">
+        <f t="shared" ref="W100:Z100" si="141">V100*(1+W38)</f>
+        <v>-3820.2459905471464</v>
+      </c>
+      <c r="X100" s="2">
+        <f t="shared" si="141"/>
+        <v>-4280.6354478853855</v>
+      </c>
+      <c r="Y100" s="2">
+        <f t="shared" si="141"/>
+        <v>-4803.9825541527762</v>
+      </c>
+      <c r="Z100" s="2">
+        <f t="shared" si="141"/>
+        <v>-5399.6474441082473</v>
+      </c>
       <c r="AB100" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AC100" s="2">
         <f>AC99/main!I3</f>
-        <v>205.46105622924111</v>
+        <v>204.37551633514394</v>
       </c>
     </row>
     <row r="101" spans="1:163" x14ac:dyDescent="0.25">
@@ -6955,12 +7345,32 @@
       <c r="U101" s="2">
         <v>-2667</v>
       </c>
+      <c r="V101" s="2">
+        <f>U101*(1+V38)</f>
+        <v>-3107.1697639753993</v>
+      </c>
+      <c r="W101" s="2">
+        <f t="shared" ref="W101:Z101" si="142">V101*(1+W38)</f>
+        <v>-3476.1501387885496</v>
+      </c>
+      <c r="X101" s="2">
+        <f t="shared" si="142"/>
+        <v>-3895.0715590277455</v>
+      </c>
+      <c r="Y101" s="2">
+        <f t="shared" si="142"/>
+        <v>-4371.2799290090252</v>
+      </c>
+      <c r="Z101" s="2">
+        <f t="shared" si="142"/>
+        <v>-4913.2923007289983</v>
+      </c>
       <c r="AB101" s="2" t="s">
         <v>31</v>
       </c>
       <c r="AC101" s="3">
         <f>AC100/main!I2-1</f>
-        <v>0.31705805275154564</v>
+        <v>0.31009946368682018</v>
       </c>
     </row>
     <row r="102" spans="1:163" x14ac:dyDescent="0.25">
@@ -6986,31 +7396,31 @@
         <v>-31485</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" ref="T102:Z102" si="124">T97</f>
+        <f t="shared" ref="T102:Z102" si="143">T97</f>
         <v>-32251</v>
       </c>
       <c r="U102" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-52535</v>
       </c>
       <c r="V102" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-75000</v>
       </c>
       <c r="W102" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-71250</v>
       </c>
       <c r="X102" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-67687.5</v>
       </c>
       <c r="Y102" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-64303.125</v>
       </c>
       <c r="Z102" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-61087.96875</v>
       </c>
     </row>
@@ -7023,39 +7433,39 @@
         <v>0</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" ref="C103:K103" si="125">C96+C102</f>
+        <f t="shared" ref="C103:K103" si="144">C96+C102</f>
         <v>39466</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>40386</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>24837</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="L103" s="5"/>
@@ -7079,605 +7489,605 @@
       </c>
       <c r="V103" s="5">
         <f>V96+V102</f>
-        <v>64417.994285317778</v>
+        <v>63652.44428531779</v>
       </c>
       <c r="W103" s="5">
-        <f t="shared" ref="W103:Z103" si="126">W96+W102</f>
-        <v>91886.858668504166</v>
+        <f t="shared" ref="W103:Z103" si="145">W96+W102</f>
+        <v>93783.126429529919</v>
       </c>
       <c r="X103" s="5">
-        <f t="shared" si="126"/>
-        <v>122901.78276346272</v>
+        <f t="shared" si="145"/>
+        <v>124050.72730096069</v>
       </c>
       <c r="Y103" s="5">
-        <f t="shared" si="126"/>
-        <v>158070.64391763607</v>
+        <f t="shared" si="145"/>
+        <v>158137.21964598788</v>
       </c>
       <c r="Z103" s="5">
-        <f t="shared" si="126"/>
-        <v>198101.46518795946</v>
+        <f t="shared" si="145"/>
+        <v>196656.07324336225</v>
       </c>
       <c r="AA103" s="5">
-        <f t="shared" ref="AA103:BF103" si="127">Z103*(1+$AC$97)</f>
-        <v>200082.47983983907</v>
+        <f t="shared" ref="AA103:BF103" si="146">Z103*(1+$AC$97)</f>
+        <v>198622.63397579588</v>
       </c>
       <c r="AB103" s="5">
-        <f t="shared" si="127"/>
-        <v>202083.30463823746</v>
+        <f t="shared" si="146"/>
+        <v>200608.86031555384</v>
       </c>
       <c r="AC103" s="5">
-        <f t="shared" si="127"/>
-        <v>204104.13768461984</v>
+        <f t="shared" si="146"/>
+        <v>202614.94891870939</v>
       </c>
       <c r="AD103" s="5">
-        <f t="shared" si="127"/>
-        <v>206145.17906146604</v>
+        <f t="shared" si="146"/>
+        <v>204641.09840789647</v>
       </c>
       <c r="AE103" s="5">
-        <f t="shared" si="127"/>
-        <v>208206.63085208071</v>
+        <f t="shared" si="146"/>
+        <v>206687.50939197544</v>
       </c>
       <c r="AF103" s="5">
-        <f t="shared" si="127"/>
-        <v>210288.69716060153</v>
+        <f t="shared" si="146"/>
+        <v>208754.38448589519</v>
       </c>
       <c r="AG103" s="5">
-        <f t="shared" si="127"/>
-        <v>212391.58413220756</v>
+        <f t="shared" si="146"/>
+        <v>210841.92833075413</v>
       </c>
       <c r="AH103" s="5">
-        <f t="shared" si="127"/>
-        <v>214515.49997352963</v>
+        <f t="shared" si="146"/>
+        <v>212950.34761406167</v>
       </c>
       <c r="AI103" s="5">
-        <f t="shared" si="127"/>
-        <v>216660.65497326493</v>
+        <f t="shared" si="146"/>
+        <v>215079.85109020228</v>
       </c>
       <c r="AJ103" s="5">
-        <f t="shared" si="127"/>
-        <v>218827.26152299758</v>
+        <f t="shared" si="146"/>
+        <v>217230.64960110432</v>
       </c>
       <c r="AK103" s="5">
-        <f t="shared" si="127"/>
-        <v>221015.53413822755</v>
+        <f t="shared" si="146"/>
+        <v>219402.95609711536</v>
       </c>
       <c r="AL103" s="5">
-        <f t="shared" si="127"/>
-        <v>223225.68947960983</v>
+        <f t="shared" si="146"/>
+        <v>221596.98565808652</v>
       </c>
       <c r="AM103" s="5">
-        <f t="shared" si="127"/>
-        <v>225457.94637440593</v>
+        <f t="shared" si="146"/>
+        <v>223812.95551466738</v>
       </c>
       <c r="AN103" s="5">
-        <f t="shared" si="127"/>
-        <v>227712.52583815</v>
+        <f t="shared" si="146"/>
+        <v>226051.08506981406</v>
       </c>
       <c r="AO103" s="5">
-        <f t="shared" si="127"/>
-        <v>229989.65109653151</v>
+        <f t="shared" si="146"/>
+        <v>228311.59592051219</v>
       </c>
       <c r="AP103" s="5">
-        <f t="shared" si="127"/>
-        <v>232289.54760749682</v>
+        <f t="shared" si="146"/>
+        <v>230594.7118797173</v>
       </c>
       <c r="AQ103" s="5">
-        <f t="shared" si="127"/>
-        <v>234612.44308357179</v>
+        <f t="shared" si="146"/>
+        <v>232900.65899851447</v>
       </c>
       <c r="AR103" s="5">
-        <f t="shared" si="127"/>
-        <v>236958.56751440751</v>
+        <f t="shared" si="146"/>
+        <v>235229.6655884996</v>
       </c>
       <c r="AS103" s="5">
-        <f t="shared" si="127"/>
-        <v>239328.15318955158</v>
+        <f t="shared" si="146"/>
+        <v>237581.9622443846</v>
       </c>
       <c r="AT103" s="5">
-        <f t="shared" si="127"/>
-        <v>241721.43472144709</v>
+        <f t="shared" si="146"/>
+        <v>239957.78186682845</v>
       </c>
       <c r="AU103" s="5">
-        <f t="shared" si="127"/>
-        <v>244138.64906866156</v>
+        <f t="shared" si="146"/>
+        <v>242357.35968549672</v>
       </c>
       <c r="AV103" s="5">
-        <f t="shared" si="127"/>
-        <v>246580.03555934818</v>
+        <f t="shared" si="146"/>
+        <v>244780.93328235167</v>
       </c>
       <c r="AW103" s="5">
-        <f t="shared" si="127"/>
-        <v>249045.83591494165</v>
+        <f t="shared" si="146"/>
+        <v>247228.7426151752</v>
       </c>
       <c r="AX103" s="5">
-        <f t="shared" si="127"/>
-        <v>251536.29427409108</v>
+        <f t="shared" si="146"/>
+        <v>249701.03004132694</v>
       </c>
       <c r="AY103" s="5">
-        <f t="shared" si="127"/>
-        <v>254051.65721683198</v>
+        <f t="shared" si="146"/>
+        <v>252198.04034174021</v>
       </c>
       <c r="AZ103" s="5">
-        <f t="shared" si="127"/>
-        <v>256592.17378900031</v>
+        <f t="shared" si="146"/>
+        <v>254720.02074515761</v>
       </c>
       <c r="BA103" s="5">
-        <f t="shared" si="127"/>
-        <v>259158.09552689031</v>
+        <f t="shared" si="146"/>
+        <v>257267.2209526092</v>
       </c>
       <c r="BB103" s="5">
-        <f t="shared" si="127"/>
-        <v>261749.67648215921</v>
+        <f t="shared" si="146"/>
+        <v>259839.8931621353</v>
       </c>
       <c r="BC103" s="5">
-        <f t="shared" si="127"/>
-        <v>264367.17324698082</v>
+        <f t="shared" si="146"/>
+        <v>262438.29209375667</v>
       </c>
       <c r="BD103" s="5">
-        <f t="shared" si="127"/>
-        <v>267010.84497945063</v>
+        <f t="shared" si="146"/>
+        <v>265062.67501469422</v>
       </c>
       <c r="BE103" s="5">
-        <f t="shared" si="127"/>
-        <v>269680.95342924516</v>
+        <f t="shared" si="146"/>
+        <v>267713.30176484119</v>
       </c>
       <c r="BF103" s="5">
-        <f t="shared" si="127"/>
-        <v>272377.76296353759</v>
+        <f t="shared" si="146"/>
+        <v>270390.43478248961</v>
       </c>
       <c r="BG103" s="5">
-        <f t="shared" ref="BG103:CL103" si="128">BF103*(1+$AC$97)</f>
-        <v>275101.54059317295</v>
+        <f t="shared" ref="BG103:CL103" si="147">BF103*(1+$AC$97)</f>
+        <v>273094.33913031453</v>
       </c>
       <c r="BH103" s="5">
-        <f t="shared" si="128"/>
-        <v>277852.55599910469</v>
+        <f t="shared" si="147"/>
+        <v>275825.28252161766</v>
       </c>
       <c r="BI103" s="5">
-        <f t="shared" si="128"/>
-        <v>280631.08155909576</v>
+        <f t="shared" si="147"/>
+        <v>278583.53534683381</v>
       </c>
       <c r="BJ103" s="5">
-        <f t="shared" si="128"/>
-        <v>283437.39237468672</v>
+        <f t="shared" si="147"/>
+        <v>281369.37070030213</v>
       </c>
       <c r="BK103" s="5">
-        <f t="shared" si="128"/>
-        <v>286271.76629843359</v>
+        <f t="shared" si="147"/>
+        <v>284183.06440730515</v>
       </c>
       <c r="BL103" s="5">
-        <f t="shared" si="128"/>
-        <v>289134.48396141792</v>
+        <f t="shared" si="147"/>
+        <v>287024.89505137823</v>
       </c>
       <c r="BM103" s="5">
-        <f t="shared" si="128"/>
-        <v>292025.8288010321</v>
+        <f t="shared" si="147"/>
+        <v>289895.14400189201</v>
       </c>
       <c r="BN103" s="5">
-        <f t="shared" si="128"/>
-        <v>294946.08708904241</v>
+        <f t="shared" si="147"/>
+        <v>292794.09544191096</v>
       </c>
       <c r="BO103" s="5">
-        <f t="shared" si="128"/>
-        <v>297895.54795993282</v>
+        <f t="shared" si="147"/>
+        <v>295722.03639633005</v>
       </c>
       <c r="BP103" s="5">
-        <f t="shared" si="128"/>
-        <v>300874.50343953213</v>
+        <f t="shared" si="147"/>
+        <v>298679.25676029333</v>
       </c>
       <c r="BQ103" s="5">
-        <f t="shared" si="128"/>
-        <v>303883.24847392744</v>
+        <f t="shared" si="147"/>
+        <v>301666.04932789627</v>
       </c>
       <c r="BR103" s="5">
-        <f t="shared" si="128"/>
-        <v>306922.08095866669</v>
+        <f t="shared" si="147"/>
+        <v>304682.70982117526</v>
       </c>
       <c r="BS103" s="5">
-        <f t="shared" si="128"/>
-        <v>309991.30176825338</v>
+        <f t="shared" si="147"/>
+        <v>307729.536919387</v>
       </c>
       <c r="BT103" s="5">
-        <f t="shared" si="128"/>
-        <v>313091.21478593594</v>
+        <f t="shared" si="147"/>
+        <v>310806.83228858089</v>
       </c>
       <c r="BU103" s="5">
-        <f t="shared" si="128"/>
-        <v>316222.12693379528</v>
+        <f t="shared" si="147"/>
+        <v>313914.90061146673</v>
       </c>
       <c r="BV103" s="5">
-        <f t="shared" si="128"/>
-        <v>319384.34820313327</v>
+        <f t="shared" si="147"/>
+        <v>317054.04961758142</v>
       </c>
       <c r="BW103" s="5">
-        <f t="shared" si="128"/>
-        <v>322578.19168516458</v>
+        <f t="shared" si="147"/>
+        <v>320224.59011375724</v>
       </c>
       <c r="BX103" s="5">
-        <f t="shared" si="128"/>
-        <v>325803.97360201622</v>
+        <f t="shared" si="147"/>
+        <v>323426.83601489483</v>
       </c>
       <c r="BY103" s="5">
-        <f t="shared" si="128"/>
-        <v>329062.01333803637</v>
+        <f t="shared" si="147"/>
+        <v>326661.10437504377</v>
       </c>
       <c r="BZ103" s="5">
-        <f t="shared" si="128"/>
-        <v>332352.63347141672</v>
+        <f t="shared" si="147"/>
+        <v>329927.71541879419</v>
       </c>
       <c r="CA103" s="5">
-        <f t="shared" si="128"/>
-        <v>335676.15980613086</v>
+        <f t="shared" si="147"/>
+        <v>333226.99257298216</v>
       </c>
       <c r="CB103" s="5">
-        <f t="shared" si="128"/>
-        <v>339032.92140419217</v>
+        <f t="shared" si="147"/>
+        <v>336559.26249871199</v>
       </c>
       <c r="CC103" s="5">
-        <f t="shared" si="128"/>
-        <v>342423.2506182341</v>
+        <f t="shared" si="147"/>
+        <v>339924.85512369912</v>
       </c>
       <c r="CD103" s="5">
-        <f t="shared" si="128"/>
-        <v>345847.48312441644</v>
+        <f t="shared" si="147"/>
+        <v>343324.10367493611</v>
       </c>
       <c r="CE103" s="5">
-        <f t="shared" si="128"/>
-        <v>349305.95795566059</v>
+        <f t="shared" si="147"/>
+        <v>346757.34471168549</v>
       </c>
       <c r="CF103" s="5">
-        <f t="shared" si="128"/>
-        <v>352799.01753521722</v>
+        <f t="shared" si="147"/>
+        <v>350224.91815880238</v>
       </c>
       <c r="CG103" s="5">
-        <f t="shared" si="128"/>
-        <v>356327.00771056942</v>
+        <f t="shared" si="147"/>
+        <v>353727.16734039038</v>
       </c>
       <c r="CH103" s="5">
-        <f t="shared" si="128"/>
-        <v>359890.27778767509</v>
+        <f t="shared" si="147"/>
+        <v>357264.4390137943</v>
       </c>
       <c r="CI103" s="5">
-        <f t="shared" si="128"/>
-        <v>363489.18056555185</v>
+        <f t="shared" si="147"/>
+        <v>360837.08340393222</v>
       </c>
       <c r="CJ103" s="5">
-        <f t="shared" si="128"/>
-        <v>367124.07237120735</v>
+        <f t="shared" si="147"/>
+        <v>364445.45423797157</v>
       </c>
       <c r="CK103" s="5">
-        <f t="shared" si="128"/>
-        <v>370795.31309491943</v>
+        <f t="shared" si="147"/>
+        <v>368089.90878035128</v>
       </c>
       <c r="CL103" s="5">
-        <f t="shared" si="128"/>
-        <v>374503.2662258686</v>
+        <f t="shared" si="147"/>
+        <v>371770.80786815478</v>
       </c>
       <c r="CM103" s="5">
-        <f t="shared" ref="CM103:DR103" si="129">CL103*(1+$AC$97)</f>
-        <v>378248.29888812732</v>
+        <f t="shared" ref="CM103:DR103" si="148">CL103*(1+$AC$97)</f>
+        <v>375488.51594683633</v>
       </c>
       <c r="CN103" s="5">
-        <f t="shared" si="129"/>
-        <v>382030.78187700862</v>
+        <f t="shared" si="148"/>
+        <v>379243.40110630472</v>
       </c>
       <c r="CO103" s="5">
-        <f t="shared" si="129"/>
-        <v>385851.08969577873</v>
+        <f t="shared" si="148"/>
+        <v>383035.83511736779</v>
       </c>
       <c r="CP103" s="5">
-        <f t="shared" si="129"/>
-        <v>389709.6005927365</v>
+        <f t="shared" si="148"/>
+        <v>386866.19346854149</v>
       </c>
       <c r="CQ103" s="5">
-        <f t="shared" si="129"/>
-        <v>393606.69659866387</v>
+        <f t="shared" si="148"/>
+        <v>390734.85540322692</v>
       </c>
       <c r="CR103" s="5">
-        <f t="shared" si="129"/>
-        <v>397542.76356465049</v>
+        <f t="shared" si="148"/>
+        <v>394642.20395725919</v>
       </c>
       <c r="CS103" s="5">
-        <f t="shared" si="129"/>
-        <v>401518.19120029698</v>
+        <f t="shared" si="148"/>
+        <v>398588.6259968318</v>
       </c>
       <c r="CT103" s="5">
-        <f t="shared" si="129"/>
-        <v>405533.37311229995</v>
+        <f t="shared" si="148"/>
+        <v>402574.51225680014</v>
       </c>
       <c r="CU103" s="5">
-        <f t="shared" si="129"/>
-        <v>409588.70684342296</v>
+        <f t="shared" si="148"/>
+        <v>406600.25737936812</v>
       </c>
       <c r="CV103" s="5">
-        <f t="shared" si="129"/>
-        <v>413684.59391185717</v>
+        <f t="shared" si="148"/>
+        <v>410666.25995316182</v>
       </c>
       <c r="CW103" s="5">
-        <f t="shared" si="129"/>
-        <v>417821.43985097576</v>
+        <f t="shared" si="148"/>
+        <v>414772.92255269346</v>
       </c>
       <c r="CX103" s="5">
-        <f t="shared" si="129"/>
-        <v>421999.65424948552</v>
+        <f t="shared" si="148"/>
+        <v>418920.65177822037</v>
       </c>
       <c r="CY103" s="5">
-        <f t="shared" si="129"/>
-        <v>426219.65079198038</v>
+        <f t="shared" si="148"/>
+        <v>423109.85829600255</v>
       </c>
       <c r="CZ103" s="5">
-        <f t="shared" si="129"/>
-        <v>430481.8472999002</v>
+        <f t="shared" si="148"/>
+        <v>427340.95687896258</v>
       </c>
       <c r="DA103" s="5">
-        <f t="shared" si="129"/>
-        <v>434786.66577289923</v>
+        <f t="shared" si="148"/>
+        <v>431614.36644775223</v>
       </c>
       <c r="DB103" s="5">
-        <f t="shared" si="129"/>
-        <v>439134.5324306282</v>
+        <f t="shared" si="148"/>
+        <v>435930.51011222973</v>
       </c>
       <c r="DC103" s="5">
-        <f t="shared" si="129"/>
-        <v>443525.87775493448</v>
+        <f t="shared" si="148"/>
+        <v>440289.81521335203</v>
       </c>
       <c r="DD103" s="5">
-        <f t="shared" si="129"/>
-        <v>447961.13653248386</v>
+        <f t="shared" si="148"/>
+        <v>444692.71336548554</v>
       </c>
       <c r="DE103" s="5">
-        <f t="shared" si="129"/>
-        <v>452440.74789780867</v>
+        <f t="shared" si="148"/>
+        <v>449139.64049914043</v>
       </c>
       <c r="DF103" s="5">
-        <f t="shared" si="129"/>
-        <v>456965.15537678677</v>
+        <f t="shared" si="148"/>
+        <v>453631.03690413182</v>
       </c>
       <c r="DG103" s="5">
-        <f t="shared" si="129"/>
-        <v>461534.80693055462</v>
+        <f t="shared" si="148"/>
+        <v>458167.34727317316</v>
       </c>
       <c r="DH103" s="5">
-        <f t="shared" si="129"/>
-        <v>466150.15499986015</v>
+        <f t="shared" si="148"/>
+        <v>462749.02074590488</v>
       </c>
       <c r="DI103" s="5">
-        <f t="shared" si="129"/>
-        <v>470811.65654985874</v>
+        <f t="shared" si="148"/>
+        <v>467376.51095336396</v>
       </c>
       <c r="DJ103" s="5">
-        <f t="shared" si="129"/>
-        <v>475519.77311535733</v>
+        <f t="shared" si="148"/>
+        <v>472050.27606289758</v>
       </c>
       <c r="DK103" s="5">
-        <f t="shared" si="129"/>
-        <v>480274.9708465109</v>
+        <f t="shared" si="148"/>
+        <v>476770.77882352658</v>
       </c>
       <c r="DL103" s="5">
-        <f t="shared" si="129"/>
-        <v>485077.72055497603</v>
+        <f t="shared" si="148"/>
+        <v>481538.48661176185</v>
       </c>
       <c r="DM103" s="5">
-        <f t="shared" si="129"/>
-        <v>489928.49776052579</v>
+        <f t="shared" si="148"/>
+        <v>486353.87147787947</v>
       </c>
       <c r="DN103" s="5">
-        <f t="shared" si="129"/>
-        <v>494827.78273813106</v>
+        <f t="shared" si="148"/>
+        <v>491217.41019265825</v>
       </c>
       <c r="DO103" s="5">
-        <f t="shared" si="129"/>
-        <v>499776.06056551239</v>
+        <f t="shared" si="148"/>
+        <v>496129.58429458481</v>
       </c>
       <c r="DP103" s="5">
-        <f t="shared" si="129"/>
-        <v>504773.82117116754</v>
+        <f t="shared" si="148"/>
+        <v>501090.88013753068</v>
       </c>
       <c r="DQ103" s="5">
-        <f t="shared" si="129"/>
-        <v>509821.55938287923</v>
+        <f t="shared" si="148"/>
+        <v>506101.78893890599</v>
       </c>
       <c r="DR103" s="5">
-        <f t="shared" si="129"/>
-        <v>514919.77497670805</v>
+        <f t="shared" si="148"/>
+        <v>511162.80682829506</v>
       </c>
       <c r="DS103" s="5">
-        <f t="shared" ref="DS103:EX103" si="130">DR103*(1+$AC$97)</f>
-        <v>520068.97272647516</v>
+        <f t="shared" ref="DS103:EX103" si="149">DR103*(1+$AC$97)</f>
+        <v>516274.43489657802</v>
       </c>
       <c r="DT103" s="5">
-        <f t="shared" si="130"/>
-        <v>525269.6624537399</v>
+        <f t="shared" si="149"/>
+        <v>521437.17924554378</v>
       </c>
       <c r="DU103" s="5">
-        <f t="shared" si="130"/>
-        <v>530522.35907827725</v>
+        <f t="shared" si="149"/>
+        <v>526651.55103799922</v>
       </c>
       <c r="DV103" s="5">
-        <f t="shared" si="130"/>
-        <v>535827.58266905998</v>
+        <f t="shared" si="149"/>
+        <v>531918.06654837925</v>
       </c>
       <c r="DW103" s="5">
-        <f t="shared" si="130"/>
-        <v>541185.85849575058</v>
+        <f t="shared" si="149"/>
+        <v>537237.24721386307</v>
       </c>
       <c r="DX103" s="5">
-        <f t="shared" si="130"/>
-        <v>546597.71708070813</v>
+        <f t="shared" si="149"/>
+        <v>542609.61968600168</v>
       </c>
       <c r="DY103" s="5">
-        <f t="shared" si="130"/>
-        <v>552063.6942515152</v>
+        <f t="shared" si="149"/>
+        <v>548035.71588286175</v>
       </c>
       <c r="DZ103" s="5">
-        <f t="shared" si="130"/>
-        <v>557584.33119403035</v>
+        <f t="shared" si="149"/>
+        <v>553516.0730416904</v>
       </c>
       <c r="EA103" s="5">
-        <f t="shared" si="130"/>
-        <v>563160.17450597067</v>
+        <f t="shared" si="149"/>
+        <v>559051.23377210728</v>
       </c>
       <c r="EB103" s="5">
-        <f t="shared" si="130"/>
-        <v>568791.77625103039</v>
+        <f t="shared" si="149"/>
+        <v>564641.74610982835</v>
       </c>
       <c r="EC103" s="5">
-        <f t="shared" si="130"/>
-        <v>574479.69401354075</v>
+        <f t="shared" si="149"/>
+        <v>570288.16357092664</v>
       </c>
       <c r="ED103" s="5">
-        <f t="shared" si="130"/>
-        <v>580224.49095367617</v>
+        <f t="shared" si="149"/>
+        <v>575991.04520663596</v>
       </c>
       <c r="EE103" s="5">
-        <f t="shared" si="130"/>
-        <v>586026.73586321296</v>
+        <f t="shared" si="149"/>
+        <v>581750.9556587023</v>
       </c>
       <c r="EF103" s="5">
-        <f t="shared" si="130"/>
-        <v>591887.00322184514</v>
+        <f t="shared" si="149"/>
+        <v>587568.46521528927</v>
       </c>
       <c r="EG103" s="5">
-        <f t="shared" si="130"/>
-        <v>597805.87325406354</v>
+        <f t="shared" si="149"/>
+        <v>593444.1498674422</v>
       </c>
       <c r="EH103" s="5">
-        <f t="shared" si="130"/>
-        <v>603783.93198660424</v>
+        <f t="shared" si="149"/>
+        <v>599378.59136611666</v>
       </c>
       <c r="EI103" s="5">
-        <f t="shared" si="130"/>
-        <v>609821.77130647027</v>
+        <f t="shared" si="149"/>
+        <v>605372.37727977778</v>
       </c>
       <c r="EJ103" s="5">
-        <f t="shared" si="130"/>
-        <v>615919.98901953502</v>
+        <f t="shared" si="149"/>
+        <v>611426.10105257551</v>
       </c>
       <c r="EK103" s="5">
-        <f t="shared" si="130"/>
-        <v>622079.18890973041</v>
+        <f t="shared" si="149"/>
+        <v>617540.36206310126</v>
       </c>
       <c r="EL103" s="5">
-        <f t="shared" si="130"/>
-        <v>628299.98079882772</v>
+        <f t="shared" si="149"/>
+        <v>623715.76568373223</v>
       </c>
       <c r="EM103" s="5">
-        <f t="shared" si="130"/>
-        <v>634582.98060681601</v>
+        <f t="shared" si="149"/>
+        <v>629952.9233405696</v>
       </c>
       <c r="EN103" s="5">
-        <f t="shared" si="130"/>
-        <v>640928.81041288422</v>
+        <f t="shared" si="149"/>
+        <v>636252.45257397532</v>
       </c>
       <c r="EO103" s="5">
-        <f t="shared" si="130"/>
-        <v>647338.09851701302</v>
+        <f t="shared" si="149"/>
+        <v>642614.97709971503</v>
       </c>
       <c r="EP103" s="5">
-        <f t="shared" si="130"/>
-        <v>653811.47950218315</v>
+        <f t="shared" si="149"/>
+        <v>649041.12687071215</v>
       </c>
       <c r="EQ103" s="5">
-        <f t="shared" si="130"/>
-        <v>660349.59429720498</v>
+        <f t="shared" si="149"/>
+        <v>655531.53813941928</v>
       </c>
       <c r="ER103" s="5">
-        <f t="shared" si="130"/>
-        <v>666953.090240177</v>
+        <f t="shared" si="149"/>
+        <v>662086.85352081351</v>
       </c>
       <c r="ES103" s="5">
-        <f t="shared" si="130"/>
-        <v>673622.62114257878</v>
+        <f t="shared" si="149"/>
+        <v>668707.72205602168</v>
       </c>
       <c r="ET103" s="5">
-        <f t="shared" si="130"/>
-        <v>680358.84735400463</v>
+        <f t="shared" si="149"/>
+        <v>675394.79927658185</v>
       </c>
       <c r="EU103" s="5">
-        <f t="shared" si="130"/>
-        <v>687162.43582754466</v>
+        <f t="shared" si="149"/>
+        <v>682148.74726934766</v>
       </c>
       <c r="EV103" s="5">
-        <f t="shared" si="130"/>
-        <v>694034.0601858201</v>
+        <f t="shared" si="149"/>
+        <v>688970.2347420411</v>
       </c>
       <c r="EW103" s="5">
-        <f t="shared" si="130"/>
-        <v>700974.40078767831</v>
+        <f t="shared" si="149"/>
+        <v>695859.93708946148</v>
       </c>
       <c r="EX103" s="5">
-        <f t="shared" si="130"/>
-        <v>707984.14479555516</v>
+        <f t="shared" si="149"/>
+        <v>702818.53646035609</v>
       </c>
       <c r="EY103" s="5">
-        <f t="shared" ref="EY103:FG103" si="131">EX103*(1+$AC$97)</f>
-        <v>715063.98624351074</v>
+        <f t="shared" ref="EY103:FG103" si="150">EX103*(1+$AC$97)</f>
+        <v>709846.72182495962</v>
       </c>
       <c r="EZ103" s="5">
-        <f t="shared" si="131"/>
-        <v>722214.62610594591</v>
+        <f t="shared" si="150"/>
+        <v>716945.18904320919</v>
       </c>
       <c r="FA103" s="5">
-        <f t="shared" si="131"/>
-        <v>729436.77236700535</v>
+        <f t="shared" si="150"/>
+        <v>724114.64093364123</v>
       </c>
       <c r="FB103" s="5">
-        <f t="shared" si="131"/>
-        <v>736731.14009067544</v>
+        <f t="shared" si="150"/>
+        <v>731355.78734297759</v>
       </c>
       <c r="FC103" s="5">
-        <f t="shared" si="131"/>
-        <v>744098.45149158221</v>
+        <f t="shared" si="150"/>
+        <v>738669.34521640732</v>
       </c>
       <c r="FD103" s="5">
-        <f t="shared" si="131"/>
-        <v>751539.43600649806</v>
+        <f t="shared" si="150"/>
+        <v>746056.03866857139</v>
       </c>
       <c r="FE103" s="5">
-        <f t="shared" si="131"/>
-        <v>759054.83036656305</v>
+        <f t="shared" si="150"/>
+        <v>753516.59905525716</v>
       </c>
       <c r="FF103" s="5">
-        <f t="shared" si="131"/>
-        <v>766645.37867022865</v>
+        <f t="shared" si="150"/>
+        <v>761051.76504580979</v>
       </c>
       <c r="FG103" s="5">
-        <f t="shared" si="131"/>
-        <v>774311.83245693089</v>
+        <f t="shared" si="150"/>
+        <v>768662.28269626794</v>
       </c>
     </row>
     <row r="104" spans="1:163" x14ac:dyDescent="0.25">
       <c r="S104" s="3">
-        <f t="shared" ref="S104:Z104" si="132">S103/S96</f>
+        <f t="shared" ref="S104:Z104" si="151">S103/S96</f>
         <v>0.65588283512760259</v>
       </c>
       <c r="T104" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.6830243940793741</v>
       </c>
       <c r="U104" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.57557420887226429</v>
       </c>
       <c r="V104" s="3">
-        <f t="shared" si="132"/>
-        <v>0.46204935464418517</v>
+        <f t="shared" si="151"/>
+        <v>0.45907913570087772</v>
       </c>
       <c r="W104" s="3">
-        <f t="shared" si="132"/>
-        <v>0.56325014112978133</v>
+        <f t="shared" si="151"/>
+        <v>0.56826849529252443</v>
       </c>
       <c r="X104" s="3">
-        <f t="shared" si="132"/>
-        <v>0.64485148892655275</v>
+        <f t="shared" si="151"/>
+        <v>0.64697962971278156</v>
       </c>
       <c r="Y104" s="3">
-        <f t="shared" si="132"/>
-        <v>0.71083313777077317</v>
+        <f t="shared" si="151"/>
+        <v>0.71091968454581411</v>
       </c>
       <c r="Z104" s="3">
-        <f t="shared" si="132"/>
-        <v>0.76431150058137698</v>
+        <f t="shared" si="151"/>
+        <v>0.76298979298395109</v>
       </c>
     </row>
     <row r="109" spans="1:163" x14ac:dyDescent="0.25">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8141EA-7C70-4DCA-98D8-5DA1AF5AD569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A31E1-25B2-4E05-B729-32E6E60D4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="855" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,7 @@
   <authors>
     <author>tc={6FF532F1-830D-4259-9AB9-82FDC064399F}</author>
     <author>tc={B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}</author>
-    <author>tc={27A2C0CB-24DD-49C9-8CEA-49FE631EF8FB}</author>
-    <author>tc={096FB016-FF97-4145-90B3-BC82A38B1387}</author>
-    <author>tc={1E7D3402-EC2F-4E86-9BC9-486984C5E5A7}</author>
-    <author>tc={CC9FFDAD-5D8D-42AF-A282-F7603C497A52}</author>
+    <author>tc={DA029D8C-EB1E-4E9F-9C18-38930E694876}</author>
     <author>tc={3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}</author>
     <author>tc={B2A26FD5-756A-4436-88C9-DC45B78A3F12}</author>
     <author>tc={50D81D40-768D-4E6C-B865-C43BC614BF3C}</author>
@@ -108,7 +105,7 @@
     Normalized </t>
       </text>
     </comment>
-    <comment ref="V13" authorId="1" shapeId="0" xr:uid="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
+    <comment ref="U13" authorId="1" shapeId="0" xr:uid="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,39 +113,15 @@
     “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
       </text>
     </comment>
-    <comment ref="W13" authorId="2" shapeId="0" xr:uid="{27A2C0CB-24DD-49C9-8CEA-49FE631EF8FB}">
+    <comment ref="V20" authorId="2" shapeId="0" xr:uid="{DA029D8C-EB1E-4E9F-9C18-38930E694876}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
+    Cloud CAGR 20%</t>
       </text>
     </comment>
-    <comment ref="X13" authorId="3" shapeId="0" xr:uid="{096FB016-FF97-4145-90B3-BC82A38B1387}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
-      </text>
-    </comment>
-    <comment ref="Y13" authorId="4" shapeId="0" xr:uid="{1E7D3402-EC2F-4E86-9BC9-486984C5E5A7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
-      </text>
-    </comment>
-    <comment ref="Z13" authorId="5" shapeId="0" xr:uid="{CC9FFDAD-5D8D-42AF-A282-F7603C497A52}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    “YT &amp; Cloud exit 2024 at a annual run rate of 110B”</t>
-      </text>
-    </comment>
-    <comment ref="J73" authorId="6" shapeId="0" xr:uid="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
+    <comment ref="J73" authorId="3" shapeId="0" xr:uid="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -156,7 +129,7 @@
     "16B-18B Debt 1st Quarter"</t>
       </text>
     </comment>
-    <comment ref="J100" authorId="7" shapeId="0" xr:uid="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
+    <comment ref="J100" authorId="4" shapeId="0" xr:uid="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -164,7 +137,7 @@
     Acquisition of Wiz</t>
       </text>
     </comment>
-    <comment ref="V102" authorId="8" shapeId="0" xr:uid="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
+    <comment ref="U102" authorId="5" shapeId="0" xr:uid="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -177,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
   <si>
     <t>GOOGL</t>
   </si>
@@ -552,6 +525,9 @@
   </si>
   <si>
     <t>3% incr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -598,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -610,6 +586,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,13 +658,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1081,20 +1058,11 @@
   <threadedComment ref="M10" dT="2025-04-24T20:04:58.81" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
     <text xml:space="preserve">Normalized </text>
   </threadedComment>
-  <threadedComment ref="V13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
+  <threadedComment ref="U13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
     <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
   </threadedComment>
-  <threadedComment ref="W13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{27A2C0CB-24DD-49C9-8CEA-49FE631EF8FB}">
-    <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
-  </threadedComment>
-  <threadedComment ref="X13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{096FB016-FF97-4145-90B3-BC82A38B1387}">
-    <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
-  </threadedComment>
-  <threadedComment ref="Y13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{1E7D3402-EC2F-4E86-9BC9-486984C5E5A7}">
-    <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
-  </threadedComment>
-  <threadedComment ref="Z13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{CC9FFDAD-5D8D-42AF-A282-F7603C497A52}">
-    <text>“YT &amp; Cloud exit 2024 at a annual run rate of 110B”</text>
+  <threadedComment ref="V20" dT="2025-04-27T02:21:17.68" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{DA029D8C-EB1E-4E9F-9C18-38930E694876}">
+    <text>Cloud CAGR 20%</text>
   </threadedComment>
   <threadedComment ref="J73" dT="2025-04-24T04:58:21.95" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
     <text>"16B-18B Debt 1st Quarter"</text>
@@ -1102,7 +1070,7 @@
   <threadedComment ref="J100" dT="2025-04-24T04:59:59.64" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
     <text>Acquisition of Wiz</text>
   </threadedComment>
-  <threadedComment ref="V102" dT="2025-04-24T04:29:36.04" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
+  <threadedComment ref="U102" dT="2025-04-24T04:29:36.04" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
     <text>“expect 75 bil in CAPEX 2025”</text>
   </threadedComment>
 </ThreadedComments>
@@ -1113,7 +1081,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,13 +1209,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
-  <dimension ref="A1:HL109"/>
+  <dimension ref="A1:HK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W84" sqref="W84"/>
+      <selection pane="bottomRight" activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,21 +1226,20 @@
     <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="9.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="2"/>
-    <col min="15" max="15" width="13.5703125" style="2" customWidth="1"/>
-    <col min="16" max="20" width="9.140625" style="2"/>
-    <col min="21" max="21" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="9" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="2" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="2"/>
-    <col min="29" max="29" width="9.85546875" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="13.5703125" style="2" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" style="2"/>
+    <col min="20" max="20" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="9" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="2" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="9.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1309,70 +1276,70 @@
       <c r="M1" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="O1" s="4">
+        <v>2019</v>
+      </c>
       <c r="P1" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="Q1" s="4">
-        <v>2020</v>
+        <f>P1+1</f>
+        <v>2021</v>
       </c>
       <c r="R1" s="4">
-        <f>Q1+1</f>
-        <v>2021</v>
+        <f t="shared" ref="R1:Y1" si="0">Q1+1</f>
+        <v>2022</v>
       </c>
       <c r="S1" s="4">
-        <f t="shared" ref="S1:Z1" si="0">R1+1</f>
-        <v>2022</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
       <c r="T1" s="4">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="U1" s="4">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="V1" s="4">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="W1" s="4">
         <f t="shared" si="0"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="X1" s="4">
         <f t="shared" si="0"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="Y1" s="4">
         <f t="shared" si="0"/>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="Z1" s="4">
-        <f t="shared" si="0"/>
-        <v>2029</v>
+        <f t="shared" ref="Z1" si="1">Y1+1</f>
+        <v>2030</v>
       </c>
       <c r="AA1" s="4">
-        <f t="shared" ref="AA1" si="1">Z1+1</f>
-        <v>2030</v>
+        <f t="shared" ref="AA1" si="2">Z1+1</f>
+        <v>2031</v>
       </c>
       <c r="AB1" s="4">
-        <f t="shared" ref="AB1" si="2">AA1+1</f>
-        <v>2031</v>
+        <f t="shared" ref="AB1" si="3">AA1+1</f>
+        <v>2032</v>
       </c>
       <c r="AC1" s="4">
-        <f t="shared" ref="AC1" si="3">AB1+1</f>
-        <v>2032</v>
+        <f t="shared" ref="AC1" si="4">AB1+1</f>
+        <v>2033</v>
       </c>
       <c r="AD1" s="4">
-        <f t="shared" ref="AD1" si="4">AC1+1</f>
-        <v>2033</v>
-      </c>
-      <c r="AE1" s="4">
-        <f t="shared" ref="AE1" si="5">AD1+1</f>
+        <f t="shared" ref="AD1" si="5">AC1+1</f>
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -1387,6 +1354,7 @@
         <f>I5/SUM(I18:I18)</f>
         <v>2.8218000515774091</v>
       </c>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1397,9 +1365,8 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
@@ -1426,6 +1393,7 @@
       <c r="M3" s="3">
         <v>0.4</v>
       </c>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1436,9 +1404,8 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1453,8 +1420,15 @@
         <f>I7/I21</f>
         <v>-2.7952380952380951</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="N4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -1463,9 +1437,8 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
@@ -1479,8 +1452,16 @@
         <v>32826</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="N5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="3"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -1489,9 +1470,8 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
@@ -1520,8 +1500,15 @@
         <f>M3*M20</f>
         <v>7524.5695795200045</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="10">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -1530,9 +1517,8 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
@@ -1544,6 +1530,15 @@
       <c r="F7" s="5"/>
       <c r="I7" s="2">
         <v>-1174</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1554,9 +1549,8 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
@@ -1574,15 +1568,7 @@
         <f>-2783-20</f>
         <v>-2803</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -1591,9 +1577,8 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="8"/>
@@ -1602,15 +1587,6 @@
       <c r="H9" s="8"/>
       <c r="M9" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="10">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1621,9 +1597,8 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>114</v>
       </c>
@@ -1654,50 +1629,36 @@
       <c r="M10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="10">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="6">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="11">
+        <f>R11/R15</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
         <f>S11/S15</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
+        <v>0.29072232093376676</v>
+      </c>
+      <c r="T10" s="11">
         <f>T11/T15</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <f>U11/U15</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="6">
-        <f t="shared" ref="V10:Z10" si="6">V11/V15</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.27715514630156901</v>
+      </c>
+      <c r="U10" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="V10" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -1724,26 +1685,36 @@
       <c r="M11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="10">
-        <v>2.11</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S11" s="2">
+        <v>50886</v>
+      </c>
+      <c r="T11" s="2">
+        <v>54900</v>
+      </c>
+      <c r="U11" s="2">
+        <f>U10*U15</f>
+        <v>59354.516037038411</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" ref="V11:Y11" si="6">V10*V15</f>
+        <v>65883.512801112636</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="6"/>
+        <v>73130.699209235027</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="6"/>
+        <v>81175.076122250888</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="6"/>
+        <v>90104.334495698495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
@@ -1767,109 +1738,110 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="2">
+      <c r="S12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" s="2">
         <v>183323</v>
       </c>
+      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="5">
-        <f>B20+B16</f>
+        <f t="shared" ref="B13:J13" si="7">B20+B16</f>
         <v>14147</v>
       </c>
       <c r="C13" s="5">
-        <f>C20+C16</f>
+        <f t="shared" si="7"/>
         <v>15696</v>
       </c>
       <c r="D13" s="5">
-        <f>D20+D16</f>
+        <f t="shared" si="7"/>
         <v>16363</v>
       </c>
       <c r="E13" s="5">
-        <f>E20+E16</f>
+        <f t="shared" si="7"/>
         <v>18392</v>
       </c>
       <c r="F13" s="5">
-        <f>F20+F16</f>
+        <f t="shared" si="7"/>
         <v>17664</v>
       </c>
       <c r="G13" s="5">
-        <f>G20+G16</f>
+        <f t="shared" si="7"/>
         <v>19010</v>
       </c>
       <c r="H13" s="5">
-        <f>H20+H16</f>
+        <f t="shared" si="7"/>
         <v>20274</v>
       </c>
       <c r="I13" s="5">
-        <f>I20+I16</f>
+        <f t="shared" si="7"/>
         <v>22428</v>
       </c>
       <c r="J13" s="5">
-        <f>J20+J16</f>
+        <f t="shared" si="7"/>
         <v>23024.760000000002</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" ref="K13:M13" si="7">K20+K16</f>
+        <f t="shared" ref="K13:M13" si="8">K20+K16</f>
         <v>25980.434400000006</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29317.768176000005</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33086.337435840003</v>
       </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="R13" s="2">
+        <f t="shared" ref="R13:S13" si="9">R16+R20</f>
+        <v>55523</v>
+      </c>
       <c r="S13" s="2">
-        <f t="shared" ref="S13:T13" si="8">S16+S20</f>
-        <v>55523</v>
+        <f t="shared" si="9"/>
+        <v>64598</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="8"/>
-        <v>64598</v>
+        <f t="shared" ref="T13:U13" si="10">T16+T20</f>
+        <v>79376</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" ref="U13:Z13" si="9">U16+U20</f>
-        <v>79376</v>
+        <f t="shared" si="10"/>
+        <v>111409.30001184001</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="9"/>
-        <v>111409.30001184001</v>
+        <f>V16+V20</f>
+        <v>129897.87922836482</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="9"/>
-        <v>129897.87922836482</v>
+        <f>W16+W20</f>
+        <v>151628.98059389339</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="9"/>
-        <v>151628.98059389339</v>
+        <f>X16+X20</f>
+        <v>177196.48529491038</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="9"/>
-        <v>177196.48529491038</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="9"/>
+        <f>Y16+Y20</f>
         <v>207306.49596599932</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1881,20 +1853,20 @@
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
       <c r="M14" s="5"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1931,53 +1903,53 @@
         <v>53266.717200000006</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ref="L15:M15" si="10">K15*1.06</f>
+        <f t="shared" ref="L15:M15" si="11">K15*1.06</f>
         <v>56462.720232000007</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>59850.483445920014</v>
       </c>
+      <c r="O15" s="2">
+        <v>161857</v>
+      </c>
       <c r="P15" s="2">
-        <v>161857</v>
+        <v>182527</v>
       </c>
       <c r="Q15" s="2">
-        <v>182527</v>
+        <v>257637</v>
       </c>
       <c r="R15" s="2">
-        <v>257637</v>
+        <v>162450</v>
       </c>
       <c r="S15" s="2">
-        <v>162450</v>
+        <v>175033</v>
       </c>
       <c r="T15" s="2">
-        <v>175033</v>
+        <v>198084</v>
       </c>
       <c r="U15" s="2">
-        <v>198084</v>
-      </c>
-      <c r="V15" s="2">
         <f>SUM(J15:M15)</f>
         <v>219831.54087792002</v>
       </c>
+      <c r="V15" s="2">
+        <f>U15*1.11</f>
+        <v>244013.01037449125</v>
+      </c>
       <c r="W15" s="2">
-        <f>V15*1.11</f>
-        <v>244013.01037449125</v>
+        <f t="shared" ref="W15:Y15" si="12">V15*1.11</f>
+        <v>270854.44151568529</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" ref="X15:Z15" si="11">W15*1.11</f>
-        <v>270854.44151568529</v>
+        <f t="shared" si="12"/>
+        <v>300648.43008241069</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="11"/>
-        <v>300648.43008241069</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>333719.7573914759</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2014,48 +1986,47 @@
         <v>10984.082399999999</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L16:M16" si="12">K16*1.14</f>
+        <f t="shared" ref="L16:M16" si="13">K16*1.14</f>
         <v>12521.853935999998</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14274.913487039996</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="2">
+        <v>29243</v>
+      </c>
       <c r="S16" s="2">
-        <v>29243</v>
+        <v>31510</v>
       </c>
       <c r="T16" s="2">
-        <v>31510</v>
+        <v>36147</v>
       </c>
       <c r="U16" s="2">
-        <v>36147</v>
-      </c>
-      <c r="V16" s="2">
         <f>SUM(J16:M16)</f>
         <v>47416.009823039989</v>
       </c>
+      <c r="V16" s="2">
+        <f>U16*1.12</f>
+        <v>53105.931001804791</v>
+      </c>
       <c r="W16" s="2">
-        <f>V16*1.12</f>
-        <v>53105.931001804791</v>
+        <f t="shared" ref="W16:Y16" si="14">V16*1.12</f>
+        <v>59478.642722021374</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" ref="X16:Z16" si="13">W16*1.12</f>
-        <v>59478.642722021374</v>
+        <f t="shared" si="14"/>
+        <v>66616.07984866394</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="13"/>
-        <v>66616.07984866394</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>74610.009430503618</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -2092,48 +2063,47 @@
         <v>7464.0336000000007</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17:M17" si="14">K17*1.02</f>
+        <f t="shared" ref="L17:M17" si="15">K17*1.02</f>
         <v>7613.3142720000005</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7765.580557440001</v>
       </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="2">
+        <v>32780</v>
+      </c>
       <c r="S17" s="2">
-        <v>32780</v>
+        <v>31312</v>
       </c>
       <c r="T17" s="2">
-        <v>31312</v>
+        <v>30359</v>
       </c>
       <c r="U17" s="2">
-        <v>30359</v>
-      </c>
-      <c r="V17" s="2">
         <f>SUM(J17:M17)</f>
         <v>30160.608429440003</v>
       </c>
+      <c r="V17" s="2">
+        <f>U17*1.01</f>
+        <v>30462.214513734401</v>
+      </c>
       <c r="W17" s="2">
-        <f>V17*1.01</f>
-        <v>30462.214513734401</v>
+        <f t="shared" ref="W17:Y17" si="16">V17*1.01</f>
+        <v>30766.836658871747</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" ref="X17:Z17" si="15">W17*1.01</f>
-        <v>30766.836658871747</v>
+        <f t="shared" si="16"/>
+        <v>31074.505025460465</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="15"/>
-        <v>31074.505025460465</v>
-      </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31385.25007571507</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -2170,46 +2140,46 @@
         <v>11023.4308</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" ref="L18:M18" si="16">K18*1.03</f>
+        <f t="shared" ref="L18:M18" si="17">K18*1.03</f>
         <v>11354.133724000001</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11694.757735720001</v>
       </c>
+      <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="2">
+        <v>29055</v>
+      </c>
       <c r="S18" s="2">
-        <v>29055</v>
+        <v>34688</v>
       </c>
       <c r="T18" s="2">
-        <v>34688</v>
+        <v>40340</v>
       </c>
       <c r="U18" s="2">
-        <v>40340</v>
-      </c>
-      <c r="V18" s="2">
         <f>SUM(J18:M18)</f>
         <v>44774.682259720001</v>
       </c>
+      <c r="V18" s="2">
+        <f>U18*1.12</f>
+        <v>50147.644130886409</v>
+      </c>
       <c r="W18" s="2">
-        <f>V18*1.12</f>
-        <v>50147.644130886409</v>
+        <f t="shared" ref="W18:Y18" si="18">V18*1.12</f>
+        <v>56165.361426592783</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" ref="X18:Z18" si="17">W18*1.12</f>
-        <v>56165.361426592783</v>
+        <f t="shared" si="18"/>
+        <v>62905.204797783925</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="17"/>
-        <v>62905.204797783925</v>
-      </c>
-      <c r="Z18" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>70453.829373518005</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
@@ -2218,95 +2188,95 @@
         <v>61961</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:P19" si="18">SUM(C15:C18)</f>
+        <f t="shared" ref="C19:O19" si="19">SUM(C15:C18)</f>
         <v>66285</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>67986</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>76311</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>70398</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>73928</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>76510</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>84094</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>77906.819999999992</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>82738.26400000001</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>87952.022164000009</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>93585.735226120014</v>
       </c>
+      <c r="O19" s="2">
+        <f t="shared" si="19"/>
+        <v>161857</v>
+      </c>
       <c r="P19" s="2">
-        <f t="shared" si="18"/>
-        <v>161857</v>
+        <f t="shared" ref="P19" si="20">SUM(P15:P18)</f>
+        <v>182527</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="19">SUM(Q15:Q18)</f>
-        <v>182527</v>
+        <f t="shared" ref="Q19" si="21">SUM(Q15:Q18)</f>
+        <v>257637</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19" si="20">SUM(R15:R18)</f>
-        <v>257637</v>
+        <f t="shared" ref="R19" si="22">SUM(R15:R18)</f>
+        <v>253528</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19" si="21">SUM(S15:S18)</f>
-        <v>253528</v>
+        <f t="shared" ref="S19" si="23">SUM(S15:S18)</f>
+        <v>272543</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" ref="T19" si="22">SUM(T15:T18)</f>
-        <v>272543</v>
+        <f t="shared" ref="T19" si="24">SUM(T15:T18)</f>
+        <v>304930</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19" si="23">SUM(U15:U18)</f>
-        <v>304930</v>
+        <f t="shared" ref="U19" si="25">SUM(U15:U18)</f>
+        <v>342182.84139011998</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" ref="V19" si="24">SUM(V15:V18)</f>
-        <v>342182.84139011998</v>
+        <f t="shared" ref="V19" si="26">SUM(V15:V18)</f>
+        <v>377728.80002091685</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" ref="W19" si="25">SUM(W15:W18)</f>
-        <v>377728.80002091685</v>
+        <f t="shared" ref="W19" si="27">SUM(W15:W18)</f>
+        <v>417265.28232317121</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" ref="X19" si="26">SUM(X15:X18)</f>
-        <v>417265.28232317121</v>
+        <f t="shared" ref="X19" si="28">SUM(X15:X18)</f>
+        <v>461244.219754319</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" ref="Y19" si="27">SUM(Y15:Y18)</f>
-        <v>461244.219754319</v>
-      </c>
-      <c r="Z19" s="2">
-        <f t="shared" ref="Z19" si="28">SUM(Z15:Z18)</f>
+        <f t="shared" ref="Y19" si="29">SUM(Y15:Y18)</f>
         <v>510168.84627121262</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2339,52 +2309,51 @@
         <v>13389.600000000002</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ref="K20:M20" si="29">J20*1.12</f>
+        <f t="shared" ref="K20:M20" si="30">J20*1.12</f>
         <v>14996.352000000004</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16795.914240000006</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18811.423948800009</v>
       </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="R20" s="2">
+        <v>26280</v>
+      </c>
       <c r="S20" s="2">
-        <v>26280</v>
+        <v>33088</v>
       </c>
       <c r="T20" s="2">
-        <v>33088</v>
+        <v>43229</v>
       </c>
       <c r="U20" s="2">
-        <v>43229</v>
-      </c>
-      <c r="V20" s="2">
         <f>SUM(J20:M20)</f>
         <v>63993.29018880002</v>
       </c>
+      <c r="V20" s="2">
+        <f>U20*1.2</f>
+        <v>76791.948226560024</v>
+      </c>
       <c r="W20" s="2">
-        <f>V20*1.2</f>
-        <v>76791.948226560024</v>
+        <f t="shared" ref="W20:Y20" si="31">V20*1.2</f>
+        <v>92150.33787187202</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" ref="X20:Z20" si="30">W20*1.2</f>
-        <v>92150.33787187202</v>
+        <f t="shared" si="31"/>
+        <v>110580.40544624643</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="30"/>
-        <v>110580.40544624643</v>
-      </c>
-      <c r="Z20" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>132696.4865354957</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -2429,50 +2398,49 @@
         <v>398.41200000000003</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21:M21" si="31">K21*1.02</f>
+        <f t="shared" ref="L21:M21" si="32">K21*1.02</f>
         <v>406.38024000000001</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>414.50784480000004</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="2">
+      <c r="R21" s="2">
         <f>1068+1960</f>
         <v>3028</v>
       </c>
-      <c r="T21" s="2">
+      <c r="S21" s="2">
         <f>1527+236</f>
         <v>1763</v>
       </c>
-      <c r="U21" s="2">
+      <c r="T21" s="2">
         <f>1648+211</f>
         <v>1859</v>
       </c>
-      <c r="V21" s="2">
+      <c r="U21" s="2">
         <f>SUM(J21:M21)</f>
         <v>1609.9000848000001</v>
       </c>
+      <c r="V21" s="2">
+        <f>U21*1.05</f>
+        <v>1690.3950890400001</v>
+      </c>
       <c r="W21" s="2">
-        <f>V21*1.05</f>
-        <v>1690.3950890400001</v>
+        <f t="shared" ref="W21:Y21" si="33">V21*1.05</f>
+        <v>1774.9148434920003</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21:Z21" si="32">W21*1.05</f>
-        <v>1774.9148434920003</v>
+        <f t="shared" si="33"/>
+        <v>1863.6605856666004</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="32"/>
-        <v>1863.6605856666004</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1956.8436149499305</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -2481,31 +2449,31 @@
         <v>69787</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:Z22" si="33">SUM(C19:C21)</f>
+        <f t="shared" ref="C22:Y22" si="34">SUM(C19:C21)</f>
         <v>74604</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>76693</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>86310</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>80539</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>84742</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>88268</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>96469</v>
       </c>
       <c r="J22" s="5">
@@ -2513,63 +2481,63 @@
         <v>91687.02</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ref="K22:M22" si="34">SUM(K19:K21)</f>
+        <f t="shared" ref="K22:M22" si="35">SUM(K19:K21)</f>
         <v>98133.028000000006</v>
       </c>
       <c r="L22" s="5">
+        <f t="shared" si="35"/>
+        <v>105154.31664400001</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="35"/>
+        <v>112811.66701972003</v>
+      </c>
+      <c r="O22" s="5">
         <f t="shared" si="34"/>
-        <v>105154.31664400001</v>
-      </c>
-      <c r="M22" s="5">
+        <v>161857</v>
+      </c>
+      <c r="P22" s="5">
         <f t="shared" si="34"/>
-        <v>112811.66701972003</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="33"/>
-        <v>161857</v>
+        <v>182527</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="33"/>
-        <v>182527</v>
+        <f t="shared" si="34"/>
+        <v>257637</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="33"/>
-        <v>257637</v>
+        <f t="shared" si="34"/>
+        <v>282836</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="33"/>
-        <v>282836</v>
+        <f t="shared" si="34"/>
+        <v>307394</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="33"/>
-        <v>307394</v>
+        <f t="shared" si="34"/>
+        <v>350018</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="33"/>
-        <v>350018</v>
-      </c>
-      <c r="V22" s="5">
         <f>SUM(J22:M22)</f>
         <v>407786.03166372003</v>
       </c>
+      <c r="V22" s="5">
+        <f t="shared" si="34"/>
+        <v>456211.14333651686</v>
+      </c>
       <c r="W22" s="5">
-        <f t="shared" si="33"/>
-        <v>456211.14333651686</v>
+        <f t="shared" si="34"/>
+        <v>511190.53503853519</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="33"/>
-        <v>511190.53503853519</v>
+        <f t="shared" si="34"/>
+        <v>573688.2857862321</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="33"/>
-        <v>573688.2857862321</v>
-      </c>
-      <c r="Z22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>644822.17642165825</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -2602,57 +2570,57 @@
         <v>38508.548400000007</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:M23" si="35">K22*(1-K43)</f>
+        <f t="shared" ref="K23:M23" si="36">K22*(1-K43)</f>
         <v>41215.871760000009</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>44164.812990480008</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>47380.900148282417</v>
       </c>
+      <c r="O23" s="2">
+        <v>71896</v>
+      </c>
       <c r="P23" s="2">
-        <v>71896</v>
+        <v>84732</v>
       </c>
       <c r="Q23" s="2">
-        <v>84732</v>
+        <v>110939</v>
       </c>
       <c r="R23" s="2">
-        <v>110939</v>
+        <v>126203</v>
       </c>
       <c r="S23" s="2">
-        <v>126203</v>
+        <v>133332</v>
       </c>
       <c r="T23" s="2">
-        <v>133332</v>
+        <v>146302</v>
       </c>
       <c r="U23" s="2">
-        <v>146302</v>
-      </c>
-      <c r="V23" s="2">
         <f>SUM(J23:M23)</f>
         <v>171270.13329876243</v>
       </c>
+      <c r="V23" s="2">
+        <f>V22*(1-V43)</f>
+        <v>188027.19906384186</v>
+      </c>
       <c r="W23" s="2">
         <f>W22*(1-W43)</f>
-        <v>187046.56876797194</v>
+        <v>209184.41036640998</v>
       </c>
       <c r="X23" s="2">
         <f>X22*(1-X43)</f>
-        <v>209588.11936579944</v>
+        <v>233064.48525602656</v>
       </c>
       <c r="Y23" s="2">
         <f>Y22*(1-Y43)</f>
-        <v>235212.19717235517</v>
-      </c>
-      <c r="Z23" s="2">
-        <f>Z22*(1-Z43)</f>
-        <v>264377.0923328799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>260048.78158341916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2661,95 +2629,95 @@
         <v>39175</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:M24" si="36">C22-C23</f>
+        <f t="shared" ref="C24:M24" si="37">C22-C23</f>
         <v>42688</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>43464</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>48735</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>46827</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>49235</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>51794</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>55856</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>53178.471599999997</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>56917.156239999997</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>60989.503653519998</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>65430.766871437612</v>
+      </c>
+      <c r="O24" s="2">
+        <f>O22-O23</f>
+        <v>89961</v>
       </c>
       <c r="P24" s="2">
         <f>P22-P23</f>
-        <v>89961</v>
+        <v>97795</v>
       </c>
       <c r="Q24" s="2">
         <f>Q22-Q23</f>
-        <v>97795</v>
+        <v>146698</v>
       </c>
       <c r="R24" s="2">
-        <f>R22-R23</f>
-        <v>146698</v>
+        <f t="shared" ref="R24:T24" si="38">R22-R23</f>
+        <v>156633</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" ref="S24:U24" si="37">S22-S23</f>
-        <v>156633</v>
+        <f t="shared" si="38"/>
+        <v>174062</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="37"/>
-        <v>174062</v>
+        <f t="shared" si="38"/>
+        <v>203716</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="37"/>
-        <v>203716</v>
+        <f>U22-U23</f>
+        <v>236515.8983649576</v>
       </c>
       <c r="V24" s="2">
         <f>V22-V23</f>
-        <v>236515.8983649576</v>
+        <v>268183.94427267497</v>
       </c>
       <c r="W24" s="2">
         <f>W22-W23</f>
-        <v>269164.57456854492</v>
+        <v>302006.12467212521</v>
       </c>
       <c r="X24" s="2">
         <f>X22-X23</f>
-        <v>301602.41567273578</v>
+        <v>340623.80053020554</v>
       </c>
       <c r="Y24" s="2">
         <f>Y22-Y23</f>
-        <v>338476.08861387696</v>
-      </c>
-      <c r="Z24" s="2">
-        <f>Z22-Z23</f>
-        <v>380445.08408877836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>384773.39483823907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2782,57 +2750,57 @@
         <v>12465.838293337758</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25:M25" si="38">J25*(1+K39)</f>
+        <f t="shared" ref="K25:M25" si="39">J25*(1+K39)</f>
         <v>13342.24253644176</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>14296.862381725779</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>15337.961672979383</v>
       </c>
+      <c r="O25" s="2">
+        <v>26018</v>
+      </c>
       <c r="P25" s="2">
-        <v>26018</v>
+        <v>27573</v>
       </c>
       <c r="Q25" s="2">
-        <v>27573</v>
+        <v>31562</v>
       </c>
       <c r="R25" s="2">
-        <v>31562</v>
+        <v>39500</v>
       </c>
       <c r="S25" s="2">
-        <v>39500</v>
+        <v>45247</v>
       </c>
       <c r="T25" s="2">
-        <v>45247</v>
+        <v>49326</v>
       </c>
       <c r="U25" s="2">
-        <v>49326</v>
+        <f>T25*(1+U38)</f>
+        <v>57466.912552624875</v>
       </c>
       <c r="V25" s="2">
         <f>U25*(1+V38)</f>
-        <v>57466.912552624875</v>
+        <v>64291.181756986873</v>
       </c>
       <c r="W25" s="2">
         <f>V25*(1+W38)</f>
-        <v>64291.181756986873</v>
+        <v>72039.107506787623</v>
       </c>
       <c r="X25" s="2">
         <f>W25*(1+X38)</f>
-        <v>72039.107506787623</v>
+        <v>80846.551847881216</v>
       </c>
       <c r="Y25" s="2">
         <f>X25*(1+Y38)</f>
-        <v>80846.551847881216</v>
-      </c>
-      <c r="Z25" s="2">
-        <f>Y25*(1+Z38)</f>
         <v>90871.037130018231</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -2865,57 +2833,57 @@
         <v>6998.0151992868186</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26:M26" si="39">J26*(1+K39)</f>
+        <f t="shared" ref="K26:M26" si="40">J26*(1+K39)</f>
         <v>7490.0069987664438</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8025.9071147184286</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8610.3546659154617</v>
       </c>
+      <c r="O26" s="2">
+        <v>18464</v>
+      </c>
       <c r="P26" s="2">
-        <v>18464</v>
+        <v>17946</v>
       </c>
       <c r="Q26" s="2">
-        <v>17946</v>
+        <v>22912</v>
       </c>
       <c r="R26" s="2">
-        <v>22912</v>
+        <v>26567</v>
       </c>
       <c r="S26" s="2">
-        <v>26567</v>
+        <v>27917</v>
       </c>
       <c r="T26" s="2">
-        <v>27917</v>
+        <v>27808</v>
       </c>
       <c r="U26" s="2">
-        <v>27808</v>
+        <f>T26*(1+U38/2)</f>
+        <v>30102.75830457966</v>
       </c>
       <c r="V26" s="2">
         <f>U26*(1+V38/2)</f>
-        <v>30102.75830457966</v>
+        <v>31890.128787343761</v>
       </c>
       <c r="W26" s="2">
         <f>V26*(1+W38/2)</f>
-        <v>31890.128787343761</v>
+        <v>33811.716968207082</v>
       </c>
       <c r="X26" s="2">
         <f>W26*(1+X38/2)</f>
-        <v>33811.716968207082</v>
+        <v>35878.613863384715</v>
       </c>
       <c r="Y26" s="2">
         <f>X26*(1+Y38/2)</f>
-        <v>35878.613863384715</v>
-      </c>
-      <c r="Z26" s="2">
-        <f>Y26*(1+Z38/2)</f>
         <v>38102.979828266638</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -2948,58 +2916,58 @@
         <v>4186.643617120526</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:M27" si="40">J27*(1+K39)</f>
+        <f t="shared" ref="K27:M27" si="41">J27*(1+K39)</f>
         <v>4480.983407519514</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4801.5918566256523</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5151.2443709571653</v>
       </c>
-      <c r="P27" s="2">
+      <c r="O27" s="2">
         <f>9551+1697</f>
         <v>11248</v>
       </c>
+      <c r="P27" s="2">
+        <v>11052</v>
+      </c>
       <c r="Q27" s="2">
-        <v>11052</v>
+        <v>13510</v>
       </c>
       <c r="R27" s="2">
-        <v>13510</v>
+        <v>15724</v>
       </c>
       <c r="S27" s="2">
-        <v>15724</v>
+        <v>16425</v>
       </c>
       <c r="T27" s="2">
-        <v>16425</v>
+        <v>14188</v>
       </c>
       <c r="U27" s="2">
-        <v>14188</v>
+        <f>T27*(1+U38/3)</f>
+        <v>14968.54350847181</v>
       </c>
       <c r="V27" s="2">
         <f>U27*(1+V38/3)</f>
-        <v>14968.54350847181</v>
+        <v>15561.054723254025</v>
       </c>
       <c r="W27" s="2">
         <f>V27*(1+W38/3)</f>
-        <v>15561.054723254025</v>
+        <v>16186.158059302417</v>
       </c>
       <c r="X27" s="2">
         <f>W27*(1+X38/3)</f>
-        <v>16186.158059302417</v>
+        <v>16845.793689343212</v>
       </c>
       <c r="Y27" s="2">
         <f>X27*(1+Y38/3)</f>
-        <v>16845.793689343212</v>
-      </c>
-      <c r="Z27" s="2">
-        <f>Y27*(1+Z38/3)</f>
         <v>17542.052659968947</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -3008,95 +2976,95 @@
         <v>21760</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:K28" si="41">SUM(C25:C27)</f>
+        <f t="shared" ref="C28:K28" si="42">SUM(C25:C27)</f>
         <v>20850</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22121</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>25038</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21355</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21810</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23273</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>24884</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23650.497109745105</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>25313.232942727718</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28:M28" si="42">SUM(L25:L27)</f>
+        <f t="shared" ref="L28:M28" si="43">SUM(L25:L27)</f>
         <v>27124.36135306986</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>29099.560709852012</v>
       </c>
+      <c r="O28" s="2">
+        <f t="shared" ref="O28:Y28" si="44">SUM(O25:O27)</f>
+        <v>55730</v>
+      </c>
       <c r="P28" s="2">
-        <f t="shared" ref="P28:Z28" si="43">SUM(P25:P27)</f>
-        <v>55730</v>
+        <f t="shared" si="44"/>
+        <v>56571</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="43"/>
-        <v>56571</v>
+        <f t="shared" si="44"/>
+        <v>67984</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="43"/>
-        <v>67984</v>
+        <f t="shared" si="44"/>
+        <v>81791</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="43"/>
-        <v>81791</v>
+        <f t="shared" si="44"/>
+        <v>89589</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="43"/>
-        <v>89589</v>
+        <f t="shared" si="44"/>
+        <v>91322</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="43"/>
-        <v>91322</v>
+        <f t="shared" si="44"/>
+        <v>102538.21436567634</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="43"/>
-        <v>102538.21436567634</v>
+        <f t="shared" si="44"/>
+        <v>111742.36526758465</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="43"/>
-        <v>111742.36526758465</v>
+        <f t="shared" si="44"/>
+        <v>122036.98253429712</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="43"/>
-        <v>122036.98253429712</v>
+        <f t="shared" si="44"/>
+        <v>133570.95940060914</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="43"/>
-        <v>133570.95940060914</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>146516.06961825379</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -3105,124 +3073,124 @@
         <v>17415</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:K29" si="44">C24-C28</f>
+        <f t="shared" ref="C29:K29" si="45">C24-C28</f>
         <v>21838</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>21343</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23697</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>25472</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>27425</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>28521</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>30972</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>29527.974490254892</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>31603.923297272278</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29:M29" si="45">L24-L28</f>
+        <f t="shared" ref="L29:M29" si="46">L24-L28</f>
         <v>33865.142300450141</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>36331.2061615856</v>
       </c>
+      <c r="O29" s="2">
+        <f t="shared" ref="O29:Y29" si="47">O24-O28</f>
+        <v>34231</v>
+      </c>
       <c r="P29" s="2">
-        <f t="shared" ref="P29:Z29" si="46">P24-P28</f>
-        <v>34231</v>
+        <f t="shared" si="47"/>
+        <v>41224</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="46"/>
-        <v>41224</v>
+        <f t="shared" si="47"/>
+        <v>78714</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="46"/>
-        <v>78714</v>
+        <f t="shared" si="47"/>
+        <v>74842</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="46"/>
-        <v>74842</v>
+        <f t="shared" si="47"/>
+        <v>84473</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="46"/>
-        <v>84473</v>
+        <f t="shared" si="47"/>
+        <v>112394</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="46"/>
-        <v>112394</v>
+        <f t="shared" si="47"/>
+        <v>133977.68399928126</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="46"/>
-        <v>133977.68399928126</v>
+        <f t="shared" si="47"/>
+        <v>156441.57900509032</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="46"/>
-        <v>157422.20930096027</v>
+        <f t="shared" si="47"/>
+        <v>179969.14213782811</v>
       </c>
       <c r="X29" s="2">
-        <f t="shared" si="46"/>
-        <v>179565.43313843868</v>
+        <f t="shared" si="47"/>
+        <v>207052.8411295964</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="46"/>
-        <v>204905.12921326782</v>
-      </c>
-      <c r="Z29" s="2">
-        <f t="shared" si="46"/>
-        <v>233929.01447052456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v>238257.32521998527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="2">
-        <f>I56*$AC$96/4</f>
+        <f>I56*$AB$96/4</f>
         <v>1271.6099999999999</v>
       </c>
+      <c r="U30" s="2">
+        <f>T56*$AB$96</f>
+        <v>5086.4399999999996</v>
+      </c>
       <c r="V30" s="2">
-        <f>U56*$AC$96</f>
-        <v>5086.4399999999996</v>
+        <f>U56*$AB$96</f>
+        <v>11922.71642636507</v>
       </c>
       <c r="W30" s="2">
-        <f>V56*$AC$96</f>
-        <v>11922.71642636507</v>
+        <f>V56*$AB$96</f>
+        <v>20183.758784333801</v>
       </c>
       <c r="X30" s="2">
-        <f>W56*$AC$96</f>
-        <v>20231.417416713084</v>
+        <f>W56*$AB$96</f>
+        <v>29990.512745150871</v>
       </c>
       <c r="Y30" s="2">
-        <f>X56*$AC$96</f>
-        <v>30020.867329693458</v>
-      </c>
-      <c r="Z30" s="2">
-        <f>Y56*$AC$96</f>
-        <v>41518.38696744138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <f>X56*$AB$96</f>
+        <v>41590.935949223582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -3253,41 +3221,41 @@
       <c r="J31" s="2">
         <v>1000</v>
       </c>
+      <c r="O31" s="2">
+        <v>5394</v>
+      </c>
       <c r="P31" s="2">
-        <v>5394</v>
-      </c>
-      <c r="Q31" s="2">
         <v>6858</v>
       </c>
-      <c r="T31" s="2">
+      <c r="S31" s="2">
         <f>SUM(B31:E31)</f>
         <v>1424</v>
       </c>
-      <c r="U31" s="2">
+      <c r="T31" s="2">
         <f>SUM(F31:I31)</f>
         <v>7425</v>
       </c>
+      <c r="U31" s="2">
+        <v>1600</v>
+      </c>
       <c r="V31" s="2">
-        <v>1600</v>
+        <f>U31*1.01</f>
+        <v>1616</v>
       </c>
       <c r="W31" s="2">
-        <f>V31*1.01</f>
-        <v>1616</v>
+        <f t="shared" ref="W31:Y31" si="48">V31*1.01</f>
+        <v>1632.16</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" ref="X31:Z31" si="47">W31*1.01</f>
-        <v>1632.16</v>
+        <f t="shared" si="48"/>
+        <v>1648.4816000000001</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="47"/>
-        <v>1648.4816000000001</v>
-      </c>
-      <c r="Z31" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1664.966416</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -3296,97 +3264,96 @@
         <v>18205</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:K32" si="48">C29+SUM(C30:C31)</f>
+        <f t="shared" ref="C32:K32" si="49">C29+SUM(C30:C31)</f>
         <v>21903</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>21197</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>24412</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>28315</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>27551</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>31706</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>32243</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>31799.584490254892</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>31603.923297272278</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" ref="L32:M32" si="49">L29+SUM(L30:L31)</f>
+        <f t="shared" ref="L32:M32" si="50">L29+SUM(L30:L31)</f>
         <v>33865.142300450141</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>36331.2061615856</v>
       </c>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="O32" s="2">
+        <f t="shared" ref="O32:T32" si="51">SUM(O29:O31)</f>
+        <v>39625</v>
+      </c>
       <c r="P32" s="2">
-        <f t="shared" ref="P32:U32" si="50">SUM(P29:P31)</f>
-        <v>39625</v>
+        <f t="shared" si="51"/>
+        <v>48082</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="50"/>
-        <v>48082</v>
+        <f t="shared" si="51"/>
+        <v>78714</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="50"/>
-        <v>78714</v>
+        <f t="shared" si="51"/>
+        <v>74842</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="50"/>
-        <v>74842</v>
+        <f t="shared" si="51"/>
+        <v>85897</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="50"/>
-        <v>85897</v>
+        <f t="shared" si="51"/>
+        <v>119819</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="50"/>
-        <v>119819</v>
+        <f t="shared" ref="U32:Y32" si="52">SUM(U29:U31)</f>
+        <v>140664.12399928126</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" ref="V32:Z32" si="51">SUM(V29:V31)</f>
-        <v>140664.12399928126</v>
+        <f t="shared" si="52"/>
+        <v>169980.29543145539</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="51"/>
-        <v>170960.92572732535</v>
+        <f t="shared" si="52"/>
+        <v>201785.06092216191</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="51"/>
-        <v>201429.01055515176</v>
+        <f t="shared" si="52"/>
+        <v>238691.83547474726</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="51"/>
-        <v>236574.47814296128</v>
-      </c>
-      <c r="Z32" s="2">
-        <f t="shared" si="51"/>
-        <v>277112.3678539659</v>
-      </c>
-    </row>
-    <row r="33" spans="1:220" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v>281513.22758520884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -3430,46 +3397,46 @@
         <f>M32*M40</f>
         <v>6902.9291707012644</v>
       </c>
+      <c r="O33" s="2">
+        <v>5282</v>
+      </c>
       <c r="P33" s="2">
-        <v>5282</v>
+        <v>7813</v>
       </c>
       <c r="Q33" s="2">
-        <v>7813</v>
+        <v>14701</v>
       </c>
       <c r="R33" s="2">
-        <v>14701</v>
+        <v>11356</v>
       </c>
       <c r="S33" s="2">
-        <v>11356</v>
+        <v>11922</v>
       </c>
       <c r="T33" s="2">
-        <v>11922</v>
+        <v>19697</v>
       </c>
       <c r="U33" s="2">
-        <v>19697</v>
+        <f>U32*U40</f>
+        <v>26726.183559863439</v>
       </c>
       <c r="V33" s="2">
         <f>V32*V40</f>
-        <v>26726.183559863439</v>
+        <v>32296.256131976526</v>
       </c>
       <c r="W33" s="2">
         <f>W32*W40</f>
-        <v>32482.575888191815</v>
+        <v>38339.161575210761</v>
       </c>
       <c r="X33" s="2">
         <f>X32*X40</f>
-        <v>38271.512005478835</v>
+        <v>45351.44874020198</v>
       </c>
       <c r="Y33" s="2">
         <f>Y32*Y40</f>
-        <v>44949.150847162644</v>
-      </c>
-      <c r="Z33" s="2">
-        <f>Z32*Z40</f>
-        <v>52651.349892253522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53487.513241189678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:219" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
@@ -3478,871 +3445,871 @@
         <v>15051</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:K34" si="52">C32-C33</f>
+        <f t="shared" ref="C34:K34" si="53">C32-C33</f>
         <v>18368</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>19689</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>20687</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>23662</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>23619</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>26301</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>26536</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>25757.663437106465</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>25599.177870790547</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" ref="L34:M34" si="53">L32-L33</f>
+        <f t="shared" ref="L34:M34" si="54">L32-L33</f>
         <v>27430.765263364614</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>29428.276990884337</v>
       </c>
+      <c r="O34" s="5">
+        <f t="shared" ref="O34:T34" si="55">O32-O33</f>
+        <v>34343</v>
+      </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34:U34" si="54">P32-P33</f>
-        <v>34343</v>
+        <f t="shared" si="55"/>
+        <v>40269</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="54"/>
-        <v>40269</v>
+        <f t="shared" si="55"/>
+        <v>64013</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="54"/>
-        <v>64013</v>
+        <f t="shared" si="55"/>
+        <v>63486</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="54"/>
-        <v>63486</v>
+        <f t="shared" si="55"/>
+        <v>73975</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="54"/>
-        <v>73975</v>
+        <f t="shared" si="55"/>
+        <v>100122</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="54"/>
-        <v>100122</v>
+        <f t="shared" ref="U34:Y34" si="56">U32-U33</f>
+        <v>113937.94043941783</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:Z34" si="55">V32-V33</f>
-        <v>113937.94043941783</v>
+        <f t="shared" si="56"/>
+        <v>137684.03929947887</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="55"/>
-        <v>138478.34983913353</v>
+        <f t="shared" si="56"/>
+        <v>163445.89934695116</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="55"/>
-        <v>163157.49854967292</v>
+        <f t="shared" si="56"/>
+        <v>193340.38673454529</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="55"/>
-        <v>191625.32729579863</v>
+        <f t="shared" si="56"/>
+        <v>228025.71434401916</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="55"/>
-        <v>224461.01796171238</v>
+        <f t="shared" ref="Z34:BE34" si="57">Y34*(1+$AB$97)</f>
+        <v>230305.97148745935</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" ref="AA34:BF34" si="56">Z34*(1+$AC$97)</f>
-        <v>226705.62814132951</v>
+        <f t="shared" si="57"/>
+        <v>232609.03120233395</v>
       </c>
       <c r="AB34" s="5">
-        <f t="shared" si="56"/>
-        <v>228972.68442274281</v>
+        <f t="shared" si="57"/>
+        <v>234935.12151435731</v>
       </c>
       <c r="AC34" s="5">
-        <f t="shared" si="56"/>
-        <v>231262.41126697024</v>
+        <f t="shared" si="57"/>
+        <v>237284.47272950088</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" si="56"/>
-        <v>233575.03537963994</v>
+        <f t="shared" si="57"/>
+        <v>239657.31745679589</v>
       </c>
       <c r="AE34" s="5">
-        <f t="shared" si="56"/>
-        <v>235910.78573343635</v>
+        <f t="shared" si="57"/>
+        <v>242053.89063136384</v>
       </c>
       <c r="AF34" s="5">
-        <f t="shared" si="56"/>
-        <v>238269.89359077072</v>
+        <f t="shared" si="57"/>
+        <v>244474.4295376775</v>
       </c>
       <c r="AG34" s="5">
-        <f t="shared" si="56"/>
-        <v>240652.59252667843</v>
+        <f t="shared" si="57"/>
+        <v>246919.17383305429</v>
       </c>
       <c r="AH34" s="5">
-        <f t="shared" si="56"/>
-        <v>243059.11845194522</v>
+        <f t="shared" si="57"/>
+        <v>249388.36557138484</v>
       </c>
       <c r="AI34" s="5">
-        <f t="shared" si="56"/>
-        <v>245489.70963646469</v>
+        <f t="shared" si="57"/>
+        <v>251882.24922709868</v>
       </c>
       <c r="AJ34" s="5">
-        <f t="shared" si="56"/>
-        <v>247944.60673282933</v>
+        <f t="shared" si="57"/>
+        <v>254401.07171936968</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="56"/>
-        <v>250424.05280015763</v>
+        <f t="shared" si="57"/>
+        <v>256945.08243656339</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="56"/>
-        <v>252928.2933281592</v>
+        <f t="shared" si="57"/>
+        <v>259514.53326092902</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" si="56"/>
-        <v>255457.57626144079</v>
+        <f t="shared" si="57"/>
+        <v>262109.67859353832</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="56"/>
-        <v>258012.15202405519</v>
+        <f t="shared" si="57"/>
+        <v>264730.77537947369</v>
       </c>
       <c r="AO34" s="5">
-        <f t="shared" si="56"/>
-        <v>260592.27354429575</v>
+        <f t="shared" si="57"/>
+        <v>267378.08313326846</v>
       </c>
       <c r="AP34" s="5">
-        <f t="shared" si="56"/>
-        <v>263198.19627973868</v>
+        <f t="shared" si="57"/>
+        <v>270051.86396460113</v>
       </c>
       <c r="AQ34" s="5">
-        <f t="shared" si="56"/>
-        <v>265830.17824253609</v>
+        <f t="shared" si="57"/>
+        <v>272752.38260424713</v>
       </c>
       <c r="AR34" s="5">
-        <f t="shared" si="56"/>
-        <v>268488.48002496146</v>
+        <f t="shared" si="57"/>
+        <v>275479.90643028961</v>
       </c>
       <c r="AS34" s="5">
-        <f t="shared" si="56"/>
-        <v>271173.36482521106</v>
+        <f t="shared" si="57"/>
+        <v>278234.70549459249</v>
       </c>
       <c r="AT34" s="5">
-        <f t="shared" si="56"/>
-        <v>273885.09847346315</v>
+        <f t="shared" si="57"/>
+        <v>281017.05254953844</v>
       </c>
       <c r="AU34" s="5">
-        <f t="shared" si="56"/>
-        <v>276623.94945819781</v>
+        <f t="shared" si="57"/>
+        <v>283827.22307503381</v>
       </c>
       <c r="AV34" s="5">
-        <f t="shared" si="56"/>
-        <v>279390.1889527798</v>
+        <f t="shared" si="57"/>
+        <v>286665.49530578416</v>
       </c>
       <c r="AW34" s="5">
-        <f t="shared" si="56"/>
-        <v>282184.0908423076</v>
+        <f t="shared" si="57"/>
+        <v>289532.15025884198</v>
       </c>
       <c r="AX34" s="5">
-        <f t="shared" si="56"/>
-        <v>285005.93175073067</v>
+        <f t="shared" si="57"/>
+        <v>292427.47176143038</v>
       </c>
       <c r="AY34" s="5">
-        <f t="shared" si="56"/>
-        <v>287855.99106823799</v>
+        <f t="shared" si="57"/>
+        <v>295351.74647904467</v>
       </c>
       <c r="AZ34" s="5">
-        <f t="shared" si="56"/>
-        <v>290734.55097892036</v>
+        <f t="shared" si="57"/>
+        <v>298305.2639438351</v>
       </c>
       <c r="BA34" s="5">
-        <f t="shared" si="56"/>
-        <v>293641.89648870955</v>
+        <f t="shared" si="57"/>
+        <v>301288.31658327347</v>
       </c>
       <c r="BB34" s="5">
-        <f t="shared" si="56"/>
-        <v>296578.31545359665</v>
+        <f t="shared" si="57"/>
+        <v>304301.19974910619</v>
       </c>
       <c r="BC34" s="5">
-        <f t="shared" si="56"/>
-        <v>299544.09860813263</v>
+        <f t="shared" si="57"/>
+        <v>307344.21174659726</v>
       </c>
       <c r="BD34" s="5">
-        <f t="shared" si="56"/>
-        <v>302539.53959421394</v>
+        <f t="shared" si="57"/>
+        <v>310417.65386406321</v>
       </c>
       <c r="BE34" s="5">
-        <f t="shared" si="56"/>
-        <v>305564.93499015609</v>
+        <f t="shared" si="57"/>
+        <v>313521.83040270384</v>
       </c>
       <c r="BF34" s="5">
-        <f t="shared" si="56"/>
-        <v>308620.58434005769</v>
+        <f t="shared" ref="BF34:CK34" si="58">BE34*(1+$AB$97)</f>
+        <v>316657.04870673089</v>
       </c>
       <c r="BG34" s="5">
-        <f t="shared" ref="BG34:CL34" si="57">BF34*(1+$AC$97)</f>
-        <v>311706.79018345824</v>
+        <f t="shared" si="58"/>
+        <v>319823.61919379822</v>
       </c>
       <c r="BH34" s="5">
-        <f t="shared" si="57"/>
-        <v>314823.85808529286</v>
+        <f t="shared" si="58"/>
+        <v>323021.85538573621</v>
       </c>
       <c r="BI34" s="5">
-        <f t="shared" si="57"/>
-        <v>317972.09666614578</v>
+        <f t="shared" si="58"/>
+        <v>326252.07393959357</v>
       </c>
       <c r="BJ34" s="5">
-        <f t="shared" si="57"/>
-        <v>321151.81763280724</v>
+        <f t="shared" si="58"/>
+        <v>329514.5946789895</v>
       </c>
       <c r="BK34" s="5">
-        <f t="shared" si="57"/>
-        <v>324363.33580913534</v>
+        <f t="shared" si="58"/>
+        <v>332809.74062577938</v>
       </c>
       <c r="BL34" s="5">
-        <f t="shared" si="57"/>
-        <v>327606.96916722669</v>
+        <f t="shared" si="58"/>
+        <v>336137.83803203719</v>
       </c>
       <c r="BM34" s="5">
-        <f t="shared" si="57"/>
-        <v>330883.03885889897</v>
+        <f t="shared" si="58"/>
+        <v>339499.21641235758</v>
       </c>
       <c r="BN34" s="5">
-        <f t="shared" si="57"/>
-        <v>334191.86924748798</v>
+        <f t="shared" si="58"/>
+        <v>342894.20857648115</v>
       </c>
       <c r="BO34" s="5">
-        <f t="shared" si="57"/>
-        <v>337533.78793996287</v>
+        <f t="shared" si="58"/>
+        <v>346323.15066224599</v>
       </c>
       <c r="BP34" s="5">
-        <f t="shared" si="57"/>
-        <v>340909.12581936253</v>
+        <f t="shared" si="58"/>
+        <v>349786.38216886844</v>
       </c>
       <c r="BQ34" s="5">
-        <f t="shared" si="57"/>
-        <v>344318.21707755618</v>
+        <f t="shared" si="58"/>
+        <v>353284.24599055713</v>
       </c>
       <c r="BR34" s="5">
-        <f t="shared" si="57"/>
-        <v>347761.39924833173</v>
+        <f t="shared" si="58"/>
+        <v>356817.08845046273</v>
       </c>
       <c r="BS34" s="5">
-        <f t="shared" si="57"/>
-        <v>351239.01324081502</v>
+        <f t="shared" si="58"/>
+        <v>360385.25933496736</v>
       </c>
       <c r="BT34" s="5">
-        <f t="shared" si="57"/>
-        <v>354751.40337322321</v>
+        <f t="shared" si="58"/>
+        <v>363989.11192831706</v>
       </c>
       <c r="BU34" s="5">
-        <f t="shared" si="57"/>
-        <v>358298.91740695544</v>
+        <f t="shared" si="58"/>
+        <v>367629.00304760021</v>
       </c>
       <c r="BV34" s="5">
-        <f t="shared" si="57"/>
-        <v>361881.90658102499</v>
+        <f t="shared" si="58"/>
+        <v>371305.29307807621</v>
       </c>
       <c r="BW34" s="5">
-        <f t="shared" si="57"/>
-        <v>365500.72564683523</v>
+        <f t="shared" si="58"/>
+        <v>375018.34600885696</v>
       </c>
       <c r="BX34" s="5">
-        <f t="shared" si="57"/>
-        <v>369155.73290330358</v>
+        <f t="shared" si="58"/>
+        <v>378768.52946894552</v>
       </c>
       <c r="BY34" s="5">
-        <f t="shared" si="57"/>
-        <v>372847.29023233661</v>
+        <f t="shared" si="58"/>
+        <v>382556.21476363495</v>
       </c>
       <c r="BZ34" s="5">
-        <f t="shared" si="57"/>
-        <v>376575.76313465997</v>
+        <f t="shared" si="58"/>
+        <v>386381.77691127133</v>
       </c>
       <c r="CA34" s="5">
-        <f t="shared" si="57"/>
-        <v>380341.52076600655</v>
+        <f t="shared" si="58"/>
+        <v>390245.59468038403</v>
       </c>
       <c r="CB34" s="5">
-        <f t="shared" si="57"/>
-        <v>384144.93597366661</v>
+        <f t="shared" si="58"/>
+        <v>394148.05062718788</v>
       </c>
       <c r="CC34" s="5">
-        <f t="shared" si="57"/>
-        <v>387986.3853334033</v>
+        <f t="shared" si="58"/>
+        <v>398089.53113345976</v>
       </c>
       <c r="CD34" s="5">
-        <f t="shared" si="57"/>
-        <v>391866.24918673735</v>
+        <f t="shared" si="58"/>
+        <v>402070.42644479434</v>
       </c>
       <c r="CE34" s="5">
-        <f t="shared" si="57"/>
-        <v>395784.91167860472</v>
+        <f t="shared" si="58"/>
+        <v>406091.13070924231</v>
       </c>
       <c r="CF34" s="5">
-        <f t="shared" si="57"/>
-        <v>399742.76079539076</v>
+        <f t="shared" si="58"/>
+        <v>410152.04201633472</v>
       </c>
       <c r="CG34" s="5">
-        <f t="shared" si="57"/>
-        <v>403740.18840334465</v>
+        <f t="shared" si="58"/>
+        <v>414253.56243649806</v>
       </c>
       <c r="CH34" s="5">
-        <f t="shared" si="57"/>
-        <v>407777.59028737812</v>
+        <f t="shared" si="58"/>
+        <v>418396.09806086303</v>
       </c>
       <c r="CI34" s="5">
-        <f t="shared" si="57"/>
-        <v>411855.36619025189</v>
+        <f t="shared" si="58"/>
+        <v>422580.05904147169</v>
       </c>
       <c r="CJ34" s="5">
-        <f t="shared" si="57"/>
-        <v>415973.91985215445</v>
+        <f t="shared" si="58"/>
+        <v>426805.85963188641</v>
       </c>
       <c r="CK34" s="5">
-        <f t="shared" si="57"/>
-        <v>420133.65905067598</v>
+        <f t="shared" si="58"/>
+        <v>431073.91822820529</v>
       </c>
       <c r="CL34" s="5">
-        <f t="shared" si="57"/>
-        <v>424334.99564118276</v>
+        <f t="shared" ref="CL34:DQ34" si="59">CK34*(1+$AB$97)</f>
+        <v>435384.65741048736</v>
       </c>
       <c r="CM34" s="5">
-        <f t="shared" ref="CM34:DR34" si="58">CL34*(1+$AC$97)</f>
-        <v>428578.34559759457</v>
+        <f t="shared" si="59"/>
+        <v>439738.50398459221</v>
       </c>
       <c r="CN34" s="5">
-        <f t="shared" si="58"/>
-        <v>432864.1290535705</v>
+        <f t="shared" si="59"/>
+        <v>444135.88902443816</v>
       </c>
       <c r="CO34" s="5">
-        <f t="shared" si="58"/>
-        <v>437192.77034410619</v>
+        <f t="shared" si="59"/>
+        <v>448577.24791468255</v>
       </c>
       <c r="CP34" s="5">
-        <f t="shared" si="58"/>
-        <v>441564.69804754725</v>
+        <f t="shared" si="59"/>
+        <v>453063.02039382939</v>
       </c>
       <c r="CQ34" s="5">
-        <f t="shared" si="58"/>
-        <v>445980.34502802271</v>
+        <f t="shared" si="59"/>
+        <v>457593.65059776767</v>
       </c>
       <c r="CR34" s="5">
-        <f t="shared" si="58"/>
-        <v>450440.14847830293</v>
+        <f t="shared" si="59"/>
+        <v>462169.58710374538</v>
       </c>
       <c r="CS34" s="5">
-        <f t="shared" si="58"/>
-        <v>454944.54996308597</v>
+        <f t="shared" si="59"/>
+        <v>466791.28297478281</v>
       </c>
       <c r="CT34" s="5">
-        <f t="shared" si="58"/>
-        <v>459493.99546271685</v>
+        <f t="shared" si="59"/>
+        <v>471459.19580453064</v>
       </c>
       <c r="CU34" s="5">
-        <f t="shared" si="58"/>
-        <v>464088.93541734404</v>
+        <f t="shared" si="59"/>
+        <v>476173.78776257596</v>
       </c>
       <c r="CV34" s="5">
-        <f t="shared" si="58"/>
-        <v>468729.82477151748</v>
+        <f t="shared" si="59"/>
+        <v>480935.5256402017</v>
       </c>
       <c r="CW34" s="5">
-        <f t="shared" si="58"/>
-        <v>473417.12301923265</v>
+        <f t="shared" si="59"/>
+        <v>485744.88089660375</v>
       </c>
       <c r="CX34" s="5">
-        <f t="shared" si="58"/>
-        <v>478151.294249425</v>
+        <f t="shared" si="59"/>
+        <v>490602.32970556978</v>
       </c>
       <c r="CY34" s="5">
-        <f t="shared" si="58"/>
-        <v>482932.80719191924</v>
+        <f t="shared" si="59"/>
+        <v>495508.35300262546</v>
       </c>
       <c r="CZ34" s="5">
-        <f t="shared" si="58"/>
-        <v>487762.13526383846</v>
+        <f t="shared" si="59"/>
+        <v>500463.43653265171</v>
       </c>
       <c r="DA34" s="5">
-        <f t="shared" si="58"/>
-        <v>492639.75661647687</v>
+        <f t="shared" si="59"/>
+        <v>505468.07089797826</v>
       </c>
       <c r="DB34" s="5">
-        <f t="shared" si="58"/>
-        <v>497566.15418264165</v>
+        <f t="shared" si="59"/>
+        <v>510522.75160695805</v>
       </c>
       <c r="DC34" s="5">
-        <f t="shared" si="58"/>
-        <v>502541.81572446809</v>
+        <f t="shared" si="59"/>
+        <v>515627.97912302765</v>
       </c>
       <c r="DD34" s="5">
-        <f t="shared" si="58"/>
-        <v>507567.23388171277</v>
+        <f t="shared" si="59"/>
+        <v>520784.25891425792</v>
       </c>
       <c r="DE34" s="5">
-        <f t="shared" si="58"/>
-        <v>512642.90622052993</v>
+        <f t="shared" si="59"/>
+        <v>525992.10150340048</v>
       </c>
       <c r="DF34" s="5">
-        <f t="shared" si="58"/>
-        <v>517769.33528273524</v>
+        <f t="shared" si="59"/>
+        <v>531252.02251843445</v>
       </c>
       <c r="DG34" s="5">
-        <f t="shared" si="58"/>
-        <v>522947.02863556257</v>
+        <f t="shared" si="59"/>
+        <v>536564.54274361883</v>
       </c>
       <c r="DH34" s="5">
-        <f t="shared" si="58"/>
-        <v>528176.49892191822</v>
+        <f t="shared" si="59"/>
+        <v>541930.18817105505</v>
       </c>
       <c r="DI34" s="5">
-        <f t="shared" si="58"/>
-        <v>533458.26391113736</v>
+        <f t="shared" si="59"/>
+        <v>547349.49005276558</v>
       </c>
       <c r="DJ34" s="5">
-        <f t="shared" si="58"/>
-        <v>538792.84655024868</v>
+        <f t="shared" si="59"/>
+        <v>552822.98495329323</v>
       </c>
       <c r="DK34" s="5">
-        <f t="shared" si="58"/>
-        <v>544180.77501575113</v>
+        <f t="shared" si="59"/>
+        <v>558351.21480282617</v>
       </c>
       <c r="DL34" s="5">
-        <f t="shared" si="58"/>
-        <v>549622.58276590868</v>
+        <f t="shared" si="59"/>
+        <v>563934.72695085441</v>
       </c>
       <c r="DM34" s="5">
-        <f t="shared" si="58"/>
-        <v>555118.80859356781</v>
+        <f t="shared" si="59"/>
+        <v>569574.07422036293</v>
       </c>
       <c r="DN34" s="5">
-        <f t="shared" si="58"/>
-        <v>560669.99667950347</v>
+        <f t="shared" si="59"/>
+        <v>575269.8149625666</v>
       </c>
       <c r="DO34" s="5">
-        <f t="shared" si="58"/>
-        <v>566276.69664629851</v>
+        <f t="shared" si="59"/>
+        <v>581022.51311219228</v>
       </c>
       <c r="DP34" s="5">
-        <f t="shared" si="58"/>
-        <v>571939.46361276146</v>
+        <f t="shared" si="59"/>
+        <v>586832.7382433142</v>
       </c>
       <c r="DQ34" s="5">
-        <f t="shared" si="58"/>
-        <v>577658.8582488891</v>
+        <f t="shared" si="59"/>
+        <v>592701.06562574732</v>
       </c>
       <c r="DR34" s="5">
-        <f t="shared" si="58"/>
-        <v>583435.44683137804</v>
+        <f t="shared" ref="DR34:EW34" si="60">DQ34*(1+$AB$97)</f>
+        <v>598628.07628200483</v>
       </c>
       <c r="DS34" s="5">
-        <f t="shared" ref="DS34:EX34" si="59">DR34*(1+$AC$97)</f>
-        <v>589269.80129969178</v>
+        <f t="shared" si="60"/>
+        <v>604614.35704482486</v>
       </c>
       <c r="DT34" s="5">
-        <f t="shared" si="59"/>
-        <v>595162.49931268871</v>
+        <f t="shared" si="60"/>
+        <v>610660.50061527314</v>
       </c>
       <c r="DU34" s="5">
-        <f t="shared" si="59"/>
-        <v>601114.12430581555</v>
+        <f t="shared" si="60"/>
+        <v>616767.1056214259</v>
       </c>
       <c r="DV34" s="5">
-        <f t="shared" si="59"/>
-        <v>607125.26554887369</v>
+        <f t="shared" si="60"/>
+        <v>622934.77667764015</v>
       </c>
       <c r="DW34" s="5">
-        <f t="shared" si="59"/>
-        <v>613196.51820436248</v>
+        <f t="shared" si="60"/>
+        <v>629164.12444441661</v>
       </c>
       <c r="DX34" s="5">
-        <f t="shared" si="59"/>
-        <v>619328.48338640609</v>
+        <f t="shared" si="60"/>
+        <v>635455.76568886079</v>
       </c>
       <c r="DY34" s="5">
-        <f t="shared" si="59"/>
-        <v>625521.76822027017</v>
+        <f t="shared" si="60"/>
+        <v>641810.32334574941</v>
       </c>
       <c r="DZ34" s="5">
-        <f t="shared" si="59"/>
-        <v>631776.98590247286</v>
+        <f t="shared" si="60"/>
+        <v>648228.42657920695</v>
       </c>
       <c r="EA34" s="5">
-        <f t="shared" si="59"/>
-        <v>638094.75576149765</v>
+        <f t="shared" si="60"/>
+        <v>654710.71084499906</v>
       </c>
       <c r="EB34" s="5">
-        <f t="shared" si="59"/>
-        <v>644475.70331911265</v>
+        <f t="shared" si="60"/>
+        <v>661257.81795344909</v>
       </c>
       <c r="EC34" s="5">
-        <f t="shared" si="59"/>
-        <v>650920.46035230381</v>
+        <f t="shared" si="60"/>
+        <v>667870.39613298362</v>
       </c>
       <c r="ED34" s="5">
-        <f t="shared" si="59"/>
-        <v>657429.66495582683</v>
+        <f t="shared" si="60"/>
+        <v>674549.1000943135</v>
       </c>
       <c r="EE34" s="5">
-        <f t="shared" si="59"/>
-        <v>664003.96160538506</v>
+        <f t="shared" si="60"/>
+        <v>681294.59109525662</v>
       </c>
       <c r="EF34" s="5">
-        <f t="shared" si="59"/>
-        <v>670644.00122143887</v>
+        <f t="shared" si="60"/>
+        <v>688107.53700620914</v>
       </c>
       <c r="EG34" s="5">
-        <f t="shared" si="59"/>
-        <v>677350.44123365323</v>
+        <f t="shared" si="60"/>
+        <v>694988.61237627128</v>
       </c>
       <c r="EH34" s="5">
-        <f t="shared" si="59"/>
-        <v>684123.94564598973</v>
+        <f t="shared" si="60"/>
+        <v>701938.49850003398</v>
       </c>
       <c r="EI34" s="5">
-        <f t="shared" si="59"/>
-        <v>690965.18510244961</v>
+        <f t="shared" si="60"/>
+        <v>708957.88348503434</v>
       </c>
       <c r="EJ34" s="5">
-        <f t="shared" si="59"/>
-        <v>697874.83695347409</v>
+        <f t="shared" si="60"/>
+        <v>716047.46231988468</v>
       </c>
       <c r="EK34" s="5">
-        <f t="shared" si="59"/>
-        <v>704853.58532300883</v>
+        <f t="shared" si="60"/>
+        <v>723207.93694308354</v>
       </c>
       <c r="EL34" s="5">
-        <f t="shared" si="59"/>
-        <v>711902.12117623887</v>
+        <f t="shared" si="60"/>
+        <v>730440.01631251443</v>
       </c>
       <c r="EM34" s="5">
-        <f t="shared" si="59"/>
-        <v>719021.14238800132</v>
+        <f t="shared" si="60"/>
+        <v>737744.41647563956</v>
       </c>
       <c r="EN34" s="5">
-        <f t="shared" si="59"/>
-        <v>726211.35381188139</v>
+        <f t="shared" si="60"/>
+        <v>745121.86064039601</v>
       </c>
       <c r="EO34" s="5">
-        <f t="shared" si="59"/>
-        <v>733473.46735000017</v>
+        <f t="shared" si="60"/>
+        <v>752573.07924679993</v>
       </c>
       <c r="EP34" s="5">
-        <f t="shared" si="59"/>
-        <v>740808.20202350023</v>
+        <f t="shared" si="60"/>
+        <v>760098.81003926788</v>
       </c>
       <c r="EQ34" s="5">
-        <f t="shared" si="59"/>
-        <v>748216.28404373524</v>
+        <f t="shared" si="60"/>
+        <v>767699.7981396605</v>
       </c>
       <c r="ER34" s="5">
-        <f t="shared" si="59"/>
-        <v>755698.44688417262</v>
+        <f t="shared" si="60"/>
+        <v>775376.79612105712</v>
       </c>
       <c r="ES34" s="5">
-        <f t="shared" si="59"/>
-        <v>763255.43135301431</v>
+        <f t="shared" si="60"/>
+        <v>783130.56408226769</v>
       </c>
       <c r="ET34" s="5">
-        <f t="shared" si="59"/>
-        <v>770887.98566654441</v>
+        <f t="shared" si="60"/>
+        <v>790961.86972309032</v>
       </c>
       <c r="EU34" s="5">
-        <f t="shared" si="59"/>
-        <v>778596.86552320991</v>
+        <f t="shared" si="60"/>
+        <v>798871.48842032126</v>
       </c>
       <c r="EV34" s="5">
-        <f t="shared" si="59"/>
-        <v>786382.83417844202</v>
+        <f t="shared" si="60"/>
+        <v>806860.20330452453</v>
       </c>
       <c r="EW34" s="5">
-        <f t="shared" si="59"/>
-        <v>794246.66252022644</v>
+        <f t="shared" si="60"/>
+        <v>814928.80533756979</v>
       </c>
       <c r="EX34" s="5">
-        <f t="shared" si="59"/>
-        <v>802189.12914542865</v>
+        <f t="shared" ref="EX34:GC34" si="61">EW34*(1+$AB$97)</f>
+        <v>823078.09339094546</v>
       </c>
       <c r="EY34" s="5">
-        <f t="shared" ref="EY34:GD34" si="60">EX34*(1+$AC$97)</f>
-        <v>810211.02043688297</v>
+        <f t="shared" si="61"/>
+        <v>831308.87432485493</v>
       </c>
       <c r="EZ34" s="5">
-        <f t="shared" si="60"/>
-        <v>818313.1306412518</v>
+        <f t="shared" si="61"/>
+        <v>839621.96306810353</v>
       </c>
       <c r="FA34" s="5">
-        <f t="shared" si="60"/>
-        <v>826496.26194766432</v>
+        <f t="shared" si="61"/>
+        <v>848018.18269878463</v>
       </c>
       <c r="FB34" s="5">
-        <f t="shared" si="60"/>
-        <v>834761.22456714092</v>
+        <f t="shared" si="61"/>
+        <v>856498.36452577251</v>
       </c>
       <c r="FC34" s="5">
-        <f t="shared" si="60"/>
-        <v>843108.83681281237</v>
+        <f t="shared" si="61"/>
+        <v>865063.34817103029</v>
       </c>
       <c r="FD34" s="5">
-        <f t="shared" si="60"/>
-        <v>851539.92518094054</v>
+        <f t="shared" si="61"/>
+        <v>873713.98165274062</v>
       </c>
       <c r="FE34" s="5">
-        <f t="shared" si="60"/>
-        <v>860055.32443275</v>
+        <f t="shared" si="61"/>
+        <v>882451.12146926799</v>
       </c>
       <c r="FF34" s="5">
-        <f t="shared" si="60"/>
-        <v>868655.87767707754</v>
+        <f t="shared" si="61"/>
+        <v>891275.63268396072</v>
       </c>
       <c r="FG34" s="5">
-        <f t="shared" si="60"/>
-        <v>877342.43645384838</v>
+        <f t="shared" si="61"/>
+        <v>900188.38901080028</v>
       </c>
       <c r="FH34" s="5">
-        <f t="shared" si="60"/>
-        <v>886115.86081838689</v>
+        <f t="shared" si="61"/>
+        <v>909190.27290090825</v>
       </c>
       <c r="FI34" s="5">
-        <f t="shared" si="60"/>
-        <v>894977.01942657074</v>
+        <f t="shared" si="61"/>
+        <v>918282.1756299173</v>
       </c>
       <c r="FJ34" s="5">
-        <f t="shared" si="60"/>
-        <v>903926.7896208365</v>
+        <f t="shared" si="61"/>
+        <v>927464.99738621654</v>
       </c>
       <c r="FK34" s="5">
-        <f t="shared" si="60"/>
-        <v>912966.05751704483</v>
+        <f t="shared" si="61"/>
+        <v>936739.64736007876</v>
       </c>
       <c r="FL34" s="5">
-        <f t="shared" si="60"/>
-        <v>922095.71809221525</v>
+        <f t="shared" si="61"/>
+        <v>946107.04383367952</v>
       </c>
       <c r="FM34" s="5">
-        <f t="shared" si="60"/>
-        <v>931316.6752731374</v>
+        <f t="shared" si="61"/>
+        <v>955568.11427201633</v>
       </c>
       <c r="FN34" s="5">
-        <f t="shared" si="60"/>
-        <v>940629.84202586883</v>
+        <f t="shared" si="61"/>
+        <v>965123.79541473649</v>
       </c>
       <c r="FO34" s="5">
-        <f t="shared" si="60"/>
-        <v>950036.14044612751</v>
+        <f t="shared" si="61"/>
+        <v>974775.03336888389</v>
       </c>
       <c r="FP34" s="5">
-        <f t="shared" si="60"/>
-        <v>959536.50185058883</v>
+        <f t="shared" si="61"/>
+        <v>984522.78370257269</v>
       </c>
       <c r="FQ34" s="5">
-        <f t="shared" si="60"/>
-        <v>969131.86686909478</v>
+        <f t="shared" si="61"/>
+        <v>994368.01153959846</v>
       </c>
       <c r="FR34" s="5">
-        <f t="shared" si="60"/>
-        <v>978823.18553778576</v>
+        <f t="shared" si="61"/>
+        <v>1004311.6916549945</v>
       </c>
       <c r="FS34" s="5">
-        <f t="shared" si="60"/>
-        <v>988611.41739316366</v>
+        <f t="shared" si="61"/>
+        <v>1014354.8085715445</v>
       </c>
       <c r="FT34" s="5">
-        <f t="shared" si="60"/>
-        <v>998497.53156709531</v>
+        <f t="shared" si="61"/>
+        <v>1024498.35665726</v>
       </c>
       <c r="FU34" s="5">
-        <f t="shared" si="60"/>
-        <v>1008482.5068827663</v>
+        <f t="shared" si="61"/>
+        <v>1034743.3402238326</v>
       </c>
       <c r="FV34" s="5">
-        <f t="shared" si="60"/>
-        <v>1018567.331951594</v>
+        <f t="shared" si="61"/>
+        <v>1045090.7736260709</v>
       </c>
       <c r="FW34" s="5">
-        <f t="shared" si="60"/>
-        <v>1028753.00527111</v>
+        <f t="shared" si="61"/>
+        <v>1055541.6813623316</v>
       </c>
       <c r="FX34" s="5">
-        <f t="shared" si="60"/>
-        <v>1039040.5353238211</v>
+        <f t="shared" si="61"/>
+        <v>1066097.098175955</v>
       </c>
       <c r="FY34" s="5">
-        <f t="shared" si="60"/>
-        <v>1049430.9406770593</v>
+        <f t="shared" si="61"/>
+        <v>1076758.0691577145</v>
       </c>
       <c r="FZ34" s="5">
-        <f t="shared" si="60"/>
-        <v>1059925.25008383</v>
+        <f t="shared" si="61"/>
+        <v>1087525.6498492917</v>
       </c>
       <c r="GA34" s="5">
-        <f t="shared" si="60"/>
-        <v>1070524.5025846683</v>
+        <f t="shared" si="61"/>
+        <v>1098400.9063477847</v>
       </c>
       <c r="GB34" s="5">
-        <f t="shared" si="60"/>
-        <v>1081229.747610515</v>
+        <f t="shared" si="61"/>
+        <v>1109384.9154112625</v>
       </c>
       <c r="GC34" s="5">
-        <f t="shared" si="60"/>
-        <v>1092042.0450866201</v>
+        <f t="shared" si="61"/>
+        <v>1120478.7645653752</v>
       </c>
       <c r="GD34" s="5">
-        <f t="shared" si="60"/>
-        <v>1102962.4655374864</v>
+        <f t="shared" ref="GD34:HK34" si="62">GC34*(1+$AB$97)</f>
+        <v>1131683.552211029</v>
       </c>
       <c r="GE34" s="5">
-        <f t="shared" ref="GE34:HL34" si="61">GD34*(1+$AC$97)</f>
-        <v>1113992.0901928612</v>
+        <f t="shared" si="62"/>
+        <v>1143000.3877331393</v>
       </c>
       <c r="GF34" s="5">
-        <f t="shared" si="61"/>
-        <v>1125132.0110947897</v>
+        <f t="shared" si="62"/>
+        <v>1154430.3916104708</v>
       </c>
       <c r="GG34" s="5">
-        <f t="shared" si="61"/>
-        <v>1136383.3312057375</v>
+        <f t="shared" si="62"/>
+        <v>1165974.6955265754</v>
       </c>
       <c r="GH34" s="5">
-        <f t="shared" si="61"/>
-        <v>1147747.164517795</v>
+        <f t="shared" si="62"/>
+        <v>1177634.4424818412</v>
       </c>
       <c r="GI34" s="5">
-        <f t="shared" si="61"/>
-        <v>1159224.636162973</v>
+        <f t="shared" si="62"/>
+        <v>1189410.7869066596</v>
       </c>
       <c r="GJ34" s="5">
-        <f t="shared" si="61"/>
-        <v>1170816.8825246028</v>
+        <f t="shared" si="62"/>
+        <v>1201304.8947757261</v>
       </c>
       <c r="GK34" s="5">
-        <f t="shared" si="61"/>
-        <v>1182525.0513498487</v>
+        <f t="shared" si="62"/>
+        <v>1213317.9437234835</v>
       </c>
       <c r="GL34" s="5">
-        <f t="shared" si="61"/>
-        <v>1194350.3018633472</v>
+        <f t="shared" si="62"/>
+        <v>1225451.1231607182</v>
       </c>
       <c r="GM34" s="5">
-        <f t="shared" si="61"/>
-        <v>1206293.8048819806</v>
+        <f t="shared" si="62"/>
+        <v>1237705.6343923255</v>
       </c>
       <c r="GN34" s="5">
-        <f t="shared" si="61"/>
-        <v>1218356.7429308004</v>
+        <f t="shared" si="62"/>
+        <v>1250082.6907362489</v>
       </c>
       <c r="GO34" s="5">
-        <f t="shared" si="61"/>
-        <v>1230540.3103601085</v>
+        <f t="shared" si="62"/>
+        <v>1262583.5176436114</v>
       </c>
       <c r="GP34" s="5">
-        <f t="shared" si="61"/>
-        <v>1242845.7134637097</v>
+        <f t="shared" si="62"/>
+        <v>1275209.3528200476</v>
       </c>
       <c r="GQ34" s="5">
-        <f t="shared" si="61"/>
-        <v>1255274.1705983467</v>
+        <f t="shared" si="62"/>
+        <v>1287961.446348248</v>
       </c>
       <c r="GR34" s="5">
-        <f t="shared" si="61"/>
-        <v>1267826.9123043302</v>
+        <f t="shared" si="62"/>
+        <v>1300841.0608117306</v>
       </c>
       <c r="GS34" s="5">
-        <f t="shared" si="61"/>
-        <v>1280505.1814273736</v>
+        <f t="shared" si="62"/>
+        <v>1313849.4714198478</v>
       </c>
       <c r="GT34" s="5">
-        <f t="shared" si="61"/>
-        <v>1293310.2332416472</v>
+        <f t="shared" si="62"/>
+        <v>1326987.9661340462</v>
       </c>
       <c r="GU34" s="5">
-        <f t="shared" si="61"/>
-        <v>1306243.3355740637</v>
+        <f t="shared" si="62"/>
+        <v>1340257.8457953867</v>
       </c>
       <c r="GV34" s="5">
-        <f t="shared" si="61"/>
-        <v>1319305.7689298044</v>
+        <f t="shared" si="62"/>
+        <v>1353660.4242533406</v>
       </c>
       <c r="GW34" s="5">
-        <f t="shared" si="61"/>
-        <v>1332498.8266191024</v>
+        <f t="shared" si="62"/>
+        <v>1367197.028495874</v>
       </c>
       <c r="GX34" s="5">
-        <f t="shared" si="61"/>
-        <v>1345823.8148852934</v>
+        <f t="shared" si="62"/>
+        <v>1380868.9987808329</v>
       </c>
       <c r="GY34" s="5">
-        <f t="shared" si="61"/>
-        <v>1359282.0530341463</v>
+        <f t="shared" si="62"/>
+        <v>1394677.6887686411</v>
       </c>
       <c r="GZ34" s="5">
-        <f t="shared" si="61"/>
-        <v>1372874.8735644878</v>
+        <f t="shared" si="62"/>
+        <v>1408624.4656563275</v>
       </c>
       <c r="HA34" s="5">
-        <f t="shared" si="61"/>
-        <v>1386603.6223001326</v>
+        <f t="shared" si="62"/>
+        <v>1422710.7103128908</v>
       </c>
       <c r="HB34" s="5">
-        <f t="shared" si="61"/>
-        <v>1400469.658523134</v>
+        <f t="shared" si="62"/>
+        <v>1436937.8174160197</v>
       </c>
       <c r="HC34" s="5">
-        <f t="shared" si="61"/>
-        <v>1414474.3551083654</v>
+        <f t="shared" si="62"/>
+        <v>1451307.1955901799</v>
       </c>
       <c r="HD34" s="5">
-        <f t="shared" si="61"/>
-        <v>1428619.098659449</v>
+        <f t="shared" si="62"/>
+        <v>1465820.2675460817</v>
       </c>
       <c r="HE34" s="5">
-        <f t="shared" si="61"/>
-        <v>1442905.2896460434</v>
+        <f t="shared" si="62"/>
+        <v>1480478.4702215425</v>
       </c>
       <c r="HF34" s="5">
-        <f t="shared" si="61"/>
-        <v>1457334.342542504</v>
+        <f t="shared" si="62"/>
+        <v>1495283.2549237579</v>
       </c>
       <c r="HG34" s="5">
-        <f t="shared" si="61"/>
-        <v>1471907.685967929</v>
+        <f t="shared" si="62"/>
+        <v>1510236.0874729955</v>
       </c>
       <c r="HH34" s="5">
-        <f t="shared" si="61"/>
-        <v>1486626.7628276083</v>
+        <f t="shared" si="62"/>
+        <v>1525338.4483477254</v>
       </c>
       <c r="HI34" s="5">
-        <f t="shared" si="61"/>
-        <v>1501493.0304558843</v>
+        <f t="shared" si="62"/>
+        <v>1540591.8328312028</v>
       </c>
       <c r="HJ34" s="5">
-        <f t="shared" si="61"/>
-        <v>1516507.9607604432</v>
+        <f t="shared" si="62"/>
+        <v>1555997.7511595148</v>
       </c>
       <c r="HK34" s="5">
-        <f t="shared" si="61"/>
-        <v>1531673.0403680478</v>
-      </c>
-      <c r="HL34" s="5">
-        <f t="shared" si="61"/>
-        <v>1546989.7707717284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v>1571557.72867111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:219" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -4351,19 +4318,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" ref="C35:F35" si="62">C34/C36</f>
+        <f t="shared" ref="C35:F35" si="63">C34/C36</f>
         <v>1.439047320589157</v>
       </c>
       <c r="D35" s="8" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="8" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="8">
@@ -4379,19 +4346,19 @@
         <v>2.1662040816326531</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:M35" si="63">J34/J36</f>
+        <f t="shared" ref="J35:M35" si="64">J34/J36</f>
         <v>2.1026664030290991</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.0897288057788201</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.2392461439481317</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.4023083257864766</v>
       </c>
       <c r="N35" s="8"/>
@@ -4399,34 +4366,33 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="8">
+        <f t="shared" ref="R35:T35" si="65">T34/T36</f>
+        <v>8.1732244897959188</v>
+      </c>
       <c r="U35" s="8">
-        <f t="shared" ref="U35" si="64">U34/U36</f>
-        <v>8.1732244897959188</v>
+        <f t="shared" ref="U35" si="66">U34/U36</f>
+        <v>9.1186827082367206</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" ref="V35" si="65">V34/V36</f>
-        <v>9.1186827082367206</v>
+        <f t="shared" ref="V35" si="67">V34/V36</f>
+        <v>10.80306940811453</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" ref="W35" si="66">W34/W36</f>
-        <v>10.865393203487947</v>
+        <f t="shared" ref="W35" si="68">W34/W36</f>
+        <v>12.57295685263349</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" ref="X35" si="67">X34/X36</f>
-        <v>12.550771831198677</v>
+        <f t="shared" ref="X35" si="69">X34/X36</f>
+        <v>14.580949547012816</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" ref="Y35" si="68">Y34/Y36</f>
-        <v>14.451606704739371</v>
-      </c>
-      <c r="Z35" s="8">
-        <f t="shared" ref="Z35" si="69">Z34/Z36</f>
-        <v>16.596021189690532</v>
-      </c>
-    </row>
-    <row r="36" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Y35" si="70">Y34/Y36</f>
+        <v>16.859584891008449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:219" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4455,41 +4421,41 @@
       <c r="M36" s="2">
         <v>12250</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="T36" s="2">
+        <v>12250</v>
+      </c>
       <c r="U36" s="2">
-        <v>12250</v>
+        <f>T36*1.02</f>
+        <v>12495</v>
       </c>
       <c r="V36" s="2">
-        <f>U36*1.02</f>
-        <v>12495</v>
+        <f t="shared" ref="V36:Y36" si="71">U36*1.02</f>
+        <v>12744.9</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" ref="W36:Z36" si="70">V36*1.02</f>
-        <v>12744.9</v>
+        <f t="shared" si="71"/>
+        <v>12999.798000000001</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="70"/>
-        <v>12999.798000000001</v>
+        <f t="shared" si="71"/>
+        <v>13259.793960000001</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="70"/>
-        <v>13259.793960000001</v>
-      </c>
-      <c r="Z36" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>13524.989839200001</v>
       </c>
     </row>
-    <row r="37" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P37" s="2"/>
+    <row r="37" spans="1:219" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="2"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="1:220" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
@@ -4498,131 +4464,130 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6">
-        <f t="shared" ref="F38:M38" si="71">F22/B22-1</f>
+        <f t="shared" ref="F38:M38" si="72">F22/B22-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.13841766100895225</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.15802114653890631</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.19130734404314143</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.16940848375872064</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="P38" s="6">
+        <f t="shared" ref="P38:Y38" si="73">P22/O22-1</f>
+        <v>0.12770532012826141</v>
+      </c>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38:Z38" si="72">Q22/P22-1</f>
-        <v>0.12770532012826141</v>
+        <f t="shared" si="73"/>
+        <v>0.41150076427049154</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="72"/>
-        <v>0.41150076427049154</v>
+        <f t="shared" si="73"/>
+        <v>9.7808156437157789E-2</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="72"/>
-        <v>9.7808156437157789E-2</v>
+        <f t="shared" si="73"/>
+        <v>8.6827702272695095E-2</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="72"/>
-        <v>8.6827702272695095E-2</v>
+        <f t="shared" si="73"/>
+        <v>0.13866243322901561</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="72"/>
-        <v>0.13866243322901561</v>
+        <f t="shared" si="73"/>
+        <v>0.16504303111188579</v>
       </c>
       <c r="V38" s="6">
-        <f t="shared" si="72"/>
-        <v>0.16504303111188579</v>
+        <f t="shared" si="73"/>
+        <v>0.11875127619067283</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" si="72"/>
-        <v>0.11875127619067283</v>
+        <f t="shared" si="73"/>
+        <v>0.12051303986115847</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="72"/>
-        <v>0.12051303986115847</v>
+        <f t="shared" si="73"/>
+        <v>0.1222592095586934</v>
       </c>
       <c r="Y38" s="6">
-        <f t="shared" si="72"/>
-        <v>0.1222592095586934</v>
-      </c>
-      <c r="Z38" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.12399397442452242</v>
       </c>
     </row>
-    <row r="39" spans="1:220" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:219" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" ref="C39:M39" si="73">C22/B22-1</f>
+        <f t="shared" ref="C39:M39" si="74">C22/B22-1</f>
         <v>6.9024316849843004E-2</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.8001179561417677E-2</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.12539605961430644</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-6.6863631097207721E-2</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5.218589751548941E-2</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4.1608647423945655E-2</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>9.2910227942176071E-2</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-4.9570120971503706E-2</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.0304477122279607E-2</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.1548680266953602E-2</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.2820123986388374E-2</v>
       </c>
       <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
@@ -4631,43 +4596,42 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AC39" s="6"/>
-    </row>
-    <row r="40" spans="1:220" x14ac:dyDescent="0.25">
+      <c r="AB39" s="6"/>
+    </row>
+    <row r="40" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" ref="B40:I40" si="74">B33/B32</f>
+        <f t="shared" ref="B40:I40" si="75">B33/B32</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.16432986049796927</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.14271714275343908</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.17047246577934777</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.17699965884067859</v>
       </c>
       <c r="J40" s="3">
@@ -4683,30 +4647,32 @@
         <v>0.19</v>
       </c>
       <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="O40" s="3">
+        <f t="shared" ref="O40:T40" si="76">O33/O32</f>
+        <v>0.13329968454258675</v>
+      </c>
       <c r="P40" s="3">
-        <f t="shared" ref="P40:U40" si="75">P33/P32</f>
-        <v>0.13329968454258675</v>
+        <f t="shared" si="76"/>
+        <v>0.16249324071378063</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="75"/>
-        <v>0.16249324071378063</v>
+        <f t="shared" si="76"/>
+        <v>0.18676474324770689</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="75"/>
-        <v>0.18676474324770689</v>
+        <f t="shared" si="76"/>
+        <v>0.15173298415328293</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="75"/>
-        <v>0.15173298415328293</v>
+        <f t="shared" si="76"/>
+        <v>0.13879413716427816</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="75"/>
-        <v>0.13879413716427816</v>
+        <f t="shared" si="76"/>
+        <v>0.16438962101169263</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="75"/>
-        <v>0.16438962101169263</v>
+        <v>0.19</v>
       </c>
       <c r="V40" s="3">
         <v>0.19</v>
@@ -4720,11 +4686,8 @@
       <c r="Y40" s="3">
         <v>0.19</v>
       </c>
-      <c r="Z40" s="3">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:220" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:219" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -4749,141 +4712,139 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:220" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" ref="B42:M42" si="76">B34/B22</f>
+        <f t="shared" ref="B42:M42" si="77">B34/B22</f>
         <v>0.21567054035851949</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.2462066377137955</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.25672486406842865</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.23968253968253969</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.29379555246526529</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.27871657501593072</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.29796755336022113</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.27507282132083882</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.28093031529551798</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.26086199919145003</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.26086199919145009</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.26086199919145003</v>
       </c>
       <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="O42" s="3">
+        <f t="shared" ref="O42:Y42" si="78">O34/O22</f>
+        <v>0.21218112284300339</v>
+      </c>
       <c r="P42" s="3">
-        <f t="shared" ref="P42:Z42" si="77">P34/P22</f>
-        <v>0.21218112284300339</v>
+        <f t="shared" si="78"/>
+        <v>0.22061941520980458</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.22061941520980458</v>
+        <f t="shared" si="78"/>
+        <v>0.24846198333313926</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.24846198333313926</v>
+        <f t="shared" si="78"/>
+        <v>0.2244622325305124</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.2244622325305124</v>
+        <f t="shared" si="78"/>
+        <v>0.24065206217427795</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.24065206217427795</v>
+        <f t="shared" si="78"/>
+        <v>0.28604814609534368</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.28604814609534368</v>
+        <f t="shared" si="78"/>
+        <v>0.27940618754047103</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.27940618754047103</v>
+        <f t="shared" si="78"/>
+        <v>0.30179893961493709</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.30354004250393152</v>
+        <f t="shared" si="78"/>
+        <v>0.31973577001896186</v>
       </c>
       <c r="X42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.31917159525923849</v>
+        <f t="shared" si="78"/>
+        <v>0.33701295899666989</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.33402342708319149</v>
-      </c>
-      <c r="Z42" s="3">
-        <f t="shared" si="77"/>
-        <v>0.34809754715218444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:220" x14ac:dyDescent="0.25">
+        <f t="shared" si="78"/>
+        <v>0.35362573230563016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:I43" si="78">B24/B22</f>
+        <f t="shared" ref="B43:I43" si="79">B24/B22</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.58142018152696207</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.58099879634655782</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.58678116644763678</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.5790046543449191</v>
       </c>
       <c r="J43" s="6">
@@ -4899,147 +4860,150 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
+      <c r="O43" s="6">
+        <f t="shared" ref="O43:T43" si="80">O24/O22</f>
+        <v>0.5558054331910266</v>
+      </c>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:U43" si="79">P24/P22</f>
-        <v>0.5558054331910266</v>
+        <f t="shared" si="80"/>
+        <v>0.53578374706207854</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="79"/>
-        <v>0.53578374706207854</v>
+        <f t="shared" si="80"/>
+        <v>0.5693980290098084</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="79"/>
-        <v>0.5693980290098084</v>
+        <f t="shared" si="80"/>
+        <v>0.55379442503783116</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="79"/>
-        <v>0.55379442503783116</v>
+        <f t="shared" si="80"/>
+        <v>0.56625047984020505</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="79"/>
-        <v>0.56625047984020505</v>
+        <f t="shared" si="80"/>
+        <v>0.58201578204549476</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="79"/>
-        <v>0.58201578204549476</v>
+        <f>T43*1.005</f>
+        <v>0.58492586095572219</v>
       </c>
       <c r="V43" s="6">
-        <v>0.59</v>
+        <f t="shared" ref="V43:Y43" si="81">U43*1.005</f>
+        <v>0.58785049026050074</v>
       </c>
       <c r="W43" s="6">
-        <v>0.59</v>
+        <f t="shared" si="81"/>
+        <v>0.59078974271180318</v>
       </c>
       <c r="X43" s="6">
-        <v>0.59</v>
+        <f t="shared" si="81"/>
+        <v>0.5937436914253621</v>
       </c>
       <c r="Y43" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="Z43" s="6">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:220" x14ac:dyDescent="0.25">
+        <f t="shared" si="81"/>
+        <v>0.59671240988248886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:M44" si="80">B29/B22</f>
+        <f t="shared" ref="B44:M44" si="82">B29/B22</f>
         <v>0.24954504420594092</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.29271888906761029</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.27829136948613303</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.27455683003128256</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.31626913669154072</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.32362936914398999</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.32311823084243441</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.32105650519856122</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.32205185085364207</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="O44" s="3">
+        <f t="shared" ref="O44:Y44" si="83">O29/O22</f>
+        <v>0.21148915400631421</v>
+      </c>
       <c r="P44" s="3">
-        <f t="shared" ref="P44:Z44" si="81">P29/P22</f>
-        <v>0.21148915400631421</v>
+        <f t="shared" si="83"/>
+        <v>0.22585151785763202</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.22585151785763202</v>
+        <f t="shared" si="83"/>
+        <v>0.3055228868524319</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.3055228868524319</v>
+        <f t="shared" si="83"/>
+        <v>0.26461270842467011</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.26461270842467011</v>
+        <f t="shared" si="83"/>
+        <v>0.27480367216015927</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.27480367216015927</v>
+        <f t="shared" si="83"/>
+        <v>0.32110920009828064</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.32110920009828064</v>
+        <f t="shared" si="83"/>
+        <v>0.32854897813117273</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.32854897813117273</v>
+        <f t="shared" si="83"/>
+        <v>0.34291485705708352</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.34506436679658281</v>
+        <f t="shared" si="83"/>
+        <v>0.35205883090981221</v>
       </c>
       <c r="X44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.35126908819800912</v>
+        <f t="shared" si="83"/>
+        <v>0.36091523264386211</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.35717154121850003</v>
-      </c>
-      <c r="Z44" s="3">
-        <f t="shared" si="81"/>
-        <v>0.36278065957451672</v>
-      </c>
-    </row>
-    <row r="45" spans="1:220" x14ac:dyDescent="0.25">
+        <f t="shared" si="83"/>
+        <v>0.36949306945700555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>107</v>
       </c>
@@ -5059,53 +5023,52 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="O45" s="3">
+        <f>O103/O22</f>
+        <v>0</v>
+      </c>
       <c r="P45" s="3">
         <f>P103/P22</f>
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <f>Q103/Q22</f>
+        <f t="shared" ref="Q45:Y45" si="84">Q103/Q22</f>
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" ref="R45:Z45" si="82">R103/R22</f>
-        <v>0</v>
+        <f t="shared" si="84"/>
+        <v>0.21217242500954617</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="82"/>
-        <v>0.21217242500954617</v>
+        <f t="shared" si="84"/>
+        <v>0.22607793255561268</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="82"/>
-        <v>0.22607793255561268</v>
+        <f t="shared" si="84"/>
+        <v>0.20354381774651589</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="82"/>
-        <v>0.20354381774651589</v>
+        <f t="shared" si="84"/>
+        <v>0.1560927529214847</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="82"/>
-        <v>0.1560927529214847</v>
+        <f t="shared" si="84"/>
+        <v>0.20382846243035221</v>
       </c>
       <c r="W45" s="3">
-        <f t="shared" si="82"/>
-        <v>0.20556956531934664</v>
+        <f t="shared" si="84"/>
+        <v>0.24323440982502903</v>
       </c>
       <c r="X45" s="3">
-        <f t="shared" si="82"/>
-        <v>0.24267023506530563</v>
+        <f t="shared" si="84"/>
+        <v>0.27863960803323556</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="82"/>
-        <v>0.27565007611975717</v>
-      </c>
-      <c r="Z45" s="3">
-        <f t="shared" si="82"/>
-        <v>0.30497721764886399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:220" x14ac:dyDescent="0.25">
+        <f t="shared" si="84"/>
+        <v>0.31050540280230976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:219" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5130,147 +5093,145 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:220" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:M47" si="83">C19/B19-1</f>
+        <f t="shared" ref="C47:M47" si="85">C19/B19-1</f>
         <v>6.9785833023998878E-2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2.5661914460285207E-2</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0.12245168122848815</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-7.7485552541573299E-2</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>5.014346998494279E-2</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>3.4925873823179243E-2</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>9.9124297477453993E-2</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-7.357457131305456E-2</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>6.2015674622581507E-2</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>6.3015078053849427E-2</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>6.4054389239795784E-2</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="P47" s="3">
+        <f t="shared" ref="P47:Y47" si="86">P19/O19-1</f>
+        <v>0.12770532012826141</v>
+      </c>
       <c r="Q47" s="3">
-        <f t="shared" ref="Q47:Z47" si="84">Q19/P19-1</f>
-        <v>0.12770532012826141</v>
+        <f t="shared" si="86"/>
+        <v>0.41150076427049154</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="84"/>
-        <v>0.41150076427049154</v>
+        <f t="shared" si="86"/>
+        <v>-1.5948796174462543E-2</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="84"/>
-        <v>-1.5948796174462543E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.5001577735003711E-2</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="84"/>
-        <v>7.5001577735003711E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.11883262457667221</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="84"/>
-        <v>0.11883262457667221</v>
+        <f t="shared" si="86"/>
+        <v>0.12216850224681064</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="84"/>
-        <v>0.12216850224681064</v>
+        <f t="shared" si="86"/>
+        <v>0.10388001480843156</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="84"/>
-        <v>0.10388001480843156</v>
+        <f t="shared" si="86"/>
+        <v>0.10466896434707929</v>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="84"/>
-        <v>0.10466896434707929</v>
+        <f t="shared" si="86"/>
+        <v>0.10539802685306121</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="84"/>
-        <v>0.10539802685306121</v>
-      </c>
-      <c r="Z47" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0.10607098023462114</v>
       </c>
-      <c r="AC47" s="8"/>
-    </row>
-    <row r="48" spans="1:220" x14ac:dyDescent="0.25">
+      <c r="AB47" s="8"/>
+    </row>
+    <row r="48" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ref="C48:M48" si="85">C20/B20-1</f>
+        <f t="shared" ref="C48:M48" si="87">C20/B20-1</f>
         <v>7.7408103031929132E-2</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>4.731664798904256E-2</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>9.2854595172987775E-2</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>4.155787641427322E-2</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>8.0739502820137865E-2</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>9.7226249154344302E-2</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>5.3025631991544087E-2</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="N48" s="3"/>
@@ -5278,141 +5239,140 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
+      <c r="S48" s="3">
+        <f t="shared" ref="S48:Y48" si="88">S20/R20-1</f>
+        <v>0.25905631659056327</v>
+      </c>
       <c r="T48" s="3">
-        <f t="shared" ref="T48:Z48" si="86">T20/S20-1</f>
-        <v>0.25905631659056327</v>
+        <f t="shared" si="88"/>
+        <v>0.30648573500967125</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="86"/>
-        <v>0.30648573500967125</v>
+        <f t="shared" si="88"/>
+        <v>0.48033242010687305</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="86"/>
-        <v>0.48033242010687305</v>
+        <f t="shared" si="88"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="W48" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="X48" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="Z48" s="3">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AC48" s="8"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB48" s="8"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" ref="B49:M49" si="87">B20/B22</f>
+        <f t="shared" ref="B49:M49" si="89">B20/B22</f>
         <v>0.10681072406035508</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.10764838346469358</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.10967102603888229</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.10649982620785541</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.11887408584660848</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.1221000212409431</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.12861965831331854</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.12392582072997543</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.14603593834765272</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.1528165624319674</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.15972634101995625</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>0.16675069561299613</v>
       </c>
+      <c r="O49" s="3">
+        <f t="shared" ref="O49:Y49" si="90">O20/O22</f>
+        <v>0</v>
+      </c>
       <c r="P49" s="3">
-        <f t="shared" ref="P49:Z49" si="88">P20/P22</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>9.2916036148156522E-2</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="88"/>
-        <v>9.2916036148156522E-2</v>
+        <f t="shared" si="90"/>
+        <v>0.10764035732642797</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="88"/>
-        <v>0.10764035732642797</v>
+        <f t="shared" si="90"/>
+        <v>0.12350507688176036</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="88"/>
-        <v>0.12350507688176036</v>
+        <f t="shared" si="90"/>
+        <v>0.15692859789168051</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="88"/>
-        <v>0.15692859789168051</v>
+        <f t="shared" si="90"/>
+        <v>0.16832545488683004</v>
       </c>
       <c r="W49" s="3">
-        <f t="shared" si="88"/>
-        <v>0.16832545488683004</v>
+        <f t="shared" si="90"/>
+        <v>0.18026612692452421</v>
       </c>
       <c r="X49" s="3">
-        <f t="shared" si="88"/>
-        <v>0.18026612692452421</v>
+        <f t="shared" si="90"/>
+        <v>0.19275346592565937</v>
       </c>
       <c r="Y49" s="3">
-        <f t="shared" si="88"/>
-        <v>0.19275346592565937</v>
-      </c>
-      <c r="Z49" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>0.20578772161943079</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -5423,37 +5383,37 @@
         <v>47375</v>
       </c>
       <c r="J51" s="3"/>
+      <c r="R51" s="2">
+        <v>134814</v>
+      </c>
       <c r="S51" s="2">
-        <v>134814</v>
+        <v>146286</v>
       </c>
       <c r="T51" s="2">
-        <v>146286</v>
+        <v>170447</v>
       </c>
       <c r="U51" s="2">
-        <v>170447</v>
+        <f>T51*(1+U38)</f>
+        <v>198578.0895239276</v>
       </c>
       <c r="V51" s="2">
-        <f>U51*(1+V38)</f>
-        <v>198578.0895239276</v>
+        <f t="shared" ref="V51:Y51" si="91">U51*(1+V38)</f>
+        <v>222159.49107839967</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" ref="W51:Z51" si="89">V51*(1+W38)</f>
-        <v>222159.49107839967</v>
+        <f t="shared" si="91"/>
+        <v>248932.60668226553</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="89"/>
-        <v>248932.60668226553</v>
+        <f t="shared" si="91"/>
+        <v>279366.91040862445</v>
       </c>
       <c r="Y51" s="2">
-        <f t="shared" si="89"/>
-        <v>279366.91040862445</v>
-      </c>
-      <c r="Z51" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>314006.72395288927</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -5464,37 +5424,37 @@
         <v>28184</v>
       </c>
       <c r="J52" s="3"/>
+      <c r="R52" s="2">
+        <v>82062</v>
+      </c>
       <c r="S52" s="2">
-        <v>82062</v>
+        <v>91038</v>
       </c>
       <c r="T52" s="2">
-        <v>91038</v>
+        <v>102127</v>
       </c>
       <c r="U52" s="2">
-        <v>102127</v>
+        <f>T52*(1+U38)</f>
+        <v>118982.34963836356</v>
       </c>
       <c r="V52" s="2">
-        <f>U52*(1+V38)</f>
-        <v>118982.34963836356</v>
+        <f t="shared" ref="V52:Y52" si="92">U52*(1+V38)</f>
+        <v>133111.65550208409</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" ref="W52:Z52" si="90">V52*(1+W38)</f>
-        <v>133111.65550208409</v>
+        <f t="shared" si="92"/>
+        <v>149153.34574759155</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" si="90"/>
-        <v>149153.34574759155</v>
+        <f t="shared" si="92"/>
+        <v>167388.71590172659</v>
       </c>
       <c r="Y52" s="2">
-        <f t="shared" si="90"/>
-        <v>167388.71590172659</v>
-      </c>
-      <c r="Z52" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>188143.90806019894</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
@@ -5505,37 +5465,37 @@
         <v>15156</v>
       </c>
       <c r="J53" s="3"/>
+      <c r="R53" s="2">
+        <v>47024</v>
+      </c>
       <c r="S53" s="2">
-        <v>47024</v>
+        <v>51514</v>
       </c>
       <c r="T53" s="2">
-        <v>51514</v>
+        <v>56815</v>
       </c>
       <c r="U53" s="2">
-        <v>56815</v>
+        <f>T53*(1+U38)</f>
+        <v>66191.919812621796</v>
       </c>
       <c r="V53" s="2">
-        <f>U53*(1+V38)</f>
-        <v>66191.919812621796</v>
+        <f t="shared" ref="V53:Y53" si="93">U53*(1+V38)</f>
+        <v>74052.29476388132</v>
       </c>
       <c r="W53" s="2">
-        <f t="shared" ref="W53:Z53" si="91">V53*(1+W38)</f>
-        <v>74052.29476388132</v>
+        <f t="shared" si="93"/>
+        <v>82976.561914571212</v>
       </c>
       <c r="X53" s="2">
-        <f t="shared" si="91"/>
-        <v>82976.561914571212</v>
+        <f t="shared" si="93"/>
+        <v>93121.210786144671</v>
       </c>
       <c r="Y53" s="2">
-        <f t="shared" si="91"/>
-        <v>93121.210786144671</v>
-      </c>
-      <c r="Z53" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>104667.67981474246</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>87</v>
       </c>
@@ -5547,134 +5507,134 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
+      <c r="R54" s="2">
+        <v>16976</v>
+      </c>
       <c r="S54" s="2">
-        <v>16976</v>
+        <v>18320</v>
       </c>
       <c r="T54" s="2">
-        <v>18320</v>
+        <v>20418</v>
       </c>
       <c r="U54" s="2">
-        <v>20418</v>
+        <f>T54*(1+U38)</f>
+        <v>23787.848609242483</v>
       </c>
       <c r="V54" s="2">
-        <f>U54*(1+V38)</f>
-        <v>23787.848609242483</v>
+        <f t="shared" ref="V54:Y54" si="94">U54*(1+V38)</f>
+        <v>26612.685989420548</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" ref="W54:Z54" si="92">V54*(1+W38)</f>
-        <v>26612.685989420548</v>
+        <f t="shared" si="94"/>
+        <v>29819.86167687608</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="92"/>
-        <v>29819.86167687608</v>
+        <f t="shared" si="94"/>
+        <v>33465.614394640521</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="92"/>
-        <v>33465.614394640521</v>
-      </c>
-      <c r="Z54" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>37615.148929990508</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" ref="B56:M56" si="93">B58-B73</f>
+        <f t="shared" ref="B56:M56" si="95">B58-B73</f>
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>84774</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>72414.663437106472</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>115013.84130789702</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>142444.60657126163</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>171872.88356214596</v>
       </c>
+      <c r="O56" s="2">
+        <f t="shared" ref="O56:T56" si="96">O58-O73</f>
+        <v>0</v>
+      </c>
       <c r="P56" s="2">
-        <f t="shared" ref="P56:Y56" si="94">P58-P73</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="94"/>
-        <v>0</v>
+        <f t="shared" si="96"/>
+        <v>99046</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="94"/>
-        <v>99046</v>
+        <f t="shared" si="96"/>
+        <v>84774</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" si="94"/>
-        <v>84774</v>
+        <f>T56+U34</f>
+        <v>198711.94043941784</v>
       </c>
       <c r="V56" s="2">
         <f>U56+V34</f>
-        <v>198711.94043941784</v>
+        <v>336395.97973889671</v>
       </c>
       <c r="W56" s="2">
         <f>V56+W34</f>
-        <v>337190.2902785514</v>
+        <v>499841.87908584788</v>
       </c>
       <c r="X56" s="2">
         <f>W56+X34</f>
-        <v>500347.78882822429</v>
+        <v>693182.26582039311</v>
       </c>
       <c r="Y56" s="2">
         <f>X56+Y34</f>
-        <v>691973.11612402298</v>
-      </c>
-      <c r="Z56" s="2">
-        <f>Y56+Z34</f>
-        <v>916434.13408573531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+        <v>921207.98016441229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
@@ -5687,47 +5647,47 @@
         <v>89414.663437106472</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" ref="K58:M58" si="95">J58+K34+K100</f>
+        <f t="shared" ref="K58:M58" si="97">J58+K34+K100</f>
         <v>115013.84130789702</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>142444.60657126163</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>171872.88356214596</v>
       </c>
-      <c r="T58" s="2">
+      <c r="S58" s="2">
         <f>24048+86868</f>
         <v>110916</v>
       </c>
-      <c r="U58" s="2">
+      <c r="T58" s="2">
         <f>23466+72191</f>
         <v>95657</v>
       </c>
+      <c r="U58" s="2">
+        <f>T58+U34+U100</f>
+        <v>206180.19931522891</v>
+      </c>
       <c r="V58" s="2">
-        <f>U58+V34+V100</f>
-        <v>206180.19931522891</v>
+        <f t="shared" ref="V58" si="98">U58+V34+V100</f>
+        <v>340043.99262416066</v>
       </c>
       <c r="W58" s="2">
-        <f t="shared" ref="W58" si="96">V58+W34+W100</f>
-        <v>340838.30316381529</v>
+        <f t="shared" ref="W58" si="99">V58+W34+W100</f>
+        <v>499209.25652322645</v>
       </c>
       <c r="X58" s="2">
-        <f t="shared" ref="X58" si="97">W58+X34+X100</f>
-        <v>499715.16626560281</v>
+        <f t="shared" ref="X58:Y58" si="100">W58+X34+X100</f>
+        <v>687745.66070361901</v>
       </c>
       <c r="Y58" s="2">
-        <f t="shared" ref="Y58:Z58" si="98">X58+Y34+Y100</f>
-        <v>686536.51100724877</v>
-      </c>
-      <c r="Z58" s="2">
-        <f t="shared" si="98"/>
-        <v>905597.88152485294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="100"/>
+        <v>910371.72760352993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -5739,215 +5699,215 @@
         <v>55012.212</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" ref="K59:M59" si="99">K80*K22/90</f>
+        <f t="shared" ref="K59:M59" si="101">K80*K22/90</f>
         <v>58879.816800000001</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>63092.589986400009</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>67687.000211832026</v>
       </c>
+      <c r="S59" s="2">
+        <v>47964</v>
+      </c>
       <c r="T59" s="2">
-        <v>47964</v>
+        <v>52340</v>
       </c>
       <c r="U59" s="2">
-        <v>52340</v>
+        <f>U80*U22/360</f>
+        <v>61167.904749558009</v>
       </c>
       <c r="V59" s="2">
-        <f>V80*V22/360</f>
-        <v>61167.904749558009</v>
+        <f t="shared" ref="V59:Y59" si="102">V80*V22/360</f>
+        <v>68431.671500477532</v>
       </c>
       <c r="W59" s="2">
-        <f t="shared" ref="W59:Z59" si="100">W80*W22/360</f>
-        <v>68431.671500477532</v>
+        <f t="shared" si="102"/>
+        <v>76678.580255780282</v>
       </c>
       <c r="X59" s="2">
-        <f t="shared" si="100"/>
-        <v>76678.580255780282</v>
+        <f t="shared" si="102"/>
+        <v>86053.242867934823</v>
       </c>
       <c r="Y59" s="2">
-        <f t="shared" si="100"/>
-        <v>86053.242867934823</v>
-      </c>
-      <c r="Z59" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>96723.326463248741</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I60" s="2">
         <v>37982</v>
       </c>
+      <c r="S60" s="2">
+        <v>31008</v>
+      </c>
       <c r="T60" s="2">
-        <v>31008</v>
+        <v>37982</v>
       </c>
       <c r="U60" s="2">
-        <v>37982</v>
+        <f>T60*(1+U38)</f>
+        <v>44250.664407691649</v>
       </c>
       <c r="V60" s="2">
-        <f>U60*(1+V38)</f>
-        <v>44250.664407691649</v>
+        <f t="shared" ref="V60:Y60" si="103">U60*(1+V38)</f>
+        <v>49505.487278390217</v>
       </c>
       <c r="W60" s="2">
-        <f t="shared" ref="W60:Z60" si="101">V60*(1+W38)</f>
-        <v>49505.487278390217</v>
+        <f t="shared" si="103"/>
+        <v>55471.544040116933</v>
       </c>
       <c r="X60" s="2">
-        <f t="shared" si="101"/>
-        <v>55471.544040116933</v>
+        <f t="shared" si="103"/>
+        <v>62253.451167461877</v>
       </c>
       <c r="Y60" s="2">
-        <f t="shared" si="101"/>
-        <v>62253.451167461877</v>
-      </c>
-      <c r="Z60" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>69972.503999358407</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I61" s="2">
         <v>17180</v>
       </c>
+      <c r="S61" s="2">
+        <v>12169</v>
+      </c>
       <c r="T61" s="2">
-        <v>12169</v>
+        <v>17180</v>
       </c>
       <c r="U61" s="2">
-        <v>17180</v>
+        <f>T61*(1+U38)</f>
+        <v>20015.439274502198</v>
       </c>
       <c r="V61" s="2">
-        <f>U61*(1+V38)</f>
-        <v>20015.439274502198</v>
+        <f t="shared" ref="V61:Y61" si="104">U61*(1+V38)</f>
+        <v>22392.298231866247</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" ref="W61:Z61" si="102">V61*(1+W38)</f>
-        <v>22392.298231866247</v>
+        <f t="shared" si="104"/>
+        <v>25090.862161266094</v>
       </c>
       <c r="X61" s="2">
-        <f t="shared" si="102"/>
-        <v>25090.862161266094</v>
+        <f t="shared" si="104"/>
+        <v>28158.451136248616</v>
       </c>
       <c r="Y61" s="2">
-        <f t="shared" si="102"/>
-        <v>28158.451136248616</v>
-      </c>
-      <c r="Z61" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>31649.929406270792</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I62" s="2">
         <v>171036</v>
       </c>
+      <c r="S62" s="2">
+        <v>134345</v>
+      </c>
       <c r="T62" s="2">
-        <v>134345</v>
+        <v>171036</v>
       </c>
       <c r="U62" s="2">
-        <v>171036</v>
+        <f>T62*(1+U38)</f>
+        <v>199264.29986925249</v>
       </c>
       <c r="V62" s="2">
-        <f>U62*(1+V38)</f>
-        <v>199264.29986925249</v>
+        <f t="shared" ref="V62:Y62" si="105">U62*(1+V38)</f>
+        <v>222927.18977796714</v>
       </c>
       <c r="W62" s="2">
-        <f t="shared" ref="W62:Z62" si="103">V62*(1+W38)</f>
-        <v>222927.18977796714</v>
+        <f t="shared" si="105"/>
+        <v>249792.82308581533</v>
       </c>
       <c r="X62" s="2">
-        <f t="shared" si="103"/>
-        <v>249792.82308581533</v>
+        <f t="shared" si="105"/>
+        <v>280332.29618972167</v>
       </c>
       <c r="Y62" s="2">
-        <f t="shared" si="103"/>
-        <v>280332.29618972167</v>
-      </c>
-      <c r="Z62" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>315091.81175383768</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I63" s="2">
         <v>13588</v>
       </c>
+      <c r="S63" s="2">
+        <v>14091</v>
+      </c>
       <c r="T63" s="2">
-        <v>14091</v>
+        <v>13588</v>
       </c>
       <c r="U63" s="2">
-        <v>13588</v>
+        <f>T63*(1+U38)</f>
+        <v>15830.604706748303</v>
       </c>
       <c r="V63" s="2">
-        <f>U63*(1+V38)</f>
-        <v>15830.604706748303</v>
+        <f t="shared" ref="V63:Y63" si="106">U63*(1+V38)</f>
+        <v>17710.509218544736</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" ref="W63:Z63" si="104">V63*(1+W38)</f>
-        <v>17710.509218544736</v>
+        <f t="shared" si="106"/>
+        <v>19844.856521960632</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="104"/>
-        <v>19844.856521960632</v>
+        <f t="shared" si="106"/>
+        <v>22271.072994141221</v>
       </c>
       <c r="Y63" s="2">
-        <f t="shared" si="104"/>
-        <v>22271.072994141221</v>
-      </c>
-      <c r="Z63" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>25032.551849383439</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I64" s="2">
         <v>31885</v>
       </c>
+      <c r="S64" s="2">
+        <v>29198</v>
+      </c>
       <c r="T64" s="2">
-        <v>29198</v>
+        <v>31885</v>
       </c>
       <c r="U64" s="2">
-        <v>31885</v>
+        <f>T64*(1+U38)</f>
+        <v>37147.39704700248</v>
       </c>
       <c r="V64" s="2">
-        <f>U64*(1+V38)</f>
-        <v>37147.39704700248</v>
+        <f t="shared" ref="V64:Y64" si="107">U64*(1+V38)</f>
+        <v>41558.697853495658</v>
       </c>
       <c r="W64" s="2">
-        <f t="shared" ref="W64:Z64" si="105">V64*(1+W38)</f>
-        <v>41558.697853495658</v>
+        <f t="shared" si="107"/>
+        <v>46567.062864491818</v>
       </c>
       <c r="X64" s="2">
-        <f t="shared" si="105"/>
-        <v>46567.062864491818</v>
+        <f t="shared" si="107"/>
+        <v>52260.315161774575</v>
       </c>
       <c r="Y64" s="2">
-        <f t="shared" si="105"/>
-        <v>52260.315161774575</v>
-      </c>
-      <c r="Z64" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>58740.279343361137</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
@@ -5955,36 +5915,36 @@
         <f>15714+14874</f>
         <v>30588</v>
       </c>
-      <c r="T65" s="2">
+      <c r="S65" s="2">
         <f>12650+10051</f>
         <v>22701</v>
       </c>
-      <c r="U65" s="2">
+      <c r="T65" s="2">
         <f>15714+14874</f>
         <v>30588</v>
       </c>
+      <c r="U65" s="2">
+        <f>T65*(1+U38)</f>
+        <v>35636.336235650364</v>
+      </c>
       <c r="V65" s="2">
-        <f>U65*(1+V38)</f>
-        <v>35636.336235650364</v>
+        <f t="shared" ref="V65:Y65" si="108">U65*(1+V38)</f>
+        <v>39868.196642393763</v>
       </c>
       <c r="W65" s="2">
-        <f t="shared" ref="W65:Z65" si="106">V65*(1+W38)</f>
-        <v>39868.196642393763</v>
+        <f t="shared" si="108"/>
+        <v>44672.834213551068</v>
       </c>
       <c r="X65" s="2">
-        <f t="shared" si="106"/>
-        <v>44672.834213551068</v>
+        <f t="shared" si="108"/>
+        <v>50134.499613246378</v>
       </c>
       <c r="Y65" s="2">
-        <f t="shared" si="106"/>
-        <v>50134.499613246378</v>
-      </c>
-      <c r="Z65" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>56350.875476077483</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>59</v>
       </c>
@@ -5992,206 +5952,206 @@
         <f>SUM(I58:I65)</f>
         <v>450256</v>
       </c>
+      <c r="S66" s="2">
+        <f>SUM(S58:S65)</f>
+        <v>402392</v>
+      </c>
       <c r="T66" s="2">
         <f>SUM(T58:T65)</f>
-        <v>402392</v>
+        <v>450256</v>
       </c>
       <c r="U66" s="2">
-        <f>SUM(U58:U65)</f>
-        <v>450256</v>
+        <f t="shared" ref="U66:Y66" si="109">SUM(U58:U65)</f>
+        <v>619492.84560563439</v>
       </c>
       <c r="V66" s="2">
-        <f t="shared" ref="V66:Z66" si="107">SUM(V58:V65)</f>
-        <v>619492.84560563439</v>
+        <f t="shared" si="109"/>
+        <v>802438.04312729579</v>
       </c>
       <c r="W66" s="2">
-        <f t="shared" si="107"/>
-        <v>803232.35366695048</v>
+        <f t="shared" si="109"/>
+        <v>1017327.8196662086</v>
       </c>
       <c r="X66" s="2">
-        <f t="shared" si="107"/>
-        <v>1017833.7294085849</v>
+        <f t="shared" si="109"/>
+        <v>1269208.9898341484</v>
       </c>
       <c r="Y66" s="2">
-        <f t="shared" si="107"/>
-        <v>1267999.8401377781</v>
-      </c>
-      <c r="Z66" s="2">
-        <f t="shared" si="107"/>
-        <v>1559159.1598163904</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="109"/>
+        <v>1563933.0058950675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I68" s="2">
         <v>7987</v>
       </c>
+      <c r="S68" s="2">
+        <v>7493</v>
+      </c>
       <c r="T68" s="2">
-        <v>7493</v>
+        <v>7987</v>
       </c>
       <c r="U68" s="2">
-        <v>7987</v>
+        <f>T68*(1+U38)</f>
+        <v>9305.1986894906313</v>
       </c>
       <c r="V68" s="2">
-        <f>U68*(1+V38)</f>
-        <v>9305.1986894906313</v>
+        <f t="shared" ref="V68:Y68" si="110">U68*(1+V38)</f>
+        <v>10410.20290907542</v>
       </c>
       <c r="W68" s="2">
-        <f t="shared" ref="W68:Z68" si="108">V68*(1+W38)</f>
-        <v>10410.20290907542</v>
+        <f t="shared" si="110"/>
+        <v>11664.768107219574</v>
       </c>
       <c r="X68" s="2">
-        <f t="shared" si="108"/>
-        <v>11664.768107219574</v>
+        <f t="shared" si="110"/>
+        <v>13090.893435693695</v>
       </c>
       <c r="Y68" s="2">
-        <f t="shared" si="108"/>
-        <v>13090.893435693695</v>
-      </c>
-      <c r="Z68" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>14714.085341553247</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I69" s="2">
         <v>15069</v>
       </c>
+      <c r="S69" s="2">
+        <v>15140</v>
+      </c>
       <c r="T69" s="2">
-        <v>15140</v>
+        <v>15069</v>
       </c>
       <c r="U69" s="2">
-        <v>15069</v>
+        <f>T69*(1+U38)</f>
+        <v>17556.033435825007</v>
       </c>
       <c r="V69" s="2">
-        <f>U69*(1+V38)</f>
-        <v>17556.033435825007</v>
+        <f t="shared" ref="V69:Y69" si="111">U69*(1+V38)</f>
+        <v>19640.834811175351</v>
       </c>
       <c r="W69" s="2">
-        <f t="shared" ref="W69:Z69" si="109">V69*(1+W38)</f>
-        <v>19640.834811175351</v>
+        <f t="shared" si="111"/>
+        <v>22007.811519680956</v>
       </c>
       <c r="X69" s="2">
-        <f t="shared" si="109"/>
-        <v>22007.811519680956</v>
+        <f t="shared" si="111"/>
+        <v>24698.469160193858</v>
       </c>
       <c r="Y69" s="2">
-        <f t="shared" si="109"/>
-        <v>24698.469160193858</v>
-      </c>
-      <c r="Z69" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>27760.93051356779</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I70" s="2">
         <v>51228</v>
       </c>
+      <c r="S70" s="2">
+        <v>46168</v>
+      </c>
       <c r="T70" s="2">
-        <v>46168</v>
+        <v>51228</v>
       </c>
       <c r="U70" s="2">
-        <v>51228</v>
+        <f>T70*(1+U38)</f>
+        <v>59682.824397799683</v>
       </c>
       <c r="V70" s="2">
-        <f>U70*(1+V38)</f>
-        <v>59682.824397799683</v>
+        <f t="shared" ref="V70:Y70" si="112">U70*(1+V38)</f>
+        <v>66770.235961702216</v>
       </c>
       <c r="W70" s="2">
-        <f t="shared" ref="W70:Z70" si="110">V70*(1+W38)</f>
-        <v>66770.235961702216</v>
+        <f t="shared" si="112"/>
+        <v>74816.920069693791</v>
       </c>
       <c r="X70" s="2">
-        <f t="shared" si="110"/>
-        <v>74816.920069693791</v>
+        <f t="shared" si="112"/>
+        <v>83963.977579030499</v>
       </c>
       <c r="Y70" s="2">
-        <f t="shared" si="110"/>
-        <v>83963.977579030499</v>
-      </c>
-      <c r="Z70" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>94375.004867545984</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I71" s="2">
         <v>9802</v>
       </c>
+      <c r="S71" s="2">
+        <v>8876</v>
+      </c>
       <c r="T71" s="2">
-        <v>8876</v>
+        <v>9802</v>
       </c>
       <c r="U71" s="2">
-        <v>9802</v>
+        <f>T71*(1+U38)</f>
+        <v>11419.751790958704</v>
       </c>
       <c r="V71" s="2">
-        <f>U71*(1+V38)</f>
-        <v>11419.751790958704</v>
+        <f t="shared" ref="V71:Y71" si="113">U71*(1+V38)</f>
+        <v>12775.861889915772</v>
       </c>
       <c r="W71" s="2">
-        <f t="shared" ref="W71:Z71" si="111">V71*(1+W38)</f>
-        <v>12775.861889915772</v>
+        <f t="shared" si="113"/>
+        <v>14315.519843115846</v>
       </c>
       <c r="X71" s="2">
-        <f t="shared" si="111"/>
-        <v>14315.519843115846</v>
+        <f t="shared" si="113"/>
+        <v>16065.72398355698</v>
       </c>
       <c r="Y71" s="2">
-        <f t="shared" si="111"/>
-        <v>16065.72398355698</v>
-      </c>
-      <c r="Z71" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>18057.776952285582</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I72" s="2">
         <v>5036</v>
       </c>
+      <c r="S72" s="2">
+        <v>4137</v>
+      </c>
       <c r="T72" s="2">
-        <v>4137</v>
+        <v>5036</v>
       </c>
       <c r="U72" s="2">
-        <v>5036</v>
+        <f>T72*(1+U38)</f>
+        <v>5867.1567046794571</v>
       </c>
       <c r="V72" s="2">
-        <f>U72*(1+V38)</f>
-        <v>5867.1567046794571</v>
+        <f t="shared" ref="V72:Y72" si="114">U72*(1+V38)</f>
+        <v>6563.8890509708053</v>
       </c>
       <c r="W72" s="2">
-        <f t="shared" ref="W72:Z72" si="112">V72*(1+W38)</f>
-        <v>6563.8890509708053</v>
+        <f t="shared" si="114"/>
+        <v>7354.923273814672</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" si="112"/>
-        <v>7354.923273814672</v>
+        <f t="shared" si="114"/>
+        <v>8254.1303796360917</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" si="112"/>
-        <v>8254.1303796360917</v>
-      </c>
-      <c r="Z72" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>9277.5928108253629</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>5</v>
       </c>
@@ -6201,68 +6161,68 @@
       <c r="J73" s="2">
         <v>17000</v>
       </c>
+      <c r="S73" s="2">
+        <v>11870</v>
+      </c>
       <c r="T73" s="2">
-        <v>11870</v>
+        <v>10883</v>
       </c>
       <c r="U73" s="2">
-        <v>10883</v>
+        <f>T73*(1+U38)</f>
+        <v>12679.163307590654</v>
       </c>
       <c r="V73" s="2">
-        <f>U73*(1+V38)</f>
-        <v>12679.163307590654</v>
+        <f t="shared" ref="V73:Y73" si="115">U73*(1+V38)</f>
+        <v>14184.830131396997</v>
       </c>
       <c r="W73" s="2">
-        <f t="shared" ref="W73:Z73" si="113">V73*(1+W38)</f>
-        <v>14184.830131396997</v>
+        <f t="shared" si="115"/>
+        <v>15894.287130445804</v>
       </c>
       <c r="X73" s="2">
-        <f t="shared" si="113"/>
-        <v>15894.287130445804</v>
+        <f t="shared" si="115"/>
+        <v>17837.51011151302</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="113"/>
-        <v>17837.51011151302</v>
-      </c>
-      <c r="Z73" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>20049.253884077127</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I74" s="2">
         <v>8782</v>
       </c>
+      <c r="S74" s="2">
+        <v>8474</v>
+      </c>
       <c r="T74" s="2">
-        <v>8474</v>
+        <v>8782</v>
       </c>
       <c r="U74" s="2">
-        <v>8782</v>
+        <f>T74*(1+U38)</f>
+        <v>10231.407899224581</v>
       </c>
       <c r="V74" s="2">
-        <f>U74*(1+V38)</f>
-        <v>10231.407899224581</v>
+        <f t="shared" ref="V74:Y74" si="116">U74*(1+V38)</f>
+        <v>11446.400644484831</v>
       </c>
       <c r="W74" s="2">
-        <f t="shared" ref="W74:Z74" si="114">V74*(1+W38)</f>
-        <v>11446.400644484831</v>
+        <f t="shared" si="116"/>
+        <v>12825.841181620421</v>
       </c>
       <c r="X74" s="2">
-        <f t="shared" si="114"/>
-        <v>12825.841181620421</v>
+        <f t="shared" si="116"/>
+        <v>14393.918386410671</v>
       </c>
       <c r="Y74" s="2">
-        <f t="shared" si="114"/>
-        <v>14393.918386410671</v>
-      </c>
-      <c r="Z74" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>16178.677534683939</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -6270,36 +6230,36 @@
         <f>11691+4694</f>
         <v>16385</v>
       </c>
-      <c r="T75" s="2">
+      <c r="S75" s="2">
         <f>12460+4395</f>
         <v>16855</v>
       </c>
-      <c r="U75" s="2">
+      <c r="T75" s="2">
         <f>11691+4694</f>
         <v>16385</v>
       </c>
+      <c r="U75" s="2">
+        <f>T75*(1+U38)</f>
+        <v>19089.23006476825</v>
+      </c>
       <c r="V75" s="2">
-        <f>U75*(1+V38)</f>
-        <v>19089.23006476825</v>
+        <f t="shared" ref="V75:Y75" si="117">U75*(1+V38)</f>
+        <v>21356.100496456838</v>
       </c>
       <c r="W75" s="2">
-        <f t="shared" ref="W75:Z75" si="115">V75*(1+W38)</f>
-        <v>21356.100496456838</v>
+        <f t="shared" si="117"/>
+        <v>23929.789086865247</v>
       </c>
       <c r="X75" s="2">
-        <f t="shared" si="115"/>
-        <v>23929.789086865247</v>
+        <f t="shared" si="117"/>
+        <v>26855.42618553164</v>
       </c>
       <c r="Y75" s="2">
-        <f t="shared" si="115"/>
-        <v>26855.42618553164</v>
-      </c>
-      <c r="Z75" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>30185.337213140101</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>60</v>
       </c>
@@ -6307,36 +6267,36 @@
         <f>SUM(I68:I75)</f>
         <v>125172</v>
       </c>
+      <c r="S76" s="2">
+        <f>SUM(S68:S75)</f>
+        <v>119013</v>
+      </c>
       <c r="T76" s="2">
         <f>SUM(T68:T75)</f>
-        <v>119013</v>
+        <v>125172</v>
       </c>
       <c r="U76" s="2">
-        <f>SUM(U68:U75)</f>
-        <v>125172</v>
+        <f t="shared" ref="U76:Y76" si="118">SUM(U68:U75)</f>
+        <v>145830.76629033696</v>
       </c>
       <c r="V76" s="2">
-        <f t="shared" ref="V76:Z76" si="116">SUM(V68:V75)</f>
-        <v>145830.76629033696</v>
+        <f t="shared" si="118"/>
+        <v>163148.35589517825</v>
       </c>
       <c r="W76" s="2">
-        <f t="shared" si="116"/>
-        <v>163148.35589517825</v>
+        <f t="shared" si="118"/>
+        <v>182809.86021245632</v>
       </c>
       <c r="X76" s="2">
-        <f t="shared" si="116"/>
-        <v>182809.86021245632</v>
+        <f t="shared" si="118"/>
+        <v>205160.04922156644</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="116"/>
-        <v>205160.04922156644</v>
-      </c>
-      <c r="Z76" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>230598.65911767911</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>61</v>
       </c>
@@ -6344,36 +6304,36 @@
         <f>I66-I76</f>
         <v>325084</v>
       </c>
+      <c r="S77" s="2">
+        <f>S66-S76</f>
+        <v>283379</v>
+      </c>
       <c r="T77" s="2">
         <f>T66-T76</f>
-        <v>283379</v>
+        <v>325084</v>
       </c>
       <c r="U77" s="2">
-        <f>U66-U76</f>
-        <v>325084</v>
+        <f t="shared" ref="U77:Y77" si="119">U66-U76</f>
+        <v>473662.07931529742</v>
       </c>
       <c r="V77" s="2">
-        <f t="shared" ref="V77:Z77" si="117">V66-V76</f>
-        <v>473662.07931529742</v>
+        <f t="shared" si="119"/>
+        <v>639289.68723211752</v>
       </c>
       <c r="W77" s="2">
-        <f t="shared" si="117"/>
-        <v>640083.99777177221</v>
+        <f t="shared" si="119"/>
+        <v>834517.95945375226</v>
       </c>
       <c r="X77" s="2">
-        <f t="shared" si="117"/>
-        <v>835023.86919612857</v>
+        <f t="shared" si="119"/>
+        <v>1064048.940612582</v>
       </c>
       <c r="Y77" s="2">
-        <f t="shared" si="117"/>
-        <v>1062839.7909162117</v>
-      </c>
-      <c r="Z77" s="2">
-        <f t="shared" si="117"/>
-        <v>1328560.5006987113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="119"/>
+        <v>1333334.3467773884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>62</v>
       </c>
@@ -6381,69 +6341,69 @@
         <f>I76+I77</f>
         <v>450256</v>
       </c>
+      <c r="S78" s="2">
+        <f>S76+S77</f>
+        <v>402392</v>
+      </c>
       <c r="T78" s="2">
         <f>T76+T77</f>
-        <v>402392</v>
+        <v>450256</v>
       </c>
       <c r="U78" s="2">
-        <f>U76+U77</f>
-        <v>450256</v>
+        <f t="shared" ref="U78:Y78" si="120">U76+U77</f>
+        <v>619492.84560563439</v>
       </c>
       <c r="V78" s="2">
-        <f t="shared" ref="V78:Z78" si="118">V76+V77</f>
-        <v>619492.84560563439</v>
+        <f t="shared" si="120"/>
+        <v>802438.04312729579</v>
       </c>
       <c r="W78" s="2">
-        <f t="shared" si="118"/>
-        <v>803232.35366695048</v>
+        <f t="shared" si="120"/>
+        <v>1017327.8196662086</v>
       </c>
       <c r="X78" s="2">
-        <f t="shared" si="118"/>
-        <v>1017833.7294085849</v>
+        <f t="shared" si="120"/>
+        <v>1269208.9898341484</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" si="118"/>
-        <v>1267999.8401377781</v>
-      </c>
-      <c r="Z78" s="2">
-        <f t="shared" si="118"/>
-        <v>1559159.1598163904</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="120"/>
+        <v>1563933.0058950675</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" ref="B80:I80" si="119">(B59/B22)*90</f>
+        <f t="shared" ref="B80:I80" si="121">(B59/B22)*90</f>
         <v>0</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>48.830194155635489</v>
       </c>
       <c r="J80" s="2">
@@ -6458,21 +6418,24 @@
       <c r="M80" s="2">
         <v>54</v>
       </c>
+      <c r="Q80" s="2">
+        <f t="shared" ref="Q80:T80" si="122">(Q59/Q22)*360</f>
+        <v>0</v>
+      </c>
       <c r="R80" s="2">
-        <f t="shared" ref="R80:Y80" si="120">(R59/R22)*360</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="120"/>
-        <v>0</v>
+        <f t="shared" si="122"/>
+        <v>56.172339082740713</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="120"/>
-        <v>56.172339082740713</v>
+        <f t="shared" si="122"/>
+        <v>53.832660034626791</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" si="120"/>
-        <v>53.832660034626791</v>
+        <v>54</v>
       </c>
       <c r="V80" s="2">
         <v>54</v>
@@ -6486,96 +6449,93 @@
       <c r="Y80" s="2">
         <v>54</v>
       </c>
-      <c r="Z80" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" ref="B82:M82" si="121">+B34</f>
+        <f t="shared" ref="B82:M82" si="123">+B34</f>
         <v>15051</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>18368</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>19689</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>20687</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>23662</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>23619</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>26301</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>26536</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>25757.663437106465</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>25599.177870790547</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>27430.765263364614</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>29428.276990884337</v>
       </c>
+      <c r="R82" s="2">
+        <f t="shared" ref="R82:Y82" si="124">+R34</f>
+        <v>63486</v>
+      </c>
       <c r="S82" s="2">
-        <f t="shared" ref="S82:Z82" si="122">+S34</f>
-        <v>63486</v>
+        <f t="shared" si="124"/>
+        <v>73975</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="122"/>
-        <v>73975</v>
+        <f t="shared" si="124"/>
+        <v>100122</v>
       </c>
       <c r="U82" s="2">
-        <f t="shared" si="122"/>
-        <v>100122</v>
+        <f t="shared" si="124"/>
+        <v>113937.94043941783</v>
       </c>
       <c r="V82" s="2">
-        <f t="shared" si="122"/>
-        <v>113937.94043941783</v>
+        <f t="shared" si="124"/>
+        <v>137684.03929947887</v>
       </c>
       <c r="W82" s="2">
-        <f t="shared" si="122"/>
-        <v>138478.34983913353</v>
+        <f t="shared" si="124"/>
+        <v>163445.89934695116</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" si="122"/>
-        <v>163157.49854967292</v>
+        <f t="shared" si="124"/>
+        <v>193340.38673454529</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="122"/>
-        <v>191625.32729579863</v>
-      </c>
-      <c r="Z82" s="2">
-        <f t="shared" si="122"/>
-        <v>224461.01796171238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="124"/>
+        <v>228025.71434401916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>58</v>
       </c>
@@ -6593,492 +6553,492 @@
         <v>25757.663437106465</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" ref="K83:M83" si="123">K82</f>
+        <f t="shared" ref="K83:M83" si="125">K82</f>
         <v>25599.177870790547</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>27430.765263364614</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>29428.276990884337</v>
       </c>
+      <c r="R83" s="2">
+        <v>59972</v>
+      </c>
       <c r="S83" s="2">
-        <v>59972</v>
+        <v>73795</v>
       </c>
       <c r="T83" s="2">
-        <v>73795</v>
+        <v>100118</v>
       </c>
       <c r="U83" s="2">
-        <v>100118</v>
+        <f>U82</f>
+        <v>113937.94043941783</v>
       </c>
       <c r="V83" s="2">
-        <f>V82</f>
-        <v>113937.94043941783</v>
+        <f t="shared" ref="V83:Y83" si="126">V82</f>
+        <v>137684.03929947887</v>
       </c>
       <c r="W83" s="2">
-        <f t="shared" ref="W83:Z83" si="124">W82</f>
-        <v>138478.34983913353</v>
+        <f t="shared" si="126"/>
+        <v>163445.89934695116</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="124"/>
-        <v>163157.49854967292</v>
+        <f t="shared" si="126"/>
+        <v>193340.38673454529</v>
       </c>
       <c r="Y83" s="2">
-        <f t="shared" si="124"/>
-        <v>191625.32729579863</v>
-      </c>
-      <c r="Z83" s="2">
-        <f t="shared" si="124"/>
-        <v>224461.01796171238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="126"/>
+        <v>228025.71434401916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I84" s="2">
         <v>4205</v>
       </c>
+      <c r="R84" s="2">
+        <v>13475</v>
+      </c>
       <c r="S84" s="2">
-        <v>13475</v>
+        <v>11946</v>
       </c>
       <c r="T84" s="2">
-        <v>11946</v>
+        <v>15311</v>
       </c>
       <c r="U84" s="2">
-        <v>15311</v>
+        <f>T84*1.15</f>
+        <v>17607.649999999998</v>
       </c>
       <c r="V84" s="2">
-        <f>U84*1.15</f>
-        <v>17607.649999999998</v>
+        <f t="shared" ref="V84:Y84" si="127">U84*1.15</f>
+        <v>20248.797499999997</v>
       </c>
       <c r="W84" s="2">
-        <f t="shared" ref="W84:Z84" si="125">V84*1.15</f>
-        <v>20248.797499999997</v>
+        <f t="shared" si="127"/>
+        <v>23286.117124999993</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="125"/>
-        <v>23286.117124999993</v>
+        <f t="shared" si="127"/>
+        <v>26779.034693749989</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="125"/>
-        <v>26779.034693749989</v>
-      </c>
-      <c r="Z84" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>30795.889897812485</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I85" s="2">
         <v>5810</v>
       </c>
+      <c r="R85" s="2">
+        <v>19362</v>
+      </c>
       <c r="S85" s="2">
-        <v>19362</v>
+        <v>22460</v>
       </c>
       <c r="T85" s="2">
-        <v>22460</v>
+        <v>22785</v>
       </c>
       <c r="U85" s="2">
-        <v>22785</v>
+        <f>T85*1.05</f>
+        <v>23924.25</v>
       </c>
       <c r="V85" s="2">
-        <f>U85*1.05</f>
-        <v>23924.25</v>
+        <f t="shared" ref="V85:Y85" si="128">U85*1.05</f>
+        <v>25120.462500000001</v>
       </c>
       <c r="W85" s="2">
-        <f t="shared" ref="W85:Z85" si="126">V85*1.05</f>
-        <v>25120.462500000001</v>
+        <f t="shared" si="128"/>
+        <v>26376.485625000001</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="126"/>
-        <v>26376.485625000001</v>
+        <f t="shared" si="128"/>
+        <v>27695.309906250004</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="126"/>
-        <v>27695.309906250004</v>
-      </c>
-      <c r="Z85" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>29080.075401562506</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I86" s="2">
         <v>-1448</v>
       </c>
+      <c r="R86" s="2">
+        <v>-8081</v>
+      </c>
       <c r="S86" s="2">
-        <v>-8081</v>
+        <v>-7763</v>
       </c>
       <c r="T86" s="2">
-        <v>-7763</v>
+        <v>-5257</v>
       </c>
       <c r="U86" s="2">
-        <v>-5257</v>
+        <f>T86*(1+U38)</f>
+        <v>-6124.6312145551838</v>
       </c>
       <c r="V86" s="2">
-        <f>U86*(1+V38)</f>
-        <v>-6124.6312145551838</v>
+        <f t="shared" ref="V86:Y86" si="129">U86*(1+V38)</f>
+        <v>-6851.9389874808421</v>
       </c>
       <c r="W86" s="2">
-        <f t="shared" ref="W86:Z86" si="127">V86*(1+W38)</f>
-        <v>-6851.9389874808421</v>
+        <f t="shared" si="129"/>
+        <v>-7677.6869838053462</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" si="127"/>
-        <v>-7677.6869838053462</v>
+        <f t="shared" si="129"/>
+        <v>-8616.3549256844562</v>
       </c>
       <c r="Y86" s="2">
-        <f t="shared" si="127"/>
-        <v>-8616.3549256844562</v>
-      </c>
-      <c r="Z86" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>-9684.7310179723827</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I87" s="2">
         <v>67</v>
       </c>
+      <c r="R87" s="2">
+        <v>5519</v>
+      </c>
       <c r="S87" s="2">
-        <v>5519</v>
+        <v>823</v>
       </c>
       <c r="T87" s="2">
-        <v>823</v>
+        <v>-2671</v>
       </c>
       <c r="U87" s="2">
-        <v>-2671</v>
+        <f>T87*(1+U38)</f>
+        <v>-3111.8299360998471</v>
       </c>
       <c r="V87" s="2">
-        <f>U87*(1+V38)</f>
-        <v>-3111.8299360998471</v>
+        <f t="shared" ref="V87:Y87" si="130">U87*(1+V38)</f>
+        <v>-3481.363712300044</v>
       </c>
       <c r="W87" s="2">
-        <f t="shared" ref="W87:Z87" si="128">V87*(1+W38)</f>
-        <v>-3481.363712300044</v>
+        <f t="shared" si="130"/>
+        <v>-3900.9134361316496</v>
       </c>
       <c r="X87" s="2">
-        <f t="shared" si="128"/>
-        <v>-3900.9134361316496</v>
+        <f t="shared" si="130"/>
+        <v>-4377.8360293899914</v>
       </c>
       <c r="Y87" s="2">
-        <f t="shared" si="128"/>
-        <v>-4377.8360293899914</v>
-      </c>
-      <c r="Z87" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>-4920.6613180529266</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I88" s="2">
         <v>827</v>
       </c>
+      <c r="R88" s="2">
+        <v>3483</v>
+      </c>
       <c r="S88" s="2">
-        <v>3483</v>
+        <v>4330</v>
       </c>
       <c r="T88" s="2">
-        <v>4330</v>
+        <v>3419</v>
       </c>
       <c r="U88" s="2">
-        <v>3419</v>
+        <f>T88*(1+U38)</f>
+        <v>3983.2821233715376</v>
       </c>
       <c r="V88" s="2">
-        <f>U88*(1+V38)</f>
-        <v>3983.2821233715376</v>
+        <f t="shared" ref="V88:Y88" si="131">U88*(1+V38)</f>
+        <v>4456.3019589494006</v>
       </c>
       <c r="W88" s="2">
-        <f t="shared" ref="W88:Z88" si="129">V88*(1+W38)</f>
-        <v>4456.3019589494006</v>
+        <f t="shared" si="131"/>
+        <v>4993.3444545616285</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="129"/>
-        <v>4993.3444545616285</v>
+        <f t="shared" si="131"/>
+        <v>5603.826800630618</v>
       </c>
       <c r="Y88" s="2">
-        <f t="shared" si="129"/>
-        <v>5603.826800630618</v>
-      </c>
-      <c r="Z88" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>6298.6675576274638</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I89" s="2">
         <v>-4570</v>
       </c>
+      <c r="R89" s="2">
+        <v>-2317</v>
+      </c>
       <c r="S89" s="2">
-        <v>-2317</v>
+        <v>-7833</v>
       </c>
       <c r="T89" s="2">
-        <v>-7833</v>
+        <v>-5891</v>
       </c>
       <c r="U89" s="2">
-        <v>-5891</v>
+        <f>T89*(1+U38)</f>
+        <v>-6863.2684962801195</v>
       </c>
       <c r="V89" s="2">
-        <f>U89*(1+V38)</f>
-        <v>-6863.2684962801195</v>
+        <f t="shared" ref="V89:Y89" si="132">U89*(1+V38)</f>
+        <v>-7678.2903890526241</v>
       </c>
       <c r="W89" s="2">
-        <f t="shared" ref="W89:Z89" si="130">V89*(1+W38)</f>
-        <v>-7678.2903890526241</v>
+        <f t="shared" si="132"/>
+        <v>-8603.6245047740722</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" si="130"/>
-        <v>-8603.6245047740722</v>
+        <f t="shared" si="132"/>
+        <v>-9655.4968360675557</v>
       </c>
       <c r="Y89" s="2">
-        <f t="shared" si="130"/>
-        <v>-9655.4968360675557</v>
-      </c>
-      <c r="Z89" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>-10852.720263814974</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I90" s="2">
         <v>379</v>
       </c>
+      <c r="R90" s="2">
+        <v>584</v>
+      </c>
       <c r="S90" s="2">
-        <v>584</v>
+        <v>523</v>
       </c>
       <c r="T90" s="2">
-        <v>523</v>
+        <v>-2418</v>
       </c>
       <c r="U90" s="2">
-        <v>-2418</v>
+        <f>T90*(1+U38)</f>
+        <v>-2817.0740492285399</v>
       </c>
       <c r="V90" s="2">
-        <f>U90*(1+V38)</f>
-        <v>-2817.0740492285399</v>
+        <f t="shared" ref="V90:Y90" si="133">U90*(1+V38)</f>
+        <v>-3151.6051876980555</v>
       </c>
       <c r="W90" s="2">
-        <f t="shared" ref="W90:Z90" si="131">V90*(1+W38)</f>
-        <v>-3151.6051876980555</v>
+        <f t="shared" si="133"/>
+        <v>-3531.4147093097449</v>
       </c>
       <c r="X90" s="2">
-        <f t="shared" si="131"/>
-        <v>-3531.4147093097449</v>
+        <f t="shared" si="133"/>
+        <v>-3963.1626802938972</v>
       </c>
       <c r="Y90" s="2">
-        <f t="shared" si="131"/>
-        <v>-3963.1626802938972</v>
-      </c>
-      <c r="Z90" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>-4454.5709723144801</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I91" s="2">
         <v>937</v>
       </c>
+      <c r="R91" s="2">
+        <v>-5046</v>
+      </c>
       <c r="S91" s="2">
-        <v>-5046</v>
+        <v>-2143</v>
       </c>
       <c r="T91" s="2">
-        <v>-2143</v>
+        <v>-1397</v>
       </c>
       <c r="U91" s="2">
-        <v>-1397</v>
+        <f>T91*(1+U38)</f>
+        <v>-1627.5651144633046</v>
       </c>
       <c r="V91" s="2">
-        <f>U91*(1+V38)</f>
-        <v>-1627.5651144633046</v>
+        <f t="shared" ref="V91:Y91" si="134">U91*(1+V38)</f>
+        <v>-1820.8405488892404</v>
       </c>
       <c r="W91" s="2">
-        <f t="shared" ref="W91:Z91" si="132">V91*(1+W38)</f>
-        <v>-1820.8405488892404</v>
+        <f t="shared" si="134"/>
+        <v>-2040.2755785383431</v>
       </c>
       <c r="X91" s="2">
-        <f t="shared" si="132"/>
-        <v>-2040.2755785383431</v>
+        <f t="shared" si="134"/>
+        <v>-2289.7180580523468</v>
       </c>
       <c r="Y91" s="2">
-        <f t="shared" si="132"/>
-        <v>-2289.7180580523468</v>
-      </c>
-      <c r="Z91" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>-2573.6293003818569</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I92" s="2">
         <v>401</v>
       </c>
+      <c r="R92" s="2">
+        <v>707</v>
+      </c>
       <c r="S92" s="2">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="T92" s="2">
-        <v>664</v>
+        <v>-1161</v>
       </c>
       <c r="U92" s="2">
-        <v>-1161</v>
+        <f>T92*(1+U38)</f>
+        <v>-1352.6149591208994</v>
       </c>
       <c r="V92" s="2">
-        <f>U92*(1+V38)</f>
-        <v>-1352.6149591208994</v>
+        <f t="shared" ref="V92:Y92" si="135">U92*(1+V38)</f>
+        <v>-1513.2397117111009</v>
       </c>
       <c r="W92" s="2">
-        <f t="shared" ref="W92:Z92" si="133">V92*(1+W38)</f>
-        <v>-1513.2397117111009</v>
+        <f t="shared" si="135"/>
+        <v>-1695.6048294080288</v>
       </c>
       <c r="X92" s="2">
-        <f t="shared" si="133"/>
-        <v>-1695.6048294080288</v>
+        <f t="shared" si="135"/>
+        <v>-1902.9081355753576</v>
       </c>
       <c r="Y92" s="2">
-        <f t="shared" si="133"/>
-        <v>-1902.9081355753576</v>
-      </c>
-      <c r="Z92" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>-2138.857278270104</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I93" s="2">
         <v>5205</v>
       </c>
+      <c r="R93" s="2">
+        <v>3915</v>
+      </c>
       <c r="S93" s="2">
-        <v>3915</v>
+        <v>3937</v>
       </c>
       <c r="T93" s="2">
-        <v>3937</v>
+        <v>-1161</v>
       </c>
       <c r="U93" s="2">
-        <v>-1161</v>
+        <f>T93*(1+U38)</f>
+        <v>-1352.6149591208994</v>
       </c>
       <c r="V93" s="2">
-        <f>U93*(1+V38)</f>
-        <v>-1352.6149591208994</v>
+        <f t="shared" ref="V93:Y93" si="136">U93*(1+V38)</f>
+        <v>-1513.2397117111009</v>
       </c>
       <c r="W93" s="2">
-        <f t="shared" ref="W93:Z93" si="134">V93*(1+W38)</f>
-        <v>-1513.2397117111009</v>
+        <f t="shared" si="136"/>
+        <v>-1695.6048294080288</v>
       </c>
       <c r="X93" s="2">
-        <f t="shared" si="134"/>
-        <v>-1695.6048294080288</v>
+        <f t="shared" si="136"/>
+        <v>-1902.9081355753576</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" si="134"/>
-        <v>-1902.9081355753576</v>
-      </c>
-      <c r="Z93" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>-2138.857278270104</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I94" s="2">
         <v>581</v>
       </c>
+      <c r="R94" s="2">
+        <v>-445</v>
+      </c>
       <c r="S94" s="2">
-        <v>-445</v>
+        <v>482</v>
       </c>
       <c r="T94" s="2">
-        <v>482</v>
+        <v>1059</v>
       </c>
       <c r="U94" s="2">
-        <v>1059</v>
+        <f>T94*(1+U38)</f>
+        <v>1233.780569947487</v>
       </c>
       <c r="V94" s="2">
-        <f>U94*(1+V38)</f>
-        <v>1233.780569947487</v>
+        <f t="shared" ref="V94:Y94" si="137">U94*(1+V38)</f>
+        <v>1380.2935871680068</v>
       </c>
       <c r="W94" s="2">
-        <f t="shared" ref="W94:Z94" si="135">V94*(1+W38)</f>
-        <v>1380.2935871680068</v>
+        <f t="shared" si="137"/>
+        <v>1546.636963258486</v>
       </c>
       <c r="X94" s="2">
-        <f t="shared" si="135"/>
-        <v>1546.636963258486</v>
+        <f t="shared" si="137"/>
+        <v>1735.7275758607266</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" si="135"/>
-        <v>1735.7275758607266</v>
-      </c>
-      <c r="Z94" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>1950.9473365099398</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I95" s="2">
         <v>183</v>
       </c>
+      <c r="R95" s="2">
+        <v>367</v>
+      </c>
       <c r="S95" s="2">
-        <v>367</v>
+        <v>525</v>
       </c>
       <c r="T95" s="2">
-        <v>525</v>
+        <v>1043</v>
       </c>
       <c r="U95" s="2">
-        <v>1043</v>
+        <f>T95*(1+U38)</f>
+        <v>1215.139881449697</v>
       </c>
       <c r="V95" s="2">
-        <f>U95*(1+V38)</f>
-        <v>1215.139881449697</v>
+        <f t="shared" ref="V95:Y95" si="138">U95*(1+V38)</f>
+        <v>1359.4392931220314</v>
       </c>
       <c r="W95" s="2">
-        <f t="shared" ref="W95:Z95" si="136">V95*(1+W38)</f>
-        <v>1359.4392931220314</v>
+        <f t="shared" si="138"/>
+        <v>1523.2694548428717</v>
       </c>
       <c r="X95" s="2">
-        <f t="shared" si="136"/>
-        <v>1523.2694548428717</v>
+        <f t="shared" si="138"/>
+        <v>1709.5031743368629</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" si="136"/>
-        <v>1709.5031743368629</v>
-      </c>
-      <c r="Z95" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>1921.4712672142277</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>20</v>
       </c>
@@ -7105,89 +7065,88 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
+      <c r="R96" s="5">
+        <f>SUM(R83:R95)</f>
+        <v>91495</v>
+      </c>
       <c r="S96" s="5">
-        <f>SUM(S83:S95)</f>
-        <v>91495</v>
+        <f t="shared" ref="S96:Y96" si="139">SUM(S83:S95)</f>
+        <v>101746</v>
       </c>
       <c r="T96" s="5">
-        <f t="shared" ref="T96:Z96" si="137">SUM(T83:T95)</f>
-        <v>101746</v>
+        <f t="shared" si="139"/>
+        <v>123779</v>
       </c>
       <c r="U96" s="5">
-        <f t="shared" si="137"/>
-        <v>123779</v>
+        <f t="shared" si="139"/>
+        <v>138652.44428531779</v>
       </c>
       <c r="V96" s="5">
-        <f t="shared" si="137"/>
-        <v>138652.44428531779</v>
+        <f t="shared" si="139"/>
+        <v>164238.81588987526</v>
       </c>
       <c r="W96" s="5">
-        <f t="shared" si="137"/>
-        <v>165033.12642952992</v>
+        <f t="shared" si="139"/>
+        <v>192026.62809823893</v>
       </c>
       <c r="X96" s="5">
-        <f t="shared" si="137"/>
-        <v>191738.22730096069</v>
+        <f t="shared" si="139"/>
+        <v>224155.40408473453</v>
       </c>
       <c r="Y96" s="5">
-        <f t="shared" si="137"/>
-        <v>222440.34464598788</v>
-      </c>
-      <c r="Z96" s="5">
-        <f t="shared" si="137"/>
-        <v>257744.04199336225</v>
-      </c>
-      <c r="AB96" s="2" t="s">
+        <f t="shared" si="139"/>
+        <v>261308.73837566903</v>
+      </c>
+      <c r="AA96" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AB96" s="3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="97" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>78</v>
       </c>
       <c r="I97" s="2">
         <v>-14276</v>
       </c>
+      <c r="R97" s="2">
+        <v>-31485</v>
+      </c>
       <c r="S97" s="2">
-        <v>-31485</v>
+        <v>-32251</v>
       </c>
       <c r="T97" s="2">
-        <v>-32251</v>
+        <v>-52535</v>
       </c>
       <c r="U97" s="2">
-        <v>-52535</v>
+        <v>-75000</v>
       </c>
       <c r="V97" s="2">
-        <v>-75000</v>
+        <f>U97*0.95</f>
+        <v>-71250</v>
       </c>
       <c r="W97" s="2">
-        <f>V97*0.95</f>
-        <v>-71250</v>
+        <f t="shared" ref="W97:Y97" si="140">V97*0.95</f>
+        <v>-67687.5</v>
       </c>
       <c r="X97" s="2">
-        <f t="shared" ref="X97:Z97" si="138">W97*0.95</f>
-        <v>-67687.5</v>
+        <f t="shared" si="140"/>
+        <v>-64303.125</v>
       </c>
       <c r="Y97" s="2">
-        <f t="shared" si="138"/>
-        <v>-64303.125</v>
-      </c>
-      <c r="Z97" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>-61087.96875</v>
       </c>
-      <c r="AB97" s="2" t="s">
+      <c r="AA97" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC97" s="3">
+      <c r="AB97" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="98" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>79</v>
       </c>
@@ -7195,46 +7154,46 @@
         <f>-21645-1800</f>
         <v>-23445</v>
       </c>
-      <c r="S98" s="2">
+      <c r="R98" s="2">
         <f>+-78874-2531</f>
         <v>-81405</v>
       </c>
-      <c r="T98" s="2">
+      <c r="S98" s="2">
         <f>+-77858-3027</f>
         <v>-80885</v>
       </c>
-      <c r="U98" s="2">
+      <c r="T98" s="2">
         <f>+-86679-5034</f>
         <v>-91713</v>
       </c>
+      <c r="U98" s="2">
+        <f>T98*(1+U38)</f>
+        <v>-106849.59151236438</v>
+      </c>
       <c r="V98" s="2">
-        <f>U98*(1+V38)</f>
-        <v>-106849.59151236438</v>
+        <f t="shared" ref="V98:Y98" si="141">U98*(1+V38)</f>
+        <v>-119538.11686490974</v>
       </c>
       <c r="W98" s="2">
-        <f t="shared" ref="W98:Z98" si="139">V98*(1+W38)</f>
-        <v>-119538.11686490974</v>
+        <f t="shared" si="141"/>
+        <v>-133944.01870757842</v>
       </c>
       <c r="X98" s="2">
-        <f t="shared" si="139"/>
-        <v>-133944.01870757842</v>
+        <f t="shared" si="141"/>
+        <v>-150319.90855988179</v>
       </c>
       <c r="Y98" s="2">
-        <f t="shared" si="139"/>
-        <v>-150319.90855988179</v>
-      </c>
-      <c r="Z98" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>-168958.67145735232</v>
       </c>
-      <c r="AB98" s="2" t="s">
+      <c r="AA98" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC98" s="9">
+      <c r="AB98" s="9">
         <v>0.08</v>
       </c>
     </row>
-    <row r="99" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>80</v>
       </c>
@@ -7242,47 +7201,47 @@
         <f>21649+150</f>
         <v>21799</v>
       </c>
-      <c r="S99" s="2">
+      <c r="R99" s="2">
         <f>97822+150</f>
         <v>97972</v>
       </c>
-      <c r="T99" s="2">
+      <c r="S99" s="2">
         <f>86672+947</f>
         <v>87619</v>
       </c>
-      <c r="U99" s="2">
+      <c r="T99" s="2">
         <f>103428+882</f>
         <v>104310</v>
       </c>
+      <c r="U99" s="2">
+        <f>T99*(1+U38)</f>
+        <v>121525.63857528081</v>
+      </c>
       <c r="V99" s="2">
-        <f>U99*(1+V38)</f>
-        <v>121525.63857528081</v>
+        <f t="shared" ref="V99:Y99" si="142">U99*(1+V38)</f>
+        <v>135956.96324598187</v>
       </c>
       <c r="W99" s="2">
-        <f t="shared" ref="W99:Z99" si="140">V99*(1+W38)</f>
-        <v>135956.96324598187</v>
+        <f t="shared" si="142"/>
+        <v>152341.55017704694</v>
       </c>
       <c r="X99" s="2">
-        <f t="shared" si="140"/>
-        <v>152341.55017704694</v>
+        <f t="shared" si="142"/>
+        <v>170966.70768463874</v>
       </c>
       <c r="Y99" s="2">
-        <f t="shared" si="140"/>
-        <v>170966.70768463874</v>
-      </c>
-      <c r="Z99" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>192165.54926473263</v>
       </c>
-      <c r="AB99" s="2" t="s">
+      <c r="AA99" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC99" s="2">
-        <f>NPV(AC98,V103:FG103)+main!I5-main!I6</f>
-        <v>2503600.0751055134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="AB99" s="2">
+        <f>NPV(AB98,U103:FF103)+main!I5-main!I6</f>
+        <v>2541835.8692040197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>81</v>
       </c>
@@ -7292,88 +7251,88 @@
       <c r="J100" s="2">
         <v>-32000</v>
       </c>
+      <c r="R100" s="2">
+        <v>-6969</v>
+      </c>
       <c r="S100" s="2">
-        <v>-6969</v>
+        <v>-495</v>
       </c>
       <c r="T100" s="2">
-        <v>-495</v>
+        <v>-2931</v>
       </c>
       <c r="U100" s="2">
-        <v>-2931</v>
+        <f>T100*(1+U38)</f>
+        <v>-3414.7411241889372</v>
       </c>
       <c r="V100" s="2">
-        <f>U100*(1+V38)</f>
-        <v>-3414.7411241889372</v>
+        <f t="shared" ref="V100:Y100" si="143">U100*(1+V38)</f>
+        <v>-3820.2459905471464</v>
       </c>
       <c r="W100" s="2">
-        <f t="shared" ref="W100:Z100" si="141">V100*(1+W38)</f>
-        <v>-3820.2459905471464</v>
+        <f t="shared" si="143"/>
+        <v>-4280.6354478853855</v>
       </c>
       <c r="X100" s="2">
-        <f t="shared" si="141"/>
-        <v>-4280.6354478853855</v>
+        <f t="shared" si="143"/>
+        <v>-4803.9825541527762</v>
       </c>
       <c r="Y100" s="2">
-        <f t="shared" si="141"/>
-        <v>-4803.9825541527762</v>
-      </c>
-      <c r="Z100" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>-5399.6474441082473</v>
       </c>
-      <c r="AB100" s="2" t="s">
+      <c r="AA100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AC100" s="2">
-        <f>AC99/main!I3</f>
-        <v>204.37551633514394</v>
-      </c>
-    </row>
-    <row r="101" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="AB100" s="2">
+        <f>AB99/main!I3</f>
+        <v>207.49680564930773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>82</v>
       </c>
       <c r="I101" s="2">
         <v>-167</v>
       </c>
+      <c r="R101" s="2">
+        <v>1589</v>
+      </c>
       <c r="S101" s="2">
-        <v>1589</v>
+        <v>-1051</v>
       </c>
       <c r="T101" s="2">
-        <v>-1051</v>
+        <v>-2667</v>
       </c>
       <c r="U101" s="2">
-        <v>-2667</v>
+        <f>T101*(1+U38)</f>
+        <v>-3107.1697639753993</v>
       </c>
       <c r="V101" s="2">
-        <f>U101*(1+V38)</f>
-        <v>-3107.1697639753993</v>
+        <f t="shared" ref="V101:Y101" si="144">U101*(1+V38)</f>
+        <v>-3476.1501387885496</v>
       </c>
       <c r="W101" s="2">
-        <f t="shared" ref="W101:Z101" si="142">V101*(1+W38)</f>
-        <v>-3476.1501387885496</v>
+        <f t="shared" si="144"/>
+        <v>-3895.0715590277455</v>
       </c>
       <c r="X101" s="2">
-        <f t="shared" si="142"/>
-        <v>-3895.0715590277455</v>
+        <f t="shared" si="144"/>
+        <v>-4371.2799290090252</v>
       </c>
       <c r="Y101" s="2">
-        <f t="shared" si="142"/>
-        <v>-4371.2799290090252</v>
-      </c>
-      <c r="Z101" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>-4913.2923007289983</v>
       </c>
-      <c r="AB101" s="2" t="s">
+      <c r="AA101" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AC101" s="3">
-        <f>AC100/main!I2-1</f>
-        <v>0.31009946368682018</v>
-      </c>
-    </row>
-    <row r="102" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="AB101" s="3">
+        <f>AB100/main!I2-1</f>
+        <v>0.33010772852120351</v>
+      </c>
+    </row>
+    <row r="102" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>83</v>
       </c>
@@ -7391,40 +7350,40 @@
         <f>J97</f>
         <v>0</v>
       </c>
+      <c r="R102" s="2">
+        <f>R97</f>
+        <v>-31485</v>
+      </c>
       <c r="S102" s="2">
-        <f>S97</f>
-        <v>-31485</v>
+        <f t="shared" ref="S102:Y102" si="145">S97</f>
+        <v>-32251</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" ref="T102:Z102" si="143">T97</f>
-        <v>-32251</v>
+        <f t="shared" si="145"/>
+        <v>-52535</v>
       </c>
       <c r="U102" s="2">
-        <f t="shared" si="143"/>
-        <v>-52535</v>
+        <f t="shared" si="145"/>
+        <v>-75000</v>
       </c>
       <c r="V102" s="2">
-        <f t="shared" si="143"/>
-        <v>-75000</v>
+        <f t="shared" si="145"/>
+        <v>-71250</v>
       </c>
       <c r="W102" s="2">
-        <f t="shared" si="143"/>
-        <v>-71250</v>
+        <f t="shared" si="145"/>
+        <v>-67687.5</v>
       </c>
       <c r="X102" s="2">
-        <f t="shared" si="143"/>
-        <v>-67687.5</v>
+        <f t="shared" si="145"/>
+        <v>-64303.125</v>
       </c>
       <c r="Y102" s="2">
-        <f t="shared" si="143"/>
-        <v>-64303.125</v>
-      </c>
-      <c r="Z102" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-61087.96875</v>
       </c>
     </row>
-    <row r="103" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -7433,39 +7392,39 @@
         <v>0</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" ref="C103:K103" si="144">C96+C102</f>
+        <f t="shared" ref="C103:K103" si="146">C96+C102</f>
         <v>39466</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>40386</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>24837</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="L103" s="5"/>
@@ -7474,627 +7433,626 @@
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
+      <c r="R103" s="5">
+        <f>R96+R102</f>
+        <v>60010</v>
+      </c>
       <c r="S103" s="5">
         <f>S96+S102</f>
-        <v>60010</v>
+        <v>69495</v>
       </c>
       <c r="T103" s="5">
         <f>T96+T102</f>
-        <v>69495</v>
+        <v>71244</v>
       </c>
       <c r="U103" s="5">
         <f>U96+U102</f>
-        <v>71244</v>
+        <v>63652.44428531779</v>
       </c>
       <c r="V103" s="5">
-        <f>V96+V102</f>
-        <v>63652.44428531779</v>
+        <f t="shared" ref="V103:Y103" si="147">V96+V102</f>
+        <v>92988.815889875259</v>
       </c>
       <c r="W103" s="5">
-        <f t="shared" ref="W103:Z103" si="145">W96+W102</f>
-        <v>93783.126429529919</v>
+        <f t="shared" si="147"/>
+        <v>124339.12809823893</v>
       </c>
       <c r="X103" s="5">
-        <f t="shared" si="145"/>
-        <v>124050.72730096069</v>
+        <f t="shared" si="147"/>
+        <v>159852.27908473453</v>
       </c>
       <c r="Y103" s="5">
-        <f t="shared" si="145"/>
-        <v>158137.21964598788</v>
+        <f t="shared" si="147"/>
+        <v>200220.76962566903</v>
       </c>
       <c r="Z103" s="5">
-        <f t="shared" si="145"/>
-        <v>196656.07324336225</v>
+        <f t="shared" ref="Z103:BE103" si="148">Y103*(1+$AB$97)</f>
+        <v>202222.97732192572</v>
       </c>
       <c r="AA103" s="5">
-        <f t="shared" ref="AA103:BF103" si="146">Z103*(1+$AC$97)</f>
-        <v>198622.63397579588</v>
+        <f t="shared" si="148"/>
+        <v>204245.20709514499</v>
       </c>
       <c r="AB103" s="5">
-        <f t="shared" si="146"/>
-        <v>200608.86031555384</v>
+        <f t="shared" si="148"/>
+        <v>206287.65916609645</v>
       </c>
       <c r="AC103" s="5">
-        <f t="shared" si="146"/>
-        <v>202614.94891870939</v>
+        <f t="shared" si="148"/>
+        <v>208350.5357577574</v>
       </c>
       <c r="AD103" s="5">
-        <f t="shared" si="146"/>
-        <v>204641.09840789647</v>
+        <f t="shared" si="148"/>
+        <v>210434.04111533499</v>
       </c>
       <c r="AE103" s="5">
-        <f t="shared" si="146"/>
-        <v>206687.50939197544</v>
+        <f t="shared" si="148"/>
+        <v>212538.38152648835</v>
       </c>
       <c r="AF103" s="5">
-        <f t="shared" si="146"/>
-        <v>208754.38448589519</v>
+        <f t="shared" si="148"/>
+        <v>214663.76534175323</v>
       </c>
       <c r="AG103" s="5">
-        <f t="shared" si="146"/>
-        <v>210841.92833075413</v>
+        <f t="shared" si="148"/>
+        <v>216810.40299517076</v>
       </c>
       <c r="AH103" s="5">
-        <f t="shared" si="146"/>
-        <v>212950.34761406167</v>
+        <f t="shared" si="148"/>
+        <v>218978.50702512247</v>
       </c>
       <c r="AI103" s="5">
-        <f t="shared" si="146"/>
-        <v>215079.85109020228</v>
+        <f t="shared" si="148"/>
+        <v>221168.2920953737</v>
       </c>
       <c r="AJ103" s="5">
-        <f t="shared" si="146"/>
-        <v>217230.64960110432</v>
+        <f t="shared" si="148"/>
+        <v>223379.97501632743</v>
       </c>
       <c r="AK103" s="5">
-        <f t="shared" si="146"/>
-        <v>219402.95609711536</v>
+        <f t="shared" si="148"/>
+        <v>225613.77476649071</v>
       </c>
       <c r="AL103" s="5">
-        <f t="shared" si="146"/>
-        <v>221596.98565808652</v>
+        <f t="shared" si="148"/>
+        <v>227869.91251415561</v>
       </c>
       <c r="AM103" s="5">
-        <f t="shared" si="146"/>
-        <v>223812.95551466738</v>
+        <f t="shared" si="148"/>
+        <v>230148.61163929716</v>
       </c>
       <c r="AN103" s="5">
-        <f t="shared" si="146"/>
-        <v>226051.08506981406</v>
+        <f t="shared" si="148"/>
+        <v>232450.09775569013</v>
       </c>
       <c r="AO103" s="5">
-        <f t="shared" si="146"/>
-        <v>228311.59592051219</v>
+        <f t="shared" si="148"/>
+        <v>234774.59873324702</v>
       </c>
       <c r="AP103" s="5">
-        <f t="shared" si="146"/>
-        <v>230594.7118797173</v>
+        <f t="shared" si="148"/>
+        <v>237122.34472057951</v>
       </c>
       <c r="AQ103" s="5">
-        <f t="shared" si="146"/>
-        <v>232900.65899851447</v>
+        <f t="shared" si="148"/>
+        <v>239493.5681677853</v>
       </c>
       <c r="AR103" s="5">
-        <f t="shared" si="146"/>
-        <v>235229.6655884996</v>
+        <f t="shared" si="148"/>
+        <v>241888.50384946316</v>
       </c>
       <c r="AS103" s="5">
-        <f t="shared" si="146"/>
-        <v>237581.9622443846</v>
+        <f t="shared" si="148"/>
+        <v>244307.38888795779</v>
       </c>
       <c r="AT103" s="5">
-        <f t="shared" si="146"/>
-        <v>239957.78186682845</v>
+        <f t="shared" si="148"/>
+        <v>246750.46277683738</v>
       </c>
       <c r="AU103" s="5">
-        <f t="shared" si="146"/>
-        <v>242357.35968549672</v>
+        <f t="shared" si="148"/>
+        <v>249217.96740460576</v>
       </c>
       <c r="AV103" s="5">
-        <f t="shared" si="146"/>
-        <v>244780.93328235167</v>
+        <f t="shared" si="148"/>
+        <v>251710.14707865182</v>
       </c>
       <c r="AW103" s="5">
-        <f t="shared" si="146"/>
-        <v>247228.7426151752</v>
+        <f t="shared" si="148"/>
+        <v>254227.24854943834</v>
       </c>
       <c r="AX103" s="5">
-        <f t="shared" si="146"/>
-        <v>249701.03004132694</v>
+        <f t="shared" si="148"/>
+        <v>256769.52103493272</v>
       </c>
       <c r="AY103" s="5">
-        <f t="shared" si="146"/>
-        <v>252198.04034174021</v>
+        <f t="shared" si="148"/>
+        <v>259337.21624528206</v>
       </c>
       <c r="AZ103" s="5">
-        <f t="shared" si="146"/>
-        <v>254720.02074515761</v>
+        <f t="shared" si="148"/>
+        <v>261930.58840773487</v>
       </c>
       <c r="BA103" s="5">
-        <f t="shared" si="146"/>
-        <v>257267.2209526092</v>
+        <f t="shared" si="148"/>
+        <v>264549.8942918122</v>
       </c>
       <c r="BB103" s="5">
-        <f t="shared" si="146"/>
-        <v>259839.8931621353</v>
+        <f t="shared" si="148"/>
+        <v>267195.39323473035</v>
       </c>
       <c r="BC103" s="5">
-        <f t="shared" si="146"/>
-        <v>262438.29209375667</v>
+        <f t="shared" si="148"/>
+        <v>269867.34716707765</v>
       </c>
       <c r="BD103" s="5">
-        <f t="shared" si="146"/>
-        <v>265062.67501469422</v>
+        <f t="shared" si="148"/>
+        <v>272566.02063874842</v>
       </c>
       <c r="BE103" s="5">
-        <f t="shared" si="146"/>
-        <v>267713.30176484119</v>
+        <f t="shared" si="148"/>
+        <v>275291.68084513588</v>
       </c>
       <c r="BF103" s="5">
-        <f t="shared" si="146"/>
-        <v>270390.43478248961</v>
+        <f t="shared" ref="BF103:CK103" si="149">BE103*(1+$AB$97)</f>
+        <v>278044.59765358723</v>
       </c>
       <c r="BG103" s="5">
-        <f t="shared" ref="BG103:CL103" si="147">BF103*(1+$AC$97)</f>
-        <v>273094.33913031453</v>
+        <f t="shared" si="149"/>
+        <v>280825.04363012308</v>
       </c>
       <c r="BH103" s="5">
-        <f t="shared" si="147"/>
-        <v>275825.28252161766</v>
+        <f t="shared" si="149"/>
+        <v>283633.29406642431</v>
       </c>
       <c r="BI103" s="5">
-        <f t="shared" si="147"/>
-        <v>278583.53534683381</v>
+        <f t="shared" si="149"/>
+        <v>286469.62700708857</v>
       </c>
       <c r="BJ103" s="5">
-        <f t="shared" si="147"/>
-        <v>281369.37070030213</v>
+        <f t="shared" si="149"/>
+        <v>289334.32327715948</v>
       </c>
       <c r="BK103" s="5">
-        <f t="shared" si="147"/>
-        <v>284183.06440730515</v>
+        <f t="shared" si="149"/>
+        <v>292227.66650993109</v>
       </c>
       <c r="BL103" s="5">
-        <f t="shared" si="147"/>
-        <v>287024.89505137823</v>
+        <f t="shared" si="149"/>
+        <v>295149.94317503041</v>
       </c>
       <c r="BM103" s="5">
-        <f t="shared" si="147"/>
-        <v>289895.14400189201</v>
+        <f t="shared" si="149"/>
+        <v>298101.44260678074</v>
       </c>
       <c r="BN103" s="5">
-        <f t="shared" si="147"/>
-        <v>292794.09544191096</v>
+        <f t="shared" si="149"/>
+        <v>301082.45703284856</v>
       </c>
       <c r="BO103" s="5">
-        <f t="shared" si="147"/>
-        <v>295722.03639633005</v>
+        <f t="shared" si="149"/>
+        <v>304093.28160317702</v>
       </c>
       <c r="BP103" s="5">
-        <f t="shared" si="147"/>
-        <v>298679.25676029333</v>
+        <f t="shared" si="149"/>
+        <v>307134.21441920882</v>
       </c>
       <c r="BQ103" s="5">
-        <f t="shared" si="147"/>
-        <v>301666.04932789627</v>
+        <f t="shared" si="149"/>
+        <v>310205.5565634009</v>
       </c>
       <c r="BR103" s="5">
-        <f t="shared" si="147"/>
-        <v>304682.70982117526</v>
+        <f t="shared" si="149"/>
+        <v>313307.61212903488</v>
       </c>
       <c r="BS103" s="5">
-        <f t="shared" si="147"/>
-        <v>307729.536919387</v>
+        <f t="shared" si="149"/>
+        <v>316440.68825032521</v>
       </c>
       <c r="BT103" s="5">
-        <f t="shared" si="147"/>
-        <v>310806.83228858089</v>
+        <f t="shared" si="149"/>
+        <v>319605.09513282846</v>
       </c>
       <c r="BU103" s="5">
-        <f t="shared" si="147"/>
-        <v>313914.90061146673</v>
+        <f t="shared" si="149"/>
+        <v>322801.14608415676</v>
       </c>
       <c r="BV103" s="5">
-        <f t="shared" si="147"/>
-        <v>317054.04961758142</v>
+        <f t="shared" si="149"/>
+        <v>326029.15754499834</v>
       </c>
       <c r="BW103" s="5">
-        <f t="shared" si="147"/>
-        <v>320224.59011375724</v>
+        <f t="shared" si="149"/>
+        <v>329289.44912044832</v>
       </c>
       <c r="BX103" s="5">
-        <f t="shared" si="147"/>
-        <v>323426.83601489483</v>
+        <f t="shared" si="149"/>
+        <v>332582.34361165279</v>
       </c>
       <c r="BY103" s="5">
-        <f t="shared" si="147"/>
-        <v>326661.10437504377</v>
+        <f t="shared" si="149"/>
+        <v>335908.1670477693</v>
       </c>
       <c r="BZ103" s="5">
-        <f t="shared" si="147"/>
-        <v>329927.71541879419</v>
+        <f t="shared" si="149"/>
+        <v>339267.24871824699</v>
       </c>
       <c r="CA103" s="5">
-        <f t="shared" si="147"/>
-        <v>333226.99257298216</v>
+        <f t="shared" si="149"/>
+        <v>342659.92120542948</v>
       </c>
       <c r="CB103" s="5">
-        <f t="shared" si="147"/>
-        <v>336559.26249871199</v>
+        <f t="shared" si="149"/>
+        <v>346086.52041748376</v>
       </c>
       <c r="CC103" s="5">
-        <f t="shared" si="147"/>
-        <v>339924.85512369912</v>
+        <f t="shared" si="149"/>
+        <v>349547.38562165858</v>
       </c>
       <c r="CD103" s="5">
-        <f t="shared" si="147"/>
-        <v>343324.10367493611</v>
+        <f t="shared" si="149"/>
+        <v>353042.85947787517</v>
       </c>
       <c r="CE103" s="5">
-        <f t="shared" si="147"/>
-        <v>346757.34471168549</v>
+        <f t="shared" si="149"/>
+        <v>356573.28807265393</v>
       </c>
       <c r="CF103" s="5">
-        <f t="shared" si="147"/>
-        <v>350224.91815880238</v>
+        <f t="shared" si="149"/>
+        <v>360139.02095338044</v>
       </c>
       <c r="CG103" s="5">
-        <f t="shared" si="147"/>
-        <v>353727.16734039038</v>
+        <f t="shared" si="149"/>
+        <v>363740.41116291424</v>
       </c>
       <c r="CH103" s="5">
-        <f t="shared" si="147"/>
-        <v>357264.4390137943</v>
+        <f t="shared" si="149"/>
+        <v>367377.81527454336</v>
       </c>
       <c r="CI103" s="5">
-        <f t="shared" si="147"/>
-        <v>360837.08340393222</v>
+        <f t="shared" si="149"/>
+        <v>371051.59342728881</v>
       </c>
       <c r="CJ103" s="5">
-        <f t="shared" si="147"/>
-        <v>364445.45423797157</v>
+        <f t="shared" si="149"/>
+        <v>374762.10936156171</v>
       </c>
       <c r="CK103" s="5">
-        <f t="shared" si="147"/>
-        <v>368089.90878035128</v>
+        <f t="shared" si="149"/>
+        <v>378509.73045517731</v>
       </c>
       <c r="CL103" s="5">
-        <f t="shared" si="147"/>
-        <v>371770.80786815478</v>
+        <f t="shared" ref="CL103:DQ103" si="150">CK103*(1+$AB$97)</f>
+        <v>382294.82775972912</v>
       </c>
       <c r="CM103" s="5">
-        <f t="shared" ref="CM103:DR103" si="148">CL103*(1+$AC$97)</f>
-        <v>375488.51594683633</v>
+        <f t="shared" si="150"/>
+        <v>386117.77603732643</v>
       </c>
       <c r="CN103" s="5">
-        <f t="shared" si="148"/>
-        <v>379243.40110630472</v>
+        <f t="shared" si="150"/>
+        <v>389978.95379769971</v>
       </c>
       <c r="CO103" s="5">
-        <f t="shared" si="148"/>
-        <v>383035.83511736779</v>
+        <f t="shared" si="150"/>
+        <v>393878.74333567673</v>
       </c>
       <c r="CP103" s="5">
-        <f t="shared" si="148"/>
-        <v>386866.19346854149</v>
+        <f t="shared" si="150"/>
+        <v>397817.53076903347</v>
       </c>
       <c r="CQ103" s="5">
-        <f t="shared" si="148"/>
-        <v>390734.85540322692</v>
+        <f t="shared" si="150"/>
+        <v>401795.70607672381</v>
       </c>
       <c r="CR103" s="5">
-        <f t="shared" si="148"/>
-        <v>394642.20395725919</v>
+        <f t="shared" si="150"/>
+        <v>405813.66313749104</v>
       </c>
       <c r="CS103" s="5">
-        <f t="shared" si="148"/>
-        <v>398588.6259968318</v>
+        <f t="shared" si="150"/>
+        <v>409871.79976886592</v>
       </c>
       <c r="CT103" s="5">
-        <f t="shared" si="148"/>
-        <v>402574.51225680014</v>
+        <f t="shared" si="150"/>
+        <v>413970.51776655461</v>
       </c>
       <c r="CU103" s="5">
-        <f t="shared" si="148"/>
-        <v>406600.25737936812</v>
+        <f t="shared" si="150"/>
+        <v>418110.22294422018</v>
       </c>
       <c r="CV103" s="5">
-        <f t="shared" si="148"/>
-        <v>410666.25995316182</v>
+        <f t="shared" si="150"/>
+        <v>422291.32517366239</v>
       </c>
       <c r="CW103" s="5">
-        <f t="shared" si="148"/>
-        <v>414772.92255269346</v>
+        <f t="shared" si="150"/>
+        <v>426514.238425399</v>
       </c>
       <c r="CX103" s="5">
-        <f t="shared" si="148"/>
-        <v>418920.65177822037</v>
+        <f t="shared" si="150"/>
+        <v>430779.38080965297</v>
       </c>
       <c r="CY103" s="5">
-        <f t="shared" si="148"/>
-        <v>423109.85829600255</v>
+        <f t="shared" si="150"/>
+        <v>435087.17461774952</v>
       </c>
       <c r="CZ103" s="5">
-        <f t="shared" si="148"/>
-        <v>427340.95687896258</v>
+        <f t="shared" si="150"/>
+        <v>439438.04636392702</v>
       </c>
       <c r="DA103" s="5">
-        <f t="shared" si="148"/>
-        <v>431614.36644775223</v>
+        <f t="shared" si="150"/>
+        <v>443832.42682756629</v>
       </c>
       <c r="DB103" s="5">
-        <f t="shared" si="148"/>
-        <v>435930.51011222973</v>
+        <f t="shared" si="150"/>
+        <v>448270.75109584193</v>
       </c>
       <c r="DC103" s="5">
-        <f t="shared" si="148"/>
-        <v>440289.81521335203</v>
+        <f t="shared" si="150"/>
+        <v>452753.45860680036</v>
       </c>
       <c r="DD103" s="5">
-        <f t="shared" si="148"/>
-        <v>444692.71336548554</v>
+        <f t="shared" si="150"/>
+        <v>457280.99319286837</v>
       </c>
       <c r="DE103" s="5">
-        <f t="shared" si="148"/>
-        <v>449139.64049914043</v>
+        <f t="shared" si="150"/>
+        <v>461853.80312479706</v>
       </c>
       <c r="DF103" s="5">
-        <f t="shared" si="148"/>
-        <v>453631.03690413182</v>
+        <f t="shared" si="150"/>
+        <v>466472.34115604503</v>
       </c>
       <c r="DG103" s="5">
-        <f t="shared" si="148"/>
-        <v>458167.34727317316</v>
+        <f t="shared" si="150"/>
+        <v>471137.0645676055</v>
       </c>
       <c r="DH103" s="5">
-        <f t="shared" si="148"/>
-        <v>462749.02074590488</v>
+        <f t="shared" si="150"/>
+        <v>475848.43521328154</v>
       </c>
       <c r="DI103" s="5">
-        <f t="shared" si="148"/>
-        <v>467376.51095336396</v>
+        <f t="shared" si="150"/>
+        <v>480606.91956541437</v>
       </c>
       <c r="DJ103" s="5">
-        <f t="shared" si="148"/>
-        <v>472050.27606289758</v>
+        <f t="shared" si="150"/>
+        <v>485412.9887610685</v>
       </c>
       <c r="DK103" s="5">
-        <f t="shared" si="148"/>
-        <v>476770.77882352658</v>
+        <f t="shared" si="150"/>
+        <v>490267.11864867917</v>
       </c>
       <c r="DL103" s="5">
-        <f t="shared" si="148"/>
-        <v>481538.48661176185</v>
+        <f t="shared" si="150"/>
+        <v>495169.78983516595</v>
       </c>
       <c r="DM103" s="5">
-        <f t="shared" si="148"/>
-        <v>486353.87147787947</v>
+        <f t="shared" si="150"/>
+        <v>500121.4877335176</v>
       </c>
       <c r="DN103" s="5">
-        <f t="shared" si="148"/>
-        <v>491217.41019265825</v>
+        <f t="shared" si="150"/>
+        <v>505122.70261085278</v>
       </c>
       <c r="DO103" s="5">
-        <f t="shared" si="148"/>
-        <v>496129.58429458481</v>
+        <f t="shared" si="150"/>
+        <v>510173.92963696131</v>
       </c>
       <c r="DP103" s="5">
-        <f t="shared" si="148"/>
-        <v>501090.88013753068</v>
+        <f t="shared" si="150"/>
+        <v>515275.66893333092</v>
       </c>
       <c r="DQ103" s="5">
-        <f t="shared" si="148"/>
-        <v>506101.78893890599</v>
+        <f t="shared" si="150"/>
+        <v>520428.42562266422</v>
       </c>
       <c r="DR103" s="5">
-        <f t="shared" si="148"/>
-        <v>511162.80682829506</v>
+        <f t="shared" ref="DR103:EW103" si="151">DQ103*(1+$AB$97)</f>
+        <v>525632.70987889089</v>
       </c>
       <c r="DS103" s="5">
-        <f t="shared" ref="DS103:EX103" si="149">DR103*(1+$AC$97)</f>
-        <v>516274.43489657802</v>
+        <f t="shared" si="151"/>
+        <v>530889.03697767982</v>
       </c>
       <c r="DT103" s="5">
-        <f t="shared" si="149"/>
-        <v>521437.17924554378</v>
+        <f t="shared" si="151"/>
+        <v>536197.92734745657</v>
       </c>
       <c r="DU103" s="5">
-        <f t="shared" si="149"/>
-        <v>526651.55103799922</v>
+        <f t="shared" si="151"/>
+        <v>541559.90662093111</v>
       </c>
       <c r="DV103" s="5">
-        <f t="shared" si="149"/>
-        <v>531918.06654837925</v>
+        <f t="shared" si="151"/>
+        <v>546975.50568714039</v>
       </c>
       <c r="DW103" s="5">
-        <f t="shared" si="149"/>
-        <v>537237.24721386307</v>
+        <f t="shared" si="151"/>
+        <v>552445.26074401184</v>
       </c>
       <c r="DX103" s="5">
-        <f t="shared" si="149"/>
-        <v>542609.61968600168</v>
+        <f t="shared" si="151"/>
+        <v>557969.71335145202</v>
       </c>
       <c r="DY103" s="5">
-        <f t="shared" si="149"/>
-        <v>548035.71588286175</v>
+        <f t="shared" si="151"/>
+        <v>563549.41048496659</v>
       </c>
       <c r="DZ103" s="5">
-        <f t="shared" si="149"/>
-        <v>553516.0730416904</v>
+        <f t="shared" si="151"/>
+        <v>569184.90458981623</v>
       </c>
       <c r="EA103" s="5">
-        <f t="shared" si="149"/>
-        <v>559051.23377210728</v>
+        <f t="shared" si="151"/>
+        <v>574876.75363571441</v>
       </c>
       <c r="EB103" s="5">
-        <f t="shared" si="149"/>
-        <v>564641.74610982835</v>
+        <f t="shared" si="151"/>
+        <v>580625.52117207157</v>
       </c>
       <c r="EC103" s="5">
-        <f t="shared" si="149"/>
-        <v>570288.16357092664</v>
+        <f t="shared" si="151"/>
+        <v>586431.77638379228</v>
       </c>
       <c r="ED103" s="5">
-        <f t="shared" si="149"/>
-        <v>575991.04520663596</v>
+        <f t="shared" si="151"/>
+        <v>592296.09414763027</v>
       </c>
       <c r="EE103" s="5">
-        <f t="shared" si="149"/>
-        <v>581750.9556587023</v>
+        <f t="shared" si="151"/>
+        <v>598219.05508910655</v>
       </c>
       <c r="EF103" s="5">
-        <f t="shared" si="149"/>
-        <v>587568.46521528927</v>
+        <f t="shared" si="151"/>
+        <v>604201.24563999765</v>
       </c>
       <c r="EG103" s="5">
-        <f t="shared" si="149"/>
-        <v>593444.1498674422</v>
+        <f t="shared" si="151"/>
+        <v>610243.25809639762</v>
       </c>
       <c r="EH103" s="5">
-        <f t="shared" si="149"/>
-        <v>599378.59136611666</v>
+        <f t="shared" si="151"/>
+        <v>616345.69067736156</v>
       </c>
       <c r="EI103" s="5">
-        <f t="shared" si="149"/>
-        <v>605372.37727977778</v>
+        <f t="shared" si="151"/>
+        <v>622509.14758413518</v>
       </c>
       <c r="EJ103" s="5">
-        <f t="shared" si="149"/>
-        <v>611426.10105257551</v>
+        <f t="shared" si="151"/>
+        <v>628734.23905997653</v>
       </c>
       <c r="EK103" s="5">
-        <f t="shared" si="149"/>
-        <v>617540.36206310126</v>
+        <f t="shared" si="151"/>
+        <v>635021.58145057631</v>
       </c>
       <c r="EL103" s="5">
-        <f t="shared" si="149"/>
-        <v>623715.76568373223</v>
+        <f t="shared" si="151"/>
+        <v>641371.79726508213</v>
       </c>
       <c r="EM103" s="5">
-        <f t="shared" si="149"/>
-        <v>629952.9233405696</v>
+        <f t="shared" si="151"/>
+        <v>647785.51523773291</v>
       </c>
       <c r="EN103" s="5">
-        <f t="shared" si="149"/>
-        <v>636252.45257397532</v>
+        <f t="shared" si="151"/>
+        <v>654263.37039011018</v>
       </c>
       <c r="EO103" s="5">
-        <f t="shared" si="149"/>
-        <v>642614.97709971503</v>
+        <f t="shared" si="151"/>
+        <v>660806.00409401127</v>
       </c>
       <c r="EP103" s="5">
-        <f t="shared" si="149"/>
-        <v>649041.12687071215</v>
+        <f t="shared" si="151"/>
+        <v>667414.06413495133</v>
       </c>
       <c r="EQ103" s="5">
-        <f t="shared" si="149"/>
-        <v>655531.53813941928</v>
+        <f t="shared" si="151"/>
+        <v>674088.20477630082</v>
       </c>
       <c r="ER103" s="5">
-        <f t="shared" si="149"/>
-        <v>662086.85352081351</v>
+        <f t="shared" si="151"/>
+        <v>680829.08682406379</v>
       </c>
       <c r="ES103" s="5">
-        <f t="shared" si="149"/>
-        <v>668707.72205602168</v>
+        <f t="shared" si="151"/>
+        <v>687637.37769230444</v>
       </c>
       <c r="ET103" s="5">
-        <f t="shared" si="149"/>
-        <v>675394.79927658185</v>
+        <f t="shared" si="151"/>
+        <v>694513.75146922749</v>
       </c>
       <c r="EU103" s="5">
-        <f t="shared" si="149"/>
-        <v>682148.74726934766</v>
+        <f t="shared" si="151"/>
+        <v>701458.88898391975</v>
       </c>
       <c r="EV103" s="5">
-        <f t="shared" si="149"/>
-        <v>688970.2347420411</v>
+        <f t="shared" si="151"/>
+        <v>708473.47787375899</v>
       </c>
       <c r="EW103" s="5">
-        <f t="shared" si="149"/>
-        <v>695859.93708946148</v>
+        <f t="shared" si="151"/>
+        <v>715558.21265249664</v>
       </c>
       <c r="EX103" s="5">
-        <f t="shared" si="149"/>
-        <v>702818.53646035609</v>
+        <f t="shared" ref="EX103:FF103" si="152">EW103*(1+$AB$97)</f>
+        <v>722713.79477902164</v>
       </c>
       <c r="EY103" s="5">
-        <f t="shared" ref="EY103:FG103" si="150">EX103*(1+$AC$97)</f>
-        <v>709846.72182495962</v>
+        <f t="shared" si="152"/>
+        <v>729940.93272681185</v>
       </c>
       <c r="EZ103" s="5">
-        <f t="shared" si="150"/>
-        <v>716945.18904320919</v>
+        <f t="shared" si="152"/>
+        <v>737240.34205407999</v>
       </c>
       <c r="FA103" s="5">
-        <f t="shared" si="150"/>
-        <v>724114.64093364123</v>
+        <f t="shared" si="152"/>
+        <v>744612.74547462084</v>
       </c>
       <c r="FB103" s="5">
-        <f t="shared" si="150"/>
-        <v>731355.78734297759</v>
+        <f t="shared" si="152"/>
+        <v>752058.872929367</v>
       </c>
       <c r="FC103" s="5">
-        <f t="shared" si="150"/>
-        <v>738669.34521640732</v>
+        <f t="shared" si="152"/>
+        <v>759579.46165866067</v>
       </c>
       <c r="FD103" s="5">
-        <f t="shared" si="150"/>
-        <v>746056.03866857139</v>
+        <f t="shared" si="152"/>
+        <v>767175.25627524732</v>
       </c>
       <c r="FE103" s="5">
-        <f t="shared" si="150"/>
-        <v>753516.59905525716</v>
+        <f t="shared" si="152"/>
+        <v>774847.00883799978</v>
       </c>
       <c r="FF103" s="5">
-        <f t="shared" si="150"/>
-        <v>761051.76504580979</v>
-      </c>
-      <c r="FG103" s="5">
-        <f t="shared" si="150"/>
-        <v>768662.28269626794</v>
-      </c>
-    </row>
-    <row r="104" spans="1:163" x14ac:dyDescent="0.25">
+        <f t="shared" si="152"/>
+        <v>782595.47892637982</v>
+      </c>
+    </row>
+    <row r="104" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="R104" s="3">
+        <f t="shared" ref="R104:Y104" si="153">R103/R96</f>
+        <v>0.65588283512760259</v>
+      </c>
       <c r="S104" s="3">
-        <f t="shared" ref="S104:Z104" si="151">S103/S96</f>
-        <v>0.65588283512760259</v>
+        <f t="shared" si="153"/>
+        <v>0.6830243940793741</v>
       </c>
       <c r="T104" s="3">
-        <f t="shared" si="151"/>
-        <v>0.6830243940793741</v>
+        <f t="shared" si="153"/>
+        <v>0.57557420887226429</v>
       </c>
       <c r="U104" s="3">
-        <f t="shared" si="151"/>
-        <v>0.57557420887226429</v>
+        <f t="shared" si="153"/>
+        <v>0.45907913570087772</v>
       </c>
       <c r="V104" s="3">
-        <f t="shared" si="151"/>
-        <v>0.45907913570087772</v>
+        <f t="shared" si="153"/>
+        <v>0.56618050602742864</v>
       </c>
       <c r="W104" s="3">
-        <f t="shared" si="151"/>
-        <v>0.56826849529252443</v>
+        <f t="shared" si="153"/>
+        <v>0.64750982366168641</v>
       </c>
       <c r="X104" s="3">
-        <f t="shared" si="151"/>
-        <v>0.64697962971278156</v>
+        <f t="shared" si="153"/>
+        <v>0.71313149793304853</v>
       </c>
       <c r="Y104" s="3">
-        <f t="shared" si="151"/>
-        <v>0.71091968454581411</v>
-      </c>
-      <c r="Z104" s="3">
-        <f t="shared" si="151"/>
-        <v>0.76298979298395109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:163" x14ac:dyDescent="0.25">
+        <f t="shared" si="153"/>
+        <v>0.76622301600118237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="R109" s="3"/>
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
       <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A31E1-25B2-4E05-B729-32E6E60D4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F38E8F-D477-4D60-962A-4FEEDBF797A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="1005" yWindow="405" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1212,10 +1212,10 @@
   <dimension ref="A1:HK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y50" sqref="Y50"/>
+      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,16 +1420,15 @@
         <f>I7/I21</f>
         <v>-2.7952380952380951</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -1452,17 +1451,16 @@
         <v>32826</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -1500,16 +1498,15 @@
         <f>M3*M20</f>
         <v>7524.5695795200045</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>2.2400000000000002</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1531,16 +1528,15 @@
       <c r="I7" s="2">
         <v>-1174</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>2.11</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -4368,7 +4364,7 @@
       <c r="R35" s="8"/>
       <c r="S35" s="3"/>
       <c r="T35" s="8">
-        <f t="shared" ref="R35:T35" si="65">T34/T36</f>
+        <f t="shared" ref="T35" si="65">T34/T36</f>
         <v>8.1732244897959188</v>
       </c>
       <c r="U35" s="8">
@@ -5085,12 +5081,12 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="R46" s="9"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
+      <c r="W46" s="9"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F38E8F-D477-4D60-962A-4FEEDBF797A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB71840-225D-4FF2-A1E6-8EFBC4E52AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1005" yWindow="405" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <author>tc={50D81D40-768D-4E6C-B865-C43BC614BF3C}</author>
   </authors>
   <commentList>
-    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>GOOGL</t>
   </si>
@@ -501,15 +501,6 @@
   </si>
   <si>
     <t>Q1 ESTIMATES</t>
-  </si>
-  <si>
-    <t>Mine</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Consensus</t>
   </si>
   <si>
     <t>Expected Move</t>
@@ -1055,7 +1046,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M10" dT="2025-04-24T20:04:58.81" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
+  <threadedComment ref="N6" dT="2025-04-24T20:04:58.81" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{6FF532F1-830D-4259-9AB9-82FDC064399F}">
     <text xml:space="preserve">Normalized </text>
   </threadedComment>
   <threadedComment ref="U13" dT="2025-04-24T04:47:45.78" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B99DE3B8-CC20-4BAA-9DF2-73E63E2833F9}">
@@ -1212,10 +1203,10 @@
   <dimension ref="A1:HK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,10 +1415,10 @@
         <v>116</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -1458,7 +1449,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="4"/>
@@ -1505,7 +1496,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -1535,7 +1526,7 @@
         <v>2.11</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1581,9 +1572,6 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
-      <c r="M9" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1622,9 +1610,6 @@
         <f>J11/J15</f>
         <v>0.27478994707036314</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="11">
         <f>R11/R15</f>
@@ -1677,9 +1662,6 @@
       <c r="J11" s="2">
         <f>I11*0.93</f>
         <v>13808.640000000001</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1739,7 +1721,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T12" s="2">
         <v>183323</v>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB71840-225D-4FF2-A1E6-8EFBC4E52AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9213938-7CDF-4E2B-9168-E9332D447B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="405" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="5835" yWindow="810" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>156</v>
+        <v>151.34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="I4" s="2">
         <f>I3*I2</f>
-        <v>1911000</v>
+        <v>1853915</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I7" s="2">
         <f>I4+I6-I5</f>
-        <v>1826226</v>
+        <v>1769141</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1203,10 +1203,10 @@
   <dimension ref="A1:HK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1217,7 @@
     <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="9.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" customWidth="1"/>
     <col min="15" max="19" width="9.140625" style="2"/>
     <col min="20" max="20" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="AB101" s="3">
         <f>AB100/main!I2-1</f>
-        <v>0.33010772852120351</v>
+        <v>0.37106386711581685</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.25">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E950D111-E08E-43BC-B22D-87A7F5C64894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A72EF4-6185-4930-9AF8-EB147C1B6FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1020" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B77E1F6-E010-4C2A-A7A7-05E6849E9A4F}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="I4" s="1">
         <f>I3*I2</f>
-        <v>1911000</v>
+        <v>1947750</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I7" s="1">
         <f>I4+I6-I5</f>
-        <v>1826226</v>
+        <v>1862976</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
   <dimension ref="A1:HK109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="AB101" s="4">
         <f>AB100/main!I2-1</f>
-        <v>0.35581874983946782</v>
+        <v>0.33023726399344011</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.2">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A72EF4-6185-4930-9AF8-EB147C1B6FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA7C9B9-DD63-4C36-BAC3-497650FAE190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="4635" yWindow="585" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B77E1F6-E010-4C2A-A7A7-05E6849E9A4F}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="I4" s="1">
         <f>I3*I2</f>
-        <v>1947750</v>
+        <v>2033500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I7" s="1">
         <f>I4+I6-I5</f>
-        <v>1862976</v>
+        <v>1948726</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1213,11 +1213,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
   <dimension ref="A1:HK109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB98" sqref="AB98"/>
+      <selection pane="bottomRight" activeCell="Z89" sqref="Z89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="AB101" s="4">
         <f>AB100/main!I2-1</f>
-        <v>0.33023726399344011</v>
+        <v>0.27414292153588526</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.2">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA7C9B9-DD63-4C36-BAC3-497650FAE190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7568F31E-78F2-44E2-9DDD-C6F02D3B737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="585" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="810" yWindow="525" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="I4" s="1">
         <f>I3*I2</f>
-        <v>2033500</v>
+        <v>2143750</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I7" s="1">
         <f>I4+I6-I5</f>
-        <v>1948726</v>
+        <v>2058976</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1214,10 +1214,10 @@
   <dimension ref="A1:HK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z89" sqref="Z89"/>
+      <selection pane="bottomRight" activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1639,16 +1639,20 @@
         <v>0.27</v>
       </c>
       <c r="V10" s="8">
-        <v>0.27</v>
+        <f t="shared" ref="V10:Y10" si="6">U10*0.98</f>
+        <v>0.2646</v>
       </c>
       <c r="W10" s="8">
-        <v>0.27</v>
+        <f t="shared" si="6"/>
+        <v>0.25930799999999998</v>
       </c>
       <c r="X10" s="8">
-        <v>0.27</v>
+        <f t="shared" si="6"/>
+        <v>0.25412183999999999</v>
       </c>
       <c r="Y10" s="8">
-        <v>0.27</v>
+        <f t="shared" si="6"/>
+        <v>0.24903940319999998</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.25">
@@ -1688,20 +1692,20 @@
         <v>59354.516037038411</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" ref="V11:Y11" si="6">V10*V15</f>
-        <v>65883.512801112636</v>
+        <f t="shared" ref="V11:Y11" si="7">V10*V15</f>
+        <v>64565.842545090381</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="6"/>
-        <v>73130.699209235027</v>
+        <f t="shared" si="7"/>
+        <v>70234.72352054932</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="6"/>
-        <v>81175.076122250888</v>
+        <f t="shared" si="7"/>
+        <v>76401.332245653553</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="6"/>
-        <v>90104.334495698495</v>
+        <f t="shared" si="7"/>
+        <v>83109.369216821942</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.25">
@@ -1749,69 +1753,69 @@
         <v>108</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ref="B13:J13" si="7">B20+B16</f>
+        <f t="shared" ref="B13:J13" si="8">B20+B16</f>
         <v>14147</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15696</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16363</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18392</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17664</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19010</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20274</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22428</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23024.760000000002</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" ref="K13:M13" si="8">K20+K16</f>
+        <f t="shared" ref="K13:M13" si="9">K20+K16</f>
         <v>25980.434400000006</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29317.768176000005</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33086.337435840003</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:S13" si="9">R16+R20</f>
+        <f t="shared" ref="R13:S13" si="10">R16+R20</f>
         <v>55523</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64598</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" ref="T13:U13" si="10">T16+T20</f>
+        <f t="shared" ref="T13:U13" si="11">T16+T20</f>
         <v>79376</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>111409.30001184001</v>
       </c>
       <c r="V13" s="1">
@@ -1893,11 +1897,11 @@
         <v>53266.717200000006</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ref="L15:M15" si="11">K15*1.06</f>
+        <f t="shared" ref="L15:M15" si="12">K15*1.06</f>
         <v>56462.720232000007</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59850.483445920014</v>
       </c>
       <c r="O15" s="1">
@@ -1927,15 +1931,15 @@
         <v>244013.01037449125</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ref="W15:Y15" si="12">V15*1.11</f>
+        <f t="shared" ref="W15:Y15" si="13">V15*1.11</f>
         <v>270854.44151568529</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300648.43008241069</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>333719.7573914759</v>
       </c>
     </row>
@@ -1976,11 +1980,11 @@
         <v>10984.082399999999</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16:M16" si="13">K16*1.14</f>
+        <f t="shared" ref="L16:M16" si="14">K16*1.14</f>
         <v>12521.853935999998</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14274.913487039996</v>
       </c>
       <c r="N16" s="4"/>
@@ -2004,15 +2008,15 @@
         <v>53105.931001804791</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16:Y16" si="14">V16*1.12</f>
+        <f t="shared" ref="W16:Y16" si="15">V16*1.12</f>
         <v>59478.642722021374</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>66616.07984866394</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>74610.009430503618</v>
       </c>
     </row>
@@ -2053,11 +2057,11 @@
         <v>7464.0336000000007</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" ref="L17:M17" si="15">K17*1.02</f>
+        <f t="shared" ref="L17:M17" si="16">K17*1.02</f>
         <v>7613.3142720000005</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7765.580557440001</v>
       </c>
       <c r="N17" s="4"/>
@@ -2081,15 +2085,15 @@
         <v>30462.214513734401</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17:Y17" si="16">V17*1.01</f>
+        <f t="shared" ref="W17:Y17" si="17">V17*1.01</f>
         <v>30766.836658871747</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31074.505025460465</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31385.25007571507</v>
       </c>
     </row>
@@ -2130,11 +2134,11 @@
         <v>11023.4308</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:M18" si="17">K18*1.03</f>
+        <f t="shared" ref="L18:M18" si="18">K18*1.03</f>
         <v>11354.133724000001</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11694.757735720001</v>
       </c>
       <c r="P18" s="2"/>
@@ -2157,15 +2161,15 @@
         <v>50147.644130886409</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18:Y18" si="18">V18*1.12</f>
+        <f t="shared" ref="W18:Y18" si="19">V18*1.12</f>
         <v>56165.361426592783</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>62905.204797783925</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>70453.829373518005</v>
       </c>
     </row>
@@ -2178,91 +2182,91 @@
         <v>61961</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:O19" si="19">SUM(C15:C18)</f>
+        <f t="shared" ref="C19:O19" si="20">SUM(C15:C18)</f>
         <v>66285</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>67986</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>76311</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>70398</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>73928</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>76510</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>84094</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>77906.819999999992</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>82738.26400000001</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>87952.022164000009</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>93585.735226120014</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>161857</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ref="P19" si="20">SUM(P15:P18)</f>
+        <f t="shared" ref="P19" si="21">SUM(P15:P18)</f>
         <v>182527</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" ref="Q19" si="21">SUM(Q15:Q18)</f>
+        <f t="shared" ref="Q19" si="22">SUM(Q15:Q18)</f>
         <v>257637</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" ref="R19" si="22">SUM(R15:R18)</f>
+        <f t="shared" ref="R19" si="23">SUM(R15:R18)</f>
         <v>253528</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" ref="S19" si="23">SUM(S15:S18)</f>
+        <f t="shared" ref="S19" si="24">SUM(S15:S18)</f>
         <v>272543</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" ref="T19" si="24">SUM(T15:T18)</f>
+        <f t="shared" ref="T19" si="25">SUM(T15:T18)</f>
         <v>304930</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" ref="U19" si="25">SUM(U15:U18)</f>
+        <f t="shared" ref="U19" si="26">SUM(U15:U18)</f>
         <v>342182.84139011998</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19" si="26">SUM(V15:V18)</f>
+        <f t="shared" ref="V19" si="27">SUM(V15:V18)</f>
         <v>377728.80002091685</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" ref="W19" si="27">SUM(W15:W18)</f>
+        <f t="shared" ref="W19" si="28">SUM(W15:W18)</f>
         <v>417265.28232317121</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" ref="X19" si="28">SUM(X15:X18)</f>
+        <f t="shared" ref="X19" si="29">SUM(X15:X18)</f>
         <v>461244.219754319</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19" si="29">SUM(Y15:Y18)</f>
+        <f t="shared" ref="Y19" si="30">SUM(Y15:Y18)</f>
         <v>510168.84627121262</v>
       </c>
     </row>
@@ -2299,15 +2303,15 @@
         <v>13389.600000000002</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:M20" si="30">J20*1.12</f>
+        <f t="shared" ref="K20:M20" si="31">J20*1.12</f>
         <v>14996.352000000004</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16795.914240000006</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18811.423948800009</v>
       </c>
       <c r="N20" s="4"/>
@@ -2331,15 +2335,15 @@
         <v>76791.948226560024</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20:Y20" si="31">V20*1.2</f>
+        <f t="shared" ref="W20:Y20" si="32">V20*1.2</f>
         <v>92150.33787187202</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>110580.40544624643</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>132696.4865354957</v>
       </c>
     </row>
@@ -2388,11 +2392,11 @@
         <v>398.41200000000003</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" ref="L21:M21" si="32">K21*1.02</f>
+        <f t="shared" ref="L21:M21" si="33">K21*1.02</f>
         <v>406.38024000000001</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>414.50784480000004</v>
       </c>
       <c r="P21" s="2"/>
@@ -2418,15 +2422,15 @@
         <v>1690.3950890400001</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ref="W21:Y21" si="33">V21*1.05</f>
+        <f t="shared" ref="W21:Y21" si="34">V21*1.05</f>
         <v>1774.9148434920003</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1863.6605856666004</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1956.8436149499305</v>
       </c>
     </row>
@@ -2439,31 +2443,31 @@
         <v>69787</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:Y22" si="34">SUM(C19:C21)</f>
+        <f t="shared" ref="C22:Y22" si="35">SUM(C19:C21)</f>
         <v>74604</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>76693</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>86310</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>80539</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>84742</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>88268</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>96469</v>
       </c>
       <c r="J22" s="3">
@@ -2471,39 +2475,39 @@
         <v>91687.02</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" ref="K22:M22" si="35">SUM(K19:K21)</f>
+        <f t="shared" ref="K22:M22" si="36">SUM(K19:K21)</f>
         <v>98133.028000000006</v>
       </c>
       <c r="L22" s="3">
+        <f t="shared" si="36"/>
+        <v>105154.31664400001</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="36"/>
+        <v>112811.66701972003</v>
+      </c>
+      <c r="O22" s="3">
         <f t="shared" si="35"/>
-        <v>105154.31664400001</v>
-      </c>
-      <c r="M22" s="3">
+        <v>161857</v>
+      </c>
+      <c r="P22" s="3">
         <f t="shared" si="35"/>
-        <v>112811.66701972003</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="34"/>
-        <v>161857</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" si="34"/>
         <v>182527</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>257637</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>282836</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>307394</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>350018</v>
       </c>
       <c r="U22" s="3">
@@ -2511,19 +2515,19 @@
         <v>407786.03166372003</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>456211.14333651686</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>511190.53503853519</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>573688.2857862321</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>644822.17642165825</v>
       </c>
     </row>
@@ -2560,15 +2564,15 @@
         <v>38508.548400000007</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ref="K23:M23" si="36">K22*(1-K43)</f>
+        <f t="shared" ref="K23:M23" si="37">K22*(1-K43)</f>
         <v>41215.871760000009</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>44164.812990480008</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>47380.900148282417</v>
       </c>
       <c r="O23" s="1">
@@ -2595,19 +2599,19 @@
       </c>
       <c r="V23" s="1">
         <f>V22*(1-V43)</f>
-        <v>188027.19906384186</v>
+        <v>185352.06405377053</v>
       </c>
       <c r="W23" s="1">
         <f>W22*(1-W43)</f>
-        <v>209184.41036640998</v>
+        <v>204654.3934344195</v>
       </c>
       <c r="X23" s="1">
         <f>X22*(1-X43)</f>
-        <v>233064.48525602656</v>
+        <v>226235.14772864743</v>
       </c>
       <c r="Y23" s="1">
         <f>Y22*(1-Y43)</f>
-        <v>260048.78158341916</v>
+        <v>250381.59051432519</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2619,47 +2623,47 @@
         <v>39175</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:M24" si="37">C22-C23</f>
+        <f t="shared" ref="C24:M24" si="38">C22-C23</f>
         <v>42688</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43464</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>48735</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>46827</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>49235</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>51794</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>55856</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>53178.471599999997</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>56917.156239999997</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>60989.503653519998</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>65430.766871437612</v>
       </c>
       <c r="O24" s="1">
@@ -2675,15 +2679,15 @@
         <v>146698</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:T24" si="38">R22-R23</f>
+        <f t="shared" ref="R24:T24" si="39">R22-R23</f>
         <v>156633</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>174062</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>203716</v>
       </c>
       <c r="U24" s="1">
@@ -2692,19 +2696,19 @@
       </c>
       <c r="V24" s="1">
         <f>V22-V23</f>
-        <v>268183.94427267497</v>
+        <v>270859.0792827463</v>
       </c>
       <c r="W24" s="1">
         <f>W22-W23</f>
-        <v>302006.12467212521</v>
+        <v>306536.14160411572</v>
       </c>
       <c r="X24" s="1">
         <f>X22-X23</f>
-        <v>340623.80053020554</v>
+        <v>347453.13805758464</v>
       </c>
       <c r="Y24" s="1">
         <f>Y22-Y23</f>
-        <v>384773.39483823907</v>
+        <v>394440.58590733306</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -2740,15 +2744,15 @@
         <v>12465.838293337758</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:M25" si="39">J25*(1+K39)</f>
+        <f t="shared" ref="K25:M25" si="40">J25*(1+K39)</f>
         <v>13342.24253644176</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>14296.862381725779</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>15337.961672979383</v>
       </c>
       <c r="O25" s="1">
@@ -2774,19 +2778,19 @@
         <v>57466.912552624875</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" ref="V25:Y25" si="40">U25*(1+V38)</f>
+        <f t="shared" ref="V25:Y25" si="41">U25*(1+V38)</f>
         <v>64291.181756986873</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>72039.107506787623</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>80846.551847881216</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>90871.037130018231</v>
       </c>
     </row>
@@ -2823,15 +2827,15 @@
         <v>6998.0151992868186</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ref="K26:M26" si="41">J26*(1+K39)</f>
+        <f t="shared" ref="K26:M26" si="42">J26*(1+K39)</f>
         <v>7490.0069987664438</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8025.9071147184286</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8610.3546659154617</v>
       </c>
       <c r="O26" s="1">
@@ -2857,19 +2861,19 @@
         <v>29198.400000000001</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" ref="V26:Y26" si="42">U26*1.05</f>
+        <f t="shared" ref="V26:Y26" si="43">U26*1.05</f>
         <v>30658.320000000003</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>32191.236000000004</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>33800.797800000008</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>35490.837690000008</v>
       </c>
     </row>
@@ -2906,15 +2910,15 @@
         <v>4186.643617120526</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ref="K27:M27" si="43">J27*(1+K39)</f>
+        <f t="shared" ref="K27:M27" si="44">J27*(1+K39)</f>
         <v>4480.983407519514</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4801.5918566256523</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>5151.2443709571653</v>
       </c>
       <c r="O27" s="1">
@@ -2941,19 +2945,19 @@
         <v>14471.76</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" ref="V27:Y27" si="44">U27*1.02</f>
+        <f t="shared" ref="V27:Y27" si="45">U27*1.02</f>
         <v>14761.1952</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15056.419104000001</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15357.54748608</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15664.698435801602</v>
       </c>
     </row>
@@ -2966,91 +2970,91 @@
         <v>21760</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:K28" si="45">SUM(C25:C27)</f>
+        <f t="shared" ref="C28:K28" si="46">SUM(C25:C27)</f>
         <v>20850</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>22121</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25038</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21355</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21810</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>23273</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>24884</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>23650.497109745105</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25313.232942727718</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:M28" si="46">SUM(L25:L27)</f>
+        <f t="shared" ref="L28:M28" si="47">SUM(L25:L27)</f>
         <v>27124.36135306986</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>29099.560709852012</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" ref="O28:Y28" si="47">SUM(O25:O27)</f>
+        <f t="shared" ref="O28:Y28" si="48">SUM(O25:O27)</f>
         <v>55730</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>56571</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>67984</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>81791</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>89589</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>91322</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>101137.07255262487</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>109710.69695698688</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>119286.76261078763</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>130004.89713396123</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>142026.57325581985</v>
       </c>
     </row>
@@ -3063,92 +3067,92 @@
         <v>17415</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:K29" si="48">C24-C28</f>
+        <f t="shared" ref="C29:K29" si="49">C24-C28</f>
         <v>21838</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>21343</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>23697</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>25472</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>27425</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>28521</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>30972</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>29527.974490254892</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>31603.923297272278</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" ref="L29:M29" si="49">L24-L28</f>
+        <f t="shared" ref="L29:M29" si="50">L24-L28</f>
         <v>33865.142300450141</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>36331.2061615856</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" ref="O29:Y29" si="50">O24-O28</f>
+        <f t="shared" ref="O29:Y29" si="51">O24-O28</f>
         <v>34231</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>41224</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>78714</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>74842</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>84473</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>112394</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>135378.82581233274</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="50"/>
-        <v>158473.24731568809</v>
+        <f t="shared" si="51"/>
+        <v>161148.38232575942</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="50"/>
-        <v>182719.36206133757</v>
+        <f t="shared" si="51"/>
+        <v>187249.37899332808</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="50"/>
-        <v>210618.90339624431</v>
+        <f t="shared" si="51"/>
+        <v>217448.24092362341</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="50"/>
-        <v>242746.82158241922</v>
+        <f t="shared" si="51"/>
+        <v>252414.01265151321</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -3169,15 +3173,15 @@
       </c>
       <c r="W30" s="1">
         <f>V56*$AB$96</f>
-        <v>20353.902797259911</v>
+        <v>20483.914358749375</v>
       </c>
       <c r="X30" s="1">
         <f>W56*$AB$96</f>
-        <v>30302.586445387748</v>
+        <v>30659.075391660339</v>
       </c>
       <c r="Y30" s="1">
         <f>X56*$AB$96</f>
-        <v>42091.487057451064</v>
+        <v>42797.207170343136</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -3233,15 +3237,15 @@
         <v>1616</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31:Y31" si="51">V31*1.01</f>
+        <f t="shared" ref="W31:Y31" si="52">V31*1.01</f>
         <v>1632.16</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1648.4816000000001</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1664.966416</v>
       </c>
     </row>
@@ -3254,93 +3258,93 @@
         <v>18205</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32:K32" si="52">C29+SUM(C30:C31)</f>
+        <f t="shared" ref="C32:K32" si="53">C29+SUM(C30:C31)</f>
         <v>21903</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>21197</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>24412</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>28315</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>27551</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>31706</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>32243</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>31799.584490254892</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>31603.923297272278</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" ref="L32:M32" si="53">L29+SUM(L30:L31)</f>
+        <f t="shared" ref="L32:M32" si="54">L29+SUM(L30:L31)</f>
         <v>33865.142300450141</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>36331.2061615856</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="1">
-        <f t="shared" ref="O32:T32" si="54">SUM(O29:O31)</f>
+        <f t="shared" ref="O32:T32" si="55">SUM(O29:O31)</f>
         <v>39625</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>48082</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>78714</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>74842</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>85897</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>119819</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" ref="U32:Y32" si="55">SUM(U29:U31)</f>
+        <f t="shared" ref="U32:Y32" si="56">SUM(U29:U31)</f>
         <v>142065.26581233274</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="55"/>
-        <v>172080.05923416745</v>
+        <f t="shared" si="56"/>
+        <v>174755.19424423878</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" si="55"/>
-        <v>204705.42485859749</v>
+        <f t="shared" si="56"/>
+        <v>209365.45335207746</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="55"/>
-        <v>242569.97144163205</v>
+        <f t="shared" si="56"/>
+        <v>249755.79791528374</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="55"/>
-        <v>286503.27505587024</v>
+        <f t="shared" si="56"/>
+        <v>296876.18623785634</v>
       </c>
     </row>
     <row r="33" spans="1:219" x14ac:dyDescent="0.2">
@@ -3411,19 +3415,19 @@
       </c>
       <c r="V33" s="1">
         <f>V32*V40</f>
-        <v>32695.211254491816</v>
+        <v>33203.486906405371</v>
       </c>
       <c r="W33" s="1">
         <f>W32*W40</f>
-        <v>38894.030723133525</v>
+        <v>39779.436136894714</v>
       </c>
       <c r="X33" s="1">
         <f>X32*X40</f>
-        <v>46088.294573910091</v>
+        <v>47453.60160390391</v>
       </c>
       <c r="Y33" s="1">
         <f>Y32*Y40</f>
-        <v>54435.622260615346</v>
+        <v>56406.475385192702</v>
       </c>
     </row>
     <row r="34" spans="1:219" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3435,868 +3439,868 @@
         <v>15051</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:K34" si="56">C32-C33</f>
+        <f t="shared" ref="C34:K34" si="57">C32-C33</f>
         <v>18368</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>19689</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>20687</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>23662</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>23619</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>26301</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>26536</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>25757.663437106465</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>25599.177870790547</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" ref="L34:M34" si="57">L32-L33</f>
+        <f t="shared" ref="L34:M34" si="58">L32-L33</f>
         <v>27430.765263364614</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>29428.276990884337</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" ref="O34:T34" si="58">O32-O33</f>
+        <f t="shared" ref="O34:T34" si="59">O32-O33</f>
         <v>34343</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>40269</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>64013</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>63486</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>73975</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>100122</v>
       </c>
       <c r="U34" s="3">
-        <f t="shared" ref="U34:Y34" si="59">U32-U33</f>
+        <f t="shared" ref="U34:Y34" si="60">U32-U33</f>
         <v>115072.86530798952</v>
       </c>
       <c r="V34" s="3">
-        <f t="shared" si="59"/>
-        <v>139384.84797967563</v>
+        <f t="shared" si="60"/>
+        <v>141551.70733783342</v>
       </c>
       <c r="W34" s="3">
-        <f t="shared" si="59"/>
-        <v>165811.39413546395</v>
+        <f t="shared" si="60"/>
+        <v>169586.01721518274</v>
       </c>
       <c r="X34" s="3">
-        <f t="shared" si="59"/>
-        <v>196481.67686772195</v>
+        <f t="shared" si="60"/>
+        <v>202302.19631137984</v>
       </c>
       <c r="Y34" s="3">
-        <f t="shared" si="59"/>
-        <v>232067.65279525489</v>
+        <f t="shared" si="60"/>
+        <v>240469.71085266364</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" ref="Z34:BE34" si="60">Y34*(1+$AB$97)</f>
-        <v>234388.32932320744</v>
+        <f t="shared" ref="Z34:BE34" si="61">Y34*(1+$AB$97)</f>
+        <v>242874.40796119027</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" si="60"/>
-        <v>236732.2126164395</v>
+        <f t="shared" si="61"/>
+        <v>245303.15204080218</v>
       </c>
       <c r="AB34" s="3">
-        <f t="shared" si="60"/>
-        <v>239099.53474260389</v>
+        <f t="shared" si="61"/>
+        <v>247756.1835612102</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" si="60"/>
-        <v>241490.53009002993</v>
+        <f t="shared" si="61"/>
+        <v>250233.74539682231</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" si="60"/>
-        <v>243905.43539093024</v>
+        <f t="shared" si="61"/>
+        <v>252736.08285079052</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="60"/>
-        <v>246344.48974483955</v>
+        <f t="shared" si="61"/>
+        <v>255263.44367929842</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" si="60"/>
-        <v>248807.93464228796</v>
+        <f t="shared" si="61"/>
+        <v>257816.0781160914</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" si="60"/>
-        <v>251296.01398871085</v>
+        <f t="shared" si="61"/>
+        <v>260394.23889725233</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" si="60"/>
-        <v>253808.97412859797</v>
+        <f t="shared" si="61"/>
+        <v>262998.18128622486</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="60"/>
-        <v>256347.06386988395</v>
+        <f t="shared" si="61"/>
+        <v>265628.16309908713</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" si="60"/>
-        <v>258910.53450858279</v>
+        <f t="shared" si="61"/>
+        <v>268284.44473007799</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="60"/>
-        <v>261499.6398536686</v>
+        <f t="shared" si="61"/>
+        <v>270967.28917737876</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" si="60"/>
-        <v>264114.6362522053</v>
+        <f t="shared" si="61"/>
+        <v>273676.96206915256</v>
       </c>
       <c r="AM34" s="3">
-        <f t="shared" si="60"/>
-        <v>266755.78261472733</v>
+        <f t="shared" si="61"/>
+        <v>276413.73168984411</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" si="60"/>
-        <v>269423.34044087463</v>
+        <f t="shared" si="61"/>
+        <v>279177.86900674255</v>
       </c>
       <c r="AO34" s="3">
-        <f t="shared" si="60"/>
-        <v>272117.57384528336</v>
+        <f t="shared" si="61"/>
+        <v>281969.64769680996</v>
       </c>
       <c r="AP34" s="3">
-        <f t="shared" si="60"/>
-        <v>274838.74958373618</v>
+        <f t="shared" si="61"/>
+        <v>284789.34417377808</v>
       </c>
       <c r="AQ34" s="3">
-        <f t="shared" si="60"/>
-        <v>277587.13707957353</v>
+        <f t="shared" si="61"/>
+        <v>287637.23761551589</v>
       </c>
       <c r="AR34" s="3">
-        <f t="shared" si="60"/>
-        <v>280363.00845036929</v>
+        <f t="shared" si="61"/>
+        <v>290513.60999167105</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" si="60"/>
-        <v>283166.63853487297</v>
+        <f t="shared" si="61"/>
+        <v>293418.74609158776</v>
       </c>
       <c r="AT34" s="3">
-        <f t="shared" si="60"/>
-        <v>285998.30492022168</v>
+        <f t="shared" si="61"/>
+        <v>296352.93355250364</v>
       </c>
       <c r="AU34" s="3">
-        <f t="shared" si="60"/>
-        <v>288858.28796942392</v>
+        <f t="shared" si="61"/>
+        <v>299316.46288802871</v>
       </c>
       <c r="AV34" s="3">
-        <f t="shared" si="60"/>
-        <v>291746.87084911816</v>
+        <f t="shared" si="61"/>
+        <v>302309.62751690898</v>
       </c>
       <c r="AW34" s="3">
-        <f t="shared" si="60"/>
-        <v>294664.33955760935</v>
+        <f t="shared" si="61"/>
+        <v>305332.72379207809</v>
       </c>
       <c r="AX34" s="3">
-        <f t="shared" si="60"/>
-        <v>297610.98295318545</v>
+        <f t="shared" si="61"/>
+        <v>308386.05102999887</v>
       </c>
       <c r="AY34" s="3">
-        <f t="shared" si="60"/>
-        <v>300587.09278271731</v>
+        <f t="shared" si="61"/>
+        <v>311469.91154029884</v>
       </c>
       <c r="AZ34" s="3">
-        <f t="shared" si="60"/>
-        <v>303592.96371054451</v>
+        <f t="shared" si="61"/>
+        <v>314584.61065570184</v>
       </c>
       <c r="BA34" s="3">
-        <f t="shared" si="60"/>
-        <v>306628.89334764995</v>
+        <f t="shared" si="61"/>
+        <v>317730.45676225884</v>
       </c>
       <c r="BB34" s="3">
-        <f t="shared" si="60"/>
-        <v>309695.18228112644</v>
+        <f t="shared" si="61"/>
+        <v>320907.76132988144</v>
       </c>
       <c r="BC34" s="3">
-        <f t="shared" si="60"/>
-        <v>312792.13410393771</v>
+        <f t="shared" si="61"/>
+        <v>324116.83894318028</v>
       </c>
       <c r="BD34" s="3">
-        <f t="shared" si="60"/>
-        <v>315920.05544497707</v>
+        <f t="shared" si="61"/>
+        <v>327358.00733261206</v>
       </c>
       <c r="BE34" s="3">
-        <f t="shared" si="60"/>
-        <v>319079.25599942682</v>
+        <f t="shared" si="61"/>
+        <v>330631.58740593819</v>
       </c>
       <c r="BF34" s="3">
-        <f t="shared" ref="BF34:CK34" si="61">BE34*(1+$AB$97)</f>
-        <v>322270.04855942109</v>
+        <f t="shared" ref="BF34:CK34" si="62">BE34*(1+$AB$97)</f>
+        <v>333937.90327999758</v>
       </c>
       <c r="BG34" s="3">
-        <f t="shared" si="61"/>
-        <v>325492.74904501531</v>
+        <f t="shared" si="62"/>
+        <v>337277.28231279756</v>
       </c>
       <c r="BH34" s="3">
-        <f t="shared" si="61"/>
-        <v>328747.67653546546</v>
+        <f t="shared" si="62"/>
+        <v>340650.05513592553</v>
       </c>
       <c r="BI34" s="3">
-        <f t="shared" si="61"/>
-        <v>332035.15330082009</v>
+        <f t="shared" si="62"/>
+        <v>344056.5556872848</v>
       </c>
       <c r="BJ34" s="3">
-        <f t="shared" si="61"/>
-        <v>335355.50483382831</v>
+        <f t="shared" si="62"/>
+        <v>347497.12124415766</v>
       </c>
       <c r="BK34" s="3">
-        <f t="shared" si="61"/>
-        <v>338709.05988216662</v>
+        <f t="shared" si="62"/>
+        <v>350972.09245659923</v>
       </c>
       <c r="BL34" s="3">
-        <f t="shared" si="61"/>
-        <v>342096.15048098832</v>
+        <f t="shared" si="62"/>
+        <v>354481.81338116521</v>
       </c>
       <c r="BM34" s="3">
-        <f t="shared" si="61"/>
-        <v>345517.11198579823</v>
+        <f t="shared" si="62"/>
+        <v>358026.63151497685</v>
       </c>
       <c r="BN34" s="3">
-        <f t="shared" si="61"/>
-        <v>348972.28310565621</v>
+        <f t="shared" si="62"/>
+        <v>361606.89783012663</v>
       </c>
       <c r="BO34" s="3">
-        <f t="shared" si="61"/>
-        <v>352462.00593671278</v>
+        <f t="shared" si="62"/>
+        <v>365222.96680842788</v>
       </c>
       <c r="BP34" s="3">
-        <f t="shared" si="61"/>
-        <v>355986.62599607994</v>
+        <f t="shared" si="62"/>
+        <v>368875.19647651218</v>
       </c>
       <c r="BQ34" s="3">
-        <f t="shared" si="61"/>
-        <v>359546.49225604074</v>
+        <f t="shared" si="62"/>
+        <v>372563.94844127732</v>
       </c>
       <c r="BR34" s="3">
-        <f t="shared" si="61"/>
-        <v>363141.95717860118</v>
+        <f t="shared" si="62"/>
+        <v>376289.58792569011</v>
       </c>
       <c r="BS34" s="3">
-        <f t="shared" si="61"/>
-        <v>366773.37675038719</v>
+        <f t="shared" si="62"/>
+        <v>380052.483804947</v>
       </c>
       <c r="BT34" s="3">
-        <f t="shared" si="61"/>
-        <v>370441.11051789107</v>
+        <f t="shared" si="62"/>
+        <v>383853.00864299649</v>
       </c>
       <c r="BU34" s="3">
-        <f t="shared" si="61"/>
-        <v>374145.52162307</v>
+        <f t="shared" si="62"/>
+        <v>387691.53872942645</v>
       </c>
       <c r="BV34" s="3">
-        <f t="shared" si="61"/>
-        <v>377886.97683930071</v>
+        <f t="shared" si="62"/>
+        <v>391568.45411672071</v>
       </c>
       <c r="BW34" s="3">
-        <f t="shared" si="61"/>
-        <v>381665.8466076937</v>
+        <f t="shared" si="62"/>
+        <v>395484.13865788793</v>
       </c>
       <c r="BX34" s="3">
-        <f t="shared" si="61"/>
-        <v>385482.50507377065</v>
+        <f t="shared" si="62"/>
+        <v>399438.98004446679</v>
       </c>
       <c r="BY34" s="3">
-        <f t="shared" si="61"/>
-        <v>389337.33012450836</v>
+        <f t="shared" si="62"/>
+        <v>403433.36984491145</v>
       </c>
       <c r="BZ34" s="3">
-        <f t="shared" si="61"/>
-        <v>393230.70342575345</v>
+        <f t="shared" si="62"/>
+        <v>407467.70354336058</v>
       </c>
       <c r="CA34" s="3">
-        <f t="shared" si="61"/>
-        <v>397163.01046001102</v>
+        <f t="shared" si="62"/>
+        <v>411542.38057879417</v>
       </c>
       <c r="CB34" s="3">
-        <f t="shared" si="61"/>
-        <v>401134.64056461112</v>
+        <f t="shared" si="62"/>
+        <v>415657.80438458209</v>
       </c>
       <c r="CC34" s="3">
-        <f t="shared" si="61"/>
-        <v>405145.98697025725</v>
+        <f t="shared" si="62"/>
+        <v>419814.38242842793</v>
       </c>
       <c r="CD34" s="3">
-        <f t="shared" si="61"/>
-        <v>409197.44683995983</v>
+        <f t="shared" si="62"/>
+        <v>424012.52625271218</v>
       </c>
       <c r="CE34" s="3">
-        <f t="shared" si="61"/>
-        <v>413289.42130835942</v>
+        <f t="shared" si="62"/>
+        <v>428252.65151523933</v>
       </c>
       <c r="CF34" s="3">
-        <f t="shared" si="61"/>
-        <v>417422.31552144303</v>
+        <f t="shared" si="62"/>
+        <v>432535.17803039175</v>
       </c>
       <c r="CG34" s="3">
-        <f t="shared" si="61"/>
-        <v>421596.53867665748</v>
+        <f t="shared" si="62"/>
+        <v>436860.52981069568</v>
       </c>
       <c r="CH34" s="3">
-        <f t="shared" si="61"/>
-        <v>425812.50406342407</v>
+        <f t="shared" si="62"/>
+        <v>441229.13510880264</v>
       </c>
       <c r="CI34" s="3">
-        <f t="shared" si="61"/>
-        <v>430070.62910405832</v>
+        <f t="shared" si="62"/>
+        <v>445641.42645989067</v>
       </c>
       <c r="CJ34" s="3">
-        <f t="shared" si="61"/>
-        <v>434371.3353950989</v>
+        <f t="shared" si="62"/>
+        <v>450097.84072448959</v>
       </c>
       <c r="CK34" s="3">
-        <f t="shared" si="61"/>
-        <v>438715.04874904989</v>
+        <f t="shared" si="62"/>
+        <v>454598.81913173449</v>
       </c>
       <c r="CL34" s="3">
-        <f t="shared" ref="CL34:DQ34" si="62">CK34*(1+$AB$97)</f>
-        <v>443102.19923654041</v>
+        <f t="shared" ref="CL34:DQ34" si="63">CK34*(1+$AB$97)</f>
+        <v>459144.80732305185</v>
       </c>
       <c r="CM34" s="3">
-        <f t="shared" si="62"/>
-        <v>447533.22122890584</v>
+        <f t="shared" si="63"/>
+        <v>463736.25539628236</v>
       </c>
       <c r="CN34" s="3">
-        <f t="shared" si="62"/>
-        <v>452008.55344119488</v>
+        <f t="shared" si="63"/>
+        <v>468373.61795024521</v>
       </c>
       <c r="CO34" s="3">
-        <f t="shared" si="62"/>
-        <v>456528.63897560682</v>
+        <f t="shared" si="63"/>
+        <v>473057.35412974766</v>
       </c>
       <c r="CP34" s="3">
-        <f t="shared" si="62"/>
-        <v>461093.9253653629</v>
+        <f t="shared" si="63"/>
+        <v>477787.92767104512</v>
       </c>
       <c r="CQ34" s="3">
-        <f t="shared" si="62"/>
-        <v>465704.86461901653</v>
+        <f t="shared" si="63"/>
+        <v>482565.80694775557</v>
       </c>
       <c r="CR34" s="3">
-        <f t="shared" si="62"/>
-        <v>470361.91326520668</v>
+        <f t="shared" si="63"/>
+        <v>487391.4650172331</v>
       </c>
       <c r="CS34" s="3">
-        <f t="shared" si="62"/>
-        <v>475065.53239785874</v>
+        <f t="shared" si="63"/>
+        <v>492265.37966740545</v>
       </c>
       <c r="CT34" s="3">
-        <f t="shared" si="62"/>
-        <v>479816.18772183731</v>
+        <f t="shared" si="63"/>
+        <v>497188.03346407949</v>
       </c>
       <c r="CU34" s="3">
-        <f t="shared" si="62"/>
-        <v>484614.34959905571</v>
+        <f t="shared" si="63"/>
+        <v>502159.91379872028</v>
       </c>
       <c r="CV34" s="3">
-        <f t="shared" si="62"/>
-        <v>489460.49309504626</v>
+        <f t="shared" si="63"/>
+        <v>507181.51293670747</v>
       </c>
       <c r="CW34" s="3">
-        <f t="shared" si="62"/>
-        <v>494355.0980259967</v>
+        <f t="shared" si="63"/>
+        <v>512253.32806607452</v>
       </c>
       <c r="CX34" s="3">
-        <f t="shared" si="62"/>
-        <v>499298.64900625666</v>
+        <f t="shared" si="63"/>
+        <v>517375.86134673527</v>
       </c>
       <c r="CY34" s="3">
-        <f t="shared" si="62"/>
-        <v>504291.63549631921</v>
+        <f t="shared" si="63"/>
+        <v>522549.6199602026</v>
       </c>
       <c r="CZ34" s="3">
-        <f t="shared" si="62"/>
-        <v>509334.55185128242</v>
+        <f t="shared" si="63"/>
+        <v>527775.11615980463</v>
       </c>
       <c r="DA34" s="3">
-        <f t="shared" si="62"/>
-        <v>514427.89736979525</v>
+        <f t="shared" si="63"/>
+        <v>533052.86732140265</v>
       </c>
       <c r="DB34" s="3">
-        <f t="shared" si="62"/>
-        <v>519572.17634349322</v>
+        <f t="shared" si="63"/>
+        <v>538383.39599461667</v>
       </c>
       <c r="DC34" s="3">
-        <f t="shared" si="62"/>
-        <v>524767.89810692822</v>
+        <f t="shared" si="63"/>
+        <v>543767.22995456285</v>
       </c>
       <c r="DD34" s="3">
-        <f t="shared" si="62"/>
-        <v>530015.57708799746</v>
+        <f t="shared" si="63"/>
+        <v>549204.90225410846</v>
       </c>
       <c r="DE34" s="3">
-        <f t="shared" si="62"/>
-        <v>535315.7328588774</v>
+        <f t="shared" si="63"/>
+        <v>554696.95127664949</v>
       </c>
       <c r="DF34" s="3">
-        <f t="shared" si="62"/>
-        <v>540668.89018746617</v>
+        <f t="shared" si="63"/>
+        <v>560243.92078941595</v>
       </c>
       <c r="DG34" s="3">
-        <f t="shared" si="62"/>
-        <v>546075.57908934087</v>
+        <f t="shared" si="63"/>
+        <v>565846.35999731009</v>
       </c>
       <c r="DH34" s="3">
-        <f t="shared" si="62"/>
-        <v>551536.33488023432</v>
+        <f t="shared" si="63"/>
+        <v>571504.82359728322</v>
       </c>
       <c r="DI34" s="3">
-        <f t="shared" si="62"/>
-        <v>557051.69822903664</v>
+        <f t="shared" si="63"/>
+        <v>577219.8718332561</v>
       </c>
       <c r="DJ34" s="3">
-        <f t="shared" si="62"/>
-        <v>562622.21521132707</v>
+        <f t="shared" si="63"/>
+        <v>582992.07055158867</v>
       </c>
       <c r="DK34" s="3">
-        <f t="shared" si="62"/>
-        <v>568248.4373634404</v>
+        <f t="shared" si="63"/>
+        <v>588821.99125710456</v>
       </c>
       <c r="DL34" s="3">
-        <f t="shared" si="62"/>
-        <v>573930.92173707485</v>
+        <f t="shared" si="63"/>
+        <v>594710.21116967557</v>
       </c>
       <c r="DM34" s="3">
-        <f t="shared" si="62"/>
-        <v>579670.23095444555</v>
+        <f t="shared" si="63"/>
+        <v>600657.31328137231</v>
       </c>
       <c r="DN34" s="3">
-        <f t="shared" si="62"/>
-        <v>585466.93326398998</v>
+        <f t="shared" si="63"/>
+        <v>606663.88641418598</v>
       </c>
       <c r="DO34" s="3">
-        <f t="shared" si="62"/>
-        <v>591321.60259662988</v>
+        <f t="shared" si="63"/>
+        <v>612730.52527832787</v>
       </c>
       <c r="DP34" s="3">
-        <f t="shared" si="62"/>
-        <v>597234.81862259621</v>
+        <f t="shared" si="63"/>
+        <v>618857.8305311111</v>
       </c>
       <c r="DQ34" s="3">
-        <f t="shared" si="62"/>
-        <v>603207.16680882219</v>
+        <f t="shared" si="63"/>
+        <v>625046.40883642226</v>
       </c>
       <c r="DR34" s="3">
-        <f t="shared" ref="DR34:EW34" si="63">DQ34*(1+$AB$97)</f>
-        <v>609239.2384769104</v>
+        <f t="shared" ref="DR34:EW34" si="64">DQ34*(1+$AB$97)</f>
+        <v>631296.87292478653</v>
       </c>
       <c r="DS34" s="3">
-        <f t="shared" si="63"/>
-        <v>615331.63086167956</v>
+        <f t="shared" si="64"/>
+        <v>637609.84165403445</v>
       </c>
       <c r="DT34" s="3">
-        <f t="shared" si="63"/>
-        <v>621484.94717029633</v>
+        <f t="shared" si="64"/>
+        <v>643985.94007057475</v>
       </c>
       <c r="DU34" s="3">
-        <f t="shared" si="63"/>
-        <v>627699.79664199927</v>
+        <f t="shared" si="64"/>
+        <v>650425.79947128054</v>
       </c>
       <c r="DV34" s="3">
-        <f t="shared" si="63"/>
-        <v>633976.7946084193</v>
+        <f t="shared" si="64"/>
+        <v>656930.05746599333</v>
       </c>
       <c r="DW34" s="3">
-        <f t="shared" si="63"/>
-        <v>640316.56255450344</v>
+        <f t="shared" si="64"/>
+        <v>663499.35804065329</v>
       </c>
       <c r="DX34" s="3">
-        <f t="shared" si="63"/>
-        <v>646719.72818004852</v>
+        <f t="shared" si="64"/>
+        <v>670134.35162105982</v>
       </c>
       <c r="DY34" s="3">
-        <f t="shared" si="63"/>
-        <v>653186.92546184896</v>
+        <f t="shared" si="64"/>
+        <v>676835.69513727038</v>
       </c>
       <c r="DZ34" s="3">
-        <f t="shared" si="63"/>
-        <v>659718.7947164675</v>
+        <f t="shared" si="64"/>
+        <v>683604.05208864307</v>
       </c>
       <c r="EA34" s="3">
-        <f t="shared" si="63"/>
-        <v>666315.98266363214</v>
+        <f t="shared" si="64"/>
+        <v>690440.0926095295</v>
       </c>
       <c r="EB34" s="3">
-        <f t="shared" si="63"/>
-        <v>672979.14249026845</v>
+        <f t="shared" si="64"/>
+        <v>697344.49353562482</v>
       </c>
       <c r="EC34" s="3">
-        <f t="shared" si="63"/>
-        <v>679708.93391517119</v>
+        <f t="shared" si="64"/>
+        <v>704317.93847098108</v>
       </c>
       <c r="ED34" s="3">
-        <f t="shared" si="63"/>
-        <v>686506.02325432294</v>
+        <f t="shared" si="64"/>
+        <v>711361.11785569089</v>
       </c>
       <c r="EE34" s="3">
-        <f t="shared" si="63"/>
-        <v>693371.08348686621</v>
+        <f t="shared" si="64"/>
+        <v>718474.72903424781</v>
       </c>
       <c r="EF34" s="3">
-        <f t="shared" si="63"/>
-        <v>700304.79432173492</v>
+        <f t="shared" si="64"/>
+        <v>725659.47632459027</v>
       </c>
       <c r="EG34" s="3">
-        <f t="shared" si="63"/>
-        <v>707307.84226495225</v>
+        <f t="shared" si="64"/>
+        <v>732916.07108783617</v>
       </c>
       <c r="EH34" s="3">
-        <f t="shared" si="63"/>
-        <v>714380.92068760179</v>
+        <f t="shared" si="64"/>
+        <v>740245.23179871449</v>
       </c>
       <c r="EI34" s="3">
-        <f t="shared" si="63"/>
-        <v>721524.72989447776</v>
+        <f t="shared" si="64"/>
+        <v>747647.6841167016</v>
       </c>
       <c r="EJ34" s="3">
-        <f t="shared" si="63"/>
-        <v>728739.9771934225</v>
+        <f t="shared" si="64"/>
+        <v>755124.16095786856</v>
       </c>
       <c r="EK34" s="3">
-        <f t="shared" si="63"/>
-        <v>736027.37696535676</v>
+        <f t="shared" si="64"/>
+        <v>762675.40256744728</v>
       </c>
       <c r="EL34" s="3">
-        <f t="shared" si="63"/>
-        <v>743387.65073501028</v>
+        <f t="shared" si="64"/>
+        <v>770302.1565931217</v>
       </c>
       <c r="EM34" s="3">
-        <f t="shared" si="63"/>
-        <v>750821.5272423604</v>
+        <f t="shared" si="64"/>
+        <v>778005.17815905297</v>
       </c>
       <c r="EN34" s="3">
-        <f t="shared" si="63"/>
-        <v>758329.74251478398</v>
+        <f t="shared" si="64"/>
+        <v>785785.22994064353</v>
       </c>
       <c r="EO34" s="3">
-        <f t="shared" si="63"/>
-        <v>765913.03993993183</v>
+        <f t="shared" si="64"/>
+        <v>793643.08224004996</v>
       </c>
       <c r="EP34" s="3">
-        <f t="shared" si="63"/>
-        <v>773572.17033933115</v>
+        <f t="shared" si="64"/>
+        <v>801579.51306245045</v>
       </c>
       <c r="EQ34" s="3">
-        <f t="shared" si="63"/>
-        <v>781307.89204272442</v>
+        <f t="shared" si="64"/>
+        <v>809595.308193075</v>
       </c>
       <c r="ER34" s="3">
-        <f t="shared" si="63"/>
-        <v>789120.97096315166</v>
+        <f t="shared" si="64"/>
+        <v>817691.26127500576</v>
       </c>
       <c r="ES34" s="3">
-        <f t="shared" si="63"/>
-        <v>797012.18067278317</v>
+        <f t="shared" si="64"/>
+        <v>825868.17388775584</v>
       </c>
       <c r="ET34" s="3">
-        <f t="shared" si="63"/>
-        <v>804982.30247951101</v>
+        <f t="shared" si="64"/>
+        <v>834126.85562663339</v>
       </c>
       <c r="EU34" s="3">
-        <f t="shared" si="63"/>
-        <v>813032.12550430617</v>
+        <f t="shared" si="64"/>
+        <v>842468.12418289972</v>
       </c>
       <c r="EV34" s="3">
-        <f t="shared" si="63"/>
-        <v>821162.4467593492</v>
+        <f t="shared" si="64"/>
+        <v>850892.80542472866</v>
       </c>
       <c r="EW34" s="3">
-        <f t="shared" si="63"/>
-        <v>829374.0712269427</v>
+        <f t="shared" si="64"/>
+        <v>859401.73347897595</v>
       </c>
       <c r="EX34" s="3">
-        <f t="shared" ref="EX34:GC34" si="64">EW34*(1+$AB$97)</f>
-        <v>837667.81193921214</v>
+        <f t="shared" ref="EX34:GC34" si="65">EW34*(1+$AB$97)</f>
+        <v>867995.75081376568</v>
       </c>
       <c r="EY34" s="3">
-        <f t="shared" si="64"/>
-        <v>846044.49005860428</v>
+        <f t="shared" si="65"/>
+        <v>876675.70832190337</v>
       </c>
       <c r="EZ34" s="3">
-        <f t="shared" si="64"/>
-        <v>854504.93495919032</v>
+        <f t="shared" si="65"/>
+        <v>885442.46540512238</v>
       </c>
       <c r="FA34" s="3">
-        <f t="shared" si="64"/>
-        <v>863049.98430878227</v>
+        <f t="shared" si="65"/>
+        <v>894296.89005917357</v>
       </c>
       <c r="FB34" s="3">
-        <f t="shared" si="64"/>
-        <v>871680.48415187013</v>
+        <f t="shared" si="65"/>
+        <v>903239.85895976529</v>
       </c>
       <c r="FC34" s="3">
-        <f t="shared" si="64"/>
-        <v>880397.28899338888</v>
+        <f t="shared" si="65"/>
+        <v>912272.25754936296</v>
       </c>
       <c r="FD34" s="3">
-        <f t="shared" si="64"/>
-        <v>889201.26188332273</v>
+        <f t="shared" si="65"/>
+        <v>921394.98012485658</v>
       </c>
       <c r="FE34" s="3">
-        <f t="shared" si="64"/>
-        <v>898093.27450215595</v>
+        <f t="shared" si="65"/>
+        <v>930608.92992610519</v>
       </c>
       <c r="FF34" s="3">
-        <f t="shared" si="64"/>
-        <v>907074.20724717749</v>
+        <f t="shared" si="65"/>
+        <v>939915.0192253663</v>
       </c>
       <c r="FG34" s="3">
-        <f t="shared" si="64"/>
-        <v>916144.94931964925</v>
+        <f t="shared" si="65"/>
+        <v>949314.16941761994</v>
       </c>
       <c r="FH34" s="3">
-        <f t="shared" si="64"/>
-        <v>925306.3988128457</v>
+        <f t="shared" si="65"/>
+        <v>958807.31111179618</v>
       </c>
       <c r="FI34" s="3">
-        <f t="shared" si="64"/>
-        <v>934559.46280097414</v>
+        <f t="shared" si="65"/>
+        <v>968395.38422291412</v>
       </c>
       <c r="FJ34" s="3">
-        <f t="shared" si="64"/>
-        <v>943905.05742898386</v>
+        <f t="shared" si="65"/>
+        <v>978079.33806514321</v>
       </c>
       <c r="FK34" s="3">
-        <f t="shared" si="64"/>
-        <v>953344.10800327372</v>
+        <f t="shared" si="65"/>
+        <v>987860.1314457946</v>
       </c>
       <c r="FL34" s="3">
-        <f t="shared" si="64"/>
-        <v>962877.54908330645</v>
+        <f t="shared" si="65"/>
+        <v>997738.73276025255</v>
       </c>
       <c r="FM34" s="3">
-        <f t="shared" si="64"/>
-        <v>972506.32457413955</v>
+        <f t="shared" si="65"/>
+        <v>1007716.120087855</v>
       </c>
       <c r="FN34" s="3">
-        <f t="shared" si="64"/>
-        <v>982231.38781988097</v>
+        <f t="shared" si="65"/>
+        <v>1017793.2812887336</v>
       </c>
       <c r="FO34" s="3">
-        <f t="shared" si="64"/>
-        <v>992053.70169807982</v>
+        <f t="shared" si="65"/>
+        <v>1027971.2141016209</v>
       </c>
       <c r="FP34" s="3">
-        <f t="shared" si="64"/>
-        <v>1001974.2387150606</v>
+        <f t="shared" si="65"/>
+        <v>1038250.9262426372</v>
       </c>
       <c r="FQ34" s="3">
-        <f t="shared" si="64"/>
-        <v>1011993.9811022113</v>
+        <f t="shared" si="65"/>
+        <v>1048633.4355050635</v>
       </c>
       <c r="FR34" s="3">
-        <f t="shared" si="64"/>
-        <v>1022113.9209132334</v>
+        <f t="shared" si="65"/>
+        <v>1059119.7698601142</v>
       </c>
       <c r="FS34" s="3">
-        <f t="shared" si="64"/>
-        <v>1032335.0601223657</v>
+        <f t="shared" si="65"/>
+        <v>1069710.9675587153</v>
       </c>
       <c r="FT34" s="3">
-        <f t="shared" si="64"/>
-        <v>1042658.4107235894</v>
+        <f t="shared" si="65"/>
+        <v>1080408.0772343024</v>
       </c>
       <c r="FU34" s="3">
-        <f t="shared" si="64"/>
-        <v>1053084.9948308254</v>
+        <f t="shared" si="65"/>
+        <v>1091212.1580066455</v>
       </c>
       <c r="FV34" s="3">
-        <f t="shared" si="64"/>
-        <v>1063615.8447791336</v>
+        <f t="shared" si="65"/>
+        <v>1102124.2795867119</v>
       </c>
       <c r="FW34" s="3">
-        <f t="shared" si="64"/>
-        <v>1074252.0032269249</v>
+        <f t="shared" si="65"/>
+        <v>1113145.522382579</v>
       </c>
       <c r="FX34" s="3">
-        <f t="shared" si="64"/>
-        <v>1084994.5232591941</v>
+        <f t="shared" si="65"/>
+        <v>1124276.9776064048</v>
       </c>
       <c r="FY34" s="3">
-        <f t="shared" si="64"/>
-        <v>1095844.4684917862</v>
+        <f t="shared" si="65"/>
+        <v>1135519.7473824688</v>
       </c>
       <c r="FZ34" s="3">
-        <f t="shared" si="64"/>
-        <v>1106802.913176704</v>
+        <f t="shared" si="65"/>
+        <v>1146874.9448562935</v>
       </c>
       <c r="GA34" s="3">
-        <f t="shared" si="64"/>
-        <v>1117870.9423084711</v>
+        <f t="shared" si="65"/>
+        <v>1158343.6943048565</v>
       </c>
       <c r="GB34" s="3">
-        <f t="shared" si="64"/>
-        <v>1129049.6517315558</v>
+        <f t="shared" si="65"/>
+        <v>1169927.1312479051</v>
       </c>
       <c r="GC34" s="3">
-        <f t="shared" si="64"/>
-        <v>1140340.1482488713</v>
+        <f t="shared" si="65"/>
+        <v>1181626.4025603842</v>
       </c>
       <c r="GD34" s="3">
-        <f t="shared" ref="GD34:HK34" si="65">GC34*(1+$AB$97)</f>
-        <v>1151743.54973136</v>
+        <f t="shared" ref="GD34:HK34" si="66">GC34*(1+$AB$97)</f>
+        <v>1193442.6665859881</v>
       </c>
       <c r="GE34" s="3">
-        <f t="shared" si="65"/>
-        <v>1163260.9852286736</v>
+        <f t="shared" si="66"/>
+        <v>1205377.0932518481</v>
       </c>
       <c r="GF34" s="3">
-        <f t="shared" si="65"/>
-        <v>1174893.5950809603</v>
+        <f t="shared" si="66"/>
+        <v>1217430.8641843665</v>
       </c>
       <c r="GG34" s="3">
-        <f t="shared" si="65"/>
-        <v>1186642.5310317699</v>
+        <f t="shared" si="66"/>
+        <v>1229605.1728262103</v>
       </c>
       <c r="GH34" s="3">
-        <f t="shared" si="65"/>
-        <v>1198508.9563420876</v>
+        <f t="shared" si="66"/>
+        <v>1241901.2245544724</v>
       </c>
       <c r="GI34" s="3">
-        <f t="shared" si="65"/>
-        <v>1210494.0459055086</v>
+        <f t="shared" si="66"/>
+        <v>1254320.2368000171</v>
       </c>
       <c r="GJ34" s="3">
-        <f t="shared" si="65"/>
-        <v>1222598.9863645637</v>
+        <f t="shared" si="66"/>
+        <v>1266863.4391680174</v>
       </c>
       <c r="GK34" s="3">
-        <f t="shared" si="65"/>
-        <v>1234824.9762282094</v>
+        <f t="shared" si="66"/>
+        <v>1279532.0735596975</v>
       </c>
       <c r="GL34" s="3">
-        <f t="shared" si="65"/>
-        <v>1247173.2259904915</v>
+        <f t="shared" si="66"/>
+        <v>1292327.3942952945</v>
       </c>
       <c r="GM34" s="3">
-        <f t="shared" si="65"/>
-        <v>1259644.9582503964</v>
+        <f t="shared" si="66"/>
+        <v>1305250.6682382475</v>
       </c>
       <c r="GN34" s="3">
-        <f t="shared" si="65"/>
-        <v>1272241.4078329003</v>
+        <f t="shared" si="66"/>
+        <v>1318303.1749206299</v>
       </c>
       <c r="GO34" s="3">
-        <f t="shared" si="65"/>
-        <v>1284963.8219112293</v>
+        <f t="shared" si="66"/>
+        <v>1331486.2066698363</v>
       </c>
       <c r="GP34" s="3">
-        <f t="shared" si="65"/>
-        <v>1297813.4601303416</v>
+        <f t="shared" si="66"/>
+        <v>1344801.0687365346</v>
       </c>
       <c r="GQ34" s="3">
-        <f t="shared" si="65"/>
-        <v>1310791.594731645</v>
+        <f t="shared" si="66"/>
+        <v>1358249.0794239</v>
       </c>
       <c r="GR34" s="3">
-        <f t="shared" si="65"/>
-        <v>1323899.5106789614</v>
+        <f t="shared" si="66"/>
+        <v>1371831.5702181391</v>
       </c>
       <c r="GS34" s="3">
-        <f t="shared" si="65"/>
-        <v>1337138.5057857509</v>
+        <f t="shared" si="66"/>
+        <v>1385549.8859203204</v>
       </c>
       <c r="GT34" s="3">
-        <f t="shared" si="65"/>
-        <v>1350509.8908436084</v>
+        <f t="shared" si="66"/>
+        <v>1399405.3847795236</v>
       </c>
       <c r="GU34" s="3">
-        <f t="shared" si="65"/>
-        <v>1364014.9897520444</v>
+        <f t="shared" si="66"/>
+        <v>1413399.4386273189</v>
       </c>
       <c r="GV34" s="3">
-        <f t="shared" si="65"/>
-        <v>1377655.1396495649</v>
+        <f t="shared" si="66"/>
+        <v>1427533.4330135921</v>
       </c>
       <c r="GW34" s="3">
-        <f t="shared" si="65"/>
-        <v>1391431.6910460605</v>
+        <f t="shared" si="66"/>
+        <v>1441808.7673437281</v>
       </c>
       <c r="GX34" s="3">
-        <f t="shared" si="65"/>
-        <v>1405346.0079565211</v>
+        <f t="shared" si="66"/>
+        <v>1456226.8550171654</v>
       </c>
       <c r="GY34" s="3">
-        <f t="shared" si="65"/>
-        <v>1419399.4680360863</v>
+        <f t="shared" si="66"/>
+        <v>1470789.1235673372</v>
       </c>
       <c r="GZ34" s="3">
-        <f t="shared" si="65"/>
-        <v>1433593.4627164472</v>
+        <f t="shared" si="66"/>
+        <v>1485497.0148030105</v>
       </c>
       <c r="HA34" s="3">
-        <f t="shared" si="65"/>
-        <v>1447929.3973436116</v>
+        <f t="shared" si="66"/>
+        <v>1500351.9849510407</v>
       </c>
       <c r="HB34" s="3">
-        <f t="shared" si="65"/>
-        <v>1462408.6913170477</v>
+        <f t="shared" si="66"/>
+        <v>1515355.5048005511</v>
       </c>
       <c r="HC34" s="3">
-        <f t="shared" si="65"/>
-        <v>1477032.7782302182</v>
+        <f t="shared" si="66"/>
+        <v>1530509.0598485565</v>
       </c>
       <c r="HD34" s="3">
-        <f t="shared" si="65"/>
-        <v>1491803.1060125204</v>
+        <f t="shared" si="66"/>
+        <v>1545814.1504470422</v>
       </c>
       <c r="HE34" s="3">
-        <f t="shared" si="65"/>
-        <v>1506721.1370726456</v>
+        <f t="shared" si="66"/>
+        <v>1561272.2919515127</v>
       </c>
       <c r="HF34" s="3">
-        <f t="shared" si="65"/>
-        <v>1521788.3484433722</v>
+        <f t="shared" si="66"/>
+        <v>1576885.0148710278</v>
       </c>
       <c r="HG34" s="3">
-        <f t="shared" si="65"/>
-        <v>1537006.2319278058</v>
+        <f t="shared" si="66"/>
+        <v>1592653.865019738</v>
       </c>
       <c r="HH34" s="3">
-        <f t="shared" si="65"/>
-        <v>1552376.2942470838</v>
+        <f t="shared" si="66"/>
+        <v>1608580.4036699354</v>
       </c>
       <c r="HI34" s="3">
-        <f t="shared" si="65"/>
-        <v>1567900.0571895547</v>
+        <f t="shared" si="66"/>
+        <v>1624666.2077066349</v>
       </c>
       <c r="HJ34" s="3">
-        <f t="shared" si="65"/>
-        <v>1583579.0577614503</v>
+        <f t="shared" si="66"/>
+        <v>1640912.8697837011</v>
       </c>
       <c r="HK34" s="3">
-        <f t="shared" si="65"/>
-        <v>1599414.8483390647</v>
+        <f t="shared" si="66"/>
+        <v>1657321.9984815381</v>
       </c>
     </row>
     <row r="35" spans="1:219" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4308,19 +4312,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:F35" si="66">C34/C36</f>
+        <f t="shared" ref="C35:F35" si="67">C34/C36</f>
         <v>1.439047320589157</v>
       </c>
       <c r="D35" s="7" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="7" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="7" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="7">
@@ -4336,19 +4340,19 @@
         <v>2.1662040816326531</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" ref="J35:M35" si="67">J34/J36</f>
+        <f t="shared" ref="J35:M35" si="68">J34/J36</f>
         <v>2.1026664030290991</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2.0897288057788201</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2.2392461439481317</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2.4023083257864766</v>
       </c>
       <c r="N35" s="7"/>
@@ -4358,28 +4362,28 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
       <c r="T35" s="7">
-        <f t="shared" ref="T35" si="68">T34/T36</f>
+        <f t="shared" ref="T35" si="69">T34/T36</f>
         <v>8.1732244897959188</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" ref="U35" si="69">U34/U36</f>
+        <f t="shared" ref="U35" si="70">U34/U36</f>
         <v>9.2095130298511023</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" ref="V35" si="70">V34/V36</f>
-        <v>10.936519547401364</v>
+        <f t="shared" ref="V35" si="71">V34/V36</f>
+        <v>11.10653730808664</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" ref="W35" si="71">W34/W36</f>
-        <v>12.75492081765147</v>
+        <f t="shared" ref="W35" si="72">W34/W36</f>
+        <v>13.045280950918063</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" ref="X35" si="72">X34/X36</f>
-        <v>14.817852936511386</v>
+        <f t="shared" ref="X35" si="73">X34/X36</f>
+        <v>15.256812958153976</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" ref="Y35" si="73">Y34/Y36</f>
-        <v>17.158434538903997</v>
+        <f t="shared" ref="Y35" si="74">Y34/Y36</f>
+        <v>17.779659261236631</v>
       </c>
     </row>
     <row r="36" spans="1:219" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4420,19 +4424,19 @@
         <v>12495</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" ref="V36:Y36" si="74">U36*1.02</f>
+        <f t="shared" ref="V36:Y36" si="75">U36*1.02</f>
         <v>12744.9</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>12999.798000000001</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>13259.793960000001</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>13524.989839200001</v>
       </c>
     </row>
@@ -4454,77 +4458,77 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <f t="shared" ref="F38:M38" si="75">F22/B22-1</f>
+        <f t="shared" ref="F38:M38" si="76">F22/B22-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.13841766100895225</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.15802114653890631</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.19130734404314143</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.16940848375872064</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5">
-        <f t="shared" ref="P38:Y38" si="76">P22/O22-1</f>
+        <f t="shared" ref="P38:Y38" si="77">P22/O22-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>8.6827702272695095E-2</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.13866243322901561</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16504303111188579</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.11875127619067283</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.12051303986115847</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.1222592095586934</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.12399397442452242</v>
       </c>
     </row>
@@ -4533,47 +4537,47 @@
         <v>44</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:M39" si="77">C22/B22-1</f>
+        <f t="shared" ref="C39:M39" si="78">C22/B22-1</f>
         <v>6.9024316849843004E-2</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>2.8001179561417677E-2</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.12539605961430644</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-6.6863631097207721E-2</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5.218589751548941E-2</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>4.1608647423945655E-2</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>9.2910227942176071E-2</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-4.9570120971503706E-2</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7.0304477122279607E-2</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7.1548680266953602E-2</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7.2820123986388374E-2</v>
       </c>
       <c r="N39" s="5"/>
@@ -4593,35 +4597,35 @@
         <v>32</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" ref="B40:I40" si="78">B33/B32</f>
+        <f t="shared" ref="B40:I40" si="79">B33/B32</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.16432986049796927</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.14271714275343908</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.17047246577934777</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.17699965884067859</v>
       </c>
       <c r="J40" s="4">
@@ -4638,27 +4642,27 @@
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4">
-        <f t="shared" ref="O40:T40" si="79">O33/O32</f>
+        <f t="shared" ref="O40:T40" si="80">O33/O32</f>
         <v>0.13329968454258675</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.18676474324770689</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.15173298415328293</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.13879413716427816</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.16438962101169263</v>
       </c>
       <c r="U40" s="4">
@@ -4708,97 +4712,97 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" ref="B42:M42" si="80">B34/B22</f>
+        <f t="shared" ref="B42:M42" si="81">B34/B22</f>
         <v>0.21567054035851949</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.2462066377137955</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.25672486406842865</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.23968253968253969</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.29379555246526529</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.27871657501593072</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.29796755336022113</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.27507282132083882</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.28093031529551798</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.26086199919145003</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.26086199919145009</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.26086199919145003</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4">
-        <f t="shared" ref="O42:Y42" si="81">O34/O22</f>
+        <f t="shared" ref="O42:Y42" si="82">O34/O22</f>
         <v>0.21218112284300339</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.22061941520980458</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.24846198333313926</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.2244622325305124</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.24065206217427795</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.28604814609534368</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.28218932570717414</v>
       </c>
       <c r="V42" s="4">
-        <f t="shared" si="81"/>
-        <v>0.30552705696813859</v>
+        <f t="shared" si="82"/>
+        <v>0.31027674226146656</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="81"/>
-        <v>0.32436319291976828</v>
+        <f t="shared" si="82"/>
+        <v>0.33174717760061578</v>
       </c>
       <c r="X42" s="4">
-        <f t="shared" si="81"/>
-        <v>0.34248856345122414</v>
+        <f t="shared" si="82"/>
+        <v>0.35263435095964596</v>
       </c>
       <c r="Y42" s="4">
-        <f t="shared" si="81"/>
-        <v>0.35989403168960277</v>
+        <f t="shared" si="82"/>
+        <v>0.37292407061294541</v>
       </c>
     </row>
     <row r="43" spans="1:219" ht="15" x14ac:dyDescent="0.25">
@@ -4806,35 +4810,35 @@
         <v>18</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" ref="B43:I43" si="82">B24/B22</f>
+        <f t="shared" ref="B43:I43" si="83">B24/B22</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.58142018152696207</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.58099879634655782</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.58678116644763678</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.5790046543449191</v>
       </c>
       <c r="J43" s="5">
@@ -4851,48 +4855,48 @@
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5">
-        <f t="shared" ref="O43:T43" si="83">O24/O22</f>
+        <f t="shared" ref="O43:T43" si="84">O24/O22</f>
         <v>0.5558054331910266</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.5693980290098084</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.55379442503783116</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.56625047984020505</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.58201578204549476</v>
       </c>
       <c r="U43" s="5">
-        <f>T43*1.005</f>
-        <v>0.58492586095572219</v>
+        <f>T43*1.01</f>
+        <v>0.58783593986594973</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" ref="V43:Y43" si="84">U43*1.005</f>
-        <v>0.58785049026050074</v>
+        <f t="shared" ref="V43:Y43" si="85">U43*1.01</f>
+        <v>0.59371429926460928</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="84"/>
-        <v>0.59078974271180318</v>
+        <f t="shared" si="85"/>
+        <v>0.59965144225725542</v>
       </c>
       <c r="X43" s="5">
-        <f t="shared" si="84"/>
-        <v>0.5937436914253621</v>
+        <f t="shared" si="85"/>
+        <v>0.60564795667982796</v>
       </c>
       <c r="Y43" s="5">
-        <f t="shared" si="84"/>
-        <v>0.59671240988248886</v>
+        <f t="shared" si="85"/>
+        <v>0.61170443624662629</v>
       </c>
     </row>
     <row r="44" spans="1:219" x14ac:dyDescent="0.2">
@@ -4900,97 +4904,97 @@
         <v>19</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" ref="B44:M44" si="85">B29/B22</f>
+        <f t="shared" ref="B44:M44" si="86">B29/B22</f>
         <v>0.24954504420594092</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.29271888906761029</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.27829136948613303</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.27455683003128256</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.31626913669154072</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.32362936914398999</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.32311823084243441</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.32105650519856122</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.32205185085364207</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4">
-        <f t="shared" ref="O44:Y44" si="86">O29/O22</f>
+        <f t="shared" ref="O44:Y44" si="87">O29/O22</f>
         <v>0.21148915400631421</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.22585151785763202</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.3055228868524319</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.26461270842467011</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.27480367216015927</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.32110920009828064</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.33198495117648519</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="86"/>
-        <v>0.34736820796767087</v>
+        <f t="shared" si="87"/>
+        <v>0.35323201697177942</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="86"/>
-        <v>0.35743885994986896</v>
+        <f t="shared" si="87"/>
+        <v>0.36630055949532131</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="86"/>
-        <v>0.36713126032823545</v>
+        <f t="shared" si="87"/>
+        <v>0.37903552558270126</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="86"/>
-        <v>0.37645544842999268</v>
+        <f t="shared" si="87"/>
+        <v>0.39144747479413017</v>
       </c>
     </row>
     <row r="45" spans="1:219" x14ac:dyDescent="0.2">
@@ -5022,40 +5026,40 @@
         <v>0</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" ref="Q45:Y45" si="87">Q103/Q22</f>
+        <f t="shared" ref="Q45:Y45" si="88">Q103/Q22</f>
         <v>0</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.21217242500954617</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.22607793255561268</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.20354381774651589</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.15887589108818778</v>
       </c>
       <c r="V45" s="4">
-        <f t="shared" si="87"/>
-        <v>0.20755657978355371</v>
+        <f t="shared" si="88"/>
+        <v>0.19586650881589146</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="87"/>
-        <v>0.24786183272583542</v>
+        <f t="shared" si="88"/>
+        <v>0.22590255110604759</v>
       </c>
       <c r="X45" s="4">
-        <f t="shared" si="87"/>
-        <v>0.28411521248778976</v>
+        <f t="shared" si="88"/>
+        <v>0.2550084118609347</v>
       </c>
       <c r="Y45" s="4">
-        <f t="shared" si="87"/>
-        <v>0.3167737021862822</v>
+        <f t="shared" si="88"/>
+        <v>0.2831629754850668</v>
       </c>
     </row>
     <row r="46" spans="1:219" x14ac:dyDescent="0.2">
@@ -5089,89 +5093,89 @@
         <v>105</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" ref="C47:M47" si="88">C19/B19-1</f>
+        <f t="shared" ref="C47:M47" si="89">C19/B19-1</f>
         <v>6.9785833023998878E-2</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2.5661914460285207E-2</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.12245168122848815</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-7.7485552541573299E-2</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>5.014346998494279E-2</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.4925873823179243E-2</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9.9124297477453993E-2</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-7.357457131305456E-2</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.2015674622581507E-2</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.3015078053849427E-2</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.4054389239795784E-2</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4">
-        <f t="shared" ref="P47:Y47" si="89">P19/O19-1</f>
+        <f t="shared" ref="P47:Y47" si="90">P19/O19-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-1.5948796174462543E-2</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>7.5001577735003711E-2</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.11883262457667221</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.12216850224681064</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10388001480843156</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10466896434707929</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10539802685306121</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.10607098023462114</v>
       </c>
       <c r="AB47" s="7"/>
@@ -5181,47 +5185,47 @@
         <v>38</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" ref="C48:M48" si="90">C20/B20-1</f>
+        <f t="shared" ref="C48:M48" si="91">C20/B20-1</f>
         <v>7.7408103031929132E-2</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4.731664798904256E-2</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>9.2854595172987775E-2</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4.155787641427322E-2</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8.0739502820137865E-2</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>9.7226249154344302E-2</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>5.3025631991544087E-2</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="N48" s="4"/>
@@ -5230,31 +5234,31 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4">
-        <f t="shared" ref="S48:Y48" si="91">S20/R20-1</f>
+        <f t="shared" ref="S48:Y48" si="92">S20/R20-1</f>
         <v>0.25905631659056327</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.30648573500967125</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.48033242010687305</v>
       </c>
       <c r="V48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="X48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Y48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AB48" s="7"/>
@@ -5264,95 +5268,95 @@
         <v>53</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" ref="B49:M49" si="92">B20/B22</f>
+        <f t="shared" ref="B49:M49" si="93">B20/B22</f>
         <v>0.10681072406035508</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.10764838346469358</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.10967102603888229</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.10649982620785541</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.11887408584660848</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.1221000212409431</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.12861965831331854</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.12392582072997543</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.14603593834765272</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.1528165624319674</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.15972634101995625</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.16675069561299613</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" ref="O49:Y49" si="93">O20/O22</f>
+        <f t="shared" ref="O49:Y49" si="94">O20/O22</f>
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>9.2916036148156522E-2</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.10764035732642797</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.12350507688176036</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.15692859789168051</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.16832545488683004</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.18026612692452421</v>
       </c>
       <c r="X49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.19275346592565937</v>
       </c>
       <c r="Y49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.20578772161943079</v>
       </c>
     </row>
@@ -5387,19 +5391,19 @@
         <v>198578.0895239276</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" ref="V51:Y51" si="94">U51*(1+V38)</f>
+        <f t="shared" ref="V51:Y51" si="95">U51*(1+V38)</f>
         <v>222159.49107839967</v>
       </c>
       <c r="W51" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>248932.60668226553</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>279366.91040862445</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>314006.72395288927</v>
       </c>
     </row>
@@ -5428,19 +5432,19 @@
         <v>118982.34963836356</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" ref="V52:Y52" si="95">U52*(1+V38)</f>
+        <f t="shared" ref="V52:Y52" si="96">U52*(1+V38)</f>
         <v>133111.65550208409</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>149153.34574759155</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>167388.71590172659</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>188143.90806019894</v>
       </c>
     </row>
@@ -5469,19 +5473,19 @@
         <v>66191.919812621796</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" ref="V53:Y53" si="96">U53*(1+V38)</f>
+        <f t="shared" ref="V53:Y53" si="97">U53*(1+V38)</f>
         <v>74052.29476388132</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>82976.561914571212</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>93121.210786144671</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>104667.67981474246</v>
       </c>
     </row>
@@ -5511,19 +5515,19 @@
         <v>23787.848609242483</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" ref="V54:Y54" si="97">U54*(1+V38)</f>
+        <f t="shared" ref="V54:Y54" si="98">U54*(1+V38)</f>
         <v>26612.685989420548</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>29819.86167687608</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>33465.614394640521</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>37615.148929990508</v>
       </c>
     </row>
@@ -5532,75 +5536,75 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ref="B56:M56" si="98">B58-B73</f>
+        <f t="shared" ref="B56:M56" si="99">B58-B73</f>
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <f t="shared" si="98"/>
-        <v>84774</v>
-      </c>
-      <c r="J56" s="1">
-        <f t="shared" si="98"/>
-        <v>72414.663437106472</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="98"/>
-        <v>115013.84130789702</v>
-      </c>
-      <c r="L56" s="1">
-        <f t="shared" si="98"/>
-        <v>142444.60657126163</v>
-      </c>
-      <c r="M56" s="1">
-        <f t="shared" si="98"/>
-        <v>171872.88356214596</v>
-      </c>
-      <c r="O56" s="1">
-        <f t="shared" ref="O56:T56" si="99">O58-O73</f>
-        <v>0</v>
-      </c>
-      <c r="P56" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="D56" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="R56" s="1">
+      <c r="E56" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
+      <c r="F56" s="1">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="99"/>
+        <v>84774</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="99"/>
+        <v>72414.663437106472</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="99"/>
+        <v>115013.84130789702</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="99"/>
+        <v>142444.60657126163</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="99"/>
+        <v>171872.88356214596</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" ref="O56:T56" si="100">O58-O73</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
       <c r="S56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>99046</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>84774</v>
       </c>
       <c r="U56" s="1">
@@ -5609,19 +5613,19 @@
       </c>
       <c r="V56" s="1">
         <f>U56+V34</f>
-        <v>339231.71328766516</v>
+        <v>341398.57264582295</v>
       </c>
       <c r="W56" s="1">
         <f>V56+W34</f>
-        <v>505043.10742312914</v>
+        <v>510984.58986100566</v>
       </c>
       <c r="X56" s="1">
         <f>W56+X34</f>
-        <v>701524.78429085109</v>
+        <v>713286.78617238556</v>
       </c>
       <c r="Y56" s="1">
         <f>X56+Y34</f>
-        <v>933592.43708610605</v>
+        <v>953756.49702504918</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
@@ -5637,15 +5641,15 @@
         <v>89414.663437106472</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" ref="K58:M58" si="100">J58+K34+K100</f>
+        <f t="shared" ref="K58:M58" si="101">J58+K34+K100</f>
         <v>115013.84130789702</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>142444.60657126163</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>171872.88356214596</v>
       </c>
       <c r="S58" s="1">
@@ -5661,20 +5665,20 @@
         <v>207315.1241838006</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" ref="V58" si="101">U58+V34+V100</f>
-        <v>342879.72617292911</v>
+        <f t="shared" ref="V58" si="102">U58+V34+V100</f>
+        <v>345046.58553108689</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" ref="W58" si="102">V58+W34+W100</f>
-        <v>504410.48486050765</v>
+        <f t="shared" ref="W58" si="103">V58+W34+W100</f>
+        <v>510351.96729838429</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" ref="X58:Y58" si="103">W58+X34+X100</f>
-        <v>696088.17917407688</v>
+        <f t="shared" ref="X58:Y58" si="104">W58+X34+X100</f>
+        <v>707850.18105561135</v>
       </c>
       <c r="Y58" s="1">
-        <f t="shared" si="103"/>
-        <v>922756.18452522345</v>
+        <f t="shared" si="104"/>
+        <v>942920.2444641667</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
@@ -5689,15 +5693,15 @@
         <v>55012.212</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" ref="K59:M59" si="104">K80*K22/90</f>
+        <f t="shared" ref="K59:M59" si="105">K80*K22/90</f>
         <v>58879.816800000001</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>63092.589986400009</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>67687.000211832026</v>
       </c>
       <c r="S59" s="1">
@@ -5711,19 +5715,19 @@
         <v>61167.904749558009</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" ref="V59:Y59" si="105">V80*V22/360</f>
+        <f t="shared" ref="V59:Y59" si="106">V80*V22/360</f>
         <v>68431.671500477532</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>76678.580255780282</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>86053.242867934823</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>96723.326463248741</v>
       </c>
     </row>
@@ -5745,19 +5749,19 @@
         <v>44250.664407691649</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" ref="V60:Y60" si="106">U60*(1+V38)</f>
+        <f t="shared" ref="V60:Y60" si="107">U60*(1+V38)</f>
         <v>49505.487278390217</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>55471.544040116933</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>62253.451167461877</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>69972.503999358407</v>
       </c>
     </row>
@@ -5779,19 +5783,19 @@
         <v>20015.439274502198</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" ref="V61:Y61" si="107">U61*(1+V38)</f>
+        <f t="shared" ref="V61:Y61" si="108">U61*(1+V38)</f>
         <v>22392.298231866247</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>25090.862161266094</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>28158.451136248616</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>31649.929406270792</v>
       </c>
     </row>
@@ -5813,19 +5817,19 @@
         <v>199264.29986925249</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ref="V62:Y62" si="108">U62*(1+V38)</f>
+        <f t="shared" ref="V62:Y62" si="109">U62*(1+V38)</f>
         <v>222927.18977796714</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>249792.82308581533</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>280332.29618972167</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>315091.81175383768</v>
       </c>
     </row>
@@ -5847,19 +5851,19 @@
         <v>15830.604706748303</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" ref="V63:Y63" si="109">U63*(1+V38)</f>
+        <f t="shared" ref="V63:Y63" si="110">U63*(1+V38)</f>
         <v>17710.509218544736</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>19844.856521960632</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>22271.072994141221</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>25032.551849383439</v>
       </c>
     </row>
@@ -5881,19 +5885,19 @@
         <v>37147.39704700248</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" ref="V64:Y64" si="110">U64*(1+V38)</f>
+        <f t="shared" ref="V64:Y64" si="111">U64*(1+V38)</f>
         <v>41558.697853495658</v>
       </c>
       <c r="W64" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>46567.062864491818</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>52260.315161774575</v>
       </c>
       <c r="Y64" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>58740.279343361137</v>
       </c>
     </row>
@@ -5918,19 +5922,19 @@
         <v>35636.336235650364</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" ref="V65:Y65" si="111">U65*(1+V38)</f>
+        <f t="shared" ref="V65:Y65" si="112">U65*(1+V38)</f>
         <v>39868.196642393763</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>44672.834213551068</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>50134.499613246378</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>56350.875476077483</v>
       </c>
     </row>
@@ -5951,24 +5955,24 @@
         <v>450256</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" ref="U66:Y66" si="112">SUM(U58:U65)</f>
+        <f t="shared" ref="U66:Y66" si="113">SUM(U58:U65)</f>
         <v>620627.77047420596</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="112"/>
-        <v>805273.77667606436</v>
+        <f t="shared" si="113"/>
+        <v>807440.63603422209</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" si="112"/>
-        <v>1022529.0480034897</v>
+        <f t="shared" si="113"/>
+        <v>1028470.5304413663</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" si="112"/>
-        <v>1277551.5083046062</v>
+        <f t="shared" si="113"/>
+        <v>1289313.5101861407</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" si="112"/>
-        <v>1576317.4628167609</v>
+        <f t="shared" si="113"/>
+        <v>1596481.5227557041</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
@@ -5989,19 +5993,19 @@
         <v>9305.1986894906313</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" ref="V68:Y68" si="113">U68*(1+V38)</f>
+        <f t="shared" ref="V68:Y68" si="114">U68*(1+V38)</f>
         <v>10410.20290907542</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>11664.768107219574</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>13090.893435693695</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>14714.085341553247</v>
       </c>
     </row>
@@ -6023,19 +6027,19 @@
         <v>17556.033435825007</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" ref="V69:Y69" si="114">U69*(1+V38)</f>
+        <f t="shared" ref="V69:Y69" si="115">U69*(1+V38)</f>
         <v>19640.834811175351</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>22007.811519680956</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>24698.469160193858</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>27760.93051356779</v>
       </c>
     </row>
@@ -6057,19 +6061,19 @@
         <v>59682.824397799683</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" ref="V70:Y70" si="115">U70*(1+V38)</f>
+        <f t="shared" ref="V70:Y70" si="116">U70*(1+V38)</f>
         <v>66770.235961702216</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>74816.920069693791</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>83963.977579030499</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>94375.004867545984</v>
       </c>
     </row>
@@ -6091,19 +6095,19 @@
         <v>11419.751790958704</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" ref="V71:Y71" si="116">U71*(1+V38)</f>
+        <f t="shared" ref="V71:Y71" si="117">U71*(1+V38)</f>
         <v>12775.861889915772</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>14315.519843115846</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>16065.72398355698</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>18057.776952285582</v>
       </c>
     </row>
@@ -6125,19 +6129,19 @@
         <v>5867.1567046794571</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" ref="V72:Y72" si="117">U72*(1+V38)</f>
+        <f t="shared" ref="V72:Y72" si="118">U72*(1+V38)</f>
         <v>6563.8890509708053</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>7354.923273814672</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>8254.1303796360917</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>9277.5928108253629</v>
       </c>
     </row>
@@ -6162,19 +6166,19 @@
         <v>12679.163307590654</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" ref="V73:Y73" si="118">U73*(1+V38)</f>
+        <f t="shared" ref="V73:Y73" si="119">U73*(1+V38)</f>
         <v>14184.830131396997</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>15894.287130445804</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>17837.51011151302</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>20049.253884077127</v>
       </c>
     </row>
@@ -6196,19 +6200,19 @@
         <v>10231.407899224581</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74:Y74" si="119">U74*(1+V38)</f>
+        <f t="shared" ref="V74:Y74" si="120">U74*(1+V38)</f>
         <v>11446.400644484831</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>12825.841181620421</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>14393.918386410671</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>16178.677534683939</v>
       </c>
     </row>
@@ -6233,19 +6237,19 @@
         <v>19089.23006476825</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" ref="V75:Y75" si="120">U75*(1+V38)</f>
+        <f t="shared" ref="V75:Y75" si="121">U75*(1+V38)</f>
         <v>21356.100496456838</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>23929.789086865247</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>26855.42618553164</v>
       </c>
       <c r="Y75" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>30185.337213140101</v>
       </c>
     </row>
@@ -6266,23 +6270,23 @@
         <v>125172</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" ref="U76:Y76" si="121">SUM(U68:U75)</f>
+        <f t="shared" ref="U76:Y76" si="122">SUM(U68:U75)</f>
         <v>145830.76629033696</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>163148.35589517825</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>182809.86021245632</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>205160.04922156644</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>230598.65911767911</v>
       </c>
     </row>
@@ -6303,24 +6307,24 @@
         <v>325084</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" ref="U77:Y77" si="122">U66-U76</f>
+        <f t="shared" ref="U77:Y77" si="123">U66-U76</f>
         <v>474797.00418386899</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="122"/>
-        <v>642125.42078088608</v>
+        <f t="shared" si="123"/>
+        <v>644292.28013904381</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="122"/>
-        <v>839719.18779103342</v>
+        <f t="shared" si="123"/>
+        <v>845660.67022890993</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" si="122"/>
-        <v>1072391.4590830398</v>
+        <f t="shared" si="123"/>
+        <v>1084153.4609645742</v>
       </c>
       <c r="Y77" s="1">
-        <f t="shared" si="122"/>
-        <v>1345718.8036990818</v>
+        <f t="shared" si="123"/>
+        <v>1365882.863638025</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
@@ -6340,24 +6344,24 @@
         <v>450256</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" ref="U78:Y78" si="123">U76+U77</f>
+        <f t="shared" ref="U78:Y78" si="124">U76+U77</f>
         <v>620627.77047420596</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="123"/>
-        <v>805273.77667606436</v>
+        <f t="shared" si="124"/>
+        <v>807440.63603422209</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="123"/>
-        <v>1022529.0480034897</v>
+        <f t="shared" si="124"/>
+        <v>1028470.5304413663</v>
       </c>
       <c r="X78" s="1">
-        <f t="shared" si="123"/>
-        <v>1277551.5083046062</v>
+        <f t="shared" si="124"/>
+        <v>1289313.5101861407</v>
       </c>
       <c r="Y78" s="1">
-        <f t="shared" si="123"/>
-        <v>1576317.4628167609</v>
+        <f t="shared" si="124"/>
+        <v>1596481.5227557041</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
@@ -6365,35 +6369,35 @@
         <v>56</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" ref="B80:I80" si="124">(B59/B22)*90</f>
+        <f t="shared" ref="B80:I80" si="125">(B59/B22)*90</f>
         <v>0</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>48.830194155635489</v>
       </c>
       <c r="J80" s="1">
@@ -6409,19 +6413,19 @@
         <v>54</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" ref="Q80:T80" si="125">(Q59/Q22)*360</f>
+        <f t="shared" ref="Q80:T80" si="126">(Q59/Q22)*360</f>
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>56.172339082740713</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>53.832660034626791</v>
       </c>
       <c r="U80" s="1">
@@ -6445,84 +6449,84 @@
         <v>57</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" ref="B82:M82" si="126">+B34</f>
+        <f t="shared" ref="B82:M82" si="127">+B34</f>
         <v>15051</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>18368</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>19689</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>20687</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>23662</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>23619</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>26301</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>26536</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>25757.663437106465</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>25599.177870790547</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>27430.765263364614</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>29428.276990884337</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" ref="R82:Y82" si="127">+R34</f>
+        <f t="shared" ref="R82:Y82" si="128">+R34</f>
         <v>63486</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>73975</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>100122</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>115072.86530798952</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="127"/>
-        <v>139384.84797967563</v>
+        <f t="shared" si="128"/>
+        <v>141551.70733783342</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" si="127"/>
-        <v>165811.39413546395</v>
+        <f t="shared" si="128"/>
+        <v>169586.01721518274</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="127"/>
-        <v>196481.67686772195</v>
+        <f t="shared" si="128"/>
+        <v>202302.19631137984</v>
       </c>
       <c r="Y82" s="1">
-        <f t="shared" si="127"/>
-        <v>232067.65279525489</v>
+        <f t="shared" si="128"/>
+        <v>240469.71085266364</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
@@ -6543,15 +6547,15 @@
         <v>25757.663437106465</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ref="K83:M83" si="128">K82</f>
+        <f t="shared" ref="K83:M83" si="129">K82</f>
         <v>25599.177870790547</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>27430.765263364614</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>29428.276990884337</v>
       </c>
       <c r="R83" s="1">
@@ -6568,20 +6572,20 @@
         <v>115072.86530798952</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" ref="V83:Y83" si="129">V82</f>
-        <v>139384.84797967563</v>
+        <f t="shared" ref="V83:Y83" si="130">V82</f>
+        <v>141551.70733783342</v>
       </c>
       <c r="W83" s="1">
-        <f t="shared" si="129"/>
-        <v>165811.39413546395</v>
+        <f t="shared" si="130"/>
+        <v>169586.01721518274</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="129"/>
-        <v>196481.67686772195</v>
+        <f t="shared" si="130"/>
+        <v>202302.19631137984</v>
       </c>
       <c r="Y83" s="1">
-        <f t="shared" si="129"/>
-        <v>232067.65279525489</v>
+        <f t="shared" si="130"/>
+        <v>240469.71085266364</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
@@ -6605,19 +6609,19 @@
         <v>17607.649999999998</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" ref="V84:Y84" si="130">U84*1.15</f>
+        <f t="shared" ref="V84:Y84" si="131">U84*1.15</f>
         <v>20248.797499999997</v>
       </c>
       <c r="W84" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>23286.117124999993</v>
       </c>
       <c r="X84" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>26779.034693749989</v>
       </c>
       <c r="Y84" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>30795.889897812485</v>
       </c>
     </row>
@@ -6642,19 +6646,19 @@
         <v>23924.25</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" ref="V85:Y85" si="131">U85*1.05</f>
+        <f t="shared" ref="V85:Y85" si="132">U85*1.05</f>
         <v>25120.462500000001</v>
       </c>
       <c r="W85" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>26376.485625000001</v>
       </c>
       <c r="X85" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>27695.309906250004</v>
       </c>
       <c r="Y85" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>29080.075401562506</v>
       </c>
     </row>
@@ -6679,19 +6683,19 @@
         <v>-6124.6312145551838</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" ref="V86:Y86" si="132">U86*(1+V38)</f>
+        <f t="shared" ref="V86:Y86" si="133">U86*(1+V38)</f>
         <v>-6851.9389874808421</v>
       </c>
       <c r="W86" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>-7677.6869838053462</v>
       </c>
       <c r="X86" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>-8616.3549256844562</v>
       </c>
       <c r="Y86" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>-9684.7310179723827</v>
       </c>
     </row>
@@ -6716,19 +6720,19 @@
         <v>-3111.8299360998471</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" ref="V87:Y87" si="133">U87*(1+V38)</f>
+        <f t="shared" ref="V87:Y87" si="134">U87*(1+V38)</f>
         <v>-3481.363712300044</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-3900.9134361316496</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-4377.8360293899914</v>
       </c>
       <c r="Y87" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-4920.6613180529266</v>
       </c>
     </row>
@@ -6753,19 +6757,19 @@
         <v>3983.2821233715376</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" ref="V88:Y88" si="134">U88*(1+V38)</f>
+        <f t="shared" ref="V88:Y88" si="135">U88*(1+V38)</f>
         <v>4456.3019589494006</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4993.3444545616285</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>5603.826800630618</v>
       </c>
       <c r="Y88" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>6298.6675576274638</v>
       </c>
     </row>
@@ -6790,19 +6794,19 @@
         <v>-6863.2684962801195</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" ref="V89:Y89" si="135">U89*(1+V38)</f>
+        <f t="shared" ref="V89:Y89" si="136">U89*(1+V38)</f>
         <v>-7678.2903890526241</v>
       </c>
       <c r="W89" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>-8603.6245047740722</v>
       </c>
       <c r="X89" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>-9655.4968360675557</v>
       </c>
       <c r="Y89" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>-10852.720263814974</v>
       </c>
     </row>
@@ -6827,19 +6831,19 @@
         <v>-2817.0740492285399</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" ref="V90:Y90" si="136">U90*(1+V38)</f>
+        <f t="shared" ref="V90:Y90" si="137">U90*(1+V38)</f>
         <v>-3151.6051876980555</v>
       </c>
       <c r="W90" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>-3531.4147093097449</v>
       </c>
       <c r="X90" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>-3963.1626802938972</v>
       </c>
       <c r="Y90" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>-4454.5709723144801</v>
       </c>
     </row>
@@ -6864,19 +6868,19 @@
         <v>-1627.5651144633046</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" ref="V91:Y91" si="137">U91*(1+V38)</f>
+        <f t="shared" ref="V91:Y91" si="138">U91*(1+V38)</f>
         <v>-1820.8405488892404</v>
       </c>
       <c r="W91" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>-2040.2755785383431</v>
       </c>
       <c r="X91" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>-2289.7180580523468</v>
       </c>
       <c r="Y91" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>-2573.6293003818569</v>
       </c>
     </row>
@@ -6901,19 +6905,19 @@
         <v>-1352.6149591208994</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" ref="V92:Y92" si="138">U92*(1+V38)</f>
+        <f t="shared" ref="V92:Y92" si="139">U92*(1+V38)</f>
         <v>-1513.2397117111009</v>
       </c>
       <c r="W92" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>-1695.6048294080288</v>
       </c>
       <c r="X92" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>-1902.9081355753576</v>
       </c>
       <c r="Y92" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>-2138.857278270104</v>
       </c>
     </row>
@@ -6938,19 +6942,19 @@
         <v>-1352.6149591208994</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" ref="V93:Y93" si="139">U93*(1+V38)</f>
+        <f t="shared" ref="V93:Y93" si="140">U93*(1+V38)</f>
         <v>-1513.2397117111009</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>-1695.6048294080288</v>
       </c>
       <c r="X93" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>-1902.9081355753576</v>
       </c>
       <c r="Y93" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>-2138.857278270104</v>
       </c>
     </row>
@@ -6975,19 +6979,19 @@
         <v>1233.780569947487</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" ref="V94:Y94" si="140">U94*(1+V38)</f>
+        <f t="shared" ref="V94:Y94" si="141">U94*(1+V38)</f>
         <v>1380.2935871680068</v>
       </c>
       <c r="W94" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1546.636963258486</v>
       </c>
       <c r="X94" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1735.7275758607266</v>
       </c>
       <c r="Y94" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1950.9473365099398</v>
       </c>
     </row>
@@ -7012,19 +7016,19 @@
         <v>1215.139881449697</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" ref="V95:Y95" si="141">U95*(1+V38)</f>
+        <f t="shared" ref="V95:Y95" si="142">U95*(1+V38)</f>
         <v>1359.4392931220314</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1523.2694548428717</v>
       </c>
       <c r="X95" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1709.5031743368629</v>
       </c>
       <c r="Y95" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1921.4712672142277</v>
       </c>
     </row>
@@ -7060,32 +7064,32 @@
         <v>91495</v>
       </c>
       <c r="S96" s="3">
-        <f t="shared" ref="S96:Y96" si="142">SUM(S83:S95)</f>
+        <f t="shared" ref="S96:Y96" si="143">SUM(S83:S95)</f>
         <v>101746</v>
       </c>
       <c r="T96" s="3">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>123779</v>
       </c>
       <c r="U96" s="3">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>139787.36915388948</v>
       </c>
       <c r="V96" s="3">
-        <f t="shared" si="142"/>
-        <v>165939.62457007202</v>
+        <f t="shared" si="143"/>
+        <v>168106.48392822981</v>
       </c>
       <c r="W96" s="3">
-        <f t="shared" si="142"/>
-        <v>194392.12288675172</v>
+        <f t="shared" si="143"/>
+        <v>198166.74596647051</v>
       </c>
       <c r="X96" s="3">
-        <f t="shared" si="142"/>
-        <v>227296.69421791119</v>
+        <f t="shared" si="143"/>
+        <v>233117.21366156908</v>
       </c>
       <c r="Y96" s="3">
-        <f t="shared" si="142"/>
-        <v>265350.6768269047</v>
+        <f t="shared" si="143"/>
+        <v>273752.73488431342</v>
       </c>
       <c r="AA96" s="1" t="s">
         <v>55</v>
@@ -7114,20 +7118,20 @@
         <v>-75000</v>
       </c>
       <c r="V97" s="1">
-        <f>U97*0.95</f>
-        <v>-71250</v>
+        <f>U97*1.05</f>
+        <v>-78750</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" ref="W97:Y97" si="143">V97*0.95</f>
-        <v>-67687.5</v>
+        <f t="shared" ref="W97:Y97" si="144">V97*1.05</f>
+        <v>-82687.5</v>
       </c>
       <c r="X97" s="1">
-        <f t="shared" si="143"/>
-        <v>-64303.125</v>
+        <f t="shared" si="144"/>
+        <v>-86821.875</v>
       </c>
       <c r="Y97" s="1">
-        <f t="shared" si="143"/>
-        <v>-61087.96875</v>
+        <f t="shared" si="144"/>
+        <v>-91162.96875</v>
       </c>
       <c r="AA97" s="1" t="s">
         <v>29</v>
@@ -7161,19 +7165,19 @@
         <v>-106849.59151236438</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" ref="V98:Y98" si="144">U98*(1+V38)</f>
+        <f t="shared" ref="V98:Y98" si="145">U98*(1+V38)</f>
         <v>-119538.11686490974</v>
       </c>
       <c r="W98" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-133944.01870757842</v>
       </c>
       <c r="X98" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-150319.90855988179</v>
       </c>
       <c r="Y98" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-168958.67145735232</v>
       </c>
       <c r="AA98" s="1" t="s">
@@ -7208,19 +7212,19 @@
         <v>121525.63857528081</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" ref="V99:Y99" si="145">U99*(1+V38)</f>
+        <f t="shared" ref="V99:Y99" si="146">U99*(1+V38)</f>
         <v>135956.96324598187</v>
       </c>
       <c r="W99" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>152341.55017704694</v>
       </c>
       <c r="X99" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>170966.70768463874</v>
       </c>
       <c r="Y99" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>192165.54926473263</v>
       </c>
       <c r="AA99" s="1" t="s">
@@ -7228,7 +7232,7 @@
       </c>
       <c r="AB99" s="1">
         <f>NPV(AB98,U103:FF103)+main!I5-main!I6</f>
-        <v>2590969.6309432229</v>
+        <v>2337659.3530014087</v>
       </c>
     </row>
     <row r="100" spans="1:162" x14ac:dyDescent="0.2">
@@ -7255,19 +7259,19 @@
         <v>-3414.7411241889372</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" ref="V100:Y100" si="146">U100*(1+V38)</f>
+        <f t="shared" ref="V100:Y100" si="147">U100*(1+V38)</f>
         <v>-3820.2459905471464</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-4280.6354478853855</v>
       </c>
       <c r="X100" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-4803.9825541527762</v>
       </c>
       <c r="Y100" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-5399.6474441082473</v>
       </c>
       <c r="AA100" s="1" t="s">
@@ -7275,7 +7279,7 @@
       </c>
       <c r="AB100" s="1">
         <f>AB99/main!I3</f>
-        <v>211.50772497495697</v>
+        <v>190.8293349388905</v>
       </c>
     </row>
     <row r="101" spans="1:162" x14ac:dyDescent="0.2">
@@ -7299,19 +7303,19 @@
         <v>-3107.1697639753993</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" ref="V101:Y101" si="147">U101*(1+V38)</f>
+        <f t="shared" ref="V101:Y101" si="148">U101*(1+V38)</f>
         <v>-3476.1501387885496</v>
       </c>
       <c r="W101" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-3895.0715590277455</v>
       </c>
       <c r="X101" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-4371.2799290090252</v>
       </c>
       <c r="Y101" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-4913.2923007289983</v>
       </c>
       <c r="AA101" s="1" t="s">
@@ -7319,7 +7323,7 @@
       </c>
       <c r="AB101" s="4">
         <f>AB100/main!I2-1</f>
-        <v>0.27414292153588526</v>
+        <v>9.0453342507945678E-2</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.2">
@@ -7345,32 +7349,32 @@
         <v>-31485</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" ref="S102:Y102" si="148">S97</f>
+        <f t="shared" ref="S102:Y102" si="149">S97</f>
         <v>-32251</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-52535</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-75000</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="148"/>
-        <v>-71250</v>
+        <f t="shared" si="149"/>
+        <v>-78750</v>
       </c>
       <c r="W102" s="1">
-        <f t="shared" si="148"/>
-        <v>-67687.5</v>
+        <f t="shared" si="149"/>
+        <v>-82687.5</v>
       </c>
       <c r="X102" s="1">
-        <f t="shared" si="148"/>
-        <v>-64303.125</v>
+        <f t="shared" si="149"/>
+        <v>-86821.875</v>
       </c>
       <c r="Y102" s="1">
-        <f t="shared" si="148"/>
-        <v>-61087.96875</v>
+        <f t="shared" si="149"/>
+        <v>-91162.96875</v>
       </c>
     </row>
     <row r="103" spans="1:162" ht="15" x14ac:dyDescent="0.25">
@@ -7382,39 +7386,39 @@
         <v>0</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" ref="C103:K103" si="149">C96+C102</f>
+        <f t="shared" ref="C103:K103" si="150">C96+C102</f>
         <v>39466</v>
       </c>
       <c r="D103" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="E103" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>40386</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>24837</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="L103" s="3"/>
@@ -7440,602 +7444,602 @@
         <v>64787.369153889478</v>
       </c>
       <c r="V103" s="3">
-        <f t="shared" ref="V103:Y103" si="150">V96+V102</f>
-        <v>94689.624570072017</v>
+        <f t="shared" ref="V103:Y103" si="151">V96+V102</f>
+        <v>89356.483928229805</v>
       </c>
       <c r="W103" s="3">
-        <f t="shared" si="150"/>
-        <v>126704.62288675172</v>
+        <f t="shared" si="151"/>
+        <v>115479.24596647051</v>
       </c>
       <c r="X103" s="3">
-        <f t="shared" si="150"/>
-        <v>162993.56921791119</v>
+        <f t="shared" si="151"/>
+        <v>146295.33866156908</v>
       </c>
       <c r="Y103" s="3">
-        <f t="shared" si="150"/>
-        <v>204262.7080769047</v>
+        <f t="shared" si="151"/>
+        <v>182589.76613431342</v>
       </c>
       <c r="Z103" s="3">
-        <f t="shared" ref="Z103:BE103" si="151">Y103*(1+$AB$97)</f>
-        <v>206305.33515767375</v>
+        <f t="shared" ref="Z103:BE103" si="152">Y103*(1+$AB$97)</f>
+        <v>184415.66379565655</v>
       </c>
       <c r="AA103" s="3">
-        <f t="shared" si="151"/>
-        <v>208368.38850925048</v>
+        <f t="shared" si="152"/>
+        <v>186259.82043361312</v>
       </c>
       <c r="AB103" s="3">
-        <f t="shared" si="151"/>
-        <v>210452.07239434298</v>
+        <f t="shared" si="152"/>
+        <v>188122.41863794925</v>
       </c>
       <c r="AC103" s="3">
-        <f t="shared" si="151"/>
-        <v>212556.5931182864</v>
+        <f t="shared" si="152"/>
+        <v>190003.64282432874</v>
       </c>
       <c r="AD103" s="3">
-        <f t="shared" si="151"/>
-        <v>214682.15904946928</v>
+        <f t="shared" si="152"/>
+        <v>191903.67925257204</v>
       </c>
       <c r="AE103" s="3">
-        <f t="shared" si="151"/>
-        <v>216828.98063996396</v>
+        <f t="shared" si="152"/>
+        <v>193822.71604509777</v>
       </c>
       <c r="AF103" s="3">
-        <f t="shared" si="151"/>
-        <v>218997.2704463636</v>
+        <f t="shared" si="152"/>
+        <v>195760.94320554874</v>
       </c>
       <c r="AG103" s="3">
-        <f t="shared" si="151"/>
-        <v>221187.24315082724</v>
+        <f t="shared" si="152"/>
+        <v>197718.55263760424</v>
       </c>
       <c r="AH103" s="3">
-        <f t="shared" si="151"/>
-        <v>223399.11558233551</v>
+        <f t="shared" si="152"/>
+        <v>199695.73816398028</v>
       </c>
       <c r="AI103" s="3">
-        <f t="shared" si="151"/>
-        <v>225633.10673815885</v>
+        <f t="shared" si="152"/>
+        <v>201692.69554562008</v>
       </c>
       <c r="AJ103" s="3">
-        <f t="shared" si="151"/>
-        <v>227889.43780554045</v>
+        <f t="shared" si="152"/>
+        <v>203709.62250107629</v>
       </c>
       <c r="AK103" s="3">
-        <f t="shared" si="151"/>
-        <v>230168.33218359586</v>
+        <f t="shared" si="152"/>
+        <v>205746.71872608704</v>
       </c>
       <c r="AL103" s="3">
-        <f t="shared" si="151"/>
-        <v>232470.01550543183</v>
+        <f t="shared" si="152"/>
+        <v>207804.1859133479</v>
       </c>
       <c r="AM103" s="3">
-        <f t="shared" si="151"/>
-        <v>234794.71566048614</v>
+        <f t="shared" si="152"/>
+        <v>209882.22777248139</v>
       </c>
       <c r="AN103" s="3">
-        <f t="shared" si="151"/>
-        <v>237142.66281709101</v>
+        <f t="shared" si="152"/>
+        <v>211981.05005020622</v>
       </c>
       <c r="AO103" s="3">
-        <f t="shared" si="151"/>
-        <v>239514.08944526192</v>
+        <f t="shared" si="152"/>
+        <v>214100.86055070828</v>
       </c>
       <c r="AP103" s="3">
-        <f t="shared" si="151"/>
-        <v>241909.23033971456</v>
+        <f t="shared" si="152"/>
+        <v>216241.86915621537</v>
       </c>
       <c r="AQ103" s="3">
-        <f t="shared" si="151"/>
-        <v>244328.32264311169</v>
+        <f t="shared" si="152"/>
+        <v>218404.28784777754</v>
       </c>
       <c r="AR103" s="3">
-        <f t="shared" si="151"/>
-        <v>246771.60586954281</v>
+        <f t="shared" si="152"/>
+        <v>220588.33072625531</v>
       </c>
       <c r="AS103" s="3">
-        <f t="shared" si="151"/>
-        <v>249239.32192823823</v>
+        <f t="shared" si="152"/>
+        <v>222794.21403351787</v>
       </c>
       <c r="AT103" s="3">
-        <f t="shared" si="151"/>
-        <v>251731.71514752062</v>
+        <f t="shared" si="152"/>
+        <v>225022.15617385306</v>
       </c>
       <c r="AU103" s="3">
-        <f t="shared" si="151"/>
-        <v>254249.03229899582</v>
+        <f t="shared" si="152"/>
+        <v>227272.37773559158</v>
       </c>
       <c r="AV103" s="3">
-        <f t="shared" si="151"/>
-        <v>256791.52262198579</v>
+        <f t="shared" si="152"/>
+        <v>229545.1015129475</v>
       </c>
       <c r="AW103" s="3">
-        <f t="shared" si="151"/>
-        <v>259359.43784820565</v>
+        <f t="shared" si="152"/>
+        <v>231840.55252807698</v>
       </c>
       <c r="AX103" s="3">
-        <f t="shared" si="151"/>
-        <v>261953.0322266877</v>
+        <f t="shared" si="152"/>
+        <v>234158.95805335775</v>
       </c>
       <c r="AY103" s="3">
-        <f t="shared" si="151"/>
-        <v>264572.56254895456</v>
+        <f t="shared" si="152"/>
+        <v>236500.54763389134</v>
       </c>
       <c r="AZ103" s="3">
-        <f t="shared" si="151"/>
-        <v>267218.28817444411</v>
+        <f t="shared" si="152"/>
+        <v>238865.55311023025</v>
       </c>
       <c r="BA103" s="3">
-        <f t="shared" si="151"/>
-        <v>269890.47105618857</v>
+        <f t="shared" si="152"/>
+        <v>241254.20864133255</v>
       </c>
       <c r="BB103" s="3">
-        <f t="shared" si="151"/>
-        <v>272589.37576675048</v>
+        <f t="shared" si="152"/>
+        <v>243666.75072774588</v>
       </c>
       <c r="BC103" s="3">
-        <f t="shared" si="151"/>
-        <v>275315.26952441799</v>
+        <f t="shared" si="152"/>
+        <v>246103.41823502333</v>
       </c>
       <c r="BD103" s="3">
-        <f t="shared" si="151"/>
-        <v>278068.42221966217</v>
+        <f t="shared" si="152"/>
+        <v>248564.45241737357</v>
       </c>
       <c r="BE103" s="3">
-        <f t="shared" si="151"/>
-        <v>280849.10644185881</v>
+        <f t="shared" si="152"/>
+        <v>251050.09694154729</v>
       </c>
       <c r="BF103" s="3">
-        <f t="shared" ref="BF103:CK103" si="152">BE103*(1+$AB$97)</f>
-        <v>283657.59750627738</v>
+        <f t="shared" ref="BF103:CK103" si="153">BE103*(1+$AB$97)</f>
+        <v>253560.59791096277</v>
       </c>
       <c r="BG103" s="3">
-        <f t="shared" si="152"/>
-        <v>286494.17348134017</v>
+        <f t="shared" si="153"/>
+        <v>256096.20389007239</v>
       </c>
       <c r="BH103" s="3">
-        <f t="shared" si="152"/>
-        <v>289359.11521615356</v>
+        <f t="shared" si="153"/>
+        <v>258657.16592897312</v>
       </c>
       <c r="BI103" s="3">
-        <f t="shared" si="152"/>
-        <v>292252.70636831509</v>
+        <f t="shared" si="153"/>
+        <v>261243.73758826285</v>
       </c>
       <c r="BJ103" s="3">
-        <f t="shared" si="152"/>
-        <v>295175.23343199823</v>
+        <f t="shared" si="153"/>
+        <v>263856.17496414547</v>
       </c>
       <c r="BK103" s="3">
-        <f t="shared" si="152"/>
-        <v>298126.98576631822</v>
+        <f t="shared" si="153"/>
+        <v>266494.7367137869</v>
       </c>
       <c r="BL103" s="3">
-        <f t="shared" si="152"/>
-        <v>301108.25562398141</v>
+        <f t="shared" si="153"/>
+        <v>269159.68408092478</v>
       </c>
       <c r="BM103" s="3">
-        <f t="shared" si="152"/>
-        <v>304119.33818022121</v>
+        <f t="shared" si="153"/>
+        <v>271851.28092173405</v>
       </c>
       <c r="BN103" s="3">
-        <f t="shared" si="152"/>
-        <v>307160.53156202345</v>
+        <f t="shared" si="153"/>
+        <v>274569.79373095138</v>
       </c>
       <c r="BO103" s="3">
-        <f t="shared" si="152"/>
-        <v>310232.1368776437</v>
+        <f t="shared" si="153"/>
+        <v>277315.49166826089</v>
       </c>
       <c r="BP103" s="3">
-        <f t="shared" si="152"/>
-        <v>313334.45824642014</v>
+        <f t="shared" si="153"/>
+        <v>280088.64658494352</v>
       </c>
       <c r="BQ103" s="3">
-        <f t="shared" si="152"/>
-        <v>316467.80282888433</v>
+        <f t="shared" si="153"/>
+        <v>282889.53305079293</v>
       </c>
       <c r="BR103" s="3">
-        <f t="shared" si="152"/>
-        <v>319632.48085717316</v>
+        <f t="shared" si="153"/>
+        <v>285718.42838130088</v>
       </c>
       <c r="BS103" s="3">
-        <f t="shared" si="152"/>
-        <v>322828.80566574488</v>
+        <f t="shared" si="153"/>
+        <v>288575.61266511388</v>
       </c>
       <c r="BT103" s="3">
-        <f t="shared" si="152"/>
-        <v>326057.09372240235</v>
+        <f t="shared" si="153"/>
+        <v>291461.36879176501</v>
       </c>
       <c r="BU103" s="3">
-        <f t="shared" si="152"/>
-        <v>329317.66465962637</v>
+        <f t="shared" si="153"/>
+        <v>294375.98247968266</v>
       </c>
       <c r="BV103" s="3">
-        <f t="shared" si="152"/>
-        <v>332610.84130622266</v>
+        <f t="shared" si="153"/>
+        <v>297319.74230447947</v>
       </c>
       <c r="BW103" s="3">
-        <f t="shared" si="152"/>
-        <v>335936.94971928489</v>
+        <f t="shared" si="153"/>
+        <v>300292.9397275243</v>
       </c>
       <c r="BX103" s="3">
-        <f t="shared" si="152"/>
-        <v>339296.31921647774</v>
+        <f t="shared" si="153"/>
+        <v>303295.86912479956</v>
       </c>
       <c r="BY103" s="3">
-        <f t="shared" si="152"/>
-        <v>342689.28240864252</v>
+        <f t="shared" si="153"/>
+        <v>306328.82781604753</v>
       </c>
       <c r="BZ103" s="3">
-        <f t="shared" si="152"/>
-        <v>346116.17523272894</v>
+        <f t="shared" si="153"/>
+        <v>309392.11609420803</v>
       </c>
       <c r="CA103" s="3">
-        <f t="shared" si="152"/>
-        <v>349577.33698505623</v>
+        <f t="shared" si="153"/>
+        <v>312486.03725515009</v>
       </c>
       <c r="CB103" s="3">
-        <f t="shared" si="152"/>
-        <v>353073.11035490682</v>
+        <f t="shared" si="153"/>
+        <v>315610.89762770158</v>
       </c>
       <c r="CC103" s="3">
-        <f t="shared" si="152"/>
-        <v>356603.84145845589</v>
+        <f t="shared" si="153"/>
+        <v>318767.00660397857</v>
       </c>
       <c r="CD103" s="3">
-        <f t="shared" si="152"/>
-        <v>360169.87987304048</v>
+        <f t="shared" si="153"/>
+        <v>321954.67667001835</v>
       </c>
       <c r="CE103" s="3">
-        <f t="shared" si="152"/>
-        <v>363771.57867177087</v>
+        <f t="shared" si="153"/>
+        <v>325174.22343671852</v>
       </c>
       <c r="CF103" s="3">
-        <f t="shared" si="152"/>
-        <v>367409.29445848858</v>
+        <f t="shared" si="153"/>
+        <v>328425.96567108569</v>
       </c>
       <c r="CG103" s="3">
-        <f t="shared" si="152"/>
-        <v>371083.38740307349</v>
+        <f t="shared" si="153"/>
+        <v>331710.22532779654</v>
       </c>
       <c r="CH103" s="3">
-        <f t="shared" si="152"/>
-        <v>374794.22127710423</v>
+        <f t="shared" si="153"/>
+        <v>335027.3275810745</v>
       </c>
       <c r="CI103" s="3">
-        <f t="shared" si="152"/>
-        <v>378542.16348987527</v>
+        <f t="shared" si="153"/>
+        <v>338377.60085688526</v>
       </c>
       <c r="CJ103" s="3">
-        <f t="shared" si="152"/>
-        <v>382327.58512477402</v>
+        <f t="shared" si="153"/>
+        <v>341761.37686545413</v>
       </c>
       <c r="CK103" s="3">
-        <f t="shared" si="152"/>
-        <v>386150.86097602174</v>
+        <f t="shared" si="153"/>
+        <v>345178.99063410866</v>
       </c>
       <c r="CL103" s="3">
-        <f t="shared" ref="CL103:DQ103" si="153">CK103*(1+$AB$97)</f>
-        <v>390012.36958578194</v>
+        <f t="shared" ref="CL103:DQ103" si="154">CK103*(1+$AB$97)</f>
+        <v>348630.78054044978</v>
       </c>
       <c r="CM103" s="3">
-        <f t="shared" si="153"/>
-        <v>393912.49328163976</v>
+        <f t="shared" si="154"/>
+        <v>352117.08834585425</v>
       </c>
       <c r="CN103" s="3">
-        <f t="shared" si="153"/>
-        <v>397851.61821445619</v>
+        <f t="shared" si="154"/>
+        <v>355638.25922931283</v>
       </c>
       <c r="CO103" s="3">
-        <f t="shared" si="153"/>
-        <v>401830.13439660077</v>
+        <f t="shared" si="154"/>
+        <v>359194.64182160597</v>
       </c>
       <c r="CP103" s="3">
-        <f t="shared" si="153"/>
-        <v>405848.43574056675</v>
+        <f t="shared" si="154"/>
+        <v>362786.58823982201</v>
       </c>
       <c r="CQ103" s="3">
-        <f t="shared" si="153"/>
-        <v>409906.92009797244</v>
+        <f t="shared" si="154"/>
+        <v>366414.45412222022</v>
       </c>
       <c r="CR103" s="3">
-        <f t="shared" si="153"/>
-        <v>414005.98929895216</v>
+        <f t="shared" si="154"/>
+        <v>370078.59866344242</v>
       </c>
       <c r="CS103" s="3">
-        <f t="shared" si="153"/>
-        <v>418146.04919194168</v>
+        <f t="shared" si="154"/>
+        <v>373779.38465007686</v>
       </c>
       <c r="CT103" s="3">
-        <f t="shared" si="153"/>
-        <v>422327.50968386111</v>
+        <f t="shared" si="154"/>
+        <v>377517.1784965776</v>
       </c>
       <c r="CU103" s="3">
-        <f t="shared" si="153"/>
-        <v>426550.7847806997</v>
+        <f t="shared" si="154"/>
+        <v>381292.35028154339</v>
       </c>
       <c r="CV103" s="3">
-        <f t="shared" si="153"/>
-        <v>430816.29262850672</v>
+        <f t="shared" si="154"/>
+        <v>385105.27378435881</v>
       </c>
       <c r="CW103" s="3">
-        <f t="shared" si="153"/>
-        <v>435124.45555479178</v>
+        <f t="shared" si="154"/>
+        <v>388956.32652220241</v>
       </c>
       <c r="CX103" s="3">
-        <f t="shared" si="153"/>
-        <v>439475.70011033973</v>
+        <f t="shared" si="154"/>
+        <v>392845.88978742441</v>
       </c>
       <c r="CY103" s="3">
-        <f t="shared" si="153"/>
-        <v>443870.45711144316</v>
+        <f t="shared" si="154"/>
+        <v>396774.34868529864</v>
       </c>
       <c r="CZ103" s="3">
-        <f t="shared" si="153"/>
-        <v>448309.16168255761</v>
+        <f t="shared" si="154"/>
+        <v>400742.09217215161</v>
       </c>
       <c r="DA103" s="3">
-        <f t="shared" si="153"/>
-        <v>452792.25329938321</v>
+        <f t="shared" si="154"/>
+        <v>404749.5130938731</v>
       </c>
       <c r="DB103" s="3">
-        <f t="shared" si="153"/>
-        <v>457320.17583237705</v>
+        <f t="shared" si="154"/>
+        <v>408797.00822481181</v>
       </c>
       <c r="DC103" s="3">
-        <f t="shared" si="153"/>
-        <v>461893.37759070081</v>
+        <f t="shared" si="154"/>
+        <v>412884.97830705991</v>
       </c>
       <c r="DD103" s="3">
-        <f t="shared" si="153"/>
-        <v>466512.31136660784</v>
+        <f t="shared" si="154"/>
+        <v>417013.82809013053</v>
       </c>
       <c r="DE103" s="3">
-        <f t="shared" si="153"/>
-        <v>471177.43448027392</v>
+        <f t="shared" si="154"/>
+        <v>421183.96637103183</v>
       </c>
       <c r="DF103" s="3">
-        <f t="shared" si="153"/>
-        <v>475889.20882507664</v>
+        <f t="shared" si="154"/>
+        <v>425395.80603474216</v>
       </c>
       <c r="DG103" s="3">
-        <f t="shared" si="153"/>
-        <v>480648.10091332742</v>
+        <f t="shared" si="154"/>
+        <v>429649.76409508957</v>
       </c>
       <c r="DH103" s="3">
-        <f t="shared" si="153"/>
-        <v>485454.5819224607</v>
+        <f t="shared" si="154"/>
+        <v>433946.26173604047</v>
       </c>
       <c r="DI103" s="3">
-        <f t="shared" si="153"/>
-        <v>490309.12774168531</v>
+        <f t="shared" si="154"/>
+        <v>438285.72435340087</v>
       </c>
       <c r="DJ103" s="3">
-        <f t="shared" si="153"/>
-        <v>495212.21901910217</v>
+        <f t="shared" si="154"/>
+        <v>442668.58159693488</v>
       </c>
       <c r="DK103" s="3">
-        <f t="shared" si="153"/>
-        <v>500164.34120929317</v>
+        <f t="shared" si="154"/>
+        <v>447095.26741290424</v>
       </c>
       <c r="DL103" s="3">
-        <f t="shared" si="153"/>
-        <v>505165.9846213861</v>
+        <f t="shared" si="154"/>
+        <v>451566.22008703329</v>
       </c>
       <c r="DM103" s="3">
-        <f t="shared" si="153"/>
-        <v>510217.64446759998</v>
+        <f t="shared" si="154"/>
+        <v>456081.88228790363</v>
       </c>
       <c r="DN103" s="3">
-        <f t="shared" si="153"/>
-        <v>515319.82091227599</v>
+        <f t="shared" si="154"/>
+        <v>460642.70111078268</v>
       </c>
       <c r="DO103" s="3">
-        <f t="shared" si="153"/>
-        <v>520473.01912139874</v>
+        <f t="shared" si="154"/>
+        <v>465249.12812189054</v>
       </c>
       <c r="DP103" s="3">
-        <f t="shared" si="153"/>
-        <v>525677.74931261269</v>
+        <f t="shared" si="154"/>
+        <v>469901.61940310942</v>
       </c>
       <c r="DQ103" s="3">
-        <f t="shared" si="153"/>
-        <v>530934.5268057388</v>
+        <f t="shared" si="154"/>
+        <v>474600.63559714053</v>
       </c>
       <c r="DR103" s="3">
-        <f t="shared" ref="DR103:EW103" si="154">DQ103*(1+$AB$97)</f>
-        <v>536243.87207379623</v>
+        <f t="shared" ref="DR103:EW103" si="155">DQ103*(1+$AB$97)</f>
+        <v>479346.64195311192</v>
       </c>
       <c r="DS103" s="3">
-        <f t="shared" si="154"/>
-        <v>541606.31079453416</v>
+        <f t="shared" si="155"/>
+        <v>484140.10837264307</v>
       </c>
       <c r="DT103" s="3">
-        <f t="shared" si="154"/>
-        <v>547022.37390247954</v>
+        <f t="shared" si="155"/>
+        <v>488981.5094563695</v>
       </c>
       <c r="DU103" s="3">
-        <f t="shared" si="154"/>
-        <v>552492.59764150437</v>
+        <f t="shared" si="155"/>
+        <v>493871.3245509332</v>
       </c>
       <c r="DV103" s="3">
-        <f t="shared" si="154"/>
-        <v>558017.52361791942</v>
+        <f t="shared" si="155"/>
+        <v>498810.03779644251</v>
       </c>
       <c r="DW103" s="3">
-        <f t="shared" si="154"/>
-        <v>563597.69885409856</v>
+        <f t="shared" si="155"/>
+        <v>503798.13817440695</v>
       </c>
       <c r="DX103" s="3">
-        <f t="shared" si="154"/>
-        <v>569233.67584263952</v>
+        <f t="shared" si="155"/>
+        <v>508836.11955615104</v>
       </c>
       <c r="DY103" s="3">
-        <f t="shared" si="154"/>
-        <v>574926.01260106592</v>
+        <f t="shared" si="155"/>
+        <v>513924.48075171257</v>
       </c>
       <c r="DZ103" s="3">
-        <f t="shared" si="154"/>
-        <v>580675.27272707655</v>
+        <f t="shared" si="155"/>
+        <v>519063.72555922973</v>
       </c>
       <c r="EA103" s="3">
-        <f t="shared" si="154"/>
-        <v>586482.02545434737</v>
+        <f t="shared" si="155"/>
+        <v>524254.36281482206</v>
       </c>
       <c r="EB103" s="3">
-        <f t="shared" si="154"/>
-        <v>592346.84570889082</v>
+        <f t="shared" si="155"/>
+        <v>529496.90644297027</v>
       </c>
       <c r="EC103" s="3">
-        <f t="shared" si="154"/>
-        <v>598270.31416597974</v>
+        <f t="shared" si="155"/>
+        <v>534791.87550740002</v>
       </c>
       <c r="ED103" s="3">
-        <f t="shared" si="154"/>
-        <v>604253.01730763959</v>
+        <f t="shared" si="155"/>
+        <v>540139.79426247405</v>
       </c>
       <c r="EE103" s="3">
-        <f t="shared" si="154"/>
-        <v>610295.54748071602</v>
+        <f t="shared" si="155"/>
+        <v>545541.19220509881</v>
       </c>
       <c r="EF103" s="3">
-        <f t="shared" si="154"/>
-        <v>616398.5029555232</v>
+        <f t="shared" si="155"/>
+        <v>550996.6041271498</v>
       </c>
       <c r="EG103" s="3">
-        <f t="shared" si="154"/>
-        <v>622562.48798507848</v>
+        <f t="shared" si="155"/>
+        <v>556506.57016842125</v>
       </c>
       <c r="EH103" s="3">
-        <f t="shared" si="154"/>
-        <v>628788.11286492925</v>
+        <f t="shared" si="155"/>
+        <v>562071.63587010547</v>
       </c>
       <c r="EI103" s="3">
-        <f t="shared" si="154"/>
-        <v>635075.9939935786</v>
+        <f t="shared" si="155"/>
+        <v>567692.35222880659</v>
       </c>
       <c r="EJ103" s="3">
-        <f t="shared" si="154"/>
-        <v>641426.75393351435</v>
+        <f t="shared" si="155"/>
+        <v>573369.27575109468</v>
       </c>
       <c r="EK103" s="3">
-        <f t="shared" si="154"/>
-        <v>647841.02147284953</v>
+        <f t="shared" si="155"/>
+        <v>579102.96850860561</v>
       </c>
       <c r="EL103" s="3">
-        <f t="shared" si="154"/>
-        <v>654319.43168757798</v>
+        <f t="shared" si="155"/>
+        <v>584893.99819369172</v>
       </c>
       <c r="EM103" s="3">
-        <f t="shared" si="154"/>
-        <v>660862.62600445375</v>
+        <f t="shared" si="155"/>
+        <v>590742.93817562866</v>
       </c>
       <c r="EN103" s="3">
-        <f t="shared" si="154"/>
-        <v>667471.25226449827</v>
+        <f t="shared" si="155"/>
+        <v>596650.36755738501</v>
       </c>
       <c r="EO103" s="3">
-        <f t="shared" si="154"/>
-        <v>674145.96478714328</v>
+        <f t="shared" si="155"/>
+        <v>602616.87123295886</v>
       </c>
       <c r="EP103" s="3">
-        <f t="shared" si="154"/>
-        <v>680887.42443501472</v>
+        <f t="shared" si="155"/>
+        <v>608643.03994528844</v>
       </c>
       <c r="EQ103" s="3">
-        <f t="shared" si="154"/>
-        <v>687696.29867936485</v>
+        <f t="shared" si="155"/>
+        <v>614729.47034474136</v>
       </c>
       <c r="ER103" s="3">
-        <f t="shared" si="154"/>
-        <v>694573.26166615845</v>
+        <f t="shared" si="155"/>
+        <v>620876.76504818874</v>
       </c>
       <c r="ES103" s="3">
-        <f t="shared" si="154"/>
-        <v>701518.99428282003</v>
+        <f t="shared" si="155"/>
+        <v>627085.53269867063</v>
       </c>
       <c r="ET103" s="3">
-        <f t="shared" si="154"/>
-        <v>708534.18422564829</v>
+        <f t="shared" si="155"/>
+        <v>633356.38802565739</v>
       </c>
       <c r="EU103" s="3">
-        <f t="shared" si="154"/>
-        <v>715619.52606790478</v>
+        <f t="shared" si="155"/>
+        <v>639689.951905914</v>
       </c>
       <c r="EV103" s="3">
-        <f t="shared" si="154"/>
-        <v>722775.72132858378</v>
+        <f t="shared" si="155"/>
+        <v>646086.85142497311</v>
       </c>
       <c r="EW103" s="3">
-        <f t="shared" si="154"/>
-        <v>730003.47854186967</v>
+        <f t="shared" si="155"/>
+        <v>652547.71993922279</v>
       </c>
       <c r="EX103" s="3">
-        <f t="shared" ref="EX103:FF103" si="155">EW103*(1+$AB$97)</f>
-        <v>737303.51332728832</v>
+        <f t="shared" ref="EX103:FF103" si="156">EW103*(1+$AB$97)</f>
+        <v>659073.19713861507</v>
       </c>
       <c r="EY103" s="3">
-        <f t="shared" si="155"/>
-        <v>744676.5484605612</v>
+        <f t="shared" si="156"/>
+        <v>665663.92911000119</v>
       </c>
       <c r="EZ103" s="3">
-        <f t="shared" si="155"/>
-        <v>752123.31394516677</v>
+        <f t="shared" si="156"/>
+        <v>672320.56840110116</v>
       </c>
       <c r="FA103" s="3">
-        <f t="shared" si="155"/>
-        <v>759644.54708461848</v>
+        <f t="shared" si="156"/>
+        <v>679043.77408511215</v>
       </c>
       <c r="FB103" s="3">
-        <f t="shared" si="155"/>
-        <v>767240.99255546462</v>
+        <f t="shared" si="156"/>
+        <v>685834.21182596323</v>
       </c>
       <c r="FC103" s="3">
-        <f t="shared" si="155"/>
-        <v>774913.40248101926</v>
+        <f t="shared" si="156"/>
+        <v>692692.55394422286</v>
       </c>
       <c r="FD103" s="3">
-        <f t="shared" si="155"/>
-        <v>782662.53650582943</v>
+        <f t="shared" si="156"/>
+        <v>699619.47948366508</v>
       </c>
       <c r="FE103" s="3">
-        <f t="shared" si="155"/>
-        <v>790489.16187088774</v>
+        <f t="shared" si="156"/>
+        <v>706615.67427850177</v>
       </c>
       <c r="FF103" s="3">
-        <f t="shared" si="155"/>
-        <v>798394.05348959658</v>
+        <f t="shared" si="156"/>
+        <v>713681.83102128678</v>
       </c>
     </row>
     <row r="104" spans="1:162" x14ac:dyDescent="0.2">
       <c r="R104" s="4">
-        <f t="shared" ref="R104:Y104" si="156">R103/R96</f>
+        <f t="shared" ref="R104:Y104" si="157">R103/R96</f>
         <v>0.65588283512760259</v>
       </c>
       <c r="S104" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.6830243940793741</v>
       </c>
       <c r="T104" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.57557420887226429</v>
       </c>
       <c r="U104" s="4">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.46347083821690782</v>
       </c>
       <c r="V104" s="4">
-        <f t="shared" si="156"/>
-        <v>0.57062696637647892</v>
+        <f t="shared" si="157"/>
+        <v>0.53154692097646294</v>
       </c>
       <c r="W104" s="4">
-        <f t="shared" si="156"/>
-        <v>0.6517991624617776</v>
+        <f t="shared" si="157"/>
+        <v>0.58273776159199486</v>
       </c>
       <c r="X104" s="4">
-        <f t="shared" si="156"/>
-        <v>0.71709608350769916</v>
+        <f t="shared" si="157"/>
+        <v>0.62756128714696813</v>
       </c>
       <c r="Y104" s="4">
-        <f t="shared" si="156"/>
-        <v>0.76978401004852415</v>
+        <f t="shared" si="157"/>
+        <v>0.66698791597999918</v>
       </c>
     </row>
     <row r="109" spans="1:162" x14ac:dyDescent="0.2">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7568F31E-78F2-44E2-9DDD-C6F02D3B737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C70254-0BF3-4834-9DE3-18C4839D7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="525" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1214,10 +1214,10 @@
   <dimension ref="A1:HK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U43" sqref="U43"/>
+      <selection pane="bottomRight" activeCell="AC97" sqref="AC97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7094,7 +7094,7 @@
       <c r="AA96" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AB96" s="4">
+      <c r="AB96" s="9">
         <v>0.06</v>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
       <c r="AA97" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB97" s="4">
+      <c r="AB97" s="9">
         <v>0.01</v>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       <c r="AA100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB100" s="1">
+      <c r="AB100" s="7">
         <f>AB99/main!I3</f>
         <v>190.8293349388905</v>
       </c>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C70254-0BF3-4834-9DE3-18C4839D7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782CD2B-03C2-4D0C-B9F6-80B22E32A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -150,10 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
-  <si>
-    <t>GOOGL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
   <si>
     <t>Price</t>
   </si>
@@ -537,14 +534,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1075,132 +1072,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B77E1F6-E010-4C2A-A7A7-05E6849E9A4F}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="11"/>
+    <col min="1" max="1" width="3" style="11" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="11"/>
     <col min="9" max="9" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="N2" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="N3" s="1">
+        <v>12250</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <v>12250</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="N4" s="1">
+        <f>N3*N2</f>
+        <v>2143750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
-        <f>I3*I2</f>
-        <v>2143750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="N5" s="1">
         <f>23466+72191</f>
         <v>95657</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10883</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
+        <f>N4+N6-N5</f>
+        <v>2058976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10883</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
-        <f>I4+I6-I5</f>
-        <v>2058976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="12"/>
     </row>
   </sheetData>
@@ -1213,14 +1209,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
   <dimension ref="A1:HK109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R84" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC97" sqref="AC97"/>
+      <selection pane="bottomRight" activeCell="AB100" sqref="AB100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
     <col min="2" max="5" width="9.28515625" style="1" customWidth="1"/>
@@ -1244,40 +1240,40 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="O1" s="2">
         <v>2019</v>
@@ -1342,9 +1338,9 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
@@ -1369,9 +1365,9 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3"/>
       <c r="D3" s="3"/>
@@ -1408,9 +1404,9 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1424,13 +1420,13 @@
         <v>-2.7952380952380951</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1440,9 +1436,9 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
@@ -1455,13 +1451,13 @@
       </c>
       <c r="J5" s="3"/>
       <c r="O5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P5" s="6">
         <v>2.0099999999999998</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="2"/>
@@ -1472,9 +1468,9 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
@@ -1502,13 +1498,13 @@
         <v>7524.5695795200045</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" s="6">
         <v>2.2400000000000002</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1518,9 +1514,9 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
@@ -1532,13 +1528,13 @@
         <v>-1174</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P7" s="6">
         <v>2.11</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1549,9 +1545,9 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1577,7 +1573,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
@@ -1594,9 +1590,9 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1655,9 +1651,9 @@
         <v>0.24903940319999998</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1708,9 +1704,9 @@
         <v>83109.369216821942</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1737,7 +1733,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T12" s="1">
         <v>183323</v>
@@ -1748,9 +1744,9 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" ref="B13:J13" si="8">B20+B16</f>
@@ -1835,7 +1831,7 @@
         <v>207306.49596599932</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1862,7 +1858,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>40359</v>
@@ -1945,7 +1941,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>6693</v>
@@ -2022,7 +2018,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>7496</v>
@@ -2099,7 +2095,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>7413</v>
@@ -2175,7 +2171,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1">
         <f>SUM(B15:B18)</f>
@@ -2272,7 +2268,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
         <v>7454</v>
@@ -2349,7 +2345,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <f>288+84</f>
@@ -2434,9 +2430,9 @@
         <v>1956.8436149499305</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3">
         <f>SUM(B19:B21)</f>
@@ -2533,7 +2529,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <v>30612</v>
@@ -2616,7 +2612,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
         <f>B22-B23</f>
@@ -2713,7 +2709,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
         <v>11468</v>
@@ -2796,7 +2792,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
         <v>6533</v>
@@ -2879,7 +2875,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1">
         <v>3759</v>
@@ -2963,7 +2959,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1">
         <f>SUM(B25:B27)</f>
@@ -3060,7 +3056,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <f>B24-B28</f>
@@ -3157,7 +3153,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1">
         <f>I56*$AB$96/4</f>
@@ -3186,7 +3182,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
         <v>790</v>
@@ -3251,7 +3247,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1">
         <f>B29+SUM(B30:B31)</f>
@@ -3349,7 +3345,7 @@
     </row>
     <row r="33" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
         <v>3154</v>
@@ -3430,9 +3426,9 @@
         <v>56406.475385192702</v>
       </c>
     </row>
-    <row r="34" spans="1:219" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3">
         <f>B32-B33</f>
@@ -4303,9 +4299,9 @@
         <v>1657321.9984815381</v>
       </c>
     </row>
-    <row r="35" spans="1:219" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="e">
         <f>B34/B36</f>
@@ -4386,9 +4382,9 @@
         <v>17.779659261236631</v>
       </c>
     </row>
-    <row r="36" spans="1:219" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
         <v>12764</v>
@@ -4440,7 +4436,7 @@
         <v>13524.989839200001</v>
       </c>
     </row>
-    <row r="37" spans="1:219" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="O37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -4449,9 +4445,9 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:219" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4532,9 +4528,9 @@
         <v>0.12399397442452242</v>
       </c>
     </row>
-    <row r="39" spans="1:219" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" ref="C39:M39" si="78">C22/B22-1</f>
@@ -4594,7 +4590,7 @@
     </row>
     <row r="40" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" ref="B40:I40" si="79">B33/B32</f>
@@ -4709,7 +4705,7 @@
     </row>
     <row r="42" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" ref="B42:M42" si="81">B34/B22</f>
@@ -4805,9 +4801,9 @@
         <v>0.37292407061294541</v>
       </c>
     </row>
-    <row r="43" spans="1:219" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" s="5">
         <f t="shared" ref="B43:I43" si="83">B24/B22</f>
@@ -4901,7 +4897,7 @@
     </row>
     <row r="44" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" ref="B44:M44" si="86">B29/B22</f>
@@ -4999,7 +4995,7 @@
     </row>
     <row r="45" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -5090,7 +5086,7 @@
     </row>
     <row r="47" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" ref="C47:M47" si="89">C19/B19-1</f>
@@ -5182,7 +5178,7 @@
     </row>
     <row r="48" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" ref="C48:M48" si="91">C20/B20-1</f>
@@ -5265,7 +5261,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4">
         <f t="shared" ref="B49:M49" si="93">B20/B22</f>
@@ -5368,7 +5364,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" s="1">
         <v>41995</v>
@@ -5409,7 +5405,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" s="1">
         <v>25010</v>
@@ -5450,7 +5446,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="1">
         <v>13979</v>
@@ -5491,7 +5487,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" s="1">
         <v>5176</v>
@@ -5533,7 +5529,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" ref="B56:M56" si="99">B58-B73</f>
@@ -5630,7 +5626,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" s="1">
         <f>23466+72191</f>
@@ -5683,7 +5679,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I59" s="1">
         <v>52340</v>
@@ -5733,7 +5729,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I60" s="1">
         <v>37982</v>
@@ -5767,7 +5763,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I61" s="1">
         <v>17180</v>
@@ -5801,7 +5797,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I62" s="1">
         <v>171036</v>
@@ -5835,7 +5831,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I63" s="1">
         <v>13588</v>
@@ -5869,7 +5865,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I64" s="1">
         <v>31885</v>
@@ -5903,7 +5899,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I65" s="1">
         <f>15714+14874</f>
@@ -5940,7 +5936,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I66" s="1">
         <f>SUM(I58:I65)</f>
@@ -5977,7 +5973,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" s="1">
         <v>7987</v>
@@ -6011,7 +6007,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I69" s="1">
         <v>15069</v>
@@ -6045,7 +6041,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I70" s="1">
         <v>51228</v>
@@ -6079,7 +6075,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I71" s="1">
         <v>9802</v>
@@ -6113,7 +6109,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I72" s="1">
         <v>5036</v>
@@ -6147,7 +6143,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I73" s="1">
         <v>10883</v>
@@ -6184,7 +6180,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I74" s="1">
         <v>8782</v>
@@ -6218,7 +6214,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I75" s="1">
         <f>11691+4694</f>
@@ -6255,7 +6251,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I76" s="1">
         <f>SUM(I68:I75)</f>
@@ -6292,7 +6288,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I77" s="1">
         <f>I66-I76</f>
@@ -6329,7 +6325,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I78" s="1">
         <f>I76+I77</f>
@@ -6366,7 +6362,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" ref="B80:I80" si="125">(B59/B22)*90</f>
@@ -6446,7 +6442,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" ref="B82:M82" si="127">+B34</f>
@@ -6531,7 +6527,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="1">
         <v>18368</v>
@@ -6590,7 +6586,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I84" s="1">
         <v>4205</v>
@@ -6627,7 +6623,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I85" s="1">
         <v>5810</v>
@@ -6664,7 +6660,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I86" s="1">
         <v>-1448</v>
@@ -6701,7 +6697,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I87" s="1">
         <v>67</v>
@@ -6738,7 +6734,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I88" s="1">
         <v>827</v>
@@ -6775,7 +6771,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I89" s="1">
         <v>-4570</v>
@@ -6812,7 +6808,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I90" s="1">
         <v>379</v>
@@ -6849,7 +6845,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I91" s="1">
         <v>937</v>
@@ -6886,7 +6882,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I92" s="1">
         <v>401</v>
@@ -6923,7 +6919,7 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I93" s="1">
         <v>5205</v>
@@ -6960,7 +6956,7 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I94" s="1">
         <v>581</v>
@@ -6997,7 +6993,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I95" s="1">
         <v>183</v>
@@ -7032,9 +7028,9 @@
         <v>1921.4712672142277</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3">
@@ -7092,7 +7088,7 @@
         <v>273752.73488431342</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB96" s="9">
         <v>0.06</v>
@@ -7100,7 +7096,7 @@
     </row>
     <row r="97" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I97" s="1">
         <v>-14276</v>
@@ -7134,7 +7130,7 @@
         <v>-91162.96875</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB97" s="9">
         <v>0.01</v>
@@ -7142,7 +7138,7 @@
     </row>
     <row r="98" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I98" s="1">
         <f>-21645-1800</f>
@@ -7181,7 +7177,7 @@
         <v>-168958.67145735232</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB98" s="9">
         <v>0.08</v>
@@ -7189,7 +7185,7 @@
     </row>
     <row r="99" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I99" s="1">
         <f>21649+150</f>
@@ -7228,16 +7224,16 @@
         <v>192165.54926473263</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB99" s="1">
-        <f>NPV(AB98,U103:FF103)+main!I5-main!I6</f>
+        <f>NPV(AB98,U103:FF103)+Main!N5-Main!N6</f>
         <v>2337659.3530014087</v>
       </c>
     </row>
     <row r="100" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I100" s="1">
         <v>-91</v>
@@ -7275,16 +7271,16 @@
         <v>-5399.6474441082473</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="7">
-        <f>AB99/main!I3</f>
+        <f>AB99/Main!N3</f>
         <v>190.8293349388905</v>
       </c>
     </row>
     <row r="101" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I101" s="1">
         <v>-167</v>
@@ -7319,16 +7315,16 @@
         <v>-4913.2923007289983</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB101" s="4">
-        <f>AB100/main!I2-1</f>
+        <f>AB100/Main!N2-1</f>
         <v>9.0453342507945678E-2</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C102" s="1">
         <v>10800</v>
@@ -7377,9 +7373,9 @@
         <v>-91162.96875</v>
       </c>
     </row>
-    <row r="103" spans="1:162" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B103" s="3">
         <f>B96+B102</f>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782CD2B-03C2-4D0C-B9F6-80B22E32A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14778161-FA2C-436A-8D26-FF34CC8B0F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B77E1F6-E010-4C2A-A7A7-05E6849E9A4F}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1209,11 +1209,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
   <dimension ref="A1:HK109"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="X78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB100" sqref="AB100"/>
+      <selection pane="bottomRight" activeCell="Y106" sqref="Y106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3157,27 +3157,27 @@
       </c>
       <c r="J30" s="1">
         <f>I56*$AB$96/4</f>
-        <v>1271.6099999999999</v>
+        <v>423.87</v>
       </c>
       <c r="U30" s="1">
         <f>T56*$AB$96</f>
-        <v>5086.4399999999996</v>
+        <v>1695.48</v>
       </c>
       <c r="V30" s="1">
         <f>U56*$AB$96</f>
-        <v>11990.811918479372</v>
+        <v>3942.0037541597908</v>
       </c>
       <c r="W30" s="1">
         <f>V56*$AB$96</f>
-        <v>20483.914358749375</v>
+        <v>6642.6472086544827</v>
       </c>
       <c r="X30" s="1">
         <f>W56*$AB$96</f>
-        <v>30659.075391660339</v>
+        <v>9810.1390251266002</v>
       </c>
       <c r="Y30" s="1">
         <f>X56*$AB$96</f>
-        <v>42797.207170343136</v>
+        <v>13518.430182216349</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" si="53"/>
-        <v>31799.584490254892</v>
+        <v>30951.844490254891</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="53"/>
@@ -3324,23 +3324,23 @@
       </c>
       <c r="U32" s="1">
         <f t="shared" ref="U32:Y32" si="56">SUM(U29:U31)</f>
-        <v>142065.26581233274</v>
+        <v>138674.30581233275</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="56"/>
-        <v>174755.19424423878</v>
+        <v>166706.3860799192</v>
       </c>
       <c r="W32" s="1">
         <f t="shared" si="56"/>
-        <v>209365.45335207746</v>
+        <v>195524.18620198258</v>
       </c>
       <c r="X32" s="1">
         <f t="shared" si="56"/>
-        <v>249755.79791528374</v>
+        <v>228906.86154875002</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="56"/>
-        <v>296876.18623785634</v>
+        <v>267597.40924972954</v>
       </c>
     </row>
     <row r="33" spans="1:219" x14ac:dyDescent="0.2">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="J33" s="1">
         <f>J32*J40</f>
-        <v>6041.9210531484296</v>
+        <v>5880.8504531484296</v>
       </c>
       <c r="K33" s="1">
         <f>K32*K40</f>
@@ -3407,23 +3407,23 @@
       </c>
       <c r="U33" s="1">
         <f>U32*U40</f>
-        <v>26992.400504343223</v>
+        <v>26348.118104343223</v>
       </c>
       <c r="V33" s="1">
         <f>V32*V40</f>
-        <v>33203.486906405371</v>
+        <v>31674.213355184649</v>
       </c>
       <c r="W33" s="1">
         <f>W32*W40</f>
-        <v>39779.436136894714</v>
+        <v>37149.595378376689</v>
       </c>
       <c r="X33" s="1">
         <f>X32*X40</f>
-        <v>47453.60160390391</v>
+        <v>43492.303694262504</v>
       </c>
       <c r="Y33" s="1">
         <f>Y32*Y40</f>
-        <v>56406.475385192702</v>
+        <v>50843.507757448613</v>
       </c>
     </row>
     <row r="34" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="J34" s="3">
         <f t="shared" si="57"/>
-        <v>25757.663437106465</v>
+        <v>25070.994037106462</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="57"/>
@@ -3504,799 +3504,799 @@
       </c>
       <c r="U34" s="3">
         <f t="shared" ref="U34:Y34" si="60">U32-U33</f>
-        <v>115072.86530798952</v>
+        <v>112326.18770798953</v>
       </c>
       <c r="V34" s="3">
         <f t="shared" si="60"/>
-        <v>141551.70733783342</v>
+        <v>135032.17272473456</v>
       </c>
       <c r="W34" s="3">
         <f t="shared" si="60"/>
-        <v>169586.01721518274</v>
+        <v>158374.59082360589</v>
       </c>
       <c r="X34" s="3">
         <f t="shared" si="60"/>
-        <v>202302.19631137984</v>
+        <v>185414.5578544875</v>
       </c>
       <c r="Y34" s="3">
         <f t="shared" si="60"/>
-        <v>240469.71085266364</v>
+        <v>216753.90149228091</v>
       </c>
       <c r="Z34" s="3">
         <f t="shared" ref="Z34:BE34" si="61">Y34*(1+$AB$97)</f>
-        <v>242874.40796119027</v>
+        <v>218921.44050720372</v>
       </c>
       <c r="AA34" s="3">
         <f t="shared" si="61"/>
-        <v>245303.15204080218</v>
+        <v>221110.65491227576</v>
       </c>
       <c r="AB34" s="3">
         <f t="shared" si="61"/>
-        <v>247756.1835612102</v>
+        <v>223321.76146139851</v>
       </c>
       <c r="AC34" s="3">
         <f t="shared" si="61"/>
-        <v>250233.74539682231</v>
+        <v>225554.9790760125</v>
       </c>
       <c r="AD34" s="3">
         <f t="shared" si="61"/>
-        <v>252736.08285079052</v>
+        <v>227810.52886677263</v>
       </c>
       <c r="AE34" s="3">
         <f t="shared" si="61"/>
-        <v>255263.44367929842</v>
+        <v>230088.63415544035</v>
       </c>
       <c r="AF34" s="3">
         <f t="shared" si="61"/>
-        <v>257816.0781160914</v>
+        <v>232389.52049699475</v>
       </c>
       <c r="AG34" s="3">
         <f t="shared" si="61"/>
-        <v>260394.23889725233</v>
+        <v>234713.4157019647</v>
       </c>
       <c r="AH34" s="3">
         <f t="shared" si="61"/>
-        <v>262998.18128622486</v>
+        <v>237060.54985898433</v>
       </c>
       <c r="AI34" s="3">
         <f t="shared" si="61"/>
-        <v>265628.16309908713</v>
+        <v>239431.15535757417</v>
       </c>
       <c r="AJ34" s="3">
         <f t="shared" si="61"/>
-        <v>268284.44473007799</v>
+        <v>241825.46691114991</v>
       </c>
       <c r="AK34" s="3">
         <f t="shared" si="61"/>
-        <v>270967.28917737876</v>
+        <v>244243.72158026142</v>
       </c>
       <c r="AL34" s="3">
         <f t="shared" si="61"/>
-        <v>273676.96206915256</v>
+        <v>246686.15879606403</v>
       </c>
       <c r="AM34" s="3">
         <f t="shared" si="61"/>
-        <v>276413.73168984411</v>
+        <v>249153.02038402468</v>
       </c>
       <c r="AN34" s="3">
         <f t="shared" si="61"/>
-        <v>279177.86900674255</v>
+        <v>251644.55058786494</v>
       </c>
       <c r="AO34" s="3">
         <f t="shared" si="61"/>
-        <v>281969.64769680996</v>
+        <v>254160.9960937436</v>
       </c>
       <c r="AP34" s="3">
         <f t="shared" si="61"/>
-        <v>284789.34417377808</v>
+        <v>256702.60605468103</v>
       </c>
       <c r="AQ34" s="3">
         <f t="shared" si="61"/>
-        <v>287637.23761551589</v>
+        <v>259269.63211522784</v>
       </c>
       <c r="AR34" s="3">
         <f t="shared" si="61"/>
-        <v>290513.60999167105</v>
+        <v>261862.32843638011</v>
       </c>
       <c r="AS34" s="3">
         <f t="shared" si="61"/>
-        <v>293418.74609158776</v>
+        <v>264480.95172074391</v>
       </c>
       <c r="AT34" s="3">
         <f t="shared" si="61"/>
-        <v>296352.93355250364</v>
+        <v>267125.76123795134</v>
       </c>
       <c r="AU34" s="3">
         <f t="shared" si="61"/>
-        <v>299316.46288802871</v>
+        <v>269797.01885033085</v>
       </c>
       <c r="AV34" s="3">
         <f t="shared" si="61"/>
-        <v>302309.62751690898</v>
+        <v>272494.98903883417</v>
       </c>
       <c r="AW34" s="3">
         <f t="shared" si="61"/>
-        <v>305332.72379207809</v>
+        <v>275219.93892922252</v>
       </c>
       <c r="AX34" s="3">
         <f t="shared" si="61"/>
-        <v>308386.05102999887</v>
+        <v>277972.13831851474</v>
       </c>
       <c r="AY34" s="3">
         <f t="shared" si="61"/>
-        <v>311469.91154029884</v>
+        <v>280751.85970169987</v>
       </c>
       <c r="AZ34" s="3">
         <f t="shared" si="61"/>
-        <v>314584.61065570184</v>
+        <v>283559.37829871685</v>
       </c>
       <c r="BA34" s="3">
         <f t="shared" si="61"/>
-        <v>317730.45676225884</v>
+        <v>286394.97208170401</v>
       </c>
       <c r="BB34" s="3">
         <f t="shared" si="61"/>
-        <v>320907.76132988144</v>
+        <v>289258.92180252104</v>
       </c>
       <c r="BC34" s="3">
         <f t="shared" si="61"/>
-        <v>324116.83894318028</v>
+        <v>292151.51102054626</v>
       </c>
       <c r="BD34" s="3">
         <f t="shared" si="61"/>
-        <v>327358.00733261206</v>
+        <v>295073.02613075171</v>
       </c>
       <c r="BE34" s="3">
         <f t="shared" si="61"/>
-        <v>330631.58740593819</v>
+        <v>298023.75639205921</v>
       </c>
       <c r="BF34" s="3">
         <f t="shared" ref="BF34:CK34" si="62">BE34*(1+$AB$97)</f>
-        <v>333937.90327999758</v>
+        <v>301003.99395597982</v>
       </c>
       <c r="BG34" s="3">
         <f t="shared" si="62"/>
-        <v>337277.28231279756</v>
+        <v>304014.03389553964</v>
       </c>
       <c r="BH34" s="3">
         <f t="shared" si="62"/>
-        <v>340650.05513592553</v>
+        <v>307054.17423449503</v>
       </c>
       <c r="BI34" s="3">
         <f t="shared" si="62"/>
-        <v>344056.5556872848</v>
+        <v>310124.71597684</v>
       </c>
       <c r="BJ34" s="3">
         <f t="shared" si="62"/>
-        <v>347497.12124415766</v>
+        <v>313225.96313660842</v>
       </c>
       <c r="BK34" s="3">
         <f t="shared" si="62"/>
-        <v>350972.09245659923</v>
+        <v>316358.22276797448</v>
       </c>
       <c r="BL34" s="3">
         <f t="shared" si="62"/>
-        <v>354481.81338116521</v>
+        <v>319521.80499565421</v>
       </c>
       <c r="BM34" s="3">
         <f t="shared" si="62"/>
-        <v>358026.63151497685</v>
+        <v>322717.02304561075</v>
       </c>
       <c r="BN34" s="3">
         <f t="shared" si="62"/>
-        <v>361606.89783012663</v>
+        <v>325944.19327606686</v>
       </c>
       <c r="BO34" s="3">
         <f t="shared" si="62"/>
-        <v>365222.96680842788</v>
+        <v>329203.6352088275</v>
       </c>
       <c r="BP34" s="3">
         <f t="shared" si="62"/>
-        <v>368875.19647651218</v>
+        <v>332495.67156091577</v>
       </c>
       <c r="BQ34" s="3">
         <f t="shared" si="62"/>
-        <v>372563.94844127732</v>
+        <v>335820.62827652495</v>
       </c>
       <c r="BR34" s="3">
         <f t="shared" si="62"/>
-        <v>376289.58792569011</v>
+        <v>339178.8345592902</v>
       </c>
       <c r="BS34" s="3">
         <f t="shared" si="62"/>
-        <v>380052.483804947</v>
+        <v>342570.62290488312</v>
       </c>
       <c r="BT34" s="3">
         <f t="shared" si="62"/>
-        <v>383853.00864299649</v>
+        <v>345996.32913393195</v>
       </c>
       <c r="BU34" s="3">
         <f t="shared" si="62"/>
-        <v>387691.53872942645</v>
+        <v>349456.2924252713</v>
       </c>
       <c r="BV34" s="3">
         <f t="shared" si="62"/>
-        <v>391568.45411672071</v>
+        <v>352950.855349524</v>
       </c>
       <c r="BW34" s="3">
         <f t="shared" si="62"/>
-        <v>395484.13865788793</v>
+        <v>356480.36390301923</v>
       </c>
       <c r="BX34" s="3">
         <f t="shared" si="62"/>
-        <v>399438.98004446679</v>
+        <v>360045.16754204943</v>
       </c>
       <c r="BY34" s="3">
         <f t="shared" si="62"/>
-        <v>403433.36984491145</v>
+        <v>363645.61921746994</v>
       </c>
       <c r="BZ34" s="3">
         <f t="shared" si="62"/>
-        <v>407467.70354336058</v>
+        <v>367282.07540964463</v>
       </c>
       <c r="CA34" s="3">
         <f t="shared" si="62"/>
-        <v>411542.38057879417</v>
+        <v>370954.89616374107</v>
       </c>
       <c r="CB34" s="3">
         <f t="shared" si="62"/>
-        <v>415657.80438458209</v>
+        <v>374664.44512537849</v>
       </c>
       <c r="CC34" s="3">
         <f t="shared" si="62"/>
-        <v>419814.38242842793</v>
+        <v>378411.08957663231</v>
       </c>
       <c r="CD34" s="3">
         <f t="shared" si="62"/>
-        <v>424012.52625271218</v>
+        <v>382195.20047239866</v>
       </c>
       <c r="CE34" s="3">
         <f t="shared" si="62"/>
-        <v>428252.65151523933</v>
+        <v>386017.15247712267</v>
       </c>
       <c r="CF34" s="3">
         <f t="shared" si="62"/>
-        <v>432535.17803039175</v>
+        <v>389877.32400189393</v>
       </c>
       <c r="CG34" s="3">
         <f t="shared" si="62"/>
-        <v>436860.52981069568</v>
+        <v>393776.09724191285</v>
       </c>
       <c r="CH34" s="3">
         <f t="shared" si="62"/>
-        <v>441229.13510880264</v>
+        <v>397713.85821433197</v>
       </c>
       <c r="CI34" s="3">
         <f t="shared" si="62"/>
-        <v>445641.42645989067</v>
+        <v>401690.99679647532</v>
       </c>
       <c r="CJ34" s="3">
         <f t="shared" si="62"/>
-        <v>450097.84072448959</v>
+        <v>405707.90676444006</v>
       </c>
       <c r="CK34" s="3">
         <f t="shared" si="62"/>
-        <v>454598.81913173449</v>
+        <v>409764.98583208449</v>
       </c>
       <c r="CL34" s="3">
         <f t="shared" ref="CL34:DQ34" si="63">CK34*(1+$AB$97)</f>
-        <v>459144.80732305185</v>
+        <v>413862.63569040532</v>
       </c>
       <c r="CM34" s="3">
         <f t="shared" si="63"/>
-        <v>463736.25539628236</v>
+        <v>418001.26204730937</v>
       </c>
       <c r="CN34" s="3">
         <f t="shared" si="63"/>
-        <v>468373.61795024521</v>
+        <v>422181.27466778248</v>
       </c>
       <c r="CO34" s="3">
         <f t="shared" si="63"/>
-        <v>473057.35412974766</v>
+        <v>426403.08741446031</v>
       </c>
       <c r="CP34" s="3">
         <f t="shared" si="63"/>
-        <v>477787.92767104512</v>
+        <v>430667.11828860495</v>
       </c>
       <c r="CQ34" s="3">
         <f t="shared" si="63"/>
-        <v>482565.80694775557</v>
+        <v>434973.78947149101</v>
       </c>
       <c r="CR34" s="3">
         <f t="shared" si="63"/>
-        <v>487391.4650172331</v>
+        <v>439323.52736620593</v>
       </c>
       <c r="CS34" s="3">
         <f t="shared" si="63"/>
-        <v>492265.37966740545</v>
+        <v>443716.76263986801</v>
       </c>
       <c r="CT34" s="3">
         <f t="shared" si="63"/>
-        <v>497188.03346407949</v>
+        <v>448153.93026626669</v>
       </c>
       <c r="CU34" s="3">
         <f t="shared" si="63"/>
-        <v>502159.91379872028</v>
+        <v>452635.46956892934</v>
       </c>
       <c r="CV34" s="3">
         <f t="shared" si="63"/>
-        <v>507181.51293670747</v>
+        <v>457161.82426461863</v>
       </c>
       <c r="CW34" s="3">
         <f t="shared" si="63"/>
-        <v>512253.32806607452</v>
+        <v>461733.44250726484</v>
       </c>
       <c r="CX34" s="3">
         <f t="shared" si="63"/>
-        <v>517375.86134673527</v>
+        <v>466350.7769323375</v>
       </c>
       <c r="CY34" s="3">
         <f t="shared" si="63"/>
-        <v>522549.6199602026</v>
+        <v>471014.28470166086</v>
       </c>
       <c r="CZ34" s="3">
         <f t="shared" si="63"/>
-        <v>527775.11615980463</v>
+        <v>475724.42754867749</v>
       </c>
       <c r="DA34" s="3">
         <f t="shared" si="63"/>
-        <v>533052.86732140265</v>
+        <v>480481.67182416428</v>
       </c>
       <c r="DB34" s="3">
         <f t="shared" si="63"/>
-        <v>538383.39599461667</v>
+        <v>485286.48854240595</v>
       </c>
       <c r="DC34" s="3">
         <f t="shared" si="63"/>
-        <v>543767.22995456285</v>
+        <v>490139.35342783004</v>
       </c>
       <c r="DD34" s="3">
         <f t="shared" si="63"/>
-        <v>549204.90225410846</v>
+        <v>495040.74696210836</v>
       </c>
       <c r="DE34" s="3">
         <f t="shared" si="63"/>
-        <v>554696.95127664949</v>
+        <v>499991.15443172946</v>
       </c>
       <c r="DF34" s="3">
         <f t="shared" si="63"/>
-        <v>560243.92078941595</v>
+        <v>504991.06597604678</v>
       </c>
       <c r="DG34" s="3">
         <f t="shared" si="63"/>
-        <v>565846.35999731009</v>
+        <v>510040.97663580725</v>
       </c>
       <c r="DH34" s="3">
         <f t="shared" si="63"/>
-        <v>571504.82359728322</v>
+        <v>515141.38640216534</v>
       </c>
       <c r="DI34" s="3">
         <f t="shared" si="63"/>
-        <v>577219.8718332561</v>
+        <v>520292.800266187</v>
       </c>
       <c r="DJ34" s="3">
         <f t="shared" si="63"/>
-        <v>582992.07055158867</v>
+        <v>525495.72826884885</v>
       </c>
       <c r="DK34" s="3">
         <f t="shared" si="63"/>
-        <v>588821.99125710456</v>
+        <v>530750.68555153732</v>
       </c>
       <c r="DL34" s="3">
         <f t="shared" si="63"/>
-        <v>594710.21116967557</v>
+        <v>536058.19240705273</v>
       </c>
       <c r="DM34" s="3">
         <f t="shared" si="63"/>
-        <v>600657.31328137231</v>
+        <v>541418.77433112322</v>
       </c>
       <c r="DN34" s="3">
         <f t="shared" si="63"/>
-        <v>606663.88641418598</v>
+        <v>546832.9620744345</v>
       </c>
       <c r="DO34" s="3">
         <f t="shared" si="63"/>
-        <v>612730.52527832787</v>
+        <v>552301.29169517884</v>
       </c>
       <c r="DP34" s="3">
         <f t="shared" si="63"/>
-        <v>618857.8305311111</v>
+        <v>557824.30461213063</v>
       </c>
       <c r="DQ34" s="3">
         <f t="shared" si="63"/>
-        <v>625046.40883642226</v>
+        <v>563402.54765825195</v>
       </c>
       <c r="DR34" s="3">
         <f t="shared" ref="DR34:EW34" si="64">DQ34*(1+$AB$97)</f>
-        <v>631296.87292478653</v>
+        <v>569036.57313483453</v>
       </c>
       <c r="DS34" s="3">
         <f t="shared" si="64"/>
-        <v>637609.84165403445</v>
+        <v>574726.93886618293</v>
       </c>
       <c r="DT34" s="3">
         <f t="shared" si="64"/>
-        <v>643985.94007057475</v>
+        <v>580474.20825484477</v>
       </c>
       <c r="DU34" s="3">
         <f t="shared" si="64"/>
-        <v>650425.79947128054</v>
+        <v>586278.95033739321</v>
       </c>
       <c r="DV34" s="3">
         <f t="shared" si="64"/>
-        <v>656930.05746599333</v>
+        <v>592141.73984076711</v>
       </c>
       <c r="DW34" s="3">
         <f t="shared" si="64"/>
-        <v>663499.35804065329</v>
+        <v>598063.15723917482</v>
       </c>
       <c r="DX34" s="3">
         <f t="shared" si="64"/>
-        <v>670134.35162105982</v>
+        <v>604043.78881156654</v>
       </c>
       <c r="DY34" s="3">
         <f t="shared" si="64"/>
-        <v>676835.69513727038</v>
+        <v>610084.22669968219</v>
       </c>
       <c r="DZ34" s="3">
         <f t="shared" si="64"/>
-        <v>683604.05208864307</v>
+        <v>616185.06896667904</v>
       </c>
       <c r="EA34" s="3">
         <f t="shared" si="64"/>
-        <v>690440.0926095295</v>
+        <v>622346.91965634585</v>
       </c>
       <c r="EB34" s="3">
         <f t="shared" si="64"/>
-        <v>697344.49353562482</v>
+        <v>628570.38885290932</v>
       </c>
       <c r="EC34" s="3">
         <f t="shared" si="64"/>
-        <v>704317.93847098108</v>
+        <v>634856.09274143842</v>
       </c>
       <c r="ED34" s="3">
         <f t="shared" si="64"/>
-        <v>711361.11785569089</v>
+        <v>641204.65366885276</v>
       </c>
       <c r="EE34" s="3">
         <f t="shared" si="64"/>
-        <v>718474.72903424781</v>
+        <v>647616.70020554133</v>
       </c>
       <c r="EF34" s="3">
         <f t="shared" si="64"/>
-        <v>725659.47632459027</v>
+        <v>654092.86720759678</v>
       </c>
       <c r="EG34" s="3">
         <f t="shared" si="64"/>
-        <v>732916.07108783617</v>
+        <v>660633.79587967275</v>
       </c>
       <c r="EH34" s="3">
         <f t="shared" si="64"/>
-        <v>740245.23179871449</v>
+        <v>667240.13383846951</v>
       </c>
       <c r="EI34" s="3">
         <f t="shared" si="64"/>
-        <v>747647.6841167016</v>
+        <v>673912.53517685423</v>
       </c>
       <c r="EJ34" s="3">
         <f t="shared" si="64"/>
-        <v>755124.16095786856</v>
+        <v>680651.6605286228</v>
       </c>
       <c r="EK34" s="3">
         <f t="shared" si="64"/>
-        <v>762675.40256744728</v>
+        <v>687458.17713390908</v>
       </c>
       <c r="EL34" s="3">
         <f t="shared" si="64"/>
-        <v>770302.1565931217</v>
+        <v>694332.75890524813</v>
       </c>
       <c r="EM34" s="3">
         <f t="shared" si="64"/>
-        <v>778005.17815905297</v>
+        <v>701276.08649430063</v>
       </c>
       <c r="EN34" s="3">
         <f t="shared" si="64"/>
-        <v>785785.22994064353</v>
+        <v>708288.84735924366</v>
       </c>
       <c r="EO34" s="3">
         <f t="shared" si="64"/>
-        <v>793643.08224004996</v>
+        <v>715371.73583283613</v>
       </c>
       <c r="EP34" s="3">
         <f t="shared" si="64"/>
-        <v>801579.51306245045</v>
+        <v>722525.45319116453</v>
       </c>
       <c r="EQ34" s="3">
         <f t="shared" si="64"/>
-        <v>809595.308193075</v>
+        <v>729750.70772307622</v>
       </c>
       <c r="ER34" s="3">
         <f t="shared" si="64"/>
-        <v>817691.26127500576</v>
+        <v>737048.21480030695</v>
       </c>
       <c r="ES34" s="3">
         <f t="shared" si="64"/>
-        <v>825868.17388775584</v>
+        <v>744418.69694831001</v>
       </c>
       <c r="ET34" s="3">
         <f t="shared" si="64"/>
-        <v>834126.85562663339</v>
+        <v>751862.88391779317</v>
       </c>
       <c r="EU34" s="3">
         <f t="shared" si="64"/>
-        <v>842468.12418289972</v>
+        <v>759381.51275697106</v>
       </c>
       <c r="EV34" s="3">
         <f t="shared" si="64"/>
-        <v>850892.80542472866</v>
+        <v>766975.32788454078</v>
       </c>
       <c r="EW34" s="3">
         <f t="shared" si="64"/>
-        <v>859401.73347897595</v>
+        <v>774645.08116338623</v>
       </c>
       <c r="EX34" s="3">
         <f t="shared" ref="EX34:GC34" si="65">EW34*(1+$AB$97)</f>
-        <v>867995.75081376568</v>
+        <v>782391.53197502007</v>
       </c>
       <c r="EY34" s="3">
         <f t="shared" si="65"/>
-        <v>876675.70832190337</v>
+        <v>790215.44729477027</v>
       </c>
       <c r="EZ34" s="3">
         <f t="shared" si="65"/>
-        <v>885442.46540512238</v>
+        <v>798117.60176771798</v>
       </c>
       <c r="FA34" s="3">
         <f t="shared" si="65"/>
-        <v>894296.89005917357</v>
+        <v>806098.77778539516</v>
       </c>
       <c r="FB34" s="3">
         <f t="shared" si="65"/>
-        <v>903239.85895976529</v>
+        <v>814159.76556324912</v>
       </c>
       <c r="FC34" s="3">
         <f t="shared" si="65"/>
-        <v>912272.25754936296</v>
+        <v>822301.36321888166</v>
       </c>
       <c r="FD34" s="3">
         <f t="shared" si="65"/>
-        <v>921394.98012485658</v>
+        <v>830524.37685107044</v>
       </c>
       <c r="FE34" s="3">
         <f t="shared" si="65"/>
-        <v>930608.92992610519</v>
+        <v>838829.6206195812</v>
       </c>
       <c r="FF34" s="3">
         <f t="shared" si="65"/>
-        <v>939915.0192253663</v>
+        <v>847217.91682577704</v>
       </c>
       <c r="FG34" s="3">
         <f t="shared" si="65"/>
-        <v>949314.16941761994</v>
+        <v>855690.09599403478</v>
       </c>
       <c r="FH34" s="3">
         <f t="shared" si="65"/>
-        <v>958807.31111179618</v>
+        <v>864246.99695397518</v>
       </c>
       <c r="FI34" s="3">
         <f t="shared" si="65"/>
-        <v>968395.38422291412</v>
+        <v>872889.46692351496</v>
       </c>
       <c r="FJ34" s="3">
         <f t="shared" si="65"/>
-        <v>978079.33806514321</v>
+        <v>881618.36159275007</v>
       </c>
       <c r="FK34" s="3">
         <f t="shared" si="65"/>
-        <v>987860.1314457946</v>
+        <v>890434.54520867753</v>
       </c>
       <c r="FL34" s="3">
         <f t="shared" si="65"/>
-        <v>997738.73276025255</v>
+        <v>899338.8906607643</v>
       </c>
       <c r="FM34" s="3">
         <f t="shared" si="65"/>
-        <v>1007716.120087855</v>
+        <v>908332.27956737194</v>
       </c>
       <c r="FN34" s="3">
         <f t="shared" si="65"/>
-        <v>1017793.2812887336</v>
+        <v>917415.60236304568</v>
       </c>
       <c r="FO34" s="3">
         <f t="shared" si="65"/>
-        <v>1027971.2141016209</v>
+        <v>926589.7583866762</v>
       </c>
       <c r="FP34" s="3">
         <f t="shared" si="65"/>
-        <v>1038250.9262426372</v>
+        <v>935855.65597054292</v>
       </c>
       <c r="FQ34" s="3">
         <f t="shared" si="65"/>
-        <v>1048633.4355050635</v>
+        <v>945214.21253024833</v>
       </c>
       <c r="FR34" s="3">
         <f t="shared" si="65"/>
-        <v>1059119.7698601142</v>
+        <v>954666.35465555079</v>
       </c>
       <c r="FS34" s="3">
         <f t="shared" si="65"/>
-        <v>1069710.9675587153</v>
+        <v>964213.01820210635</v>
       </c>
       <c r="FT34" s="3">
         <f t="shared" si="65"/>
-        <v>1080408.0772343024</v>
+        <v>973855.14838412742</v>
       </c>
       <c r="FU34" s="3">
         <f t="shared" si="65"/>
-        <v>1091212.1580066455</v>
+        <v>983593.69986796868</v>
       </c>
       <c r="FV34" s="3">
         <f t="shared" si="65"/>
-        <v>1102124.2795867119</v>
+        <v>993429.63686664833</v>
       </c>
       <c r="FW34" s="3">
         <f t="shared" si="65"/>
-        <v>1113145.522382579</v>
+        <v>1003363.9332353148</v>
       </c>
       <c r="FX34" s="3">
         <f t="shared" si="65"/>
-        <v>1124276.9776064048</v>
+        <v>1013397.5725676679</v>
       </c>
       <c r="FY34" s="3">
         <f t="shared" si="65"/>
-        <v>1135519.7473824688</v>
+        <v>1023531.5482933446</v>
       </c>
       <c r="FZ34" s="3">
         <f t="shared" si="65"/>
-        <v>1146874.9448562935</v>
+        <v>1033766.863776278</v>
       </c>
       <c r="GA34" s="3">
         <f t="shared" si="65"/>
-        <v>1158343.6943048565</v>
+        <v>1044104.5324140408</v>
       </c>
       <c r="GB34" s="3">
         <f t="shared" si="65"/>
-        <v>1169927.1312479051</v>
+        <v>1054545.5777381812</v>
       </c>
       <c r="GC34" s="3">
         <f t="shared" si="65"/>
-        <v>1181626.4025603842</v>
+        <v>1065091.033515563</v>
       </c>
       <c r="GD34" s="3">
         <f t="shared" ref="GD34:HK34" si="66">GC34*(1+$AB$97)</f>
-        <v>1193442.6665859881</v>
+        <v>1075741.9438507187</v>
       </c>
       <c r="GE34" s="3">
         <f t="shared" si="66"/>
-        <v>1205377.0932518481</v>
+        <v>1086499.3632892258</v>
       </c>
       <c r="GF34" s="3">
         <f t="shared" si="66"/>
-        <v>1217430.8641843665</v>
+        <v>1097364.3569221182</v>
       </c>
       <c r="GG34" s="3">
         <f t="shared" si="66"/>
-        <v>1229605.1728262103</v>
+        <v>1108338.0004913395</v>
       </c>
       <c r="GH34" s="3">
         <f t="shared" si="66"/>
-        <v>1241901.2245544724</v>
+        <v>1119421.3804962528</v>
       </c>
       <c r="GI34" s="3">
         <f t="shared" si="66"/>
-        <v>1254320.2368000171</v>
+        <v>1130615.5943012154</v>
       </c>
       <c r="GJ34" s="3">
         <f t="shared" si="66"/>
-        <v>1266863.4391680174</v>
+        <v>1141921.7502442275</v>
       </c>
       <c r="GK34" s="3">
         <f t="shared" si="66"/>
-        <v>1279532.0735596975</v>
+        <v>1153340.9677466697</v>
       </c>
       <c r="GL34" s="3">
         <f t="shared" si="66"/>
-        <v>1292327.3942952945</v>
+        <v>1164874.3774241363</v>
       </c>
       <c r="GM34" s="3">
         <f t="shared" si="66"/>
-        <v>1305250.6682382475</v>
+        <v>1176523.1211983776</v>
       </c>
       <c r="GN34" s="3">
         <f t="shared" si="66"/>
-        <v>1318303.1749206299</v>
+        <v>1188288.3524103614</v>
       </c>
       <c r="GO34" s="3">
         <f t="shared" si="66"/>
-        <v>1331486.2066698363</v>
+        <v>1200171.235934465</v>
       </c>
       <c r="GP34" s="3">
         <f t="shared" si="66"/>
-        <v>1344801.0687365346</v>
+        <v>1212172.9482938095</v>
       </c>
       <c r="GQ34" s="3">
         <f t="shared" si="66"/>
-        <v>1358249.0794239</v>
+        <v>1224294.6777767476</v>
       </c>
       <c r="GR34" s="3">
         <f t="shared" si="66"/>
-        <v>1371831.5702181391</v>
+        <v>1236537.6245545151</v>
       </c>
       <c r="GS34" s="3">
         <f t="shared" si="66"/>
-        <v>1385549.8859203204</v>
+        <v>1248903.0008000603</v>
       </c>
       <c r="GT34" s="3">
         <f t="shared" si="66"/>
-        <v>1399405.3847795236</v>
+        <v>1261392.0308080609</v>
       </c>
       <c r="GU34" s="3">
         <f t="shared" si="66"/>
-        <v>1413399.4386273189</v>
+        <v>1274005.9511161416</v>
       </c>
       <c r="GV34" s="3">
         <f t="shared" si="66"/>
-        <v>1427533.4330135921</v>
+        <v>1286746.010627303</v>
       </c>
       <c r="GW34" s="3">
         <f t="shared" si="66"/>
-        <v>1441808.7673437281</v>
+        <v>1299613.470733576</v>
       </c>
       <c r="GX34" s="3">
         <f t="shared" si="66"/>
-        <v>1456226.8550171654</v>
+        <v>1312609.6054409118</v>
       </c>
       <c r="GY34" s="3">
         <f t="shared" si="66"/>
-        <v>1470789.1235673372</v>
+        <v>1325735.701495321</v>
       </c>
       <c r="GZ34" s="3">
         <f t="shared" si="66"/>
-        <v>1485497.0148030105</v>
+        <v>1338993.0585102742</v>
       </c>
       <c r="HA34" s="3">
         <f t="shared" si="66"/>
-        <v>1500351.9849510407</v>
+        <v>1352382.9890953768</v>
       </c>
       <c r="HB34" s="3">
         <f t="shared" si="66"/>
-        <v>1515355.5048005511</v>
+        <v>1365906.8189863306</v>
       </c>
       <c r="HC34" s="3">
         <f t="shared" si="66"/>
-        <v>1530509.0598485565</v>
+        <v>1379565.887176194</v>
       </c>
       <c r="HD34" s="3">
         <f t="shared" si="66"/>
-        <v>1545814.1504470422</v>
+        <v>1393361.546047956</v>
       </c>
       <c r="HE34" s="3">
         <f t="shared" si="66"/>
-        <v>1561272.2919515127</v>
+        <v>1407295.1615084356</v>
       </c>
       <c r="HF34" s="3">
         <f t="shared" si="66"/>
-        <v>1576885.0148710278</v>
+        <v>1421368.11312352</v>
       </c>
       <c r="HG34" s="3">
         <f t="shared" si="66"/>
-        <v>1592653.865019738</v>
+        <v>1435581.7942547554</v>
       </c>
       <c r="HH34" s="3">
         <f t="shared" si="66"/>
-        <v>1608580.4036699354</v>
+        <v>1449937.612197303</v>
       </c>
       <c r="HI34" s="3">
         <f t="shared" si="66"/>
-        <v>1624666.2077066349</v>
+        <v>1464436.9883192761</v>
       </c>
       <c r="HJ34" s="3">
         <f t="shared" si="66"/>
-        <v>1640912.8697837011</v>
+        <v>1479081.3582024688</v>
       </c>
       <c r="HK34" s="3">
         <f t="shared" si="66"/>
-        <v>1657321.9984815381</v>
+        <v>1493872.1717844936</v>
       </c>
     </row>
     <row r="35" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="J35" s="7">
         <f t="shared" ref="J35:M35" si="68">J34/J36</f>
-        <v>2.1026664030290991</v>
+        <v>2.0466117581311396</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="68"/>
@@ -4363,23 +4363,23 @@
       </c>
       <c r="U35" s="7">
         <f t="shared" ref="U35" si="70">U34/U36</f>
-        <v>9.2095130298511023</v>
+        <v>8.9896908929963608</v>
       </c>
       <c r="V35" s="7">
         <f t="shared" ref="V35" si="71">V34/V36</f>
-        <v>11.10653730808664</v>
+        <v>10.594996643734714</v>
       </c>
       <c r="W35" s="7">
         <f t="shared" ref="W35" si="72">W34/W36</f>
-        <v>13.045280950918063</v>
+        <v>12.182850135333325</v>
       </c>
       <c r="X35" s="7">
         <f t="shared" ref="X35" si="73">X34/X36</f>
-        <v>15.256812958153976</v>
+        <v>13.98321560755892</v>
       </c>
       <c r="Y35" s="7">
         <f t="shared" ref="Y35" si="74">Y34/Y36</f>
-        <v>17.779659261236631</v>
+        <v>16.026178508767135</v>
       </c>
     </row>
     <row r="36" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4435,6 +4435,8 @@
         <f t="shared" si="75"/>
         <v>13524.989839200001</v>
       </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="9"/>
     </row>
     <row r="37" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="O37" s="1"/>
@@ -4444,6 +4446,8 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="9"/>
     </row>
     <row r="38" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -4527,6 +4531,7 @@
         <f t="shared" si="77"/>
         <v>0.12399397442452242</v>
       </c>
+      <c r="AB38" s="9"/>
     </row>
     <row r="39" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -4586,7 +4591,8 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="AB39" s="5"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -4676,6 +4682,7 @@
       <c r="Y40" s="4">
         <v>0.19</v>
       </c>
+      <c r="AB40" s="7"/>
     </row>
     <row r="41" spans="1:219" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
@@ -4702,6 +4709,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
+      <c r="AB41" s="4"/>
     </row>
     <row r="42" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -4741,7 +4749,7 @@
       </c>
       <c r="J42" s="4">
         <f t="shared" si="81"/>
-        <v>0.28093031529551798</v>
+        <v>0.27344103927804025</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="81"/>
@@ -4782,23 +4790,23 @@
       </c>
       <c r="U42" s="4">
         <f t="shared" si="82"/>
-        <v>0.28218932570717414</v>
+        <v>0.27545374040820286</v>
       </c>
       <c r="V42" s="4">
         <f t="shared" si="82"/>
-        <v>0.31027674226146656</v>
+        <v>0.2959861342648753</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="82"/>
-        <v>0.33174717760061578</v>
+        <v>0.3098151862527484</v>
       </c>
       <c r="X42" s="4">
         <f t="shared" si="82"/>
-        <v>0.35263435095964596</v>
+        <v>0.32319739211753179</v>
       </c>
       <c r="Y42" s="4">
         <f t="shared" si="82"/>
-        <v>0.37292407061294541</v>
+        <v>0.33614523417157183</v>
       </c>
     </row>
     <row r="43" spans="1:219" x14ac:dyDescent="0.2">
@@ -5039,23 +5047,23 @@
       </c>
       <c r="U45" s="4">
         <f t="shared" si="88"/>
-        <v>0.15887589108818778</v>
+        <v>0.1521403057892165</v>
       </c>
       <c r="V45" s="4">
         <f t="shared" si="88"/>
-        <v>0.19586650881589146</v>
+        <v>0.18979577894979532</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="88"/>
-        <v>0.22590255110604759</v>
+        <v>0.21607465710719229</v>
       </c>
       <c r="X45" s="4">
         <f t="shared" si="88"/>
-        <v>0.2550084118609347</v>
+        <v>0.24089663085115304</v>
       </c>
       <c r="Y45" s="4">
         <f t="shared" si="88"/>
-        <v>0.2831629754850668</v>
+        <v>0.26433074381808086</v>
       </c>
     </row>
     <row r="46" spans="1:219" x14ac:dyDescent="0.2">
@@ -5565,19 +5573,19 @@
       </c>
       <c r="J56" s="1">
         <f t="shared" si="99"/>
-        <v>72414.663437106472</v>
+        <v>71727.994037106459</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="99"/>
-        <v>115013.84130789702</v>
+        <v>114327.17190789701</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="99"/>
-        <v>142444.60657126163</v>
+        <v>141757.93717126161</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="99"/>
-        <v>171872.88356214596</v>
+        <v>171186.21416214595</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" ref="O56:T56" si="100">O58-O73</f>
@@ -5605,23 +5613,23 @@
       </c>
       <c r="U56" s="1">
         <f>T56+U34</f>
-        <v>199846.86530798953</v>
+        <v>197100.18770798953</v>
       </c>
       <c r="V56" s="1">
         <f>U56+V34</f>
-        <v>341398.57264582295</v>
+        <v>332132.36043272412</v>
       </c>
       <c r="W56" s="1">
         <f>V56+W34</f>
-        <v>510984.58986100566</v>
+        <v>490506.95125633001</v>
       </c>
       <c r="X56" s="1">
         <f>W56+X34</f>
-        <v>713286.78617238556</v>
+        <v>675921.50911081745</v>
       </c>
       <c r="Y56" s="1">
         <f>X56+Y34</f>
-        <v>953756.49702504918</v>
+        <v>892675.41060309834</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
@@ -5634,19 +5642,19 @@
       </c>
       <c r="J58" s="1">
         <f>I58+J34+J100</f>
-        <v>89414.663437106472</v>
+        <v>88727.994037106459</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" ref="K58:M58" si="101">J58+K34+K100</f>
-        <v>115013.84130789702</v>
+        <v>114327.17190789701</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="101"/>
-        <v>142444.60657126163</v>
+        <v>141757.93717126161</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="101"/>
-        <v>171872.88356214596</v>
+        <v>171186.21416214595</v>
       </c>
       <c r="S58" s="1">
         <f>24048+86868</f>
@@ -5658,23 +5666,23 @@
       </c>
       <c r="U58" s="1">
         <f>T58+U34+U100</f>
-        <v>207315.1241838006</v>
+        <v>204568.4465838006</v>
       </c>
       <c r="V58" s="1">
         <f t="shared" ref="V58" si="102">U58+V34+V100</f>
-        <v>345046.58553108689</v>
+        <v>335780.37331798801</v>
       </c>
       <c r="W58" s="1">
         <f t="shared" ref="W58" si="103">V58+W34+W100</f>
-        <v>510351.96729838429</v>
+        <v>489874.32869370852</v>
       </c>
       <c r="X58" s="1">
         <f t="shared" ref="X58:Y58" si="104">W58+X34+X100</f>
-        <v>707850.18105561135</v>
+        <v>670484.90399404324</v>
       </c>
       <c r="Y58" s="1">
         <f t="shared" si="104"/>
-        <v>942920.2444641667</v>
+        <v>881839.15804221586</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
@@ -5952,23 +5960,23 @@
       </c>
       <c r="U66" s="1">
         <f t="shared" ref="U66:Y66" si="113">SUM(U58:U65)</f>
-        <v>620627.77047420596</v>
+        <v>617881.09287420602</v>
       </c>
       <c r="V66" s="1">
         <f t="shared" si="113"/>
-        <v>807440.63603422209</v>
+        <v>798174.42382112332</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" si="113"/>
-        <v>1028470.5304413663</v>
+        <v>1007992.8918366906</v>
       </c>
       <c r="X66" s="1">
         <f t="shared" si="113"/>
-        <v>1289313.5101861407</v>
+        <v>1251948.2331245726</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" si="113"/>
-        <v>1596481.5227557041</v>
+        <v>1535400.4363337532</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
@@ -6304,23 +6312,23 @@
       </c>
       <c r="U77" s="1">
         <f t="shared" ref="U77:Y77" si="123">U66-U76</f>
-        <v>474797.00418386899</v>
+        <v>472050.32658386906</v>
       </c>
       <c r="V77" s="1">
         <f t="shared" si="123"/>
-        <v>644292.28013904381</v>
+        <v>635026.06792594504</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" si="123"/>
-        <v>845660.67022890993</v>
+        <v>825183.03162423428</v>
       </c>
       <c r="X77" s="1">
         <f t="shared" si="123"/>
-        <v>1084153.4609645742</v>
+        <v>1046788.1839030061</v>
       </c>
       <c r="Y77" s="1">
         <f t="shared" si="123"/>
-        <v>1365882.863638025</v>
+        <v>1304801.7772160741</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
@@ -6341,23 +6349,23 @@
       </c>
       <c r="U78" s="1">
         <f t="shared" ref="U78:Y78" si="124">U76+U77</f>
-        <v>620627.77047420596</v>
+        <v>617881.09287420602</v>
       </c>
       <c r="V78" s="1">
         <f t="shared" si="124"/>
-        <v>807440.63603422209</v>
+        <v>798174.42382112332</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" si="124"/>
-        <v>1028470.5304413663</v>
+        <v>1007992.8918366906</v>
       </c>
       <c r="X78" s="1">
         <f t="shared" si="124"/>
-        <v>1289313.5101861407</v>
+        <v>1251948.2331245726</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" si="124"/>
-        <v>1596481.5227557041</v>
+        <v>1535400.4363337532</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
@@ -6478,7 +6486,7 @@
       </c>
       <c r="J82" s="1">
         <f t="shared" si="127"/>
-        <v>25757.663437106465</v>
+        <v>25070.994037106462</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="127"/>
@@ -6506,23 +6514,23 @@
       </c>
       <c r="U82" s="1">
         <f t="shared" si="128"/>
-        <v>115072.86530798952</v>
+        <v>112326.18770798953</v>
       </c>
       <c r="V82" s="1">
         <f t="shared" si="128"/>
-        <v>141551.70733783342</v>
+        <v>135032.17272473456</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" si="128"/>
-        <v>169586.01721518274</v>
+        <v>158374.59082360589</v>
       </c>
       <c r="X82" s="1">
         <f t="shared" si="128"/>
-        <v>202302.19631137984</v>
+        <v>185414.5578544875</v>
       </c>
       <c r="Y82" s="1">
         <f t="shared" si="128"/>
-        <v>240469.71085266364</v>
+        <v>216753.90149228091</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
@@ -6540,7 +6548,7 @@
       </c>
       <c r="J83" s="1">
         <f>J82</f>
-        <v>25757.663437106465</v>
+        <v>25070.994037106462</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" ref="K83:M83" si="129">K82</f>
@@ -6565,23 +6573,23 @@
       </c>
       <c r="U83" s="1">
         <f>U82</f>
-        <v>115072.86530798952</v>
+        <v>112326.18770798953</v>
       </c>
       <c r="V83" s="1">
         <f t="shared" ref="V83:Y83" si="130">V82</f>
-        <v>141551.70733783342</v>
+        <v>135032.17272473456</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" si="130"/>
-        <v>169586.01721518274</v>
+        <v>158374.59082360589</v>
       </c>
       <c r="X83" s="1">
         <f t="shared" si="130"/>
-        <v>202302.19631137984</v>
+        <v>185414.5578544875</v>
       </c>
       <c r="Y83" s="1">
         <f t="shared" si="130"/>
-        <v>240469.71085266364</v>
+        <v>216753.90149228091</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
@@ -7069,29 +7077,29 @@
       </c>
       <c r="U96" s="3">
         <f t="shared" si="143"/>
-        <v>139787.36915388948</v>
+        <v>137040.69155388948</v>
       </c>
       <c r="V96" s="3">
         <f t="shared" si="143"/>
-        <v>168106.48392822981</v>
+        <v>161586.94931513094</v>
       </c>
       <c r="W96" s="3">
         <f t="shared" si="143"/>
-        <v>198166.74596647051</v>
+        <v>186955.31957489366</v>
       </c>
       <c r="X96" s="3">
         <f t="shared" si="143"/>
-        <v>233117.21366156908</v>
+        <v>216229.57520467674</v>
       </c>
       <c r="Y96" s="3">
         <f t="shared" si="143"/>
-        <v>273752.73488431342</v>
+        <v>250036.92552393069</v>
       </c>
       <c r="AA96" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AB96" s="9">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="97" spans="1:162" x14ac:dyDescent="0.2">
@@ -7101,6 +7109,7 @@
       <c r="I97" s="1">
         <v>-14276</v>
       </c>
+      <c r="Q97" s="4"/>
       <c r="R97" s="1">
         <v>-31485</v>
       </c>
@@ -7114,20 +7123,20 @@
         <v>-75000</v>
       </c>
       <c r="V97" s="1">
-        <f>U97*1.05</f>
-        <v>-78750</v>
+        <f>U97*1</f>
+        <v>-75000</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" ref="W97:Y97" si="144">V97*1.05</f>
-        <v>-82687.5</v>
+        <f t="shared" ref="W97:Y97" si="144">V97*1.02</f>
+        <v>-76500</v>
       </c>
       <c r="X97" s="1">
         <f t="shared" si="144"/>
-        <v>-86821.875</v>
+        <v>-78030</v>
       </c>
       <c r="Y97" s="1">
         <f t="shared" si="144"/>
-        <v>-91162.96875</v>
+        <v>-79590.600000000006</v>
       </c>
       <c r="AA97" s="1" t="s">
         <v>28</v>
@@ -7228,7 +7237,7 @@
       </c>
       <c r="AB99" s="1">
         <f>NPV(AB98,U103:FF103)+Main!N5-Main!N6</f>
-        <v>2337659.3530014087</v>
+        <v>2195303.9019600144</v>
       </c>
     </row>
     <row r="100" spans="1:162" x14ac:dyDescent="0.2">
@@ -7275,7 +7284,7 @@
       </c>
       <c r="AB100" s="7">
         <f>AB99/Main!N3</f>
-        <v>190.8293349388905</v>
+        <v>179.20848179265423</v>
       </c>
     </row>
     <row r="101" spans="1:162" x14ac:dyDescent="0.2">
@@ -7319,7 +7328,7 @@
       </c>
       <c r="AB101" s="4">
         <f>AB100/Main!N2-1</f>
-        <v>9.0453342507945678E-2</v>
+        <v>2.4048467386595496E-2</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.2">
@@ -7358,19 +7367,19 @@
       </c>
       <c r="V102" s="1">
         <f t="shared" si="149"/>
-        <v>-78750</v>
+        <v>-75000</v>
       </c>
       <c r="W102" s="1">
         <f t="shared" si="149"/>
-        <v>-82687.5</v>
+        <v>-76500</v>
       </c>
       <c r="X102" s="1">
         <f t="shared" si="149"/>
-        <v>-86821.875</v>
+        <v>-78030</v>
       </c>
       <c r="Y102" s="1">
         <f t="shared" si="149"/>
-        <v>-91162.96875</v>
+        <v>-79590.600000000006</v>
       </c>
     </row>
     <row r="103" spans="1:162" x14ac:dyDescent="0.2">
@@ -7437,571 +7446,571 @@
       </c>
       <c r="U103" s="3">
         <f>U96+U102</f>
-        <v>64787.369153889478</v>
+        <v>62040.691553889483</v>
       </c>
       <c r="V103" s="3">
         <f t="shared" ref="V103:Y103" si="151">V96+V102</f>
-        <v>89356.483928229805</v>
+        <v>86586.949315130943</v>
       </c>
       <c r="W103" s="3">
         <f t="shared" si="151"/>
-        <v>115479.24596647051</v>
+        <v>110455.31957489366</v>
       </c>
       <c r="X103" s="3">
         <f t="shared" si="151"/>
-        <v>146295.33866156908</v>
+        <v>138199.57520467674</v>
       </c>
       <c r="Y103" s="3">
         <f t="shared" si="151"/>
-        <v>182589.76613431342</v>
+        <v>170446.32552393069</v>
       </c>
       <c r="Z103" s="3">
         <f t="shared" ref="Z103:BE103" si="152">Y103*(1+$AB$97)</f>
-        <v>184415.66379565655</v>
+        <v>172150.78877916999</v>
       </c>
       <c r="AA103" s="3">
         <f t="shared" si="152"/>
-        <v>186259.82043361312</v>
+        <v>173872.29666696169</v>
       </c>
       <c r="AB103" s="3">
         <f t="shared" si="152"/>
-        <v>188122.41863794925</v>
+        <v>175611.01963363131</v>
       </c>
       <c r="AC103" s="3">
         <f t="shared" si="152"/>
-        <v>190003.64282432874</v>
+        <v>177367.12982996763</v>
       </c>
       <c r="AD103" s="3">
         <f t="shared" si="152"/>
-        <v>191903.67925257204</v>
+        <v>179140.80112826731</v>
       </c>
       <c r="AE103" s="3">
         <f t="shared" si="152"/>
-        <v>193822.71604509777</v>
+        <v>180932.20913954999</v>
       </c>
       <c r="AF103" s="3">
         <f t="shared" si="152"/>
-        <v>195760.94320554874</v>
+        <v>182741.53123094549</v>
       </c>
       <c r="AG103" s="3">
         <f t="shared" si="152"/>
-        <v>197718.55263760424</v>
+        <v>184568.94654325495</v>
       </c>
       <c r="AH103" s="3">
         <f t="shared" si="152"/>
-        <v>199695.73816398028</v>
+        <v>186414.63600868749</v>
       </c>
       <c r="AI103" s="3">
         <f t="shared" si="152"/>
-        <v>201692.69554562008</v>
+        <v>188278.78236877438</v>
       </c>
       <c r="AJ103" s="3">
         <f t="shared" si="152"/>
-        <v>203709.62250107629</v>
+        <v>190161.57019246212</v>
       </c>
       <c r="AK103" s="3">
         <f t="shared" si="152"/>
-        <v>205746.71872608704</v>
+        <v>192063.18589438676</v>
       </c>
       <c r="AL103" s="3">
         <f t="shared" si="152"/>
-        <v>207804.1859133479</v>
+        <v>193983.81775333063</v>
       </c>
       <c r="AM103" s="3">
         <f t="shared" si="152"/>
-        <v>209882.22777248139</v>
+        <v>195923.65593086393</v>
       </c>
       <c r="AN103" s="3">
         <f t="shared" si="152"/>
-        <v>211981.05005020622</v>
+        <v>197882.89249017255</v>
       </c>
       <c r="AO103" s="3">
         <f t="shared" si="152"/>
-        <v>214100.86055070828</v>
+        <v>199861.72141507428</v>
       </c>
       <c r="AP103" s="3">
         <f t="shared" si="152"/>
-        <v>216241.86915621537</v>
+        <v>201860.33862922504</v>
       </c>
       <c r="AQ103" s="3">
         <f t="shared" si="152"/>
-        <v>218404.28784777754</v>
+        <v>203878.9420155173</v>
       </c>
       <c r="AR103" s="3">
         <f t="shared" si="152"/>
-        <v>220588.33072625531</v>
+        <v>205917.73143567247</v>
       </c>
       <c r="AS103" s="3">
         <f t="shared" si="152"/>
-        <v>222794.21403351787</v>
+        <v>207976.90875002919</v>
       </c>
       <c r="AT103" s="3">
         <f t="shared" si="152"/>
-        <v>225022.15617385306</v>
+        <v>210056.67783752948</v>
       </c>
       <c r="AU103" s="3">
         <f t="shared" si="152"/>
-        <v>227272.37773559158</v>
+        <v>212157.24461590478</v>
       </c>
       <c r="AV103" s="3">
         <f t="shared" si="152"/>
-        <v>229545.1015129475</v>
+        <v>214278.81706206384</v>
       </c>
       <c r="AW103" s="3">
         <f t="shared" si="152"/>
-        <v>231840.55252807698</v>
+        <v>216421.60523268449</v>
       </c>
       <c r="AX103" s="3">
         <f t="shared" si="152"/>
-        <v>234158.95805335775</v>
+        <v>218585.82128501133</v>
       </c>
       <c r="AY103" s="3">
         <f t="shared" si="152"/>
-        <v>236500.54763389134</v>
+        <v>220771.67949786145</v>
       </c>
       <c r="AZ103" s="3">
         <f t="shared" si="152"/>
-        <v>238865.55311023025</v>
+        <v>222979.39629284007</v>
       </c>
       <c r="BA103" s="3">
         <f t="shared" si="152"/>
-        <v>241254.20864133255</v>
+        <v>225209.19025576848</v>
       </c>
       <c r="BB103" s="3">
         <f t="shared" si="152"/>
-        <v>243666.75072774588</v>
+        <v>227461.28215832615</v>
       </c>
       <c r="BC103" s="3">
         <f t="shared" si="152"/>
-        <v>246103.41823502333</v>
+        <v>229735.89497990941</v>
       </c>
       <c r="BD103" s="3">
         <f t="shared" si="152"/>
-        <v>248564.45241737357</v>
+        <v>232033.2539297085</v>
       </c>
       <c r="BE103" s="3">
         <f t="shared" si="152"/>
-        <v>251050.09694154729</v>
+        <v>234353.58646900559</v>
       </c>
       <c r="BF103" s="3">
         <f t="shared" ref="BF103:CK103" si="153">BE103*(1+$AB$97)</f>
-        <v>253560.59791096277</v>
+        <v>236697.12233369565</v>
       </c>
       <c r="BG103" s="3">
         <f t="shared" si="153"/>
-        <v>256096.20389007239</v>
+        <v>239064.09355703261</v>
       </c>
       <c r="BH103" s="3">
         <f t="shared" si="153"/>
-        <v>258657.16592897312</v>
+        <v>241454.73449260293</v>
       </c>
       <c r="BI103" s="3">
         <f t="shared" si="153"/>
-        <v>261243.73758826285</v>
+        <v>243869.28183752895</v>
       </c>
       <c r="BJ103" s="3">
         <f t="shared" si="153"/>
-        <v>263856.17496414547</v>
+        <v>246307.97465590425</v>
       </c>
       <c r="BK103" s="3">
         <f t="shared" si="153"/>
-        <v>266494.7367137869</v>
+        <v>248771.05440246331</v>
       </c>
       <c r="BL103" s="3">
         <f t="shared" si="153"/>
-        <v>269159.68408092478</v>
+        <v>251258.76494648794</v>
       </c>
       <c r="BM103" s="3">
         <f t="shared" si="153"/>
-        <v>271851.28092173405</v>
+        <v>253771.35259595281</v>
       </c>
       <c r="BN103" s="3">
         <f t="shared" si="153"/>
-        <v>274569.79373095138</v>
+        <v>256309.06612191233</v>
       </c>
       <c r="BO103" s="3">
         <f t="shared" si="153"/>
-        <v>277315.49166826089</v>
+        <v>258872.15678313145</v>
       </c>
       <c r="BP103" s="3">
         <f t="shared" si="153"/>
-        <v>280088.64658494352</v>
+        <v>261460.87835096277</v>
       </c>
       <c r="BQ103" s="3">
         <f t="shared" si="153"/>
-        <v>282889.53305079293</v>
+        <v>264075.48713447241</v>
       </c>
       <c r="BR103" s="3">
         <f t="shared" si="153"/>
-        <v>285718.42838130088</v>
+        <v>266716.24200581713</v>
       </c>
       <c r="BS103" s="3">
         <f t="shared" si="153"/>
-        <v>288575.61266511388</v>
+        <v>269383.40442587528</v>
       </c>
       <c r="BT103" s="3">
         <f t="shared" si="153"/>
-        <v>291461.36879176501</v>
+        <v>272077.23847013403</v>
       </c>
       <c r="BU103" s="3">
         <f t="shared" si="153"/>
-        <v>294375.98247968266</v>
+        <v>274798.01085483539</v>
       </c>
       <c r="BV103" s="3">
         <f t="shared" si="153"/>
-        <v>297319.74230447947</v>
+        <v>277545.99096338375</v>
       </c>
       <c r="BW103" s="3">
         <f t="shared" si="153"/>
-        <v>300292.9397275243</v>
+        <v>280321.4508730176</v>
       </c>
       <c r="BX103" s="3">
         <f t="shared" si="153"/>
-        <v>303295.86912479956</v>
+        <v>283124.66538174776</v>
       </c>
       <c r="BY103" s="3">
         <f t="shared" si="153"/>
-        <v>306328.82781604753</v>
+        <v>285955.91203556524</v>
       </c>
       <c r="BZ103" s="3">
         <f t="shared" si="153"/>
-        <v>309392.11609420803</v>
+        <v>288815.47115592088</v>
       </c>
       <c r="CA103" s="3">
         <f t="shared" si="153"/>
-        <v>312486.03725515009</v>
+        <v>291703.62586748012</v>
       </c>
       <c r="CB103" s="3">
         <f t="shared" si="153"/>
-        <v>315610.89762770158</v>
+        <v>294620.66212615493</v>
       </c>
       <c r="CC103" s="3">
         <f t="shared" si="153"/>
-        <v>318767.00660397857</v>
+        <v>297566.86874741648</v>
       </c>
       <c r="CD103" s="3">
         <f t="shared" si="153"/>
-        <v>321954.67667001835</v>
+        <v>300542.53743489063</v>
       </c>
       <c r="CE103" s="3">
         <f t="shared" si="153"/>
-        <v>325174.22343671852</v>
+        <v>303547.96280923951</v>
       </c>
       <c r="CF103" s="3">
         <f t="shared" si="153"/>
-        <v>328425.96567108569</v>
+        <v>306583.44243733189</v>
       </c>
       <c r="CG103" s="3">
         <f t="shared" si="153"/>
-        <v>331710.22532779654</v>
+        <v>309649.27686170524</v>
       </c>
       <c r="CH103" s="3">
         <f t="shared" si="153"/>
-        <v>335027.3275810745</v>
+        <v>312745.76963032229</v>
       </c>
       <c r="CI103" s="3">
         <f t="shared" si="153"/>
-        <v>338377.60085688526</v>
+        <v>315873.22732662549</v>
       </c>
       <c r="CJ103" s="3">
         <f t="shared" si="153"/>
-        <v>341761.37686545413</v>
+        <v>319031.95959989174</v>
       </c>
       <c r="CK103" s="3">
         <f t="shared" si="153"/>
-        <v>345178.99063410866</v>
+        <v>322222.27919589065</v>
       </c>
       <c r="CL103" s="3">
         <f t="shared" ref="CL103:DQ103" si="154">CK103*(1+$AB$97)</f>
-        <v>348630.78054044978</v>
+        <v>325444.50198784954</v>
       </c>
       <c r="CM103" s="3">
         <f t="shared" si="154"/>
-        <v>352117.08834585425</v>
+        <v>328698.94700772804</v>
       </c>
       <c r="CN103" s="3">
         <f t="shared" si="154"/>
-        <v>355638.25922931283</v>
+        <v>331985.93647780531</v>
       </c>
       <c r="CO103" s="3">
         <f t="shared" si="154"/>
-        <v>359194.64182160597</v>
+        <v>335305.79584258335</v>
       </c>
       <c r="CP103" s="3">
         <f t="shared" si="154"/>
-        <v>362786.58823982201</v>
+        <v>338658.85380100919</v>
       </c>
       <c r="CQ103" s="3">
         <f t="shared" si="154"/>
-        <v>366414.45412222022</v>
+        <v>342045.44233901927</v>
       </c>
       <c r="CR103" s="3">
         <f t="shared" si="154"/>
-        <v>370078.59866344242</v>
+        <v>345465.89676240948</v>
       </c>
       <c r="CS103" s="3">
         <f t="shared" si="154"/>
-        <v>373779.38465007686</v>
+        <v>348920.55573003355</v>
       </c>
       <c r="CT103" s="3">
         <f t="shared" si="154"/>
-        <v>377517.1784965776</v>
+        <v>352409.76128733391</v>
       </c>
       <c r="CU103" s="3">
         <f t="shared" si="154"/>
-        <v>381292.35028154339</v>
+        <v>355933.85890020727</v>
       </c>
       <c r="CV103" s="3">
         <f t="shared" si="154"/>
-        <v>385105.27378435881</v>
+        <v>359493.19748920936</v>
       </c>
       <c r="CW103" s="3">
         <f t="shared" si="154"/>
-        <v>388956.32652220241</v>
+        <v>363088.12946410145</v>
       </c>
       <c r="CX103" s="3">
         <f t="shared" si="154"/>
-        <v>392845.88978742441</v>
+        <v>366719.01075874246</v>
       </c>
       <c r="CY103" s="3">
         <f t="shared" si="154"/>
-        <v>396774.34868529864</v>
+        <v>370386.20086632989</v>
       </c>
       <c r="CZ103" s="3">
         <f t="shared" si="154"/>
-        <v>400742.09217215161</v>
+        <v>374090.06287499319</v>
       </c>
       <c r="DA103" s="3">
         <f t="shared" si="154"/>
-        <v>404749.5130938731</v>
+        <v>377830.96350374311</v>
       </c>
       <c r="DB103" s="3">
         <f t="shared" si="154"/>
-        <v>408797.00822481181</v>
+        <v>381609.27313878055</v>
       </c>
       <c r="DC103" s="3">
         <f t="shared" si="154"/>
-        <v>412884.97830705991</v>
+        <v>385425.36587016837</v>
       </c>
       <c r="DD103" s="3">
         <f t="shared" si="154"/>
-        <v>417013.82809013053</v>
+        <v>389279.61952887004</v>
       </c>
       <c r="DE103" s="3">
         <f t="shared" si="154"/>
-        <v>421183.96637103183</v>
+        <v>393172.41572415875</v>
       </c>
       <c r="DF103" s="3">
         <f t="shared" si="154"/>
-        <v>425395.80603474216</v>
+        <v>397104.13988140033</v>
       </c>
       <c r="DG103" s="3">
         <f t="shared" si="154"/>
-        <v>429649.76409508957</v>
+        <v>401075.18128021434</v>
       </c>
       <c r="DH103" s="3">
         <f t="shared" si="154"/>
-        <v>433946.26173604047</v>
+        <v>405085.9330930165</v>
       </c>
       <c r="DI103" s="3">
         <f t="shared" si="154"/>
-        <v>438285.72435340087</v>
+        <v>409136.79242394667</v>
       </c>
       <c r="DJ103" s="3">
         <f t="shared" si="154"/>
-        <v>442668.58159693488</v>
+        <v>413228.16034818615</v>
       </c>
       <c r="DK103" s="3">
         <f t="shared" si="154"/>
-        <v>447095.26741290424</v>
+        <v>417360.44195166801</v>
       </c>
       <c r="DL103" s="3">
         <f t="shared" si="154"/>
-        <v>451566.22008703329</v>
+        <v>421534.0463711847</v>
       </c>
       <c r="DM103" s="3">
         <f t="shared" si="154"/>
-        <v>456081.88228790363</v>
+        <v>425749.38683489652</v>
       </c>
       <c r="DN103" s="3">
         <f t="shared" si="154"/>
-        <v>460642.70111078268</v>
+        <v>430006.88070324546</v>
       </c>
       <c r="DO103" s="3">
         <f t="shared" si="154"/>
-        <v>465249.12812189054</v>
+        <v>434306.94951027795</v>
       </c>
       <c r="DP103" s="3">
         <f t="shared" si="154"/>
-        <v>469901.61940310942</v>
+        <v>438650.01900538075</v>
       </c>
       <c r="DQ103" s="3">
         <f t="shared" si="154"/>
-        <v>474600.63559714053</v>
+        <v>443036.51919543458</v>
       </c>
       <c r="DR103" s="3">
         <f t="shared" ref="DR103:EW103" si="155">DQ103*(1+$AB$97)</f>
-        <v>479346.64195311192</v>
+        <v>447466.88438738894</v>
       </c>
       <c r="DS103" s="3">
         <f t="shared" si="155"/>
-        <v>484140.10837264307</v>
+        <v>451941.55323126283</v>
       </c>
       <c r="DT103" s="3">
         <f t="shared" si="155"/>
-        <v>488981.5094563695</v>
+        <v>456460.96876357548</v>
       </c>
       <c r="DU103" s="3">
         <f t="shared" si="155"/>
-        <v>493871.3245509332</v>
+        <v>461025.57845121121</v>
       </c>
       <c r="DV103" s="3">
         <f t="shared" si="155"/>
-        <v>498810.03779644251</v>
+        <v>465635.83423572331</v>
       </c>
       <c r="DW103" s="3">
         <f t="shared" si="155"/>
-        <v>503798.13817440695</v>
+        <v>470292.19257808052</v>
       </c>
       <c r="DX103" s="3">
         <f t="shared" si="155"/>
-        <v>508836.11955615104</v>
+        <v>474995.11450386135</v>
       </c>
       <c r="DY103" s="3">
         <f t="shared" si="155"/>
-        <v>513924.48075171257</v>
+        <v>479745.06564889994</v>
       </c>
       <c r="DZ103" s="3">
         <f t="shared" si="155"/>
-        <v>519063.72555922973</v>
+        <v>484542.51630538894</v>
       </c>
       <c r="EA103" s="3">
         <f t="shared" si="155"/>
-        <v>524254.36281482206</v>
+        <v>489387.94146844285</v>
       </c>
       <c r="EB103" s="3">
         <f t="shared" si="155"/>
-        <v>529496.90644297027</v>
+        <v>494281.82088312728</v>
       </c>
       <c r="EC103" s="3">
         <f t="shared" si="155"/>
-        <v>534791.87550740002</v>
+        <v>499224.63909195858</v>
       </c>
       <c r="ED103" s="3">
         <f t="shared" si="155"/>
-        <v>540139.79426247405</v>
+        <v>504216.88548287819</v>
       </c>
       <c r="EE103" s="3">
         <f t="shared" si="155"/>
-        <v>545541.19220509881</v>
+        <v>509259.054337707</v>
       </c>
       <c r="EF103" s="3">
         <f t="shared" si="155"/>
-        <v>550996.6041271498</v>
+        <v>514351.6448810841</v>
       </c>
       <c r="EG103" s="3">
         <f t="shared" si="155"/>
-        <v>556506.57016842125</v>
+        <v>519495.16132989497</v>
       </c>
       <c r="EH103" s="3">
         <f t="shared" si="155"/>
-        <v>562071.63587010547</v>
+        <v>524690.11294319388</v>
       </c>
       <c r="EI103" s="3">
         <f t="shared" si="155"/>
-        <v>567692.35222880659</v>
+        <v>529937.01407262578</v>
       </c>
       <c r="EJ103" s="3">
         <f t="shared" si="155"/>
-        <v>573369.27575109468</v>
+        <v>535236.38421335199</v>
       </c>
       <c r="EK103" s="3">
         <f t="shared" si="155"/>
-        <v>579102.96850860561</v>
+        <v>540588.74805548554</v>
       </c>
       <c r="EL103" s="3">
         <f t="shared" si="155"/>
-        <v>584893.99819369172</v>
+        <v>545994.63553604041</v>
       </c>
       <c r="EM103" s="3">
         <f t="shared" si="155"/>
-        <v>590742.93817562866</v>
+        <v>551454.58189140086</v>
       </c>
       <c r="EN103" s="3">
         <f t="shared" si="155"/>
-        <v>596650.36755738501</v>
+        <v>556969.12771031482</v>
       </c>
       <c r="EO103" s="3">
         <f t="shared" si="155"/>
-        <v>602616.87123295886</v>
+        <v>562538.81898741797</v>
       </c>
       <c r="EP103" s="3">
         <f t="shared" si="155"/>
-        <v>608643.03994528844</v>
+        <v>568164.20717729221</v>
       </c>
       <c r="EQ103" s="3">
         <f t="shared" si="155"/>
-        <v>614729.47034474136</v>
+        <v>573845.84924906516</v>
       </c>
       <c r="ER103" s="3">
         <f t="shared" si="155"/>
-        <v>620876.76504818874</v>
+        <v>579584.30774155585</v>
       </c>
       <c r="ES103" s="3">
         <f t="shared" si="155"/>
-        <v>627085.53269867063</v>
+        <v>585380.15081897145</v>
       </c>
       <c r="ET103" s="3">
         <f t="shared" si="155"/>
-        <v>633356.38802565739</v>
+        <v>591233.95232716121</v>
       </c>
       <c r="EU103" s="3">
         <f t="shared" si="155"/>
-        <v>639689.951905914</v>
+        <v>597146.29185043287</v>
       </c>
       <c r="EV103" s="3">
         <f t="shared" si="155"/>
-        <v>646086.85142497311</v>
+        <v>603117.75476893724</v>
       </c>
       <c r="EW103" s="3">
         <f t="shared" si="155"/>
-        <v>652547.71993922279</v>
+        <v>609148.93231662665</v>
       </c>
       <c r="EX103" s="3">
         <f t="shared" ref="EX103:FF103" si="156">EW103*(1+$AB$97)</f>
-        <v>659073.19713861507</v>
+        <v>615240.42163979297</v>
       </c>
       <c r="EY103" s="3">
         <f t="shared" si="156"/>
-        <v>665663.92911000119</v>
+        <v>621392.82585619087</v>
       </c>
       <c r="EZ103" s="3">
         <f t="shared" si="156"/>
-        <v>672320.56840110116</v>
+        <v>627606.75411475275</v>
       </c>
       <c r="FA103" s="3">
         <f t="shared" si="156"/>
-        <v>679043.77408511215</v>
+        <v>633882.82165590033</v>
       </c>
       <c r="FB103" s="3">
         <f t="shared" si="156"/>
-        <v>685834.21182596323</v>
+        <v>640221.64987245935</v>
       </c>
       <c r="FC103" s="3">
         <f t="shared" si="156"/>
-        <v>692692.55394422286</v>
+        <v>646623.86637118401</v>
       </c>
       <c r="FD103" s="3">
         <f t="shared" si="156"/>
-        <v>699619.47948366508</v>
+        <v>653090.10503489582</v>
       </c>
       <c r="FE103" s="3">
         <f t="shared" si="156"/>
-        <v>706615.67427850177</v>
+        <v>659621.00608524482</v>
       </c>
       <c r="FF103" s="3">
         <f t="shared" si="156"/>
-        <v>713681.83102128678</v>
+        <v>666217.21614609729</v>
       </c>
     </row>
     <row r="104" spans="1:162" x14ac:dyDescent="0.2">
@@ -8019,23 +8028,23 @@
       </c>
       <c r="U104" s="4">
         <f t="shared" si="157"/>
-        <v>0.46347083821690782</v>
+        <v>0.45271729769031982</v>
       </c>
       <c r="V104" s="4">
         <f t="shared" si="157"/>
-        <v>0.53154692097646294</v>
+        <v>0.53585360502268586</v>
       </c>
       <c r="W104" s="4">
         <f t="shared" si="157"/>
-        <v>0.58273776159199486</v>
+        <v>0.59081132233119282</v>
       </c>
       <c r="X104" s="4">
         <f t="shared" si="157"/>
-        <v>0.62756128714696813</v>
+        <v>0.63913354624991037</v>
       </c>
       <c r="Y104" s="4">
         <f t="shared" si="157"/>
-        <v>0.66698791597999918</v>
+        <v>0.68168461584933981</v>
       </c>
     </row>
     <row r="109" spans="1:162" x14ac:dyDescent="0.2">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14778161-FA2C-436A-8D26-FF34CC8B0F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59299146-B0FE-417C-8FED-A2F3BFEBE925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="2925" yWindow="750" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1210,10 +1210,10 @@
   <dimension ref="A1:HK109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y106" sqref="Y106"/>
+      <selection pane="bottomRight" activeCell="W97" sqref="W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5055,15 +5055,15 @@
       </c>
       <c r="W45" s="4">
         <f t="shared" si="88"/>
-        <v>0.21607465710719229</v>
+        <v>0.21900898373725583</v>
       </c>
       <c r="X45" s="4">
         <f t="shared" si="88"/>
-        <v>0.24089663085115304</v>
+        <v>0.24617824470848923</v>
       </c>
       <c r="Y45" s="4">
         <f t="shared" si="88"/>
-        <v>0.26433074381808086</v>
+        <v>0.27144991584388622</v>
       </c>
     </row>
     <row r="46" spans="1:219" x14ac:dyDescent="0.2">
@@ -7127,16 +7127,16 @@
         <v>-75000</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" ref="W97:Y97" si="144">V97*1.02</f>
-        <v>-76500</v>
+        <f t="shared" ref="W97:Y97" si="144">V97*1</f>
+        <v>-75000</v>
       </c>
       <c r="X97" s="1">
         <f t="shared" si="144"/>
-        <v>-78030</v>
+        <v>-75000</v>
       </c>
       <c r="Y97" s="1">
         <f t="shared" si="144"/>
-        <v>-79590.600000000006</v>
+        <v>-75000</v>
       </c>
       <c r="AA97" s="1" t="s">
         <v>28</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="AB99" s="1">
         <f>NPV(AB98,U103:FF103)+Main!N5-Main!N6</f>
-        <v>2195303.9019600144</v>
+        <v>2246920.4039283502</v>
       </c>
     </row>
     <row r="100" spans="1:162" x14ac:dyDescent="0.2">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="AB100" s="7">
         <f>AB99/Main!N3</f>
-        <v>179.20848179265423</v>
+        <v>183.42207379006939</v>
       </c>
     </row>
     <row r="101" spans="1:162" x14ac:dyDescent="0.2">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="AB101" s="4">
         <f>AB100/Main!N2-1</f>
-        <v>2.4048467386595496E-2</v>
+        <v>4.8126135943253656E-2</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.2">
@@ -7371,15 +7371,15 @@
       </c>
       <c r="W102" s="1">
         <f t="shared" si="149"/>
-        <v>-76500</v>
+        <v>-75000</v>
       </c>
       <c r="X102" s="1">
         <f t="shared" si="149"/>
-        <v>-78030</v>
+        <v>-75000</v>
       </c>
       <c r="Y102" s="1">
         <f t="shared" si="149"/>
-        <v>-79590.600000000006</v>
+        <v>-75000</v>
       </c>
     </row>
     <row r="103" spans="1:162" x14ac:dyDescent="0.2">
@@ -7454,563 +7454,563 @@
       </c>
       <c r="W103" s="3">
         <f t="shared" si="151"/>
-        <v>110455.31957489366</v>
+        <v>111955.31957489366</v>
       </c>
       <c r="X103" s="3">
         <f t="shared" si="151"/>
-        <v>138199.57520467674</v>
+        <v>141229.57520467674</v>
       </c>
       <c r="Y103" s="3">
         <f t="shared" si="151"/>
-        <v>170446.32552393069</v>
+        <v>175036.92552393069</v>
       </c>
       <c r="Z103" s="3">
         <f t="shared" ref="Z103:BE103" si="152">Y103*(1+$AB$97)</f>
-        <v>172150.78877916999</v>
+        <v>176787.29477917001</v>
       </c>
       <c r="AA103" s="3">
         <f t="shared" si="152"/>
-        <v>173872.29666696169</v>
+        <v>178555.16772696172</v>
       </c>
       <c r="AB103" s="3">
         <f t="shared" si="152"/>
-        <v>175611.01963363131</v>
+        <v>180340.71940423135</v>
       </c>
       <c r="AC103" s="3">
         <f t="shared" si="152"/>
-        <v>177367.12982996763</v>
+        <v>182144.12659827367</v>
       </c>
       <c r="AD103" s="3">
         <f t="shared" si="152"/>
-        <v>179140.80112826731</v>
+        <v>183965.56786425642</v>
       </c>
       <c r="AE103" s="3">
         <f t="shared" si="152"/>
-        <v>180932.20913954999</v>
+        <v>185805.22354289898</v>
       </c>
       <c r="AF103" s="3">
         <f t="shared" si="152"/>
-        <v>182741.53123094549</v>
+        <v>187663.27577832798</v>
       </c>
       <c r="AG103" s="3">
         <f t="shared" si="152"/>
-        <v>184568.94654325495</v>
+        <v>189539.90853611127</v>
       </c>
       <c r="AH103" s="3">
         <f t="shared" si="152"/>
-        <v>186414.63600868749</v>
+        <v>191435.30762147237</v>
       </c>
       <c r="AI103" s="3">
         <f t="shared" si="152"/>
-        <v>188278.78236877438</v>
+        <v>193349.6606976871</v>
       </c>
       <c r="AJ103" s="3">
         <f t="shared" si="152"/>
-        <v>190161.57019246212</v>
+        <v>195283.15730466397</v>
       </c>
       <c r="AK103" s="3">
         <f t="shared" si="152"/>
-        <v>192063.18589438676</v>
+        <v>197235.9888777106</v>
       </c>
       <c r="AL103" s="3">
         <f t="shared" si="152"/>
-        <v>193983.81775333063</v>
+        <v>199208.3487664877</v>
       </c>
       <c r="AM103" s="3">
         <f t="shared" si="152"/>
-        <v>195923.65593086393</v>
+        <v>201200.43225415258</v>
       </c>
       <c r="AN103" s="3">
         <f t="shared" si="152"/>
-        <v>197882.89249017255</v>
+        <v>203212.4365766941</v>
       </c>
       <c r="AO103" s="3">
         <f t="shared" si="152"/>
-        <v>199861.72141507428</v>
+        <v>205244.56094246104</v>
       </c>
       <c r="AP103" s="3">
         <f t="shared" si="152"/>
-        <v>201860.33862922504</v>
+        <v>207297.00655188566</v>
       </c>
       <c r="AQ103" s="3">
         <f t="shared" si="152"/>
-        <v>203878.9420155173</v>
+        <v>209369.97661740452</v>
       </c>
       <c r="AR103" s="3">
         <f t="shared" si="152"/>
-        <v>205917.73143567247</v>
+        <v>211463.67638357857</v>
       </c>
       <c r="AS103" s="3">
         <f t="shared" si="152"/>
-        <v>207976.90875002919</v>
+        <v>213578.31314741436</v>
       </c>
       <c r="AT103" s="3">
         <f t="shared" si="152"/>
-        <v>210056.67783752948</v>
+        <v>215714.09627888849</v>
       </c>
       <c r="AU103" s="3">
         <f t="shared" si="152"/>
-        <v>212157.24461590478</v>
+        <v>217871.23724167739</v>
       </c>
       <c r="AV103" s="3">
         <f t="shared" si="152"/>
-        <v>214278.81706206384</v>
+        <v>220049.94961409416</v>
       </c>
       <c r="AW103" s="3">
         <f t="shared" si="152"/>
-        <v>216421.60523268449</v>
+        <v>222250.44911023512</v>
       </c>
       <c r="AX103" s="3">
         <f t="shared" si="152"/>
-        <v>218585.82128501133</v>
+        <v>224472.95360133747</v>
       </c>
       <c r="AY103" s="3">
         <f t="shared" si="152"/>
-        <v>220771.67949786145</v>
+        <v>226717.68313735086</v>
       </c>
       <c r="AZ103" s="3">
         <f t="shared" si="152"/>
-        <v>222979.39629284007</v>
+        <v>228984.85996872437</v>
       </c>
       <c r="BA103" s="3">
         <f t="shared" si="152"/>
-        <v>225209.19025576848</v>
+        <v>231274.70856841162</v>
       </c>
       <c r="BB103" s="3">
         <f t="shared" si="152"/>
-        <v>227461.28215832615</v>
+        <v>233587.45565409574</v>
       </c>
       <c r="BC103" s="3">
         <f t="shared" si="152"/>
-        <v>229735.89497990941</v>
+        <v>235923.33021063669</v>
       </c>
       <c r="BD103" s="3">
         <f t="shared" si="152"/>
-        <v>232033.2539297085</v>
+        <v>238282.56351274307</v>
       </c>
       <c r="BE103" s="3">
         <f t="shared" si="152"/>
-        <v>234353.58646900559</v>
+        <v>240665.3891478705</v>
       </c>
       <c r="BF103" s="3">
         <f t="shared" ref="BF103:CK103" si="153">BE103*(1+$AB$97)</f>
-        <v>236697.12233369565</v>
+        <v>243072.0430393492</v>
       </c>
       <c r="BG103" s="3">
         <f t="shared" si="153"/>
-        <v>239064.09355703261</v>
+        <v>245502.7634697427</v>
       </c>
       <c r="BH103" s="3">
         <f t="shared" si="153"/>
-        <v>241454.73449260293</v>
+        <v>247957.79110444014</v>
       </c>
       <c r="BI103" s="3">
         <f t="shared" si="153"/>
-        <v>243869.28183752895</v>
+        <v>250437.36901548455</v>
       </c>
       <c r="BJ103" s="3">
         <f t="shared" si="153"/>
-        <v>246307.97465590425</v>
+        <v>252941.74270563939</v>
       </c>
       <c r="BK103" s="3">
         <f t="shared" si="153"/>
-        <v>248771.05440246331</v>
+        <v>255471.16013269578</v>
       </c>
       <c r="BL103" s="3">
         <f t="shared" si="153"/>
-        <v>251258.76494648794</v>
+        <v>258025.87173402274</v>
       </c>
       <c r="BM103" s="3">
         <f t="shared" si="153"/>
-        <v>253771.35259595281</v>
+        <v>260606.13045136299</v>
       </c>
       <c r="BN103" s="3">
         <f t="shared" si="153"/>
-        <v>256309.06612191233</v>
+        <v>263212.19175587664</v>
       </c>
       <c r="BO103" s="3">
         <f t="shared" si="153"/>
-        <v>258872.15678313145</v>
+        <v>265844.31367343542</v>
       </c>
       <c r="BP103" s="3">
         <f t="shared" si="153"/>
-        <v>261460.87835096277</v>
+        <v>268502.75681016978</v>
       </c>
       <c r="BQ103" s="3">
         <f t="shared" si="153"/>
-        <v>264075.48713447241</v>
+        <v>271187.78437827149</v>
       </c>
       <c r="BR103" s="3">
         <f t="shared" si="153"/>
-        <v>266716.24200581713</v>
+        <v>273899.6622220542</v>
       </c>
       <c r="BS103" s="3">
         <f t="shared" si="153"/>
-        <v>269383.40442587528</v>
+        <v>276638.65884427476</v>
       </c>
       <c r="BT103" s="3">
         <f t="shared" si="153"/>
-        <v>272077.23847013403</v>
+        <v>279405.04543271748</v>
       </c>
       <c r="BU103" s="3">
         <f t="shared" si="153"/>
-        <v>274798.01085483539</v>
+        <v>282199.09588704468</v>
       </c>
       <c r="BV103" s="3">
         <f t="shared" si="153"/>
-        <v>277545.99096338375</v>
+        <v>285021.08684591512</v>
       </c>
       <c r="BW103" s="3">
         <f t="shared" si="153"/>
-        <v>280321.4508730176</v>
+        <v>287871.29771437426</v>
       </c>
       <c r="BX103" s="3">
         <f t="shared" si="153"/>
-        <v>283124.66538174776</v>
+        <v>290750.01069151802</v>
       </c>
       <c r="BY103" s="3">
         <f t="shared" si="153"/>
-        <v>285955.91203556524</v>
+        <v>293657.51079843321</v>
       </c>
       <c r="BZ103" s="3">
         <f t="shared" si="153"/>
-        <v>288815.47115592088</v>
+        <v>296594.08590641757</v>
       </c>
       <c r="CA103" s="3">
         <f t="shared" si="153"/>
-        <v>291703.62586748012</v>
+        <v>299560.02676548174</v>
       </c>
       <c r="CB103" s="3">
         <f t="shared" si="153"/>
-        <v>294620.66212615493</v>
+        <v>302555.62703313655</v>
       </c>
       <c r="CC103" s="3">
         <f t="shared" si="153"/>
-        <v>297566.86874741648</v>
+        <v>305581.18330346793</v>
       </c>
       <c r="CD103" s="3">
         <f t="shared" si="153"/>
-        <v>300542.53743489063</v>
+        <v>308636.99513650261</v>
       </c>
       <c r="CE103" s="3">
         <f t="shared" si="153"/>
-        <v>303547.96280923951</v>
+        <v>311723.36508786766</v>
       </c>
       <c r="CF103" s="3">
         <f t="shared" si="153"/>
-        <v>306583.44243733189</v>
+        <v>314840.59873874631</v>
       </c>
       <c r="CG103" s="3">
         <f t="shared" si="153"/>
-        <v>309649.27686170524</v>
+        <v>317989.00472613377</v>
       </c>
       <c r="CH103" s="3">
         <f t="shared" si="153"/>
-        <v>312745.76963032229</v>
+        <v>321168.89477339509</v>
       </c>
       <c r="CI103" s="3">
         <f t="shared" si="153"/>
-        <v>315873.22732662549</v>
+        <v>324380.58372112905</v>
       </c>
       <c r="CJ103" s="3">
         <f t="shared" si="153"/>
-        <v>319031.95959989174</v>
+        <v>327624.38955834036</v>
       </c>
       <c r="CK103" s="3">
         <f t="shared" si="153"/>
-        <v>322222.27919589065</v>
+        <v>330900.63345392374</v>
       </c>
       <c r="CL103" s="3">
         <f t="shared" ref="CL103:DQ103" si="154">CK103*(1+$AB$97)</f>
-        <v>325444.50198784954</v>
+        <v>334209.63978846296</v>
       </c>
       <c r="CM103" s="3">
         <f t="shared" si="154"/>
-        <v>328698.94700772804</v>
+        <v>337551.73618634761</v>
       </c>
       <c r="CN103" s="3">
         <f t="shared" si="154"/>
-        <v>331985.93647780531</v>
+        <v>340927.25354821107</v>
       </c>
       <c r="CO103" s="3">
         <f t="shared" si="154"/>
-        <v>335305.79584258335</v>
+        <v>344336.5260836932</v>
       </c>
       <c r="CP103" s="3">
         <f t="shared" si="154"/>
-        <v>338658.85380100919</v>
+        <v>347779.89134453016</v>
       </c>
       <c r="CQ103" s="3">
         <f t="shared" si="154"/>
-        <v>342045.44233901927</v>
+        <v>351257.69025797548</v>
       </c>
       <c r="CR103" s="3">
         <f t="shared" si="154"/>
-        <v>345465.89676240948</v>
+        <v>354770.26716055523</v>
       </c>
       <c r="CS103" s="3">
         <f t="shared" si="154"/>
-        <v>348920.55573003355</v>
+        <v>358317.9698321608</v>
       </c>
       <c r="CT103" s="3">
         <f t="shared" si="154"/>
-        <v>352409.76128733391</v>
+        <v>361901.14953048242</v>
       </c>
       <c r="CU103" s="3">
         <f t="shared" si="154"/>
-        <v>355933.85890020727</v>
+        <v>365520.16102578724</v>
       </c>
       <c r="CV103" s="3">
         <f t="shared" si="154"/>
-        <v>359493.19748920936</v>
+        <v>369175.36263604509</v>
       </c>
       <c r="CW103" s="3">
         <f t="shared" si="154"/>
-        <v>363088.12946410145</v>
+        <v>372867.11626240553</v>
       </c>
       <c r="CX103" s="3">
         <f t="shared" si="154"/>
-        <v>366719.01075874246</v>
+        <v>376595.78742502962</v>
       </c>
       <c r="CY103" s="3">
         <f t="shared" si="154"/>
-        <v>370386.20086632989</v>
+        <v>380361.74529927992</v>
       </c>
       <c r="CZ103" s="3">
         <f t="shared" si="154"/>
-        <v>374090.06287499319</v>
+        <v>384165.36275227275</v>
       </c>
       <c r="DA103" s="3">
         <f t="shared" si="154"/>
-        <v>377830.96350374311</v>
+        <v>388007.0163797955</v>
       </c>
       <c r="DB103" s="3">
         <f t="shared" si="154"/>
-        <v>381609.27313878055</v>
+        <v>391887.08654359344</v>
       </c>
       <c r="DC103" s="3">
         <f t="shared" si="154"/>
-        <v>385425.36587016837</v>
+        <v>395805.95740902936</v>
       </c>
       <c r="DD103" s="3">
         <f t="shared" si="154"/>
-        <v>389279.61952887004</v>
+        <v>399764.01698311965</v>
       </c>
       <c r="DE103" s="3">
         <f t="shared" si="154"/>
-        <v>393172.41572415875</v>
+        <v>403761.65715295088</v>
       </c>
       <c r="DF103" s="3">
         <f t="shared" si="154"/>
-        <v>397104.13988140033</v>
+        <v>407799.27372448042</v>
       </c>
       <c r="DG103" s="3">
         <f t="shared" si="154"/>
-        <v>401075.18128021434</v>
+        <v>411877.26646172523</v>
       </c>
       <c r="DH103" s="3">
         <f t="shared" si="154"/>
-        <v>405085.9330930165</v>
+        <v>415996.03912634251</v>
       </c>
       <c r="DI103" s="3">
         <f t="shared" si="154"/>
-        <v>409136.79242394667</v>
+        <v>420155.99951760593</v>
       </c>
       <c r="DJ103" s="3">
         <f t="shared" si="154"/>
-        <v>413228.16034818615</v>
+        <v>424357.55951278197</v>
       </c>
       <c r="DK103" s="3">
         <f t="shared" si="154"/>
-        <v>417360.44195166801</v>
+        <v>428601.13510790979</v>
       </c>
       <c r="DL103" s="3">
         <f t="shared" si="154"/>
-        <v>421534.0463711847</v>
+        <v>432887.14645898889</v>
       </c>
       <c r="DM103" s="3">
         <f t="shared" si="154"/>
-        <v>425749.38683489652</v>
+        <v>437216.01792357879</v>
       </c>
       <c r="DN103" s="3">
         <f t="shared" si="154"/>
-        <v>430006.88070324546</v>
+        <v>441588.17810281459</v>
       </c>
       <c r="DO103" s="3">
         <f t="shared" si="154"/>
-        <v>434306.94951027795</v>
+        <v>446004.05988384277</v>
       </c>
       <c r="DP103" s="3">
         <f t="shared" si="154"/>
-        <v>438650.01900538075</v>
+        <v>450464.10048268118</v>
       </c>
       <c r="DQ103" s="3">
         <f t="shared" si="154"/>
-        <v>443036.51919543458</v>
+        <v>454968.741487508</v>
       </c>
       <c r="DR103" s="3">
         <f t="shared" ref="DR103:EW103" si="155">DQ103*(1+$AB$97)</f>
-        <v>447466.88438738894</v>
+        <v>459518.42890238308</v>
       </c>
       <c r="DS103" s="3">
         <f t="shared" si="155"/>
-        <v>451941.55323126283</v>
+        <v>464113.61319140694</v>
       </c>
       <c r="DT103" s="3">
         <f t="shared" si="155"/>
-        <v>456460.96876357548</v>
+        <v>468754.74932332104</v>
       </c>
       <c r="DU103" s="3">
         <f t="shared" si="155"/>
-        <v>461025.57845121121</v>
+        <v>473442.29681655427</v>
       </c>
       <c r="DV103" s="3">
         <f t="shared" si="155"/>
-        <v>465635.83423572331</v>
+        <v>478176.71978471981</v>
       </c>
       <c r="DW103" s="3">
         <f t="shared" si="155"/>
-        <v>470292.19257808052</v>
+        <v>482958.486982567</v>
       </c>
       <c r="DX103" s="3">
         <f t="shared" si="155"/>
-        <v>474995.11450386135</v>
+        <v>487788.07185239269</v>
       </c>
       <c r="DY103" s="3">
         <f t="shared" si="155"/>
-        <v>479745.06564889994</v>
+        <v>492665.95257091662</v>
       </c>
       <c r="DZ103" s="3">
         <f t="shared" si="155"/>
-        <v>484542.51630538894</v>
+        <v>497592.61209662579</v>
       </c>
       <c r="EA103" s="3">
         <f t="shared" si="155"/>
-        <v>489387.94146844285</v>
+        <v>502568.53821759205</v>
       </c>
       <c r="EB103" s="3">
         <f t="shared" si="155"/>
-        <v>494281.82088312728</v>
+        <v>507594.22359976795</v>
       </c>
       <c r="EC103" s="3">
         <f t="shared" si="155"/>
-        <v>499224.63909195858</v>
+        <v>512670.16583576566</v>
       </c>
       <c r="ED103" s="3">
         <f t="shared" si="155"/>
-        <v>504216.88548287819</v>
+        <v>517796.86749412329</v>
       </c>
       <c r="EE103" s="3">
         <f t="shared" si="155"/>
-        <v>509259.054337707</v>
+        <v>522974.83616906451</v>
       </c>
       <c r="EF103" s="3">
         <f t="shared" si="155"/>
-        <v>514351.6448810841</v>
+        <v>528204.58453075518</v>
       </c>
       <c r="EG103" s="3">
         <f t="shared" si="155"/>
-        <v>519495.16132989497</v>
+        <v>533486.63037606271</v>
       </c>
       <c r="EH103" s="3">
         <f t="shared" si="155"/>
-        <v>524690.11294319388</v>
+        <v>538821.49667982338</v>
       </c>
       <c r="EI103" s="3">
         <f t="shared" si="155"/>
-        <v>529937.01407262578</v>
+        <v>544209.71164662158</v>
       </c>
       <c r="EJ103" s="3">
         <f t="shared" si="155"/>
-        <v>535236.38421335199</v>
+        <v>549651.80876308784</v>
       </c>
       <c r="EK103" s="3">
         <f t="shared" si="155"/>
-        <v>540588.74805548554</v>
+        <v>555148.3268507187</v>
       </c>
       <c r="EL103" s="3">
         <f t="shared" si="155"/>
-        <v>545994.63553604041</v>
+        <v>560699.81011922588</v>
       </c>
       <c r="EM103" s="3">
         <f t="shared" si="155"/>
-        <v>551454.58189140086</v>
+        <v>566306.80822041817</v>
       </c>
       <c r="EN103" s="3">
         <f t="shared" si="155"/>
-        <v>556969.12771031482</v>
+        <v>571969.87630262238</v>
       </c>
       <c r="EO103" s="3">
         <f t="shared" si="155"/>
-        <v>562538.81898741797</v>
+        <v>577689.57506564865</v>
       </c>
       <c r="EP103" s="3">
         <f t="shared" si="155"/>
-        <v>568164.20717729221</v>
+        <v>583466.47081630514</v>
       </c>
       <c r="EQ103" s="3">
         <f t="shared" si="155"/>
-        <v>573845.84924906516</v>
+        <v>589301.13552446815</v>
       </c>
       <c r="ER103" s="3">
         <f t="shared" si="155"/>
-        <v>579584.30774155585</v>
+        <v>595194.14687971282</v>
       </c>
       <c r="ES103" s="3">
         <f t="shared" si="155"/>
-        <v>585380.15081897145</v>
+        <v>601146.08834850998</v>
       </c>
       <c r="ET103" s="3">
         <f t="shared" si="155"/>
-        <v>591233.95232716121</v>
+        <v>607157.54923199513</v>
       </c>
       <c r="EU103" s="3">
         <f t="shared" si="155"/>
-        <v>597146.29185043287</v>
+        <v>613229.12472431513</v>
       </c>
       <c r="EV103" s="3">
         <f t="shared" si="155"/>
-        <v>603117.75476893724</v>
+        <v>619361.41597155831</v>
       </c>
       <c r="EW103" s="3">
         <f t="shared" si="155"/>
-        <v>609148.93231662665</v>
+        <v>625555.0301312739</v>
       </c>
       <c r="EX103" s="3">
         <f t="shared" ref="EX103:FF103" si="156">EW103*(1+$AB$97)</f>
-        <v>615240.42163979297</v>
+        <v>631810.5804325866</v>
       </c>
       <c r="EY103" s="3">
         <f t="shared" si="156"/>
-        <v>621392.82585619087</v>
+        <v>638128.6862369125</v>
       </c>
       <c r="EZ103" s="3">
         <f t="shared" si="156"/>
-        <v>627606.75411475275</v>
+        <v>644509.97309928166</v>
       </c>
       <c r="FA103" s="3">
         <f t="shared" si="156"/>
-        <v>633882.82165590033</v>
+        <v>650955.07283027447</v>
       </c>
       <c r="FB103" s="3">
         <f t="shared" si="156"/>
-        <v>640221.64987245935</v>
+        <v>657464.62355857727</v>
       </c>
       <c r="FC103" s="3">
         <f t="shared" si="156"/>
-        <v>646623.86637118401</v>
+        <v>664039.26979416306</v>
       </c>
       <c r="FD103" s="3">
         <f t="shared" si="156"/>
-        <v>653090.10503489582</v>
+        <v>670679.66249210469</v>
       </c>
       <c r="FE103" s="3">
         <f t="shared" si="156"/>
-        <v>659621.00608524482</v>
+        <v>677386.45911702572</v>
       </c>
       <c r="FF103" s="3">
         <f t="shared" si="156"/>
-        <v>666217.21614609729</v>
+        <v>684160.32370819594</v>
       </c>
     </row>
     <row r="104" spans="1:162" x14ac:dyDescent="0.2">
@@ -8036,15 +8036,15 @@
       </c>
       <c r="W104" s="4">
         <f t="shared" si="157"/>
-        <v>0.59081132233119282</v>
+        <v>0.59883462973646351</v>
       </c>
       <c r="X104" s="4">
         <f t="shared" si="157"/>
-        <v>0.63913354624991037</v>
+        <v>0.65314643045935261</v>
       </c>
       <c r="Y104" s="4">
         <f t="shared" si="157"/>
-        <v>0.68168461584933981</v>
+        <v>0.7000443040849107</v>
       </c>
     </row>
     <row r="109" spans="1:162" x14ac:dyDescent="0.2">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59299146-B0FE-417C-8FED-A2F3BFEBE925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA606361-29A6-4BA3-8E20-5AA7F45139AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="750" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
   <si>
     <t>Price</t>
   </si>
@@ -495,24 +495,6 @@
   </si>
   <si>
     <t>"High CapEx . . . Higher depreciation"</t>
-  </si>
-  <si>
-    <t>Q1 ESTIMATES</t>
-  </si>
-  <si>
-    <t>Expected Move</t>
-  </si>
-  <si>
-    <t>Actual Move</t>
-  </si>
-  <si>
-    <t>No Change</t>
-  </si>
-  <si>
-    <t>5% incr</t>
-  </si>
-  <si>
-    <t>3% incr</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1075,7 +1057,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>175</v>
+        <v>180.19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1123,7 +1105,7 @@
       </c>
       <c r="N4" s="1">
         <f>N3*N2</f>
-        <v>2143750</v>
+        <v>2207327.5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1164,7 +1146,7 @@
       </c>
       <c r="N7" s="1">
         <f>N4+N6-N5</f>
-        <v>2058976</v>
+        <v>2122553.5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1210,10 +1192,10 @@
   <dimension ref="A1:HK109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W97" sqref="W97"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1419,15 +1401,9 @@
         <f>I7/I21</f>
         <v>-2.7952380952380951</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1450,15 +1426,8 @@
         <v>32826</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="O5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="6">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
       <c r="R5" s="4"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1497,15 +1466,9 @@
         <f>M3*M20</f>
         <v>7524.5695795200045</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1527,15 +1490,8 @@
       <c r="I7" s="1">
         <v>-1174</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="6">
-        <v>2.11</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="6"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1733,7 +1689,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="T12" s="1">
         <v>183323</v>
@@ -7328,7 +7284,7 @@
       </c>
       <c r="AB101" s="4">
         <f>AB100/Main!N2-1</f>
-        <v>4.8126135943253656E-2</v>
+        <v>1.793703196664298E-2</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.2">

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA606361-29A6-4BA3-8E20-5AA7F45139AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903B829-9835-4A2C-9882-9B5C7F3CF619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>Price</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>How will LLMs affect Google traffic and ad monetization?</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,7 +528,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -549,20 +569,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B77E1F6-E010-4C2A-A7A7-05E6849E9A4F}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,9 +1180,15 @@
       <c r="B10" s="11" t="s">
         <v>95</v>
       </c>
+      <c r="L10" s="14" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
+      <c r="L11" s="13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
@@ -1191,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
   <dimension ref="A1:HK109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903B829-9835-4A2C-9882-9B5C7F3CF619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E05895B-4413-44D0-8FE4-8E8DAE965011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="3120" yWindow="1635" windowWidth="19155" windowHeight="14565" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1078,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B77E1F6-E010-4C2A-A7A7-05E6849E9A4F}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1219,11 +1219,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
   <dimension ref="A1:HK109"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="AA89" sqref="AA89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1327,26 +1327,11 @@
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="Z1" s="2">
-        <f t="shared" ref="Z1" si="1">Y1+1</f>
-        <v>2030</v>
-      </c>
-      <c r="AA1" s="2">
-        <f t="shared" ref="AA1" si="2">Z1+1</f>
-        <v>2031</v>
-      </c>
-      <c r="AB1" s="2">
-        <f t="shared" ref="AB1" si="3">AA1+1</f>
-        <v>2032</v>
-      </c>
-      <c r="AC1" s="2">
-        <f t="shared" ref="AC1" si="4">AB1+1</f>
-        <v>2033</v>
-      </c>
-      <c r="AD1" s="2">
-        <f t="shared" ref="AD1" si="5">AC1+1</f>
-        <v>2034</v>
-      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1619,19 +1604,19 @@
         <v>0.27</v>
       </c>
       <c r="V10" s="8">
-        <f t="shared" ref="V10:Y10" si="6">U10*0.98</f>
+        <f t="shared" ref="V10:Y10" si="1">U10*0.98</f>
         <v>0.2646</v>
       </c>
       <c r="W10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.25930799999999998</v>
       </c>
       <c r="X10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.25412183999999999</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.24903940319999998</v>
       </c>
     </row>
@@ -1672,19 +1657,19 @@
         <v>59354.516037038411</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" ref="V11:Y11" si="7">V10*V15</f>
+        <f t="shared" ref="V11:Y11" si="2">V10*V15</f>
         <v>64565.842545090381</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>70234.72352054932</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>76401.332245653553</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>83109.369216821942</v>
       </c>
     </row>
@@ -1733,69 +1718,69 @@
         <v>107</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ref="B13:J13" si="8">B20+B16</f>
+        <f t="shared" ref="B13:J13" si="3">B20+B16</f>
         <v>14147</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>15696</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>16363</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>18392</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>17664</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>19010</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>20274</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>22428</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>23024.760000000002</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" ref="K13:M13" si="9">K20+K16</f>
+        <f t="shared" ref="K13:M13" si="4">K20+K16</f>
         <v>25980.434400000006</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>29317.768176000005</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>33086.337435840003</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:S13" si="10">R16+R20</f>
+        <f t="shared" ref="R13:S13" si="5">R16+R20</f>
         <v>55523</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>64598</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" ref="T13:U13" si="11">T16+T20</f>
+        <f t="shared" ref="T13:U13" si="6">T16+T20</f>
         <v>79376</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>111409.30001184001</v>
       </c>
       <c r="V13" s="1">
@@ -1877,11 +1862,11 @@
         <v>53266.717200000006</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ref="L15:M15" si="12">K15*1.06</f>
+        <f t="shared" ref="L15:M15" si="7">K15*1.06</f>
         <v>56462.720232000007</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>59850.483445920014</v>
       </c>
       <c r="O15" s="1">
@@ -1911,15 +1896,15 @@
         <v>244013.01037449125</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" ref="W15:Y15" si="13">V15*1.11</f>
+        <f t="shared" ref="W15:Y15" si="8">V15*1.11</f>
         <v>270854.44151568529</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>300648.43008241069</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>333719.7573914759</v>
       </c>
     </row>
@@ -1960,11 +1945,11 @@
         <v>10984.082399999999</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16:M16" si="14">K16*1.14</f>
+        <f t="shared" ref="L16:M16" si="9">K16*1.14</f>
         <v>12521.853935999998</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>14274.913487039996</v>
       </c>
       <c r="N16" s="4"/>
@@ -1988,15 +1973,15 @@
         <v>53105.931001804791</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16:Y16" si="15">V16*1.12</f>
+        <f t="shared" ref="W16:Y16" si="10">V16*1.12</f>
         <v>59478.642722021374</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>66616.07984866394</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>74610.009430503618</v>
       </c>
     </row>
@@ -2037,11 +2022,11 @@
         <v>7464.0336000000007</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" ref="L17:M17" si="16">K17*1.02</f>
+        <f t="shared" ref="L17:M17" si="11">K17*1.02</f>
         <v>7613.3142720000005</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>7765.580557440001</v>
       </c>
       <c r="N17" s="4"/>
@@ -2065,15 +2050,15 @@
         <v>30462.214513734401</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17:Y17" si="17">V17*1.01</f>
+        <f t="shared" ref="W17:Y17" si="12">V17*1.01</f>
         <v>30766.836658871747</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>31074.505025460465</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>31385.25007571507</v>
       </c>
     </row>
@@ -2114,11 +2099,11 @@
         <v>11023.4308</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:M18" si="18">K18*1.03</f>
+        <f t="shared" ref="L18:M18" si="13">K18*1.03</f>
         <v>11354.133724000001</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>11694.757735720001</v>
       </c>
       <c r="P18" s="2"/>
@@ -2141,15 +2126,15 @@
         <v>50147.644130886409</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18:Y18" si="19">V18*1.12</f>
+        <f t="shared" ref="W18:Y18" si="14">V18*1.12</f>
         <v>56165.361426592783</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>62905.204797783925</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>70453.829373518005</v>
       </c>
     </row>
@@ -2162,91 +2147,91 @@
         <v>61961</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:O19" si="20">SUM(C15:C18)</f>
+        <f t="shared" ref="C19:O19" si="15">SUM(C15:C18)</f>
         <v>66285</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>67986</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>76311</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>70398</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>73928</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>76510</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>84094</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>77906.819999999992</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>82738.26400000001</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>87952.022164000009</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>93585.735226120014</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>161857</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ref="P19" si="21">SUM(P15:P18)</f>
+        <f t="shared" ref="P19" si="16">SUM(P15:P18)</f>
         <v>182527</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" ref="Q19" si="22">SUM(Q15:Q18)</f>
+        <f t="shared" ref="Q19" si="17">SUM(Q15:Q18)</f>
         <v>257637</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" ref="R19" si="23">SUM(R15:R18)</f>
+        <f t="shared" ref="R19" si="18">SUM(R15:R18)</f>
         <v>253528</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" ref="S19" si="24">SUM(S15:S18)</f>
+        <f t="shared" ref="S19" si="19">SUM(S15:S18)</f>
         <v>272543</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" ref="T19" si="25">SUM(T15:T18)</f>
+        <f t="shared" ref="T19" si="20">SUM(T15:T18)</f>
         <v>304930</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" ref="U19" si="26">SUM(U15:U18)</f>
+        <f t="shared" ref="U19" si="21">SUM(U15:U18)</f>
         <v>342182.84139011998</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19" si="27">SUM(V15:V18)</f>
+        <f t="shared" ref="V19" si="22">SUM(V15:V18)</f>
         <v>377728.80002091685</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" ref="W19" si="28">SUM(W15:W18)</f>
+        <f t="shared" ref="W19" si="23">SUM(W15:W18)</f>
         <v>417265.28232317121</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" ref="X19" si="29">SUM(X15:X18)</f>
+        <f t="shared" ref="X19" si="24">SUM(X15:X18)</f>
         <v>461244.219754319</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19" si="30">SUM(Y15:Y18)</f>
+        <f t="shared" ref="Y19" si="25">SUM(Y15:Y18)</f>
         <v>510168.84627121262</v>
       </c>
     </row>
@@ -2283,15 +2268,15 @@
         <v>13389.600000000002</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:M20" si="31">J20*1.12</f>
+        <f t="shared" ref="K20:M20" si="26">J20*1.12</f>
         <v>14996.352000000004</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>16795.914240000006</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>18811.423948800009</v>
       </c>
       <c r="N20" s="4"/>
@@ -2315,15 +2300,15 @@
         <v>76791.948226560024</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20:Y20" si="32">V20*1.2</f>
+        <f t="shared" ref="W20:Y20" si="27">V20*1.2</f>
         <v>92150.33787187202</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>110580.40544624643</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>132696.4865354957</v>
       </c>
     </row>
@@ -2372,11 +2357,11 @@
         <v>398.41200000000003</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" ref="L21:M21" si="33">K21*1.02</f>
+        <f t="shared" ref="L21:M21" si="28">K21*1.02</f>
         <v>406.38024000000001</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>414.50784480000004</v>
       </c>
       <c r="P21" s="2"/>
@@ -2402,15 +2387,15 @@
         <v>1690.3950890400001</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ref="W21:Y21" si="34">V21*1.05</f>
+        <f t="shared" ref="W21:Y21" si="29">V21*1.05</f>
         <v>1774.9148434920003</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>1863.6605856666004</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>1956.8436149499305</v>
       </c>
     </row>
@@ -2423,31 +2408,31 @@
         <v>69787</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:Y22" si="35">SUM(C19:C21)</f>
+        <f t="shared" ref="C22:Y22" si="30">SUM(C19:C21)</f>
         <v>74604</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>76693</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>86310</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>80539</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>84742</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>88268</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>96469</v>
       </c>
       <c r="J22" s="3">
@@ -2455,39 +2440,39 @@
         <v>91687.02</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" ref="K22:M22" si="36">SUM(K19:K21)</f>
+        <f t="shared" ref="K22:M22" si="31">SUM(K19:K21)</f>
         <v>98133.028000000006</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>105154.31664400001</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>112811.66701972003</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>161857</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>182527</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>257637</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>282836</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>307394</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>350018</v>
       </c>
       <c r="U22" s="3">
@@ -2495,19 +2480,19 @@
         <v>407786.03166372003</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>456211.14333651686</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>511190.53503853519</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>573688.2857862321</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>644822.17642165825</v>
       </c>
     </row>
@@ -2544,15 +2529,15 @@
         <v>38508.548400000007</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ref="K23:M23" si="37">K22*(1-K43)</f>
+        <f t="shared" ref="K23:M23" si="32">K22*(1-K43)</f>
         <v>41215.871760000009</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>44164.812990480008</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>47380.900148282417</v>
       </c>
       <c r="O23" s="1">
@@ -2603,47 +2588,47 @@
         <v>39175</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:M24" si="38">C22-C23</f>
+        <f t="shared" ref="C24:M24" si="33">C22-C23</f>
         <v>42688</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>43464</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>48735</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>46827</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>49235</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>51794</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>55856</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>53178.471599999997</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>56917.156239999997</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>60989.503653519998</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>65430.766871437612</v>
       </c>
       <c r="O24" s="1">
@@ -2659,15 +2644,15 @@
         <v>146698</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:T24" si="39">R22-R23</f>
+        <f t="shared" ref="R24:T24" si="34">R22-R23</f>
         <v>156633</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>174062</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>203716</v>
       </c>
       <c r="U24" s="1">
@@ -2724,15 +2709,15 @@
         <v>12465.838293337758</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:M25" si="40">J25*(1+K39)</f>
+        <f t="shared" ref="K25:M25" si="35">J25*(1+K39)</f>
         <v>13342.24253644176</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>14296.862381725779</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>15337.961672979383</v>
       </c>
       <c r="O25" s="1">
@@ -2758,19 +2743,19 @@
         <v>57466.912552624875</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" ref="V25:Y25" si="41">U25*(1+V38)</f>
+        <f t="shared" ref="V25:Y25" si="36">U25*(1+V38)</f>
         <v>64291.181756986873</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>72039.107506787623</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>80846.551847881216</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>90871.037130018231</v>
       </c>
     </row>
@@ -2807,15 +2792,15 @@
         <v>6998.0151992868186</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ref="K26:M26" si="42">J26*(1+K39)</f>
+        <f t="shared" ref="K26:M26" si="37">J26*(1+K39)</f>
         <v>7490.0069987664438</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>8025.9071147184286</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>8610.3546659154617</v>
       </c>
       <c r="O26" s="1">
@@ -2841,19 +2826,19 @@
         <v>29198.400000000001</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" ref="V26:Y26" si="43">U26*1.05</f>
+        <f t="shared" ref="V26:Y26" si="38">U26*1.05</f>
         <v>30658.320000000003</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>32191.236000000004</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>33800.797800000008</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>35490.837690000008</v>
       </c>
     </row>
@@ -2890,15 +2875,15 @@
         <v>4186.643617120526</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ref="K27:M27" si="44">J27*(1+K39)</f>
+        <f t="shared" ref="K27:M27" si="39">J27*(1+K39)</f>
         <v>4480.983407519514</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>4801.5918566256523</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>5151.2443709571653</v>
       </c>
       <c r="O27" s="1">
@@ -2925,19 +2910,19 @@
         <v>14471.76</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" ref="V27:Y27" si="45">U27*1.02</f>
+        <f t="shared" ref="V27:Y27" si="40">U27*1.02</f>
         <v>14761.1952</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>15056.419104000001</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>15357.54748608</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>15664.698435801602</v>
       </c>
     </row>
@@ -2950,91 +2935,91 @@
         <v>21760</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:K28" si="46">SUM(C25:C27)</f>
+        <f t="shared" ref="C28:K28" si="41">SUM(C25:C27)</f>
         <v>20850</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>22121</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>25038</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>21355</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>21810</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>23273</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>24884</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>23650.497109745105</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>25313.232942727718</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:M28" si="47">SUM(L25:L27)</f>
+        <f t="shared" ref="L28:M28" si="42">SUM(L25:L27)</f>
         <v>27124.36135306986</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>29099.560709852012</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" ref="O28:Y28" si="48">SUM(O25:O27)</f>
+        <f t="shared" ref="O28:Y28" si="43">SUM(O25:O27)</f>
         <v>55730</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>56571</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>67984</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>81791</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>89589</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>91322</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>101137.07255262487</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>109710.69695698688</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>119286.76261078763</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>130004.89713396123</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>142026.57325581985</v>
       </c>
     </row>
@@ -3047,91 +3032,91 @@
         <v>17415</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:K29" si="49">C24-C28</f>
+        <f t="shared" ref="C29:K29" si="44">C24-C28</f>
         <v>21838</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>21343</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>23697</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>25472</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>27425</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>28521</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>30972</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>29527.974490254892</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>31603.923297272278</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" ref="L29:M29" si="50">L24-L28</f>
+        <f t="shared" ref="L29:M29" si="45">L24-L28</f>
         <v>33865.142300450141</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>36331.2061615856</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" ref="O29:Y29" si="51">O24-O28</f>
+        <f t="shared" ref="O29:Y29" si="46">O24-O28</f>
         <v>34231</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>41224</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>78714</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>74842</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>84473</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>112394</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>135378.82581233274</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>161148.38232575942</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>187249.37899332808</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>217448.24092362341</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>252414.01265151321</v>
       </c>
     </row>
@@ -3217,15 +3202,15 @@
         <v>1616</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31:Y31" si="52">V31*1.01</f>
+        <f t="shared" ref="W31:Y31" si="47">V31*1.01</f>
         <v>1632.16</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>1648.4816000000001</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>1664.966416</v>
       </c>
     </row>
@@ -3238,92 +3223,92 @@
         <v>18205</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32:K32" si="53">C29+SUM(C30:C31)</f>
+        <f t="shared" ref="C32:K32" si="48">C29+SUM(C30:C31)</f>
         <v>21903</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>21197</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>24412</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>28315</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>27551</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>31706</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>32243</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>30951.844490254891</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>31603.923297272278</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" ref="L32:M32" si="54">L29+SUM(L30:L31)</f>
+        <f t="shared" ref="L32:M32" si="49">L29+SUM(L30:L31)</f>
         <v>33865.142300450141</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>36331.2061615856</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="1">
-        <f t="shared" ref="O32:T32" si="55">SUM(O29:O31)</f>
+        <f t="shared" ref="O32:T32" si="50">SUM(O29:O31)</f>
         <v>39625</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>48082</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>78714</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>74842</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>85897</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>119819</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" ref="U32:Y32" si="56">SUM(U29:U31)</f>
+        <f t="shared" ref="U32:Y32" si="51">SUM(U29:U31)</f>
         <v>138674.30581233275</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>166706.3860799192</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>195524.18620198258</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>228906.86154875002</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>267597.40924972954</v>
       </c>
     </row>
@@ -3419,867 +3404,867 @@
         <v>15051</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:K34" si="57">C32-C33</f>
+        <f t="shared" ref="C34:K34" si="52">C32-C33</f>
         <v>18368</v>
       </c>
       <c r="D34" s="3">
+        <f t="shared" si="52"/>
+        <v>19689</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="52"/>
+        <v>20687</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="52"/>
+        <v>23662</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="52"/>
+        <v>23619</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="52"/>
+        <v>26301</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="52"/>
+        <v>26536</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="52"/>
+        <v>25070.994037106462</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="52"/>
+        <v>25599.177870790547</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" ref="L34:M34" si="53">L32-L33</f>
+        <v>27430.765263364614</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="53"/>
+        <v>29428.276990884337</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34:T34" si="54">O32-O33</f>
+        <v>34343</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="54"/>
+        <v>40269</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="54"/>
+        <v>64013</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="54"/>
+        <v>63486</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="54"/>
+        <v>73975</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="54"/>
+        <v>100122</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" ref="U34:Y34" si="55">U32-U33</f>
+        <v>112326.18770798953</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" si="55"/>
+        <v>135032.17272473456</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" si="55"/>
+        <v>158374.59082360589</v>
+      </c>
+      <c r="X34" s="3">
+        <f t="shared" si="55"/>
+        <v>185414.5578544875</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="55"/>
+        <v>216753.90149228091</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" ref="Z34:BE34" si="56">Y34*(1+$AB$97)</f>
+        <v>218921.44050720372</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" si="56"/>
+        <v>221110.65491227576</v>
+      </c>
+      <c r="AB34" s="3">
+        <f t="shared" si="56"/>
+        <v>223321.76146139851</v>
+      </c>
+      <c r="AC34" s="3">
+        <f t="shared" si="56"/>
+        <v>225554.9790760125</v>
+      </c>
+      <c r="AD34" s="3">
+        <f t="shared" si="56"/>
+        <v>227810.52886677263</v>
+      </c>
+      <c r="AE34" s="3">
+        <f t="shared" si="56"/>
+        <v>230088.63415544035</v>
+      </c>
+      <c r="AF34" s="3">
+        <f t="shared" si="56"/>
+        <v>232389.52049699475</v>
+      </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="56"/>
+        <v>234713.4157019647</v>
+      </c>
+      <c r="AH34" s="3">
+        <f t="shared" si="56"/>
+        <v>237060.54985898433</v>
+      </c>
+      <c r="AI34" s="3">
+        <f t="shared" si="56"/>
+        <v>239431.15535757417</v>
+      </c>
+      <c r="AJ34" s="3">
+        <f t="shared" si="56"/>
+        <v>241825.46691114991</v>
+      </c>
+      <c r="AK34" s="3">
+        <f t="shared" si="56"/>
+        <v>244243.72158026142</v>
+      </c>
+      <c r="AL34" s="3">
+        <f t="shared" si="56"/>
+        <v>246686.15879606403</v>
+      </c>
+      <c r="AM34" s="3">
+        <f t="shared" si="56"/>
+        <v>249153.02038402468</v>
+      </c>
+      <c r="AN34" s="3">
+        <f t="shared" si="56"/>
+        <v>251644.55058786494</v>
+      </c>
+      <c r="AO34" s="3">
+        <f t="shared" si="56"/>
+        <v>254160.9960937436</v>
+      </c>
+      <c r="AP34" s="3">
+        <f t="shared" si="56"/>
+        <v>256702.60605468103</v>
+      </c>
+      <c r="AQ34" s="3">
+        <f t="shared" si="56"/>
+        <v>259269.63211522784</v>
+      </c>
+      <c r="AR34" s="3">
+        <f t="shared" si="56"/>
+        <v>261862.32843638011</v>
+      </c>
+      <c r="AS34" s="3">
+        <f t="shared" si="56"/>
+        <v>264480.95172074391</v>
+      </c>
+      <c r="AT34" s="3">
+        <f t="shared" si="56"/>
+        <v>267125.76123795134</v>
+      </c>
+      <c r="AU34" s="3">
+        <f t="shared" si="56"/>
+        <v>269797.01885033085</v>
+      </c>
+      <c r="AV34" s="3">
+        <f t="shared" si="56"/>
+        <v>272494.98903883417</v>
+      </c>
+      <c r="AW34" s="3">
+        <f t="shared" si="56"/>
+        <v>275219.93892922252</v>
+      </c>
+      <c r="AX34" s="3">
+        <f t="shared" si="56"/>
+        <v>277972.13831851474</v>
+      </c>
+      <c r="AY34" s="3">
+        <f t="shared" si="56"/>
+        <v>280751.85970169987</v>
+      </c>
+      <c r="AZ34" s="3">
+        <f t="shared" si="56"/>
+        <v>283559.37829871685</v>
+      </c>
+      <c r="BA34" s="3">
+        <f t="shared" si="56"/>
+        <v>286394.97208170401</v>
+      </c>
+      <c r="BB34" s="3">
+        <f t="shared" si="56"/>
+        <v>289258.92180252104</v>
+      </c>
+      <c r="BC34" s="3">
+        <f t="shared" si="56"/>
+        <v>292151.51102054626</v>
+      </c>
+      <c r="BD34" s="3">
+        <f t="shared" si="56"/>
+        <v>295073.02613075171</v>
+      </c>
+      <c r="BE34" s="3">
+        <f t="shared" si="56"/>
+        <v>298023.75639205921</v>
+      </c>
+      <c r="BF34" s="3">
+        <f t="shared" ref="BF34:CK34" si="57">BE34*(1+$AB$97)</f>
+        <v>301003.99395597982</v>
+      </c>
+      <c r="BG34" s="3">
         <f t="shared" si="57"/>
-        <v>19689</v>
-      </c>
-      <c r="E34" s="3">
+        <v>304014.03389553964</v>
+      </c>
+      <c r="BH34" s="3">
         <f t="shared" si="57"/>
-        <v>20687</v>
-      </c>
-      <c r="F34" s="3">
+        <v>307054.17423449503</v>
+      </c>
+      <c r="BI34" s="3">
         <f t="shared" si="57"/>
-        <v>23662</v>
-      </c>
-      <c r="G34" s="3">
+        <v>310124.71597684</v>
+      </c>
+      <c r="BJ34" s="3">
         <f t="shared" si="57"/>
-        <v>23619</v>
-      </c>
-      <c r="H34" s="3">
+        <v>313225.96313660842</v>
+      </c>
+      <c r="BK34" s="3">
         <f t="shared" si="57"/>
-        <v>26301</v>
-      </c>
-      <c r="I34" s="3">
+        <v>316358.22276797448</v>
+      </c>
+      <c r="BL34" s="3">
         <f t="shared" si="57"/>
-        <v>26536</v>
-      </c>
-      <c r="J34" s="3">
+        <v>319521.80499565421</v>
+      </c>
+      <c r="BM34" s="3">
         <f t="shared" si="57"/>
-        <v>25070.994037106462</v>
-      </c>
-      <c r="K34" s="3">
+        <v>322717.02304561075</v>
+      </c>
+      <c r="BN34" s="3">
         <f t="shared" si="57"/>
-        <v>25599.177870790547</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" ref="L34:M34" si="58">L32-L33</f>
-        <v>27430.765263364614</v>
-      </c>
-      <c r="M34" s="3">
+        <v>325944.19327606686</v>
+      </c>
+      <c r="BO34" s="3">
+        <f t="shared" si="57"/>
+        <v>329203.6352088275</v>
+      </c>
+      <c r="BP34" s="3">
+        <f t="shared" si="57"/>
+        <v>332495.67156091577</v>
+      </c>
+      <c r="BQ34" s="3">
+        <f t="shared" si="57"/>
+        <v>335820.62827652495</v>
+      </c>
+      <c r="BR34" s="3">
+        <f t="shared" si="57"/>
+        <v>339178.8345592902</v>
+      </c>
+      <c r="BS34" s="3">
+        <f t="shared" si="57"/>
+        <v>342570.62290488312</v>
+      </c>
+      <c r="BT34" s="3">
+        <f t="shared" si="57"/>
+        <v>345996.32913393195</v>
+      </c>
+      <c r="BU34" s="3">
+        <f t="shared" si="57"/>
+        <v>349456.2924252713</v>
+      </c>
+      <c r="BV34" s="3">
+        <f t="shared" si="57"/>
+        <v>352950.855349524</v>
+      </c>
+      <c r="BW34" s="3">
+        <f t="shared" si="57"/>
+        <v>356480.36390301923</v>
+      </c>
+      <c r="BX34" s="3">
+        <f t="shared" si="57"/>
+        <v>360045.16754204943</v>
+      </c>
+      <c r="BY34" s="3">
+        <f t="shared" si="57"/>
+        <v>363645.61921746994</v>
+      </c>
+      <c r="BZ34" s="3">
+        <f t="shared" si="57"/>
+        <v>367282.07540964463</v>
+      </c>
+      <c r="CA34" s="3">
+        <f t="shared" si="57"/>
+        <v>370954.89616374107</v>
+      </c>
+      <c r="CB34" s="3">
+        <f t="shared" si="57"/>
+        <v>374664.44512537849</v>
+      </c>
+      <c r="CC34" s="3">
+        <f t="shared" si="57"/>
+        <v>378411.08957663231</v>
+      </c>
+      <c r="CD34" s="3">
+        <f t="shared" si="57"/>
+        <v>382195.20047239866</v>
+      </c>
+      <c r="CE34" s="3">
+        <f t="shared" si="57"/>
+        <v>386017.15247712267</v>
+      </c>
+      <c r="CF34" s="3">
+        <f t="shared" si="57"/>
+        <v>389877.32400189393</v>
+      </c>
+      <c r="CG34" s="3">
+        <f t="shared" si="57"/>
+        <v>393776.09724191285</v>
+      </c>
+      <c r="CH34" s="3">
+        <f t="shared" si="57"/>
+        <v>397713.85821433197</v>
+      </c>
+      <c r="CI34" s="3">
+        <f t="shared" si="57"/>
+        <v>401690.99679647532</v>
+      </c>
+      <c r="CJ34" s="3">
+        <f t="shared" si="57"/>
+        <v>405707.90676444006</v>
+      </c>
+      <c r="CK34" s="3">
+        <f t="shared" si="57"/>
+        <v>409764.98583208449</v>
+      </c>
+      <c r="CL34" s="3">
+        <f t="shared" ref="CL34:DQ34" si="58">CK34*(1+$AB$97)</f>
+        <v>413862.63569040532</v>
+      </c>
+      <c r="CM34" s="3">
         <f t="shared" si="58"/>
-        <v>29428.276990884337</v>
-      </c>
-      <c r="O34" s="3">
-        <f t="shared" ref="O34:T34" si="59">O32-O33</f>
-        <v>34343</v>
-      </c>
-      <c r="P34" s="3">
+        <v>418001.26204730937</v>
+      </c>
+      <c r="CN34" s="3">
+        <f t="shared" si="58"/>
+        <v>422181.27466778248</v>
+      </c>
+      <c r="CO34" s="3">
+        <f t="shared" si="58"/>
+        <v>426403.08741446031</v>
+      </c>
+      <c r="CP34" s="3">
+        <f t="shared" si="58"/>
+        <v>430667.11828860495</v>
+      </c>
+      <c r="CQ34" s="3">
+        <f t="shared" si="58"/>
+        <v>434973.78947149101</v>
+      </c>
+      <c r="CR34" s="3">
+        <f t="shared" si="58"/>
+        <v>439323.52736620593</v>
+      </c>
+      <c r="CS34" s="3">
+        <f t="shared" si="58"/>
+        <v>443716.76263986801</v>
+      </c>
+      <c r="CT34" s="3">
+        <f t="shared" si="58"/>
+        <v>448153.93026626669</v>
+      </c>
+      <c r="CU34" s="3">
+        <f t="shared" si="58"/>
+        <v>452635.46956892934</v>
+      </c>
+      <c r="CV34" s="3">
+        <f t="shared" si="58"/>
+        <v>457161.82426461863</v>
+      </c>
+      <c r="CW34" s="3">
+        <f t="shared" si="58"/>
+        <v>461733.44250726484</v>
+      </c>
+      <c r="CX34" s="3">
+        <f t="shared" si="58"/>
+        <v>466350.7769323375</v>
+      </c>
+      <c r="CY34" s="3">
+        <f t="shared" si="58"/>
+        <v>471014.28470166086</v>
+      </c>
+      <c r="CZ34" s="3">
+        <f t="shared" si="58"/>
+        <v>475724.42754867749</v>
+      </c>
+      <c r="DA34" s="3">
+        <f t="shared" si="58"/>
+        <v>480481.67182416428</v>
+      </c>
+      <c r="DB34" s="3">
+        <f t="shared" si="58"/>
+        <v>485286.48854240595</v>
+      </c>
+      <c r="DC34" s="3">
+        <f t="shared" si="58"/>
+        <v>490139.35342783004</v>
+      </c>
+      <c r="DD34" s="3">
+        <f t="shared" si="58"/>
+        <v>495040.74696210836</v>
+      </c>
+      <c r="DE34" s="3">
+        <f t="shared" si="58"/>
+        <v>499991.15443172946</v>
+      </c>
+      <c r="DF34" s="3">
+        <f t="shared" si="58"/>
+        <v>504991.06597604678</v>
+      </c>
+      <c r="DG34" s="3">
+        <f t="shared" si="58"/>
+        <v>510040.97663580725</v>
+      </c>
+      <c r="DH34" s="3">
+        <f t="shared" si="58"/>
+        <v>515141.38640216534</v>
+      </c>
+      <c r="DI34" s="3">
+        <f t="shared" si="58"/>
+        <v>520292.800266187</v>
+      </c>
+      <c r="DJ34" s="3">
+        <f t="shared" si="58"/>
+        <v>525495.72826884885</v>
+      </c>
+      <c r="DK34" s="3">
+        <f t="shared" si="58"/>
+        <v>530750.68555153732</v>
+      </c>
+      <c r="DL34" s="3">
+        <f t="shared" si="58"/>
+        <v>536058.19240705273</v>
+      </c>
+      <c r="DM34" s="3">
+        <f t="shared" si="58"/>
+        <v>541418.77433112322</v>
+      </c>
+      <c r="DN34" s="3">
+        <f t="shared" si="58"/>
+        <v>546832.9620744345</v>
+      </c>
+      <c r="DO34" s="3">
+        <f t="shared" si="58"/>
+        <v>552301.29169517884</v>
+      </c>
+      <c r="DP34" s="3">
+        <f t="shared" si="58"/>
+        <v>557824.30461213063</v>
+      </c>
+      <c r="DQ34" s="3">
+        <f t="shared" si="58"/>
+        <v>563402.54765825195</v>
+      </c>
+      <c r="DR34" s="3">
+        <f t="shared" ref="DR34:EW34" si="59">DQ34*(1+$AB$97)</f>
+        <v>569036.57313483453</v>
+      </c>
+      <c r="DS34" s="3">
         <f t="shared" si="59"/>
-        <v>40269</v>
-      </c>
-      <c r="Q34" s="3">
+        <v>574726.93886618293</v>
+      </c>
+      <c r="DT34" s="3">
         <f t="shared" si="59"/>
-        <v>64013</v>
-      </c>
-      <c r="R34" s="3">
+        <v>580474.20825484477</v>
+      </c>
+      <c r="DU34" s="3">
         <f t="shared" si="59"/>
-        <v>63486</v>
-      </c>
-      <c r="S34" s="3">
+        <v>586278.95033739321</v>
+      </c>
+      <c r="DV34" s="3">
         <f t="shared" si="59"/>
-        <v>73975</v>
-      </c>
-      <c r="T34" s="3">
+        <v>592141.73984076711</v>
+      </c>
+      <c r="DW34" s="3">
         <f t="shared" si="59"/>
-        <v>100122</v>
-      </c>
-      <c r="U34" s="3">
-        <f t="shared" ref="U34:Y34" si="60">U32-U33</f>
-        <v>112326.18770798953</v>
-      </c>
-      <c r="V34" s="3">
+        <v>598063.15723917482</v>
+      </c>
+      <c r="DX34" s="3">
+        <f t="shared" si="59"/>
+        <v>604043.78881156654</v>
+      </c>
+      <c r="DY34" s="3">
+        <f t="shared" si="59"/>
+        <v>610084.22669968219</v>
+      </c>
+      <c r="DZ34" s="3">
+        <f t="shared" si="59"/>
+        <v>616185.06896667904</v>
+      </c>
+      <c r="EA34" s="3">
+        <f t="shared" si="59"/>
+        <v>622346.91965634585</v>
+      </c>
+      <c r="EB34" s="3">
+        <f t="shared" si="59"/>
+        <v>628570.38885290932</v>
+      </c>
+      <c r="EC34" s="3">
+        <f t="shared" si="59"/>
+        <v>634856.09274143842</v>
+      </c>
+      <c r="ED34" s="3">
+        <f t="shared" si="59"/>
+        <v>641204.65366885276</v>
+      </c>
+      <c r="EE34" s="3">
+        <f t="shared" si="59"/>
+        <v>647616.70020554133</v>
+      </c>
+      <c r="EF34" s="3">
+        <f t="shared" si="59"/>
+        <v>654092.86720759678</v>
+      </c>
+      <c r="EG34" s="3">
+        <f t="shared" si="59"/>
+        <v>660633.79587967275</v>
+      </c>
+      <c r="EH34" s="3">
+        <f t="shared" si="59"/>
+        <v>667240.13383846951</v>
+      </c>
+      <c r="EI34" s="3">
+        <f t="shared" si="59"/>
+        <v>673912.53517685423</v>
+      </c>
+      <c r="EJ34" s="3">
+        <f t="shared" si="59"/>
+        <v>680651.6605286228</v>
+      </c>
+      <c r="EK34" s="3">
+        <f t="shared" si="59"/>
+        <v>687458.17713390908</v>
+      </c>
+      <c r="EL34" s="3">
+        <f t="shared" si="59"/>
+        <v>694332.75890524813</v>
+      </c>
+      <c r="EM34" s="3">
+        <f t="shared" si="59"/>
+        <v>701276.08649430063</v>
+      </c>
+      <c r="EN34" s="3">
+        <f t="shared" si="59"/>
+        <v>708288.84735924366</v>
+      </c>
+      <c r="EO34" s="3">
+        <f t="shared" si="59"/>
+        <v>715371.73583283613</v>
+      </c>
+      <c r="EP34" s="3">
+        <f t="shared" si="59"/>
+        <v>722525.45319116453</v>
+      </c>
+      <c r="EQ34" s="3">
+        <f t="shared" si="59"/>
+        <v>729750.70772307622</v>
+      </c>
+      <c r="ER34" s="3">
+        <f t="shared" si="59"/>
+        <v>737048.21480030695</v>
+      </c>
+      <c r="ES34" s="3">
+        <f t="shared" si="59"/>
+        <v>744418.69694831001</v>
+      </c>
+      <c r="ET34" s="3">
+        <f t="shared" si="59"/>
+        <v>751862.88391779317</v>
+      </c>
+      <c r="EU34" s="3">
+        <f t="shared" si="59"/>
+        <v>759381.51275697106</v>
+      </c>
+      <c r="EV34" s="3">
+        <f t="shared" si="59"/>
+        <v>766975.32788454078</v>
+      </c>
+      <c r="EW34" s="3">
+        <f t="shared" si="59"/>
+        <v>774645.08116338623</v>
+      </c>
+      <c r="EX34" s="3">
+        <f t="shared" ref="EX34:GC34" si="60">EW34*(1+$AB$97)</f>
+        <v>782391.53197502007</v>
+      </c>
+      <c r="EY34" s="3">
         <f t="shared" si="60"/>
-        <v>135032.17272473456</v>
-      </c>
-      <c r="W34" s="3">
+        <v>790215.44729477027</v>
+      </c>
+      <c r="EZ34" s="3">
         <f t="shared" si="60"/>
-        <v>158374.59082360589</v>
-      </c>
-      <c r="X34" s="3">
+        <v>798117.60176771798</v>
+      </c>
+      <c r="FA34" s="3">
         <f t="shared" si="60"/>
-        <v>185414.5578544875</v>
-      </c>
-      <c r="Y34" s="3">
+        <v>806098.77778539516</v>
+      </c>
+      <c r="FB34" s="3">
         <f t="shared" si="60"/>
-        <v>216753.90149228091</v>
-      </c>
-      <c r="Z34" s="3">
-        <f t="shared" ref="Z34:BE34" si="61">Y34*(1+$AB$97)</f>
-        <v>218921.44050720372</v>
-      </c>
-      <c r="AA34" s="3">
+        <v>814159.76556324912</v>
+      </c>
+      <c r="FC34" s="3">
+        <f t="shared" si="60"/>
+        <v>822301.36321888166</v>
+      </c>
+      <c r="FD34" s="3">
+        <f t="shared" si="60"/>
+        <v>830524.37685107044</v>
+      </c>
+      <c r="FE34" s="3">
+        <f t="shared" si="60"/>
+        <v>838829.6206195812</v>
+      </c>
+      <c r="FF34" s="3">
+        <f t="shared" si="60"/>
+        <v>847217.91682577704</v>
+      </c>
+      <c r="FG34" s="3">
+        <f t="shared" si="60"/>
+        <v>855690.09599403478</v>
+      </c>
+      <c r="FH34" s="3">
+        <f t="shared" si="60"/>
+        <v>864246.99695397518</v>
+      </c>
+      <c r="FI34" s="3">
+        <f t="shared" si="60"/>
+        <v>872889.46692351496</v>
+      </c>
+      <c r="FJ34" s="3">
+        <f t="shared" si="60"/>
+        <v>881618.36159275007</v>
+      </c>
+      <c r="FK34" s="3">
+        <f t="shared" si="60"/>
+        <v>890434.54520867753</v>
+      </c>
+      <c r="FL34" s="3">
+        <f t="shared" si="60"/>
+        <v>899338.8906607643</v>
+      </c>
+      <c r="FM34" s="3">
+        <f t="shared" si="60"/>
+        <v>908332.27956737194</v>
+      </c>
+      <c r="FN34" s="3">
+        <f t="shared" si="60"/>
+        <v>917415.60236304568</v>
+      </c>
+      <c r="FO34" s="3">
+        <f t="shared" si="60"/>
+        <v>926589.7583866762</v>
+      </c>
+      <c r="FP34" s="3">
+        <f t="shared" si="60"/>
+        <v>935855.65597054292</v>
+      </c>
+      <c r="FQ34" s="3">
+        <f t="shared" si="60"/>
+        <v>945214.21253024833</v>
+      </c>
+      <c r="FR34" s="3">
+        <f t="shared" si="60"/>
+        <v>954666.35465555079</v>
+      </c>
+      <c r="FS34" s="3">
+        <f t="shared" si="60"/>
+        <v>964213.01820210635</v>
+      </c>
+      <c r="FT34" s="3">
+        <f t="shared" si="60"/>
+        <v>973855.14838412742</v>
+      </c>
+      <c r="FU34" s="3">
+        <f t="shared" si="60"/>
+        <v>983593.69986796868</v>
+      </c>
+      <c r="FV34" s="3">
+        <f t="shared" si="60"/>
+        <v>993429.63686664833</v>
+      </c>
+      <c r="FW34" s="3">
+        <f t="shared" si="60"/>
+        <v>1003363.9332353148</v>
+      </c>
+      <c r="FX34" s="3">
+        <f t="shared" si="60"/>
+        <v>1013397.5725676679</v>
+      </c>
+      <c r="FY34" s="3">
+        <f t="shared" si="60"/>
+        <v>1023531.5482933446</v>
+      </c>
+      <c r="FZ34" s="3">
+        <f t="shared" si="60"/>
+        <v>1033766.863776278</v>
+      </c>
+      <c r="GA34" s="3">
+        <f t="shared" si="60"/>
+        <v>1044104.5324140408</v>
+      </c>
+      <c r="GB34" s="3">
+        <f t="shared" si="60"/>
+        <v>1054545.5777381812</v>
+      </c>
+      <c r="GC34" s="3">
+        <f t="shared" si="60"/>
+        <v>1065091.033515563</v>
+      </c>
+      <c r="GD34" s="3">
+        <f t="shared" ref="GD34:HK34" si="61">GC34*(1+$AB$97)</f>
+        <v>1075741.9438507187</v>
+      </c>
+      <c r="GE34" s="3">
         <f t="shared" si="61"/>
-        <v>221110.65491227576</v>
-      </c>
-      <c r="AB34" s="3">
+        <v>1086499.3632892258</v>
+      </c>
+      <c r="GF34" s="3">
         <f t="shared" si="61"/>
-        <v>223321.76146139851</v>
-      </c>
-      <c r="AC34" s="3">
+        <v>1097364.3569221182</v>
+      </c>
+      <c r="GG34" s="3">
         <f t="shared" si="61"/>
-        <v>225554.9790760125</v>
-      </c>
-      <c r="AD34" s="3">
+        <v>1108338.0004913395</v>
+      </c>
+      <c r="GH34" s="3">
         <f t="shared" si="61"/>
-        <v>227810.52886677263</v>
-      </c>
-      <c r="AE34" s="3">
+        <v>1119421.3804962528</v>
+      </c>
+      <c r="GI34" s="3">
         <f t="shared" si="61"/>
-        <v>230088.63415544035</v>
-      </c>
-      <c r="AF34" s="3">
+        <v>1130615.5943012154</v>
+      </c>
+      <c r="GJ34" s="3">
         <f t="shared" si="61"/>
-        <v>232389.52049699475</v>
-      </c>
-      <c r="AG34" s="3">
+        <v>1141921.7502442275</v>
+      </c>
+      <c r="GK34" s="3">
         <f t="shared" si="61"/>
-        <v>234713.4157019647</v>
-      </c>
-      <c r="AH34" s="3">
+        <v>1153340.9677466697</v>
+      </c>
+      <c r="GL34" s="3">
         <f t="shared" si="61"/>
-        <v>237060.54985898433</v>
-      </c>
-      <c r="AI34" s="3">
+        <v>1164874.3774241363</v>
+      </c>
+      <c r="GM34" s="3">
         <f t="shared" si="61"/>
-        <v>239431.15535757417</v>
-      </c>
-      <c r="AJ34" s="3">
+        <v>1176523.1211983776</v>
+      </c>
+      <c r="GN34" s="3">
         <f t="shared" si="61"/>
-        <v>241825.46691114991</v>
-      </c>
-      <c r="AK34" s="3">
+        <v>1188288.3524103614</v>
+      </c>
+      <c r="GO34" s="3">
         <f t="shared" si="61"/>
-        <v>244243.72158026142</v>
-      </c>
-      <c r="AL34" s="3">
+        <v>1200171.235934465</v>
+      </c>
+      <c r="GP34" s="3">
         <f t="shared" si="61"/>
-        <v>246686.15879606403</v>
-      </c>
-      <c r="AM34" s="3">
+        <v>1212172.9482938095</v>
+      </c>
+      <c r="GQ34" s="3">
         <f t="shared" si="61"/>
-        <v>249153.02038402468</v>
-      </c>
-      <c r="AN34" s="3">
+        <v>1224294.6777767476</v>
+      </c>
+      <c r="GR34" s="3">
         <f t="shared" si="61"/>
-        <v>251644.55058786494</v>
-      </c>
-      <c r="AO34" s="3">
+        <v>1236537.6245545151</v>
+      </c>
+      <c r="GS34" s="3">
         <f t="shared" si="61"/>
-        <v>254160.9960937436</v>
-      </c>
-      <c r="AP34" s="3">
+        <v>1248903.0008000603</v>
+      </c>
+      <c r="GT34" s="3">
         <f t="shared" si="61"/>
-        <v>256702.60605468103</v>
-      </c>
-      <c r="AQ34" s="3">
+        <v>1261392.0308080609</v>
+      </c>
+      <c r="GU34" s="3">
         <f t="shared" si="61"/>
-        <v>259269.63211522784</v>
-      </c>
-      <c r="AR34" s="3">
+        <v>1274005.9511161416</v>
+      </c>
+      <c r="GV34" s="3">
         <f t="shared" si="61"/>
-        <v>261862.32843638011</v>
-      </c>
-      <c r="AS34" s="3">
+        <v>1286746.010627303</v>
+      </c>
+      <c r="GW34" s="3">
         <f t="shared" si="61"/>
-        <v>264480.95172074391</v>
-      </c>
-      <c r="AT34" s="3">
+        <v>1299613.470733576</v>
+      </c>
+      <c r="GX34" s="3">
         <f t="shared" si="61"/>
-        <v>267125.76123795134</v>
-      </c>
-      <c r="AU34" s="3">
+        <v>1312609.6054409118</v>
+      </c>
+      <c r="GY34" s="3">
         <f t="shared" si="61"/>
-        <v>269797.01885033085</v>
-      </c>
-      <c r="AV34" s="3">
+        <v>1325735.701495321</v>
+      </c>
+      <c r="GZ34" s="3">
         <f t="shared" si="61"/>
-        <v>272494.98903883417</v>
-      </c>
-      <c r="AW34" s="3">
+        <v>1338993.0585102742</v>
+      </c>
+      <c r="HA34" s="3">
         <f t="shared" si="61"/>
-        <v>275219.93892922252</v>
-      </c>
-      <c r="AX34" s="3">
+        <v>1352382.9890953768</v>
+      </c>
+      <c r="HB34" s="3">
         <f t="shared" si="61"/>
-        <v>277972.13831851474</v>
-      </c>
-      <c r="AY34" s="3">
+        <v>1365906.8189863306</v>
+      </c>
+      <c r="HC34" s="3">
         <f t="shared" si="61"/>
-        <v>280751.85970169987</v>
-      </c>
-      <c r="AZ34" s="3">
+        <v>1379565.887176194</v>
+      </c>
+      <c r="HD34" s="3">
         <f t="shared" si="61"/>
-        <v>283559.37829871685</v>
-      </c>
-      <c r="BA34" s="3">
+        <v>1393361.546047956</v>
+      </c>
+      <c r="HE34" s="3">
         <f t="shared" si="61"/>
-        <v>286394.97208170401</v>
-      </c>
-      <c r="BB34" s="3">
+        <v>1407295.1615084356</v>
+      </c>
+      <c r="HF34" s="3">
         <f t="shared" si="61"/>
-        <v>289258.92180252104</v>
-      </c>
-      <c r="BC34" s="3">
+        <v>1421368.11312352</v>
+      </c>
+      <c r="HG34" s="3">
         <f t="shared" si="61"/>
-        <v>292151.51102054626</v>
-      </c>
-      <c r="BD34" s="3">
+        <v>1435581.7942547554</v>
+      </c>
+      <c r="HH34" s="3">
         <f t="shared" si="61"/>
-        <v>295073.02613075171</v>
-      </c>
-      <c r="BE34" s="3">
+        <v>1449937.612197303</v>
+      </c>
+      <c r="HI34" s="3">
         <f t="shared" si="61"/>
-        <v>298023.75639205921</v>
-      </c>
-      <c r="BF34" s="3">
-        <f t="shared" ref="BF34:CK34" si="62">BE34*(1+$AB$97)</f>
-        <v>301003.99395597982</v>
-      </c>
-      <c r="BG34" s="3">
-        <f t="shared" si="62"/>
-        <v>304014.03389553964</v>
-      </c>
-      <c r="BH34" s="3">
-        <f t="shared" si="62"/>
-        <v>307054.17423449503</v>
-      </c>
-      <c r="BI34" s="3">
-        <f t="shared" si="62"/>
-        <v>310124.71597684</v>
-      </c>
-      <c r="BJ34" s="3">
-        <f t="shared" si="62"/>
-        <v>313225.96313660842</v>
-      </c>
-      <c r="BK34" s="3">
-        <f t="shared" si="62"/>
-        <v>316358.22276797448</v>
-      </c>
-      <c r="BL34" s="3">
-        <f t="shared" si="62"/>
-        <v>319521.80499565421</v>
-      </c>
-      <c r="BM34" s="3">
-        <f t="shared" si="62"/>
-        <v>322717.02304561075</v>
-      </c>
-      <c r="BN34" s="3">
-        <f t="shared" si="62"/>
-        <v>325944.19327606686</v>
-      </c>
-      <c r="BO34" s="3">
-        <f t="shared" si="62"/>
-        <v>329203.6352088275</v>
-      </c>
-      <c r="BP34" s="3">
-        <f t="shared" si="62"/>
-        <v>332495.67156091577</v>
-      </c>
-      <c r="BQ34" s="3">
-        <f t="shared" si="62"/>
-        <v>335820.62827652495</v>
-      </c>
-      <c r="BR34" s="3">
-        <f t="shared" si="62"/>
-        <v>339178.8345592902</v>
-      </c>
-      <c r="BS34" s="3">
-        <f t="shared" si="62"/>
-        <v>342570.62290488312</v>
-      </c>
-      <c r="BT34" s="3">
-        <f t="shared" si="62"/>
-        <v>345996.32913393195</v>
-      </c>
-      <c r="BU34" s="3">
-        <f t="shared" si="62"/>
-        <v>349456.2924252713</v>
-      </c>
-      <c r="BV34" s="3">
-        <f t="shared" si="62"/>
-        <v>352950.855349524</v>
-      </c>
-      <c r="BW34" s="3">
-        <f t="shared" si="62"/>
-        <v>356480.36390301923</v>
-      </c>
-      <c r="BX34" s="3">
-        <f t="shared" si="62"/>
-        <v>360045.16754204943</v>
-      </c>
-      <c r="BY34" s="3">
-        <f t="shared" si="62"/>
-        <v>363645.61921746994</v>
-      </c>
-      <c r="BZ34" s="3">
-        <f t="shared" si="62"/>
-        <v>367282.07540964463</v>
-      </c>
-      <c r="CA34" s="3">
-        <f t="shared" si="62"/>
-        <v>370954.89616374107</v>
-      </c>
-      <c r="CB34" s="3">
-        <f t="shared" si="62"/>
-        <v>374664.44512537849</v>
-      </c>
-      <c r="CC34" s="3">
-        <f t="shared" si="62"/>
-        <v>378411.08957663231</v>
-      </c>
-      <c r="CD34" s="3">
-        <f t="shared" si="62"/>
-        <v>382195.20047239866</v>
-      </c>
-      <c r="CE34" s="3">
-        <f t="shared" si="62"/>
-        <v>386017.15247712267</v>
-      </c>
-      <c r="CF34" s="3">
-        <f t="shared" si="62"/>
-        <v>389877.32400189393</v>
-      </c>
-      <c r="CG34" s="3">
-        <f t="shared" si="62"/>
-        <v>393776.09724191285</v>
-      </c>
-      <c r="CH34" s="3">
-        <f t="shared" si="62"/>
-        <v>397713.85821433197</v>
-      </c>
-      <c r="CI34" s="3">
-        <f t="shared" si="62"/>
-        <v>401690.99679647532</v>
-      </c>
-      <c r="CJ34" s="3">
-        <f t="shared" si="62"/>
-        <v>405707.90676444006</v>
-      </c>
-      <c r="CK34" s="3">
-        <f t="shared" si="62"/>
-        <v>409764.98583208449</v>
-      </c>
-      <c r="CL34" s="3">
-        <f t="shared" ref="CL34:DQ34" si="63">CK34*(1+$AB$97)</f>
-        <v>413862.63569040532</v>
-      </c>
-      <c r="CM34" s="3">
-        <f t="shared" si="63"/>
-        <v>418001.26204730937</v>
-      </c>
-      <c r="CN34" s="3">
-        <f t="shared" si="63"/>
-        <v>422181.27466778248</v>
-      </c>
-      <c r="CO34" s="3">
-        <f t="shared" si="63"/>
-        <v>426403.08741446031</v>
-      </c>
-      <c r="CP34" s="3">
-        <f t="shared" si="63"/>
-        <v>430667.11828860495</v>
-      </c>
-      <c r="CQ34" s="3">
-        <f t="shared" si="63"/>
-        <v>434973.78947149101</v>
-      </c>
-      <c r="CR34" s="3">
-        <f t="shared" si="63"/>
-        <v>439323.52736620593</v>
-      </c>
-      <c r="CS34" s="3">
-        <f t="shared" si="63"/>
-        <v>443716.76263986801</v>
-      </c>
-      <c r="CT34" s="3">
-        <f t="shared" si="63"/>
-        <v>448153.93026626669</v>
-      </c>
-      <c r="CU34" s="3">
-        <f t="shared" si="63"/>
-        <v>452635.46956892934</v>
-      </c>
-      <c r="CV34" s="3">
-        <f t="shared" si="63"/>
-        <v>457161.82426461863</v>
-      </c>
-      <c r="CW34" s="3">
-        <f t="shared" si="63"/>
-        <v>461733.44250726484</v>
-      </c>
-      <c r="CX34" s="3">
-        <f t="shared" si="63"/>
-        <v>466350.7769323375</v>
-      </c>
-      <c r="CY34" s="3">
-        <f t="shared" si="63"/>
-        <v>471014.28470166086</v>
-      </c>
-      <c r="CZ34" s="3">
-        <f t="shared" si="63"/>
-        <v>475724.42754867749</v>
-      </c>
-      <c r="DA34" s="3">
-        <f t="shared" si="63"/>
-        <v>480481.67182416428</v>
-      </c>
-      <c r="DB34" s="3">
-        <f t="shared" si="63"/>
-        <v>485286.48854240595</v>
-      </c>
-      <c r="DC34" s="3">
-        <f t="shared" si="63"/>
-        <v>490139.35342783004</v>
-      </c>
-      <c r="DD34" s="3">
-        <f t="shared" si="63"/>
-        <v>495040.74696210836</v>
-      </c>
-      <c r="DE34" s="3">
-        <f t="shared" si="63"/>
-        <v>499991.15443172946</v>
-      </c>
-      <c r="DF34" s="3">
-        <f t="shared" si="63"/>
-        <v>504991.06597604678</v>
-      </c>
-      <c r="DG34" s="3">
-        <f t="shared" si="63"/>
-        <v>510040.97663580725</v>
-      </c>
-      <c r="DH34" s="3">
-        <f t="shared" si="63"/>
-        <v>515141.38640216534</v>
-      </c>
-      <c r="DI34" s="3">
-        <f t="shared" si="63"/>
-        <v>520292.800266187</v>
-      </c>
-      <c r="DJ34" s="3">
-        <f t="shared" si="63"/>
-        <v>525495.72826884885</v>
-      </c>
-      <c r="DK34" s="3">
-        <f t="shared" si="63"/>
-        <v>530750.68555153732</v>
-      </c>
-      <c r="DL34" s="3">
-        <f t="shared" si="63"/>
-        <v>536058.19240705273</v>
-      </c>
-      <c r="DM34" s="3">
-        <f t="shared" si="63"/>
-        <v>541418.77433112322</v>
-      </c>
-      <c r="DN34" s="3">
-        <f t="shared" si="63"/>
-        <v>546832.9620744345</v>
-      </c>
-      <c r="DO34" s="3">
-        <f t="shared" si="63"/>
-        <v>552301.29169517884</v>
-      </c>
-      <c r="DP34" s="3">
-        <f t="shared" si="63"/>
-        <v>557824.30461213063</v>
-      </c>
-      <c r="DQ34" s="3">
-        <f t="shared" si="63"/>
-        <v>563402.54765825195</v>
-      </c>
-      <c r="DR34" s="3">
-        <f t="shared" ref="DR34:EW34" si="64">DQ34*(1+$AB$97)</f>
-        <v>569036.57313483453</v>
-      </c>
-      <c r="DS34" s="3">
-        <f t="shared" si="64"/>
-        <v>574726.93886618293</v>
-      </c>
-      <c r="DT34" s="3">
-        <f t="shared" si="64"/>
-        <v>580474.20825484477</v>
-      </c>
-      <c r="DU34" s="3">
-        <f t="shared" si="64"/>
-        <v>586278.95033739321</v>
-      </c>
-      <c r="DV34" s="3">
-        <f t="shared" si="64"/>
-        <v>592141.73984076711</v>
-      </c>
-      <c r="DW34" s="3">
-        <f t="shared" si="64"/>
-        <v>598063.15723917482</v>
-      </c>
-      <c r="DX34" s="3">
-        <f t="shared" si="64"/>
-        <v>604043.78881156654</v>
-      </c>
-      <c r="DY34" s="3">
-        <f t="shared" si="64"/>
-        <v>610084.22669968219</v>
-      </c>
-      <c r="DZ34" s="3">
-        <f t="shared" si="64"/>
-        <v>616185.06896667904</v>
-      </c>
-      <c r="EA34" s="3">
-        <f t="shared" si="64"/>
-        <v>622346.91965634585</v>
-      </c>
-      <c r="EB34" s="3">
-        <f t="shared" si="64"/>
-        <v>628570.38885290932</v>
-      </c>
-      <c r="EC34" s="3">
-        <f t="shared" si="64"/>
-        <v>634856.09274143842</v>
-      </c>
-      <c r="ED34" s="3">
-        <f t="shared" si="64"/>
-        <v>641204.65366885276</v>
-      </c>
-      <c r="EE34" s="3">
-        <f t="shared" si="64"/>
-        <v>647616.70020554133</v>
-      </c>
-      <c r="EF34" s="3">
-        <f t="shared" si="64"/>
-        <v>654092.86720759678</v>
-      </c>
-      <c r="EG34" s="3">
-        <f t="shared" si="64"/>
-        <v>660633.79587967275</v>
-      </c>
-      <c r="EH34" s="3">
-        <f t="shared" si="64"/>
-        <v>667240.13383846951</v>
-      </c>
-      <c r="EI34" s="3">
-        <f t="shared" si="64"/>
-        <v>673912.53517685423</v>
-      </c>
-      <c r="EJ34" s="3">
-        <f t="shared" si="64"/>
-        <v>680651.6605286228</v>
-      </c>
-      <c r="EK34" s="3">
-        <f t="shared" si="64"/>
-        <v>687458.17713390908</v>
-      </c>
-      <c r="EL34" s="3">
-        <f t="shared" si="64"/>
-        <v>694332.75890524813</v>
-      </c>
-      <c r="EM34" s="3">
-        <f t="shared" si="64"/>
-        <v>701276.08649430063</v>
-      </c>
-      <c r="EN34" s="3">
-        <f t="shared" si="64"/>
-        <v>708288.84735924366</v>
-      </c>
-      <c r="EO34" s="3">
-        <f t="shared" si="64"/>
-        <v>715371.73583283613</v>
-      </c>
-      <c r="EP34" s="3">
-        <f t="shared" si="64"/>
-        <v>722525.45319116453</v>
-      </c>
-      <c r="EQ34" s="3">
-        <f t="shared" si="64"/>
-        <v>729750.70772307622</v>
-      </c>
-      <c r="ER34" s="3">
-        <f t="shared" si="64"/>
-        <v>737048.21480030695</v>
-      </c>
-      <c r="ES34" s="3">
-        <f t="shared" si="64"/>
-        <v>744418.69694831001</v>
-      </c>
-      <c r="ET34" s="3">
-        <f t="shared" si="64"/>
-        <v>751862.88391779317</v>
-      </c>
-      <c r="EU34" s="3">
-        <f t="shared" si="64"/>
-        <v>759381.51275697106</v>
-      </c>
-      <c r="EV34" s="3">
-        <f t="shared" si="64"/>
-        <v>766975.32788454078</v>
-      </c>
-      <c r="EW34" s="3">
-        <f t="shared" si="64"/>
-        <v>774645.08116338623</v>
-      </c>
-      <c r="EX34" s="3">
-        <f t="shared" ref="EX34:GC34" si="65">EW34*(1+$AB$97)</f>
-        <v>782391.53197502007</v>
-      </c>
-      <c r="EY34" s="3">
-        <f t="shared" si="65"/>
-        <v>790215.44729477027</v>
-      </c>
-      <c r="EZ34" s="3">
-        <f t="shared" si="65"/>
-        <v>798117.60176771798</v>
-      </c>
-      <c r="FA34" s="3">
-        <f t="shared" si="65"/>
-        <v>806098.77778539516</v>
-      </c>
-      <c r="FB34" s="3">
-        <f t="shared" si="65"/>
-        <v>814159.76556324912</v>
-      </c>
-      <c r="FC34" s="3">
-        <f t="shared" si="65"/>
-        <v>822301.36321888166</v>
-      </c>
-      <c r="FD34" s="3">
-        <f t="shared" si="65"/>
-        <v>830524.37685107044</v>
-      </c>
-      <c r="FE34" s="3">
-        <f t="shared" si="65"/>
-        <v>838829.6206195812</v>
-      </c>
-      <c r="FF34" s="3">
-        <f t="shared" si="65"/>
-        <v>847217.91682577704</v>
-      </c>
-      <c r="FG34" s="3">
-        <f t="shared" si="65"/>
-        <v>855690.09599403478</v>
-      </c>
-      <c r="FH34" s="3">
-        <f t="shared" si="65"/>
-        <v>864246.99695397518</v>
-      </c>
-      <c r="FI34" s="3">
-        <f t="shared" si="65"/>
-        <v>872889.46692351496</v>
-      </c>
-      <c r="FJ34" s="3">
-        <f t="shared" si="65"/>
-        <v>881618.36159275007</v>
-      </c>
-      <c r="FK34" s="3">
-        <f t="shared" si="65"/>
-        <v>890434.54520867753</v>
-      </c>
-      <c r="FL34" s="3">
-        <f t="shared" si="65"/>
-        <v>899338.8906607643</v>
-      </c>
-      <c r="FM34" s="3">
-        <f t="shared" si="65"/>
-        <v>908332.27956737194</v>
-      </c>
-      <c r="FN34" s="3">
-        <f t="shared" si="65"/>
-        <v>917415.60236304568</v>
-      </c>
-      <c r="FO34" s="3">
-        <f t="shared" si="65"/>
-        <v>926589.7583866762</v>
-      </c>
-      <c r="FP34" s="3">
-        <f t="shared" si="65"/>
-        <v>935855.65597054292</v>
-      </c>
-      <c r="FQ34" s="3">
-        <f t="shared" si="65"/>
-        <v>945214.21253024833</v>
-      </c>
-      <c r="FR34" s="3">
-        <f t="shared" si="65"/>
-        <v>954666.35465555079</v>
-      </c>
-      <c r="FS34" s="3">
-        <f t="shared" si="65"/>
-        <v>964213.01820210635</v>
-      </c>
-      <c r="FT34" s="3">
-        <f t="shared" si="65"/>
-        <v>973855.14838412742</v>
-      </c>
-      <c r="FU34" s="3">
-        <f t="shared" si="65"/>
-        <v>983593.69986796868</v>
-      </c>
-      <c r="FV34" s="3">
-        <f t="shared" si="65"/>
-        <v>993429.63686664833</v>
-      </c>
-      <c r="FW34" s="3">
-        <f t="shared" si="65"/>
-        <v>1003363.9332353148</v>
-      </c>
-      <c r="FX34" s="3">
-        <f t="shared" si="65"/>
-        <v>1013397.5725676679</v>
-      </c>
-      <c r="FY34" s="3">
-        <f t="shared" si="65"/>
-        <v>1023531.5482933446</v>
-      </c>
-      <c r="FZ34" s="3">
-        <f t="shared" si="65"/>
-        <v>1033766.863776278</v>
-      </c>
-      <c r="GA34" s="3">
-        <f t="shared" si="65"/>
-        <v>1044104.5324140408</v>
-      </c>
-      <c r="GB34" s="3">
-        <f t="shared" si="65"/>
-        <v>1054545.5777381812</v>
-      </c>
-      <c r="GC34" s="3">
-        <f t="shared" si="65"/>
-        <v>1065091.033515563</v>
-      </c>
-      <c r="GD34" s="3">
-        <f t="shared" ref="GD34:HK34" si="66">GC34*(1+$AB$97)</f>
-        <v>1075741.9438507187</v>
-      </c>
-      <c r="GE34" s="3">
-        <f t="shared" si="66"/>
-        <v>1086499.3632892258</v>
-      </c>
-      <c r="GF34" s="3">
-        <f t="shared" si="66"/>
-        <v>1097364.3569221182</v>
-      </c>
-      <c r="GG34" s="3">
-        <f t="shared" si="66"/>
-        <v>1108338.0004913395</v>
-      </c>
-      <c r="GH34" s="3">
-        <f t="shared" si="66"/>
-        <v>1119421.3804962528</v>
-      </c>
-      <c r="GI34" s="3">
-        <f t="shared" si="66"/>
-        <v>1130615.5943012154</v>
-      </c>
-      <c r="GJ34" s="3">
-        <f t="shared" si="66"/>
-        <v>1141921.7502442275</v>
-      </c>
-      <c r="GK34" s="3">
-        <f t="shared" si="66"/>
-        <v>1153340.9677466697</v>
-      </c>
-      <c r="GL34" s="3">
-        <f t="shared" si="66"/>
-        <v>1164874.3774241363</v>
-      </c>
-      <c r="GM34" s="3">
-        <f t="shared" si="66"/>
-        <v>1176523.1211983776</v>
-      </c>
-      <c r="GN34" s="3">
-        <f t="shared" si="66"/>
-        <v>1188288.3524103614</v>
-      </c>
-      <c r="GO34" s="3">
-        <f t="shared" si="66"/>
-        <v>1200171.235934465</v>
-      </c>
-      <c r="GP34" s="3">
-        <f t="shared" si="66"/>
-        <v>1212172.9482938095</v>
-      </c>
-      <c r="GQ34" s="3">
-        <f t="shared" si="66"/>
-        <v>1224294.6777767476</v>
-      </c>
-      <c r="GR34" s="3">
-        <f t="shared" si="66"/>
-        <v>1236537.6245545151</v>
-      </c>
-      <c r="GS34" s="3">
-        <f t="shared" si="66"/>
-        <v>1248903.0008000603</v>
-      </c>
-      <c r="GT34" s="3">
-        <f t="shared" si="66"/>
-        <v>1261392.0308080609</v>
-      </c>
-      <c r="GU34" s="3">
-        <f t="shared" si="66"/>
-        <v>1274005.9511161416</v>
-      </c>
-      <c r="GV34" s="3">
-        <f t="shared" si="66"/>
-        <v>1286746.010627303</v>
-      </c>
-      <c r="GW34" s="3">
-        <f t="shared" si="66"/>
-        <v>1299613.470733576</v>
-      </c>
-      <c r="GX34" s="3">
-        <f t="shared" si="66"/>
-        <v>1312609.6054409118</v>
-      </c>
-      <c r="GY34" s="3">
-        <f t="shared" si="66"/>
-        <v>1325735.701495321</v>
-      </c>
-      <c r="GZ34" s="3">
-        <f t="shared" si="66"/>
-        <v>1338993.0585102742</v>
-      </c>
-      <c r="HA34" s="3">
-        <f t="shared" si="66"/>
-        <v>1352382.9890953768</v>
-      </c>
-      <c r="HB34" s="3">
-        <f t="shared" si="66"/>
-        <v>1365906.8189863306</v>
-      </c>
-      <c r="HC34" s="3">
-        <f t="shared" si="66"/>
-        <v>1379565.887176194</v>
-      </c>
-      <c r="HD34" s="3">
-        <f t="shared" si="66"/>
-        <v>1393361.546047956</v>
-      </c>
-      <c r="HE34" s="3">
-        <f t="shared" si="66"/>
-        <v>1407295.1615084356</v>
-      </c>
-      <c r="HF34" s="3">
-        <f t="shared" si="66"/>
-        <v>1421368.11312352</v>
-      </c>
-      <c r="HG34" s="3">
-        <f t="shared" si="66"/>
-        <v>1435581.7942547554</v>
-      </c>
-      <c r="HH34" s="3">
-        <f t="shared" si="66"/>
-        <v>1449937.612197303</v>
-      </c>
-      <c r="HI34" s="3">
-        <f t="shared" si="66"/>
         <v>1464436.9883192761</v>
       </c>
       <c r="HJ34" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>1479081.3582024688</v>
       </c>
       <c r="HK34" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>1493872.1717844936</v>
       </c>
     </row>
@@ -4292,19 +4277,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:F35" si="67">C34/C36</f>
+        <f t="shared" ref="C35:F35" si="62">C34/C36</f>
         <v>1.439047320589157</v>
       </c>
       <c r="D35" s="7" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="7" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="7" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="7">
@@ -4320,19 +4305,19 @@
         <v>2.1662040816326531</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" ref="J35:M35" si="68">J34/J36</f>
+        <f t="shared" ref="J35:M35" si="63">J34/J36</f>
         <v>2.0466117581311396</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>2.0897288057788201</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>2.2392461439481317</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>2.4023083257864766</v>
       </c>
       <c r="N35" s="7"/>
@@ -4342,27 +4327,27 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
       <c r="T35" s="7">
-        <f t="shared" ref="T35" si="69">T34/T36</f>
+        <f t="shared" ref="T35" si="64">T34/T36</f>
         <v>8.1732244897959188</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" ref="U35" si="70">U34/U36</f>
+        <f t="shared" ref="U35" si="65">U34/U36</f>
         <v>8.9896908929963608</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" ref="V35" si="71">V34/V36</f>
+        <f t="shared" ref="V35" si="66">V34/V36</f>
         <v>10.594996643734714</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" ref="W35" si="72">W34/W36</f>
+        <f t="shared" ref="W35" si="67">W34/W36</f>
         <v>12.182850135333325</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" ref="X35" si="73">X34/X36</f>
+        <f t="shared" ref="X35" si="68">X34/X36</f>
         <v>13.98321560755892</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" ref="Y35" si="74">Y34/Y36</f>
+        <f t="shared" ref="Y35" si="69">Y34/Y36</f>
         <v>16.026178508767135</v>
       </c>
     </row>
@@ -4404,19 +4389,19 @@
         <v>12495</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" ref="V36:Y36" si="75">U36*1.02</f>
+        <f t="shared" ref="V36:Y36" si="70">U36*1.02</f>
         <v>12744.9</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>12999.798000000001</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>13259.793960000001</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>13524.989839200001</v>
       </c>
       <c r="AA36" s="1"/>
@@ -4442,77 +4427,77 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <f t="shared" ref="F38:M38" si="76">F22/B22-1</f>
+        <f t="shared" ref="F38:M38" si="71">F22/B22-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>0.13841766100895225</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>0.15802114653890631</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>0.19130734404314143</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v>0.16940848375872064</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5">
-        <f t="shared" ref="P38:Y38" si="77">P22/O22-1</f>
+        <f t="shared" ref="P38:Y38" si="72">P22/O22-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>8.6827702272695095E-2</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>0.13866243322901561</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>0.16504303111188579</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>0.11875127619067283</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>0.12051303986115847</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>0.1222592095586934</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v>0.12399397442452242</v>
       </c>
       <c r="AB38" s="9"/>
@@ -4522,47 +4507,47 @@
         <v>43</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:M39" si="78">C22/B22-1</f>
+        <f t="shared" ref="C39:M39" si="73">C22/B22-1</f>
         <v>6.9024316849843004E-2</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>2.8001179561417677E-2</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>0.12539605961430644</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>-6.6863631097207721E-2</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>5.218589751548941E-2</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>4.1608647423945655E-2</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>9.2910227942176071E-2</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>-4.9570120971503706E-2</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>7.0304477122279607E-2</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>7.1548680266953602E-2</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="73"/>
         <v>7.2820123986388374E-2</v>
       </c>
       <c r="N39" s="5"/>
@@ -4583,35 +4568,35 @@
         <v>31</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" ref="B40:I40" si="79">B33/B32</f>
+        <f t="shared" ref="B40:I40" si="74">B33/B32</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.16432986049796927</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.14271714275343908</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.17047246577934777</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.17699965884067859</v>
       </c>
       <c r="J40" s="4">
@@ -4628,27 +4613,27 @@
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4">
-        <f t="shared" ref="O40:T40" si="80">O33/O32</f>
+        <f t="shared" ref="O40:T40" si="75">O33/O32</f>
         <v>0.13329968454258675</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.18676474324770689</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.15173298415328293</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.13879413716427816</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.16438962101169263</v>
       </c>
       <c r="U40" s="4">
@@ -4700,96 +4685,96 @@
         <v>44</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" ref="B42:M42" si="81">B34/B22</f>
+        <f t="shared" ref="B42:M42" si="76">B34/B22</f>
         <v>0.21567054035851949</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.2462066377137955</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.25672486406842865</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.23968253968253969</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.29379555246526529</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.27871657501593072</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.29796755336022113</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.27507282132083882</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.27344103927804025</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.26086199919145003</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.26086199919145009</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.26086199919145003</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4">
-        <f t="shared" ref="O42:Y42" si="82">O34/O22</f>
+        <f t="shared" ref="O42:Y42" si="77">O34/O22</f>
         <v>0.21218112284300339</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.22061941520980458</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.24846198333313926</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.2244622325305124</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.24065206217427795</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.28604814609534368</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.27545374040820286</v>
       </c>
       <c r="V42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.2959861342648753</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.3098151862527484</v>
       </c>
       <c r="X42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.32319739211753179</v>
       </c>
       <c r="Y42" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.33614523417157183</v>
       </c>
     </row>
@@ -4798,35 +4783,35 @@
         <v>17</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" ref="B43:I43" si="83">B24/B22</f>
+        <f t="shared" ref="B43:I43" si="78">B24/B22</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.58142018152696207</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.58099879634655782</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.58678116644763678</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>0.5790046543449191</v>
       </c>
       <c r="J43" s="5">
@@ -4843,27 +4828,27 @@
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5">
-        <f t="shared" ref="O43:T43" si="84">O24/O22</f>
+        <f t="shared" ref="O43:T43" si="79">O24/O22</f>
         <v>0.5558054331910266</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.5693980290098084</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.55379442503783116</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.56625047984020505</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>0.58201578204549476</v>
       </c>
       <c r="U43" s="5">
@@ -4871,19 +4856,19 @@
         <v>0.58783593986594973</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" ref="V43:Y43" si="85">U43*1.01</f>
+        <f t="shared" ref="V43:Y43" si="80">U43*1.01</f>
         <v>0.59371429926460928</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.59965144225725542</v>
       </c>
       <c r="X43" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.60564795667982796</v>
       </c>
       <c r="Y43" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.61170443624662629</v>
       </c>
     </row>
@@ -4892,96 +4877,96 @@
         <v>18</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" ref="B44:M44" si="86">B29/B22</f>
+        <f t="shared" ref="B44:M44" si="81">B29/B22</f>
         <v>0.24954504420594092</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.29271888906761029</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.27829136948613303</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.27455683003128256</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.31626913669154072</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.32362936914398999</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.32311823084243441</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.32105650519856122</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.32205185085364207</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.32205185085364202</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4">
-        <f t="shared" ref="O44:Y44" si="87">O29/O22</f>
+        <f t="shared" ref="O44:Y44" si="82">O29/O22</f>
         <v>0.21148915400631421</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.22585151785763202</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.3055228868524319</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.26461270842467011</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.27480367216015927</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.32110920009828064</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.33198495117648519</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.35323201697177942</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.36630055949532131</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.37903552558270126</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="82"/>
         <v>0.39144747479413017</v>
       </c>
     </row>
@@ -5014,39 +4999,39 @@
         <v>0</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" ref="Q45:Y45" si="88">Q103/Q22</f>
+        <f t="shared" ref="Q45:Y45" si="83">Q103/Q22</f>
         <v>0</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.21217242500954617</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.22607793255561268</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.20354381774651589</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.1521403057892165</v>
       </c>
       <c r="V45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.18979577894979532</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.21900898373725583</v>
       </c>
       <c r="X45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.24617824470848923</v>
       </c>
       <c r="Y45" s="4">
-        <f t="shared" si="88"/>
+        <f t="shared" si="83"/>
         <v>0.27144991584388622</v>
       </c>
     </row>
@@ -5081,89 +5066,89 @@
         <v>104</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" ref="C47:M47" si="89">C19/B19-1</f>
+        <f t="shared" ref="C47:M47" si="84">C19/B19-1</f>
         <v>6.9785833023998878E-2</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>2.5661914460285207E-2</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>0.12245168122848815</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>-7.7485552541573299E-2</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>5.014346998494279E-2</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>3.4925873823179243E-2</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>9.9124297477453993E-2</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>-7.357457131305456E-2</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>6.2015674622581507E-2</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>6.3015078053849427E-2</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="84"/>
         <v>6.4054389239795784E-2</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4">
-        <f t="shared" ref="P47:Y47" si="90">P19/O19-1</f>
+        <f t="shared" ref="P47:Y47" si="85">P19/O19-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>-1.5948796174462543E-2</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>7.5001577735003711E-2</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>0.11883262457667221</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>0.12216850224681064</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>0.10388001480843156</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>0.10466896434707929</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>0.10539802685306121</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>0.10607098023462114</v>
       </c>
       <c r="AB47" s="7"/>
@@ -5173,47 +5158,47 @@
         <v>37</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" ref="C48:M48" si="91">C20/B20-1</f>
+        <f t="shared" ref="C48:M48" si="86">C20/B20-1</f>
         <v>7.7408103031929132E-2</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>4.731664798904256E-2</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>9.2854595172987775E-2</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>4.155787641427322E-2</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>8.0739502820137865E-2</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>9.7226249154344302E-2</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>5.3025631991544087E-2</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="N48" s="4"/>
@@ -5222,31 +5207,31 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4">
-        <f t="shared" ref="S48:Y48" si="92">S20/R20-1</f>
+        <f t="shared" ref="S48:Y48" si="87">S20/R20-1</f>
         <v>0.25905631659056327</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.30648573500967125</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.48033242010687305</v>
       </c>
       <c r="V48" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="X48" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Y48" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AB48" s="7"/>
@@ -5256,95 +5241,95 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" ref="B49:M49" si="93">B20/B22</f>
+        <f t="shared" ref="B49:M49" si="88">B20/B22</f>
         <v>0.10681072406035508</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.10764838346469358</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.10967102603888229</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.10649982620785541</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.11887408584660848</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.1221000212409431</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.12861965831331854</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.12392582072997543</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.14603593834765272</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.1528165624319674</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.15972634101995625</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0.16675069561299613</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" ref="O49:Y49" si="94">O20/O22</f>
+        <f t="shared" ref="O49:Y49" si="89">O20/O22</f>
         <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>9.2916036148156522E-2</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0.10764035732642797</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0.12350507688176036</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0.15692859789168051</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0.16832545488683004</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0.18026612692452421</v>
       </c>
       <c r="X49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0.19275346592565937</v>
       </c>
       <c r="Y49" s="4">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>0.20578772161943079</v>
       </c>
     </row>
@@ -5379,19 +5364,19 @@
         <v>198578.0895239276</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" ref="V51:Y51" si="95">U51*(1+V38)</f>
+        <f t="shared" ref="V51:Y51" si="90">U51*(1+V38)</f>
         <v>222159.49107839967</v>
       </c>
       <c r="W51" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="90"/>
         <v>248932.60668226553</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="90"/>
         <v>279366.91040862445</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="90"/>
         <v>314006.72395288927</v>
       </c>
     </row>
@@ -5420,19 +5405,19 @@
         <v>118982.34963836356</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" ref="V52:Y52" si="96">U52*(1+V38)</f>
+        <f t="shared" ref="V52:Y52" si="91">U52*(1+V38)</f>
         <v>133111.65550208409</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>149153.34574759155</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>167388.71590172659</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>188143.90806019894</v>
       </c>
     </row>
@@ -5461,19 +5446,19 @@
         <v>66191.919812621796</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" ref="V53:Y53" si="97">U53*(1+V38)</f>
+        <f t="shared" ref="V53:Y53" si="92">U53*(1+V38)</f>
         <v>74052.29476388132</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="92"/>
         <v>82976.561914571212</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="92"/>
         <v>93121.210786144671</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="92"/>
         <v>104667.67981474246</v>
       </c>
     </row>
@@ -5503,19 +5488,19 @@
         <v>23787.848609242483</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" ref="V54:Y54" si="98">U54*(1+V38)</f>
+        <f t="shared" ref="V54:Y54" si="93">U54*(1+V38)</f>
         <v>26612.685989420548</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>29819.86167687608</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>33465.614394640521</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>37615.148929990508</v>
       </c>
     </row>
@@ -5524,75 +5509,75 @@
         <v>53</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ref="B56:M56" si="99">B58-B73</f>
+        <f t="shared" ref="B56:M56" si="94">B58-B73</f>
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>84774</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>71727.994037106459</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>114327.17190789701</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>141757.93717126161</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>171186.21416214595</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" ref="O56:T56" si="100">O58-O73</f>
+        <f t="shared" ref="O56:T56" si="95">O58-O73</f>
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>99046</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>84774</v>
       </c>
       <c r="U56" s="1">
@@ -5629,15 +5614,15 @@
         <v>88727.994037106459</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" ref="K58:M58" si="101">J58+K34+K100</f>
+        <f t="shared" ref="K58:M58" si="96">J58+K34+K100</f>
         <v>114327.17190789701</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="96"/>
         <v>141757.93717126161</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="96"/>
         <v>171186.21416214595</v>
       </c>
       <c r="S58" s="1">
@@ -5653,19 +5638,19 @@
         <v>204568.4465838006</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" ref="V58" si="102">U58+V34+V100</f>
+        <f t="shared" ref="V58" si="97">U58+V34+V100</f>
         <v>335780.37331798801</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" ref="W58" si="103">V58+W34+W100</f>
+        <f t="shared" ref="W58" si="98">V58+W34+W100</f>
         <v>489874.32869370852</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" ref="X58:Y58" si="104">W58+X34+X100</f>
+        <f t="shared" ref="X58:Y58" si="99">W58+X34+X100</f>
         <v>670484.90399404324</v>
       </c>
       <c r="Y58" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
         <v>881839.15804221586</v>
       </c>
     </row>
@@ -5681,15 +5666,15 @@
         <v>55012.212</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" ref="K59:M59" si="105">K80*K22/90</f>
+        <f t="shared" ref="K59:M59" si="100">K80*K22/90</f>
         <v>58879.816800000001</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>63092.589986400009</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>67687.000211832026</v>
       </c>
       <c r="S59" s="1">
@@ -5703,19 +5688,19 @@
         <v>61167.904749558009</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" ref="V59:Y59" si="106">V80*V22/360</f>
+        <f t="shared" ref="V59:Y59" si="101">V80*V22/360</f>
         <v>68431.671500477532</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="101"/>
         <v>76678.580255780282</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="101"/>
         <v>86053.242867934823</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="101"/>
         <v>96723.326463248741</v>
       </c>
     </row>
@@ -5737,19 +5722,19 @@
         <v>44250.664407691649</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" ref="V60:Y60" si="107">U60*(1+V38)</f>
+        <f t="shared" ref="V60:Y60" si="102">U60*(1+V38)</f>
         <v>49505.487278390217</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>55471.544040116933</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>62253.451167461877</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>69972.503999358407</v>
       </c>
     </row>
@@ -5771,19 +5756,19 @@
         <v>20015.439274502198</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" ref="V61:Y61" si="108">U61*(1+V38)</f>
+        <f t="shared" ref="V61:Y61" si="103">U61*(1+V38)</f>
         <v>22392.298231866247</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>25090.862161266094</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>28158.451136248616</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>31649.929406270792</v>
       </c>
     </row>
@@ -5805,19 +5790,19 @@
         <v>199264.29986925249</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ref="V62:Y62" si="109">U62*(1+V38)</f>
+        <f t="shared" ref="V62:Y62" si="104">U62*(1+V38)</f>
         <v>222927.18977796714</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>249792.82308581533</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>280332.29618972167</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>315091.81175383768</v>
       </c>
     </row>
@@ -5839,19 +5824,19 @@
         <v>15830.604706748303</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" ref="V63:Y63" si="110">U63*(1+V38)</f>
+        <f t="shared" ref="V63:Y63" si="105">U63*(1+V38)</f>
         <v>17710.509218544736</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="105"/>
         <v>19844.856521960632</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="105"/>
         <v>22271.072994141221</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="105"/>
         <v>25032.551849383439</v>
       </c>
     </row>
@@ -5873,19 +5858,19 @@
         <v>37147.39704700248</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" ref="V64:Y64" si="111">U64*(1+V38)</f>
+        <f t="shared" ref="V64:Y64" si="106">U64*(1+V38)</f>
         <v>41558.697853495658</v>
       </c>
       <c r="W64" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="106"/>
         <v>46567.062864491818</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="106"/>
         <v>52260.315161774575</v>
       </c>
       <c r="Y64" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="106"/>
         <v>58740.279343361137</v>
       </c>
     </row>
@@ -5910,19 +5895,19 @@
         <v>35636.336235650364</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" ref="V65:Y65" si="112">U65*(1+V38)</f>
+        <f t="shared" ref="V65:Y65" si="107">U65*(1+V38)</f>
         <v>39868.196642393763</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="107"/>
         <v>44672.834213551068</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="107"/>
         <v>50134.499613246378</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="107"/>
         <v>56350.875476077483</v>
       </c>
     </row>
@@ -5943,23 +5928,23 @@
         <v>450256</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" ref="U66:Y66" si="113">SUM(U58:U65)</f>
+        <f t="shared" ref="U66:Y66" si="108">SUM(U58:U65)</f>
         <v>617881.09287420602</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="108"/>
         <v>798174.42382112332</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="108"/>
         <v>1007992.8918366906</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="108"/>
         <v>1251948.2331245726</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" si="113"/>
+        <f t="shared" si="108"/>
         <v>1535400.4363337532</v>
       </c>
     </row>
@@ -5981,19 +5966,19 @@
         <v>9305.1986894906313</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" ref="V68:Y68" si="114">U68*(1+V38)</f>
+        <f t="shared" ref="V68:Y68" si="109">U68*(1+V38)</f>
         <v>10410.20290907542</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>11664.768107219574</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>13090.893435693695</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>14714.085341553247</v>
       </c>
     </row>
@@ -6015,19 +6000,19 @@
         <v>17556.033435825007</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" ref="V69:Y69" si="115">U69*(1+V38)</f>
+        <f t="shared" ref="V69:Y69" si="110">U69*(1+V38)</f>
         <v>19640.834811175351</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="110"/>
         <v>22007.811519680956</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="110"/>
         <v>24698.469160193858</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="110"/>
         <v>27760.93051356779</v>
       </c>
     </row>
@@ -6049,19 +6034,19 @@
         <v>59682.824397799683</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" ref="V70:Y70" si="116">U70*(1+V38)</f>
+        <f t="shared" ref="V70:Y70" si="111">U70*(1+V38)</f>
         <v>66770.235961702216</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="111"/>
         <v>74816.920069693791</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="111"/>
         <v>83963.977579030499</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="111"/>
         <v>94375.004867545984</v>
       </c>
     </row>
@@ -6083,19 +6068,19 @@
         <v>11419.751790958704</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" ref="V71:Y71" si="117">U71*(1+V38)</f>
+        <f t="shared" ref="V71:Y71" si="112">U71*(1+V38)</f>
         <v>12775.861889915772</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="112"/>
         <v>14315.519843115846</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="112"/>
         <v>16065.72398355698</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" si="117"/>
+        <f t="shared" si="112"/>
         <v>18057.776952285582</v>
       </c>
     </row>
@@ -6117,19 +6102,19 @@
         <v>5867.1567046794571</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" ref="V72:Y72" si="118">U72*(1+V38)</f>
+        <f t="shared" ref="V72:Y72" si="113">U72*(1+V38)</f>
         <v>6563.8890509708053</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>7354.923273814672</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>8254.1303796360917</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>9277.5928108253629</v>
       </c>
     </row>
@@ -6154,19 +6139,19 @@
         <v>12679.163307590654</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" ref="V73:Y73" si="119">U73*(1+V38)</f>
+        <f t="shared" ref="V73:Y73" si="114">U73*(1+V38)</f>
         <v>14184.830131396997</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>15894.287130445804</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>17837.51011151302</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>20049.253884077127</v>
       </c>
     </row>
@@ -6188,19 +6173,19 @@
         <v>10231.407899224581</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74:Y74" si="120">U74*(1+V38)</f>
+        <f t="shared" ref="V74:Y74" si="115">U74*(1+V38)</f>
         <v>11446.400644484831</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>12825.841181620421</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>14393.918386410671</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>16178.677534683939</v>
       </c>
     </row>
@@ -6225,19 +6210,19 @@
         <v>19089.23006476825</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" ref="V75:Y75" si="121">U75*(1+V38)</f>
+        <f t="shared" ref="V75:Y75" si="116">U75*(1+V38)</f>
         <v>21356.100496456838</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>23929.789086865247</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>26855.42618553164</v>
       </c>
       <c r="Y75" s="1">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>30185.337213140101</v>
       </c>
     </row>
@@ -6258,23 +6243,23 @@
         <v>125172</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" ref="U76:Y76" si="122">SUM(U68:U75)</f>
+        <f t="shared" ref="U76:Y76" si="117">SUM(U68:U75)</f>
         <v>145830.76629033696</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="117"/>
         <v>163148.35589517825</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="117"/>
         <v>182809.86021245632</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="117"/>
         <v>205160.04922156644</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" si="117"/>
         <v>230598.65911767911</v>
       </c>
     </row>
@@ -6295,23 +6280,23 @@
         <v>325084</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" ref="U77:Y77" si="123">U66-U76</f>
+        <f t="shared" ref="U77:Y77" si="118">U66-U76</f>
         <v>472050.32658386906</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>635026.06792594504</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>825183.03162423428</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>1046788.1839030061</v>
       </c>
       <c r="Y77" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>1304801.7772160741</v>
       </c>
     </row>
@@ -6332,23 +6317,23 @@
         <v>450256</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" ref="U78:Y78" si="124">U76+U77</f>
+        <f t="shared" ref="U78:Y78" si="119">U76+U77</f>
         <v>617881.09287420602</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>798174.42382112332</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>1007992.8918366906</v>
       </c>
       <c r="X78" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>1251948.2331245726</v>
       </c>
       <c r="Y78" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>1535400.4363337532</v>
       </c>
     </row>
@@ -6357,35 +6342,35 @@
         <v>55</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" ref="B80:I80" si="125">(B59/B22)*90</f>
+        <f t="shared" ref="B80:I80" si="120">(B59/B22)*90</f>
         <v>0</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>48.830194155635489</v>
       </c>
       <c r="J80" s="1">
@@ -6401,19 +6386,19 @@
         <v>54</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" ref="Q80:T80" si="126">(Q59/Q22)*360</f>
+        <f t="shared" ref="Q80:T80" si="121">(Q59/Q22)*360</f>
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>56.172339082740713</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>53.832660034626791</v>
       </c>
       <c r="U80" s="1">
@@ -6437,83 +6422,83 @@
         <v>56</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" ref="B82:M82" si="127">+B34</f>
+        <f t="shared" ref="B82:M82" si="122">+B34</f>
         <v>15051</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>18368</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>19689</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>20687</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>23662</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>23619</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>26301</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>26536</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>25070.994037106462</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>25599.177870790547</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>27430.765263364614</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>29428.276990884337</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" ref="R82:Y82" si="128">+R34</f>
+        <f t="shared" ref="R82:Y82" si="123">+R34</f>
         <v>63486</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>73975</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>100122</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>112326.18770798953</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>135032.17272473456</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>158374.59082360589</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>185414.5578544875</v>
       </c>
       <c r="Y82" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>216753.90149228091</v>
       </c>
     </row>
@@ -6535,15 +6520,15 @@
         <v>25070.994037106462</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ref="K83:M83" si="129">K82</f>
+        <f t="shared" ref="K83:M83" si="124">K82</f>
         <v>25599.177870790547</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>27430.765263364614</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>29428.276990884337</v>
       </c>
       <c r="R83" s="1">
@@ -6560,19 +6545,19 @@
         <v>112326.18770798953</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" ref="V83:Y83" si="130">V82</f>
+        <f t="shared" ref="V83:Y83" si="125">V82</f>
         <v>135032.17272473456</v>
       </c>
       <c r="W83" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>158374.59082360589</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>185414.5578544875</v>
       </c>
       <c r="Y83" s="1">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>216753.90149228091</v>
       </c>
     </row>
@@ -6597,19 +6582,19 @@
         <v>17607.649999999998</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" ref="V84:Y84" si="131">U84*1.15</f>
+        <f t="shared" ref="V84:Y84" si="126">U84*1.15</f>
         <v>20248.797499999997</v>
       </c>
       <c r="W84" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>23286.117124999993</v>
       </c>
       <c r="X84" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>26779.034693749989</v>
       </c>
       <c r="Y84" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>30795.889897812485</v>
       </c>
     </row>
@@ -6634,19 +6619,19 @@
         <v>23924.25</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" ref="V85:Y85" si="132">U85*1.05</f>
+        <f t="shared" ref="V85:Y85" si="127">U85*1.05</f>
         <v>25120.462500000001</v>
       </c>
       <c r="W85" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>26376.485625000001</v>
       </c>
       <c r="X85" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>27695.309906250004</v>
       </c>
       <c r="Y85" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>29080.075401562506</v>
       </c>
     </row>
@@ -6671,19 +6656,19 @@
         <v>-6124.6312145551838</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" ref="V86:Y86" si="133">U86*(1+V38)</f>
+        <f t="shared" ref="V86:Y86" si="128">U86*(1+V38)</f>
         <v>-6851.9389874808421</v>
       </c>
       <c r="W86" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>-7677.6869838053462</v>
       </c>
       <c r="X86" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>-8616.3549256844562</v>
       </c>
       <c r="Y86" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>-9684.7310179723827</v>
       </c>
     </row>
@@ -6708,19 +6693,19 @@
         <v>-3111.8299360998471</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" ref="V87:Y87" si="134">U87*(1+V38)</f>
+        <f t="shared" ref="V87:Y87" si="129">U87*(1+V38)</f>
         <v>-3481.363712300044</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>-3900.9134361316496</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>-4377.8360293899914</v>
       </c>
       <c r="Y87" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>-4920.6613180529266</v>
       </c>
     </row>
@@ -6745,19 +6730,19 @@
         <v>3983.2821233715376</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" ref="V88:Y88" si="135">U88*(1+V38)</f>
+        <f t="shared" ref="V88:Y88" si="130">U88*(1+V38)</f>
         <v>4456.3019589494006</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>4993.3444545616285</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>5603.826800630618</v>
       </c>
       <c r="Y88" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>6298.6675576274638</v>
       </c>
     </row>
@@ -6782,19 +6767,19 @@
         <v>-6863.2684962801195</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" ref="V89:Y89" si="136">U89*(1+V38)</f>
+        <f t="shared" ref="V89:Y89" si="131">U89*(1+V38)</f>
         <v>-7678.2903890526241</v>
       </c>
       <c r="W89" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="131"/>
         <v>-8603.6245047740722</v>
       </c>
       <c r="X89" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="131"/>
         <v>-9655.4968360675557</v>
       </c>
       <c r="Y89" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="131"/>
         <v>-10852.720263814974</v>
       </c>
     </row>
@@ -6819,19 +6804,19 @@
         <v>-2817.0740492285399</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" ref="V90:Y90" si="137">U90*(1+V38)</f>
+        <f t="shared" ref="V90:Y90" si="132">U90*(1+V38)</f>
         <v>-3151.6051876980555</v>
       </c>
       <c r="W90" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="132"/>
         <v>-3531.4147093097449</v>
       </c>
       <c r="X90" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="132"/>
         <v>-3963.1626802938972</v>
       </c>
       <c r="Y90" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="132"/>
         <v>-4454.5709723144801</v>
       </c>
     </row>
@@ -6856,19 +6841,19 @@
         <v>-1627.5651144633046</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" ref="V91:Y91" si="138">U91*(1+V38)</f>
+        <f t="shared" ref="V91:Y91" si="133">U91*(1+V38)</f>
         <v>-1820.8405488892404</v>
       </c>
       <c r="W91" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="133"/>
         <v>-2040.2755785383431</v>
       </c>
       <c r="X91" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="133"/>
         <v>-2289.7180580523468</v>
       </c>
       <c r="Y91" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="133"/>
         <v>-2573.6293003818569</v>
       </c>
     </row>
@@ -6893,19 +6878,19 @@
         <v>-1352.6149591208994</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" ref="V92:Y92" si="139">U92*(1+V38)</f>
+        <f t="shared" ref="V92:Y92" si="134">U92*(1+V38)</f>
         <v>-1513.2397117111009</v>
       </c>
       <c r="W92" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="134"/>
         <v>-1695.6048294080288</v>
       </c>
       <c r="X92" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="134"/>
         <v>-1902.9081355753576</v>
       </c>
       <c r="Y92" s="1">
-        <f t="shared" si="139"/>
+        <f t="shared" si="134"/>
         <v>-2138.857278270104</v>
       </c>
     </row>
@@ -6930,19 +6915,19 @@
         <v>-1352.6149591208994</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" ref="V93:Y93" si="140">U93*(1+V38)</f>
+        <f t="shared" ref="V93:Y93" si="135">U93*(1+V38)</f>
         <v>-1513.2397117111009</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="135"/>
         <v>-1695.6048294080288</v>
       </c>
       <c r="X93" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="135"/>
         <v>-1902.9081355753576</v>
       </c>
       <c r="Y93" s="1">
-        <f t="shared" si="140"/>
+        <f t="shared" si="135"/>
         <v>-2138.857278270104</v>
       </c>
     </row>
@@ -6967,19 +6952,19 @@
         <v>1233.780569947487</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" ref="V94:Y94" si="141">U94*(1+V38)</f>
+        <f t="shared" ref="V94:Y94" si="136">U94*(1+V38)</f>
         <v>1380.2935871680068</v>
       </c>
       <c r="W94" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="136"/>
         <v>1546.636963258486</v>
       </c>
       <c r="X94" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="136"/>
         <v>1735.7275758607266</v>
       </c>
       <c r="Y94" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="136"/>
         <v>1950.9473365099398</v>
       </c>
     </row>
@@ -7004,19 +6989,19 @@
         <v>1215.139881449697</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" ref="V95:Y95" si="142">U95*(1+V38)</f>
+        <f t="shared" ref="V95:Y95" si="137">U95*(1+V38)</f>
         <v>1359.4392931220314</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="137"/>
         <v>1523.2694548428717</v>
       </c>
       <c r="X95" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="137"/>
         <v>1709.5031743368629</v>
       </c>
       <c r="Y95" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="137"/>
         <v>1921.4712672142277</v>
       </c>
     </row>
@@ -7052,31 +7037,31 @@
         <v>91495</v>
       </c>
       <c r="S96" s="3">
-        <f t="shared" ref="S96:Y96" si="143">SUM(S83:S95)</f>
+        <f t="shared" ref="S96:Y96" si="138">SUM(S83:S95)</f>
         <v>101746</v>
       </c>
       <c r="T96" s="3">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>123779</v>
       </c>
       <c r="U96" s="3">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>137040.69155388948</v>
       </c>
       <c r="V96" s="3">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>161586.94931513094</v>
       </c>
       <c r="W96" s="3">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>186955.31957489366</v>
       </c>
       <c r="X96" s="3">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>216229.57520467674</v>
       </c>
       <c r="Y96" s="3">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>250036.92552393069</v>
       </c>
       <c r="AA96" s="1" t="s">
@@ -7111,15 +7096,15 @@
         <v>-75000</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" ref="W97:Y97" si="144">V97*1</f>
+        <f t="shared" ref="W97:Y97" si="139">V97*1</f>
         <v>-75000</v>
       </c>
       <c r="X97" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="139"/>
         <v>-75000</v>
       </c>
       <c r="Y97" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="139"/>
         <v>-75000</v>
       </c>
       <c r="AA97" s="1" t="s">
@@ -7154,19 +7139,19 @@
         <v>-106849.59151236438</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" ref="V98:Y98" si="145">U98*(1+V38)</f>
+        <f t="shared" ref="V98:Y98" si="140">U98*(1+V38)</f>
         <v>-119538.11686490974</v>
       </c>
       <c r="W98" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>-133944.01870757842</v>
       </c>
       <c r="X98" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>-150319.90855988179</v>
       </c>
       <c r="Y98" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>-168958.67145735232</v>
       </c>
       <c r="AA98" s="1" t="s">
@@ -7201,19 +7186,19 @@
         <v>121525.63857528081</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" ref="V99:Y99" si="146">U99*(1+V38)</f>
+        <f t="shared" ref="V99:Y99" si="141">U99*(1+V38)</f>
         <v>135956.96324598187</v>
       </c>
       <c r="W99" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="141"/>
         <v>152341.55017704694</v>
       </c>
       <c r="X99" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="141"/>
         <v>170966.70768463874</v>
       </c>
       <c r="Y99" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="141"/>
         <v>192165.54926473263</v>
       </c>
       <c r="AA99" s="1" t="s">
@@ -7248,19 +7233,19 @@
         <v>-3414.7411241889372</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" ref="V100:Y100" si="147">U100*(1+V38)</f>
+        <f t="shared" ref="V100:Y100" si="142">U100*(1+V38)</f>
         <v>-3820.2459905471464</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>-4280.6354478853855</v>
       </c>
       <c r="X100" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>-4803.9825541527762</v>
       </c>
       <c r="Y100" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>-5399.6474441082473</v>
       </c>
       <c r="AA100" s="1" t="s">
@@ -7292,19 +7277,19 @@
         <v>-3107.1697639753993</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" ref="V101:Y101" si="148">U101*(1+V38)</f>
+        <f t="shared" ref="V101:Y101" si="143">U101*(1+V38)</f>
         <v>-3476.1501387885496</v>
       </c>
       <c r="W101" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>-3895.0715590277455</v>
       </c>
       <c r="X101" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>-4371.2799290090252</v>
       </c>
       <c r="Y101" s="1">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>-4913.2923007289983</v>
       </c>
       <c r="AA101" s="1" t="s">
@@ -7338,31 +7323,31 @@
         <v>-31485</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" ref="S102:Y102" si="149">S97</f>
+        <f t="shared" ref="S102:Y102" si="144">S97</f>
         <v>-32251</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>-52535</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>-75000</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>-75000</v>
       </c>
       <c r="W102" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>-75000</v>
       </c>
       <c r="X102" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>-75000</v>
       </c>
       <c r="Y102" s="1">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>-75000</v>
       </c>
     </row>
@@ -7375,39 +7360,39 @@
         <v>0</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" ref="C103:K103" si="150">C96+C102</f>
+        <f t="shared" ref="C103:K103" si="145">C96+C102</f>
         <v>39466</v>
       </c>
       <c r="D103" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="E103" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>40386</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>24837</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="L103" s="3"/>
@@ -7433,601 +7418,601 @@
         <v>62040.691553889483</v>
       </c>
       <c r="V103" s="3">
-        <f t="shared" ref="V103:Y103" si="151">V96+V102</f>
+        <f t="shared" ref="V103:Y103" si="146">V96+V102</f>
         <v>86586.949315130943</v>
       </c>
       <c r="W103" s="3">
+        <f t="shared" si="146"/>
+        <v>111955.31957489366</v>
+      </c>
+      <c r="X103" s="3">
+        <f t="shared" si="146"/>
+        <v>141229.57520467674</v>
+      </c>
+      <c r="Y103" s="3">
+        <f t="shared" si="146"/>
+        <v>175036.92552393069</v>
+      </c>
+      <c r="Z103" s="3">
+        <f t="shared" ref="Z103:BE103" si="147">Y103*(1+$AB$97)</f>
+        <v>176787.29477917001</v>
+      </c>
+      <c r="AA103" s="3">
+        <f t="shared" si="147"/>
+        <v>178555.16772696172</v>
+      </c>
+      <c r="AB103" s="3">
+        <f t="shared" si="147"/>
+        <v>180340.71940423135</v>
+      </c>
+      <c r="AC103" s="3">
+        <f t="shared" si="147"/>
+        <v>182144.12659827367</v>
+      </c>
+      <c r="AD103" s="3">
+        <f t="shared" si="147"/>
+        <v>183965.56786425642</v>
+      </c>
+      <c r="AE103" s="3">
+        <f t="shared" si="147"/>
+        <v>185805.22354289898</v>
+      </c>
+      <c r="AF103" s="3">
+        <f t="shared" si="147"/>
+        <v>187663.27577832798</v>
+      </c>
+      <c r="AG103" s="3">
+        <f t="shared" si="147"/>
+        <v>189539.90853611127</v>
+      </c>
+      <c r="AH103" s="3">
+        <f t="shared" si="147"/>
+        <v>191435.30762147237</v>
+      </c>
+      <c r="AI103" s="3">
+        <f t="shared" si="147"/>
+        <v>193349.6606976871</v>
+      </c>
+      <c r="AJ103" s="3">
+        <f t="shared" si="147"/>
+        <v>195283.15730466397</v>
+      </c>
+      <c r="AK103" s="3">
+        <f t="shared" si="147"/>
+        <v>197235.9888777106</v>
+      </c>
+      <c r="AL103" s="3">
+        <f t="shared" si="147"/>
+        <v>199208.3487664877</v>
+      </c>
+      <c r="AM103" s="3">
+        <f t="shared" si="147"/>
+        <v>201200.43225415258</v>
+      </c>
+      <c r="AN103" s="3">
+        <f t="shared" si="147"/>
+        <v>203212.4365766941</v>
+      </c>
+      <c r="AO103" s="3">
+        <f t="shared" si="147"/>
+        <v>205244.56094246104</v>
+      </c>
+      <c r="AP103" s="3">
+        <f t="shared" si="147"/>
+        <v>207297.00655188566</v>
+      </c>
+      <c r="AQ103" s="3">
+        <f t="shared" si="147"/>
+        <v>209369.97661740452</v>
+      </c>
+      <c r="AR103" s="3">
+        <f t="shared" si="147"/>
+        <v>211463.67638357857</v>
+      </c>
+      <c r="AS103" s="3">
+        <f t="shared" si="147"/>
+        <v>213578.31314741436</v>
+      </c>
+      <c r="AT103" s="3">
+        <f t="shared" si="147"/>
+        <v>215714.09627888849</v>
+      </c>
+      <c r="AU103" s="3">
+        <f t="shared" si="147"/>
+        <v>217871.23724167739</v>
+      </c>
+      <c r="AV103" s="3">
+        <f t="shared" si="147"/>
+        <v>220049.94961409416</v>
+      </c>
+      <c r="AW103" s="3">
+        <f t="shared" si="147"/>
+        <v>222250.44911023512</v>
+      </c>
+      <c r="AX103" s="3">
+        <f t="shared" si="147"/>
+        <v>224472.95360133747</v>
+      </c>
+      <c r="AY103" s="3">
+        <f t="shared" si="147"/>
+        <v>226717.68313735086</v>
+      </c>
+      <c r="AZ103" s="3">
+        <f t="shared" si="147"/>
+        <v>228984.85996872437</v>
+      </c>
+      <c r="BA103" s="3">
+        <f t="shared" si="147"/>
+        <v>231274.70856841162</v>
+      </c>
+      <c r="BB103" s="3">
+        <f t="shared" si="147"/>
+        <v>233587.45565409574</v>
+      </c>
+      <c r="BC103" s="3">
+        <f t="shared" si="147"/>
+        <v>235923.33021063669</v>
+      </c>
+      <c r="BD103" s="3">
+        <f t="shared" si="147"/>
+        <v>238282.56351274307</v>
+      </c>
+      <c r="BE103" s="3">
+        <f t="shared" si="147"/>
+        <v>240665.3891478705</v>
+      </c>
+      <c r="BF103" s="3">
+        <f t="shared" ref="BF103:CK103" si="148">BE103*(1+$AB$97)</f>
+        <v>243072.0430393492</v>
+      </c>
+      <c r="BG103" s="3">
+        <f t="shared" si="148"/>
+        <v>245502.7634697427</v>
+      </c>
+      <c r="BH103" s="3">
+        <f t="shared" si="148"/>
+        <v>247957.79110444014</v>
+      </c>
+      <c r="BI103" s="3">
+        <f t="shared" si="148"/>
+        <v>250437.36901548455</v>
+      </c>
+      <c r="BJ103" s="3">
+        <f t="shared" si="148"/>
+        <v>252941.74270563939</v>
+      </c>
+      <c r="BK103" s="3">
+        <f t="shared" si="148"/>
+        <v>255471.16013269578</v>
+      </c>
+      <c r="BL103" s="3">
+        <f t="shared" si="148"/>
+        <v>258025.87173402274</v>
+      </c>
+      <c r="BM103" s="3">
+        <f t="shared" si="148"/>
+        <v>260606.13045136299</v>
+      </c>
+      <c r="BN103" s="3">
+        <f t="shared" si="148"/>
+        <v>263212.19175587664</v>
+      </c>
+      <c r="BO103" s="3">
+        <f t="shared" si="148"/>
+        <v>265844.31367343542</v>
+      </c>
+      <c r="BP103" s="3">
+        <f t="shared" si="148"/>
+        <v>268502.75681016978</v>
+      </c>
+      <c r="BQ103" s="3">
+        <f t="shared" si="148"/>
+        <v>271187.78437827149</v>
+      </c>
+      <c r="BR103" s="3">
+        <f t="shared" si="148"/>
+        <v>273899.6622220542</v>
+      </c>
+      <c r="BS103" s="3">
+        <f t="shared" si="148"/>
+        <v>276638.65884427476</v>
+      </c>
+      <c r="BT103" s="3">
+        <f t="shared" si="148"/>
+        <v>279405.04543271748</v>
+      </c>
+      <c r="BU103" s="3">
+        <f t="shared" si="148"/>
+        <v>282199.09588704468</v>
+      </c>
+      <c r="BV103" s="3">
+        <f t="shared" si="148"/>
+        <v>285021.08684591512</v>
+      </c>
+      <c r="BW103" s="3">
+        <f t="shared" si="148"/>
+        <v>287871.29771437426</v>
+      </c>
+      <c r="BX103" s="3">
+        <f t="shared" si="148"/>
+        <v>290750.01069151802</v>
+      </c>
+      <c r="BY103" s="3">
+        <f t="shared" si="148"/>
+        <v>293657.51079843321</v>
+      </c>
+      <c r="BZ103" s="3">
+        <f t="shared" si="148"/>
+        <v>296594.08590641757</v>
+      </c>
+      <c r="CA103" s="3">
+        <f t="shared" si="148"/>
+        <v>299560.02676548174</v>
+      </c>
+      <c r="CB103" s="3">
+        <f t="shared" si="148"/>
+        <v>302555.62703313655</v>
+      </c>
+      <c r="CC103" s="3">
+        <f t="shared" si="148"/>
+        <v>305581.18330346793</v>
+      </c>
+      <c r="CD103" s="3">
+        <f t="shared" si="148"/>
+        <v>308636.99513650261</v>
+      </c>
+      <c r="CE103" s="3">
+        <f t="shared" si="148"/>
+        <v>311723.36508786766</v>
+      </c>
+      <c r="CF103" s="3">
+        <f t="shared" si="148"/>
+        <v>314840.59873874631</v>
+      </c>
+      <c r="CG103" s="3">
+        <f t="shared" si="148"/>
+        <v>317989.00472613377</v>
+      </c>
+      <c r="CH103" s="3">
+        <f t="shared" si="148"/>
+        <v>321168.89477339509</v>
+      </c>
+      <c r="CI103" s="3">
+        <f t="shared" si="148"/>
+        <v>324380.58372112905</v>
+      </c>
+      <c r="CJ103" s="3">
+        <f t="shared" si="148"/>
+        <v>327624.38955834036</v>
+      </c>
+      <c r="CK103" s="3">
+        <f t="shared" si="148"/>
+        <v>330900.63345392374</v>
+      </c>
+      <c r="CL103" s="3">
+        <f t="shared" ref="CL103:DQ103" si="149">CK103*(1+$AB$97)</f>
+        <v>334209.63978846296</v>
+      </c>
+      <c r="CM103" s="3">
+        <f t="shared" si="149"/>
+        <v>337551.73618634761</v>
+      </c>
+      <c r="CN103" s="3">
+        <f t="shared" si="149"/>
+        <v>340927.25354821107</v>
+      </c>
+      <c r="CO103" s="3">
+        <f t="shared" si="149"/>
+        <v>344336.5260836932</v>
+      </c>
+      <c r="CP103" s="3">
+        <f t="shared" si="149"/>
+        <v>347779.89134453016</v>
+      </c>
+      <c r="CQ103" s="3">
+        <f t="shared" si="149"/>
+        <v>351257.69025797548</v>
+      </c>
+      <c r="CR103" s="3">
+        <f t="shared" si="149"/>
+        <v>354770.26716055523</v>
+      </c>
+      <c r="CS103" s="3">
+        <f t="shared" si="149"/>
+        <v>358317.9698321608</v>
+      </c>
+      <c r="CT103" s="3">
+        <f t="shared" si="149"/>
+        <v>361901.14953048242</v>
+      </c>
+      <c r="CU103" s="3">
+        <f t="shared" si="149"/>
+        <v>365520.16102578724</v>
+      </c>
+      <c r="CV103" s="3">
+        <f t="shared" si="149"/>
+        <v>369175.36263604509</v>
+      </c>
+      <c r="CW103" s="3">
+        <f t="shared" si="149"/>
+        <v>372867.11626240553</v>
+      </c>
+      <c r="CX103" s="3">
+        <f t="shared" si="149"/>
+        <v>376595.78742502962</v>
+      </c>
+      <c r="CY103" s="3">
+        <f t="shared" si="149"/>
+        <v>380361.74529927992</v>
+      </c>
+      <c r="CZ103" s="3">
+        <f t="shared" si="149"/>
+        <v>384165.36275227275</v>
+      </c>
+      <c r="DA103" s="3">
+        <f t="shared" si="149"/>
+        <v>388007.0163797955</v>
+      </c>
+      <c r="DB103" s="3">
+        <f t="shared" si="149"/>
+        <v>391887.08654359344</v>
+      </c>
+      <c r="DC103" s="3">
+        <f t="shared" si="149"/>
+        <v>395805.95740902936</v>
+      </c>
+      <c r="DD103" s="3">
+        <f t="shared" si="149"/>
+        <v>399764.01698311965</v>
+      </c>
+      <c r="DE103" s="3">
+        <f t="shared" si="149"/>
+        <v>403761.65715295088</v>
+      </c>
+      <c r="DF103" s="3">
+        <f t="shared" si="149"/>
+        <v>407799.27372448042</v>
+      </c>
+      <c r="DG103" s="3">
+        <f t="shared" si="149"/>
+        <v>411877.26646172523</v>
+      </c>
+      <c r="DH103" s="3">
+        <f t="shared" si="149"/>
+        <v>415996.03912634251</v>
+      </c>
+      <c r="DI103" s="3">
+        <f t="shared" si="149"/>
+        <v>420155.99951760593</v>
+      </c>
+      <c r="DJ103" s="3">
+        <f t="shared" si="149"/>
+        <v>424357.55951278197</v>
+      </c>
+      <c r="DK103" s="3">
+        <f t="shared" si="149"/>
+        <v>428601.13510790979</v>
+      </c>
+      <c r="DL103" s="3">
+        <f t="shared" si="149"/>
+        <v>432887.14645898889</v>
+      </c>
+      <c r="DM103" s="3">
+        <f t="shared" si="149"/>
+        <v>437216.01792357879</v>
+      </c>
+      <c r="DN103" s="3">
+        <f t="shared" si="149"/>
+        <v>441588.17810281459</v>
+      </c>
+      <c r="DO103" s="3">
+        <f t="shared" si="149"/>
+        <v>446004.05988384277</v>
+      </c>
+      <c r="DP103" s="3">
+        <f t="shared" si="149"/>
+        <v>450464.10048268118</v>
+      </c>
+      <c r="DQ103" s="3">
+        <f t="shared" si="149"/>
+        <v>454968.741487508</v>
+      </c>
+      <c r="DR103" s="3">
+        <f t="shared" ref="DR103:EW103" si="150">DQ103*(1+$AB$97)</f>
+        <v>459518.42890238308</v>
+      </c>
+      <c r="DS103" s="3">
+        <f t="shared" si="150"/>
+        <v>464113.61319140694</v>
+      </c>
+      <c r="DT103" s="3">
+        <f t="shared" si="150"/>
+        <v>468754.74932332104</v>
+      </c>
+      <c r="DU103" s="3">
+        <f t="shared" si="150"/>
+        <v>473442.29681655427</v>
+      </c>
+      <c r="DV103" s="3">
+        <f t="shared" si="150"/>
+        <v>478176.71978471981</v>
+      </c>
+      <c r="DW103" s="3">
+        <f t="shared" si="150"/>
+        <v>482958.486982567</v>
+      </c>
+      <c r="DX103" s="3">
+        <f t="shared" si="150"/>
+        <v>487788.07185239269</v>
+      </c>
+      <c r="DY103" s="3">
+        <f t="shared" si="150"/>
+        <v>492665.95257091662</v>
+      </c>
+      <c r="DZ103" s="3">
+        <f t="shared" si="150"/>
+        <v>497592.61209662579</v>
+      </c>
+      <c r="EA103" s="3">
+        <f t="shared" si="150"/>
+        <v>502568.53821759205</v>
+      </c>
+      <c r="EB103" s="3">
+        <f t="shared" si="150"/>
+        <v>507594.22359976795</v>
+      </c>
+      <c r="EC103" s="3">
+        <f t="shared" si="150"/>
+        <v>512670.16583576566</v>
+      </c>
+      <c r="ED103" s="3">
+        <f t="shared" si="150"/>
+        <v>517796.86749412329</v>
+      </c>
+      <c r="EE103" s="3">
+        <f t="shared" si="150"/>
+        <v>522974.83616906451</v>
+      </c>
+      <c r="EF103" s="3">
+        <f t="shared" si="150"/>
+        <v>528204.58453075518</v>
+      </c>
+      <c r="EG103" s="3">
+        <f t="shared" si="150"/>
+        <v>533486.63037606271</v>
+      </c>
+      <c r="EH103" s="3">
+        <f t="shared" si="150"/>
+        <v>538821.49667982338</v>
+      </c>
+      <c r="EI103" s="3">
+        <f t="shared" si="150"/>
+        <v>544209.71164662158</v>
+      </c>
+      <c r="EJ103" s="3">
+        <f t="shared" si="150"/>
+        <v>549651.80876308784</v>
+      </c>
+      <c r="EK103" s="3">
+        <f t="shared" si="150"/>
+        <v>555148.3268507187</v>
+      </c>
+      <c r="EL103" s="3">
+        <f t="shared" si="150"/>
+        <v>560699.81011922588</v>
+      </c>
+      <c r="EM103" s="3">
+        <f t="shared" si="150"/>
+        <v>566306.80822041817</v>
+      </c>
+      <c r="EN103" s="3">
+        <f t="shared" si="150"/>
+        <v>571969.87630262238</v>
+      </c>
+      <c r="EO103" s="3">
+        <f t="shared" si="150"/>
+        <v>577689.57506564865</v>
+      </c>
+      <c r="EP103" s="3">
+        <f t="shared" si="150"/>
+        <v>583466.47081630514</v>
+      </c>
+      <c r="EQ103" s="3">
+        <f t="shared" si="150"/>
+        <v>589301.13552446815</v>
+      </c>
+      <c r="ER103" s="3">
+        <f t="shared" si="150"/>
+        <v>595194.14687971282</v>
+      </c>
+      <c r="ES103" s="3">
+        <f t="shared" si="150"/>
+        <v>601146.08834850998</v>
+      </c>
+      <c r="ET103" s="3">
+        <f t="shared" si="150"/>
+        <v>607157.54923199513</v>
+      </c>
+      <c r="EU103" s="3">
+        <f t="shared" si="150"/>
+        <v>613229.12472431513</v>
+      </c>
+      <c r="EV103" s="3">
+        <f t="shared" si="150"/>
+        <v>619361.41597155831</v>
+      </c>
+      <c r="EW103" s="3">
+        <f t="shared" si="150"/>
+        <v>625555.0301312739</v>
+      </c>
+      <c r="EX103" s="3">
+        <f t="shared" ref="EX103:FF103" si="151">EW103*(1+$AB$97)</f>
+        <v>631810.5804325866</v>
+      </c>
+      <c r="EY103" s="3">
         <f t="shared" si="151"/>
-        <v>111955.31957489366</v>
-      </c>
-      <c r="X103" s="3">
+        <v>638128.6862369125</v>
+      </c>
+      <c r="EZ103" s="3">
         <f t="shared" si="151"/>
-        <v>141229.57520467674</v>
-      </c>
-      <c r="Y103" s="3">
+        <v>644509.97309928166</v>
+      </c>
+      <c r="FA103" s="3">
         <f t="shared" si="151"/>
-        <v>175036.92552393069</v>
-      </c>
-      <c r="Z103" s="3">
-        <f t="shared" ref="Z103:BE103" si="152">Y103*(1+$AB$97)</f>
-        <v>176787.29477917001</v>
-      </c>
-      <c r="AA103" s="3">
-        <f t="shared" si="152"/>
-        <v>178555.16772696172</v>
-      </c>
-      <c r="AB103" s="3">
-        <f t="shared" si="152"/>
-        <v>180340.71940423135</v>
-      </c>
-      <c r="AC103" s="3">
-        <f t="shared" si="152"/>
-        <v>182144.12659827367</v>
-      </c>
-      <c r="AD103" s="3">
-        <f t="shared" si="152"/>
-        <v>183965.56786425642</v>
-      </c>
-      <c r="AE103" s="3">
-        <f t="shared" si="152"/>
-        <v>185805.22354289898</v>
-      </c>
-      <c r="AF103" s="3">
-        <f t="shared" si="152"/>
-        <v>187663.27577832798</v>
-      </c>
-      <c r="AG103" s="3">
-        <f t="shared" si="152"/>
-        <v>189539.90853611127</v>
-      </c>
-      <c r="AH103" s="3">
-        <f t="shared" si="152"/>
-        <v>191435.30762147237</v>
-      </c>
-      <c r="AI103" s="3">
-        <f t="shared" si="152"/>
-        <v>193349.6606976871</v>
-      </c>
-      <c r="AJ103" s="3">
-        <f t="shared" si="152"/>
-        <v>195283.15730466397</v>
-      </c>
-      <c r="AK103" s="3">
-        <f t="shared" si="152"/>
-        <v>197235.9888777106</v>
-      </c>
-      <c r="AL103" s="3">
-        <f t="shared" si="152"/>
-        <v>199208.3487664877</v>
-      </c>
-      <c r="AM103" s="3">
-        <f t="shared" si="152"/>
-        <v>201200.43225415258</v>
-      </c>
-      <c r="AN103" s="3">
-        <f t="shared" si="152"/>
-        <v>203212.4365766941</v>
-      </c>
-      <c r="AO103" s="3">
-        <f t="shared" si="152"/>
-        <v>205244.56094246104</v>
-      </c>
-      <c r="AP103" s="3">
-        <f t="shared" si="152"/>
-        <v>207297.00655188566</v>
-      </c>
-      <c r="AQ103" s="3">
-        <f t="shared" si="152"/>
-        <v>209369.97661740452</v>
-      </c>
-      <c r="AR103" s="3">
-        <f t="shared" si="152"/>
-        <v>211463.67638357857</v>
-      </c>
-      <c r="AS103" s="3">
-        <f t="shared" si="152"/>
-        <v>213578.31314741436</v>
-      </c>
-      <c r="AT103" s="3">
-        <f t="shared" si="152"/>
-        <v>215714.09627888849</v>
-      </c>
-      <c r="AU103" s="3">
-        <f t="shared" si="152"/>
-        <v>217871.23724167739</v>
-      </c>
-      <c r="AV103" s="3">
-        <f t="shared" si="152"/>
-        <v>220049.94961409416</v>
-      </c>
-      <c r="AW103" s="3">
-        <f t="shared" si="152"/>
-        <v>222250.44911023512</v>
-      </c>
-      <c r="AX103" s="3">
-        <f t="shared" si="152"/>
-        <v>224472.95360133747</v>
-      </c>
-      <c r="AY103" s="3">
-        <f t="shared" si="152"/>
-        <v>226717.68313735086</v>
-      </c>
-      <c r="AZ103" s="3">
-        <f t="shared" si="152"/>
-        <v>228984.85996872437</v>
-      </c>
-      <c r="BA103" s="3">
-        <f t="shared" si="152"/>
-        <v>231274.70856841162</v>
-      </c>
-      <c r="BB103" s="3">
-        <f t="shared" si="152"/>
-        <v>233587.45565409574</v>
-      </c>
-      <c r="BC103" s="3">
-        <f t="shared" si="152"/>
-        <v>235923.33021063669</v>
-      </c>
-      <c r="BD103" s="3">
-        <f t="shared" si="152"/>
-        <v>238282.56351274307</v>
-      </c>
-      <c r="BE103" s="3">
-        <f t="shared" si="152"/>
-        <v>240665.3891478705</v>
-      </c>
-      <c r="BF103" s="3">
-        <f t="shared" ref="BF103:CK103" si="153">BE103*(1+$AB$97)</f>
-        <v>243072.0430393492</v>
-      </c>
-      <c r="BG103" s="3">
-        <f t="shared" si="153"/>
-        <v>245502.7634697427</v>
-      </c>
-      <c r="BH103" s="3">
-        <f t="shared" si="153"/>
-        <v>247957.79110444014</v>
-      </c>
-      <c r="BI103" s="3">
-        <f t="shared" si="153"/>
-        <v>250437.36901548455</v>
-      </c>
-      <c r="BJ103" s="3">
-        <f t="shared" si="153"/>
-        <v>252941.74270563939</v>
-      </c>
-      <c r="BK103" s="3">
-        <f t="shared" si="153"/>
-        <v>255471.16013269578</v>
-      </c>
-      <c r="BL103" s="3">
-        <f t="shared" si="153"/>
-        <v>258025.87173402274</v>
-      </c>
-      <c r="BM103" s="3">
-        <f t="shared" si="153"/>
-        <v>260606.13045136299</v>
-      </c>
-      <c r="BN103" s="3">
-        <f t="shared" si="153"/>
-        <v>263212.19175587664</v>
-      </c>
-      <c r="BO103" s="3">
-        <f t="shared" si="153"/>
-        <v>265844.31367343542</v>
-      </c>
-      <c r="BP103" s="3">
-        <f t="shared" si="153"/>
-        <v>268502.75681016978</v>
-      </c>
-      <c r="BQ103" s="3">
-        <f t="shared" si="153"/>
-        <v>271187.78437827149</v>
-      </c>
-      <c r="BR103" s="3">
-        <f t="shared" si="153"/>
-        <v>273899.6622220542</v>
-      </c>
-      <c r="BS103" s="3">
-        <f t="shared" si="153"/>
-        <v>276638.65884427476</v>
-      </c>
-      <c r="BT103" s="3">
-        <f t="shared" si="153"/>
-        <v>279405.04543271748</v>
-      </c>
-      <c r="BU103" s="3">
-        <f t="shared" si="153"/>
-        <v>282199.09588704468</v>
-      </c>
-      <c r="BV103" s="3">
-        <f t="shared" si="153"/>
-        <v>285021.08684591512</v>
-      </c>
-      <c r="BW103" s="3">
-        <f t="shared" si="153"/>
-        <v>287871.29771437426</v>
-      </c>
-      <c r="BX103" s="3">
-        <f t="shared" si="153"/>
-        <v>290750.01069151802</v>
-      </c>
-      <c r="BY103" s="3">
-        <f t="shared" si="153"/>
-        <v>293657.51079843321</v>
-      </c>
-      <c r="BZ103" s="3">
-        <f t="shared" si="153"/>
-        <v>296594.08590641757</v>
-      </c>
-      <c r="CA103" s="3">
-        <f t="shared" si="153"/>
-        <v>299560.02676548174</v>
-      </c>
-      <c r="CB103" s="3">
-        <f t="shared" si="153"/>
-        <v>302555.62703313655</v>
-      </c>
-      <c r="CC103" s="3">
-        <f t="shared" si="153"/>
-        <v>305581.18330346793</v>
-      </c>
-      <c r="CD103" s="3">
-        <f t="shared" si="153"/>
-        <v>308636.99513650261</v>
-      </c>
-      <c r="CE103" s="3">
-        <f t="shared" si="153"/>
-        <v>311723.36508786766</v>
-      </c>
-      <c r="CF103" s="3">
-        <f t="shared" si="153"/>
-        <v>314840.59873874631</v>
-      </c>
-      <c r="CG103" s="3">
-        <f t="shared" si="153"/>
-        <v>317989.00472613377</v>
-      </c>
-      <c r="CH103" s="3">
-        <f t="shared" si="153"/>
-        <v>321168.89477339509</v>
-      </c>
-      <c r="CI103" s="3">
-        <f t="shared" si="153"/>
-        <v>324380.58372112905</v>
-      </c>
-      <c r="CJ103" s="3">
-        <f t="shared" si="153"/>
-        <v>327624.38955834036</v>
-      </c>
-      <c r="CK103" s="3">
-        <f t="shared" si="153"/>
-        <v>330900.63345392374</v>
-      </c>
-      <c r="CL103" s="3">
-        <f t="shared" ref="CL103:DQ103" si="154">CK103*(1+$AB$97)</f>
-        <v>334209.63978846296</v>
-      </c>
-      <c r="CM103" s="3">
-        <f t="shared" si="154"/>
-        <v>337551.73618634761</v>
-      </c>
-      <c r="CN103" s="3">
-        <f t="shared" si="154"/>
-        <v>340927.25354821107</v>
-      </c>
-      <c r="CO103" s="3">
-        <f t="shared" si="154"/>
-        <v>344336.5260836932</v>
-      </c>
-      <c r="CP103" s="3">
-        <f t="shared" si="154"/>
-        <v>347779.89134453016</v>
-      </c>
-      <c r="CQ103" s="3">
-        <f t="shared" si="154"/>
-        <v>351257.69025797548</v>
-      </c>
-      <c r="CR103" s="3">
-        <f t="shared" si="154"/>
-        <v>354770.26716055523</v>
-      </c>
-      <c r="CS103" s="3">
-        <f t="shared" si="154"/>
-        <v>358317.9698321608</v>
-      </c>
-      <c r="CT103" s="3">
-        <f t="shared" si="154"/>
-        <v>361901.14953048242</v>
-      </c>
-      <c r="CU103" s="3">
-        <f t="shared" si="154"/>
-        <v>365520.16102578724</v>
-      </c>
-      <c r="CV103" s="3">
-        <f t="shared" si="154"/>
-        <v>369175.36263604509</v>
-      </c>
-      <c r="CW103" s="3">
-        <f t="shared" si="154"/>
-        <v>372867.11626240553</v>
-      </c>
-      <c r="CX103" s="3">
-        <f t="shared" si="154"/>
-        <v>376595.78742502962</v>
-      </c>
-      <c r="CY103" s="3">
-        <f t="shared" si="154"/>
-        <v>380361.74529927992</v>
-      </c>
-      <c r="CZ103" s="3">
-        <f t="shared" si="154"/>
-        <v>384165.36275227275</v>
-      </c>
-      <c r="DA103" s="3">
-        <f t="shared" si="154"/>
-        <v>388007.0163797955</v>
-      </c>
-      <c r="DB103" s="3">
-        <f t="shared" si="154"/>
-        <v>391887.08654359344</v>
-      </c>
-      <c r="DC103" s="3">
-        <f t="shared" si="154"/>
-        <v>395805.95740902936</v>
-      </c>
-      <c r="DD103" s="3">
-        <f t="shared" si="154"/>
-        <v>399764.01698311965</v>
-      </c>
-      <c r="DE103" s="3">
-        <f t="shared" si="154"/>
-        <v>403761.65715295088</v>
-      </c>
-      <c r="DF103" s="3">
-        <f t="shared" si="154"/>
-        <v>407799.27372448042</v>
-      </c>
-      <c r="DG103" s="3">
-        <f t="shared" si="154"/>
-        <v>411877.26646172523</v>
-      </c>
-      <c r="DH103" s="3">
-        <f t="shared" si="154"/>
-        <v>415996.03912634251</v>
-      </c>
-      <c r="DI103" s="3">
-        <f t="shared" si="154"/>
-        <v>420155.99951760593</v>
-      </c>
-      <c r="DJ103" s="3">
-        <f t="shared" si="154"/>
-        <v>424357.55951278197</v>
-      </c>
-      <c r="DK103" s="3">
-        <f t="shared" si="154"/>
-        <v>428601.13510790979</v>
-      </c>
-      <c r="DL103" s="3">
-        <f t="shared" si="154"/>
-        <v>432887.14645898889</v>
-      </c>
-      <c r="DM103" s="3">
-        <f t="shared" si="154"/>
-        <v>437216.01792357879</v>
-      </c>
-      <c r="DN103" s="3">
-        <f t="shared" si="154"/>
-        <v>441588.17810281459</v>
-      </c>
-      <c r="DO103" s="3">
-        <f t="shared" si="154"/>
-        <v>446004.05988384277</v>
-      </c>
-      <c r="DP103" s="3">
-        <f t="shared" si="154"/>
-        <v>450464.10048268118</v>
-      </c>
-      <c r="DQ103" s="3">
-        <f t="shared" si="154"/>
-        <v>454968.741487508</v>
-      </c>
-      <c r="DR103" s="3">
-        <f t="shared" ref="DR103:EW103" si="155">DQ103*(1+$AB$97)</f>
-        <v>459518.42890238308</v>
-      </c>
-      <c r="DS103" s="3">
-        <f t="shared" si="155"/>
-        <v>464113.61319140694</v>
-      </c>
-      <c r="DT103" s="3">
-        <f t="shared" si="155"/>
-        <v>468754.74932332104</v>
-      </c>
-      <c r="DU103" s="3">
-        <f t="shared" si="155"/>
-        <v>473442.29681655427</v>
-      </c>
-      <c r="DV103" s="3">
-        <f t="shared" si="155"/>
-        <v>478176.71978471981</v>
-      </c>
-      <c r="DW103" s="3">
-        <f t="shared" si="155"/>
-        <v>482958.486982567</v>
-      </c>
-      <c r="DX103" s="3">
-        <f t="shared" si="155"/>
-        <v>487788.07185239269</v>
-      </c>
-      <c r="DY103" s="3">
-        <f t="shared" si="155"/>
-        <v>492665.95257091662</v>
-      </c>
-      <c r="DZ103" s="3">
-        <f t="shared" si="155"/>
-        <v>497592.61209662579</v>
-      </c>
-      <c r="EA103" s="3">
-        <f t="shared" si="155"/>
-        <v>502568.53821759205</v>
-      </c>
-      <c r="EB103" s="3">
-        <f t="shared" si="155"/>
-        <v>507594.22359976795</v>
-      </c>
-      <c r="EC103" s="3">
-        <f t="shared" si="155"/>
-        <v>512670.16583576566</v>
-      </c>
-      <c r="ED103" s="3">
-        <f t="shared" si="155"/>
-        <v>517796.86749412329</v>
-      </c>
-      <c r="EE103" s="3">
-        <f t="shared" si="155"/>
-        <v>522974.83616906451</v>
-      </c>
-      <c r="EF103" s="3">
-        <f t="shared" si="155"/>
-        <v>528204.58453075518</v>
-      </c>
-      <c r="EG103" s="3">
-        <f t="shared" si="155"/>
-        <v>533486.63037606271</v>
-      </c>
-      <c r="EH103" s="3">
-        <f t="shared" si="155"/>
-        <v>538821.49667982338</v>
-      </c>
-      <c r="EI103" s="3">
-        <f t="shared" si="155"/>
-        <v>544209.71164662158</v>
-      </c>
-      <c r="EJ103" s="3">
-        <f t="shared" si="155"/>
-        <v>549651.80876308784</v>
-      </c>
-      <c r="EK103" s="3">
-        <f t="shared" si="155"/>
-        <v>555148.3268507187</v>
-      </c>
-      <c r="EL103" s="3">
-        <f t="shared" si="155"/>
-        <v>560699.81011922588</v>
-      </c>
-      <c r="EM103" s="3">
-        <f t="shared" si="155"/>
-        <v>566306.80822041817</v>
-      </c>
-      <c r="EN103" s="3">
-        <f t="shared" si="155"/>
-        <v>571969.87630262238</v>
-      </c>
-      <c r="EO103" s="3">
-        <f t="shared" si="155"/>
-        <v>577689.57506564865</v>
-      </c>
-      <c r="EP103" s="3">
-        <f t="shared" si="155"/>
-        <v>583466.47081630514</v>
-      </c>
-      <c r="EQ103" s="3">
-        <f t="shared" si="155"/>
-        <v>589301.13552446815</v>
-      </c>
-      <c r="ER103" s="3">
-        <f t="shared" si="155"/>
-        <v>595194.14687971282</v>
-      </c>
-      <c r="ES103" s="3">
-        <f t="shared" si="155"/>
-        <v>601146.08834850998</v>
-      </c>
-      <c r="ET103" s="3">
-        <f t="shared" si="155"/>
-        <v>607157.54923199513</v>
-      </c>
-      <c r="EU103" s="3">
-        <f t="shared" si="155"/>
-        <v>613229.12472431513</v>
-      </c>
-      <c r="EV103" s="3">
-        <f t="shared" si="155"/>
-        <v>619361.41597155831</v>
-      </c>
-      <c r="EW103" s="3">
-        <f t="shared" si="155"/>
-        <v>625555.0301312739</v>
-      </c>
-      <c r="EX103" s="3">
-        <f t="shared" ref="EX103:FF103" si="156">EW103*(1+$AB$97)</f>
-        <v>631810.5804325866</v>
-      </c>
-      <c r="EY103" s="3">
-        <f t="shared" si="156"/>
-        <v>638128.6862369125</v>
-      </c>
-      <c r="EZ103" s="3">
-        <f t="shared" si="156"/>
-        <v>644509.97309928166</v>
-      </c>
-      <c r="FA103" s="3">
-        <f t="shared" si="156"/>
         <v>650955.07283027447</v>
       </c>
       <c r="FB103" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>657464.62355857727</v>
       </c>
       <c r="FC103" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>664039.26979416306</v>
       </c>
       <c r="FD103" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>670679.66249210469</v>
       </c>
       <c r="FE103" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>677386.45911702572</v>
       </c>
       <c r="FF103" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>684160.32370819594</v>
       </c>
     </row>
     <row r="104" spans="1:162" x14ac:dyDescent="0.2">
       <c r="R104" s="4">
-        <f t="shared" ref="R104:Y104" si="157">R103/R96</f>
+        <f t="shared" ref="R104:Y104" si="152">R103/R96</f>
         <v>0.65588283512760259</v>
       </c>
       <c r="S104" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>0.6830243940793741</v>
       </c>
       <c r="T104" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>0.57557420887226429</v>
       </c>
       <c r="U104" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>0.45271729769031982</v>
       </c>
       <c r="V104" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>0.53585360502268586</v>
       </c>
       <c r="W104" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>0.59883462973646351</v>
       </c>
       <c r="X104" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>0.65314643045935261</v>
       </c>
       <c r="Y104" s="4">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>0.7000443040849107</v>
       </c>
     </row>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E05895B-4413-44D0-8FE4-8E8DAE965011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE6923E-300E-4291-A302-1E028BDDA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1635" windowWidth="19155" windowHeight="14565" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="2910" yWindow="195" windowWidth="20925" windowHeight="15015" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     Cloud CAGR 20%</t>
       </text>
     </comment>
-    <comment ref="J73" authorId="3" shapeId="0" xr:uid="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
+    <comment ref="J72" authorId="3" shapeId="0" xr:uid="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -129,7 +129,7 @@
     "16B-18B Debt 1st Quarter"</t>
       </text>
     </comment>
-    <comment ref="J100" authorId="4" shapeId="0" xr:uid="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
+    <comment ref="J99" authorId="4" shapeId="0" xr:uid="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -137,7 +137,7 @@
     Acquisition of Wiz</t>
       </text>
     </comment>
-    <comment ref="U102" authorId="5" shapeId="0" xr:uid="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
+    <comment ref="U101" authorId="5" shapeId="0" xr:uid="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -245,9 +245,6 @@
     <t>Diff</t>
   </si>
   <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>Google Search</t>
   </si>
   <si>
@@ -503,7 +500,10 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>How will LLMs affect Google traffic and ad monetization?</t>
+    <t>How are LLMs affecting Google traffic and ad monetization?</t>
+  </si>
+  <si>
+    <t>Is the high CapEx transitory or persistant?</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +614,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -664,7 +664,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1062,13 +1062,13 @@
   <threadedComment ref="V20" dT="2025-04-27T02:21:17.68" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{DA029D8C-EB1E-4E9F-9C18-38930E694876}">
     <text>Cloud CAGR 20%</text>
   </threadedComment>
-  <threadedComment ref="J73" dT="2025-04-24T04:58:21.95" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
+  <threadedComment ref="J72" dT="2025-04-24T04:58:21.95" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{3B68AEFE-707F-4EB5-AB45-6DCA4A93072B}">
     <text>"16B-18B Debt 1st Quarter"</text>
   </threadedComment>
-  <threadedComment ref="J100" dT="2025-04-24T04:59:59.64" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
+  <threadedComment ref="J99" dT="2025-04-24T04:59:59.64" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{B2A26FD5-756A-4436-88C9-DC45B78A3F12}">
     <text>Acquisition of Wiz</text>
   </threadedComment>
-  <threadedComment ref="U102" dT="2025-04-24T04:29:36.04" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
+  <threadedComment ref="U101" dT="2025-04-24T04:29:36.04" personId="{3A2E8EA1-30C2-44C0-B0DD-30A8B6E5D02D}" id="{50D81D40-768D-4E6C-B865-C43BC614BF3C}">
     <text>“expect 75 bil in CAPEX 2025”</text>
   </threadedComment>
 </ThreadedComments>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>0</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>1</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>2</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>3</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>4</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>5</v>
@@ -1173,36 +1173,39 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>116</v>
+        <v>94</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
-      <c r="L11" s="13" t="s">
-        <v>117</v>
+      <c r="L11" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4"/>
     </row>
@@ -1217,13 +1220,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE51D38-ABFE-4FA6-A788-1C5637E2C7B6}">
-  <dimension ref="A1:HK109"/>
+  <dimension ref="A1:HK108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA89" sqref="AA89"/>
+      <selection pane="bottomRight" activeCell="AB105" sqref="AB105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1250,16 +1253,16 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>21</v>
@@ -1280,10 +1283,10 @@
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="O1" s="2">
         <v>2019</v>
@@ -1335,7 +1338,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3"/>
       <c r="D3" s="3"/>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1427,7 +1430,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
@@ -1452,7 +1455,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1622,7 +1625,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1675,7 +1678,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1702,7 +1705,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T12" s="1">
         <v>183323</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" ref="B13:J13" si="3">B20+B16</f>
@@ -1827,7 +1830,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>40359</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>6693</v>
@@ -1987,7 +1990,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>7496</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>7413</v>
@@ -2140,7 +2143,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="1">
         <f>SUM(B15:B18)</f>
@@ -2237,7 +2240,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1">
         <v>7454</v>
@@ -2525,19 +2528,19 @@
         <v>40613</v>
       </c>
       <c r="J23" s="1">
-        <f>J22*(1-J43)</f>
+        <f>J22*(1-J42)</f>
         <v>38508.548400000007</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ref="K23:M23" si="32">K22*(1-K43)</f>
+        <f>K22*(1-K42)</f>
         <v>41215.871760000009</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="32"/>
+        <f>L22*(1-L42)</f>
         <v>44164.812990480008</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="32"/>
+        <f>M22*(1-M42)</f>
         <v>47380.900148282417</v>
       </c>
       <c r="O23" s="1">
@@ -2563,19 +2566,19 @@
         <v>171270.13329876243</v>
       </c>
       <c r="V23" s="1">
-        <f>V22*(1-V43)</f>
+        <f>V22*(1-V42)</f>
         <v>185352.06405377053</v>
       </c>
       <c r="W23" s="1">
-        <f>W22*(1-W43)</f>
+        <f>W22*(1-W42)</f>
         <v>204654.3934344195</v>
       </c>
       <c r="X23" s="1">
-        <f>X22*(1-X43)</f>
+        <f>X22*(1-X42)</f>
         <v>226235.14772864743</v>
       </c>
       <c r="Y23" s="1">
-        <f>Y22*(1-Y43)</f>
+        <f>Y22*(1-Y42)</f>
         <v>250381.59051432519</v>
       </c>
     </row>
@@ -2588,47 +2591,47 @@
         <v>39175</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:M24" si="33">C22-C23</f>
+        <f t="shared" ref="C24:M24" si="32">C22-C23</f>
         <v>42688</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>43464</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>48735</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>46827</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>49235</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>51794</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>55856</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>53178.471599999997</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>56917.156239999997</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>60989.503653519998</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>65430.766871437612</v>
       </c>
       <c r="O24" s="1">
@@ -2644,15 +2647,15 @@
         <v>146698</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:T24" si="34">R22-R23</f>
+        <f t="shared" ref="R24:T24" si="33">R22-R23</f>
         <v>156633</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>174062</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>203716</v>
       </c>
       <c r="U24" s="1">
@@ -2709,15 +2712,15 @@
         <v>12465.838293337758</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:M25" si="35">J25*(1+K39)</f>
+        <f t="shared" ref="K25:M25" si="34">J25*(1+K39)</f>
         <v>13342.24253644176</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>14296.862381725779</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>15337.961672979383</v>
       </c>
       <c r="O25" s="1">
@@ -2743,19 +2746,19 @@
         <v>57466.912552624875</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" ref="V25:Y25" si="36">U25*(1+V38)</f>
+        <f t="shared" ref="V25:Y25" si="35">U25*(1+V38)</f>
         <v>64291.181756986873</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>72039.107506787623</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>80846.551847881216</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>90871.037130018231</v>
       </c>
     </row>
@@ -2792,15 +2795,15 @@
         <v>6998.0151992868186</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ref="K26:M26" si="37">J26*(1+K39)</f>
+        <f t="shared" ref="K26:M26" si="36">J26*(1+K39)</f>
         <v>7490.0069987664438</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>8025.9071147184286</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>8610.3546659154617</v>
       </c>
       <c r="O26" s="1">
@@ -2826,19 +2829,19 @@
         <v>29198.400000000001</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" ref="V26:Y26" si="38">U26*1.05</f>
+        <f t="shared" ref="V26:Y26" si="37">U26*1.05</f>
         <v>30658.320000000003</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>32191.236000000004</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>33800.797800000008</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>35490.837690000008</v>
       </c>
     </row>
@@ -2875,15 +2878,15 @@
         <v>4186.643617120526</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ref="K27:M27" si="39">J27*(1+K39)</f>
+        <f t="shared" ref="K27:M27" si="38">J27*(1+K39)</f>
         <v>4480.983407519514</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>4801.5918566256523</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>5151.2443709571653</v>
       </c>
       <c r="O27" s="1">
@@ -2910,213 +2913,213 @@
         <v>14471.76</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" ref="V27:Y27" si="40">U27*1.02</f>
+        <f t="shared" ref="V27:Y27" si="39">U27*1.02</f>
         <v>14761.1952</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>15056.419104000001</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>15357.54748608</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>15664.698435801602</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1">
         <f>SUM(B25:B27)</f>
         <v>21760</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:K28" si="41">SUM(C25:C27)</f>
+        <f t="shared" ref="C28:K28" si="40">SUM(C25:C27)</f>
         <v>20850</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" si="40"/>
+        <v>22121</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="40"/>
+        <v>25038</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="40"/>
+        <v>21355</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="40"/>
+        <v>21810</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="40"/>
+        <v>23273</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="40"/>
+        <v>24884</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="40"/>
+        <v>23650.497109745105</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="40"/>
+        <v>25313.232942727718</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28:M28" si="41">SUM(L25:L27)</f>
+        <v>27124.36135306986</v>
+      </c>
+      <c r="M28" s="1">
         <f t="shared" si="41"/>
-        <v>22121</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="41"/>
-        <v>25038</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="41"/>
-        <v>21355</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="41"/>
-        <v>21810</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="41"/>
-        <v>23273</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="41"/>
-        <v>24884</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="41"/>
-        <v>23650.497109745105</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="41"/>
-        <v>25313.232942727718</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" ref="L28:M28" si="42">SUM(L25:L27)</f>
-        <v>27124.36135306986</v>
-      </c>
-      <c r="M28" s="1">
+        <v>29099.560709852012</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ref="O28:Y28" si="42">SUM(O25:O27)</f>
+        <v>55730</v>
+      </c>
+      <c r="P28" s="1">
         <f t="shared" si="42"/>
-        <v>29099.560709852012</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" ref="O28:Y28" si="43">SUM(O25:O27)</f>
-        <v>55730</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="43"/>
         <v>56571</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>67984</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>81791</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>89589</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>91322</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>101137.07255262487</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>109710.69695698688</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>119286.76261078763</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>130004.89713396123</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>142026.57325581985</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <f>B24-B28</f>
         <v>17415</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:K29" si="44">C24-C28</f>
+        <f t="shared" ref="C29:K29" si="43">C24-C28</f>
         <v>21838</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" si="43"/>
+        <v>21343</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="43"/>
+        <v>23697</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="43"/>
+        <v>25472</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="43"/>
+        <v>27425</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="43"/>
+        <v>28521</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="43"/>
+        <v>30972</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="43"/>
+        <v>29527.974490254892</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="43"/>
+        <v>31603.923297272278</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ref="L29:M29" si="44">L24-L28</f>
+        <v>33865.142300450141</v>
+      </c>
+      <c r="M29" s="1">
         <f t="shared" si="44"/>
-        <v>21343</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="44"/>
-        <v>23697</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="44"/>
-        <v>25472</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="44"/>
-        <v>27425</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="44"/>
-        <v>28521</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="44"/>
-        <v>30972</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="44"/>
-        <v>29527.974490254892</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="44"/>
-        <v>31603.923297272278</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" ref="L29:M29" si="45">L24-L28</f>
-        <v>33865.142300450141</v>
-      </c>
-      <c r="M29" s="1">
+        <v>36331.2061615856</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" ref="O29:Y29" si="45">O24-O28</f>
+        <v>34231</v>
+      </c>
+      <c r="P29" s="1">
         <f t="shared" si="45"/>
-        <v>36331.2061615856</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" ref="O29:Y29" si="46">O24-O28</f>
-        <v>34231</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" si="46"/>
         <v>41224</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>78714</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>74842</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>84473</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>112394</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>135378.82581233274</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>161148.38232575942</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>187249.37899332808</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>217448.24092362341</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>252414.01265151321</v>
       </c>
     </row>
@@ -3125,27 +3128,27 @@
         <v>12</v>
       </c>
       <c r="J30" s="1">
-        <f>I56*$AB$96/4</f>
+        <f>I55*$AB$94/4</f>
         <v>423.87</v>
       </c>
       <c r="U30" s="1">
-        <f>T56*$AB$96</f>
+        <f>T55*$AB$94</f>
         <v>1695.48</v>
       </c>
       <c r="V30" s="1">
-        <f>U56*$AB$96</f>
+        <f>U55*$AB$94</f>
         <v>3942.0037541597908</v>
       </c>
       <c r="W30" s="1">
-        <f>V56*$AB$96</f>
+        <f>V55*$AB$94</f>
         <v>6642.6472086544827</v>
       </c>
       <c r="X30" s="1">
-        <f>W56*$AB$96</f>
+        <f>W55*$AB$94</f>
         <v>9810.1390251266002</v>
       </c>
       <c r="Y30" s="1">
-        <f>X56*$AB$96</f>
+        <f>X55*$AB$94</f>
         <v>13518.430182216349</v>
       </c>
     </row>
@@ -3202,15 +3205,15 @@
         <v>1616</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31:Y31" si="47">V31*1.01</f>
+        <f t="shared" ref="W31:Y31" si="46">V31*1.01</f>
         <v>1632.16</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1648.4816000000001</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1664.966416</v>
       </c>
     </row>
@@ -3223,92 +3226,92 @@
         <v>18205</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32:K32" si="48">C29+SUM(C30:C31)</f>
+        <f t="shared" ref="C32:K32" si="47">C29+SUM(C30:C31)</f>
         <v>21903</v>
       </c>
       <c r="D32" s="1">
+        <f t="shared" si="47"/>
+        <v>21197</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="47"/>
+        <v>24412</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="47"/>
+        <v>28315</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="47"/>
+        <v>27551</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="47"/>
+        <v>31706</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="47"/>
+        <v>32243</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="47"/>
+        <v>30951.844490254891</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="47"/>
+        <v>31603.923297272278</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" ref="L32:M32" si="48">L29+SUM(L30:L31)</f>
+        <v>33865.142300450141</v>
+      </c>
+      <c r="M32" s="1">
         <f t="shared" si="48"/>
-        <v>21197</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="48"/>
-        <v>24412</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="48"/>
-        <v>28315</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="48"/>
-        <v>27551</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="48"/>
-        <v>31706</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="48"/>
-        <v>32243</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="48"/>
-        <v>30951.844490254891</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="48"/>
-        <v>31603.923297272278</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" ref="L32:M32" si="49">L29+SUM(L30:L31)</f>
-        <v>33865.142300450141</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="49"/>
         <v>36331.2061615856</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="1">
-        <f t="shared" ref="O32:T32" si="50">SUM(O29:O31)</f>
+        <f t="shared" ref="O32:T32" si="49">SUM(O29:O31)</f>
         <v>39625</v>
       </c>
       <c r="P32" s="1">
+        <f t="shared" si="49"/>
+        <v>48082</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="49"/>
+        <v>78714</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="49"/>
+        <v>74842</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="49"/>
+        <v>85897</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="49"/>
+        <v>119819</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" ref="U32:Y32" si="50">SUM(U29:U31)</f>
+        <v>138674.30581233275</v>
+      </c>
+      <c r="V32" s="1">
         <f t="shared" si="50"/>
-        <v>48082</v>
-      </c>
-      <c r="Q32" s="1">
+        <v>166706.3860799192</v>
+      </c>
+      <c r="W32" s="1">
         <f t="shared" si="50"/>
-        <v>78714</v>
-      </c>
-      <c r="R32" s="1">
+        <v>195524.18620198258</v>
+      </c>
+      <c r="X32" s="1">
         <f t="shared" si="50"/>
-        <v>74842</v>
-      </c>
-      <c r="S32" s="1">
+        <v>228906.86154875002</v>
+      </c>
+      <c r="Y32" s="1">
         <f t="shared" si="50"/>
-        <v>85897</v>
-      </c>
-      <c r="T32" s="1">
-        <f t="shared" si="50"/>
-        <v>119819</v>
-      </c>
-      <c r="U32" s="1">
-        <f t="shared" ref="U32:Y32" si="51">SUM(U29:U31)</f>
-        <v>138674.30581233275</v>
-      </c>
-      <c r="V32" s="1">
-        <f t="shared" si="51"/>
-        <v>166706.3860799192</v>
-      </c>
-      <c r="W32" s="1">
-        <f t="shared" si="51"/>
-        <v>195524.18620198258</v>
-      </c>
-      <c r="X32" s="1">
-        <f t="shared" si="51"/>
-        <v>228906.86154875002</v>
-      </c>
-      <c r="Y32" s="1">
-        <f t="shared" si="51"/>
         <v>267597.40924972954</v>
       </c>
     </row>
@@ -3340,21 +3343,21 @@
       <c r="I33" s="1">
         <v>5707</v>
       </c>
-      <c r="J33" s="1">
-        <f>J32*J40</f>
-        <v>5880.8504531484296</v>
-      </c>
-      <c r="K33" s="1">
-        <f>K32*K40</f>
-        <v>6004.7454264817334</v>
-      </c>
-      <c r="L33" s="1">
-        <f>L32*L40</f>
-        <v>6434.3770370855273</v>
-      </c>
-      <c r="M33" s="1">
-        <f>M32*M40</f>
-        <v>6902.9291707012644</v>
+      <c r="J33" s="1" t="e">
+        <f>J32*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K33" s="1" t="e">
+        <f>K32*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L33" s="1" t="e">
+        <f>L32*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M33" s="1" t="e">
+        <f>M32*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="O33" s="1">
         <v>5282</v>
@@ -3375,23 +3378,23 @@
         <v>19697</v>
       </c>
       <c r="U33" s="1">
-        <f>U32*U40</f>
+        <f>U32*0.19</f>
         <v>26348.118104343223</v>
       </c>
       <c r="V33" s="1">
-        <f>V32*V40</f>
+        <f t="shared" ref="V33:Y33" si="51">V32*0.19</f>
         <v>31674.213355184649</v>
       </c>
       <c r="W33" s="1">
-        <f>W32*W40</f>
+        <f t="shared" si="51"/>
         <v>37149.595378376689</v>
       </c>
       <c r="X33" s="1">
-        <f>X32*X40</f>
+        <f t="shared" si="51"/>
         <v>43492.303694262504</v>
       </c>
       <c r="Y33" s="1">
-        <f>Y32*Y40</f>
+        <f t="shared" si="51"/>
         <v>50843.507757448613</v>
       </c>
     </row>
@@ -3431,21 +3434,21 @@
         <f t="shared" si="52"/>
         <v>26536</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="3" t="e">
         <f t="shared" si="52"/>
-        <v>25070.994037106462</v>
-      </c>
-      <c r="K34" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="K34" s="3" t="e">
         <f t="shared" si="52"/>
-        <v>25599.177870790547</v>
-      </c>
-      <c r="L34" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="L34" s="3" t="e">
         <f t="shared" ref="L34:M34" si="53">L32-L33</f>
-        <v>27430.765263364614</v>
-      </c>
-      <c r="M34" s="3">
+        <v>#REF!</v>
+      </c>
+      <c r="M34" s="3" t="e">
         <f t="shared" si="53"/>
-        <v>29428.276990884337</v>
+        <v>#REF!</v>
       </c>
       <c r="O34" s="3">
         <f t="shared" ref="O34:T34" si="54">O32-O33</f>
@@ -3492,804 +3495,804 @@
         <v>216753.90149228091</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" ref="Z34:BE34" si="56">Y34*(1+$AB$97)</f>
+        <f>Y34*(1+$AB$95)</f>
         <v>218921.44050720372</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" si="56"/>
+        <f>Z34*(1+$AB$95)</f>
         <v>221110.65491227576</v>
       </c>
       <c r="AB34" s="3">
-        <f t="shared" si="56"/>
+        <f>AA34*(1+$AB$95)</f>
         <v>223321.76146139851</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" si="56"/>
+        <f>AB34*(1+$AB$95)</f>
         <v>225554.9790760125</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" si="56"/>
+        <f>AC34*(1+$AB$95)</f>
         <v>227810.52886677263</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="56"/>
+        <f>AD34*(1+$AB$95)</f>
         <v>230088.63415544035</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" si="56"/>
+        <f>AE34*(1+$AB$95)</f>
         <v>232389.52049699475</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" si="56"/>
+        <f>AF34*(1+$AB$95)</f>
         <v>234713.4157019647</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" si="56"/>
+        <f>AG34*(1+$AB$95)</f>
         <v>237060.54985898433</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="56"/>
+        <f>AH34*(1+$AB$95)</f>
         <v>239431.15535757417</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" si="56"/>
+        <f>AI34*(1+$AB$95)</f>
         <v>241825.46691114991</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="56"/>
+        <f>AJ34*(1+$AB$95)</f>
         <v>244243.72158026142</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" si="56"/>
+        <f>AK34*(1+$AB$95)</f>
         <v>246686.15879606403</v>
       </c>
       <c r="AM34" s="3">
-        <f t="shared" si="56"/>
+        <f>AL34*(1+$AB$95)</f>
         <v>249153.02038402468</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" si="56"/>
+        <f>AM34*(1+$AB$95)</f>
         <v>251644.55058786494</v>
       </c>
       <c r="AO34" s="3">
-        <f t="shared" si="56"/>
+        <f>AN34*(1+$AB$95)</f>
         <v>254160.9960937436</v>
       </c>
       <c r="AP34" s="3">
-        <f t="shared" si="56"/>
+        <f>AO34*(1+$AB$95)</f>
         <v>256702.60605468103</v>
       </c>
       <c r="AQ34" s="3">
-        <f t="shared" si="56"/>
+        <f>AP34*(1+$AB$95)</f>
         <v>259269.63211522784</v>
       </c>
       <c r="AR34" s="3">
-        <f t="shared" si="56"/>
+        <f>AQ34*(1+$AB$95)</f>
         <v>261862.32843638011</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" si="56"/>
+        <f>AR34*(1+$AB$95)</f>
         <v>264480.95172074391</v>
       </c>
       <c r="AT34" s="3">
-        <f t="shared" si="56"/>
+        <f>AS34*(1+$AB$95)</f>
         <v>267125.76123795134</v>
       </c>
       <c r="AU34" s="3">
-        <f t="shared" si="56"/>
+        <f>AT34*(1+$AB$95)</f>
         <v>269797.01885033085</v>
       </c>
       <c r="AV34" s="3">
-        <f t="shared" si="56"/>
+        <f>AU34*(1+$AB$95)</f>
         <v>272494.98903883417</v>
       </c>
       <c r="AW34" s="3">
-        <f t="shared" si="56"/>
+        <f>AV34*(1+$AB$95)</f>
         <v>275219.93892922252</v>
       </c>
       <c r="AX34" s="3">
-        <f t="shared" si="56"/>
+        <f>AW34*(1+$AB$95)</f>
         <v>277972.13831851474</v>
       </c>
       <c r="AY34" s="3">
-        <f t="shared" si="56"/>
+        <f>AX34*(1+$AB$95)</f>
         <v>280751.85970169987</v>
       </c>
       <c r="AZ34" s="3">
-        <f t="shared" si="56"/>
+        <f>AY34*(1+$AB$95)</f>
         <v>283559.37829871685</v>
       </c>
       <c r="BA34" s="3">
-        <f t="shared" si="56"/>
+        <f>AZ34*(1+$AB$95)</f>
         <v>286394.97208170401</v>
       </c>
       <c r="BB34" s="3">
-        <f t="shared" si="56"/>
+        <f>BA34*(1+$AB$95)</f>
         <v>289258.92180252104</v>
       </c>
       <c r="BC34" s="3">
-        <f t="shared" si="56"/>
+        <f>BB34*(1+$AB$95)</f>
         <v>292151.51102054626</v>
       </c>
       <c r="BD34" s="3">
-        <f t="shared" si="56"/>
+        <f>BC34*(1+$AB$95)</f>
         <v>295073.02613075171</v>
       </c>
       <c r="BE34" s="3">
-        <f t="shared" si="56"/>
+        <f>BD34*(1+$AB$95)</f>
         <v>298023.75639205921</v>
       </c>
       <c r="BF34" s="3">
-        <f t="shared" ref="BF34:CK34" si="57">BE34*(1+$AB$97)</f>
+        <f>BE34*(1+$AB$95)</f>
         <v>301003.99395597982</v>
       </c>
       <c r="BG34" s="3">
-        <f t="shared" si="57"/>
+        <f>BF34*(1+$AB$95)</f>
         <v>304014.03389553964</v>
       </c>
       <c r="BH34" s="3">
-        <f t="shared" si="57"/>
+        <f>BG34*(1+$AB$95)</f>
         <v>307054.17423449503</v>
       </c>
       <c r="BI34" s="3">
-        <f t="shared" si="57"/>
+        <f>BH34*(1+$AB$95)</f>
         <v>310124.71597684</v>
       </c>
       <c r="BJ34" s="3">
-        <f t="shared" si="57"/>
+        <f>BI34*(1+$AB$95)</f>
         <v>313225.96313660842</v>
       </c>
       <c r="BK34" s="3">
-        <f t="shared" si="57"/>
+        <f>BJ34*(1+$AB$95)</f>
         <v>316358.22276797448</v>
       </c>
       <c r="BL34" s="3">
-        <f t="shared" si="57"/>
+        <f>BK34*(1+$AB$95)</f>
         <v>319521.80499565421</v>
       </c>
       <c r="BM34" s="3">
-        <f t="shared" si="57"/>
+        <f>BL34*(1+$AB$95)</f>
         <v>322717.02304561075</v>
       </c>
       <c r="BN34" s="3">
-        <f t="shared" si="57"/>
+        <f>BM34*(1+$AB$95)</f>
         <v>325944.19327606686</v>
       </c>
       <c r="BO34" s="3">
-        <f t="shared" si="57"/>
+        <f>BN34*(1+$AB$95)</f>
         <v>329203.6352088275</v>
       </c>
       <c r="BP34" s="3">
-        <f t="shared" si="57"/>
+        <f>BO34*(1+$AB$95)</f>
         <v>332495.67156091577</v>
       </c>
       <c r="BQ34" s="3">
-        <f t="shared" si="57"/>
+        <f>BP34*(1+$AB$95)</f>
         <v>335820.62827652495</v>
       </c>
       <c r="BR34" s="3">
-        <f t="shared" si="57"/>
+        <f>BQ34*(1+$AB$95)</f>
         <v>339178.8345592902</v>
       </c>
       <c r="BS34" s="3">
-        <f t="shared" si="57"/>
+        <f>BR34*(1+$AB$95)</f>
         <v>342570.62290488312</v>
       </c>
       <c r="BT34" s="3">
-        <f t="shared" si="57"/>
+        <f>BS34*(1+$AB$95)</f>
         <v>345996.32913393195</v>
       </c>
       <c r="BU34" s="3">
-        <f t="shared" si="57"/>
+        <f>BT34*(1+$AB$95)</f>
         <v>349456.2924252713</v>
       </c>
       <c r="BV34" s="3">
-        <f t="shared" si="57"/>
+        <f>BU34*(1+$AB$95)</f>
         <v>352950.855349524</v>
       </c>
       <c r="BW34" s="3">
-        <f t="shared" si="57"/>
+        <f>BV34*(1+$AB$95)</f>
         <v>356480.36390301923</v>
       </c>
       <c r="BX34" s="3">
-        <f t="shared" si="57"/>
+        <f>BW34*(1+$AB$95)</f>
         <v>360045.16754204943</v>
       </c>
       <c r="BY34" s="3">
-        <f t="shared" si="57"/>
+        <f>BX34*(1+$AB$95)</f>
         <v>363645.61921746994</v>
       </c>
       <c r="BZ34" s="3">
-        <f t="shared" si="57"/>
+        <f>BY34*(1+$AB$95)</f>
         <v>367282.07540964463</v>
       </c>
       <c r="CA34" s="3">
-        <f t="shared" si="57"/>
+        <f>BZ34*(1+$AB$95)</f>
         <v>370954.89616374107</v>
       </c>
       <c r="CB34" s="3">
-        <f t="shared" si="57"/>
+        <f>CA34*(1+$AB$95)</f>
         <v>374664.44512537849</v>
       </c>
       <c r="CC34" s="3">
-        <f t="shared" si="57"/>
+        <f>CB34*(1+$AB$95)</f>
         <v>378411.08957663231</v>
       </c>
       <c r="CD34" s="3">
-        <f t="shared" si="57"/>
+        <f>CC34*(1+$AB$95)</f>
         <v>382195.20047239866</v>
       </c>
       <c r="CE34" s="3">
-        <f t="shared" si="57"/>
+        <f>CD34*(1+$AB$95)</f>
         <v>386017.15247712267</v>
       </c>
       <c r="CF34" s="3">
-        <f t="shared" si="57"/>
+        <f>CE34*(1+$AB$95)</f>
         <v>389877.32400189393</v>
       </c>
       <c r="CG34" s="3">
-        <f t="shared" si="57"/>
+        <f>CF34*(1+$AB$95)</f>
         <v>393776.09724191285</v>
       </c>
       <c r="CH34" s="3">
-        <f t="shared" si="57"/>
+        <f>CG34*(1+$AB$95)</f>
         <v>397713.85821433197</v>
       </c>
       <c r="CI34" s="3">
-        <f t="shared" si="57"/>
+        <f>CH34*(1+$AB$95)</f>
         <v>401690.99679647532</v>
       </c>
       <c r="CJ34" s="3">
-        <f t="shared" si="57"/>
+        <f>CI34*(1+$AB$95)</f>
         <v>405707.90676444006</v>
       </c>
       <c r="CK34" s="3">
-        <f t="shared" si="57"/>
+        <f>CJ34*(1+$AB$95)</f>
         <v>409764.98583208449</v>
       </c>
       <c r="CL34" s="3">
-        <f t="shared" ref="CL34:DQ34" si="58">CK34*(1+$AB$97)</f>
+        <f>CK34*(1+$AB$95)</f>
         <v>413862.63569040532</v>
       </c>
       <c r="CM34" s="3">
-        <f t="shared" si="58"/>
+        <f>CL34*(1+$AB$95)</f>
         <v>418001.26204730937</v>
       </c>
       <c r="CN34" s="3">
-        <f t="shared" si="58"/>
+        <f>CM34*(1+$AB$95)</f>
         <v>422181.27466778248</v>
       </c>
       <c r="CO34" s="3">
-        <f t="shared" si="58"/>
+        <f>CN34*(1+$AB$95)</f>
         <v>426403.08741446031</v>
       </c>
       <c r="CP34" s="3">
-        <f t="shared" si="58"/>
+        <f>CO34*(1+$AB$95)</f>
         <v>430667.11828860495</v>
       </c>
       <c r="CQ34" s="3">
-        <f t="shared" si="58"/>
+        <f>CP34*(1+$AB$95)</f>
         <v>434973.78947149101</v>
       </c>
       <c r="CR34" s="3">
-        <f t="shared" si="58"/>
+        <f>CQ34*(1+$AB$95)</f>
         <v>439323.52736620593</v>
       </c>
       <c r="CS34" s="3">
-        <f t="shared" si="58"/>
+        <f>CR34*(1+$AB$95)</f>
         <v>443716.76263986801</v>
       </c>
       <c r="CT34" s="3">
-        <f t="shared" si="58"/>
+        <f>CS34*(1+$AB$95)</f>
         <v>448153.93026626669</v>
       </c>
       <c r="CU34" s="3">
-        <f t="shared" si="58"/>
+        <f>CT34*(1+$AB$95)</f>
         <v>452635.46956892934</v>
       </c>
       <c r="CV34" s="3">
-        <f t="shared" si="58"/>
+        <f>CU34*(1+$AB$95)</f>
         <v>457161.82426461863</v>
       </c>
       <c r="CW34" s="3">
-        <f t="shared" si="58"/>
+        <f>CV34*(1+$AB$95)</f>
         <v>461733.44250726484</v>
       </c>
       <c r="CX34" s="3">
-        <f t="shared" si="58"/>
+        <f>CW34*(1+$AB$95)</f>
         <v>466350.7769323375</v>
       </c>
       <c r="CY34" s="3">
-        <f t="shared" si="58"/>
+        <f>CX34*(1+$AB$95)</f>
         <v>471014.28470166086</v>
       </c>
       <c r="CZ34" s="3">
-        <f t="shared" si="58"/>
+        <f>CY34*(1+$AB$95)</f>
         <v>475724.42754867749</v>
       </c>
       <c r="DA34" s="3">
-        <f t="shared" si="58"/>
+        <f>CZ34*(1+$AB$95)</f>
         <v>480481.67182416428</v>
       </c>
       <c r="DB34" s="3">
-        <f t="shared" si="58"/>
+        <f>DA34*(1+$AB$95)</f>
         <v>485286.48854240595</v>
       </c>
       <c r="DC34" s="3">
-        <f t="shared" si="58"/>
+        <f>DB34*(1+$AB$95)</f>
         <v>490139.35342783004</v>
       </c>
       <c r="DD34" s="3">
-        <f t="shared" si="58"/>
+        <f>DC34*(1+$AB$95)</f>
         <v>495040.74696210836</v>
       </c>
       <c r="DE34" s="3">
-        <f t="shared" si="58"/>
+        <f>DD34*(1+$AB$95)</f>
         <v>499991.15443172946</v>
       </c>
       <c r="DF34" s="3">
-        <f t="shared" si="58"/>
+        <f>DE34*(1+$AB$95)</f>
         <v>504991.06597604678</v>
       </c>
       <c r="DG34" s="3">
-        <f t="shared" si="58"/>
+        <f>DF34*(1+$AB$95)</f>
         <v>510040.97663580725</v>
       </c>
       <c r="DH34" s="3">
-        <f t="shared" si="58"/>
+        <f>DG34*(1+$AB$95)</f>
         <v>515141.38640216534</v>
       </c>
       <c r="DI34" s="3">
-        <f t="shared" si="58"/>
+        <f>DH34*(1+$AB$95)</f>
         <v>520292.800266187</v>
       </c>
       <c r="DJ34" s="3">
-        <f t="shared" si="58"/>
+        <f>DI34*(1+$AB$95)</f>
         <v>525495.72826884885</v>
       </c>
       <c r="DK34" s="3">
-        <f t="shared" si="58"/>
+        <f>DJ34*(1+$AB$95)</f>
         <v>530750.68555153732</v>
       </c>
       <c r="DL34" s="3">
-        <f t="shared" si="58"/>
+        <f>DK34*(1+$AB$95)</f>
         <v>536058.19240705273</v>
       </c>
       <c r="DM34" s="3">
-        <f t="shared" si="58"/>
+        <f>DL34*(1+$AB$95)</f>
         <v>541418.77433112322</v>
       </c>
       <c r="DN34" s="3">
-        <f t="shared" si="58"/>
+        <f>DM34*(1+$AB$95)</f>
         <v>546832.9620744345</v>
       </c>
       <c r="DO34" s="3">
-        <f t="shared" si="58"/>
+        <f>DN34*(1+$AB$95)</f>
         <v>552301.29169517884</v>
       </c>
       <c r="DP34" s="3">
-        <f t="shared" si="58"/>
+        <f>DO34*(1+$AB$95)</f>
         <v>557824.30461213063</v>
       </c>
       <c r="DQ34" s="3">
-        <f t="shared" si="58"/>
+        <f>DP34*(1+$AB$95)</f>
         <v>563402.54765825195</v>
       </c>
       <c r="DR34" s="3">
-        <f t="shared" ref="DR34:EW34" si="59">DQ34*(1+$AB$97)</f>
+        <f>DQ34*(1+$AB$95)</f>
         <v>569036.57313483453</v>
       </c>
       <c r="DS34" s="3">
-        <f t="shared" si="59"/>
+        <f>DR34*(1+$AB$95)</f>
         <v>574726.93886618293</v>
       </c>
       <c r="DT34" s="3">
-        <f t="shared" si="59"/>
+        <f>DS34*(1+$AB$95)</f>
         <v>580474.20825484477</v>
       </c>
       <c r="DU34" s="3">
-        <f t="shared" si="59"/>
+        <f>DT34*(1+$AB$95)</f>
         <v>586278.95033739321</v>
       </c>
       <c r="DV34" s="3">
-        <f t="shared" si="59"/>
+        <f>DU34*(1+$AB$95)</f>
         <v>592141.73984076711</v>
       </c>
       <c r="DW34" s="3">
-        <f t="shared" si="59"/>
+        <f>DV34*(1+$AB$95)</f>
         <v>598063.15723917482</v>
       </c>
       <c r="DX34" s="3">
-        <f t="shared" si="59"/>
+        <f>DW34*(1+$AB$95)</f>
         <v>604043.78881156654</v>
       </c>
       <c r="DY34" s="3">
-        <f t="shared" si="59"/>
+        <f>DX34*(1+$AB$95)</f>
         <v>610084.22669968219</v>
       </c>
       <c r="DZ34" s="3">
-        <f t="shared" si="59"/>
+        <f>DY34*(1+$AB$95)</f>
         <v>616185.06896667904</v>
       </c>
       <c r="EA34" s="3">
-        <f t="shared" si="59"/>
+        <f>DZ34*(1+$AB$95)</f>
         <v>622346.91965634585</v>
       </c>
       <c r="EB34" s="3">
-        <f t="shared" si="59"/>
+        <f>EA34*(1+$AB$95)</f>
         <v>628570.38885290932</v>
       </c>
       <c r="EC34" s="3">
-        <f t="shared" si="59"/>
+        <f>EB34*(1+$AB$95)</f>
         <v>634856.09274143842</v>
       </c>
       <c r="ED34" s="3">
-        <f t="shared" si="59"/>
+        <f>EC34*(1+$AB$95)</f>
         <v>641204.65366885276</v>
       </c>
       <c r="EE34" s="3">
-        <f t="shared" si="59"/>
+        <f>ED34*(1+$AB$95)</f>
         <v>647616.70020554133</v>
       </c>
       <c r="EF34" s="3">
-        <f t="shared" si="59"/>
+        <f>EE34*(1+$AB$95)</f>
         <v>654092.86720759678</v>
       </c>
       <c r="EG34" s="3">
-        <f t="shared" si="59"/>
+        <f>EF34*(1+$AB$95)</f>
         <v>660633.79587967275</v>
       </c>
       <c r="EH34" s="3">
-        <f t="shared" si="59"/>
+        <f>EG34*(1+$AB$95)</f>
         <v>667240.13383846951</v>
       </c>
       <c r="EI34" s="3">
-        <f t="shared" si="59"/>
+        <f>EH34*(1+$AB$95)</f>
         <v>673912.53517685423</v>
       </c>
       <c r="EJ34" s="3">
-        <f t="shared" si="59"/>
+        <f>EI34*(1+$AB$95)</f>
         <v>680651.6605286228</v>
       </c>
       <c r="EK34" s="3">
-        <f t="shared" si="59"/>
+        <f>EJ34*(1+$AB$95)</f>
         <v>687458.17713390908</v>
       </c>
       <c r="EL34" s="3">
-        <f t="shared" si="59"/>
+        <f>EK34*(1+$AB$95)</f>
         <v>694332.75890524813</v>
       </c>
       <c r="EM34" s="3">
-        <f t="shared" si="59"/>
+        <f>EL34*(1+$AB$95)</f>
         <v>701276.08649430063</v>
       </c>
       <c r="EN34" s="3">
-        <f t="shared" si="59"/>
+        <f>EM34*(1+$AB$95)</f>
         <v>708288.84735924366</v>
       </c>
       <c r="EO34" s="3">
-        <f t="shared" si="59"/>
+        <f>EN34*(1+$AB$95)</f>
         <v>715371.73583283613</v>
       </c>
       <c r="EP34" s="3">
-        <f t="shared" si="59"/>
+        <f>EO34*(1+$AB$95)</f>
         <v>722525.45319116453</v>
       </c>
       <c r="EQ34" s="3">
-        <f t="shared" si="59"/>
+        <f>EP34*(1+$AB$95)</f>
         <v>729750.70772307622</v>
       </c>
       <c r="ER34" s="3">
-        <f t="shared" si="59"/>
+        <f>EQ34*(1+$AB$95)</f>
         <v>737048.21480030695</v>
       </c>
       <c r="ES34" s="3">
-        <f t="shared" si="59"/>
+        <f>ER34*(1+$AB$95)</f>
         <v>744418.69694831001</v>
       </c>
       <c r="ET34" s="3">
-        <f t="shared" si="59"/>
+        <f>ES34*(1+$AB$95)</f>
         <v>751862.88391779317</v>
       </c>
       <c r="EU34" s="3">
-        <f t="shared" si="59"/>
+        <f>ET34*(1+$AB$95)</f>
         <v>759381.51275697106</v>
       </c>
       <c r="EV34" s="3">
-        <f t="shared" si="59"/>
+        <f>EU34*(1+$AB$95)</f>
         <v>766975.32788454078</v>
       </c>
       <c r="EW34" s="3">
-        <f t="shared" si="59"/>
+        <f>EV34*(1+$AB$95)</f>
         <v>774645.08116338623</v>
       </c>
       <c r="EX34" s="3">
-        <f t="shared" ref="EX34:GC34" si="60">EW34*(1+$AB$97)</f>
+        <f>EW34*(1+$AB$95)</f>
         <v>782391.53197502007</v>
       </c>
       <c r="EY34" s="3">
-        <f t="shared" si="60"/>
+        <f>EX34*(1+$AB$95)</f>
         <v>790215.44729477027</v>
       </c>
       <c r="EZ34" s="3">
-        <f t="shared" si="60"/>
+        <f>EY34*(1+$AB$95)</f>
         <v>798117.60176771798</v>
       </c>
       <c r="FA34" s="3">
-        <f t="shared" si="60"/>
+        <f>EZ34*(1+$AB$95)</f>
         <v>806098.77778539516</v>
       </c>
       <c r="FB34" s="3">
-        <f t="shared" si="60"/>
+        <f>FA34*(1+$AB$95)</f>
         <v>814159.76556324912</v>
       </c>
       <c r="FC34" s="3">
-        <f t="shared" si="60"/>
+        <f>FB34*(1+$AB$95)</f>
         <v>822301.36321888166</v>
       </c>
       <c r="FD34" s="3">
-        <f t="shared" si="60"/>
+        <f>FC34*(1+$AB$95)</f>
         <v>830524.37685107044</v>
       </c>
       <c r="FE34" s="3">
-        <f t="shared" si="60"/>
+        <f>FD34*(1+$AB$95)</f>
         <v>838829.6206195812</v>
       </c>
       <c r="FF34" s="3">
-        <f t="shared" si="60"/>
+        <f>FE34*(1+$AB$95)</f>
         <v>847217.91682577704</v>
       </c>
       <c r="FG34" s="3">
-        <f t="shared" si="60"/>
+        <f>FF34*(1+$AB$95)</f>
         <v>855690.09599403478</v>
       </c>
       <c r="FH34" s="3">
-        <f t="shared" si="60"/>
+        <f>FG34*(1+$AB$95)</f>
         <v>864246.99695397518</v>
       </c>
       <c r="FI34" s="3">
-        <f t="shared" si="60"/>
+        <f>FH34*(1+$AB$95)</f>
         <v>872889.46692351496</v>
       </c>
       <c r="FJ34" s="3">
-        <f t="shared" si="60"/>
+        <f>FI34*(1+$AB$95)</f>
         <v>881618.36159275007</v>
       </c>
       <c r="FK34" s="3">
-        <f t="shared" si="60"/>
+        <f>FJ34*(1+$AB$95)</f>
         <v>890434.54520867753</v>
       </c>
       <c r="FL34" s="3">
-        <f t="shared" si="60"/>
+        <f>FK34*(1+$AB$95)</f>
         <v>899338.8906607643</v>
       </c>
       <c r="FM34" s="3">
-        <f t="shared" si="60"/>
+        <f>FL34*(1+$AB$95)</f>
         <v>908332.27956737194</v>
       </c>
       <c r="FN34" s="3">
-        <f t="shared" si="60"/>
+        <f>FM34*(1+$AB$95)</f>
         <v>917415.60236304568</v>
       </c>
       <c r="FO34" s="3">
-        <f t="shared" si="60"/>
+        <f>FN34*(1+$AB$95)</f>
         <v>926589.7583866762</v>
       </c>
       <c r="FP34" s="3">
-        <f t="shared" si="60"/>
+        <f>FO34*(1+$AB$95)</f>
         <v>935855.65597054292</v>
       </c>
       <c r="FQ34" s="3">
-        <f t="shared" si="60"/>
+        <f>FP34*(1+$AB$95)</f>
         <v>945214.21253024833</v>
       </c>
       <c r="FR34" s="3">
-        <f t="shared" si="60"/>
+        <f>FQ34*(1+$AB$95)</f>
         <v>954666.35465555079</v>
       </c>
       <c r="FS34" s="3">
-        <f t="shared" si="60"/>
+        <f>FR34*(1+$AB$95)</f>
         <v>964213.01820210635</v>
       </c>
       <c r="FT34" s="3">
-        <f t="shared" si="60"/>
+        <f>FS34*(1+$AB$95)</f>
         <v>973855.14838412742</v>
       </c>
       <c r="FU34" s="3">
-        <f t="shared" si="60"/>
+        <f>FT34*(1+$AB$95)</f>
         <v>983593.69986796868</v>
       </c>
       <c r="FV34" s="3">
-        <f t="shared" si="60"/>
+        <f>FU34*(1+$AB$95)</f>
         <v>993429.63686664833</v>
       </c>
       <c r="FW34" s="3">
-        <f t="shared" si="60"/>
+        <f>FV34*(1+$AB$95)</f>
         <v>1003363.9332353148</v>
       </c>
       <c r="FX34" s="3">
-        <f t="shared" si="60"/>
+        <f>FW34*(1+$AB$95)</f>
         <v>1013397.5725676679</v>
       </c>
       <c r="FY34" s="3">
-        <f t="shared" si="60"/>
+        <f>FX34*(1+$AB$95)</f>
         <v>1023531.5482933446</v>
       </c>
       <c r="FZ34" s="3">
-        <f t="shared" si="60"/>
+        <f>FY34*(1+$AB$95)</f>
         <v>1033766.863776278</v>
       </c>
       <c r="GA34" s="3">
-        <f t="shared" si="60"/>
+        <f>FZ34*(1+$AB$95)</f>
         <v>1044104.5324140408</v>
       </c>
       <c r="GB34" s="3">
-        <f t="shared" si="60"/>
+        <f>GA34*(1+$AB$95)</f>
         <v>1054545.5777381812</v>
       </c>
       <c r="GC34" s="3">
-        <f t="shared" si="60"/>
+        <f>GB34*(1+$AB$95)</f>
         <v>1065091.033515563</v>
       </c>
       <c r="GD34" s="3">
-        <f t="shared" ref="GD34:HK34" si="61">GC34*(1+$AB$97)</f>
+        <f>GC34*(1+$AB$95)</f>
         <v>1075741.9438507187</v>
       </c>
       <c r="GE34" s="3">
-        <f t="shared" si="61"/>
+        <f>GD34*(1+$AB$95)</f>
         <v>1086499.3632892258</v>
       </c>
       <c r="GF34" s="3">
-        <f t="shared" si="61"/>
+        <f>GE34*(1+$AB$95)</f>
         <v>1097364.3569221182</v>
       </c>
       <c r="GG34" s="3">
-        <f t="shared" si="61"/>
+        <f>GF34*(1+$AB$95)</f>
         <v>1108338.0004913395</v>
       </c>
       <c r="GH34" s="3">
-        <f t="shared" si="61"/>
+        <f>GG34*(1+$AB$95)</f>
         <v>1119421.3804962528</v>
       </c>
       <c r="GI34" s="3">
-        <f t="shared" si="61"/>
+        <f>GH34*(1+$AB$95)</f>
         <v>1130615.5943012154</v>
       </c>
       <c r="GJ34" s="3">
-        <f t="shared" si="61"/>
+        <f>GI34*(1+$AB$95)</f>
         <v>1141921.7502442275</v>
       </c>
       <c r="GK34" s="3">
-        <f t="shared" si="61"/>
+        <f>GJ34*(1+$AB$95)</f>
         <v>1153340.9677466697</v>
       </c>
       <c r="GL34" s="3">
-        <f t="shared" si="61"/>
+        <f>GK34*(1+$AB$95)</f>
         <v>1164874.3774241363</v>
       </c>
       <c r="GM34" s="3">
-        <f t="shared" si="61"/>
+        <f>GL34*(1+$AB$95)</f>
         <v>1176523.1211983776</v>
       </c>
       <c r="GN34" s="3">
-        <f t="shared" si="61"/>
+        <f>GM34*(1+$AB$95)</f>
         <v>1188288.3524103614</v>
       </c>
       <c r="GO34" s="3">
-        <f t="shared" si="61"/>
+        <f>GN34*(1+$AB$95)</f>
         <v>1200171.235934465</v>
       </c>
       <c r="GP34" s="3">
-        <f t="shared" si="61"/>
+        <f>GO34*(1+$AB$95)</f>
         <v>1212172.9482938095</v>
       </c>
       <c r="GQ34" s="3">
-        <f t="shared" si="61"/>
+        <f>GP34*(1+$AB$95)</f>
         <v>1224294.6777767476</v>
       </c>
       <c r="GR34" s="3">
-        <f t="shared" si="61"/>
+        <f>GQ34*(1+$AB$95)</f>
         <v>1236537.6245545151</v>
       </c>
       <c r="GS34" s="3">
-        <f t="shared" si="61"/>
+        <f>GR34*(1+$AB$95)</f>
         <v>1248903.0008000603</v>
       </c>
       <c r="GT34" s="3">
-        <f t="shared" si="61"/>
+        <f>GS34*(1+$AB$95)</f>
         <v>1261392.0308080609</v>
       </c>
       <c r="GU34" s="3">
-        <f t="shared" si="61"/>
+        <f>GT34*(1+$AB$95)</f>
         <v>1274005.9511161416</v>
       </c>
       <c r="GV34" s="3">
-        <f t="shared" si="61"/>
+        <f>GU34*(1+$AB$95)</f>
         <v>1286746.010627303</v>
       </c>
       <c r="GW34" s="3">
-        <f t="shared" si="61"/>
+        <f>GV34*(1+$AB$95)</f>
         <v>1299613.470733576</v>
       </c>
       <c r="GX34" s="3">
-        <f t="shared" si="61"/>
+        <f>GW34*(1+$AB$95)</f>
         <v>1312609.6054409118</v>
       </c>
       <c r="GY34" s="3">
-        <f t="shared" si="61"/>
+        <f>GX34*(1+$AB$95)</f>
         <v>1325735.701495321</v>
       </c>
       <c r="GZ34" s="3">
-        <f t="shared" si="61"/>
+        <f>GY34*(1+$AB$95)</f>
         <v>1338993.0585102742</v>
       </c>
       <c r="HA34" s="3">
-        <f t="shared" si="61"/>
+        <f>GZ34*(1+$AB$95)</f>
         <v>1352382.9890953768</v>
       </c>
       <c r="HB34" s="3">
-        <f t="shared" si="61"/>
+        <f>HA34*(1+$AB$95)</f>
         <v>1365906.8189863306</v>
       </c>
       <c r="HC34" s="3">
-        <f t="shared" si="61"/>
+        <f>HB34*(1+$AB$95)</f>
         <v>1379565.887176194</v>
       </c>
       <c r="HD34" s="3">
-        <f t="shared" si="61"/>
+        <f>HC34*(1+$AB$95)</f>
         <v>1393361.546047956</v>
       </c>
       <c r="HE34" s="3">
-        <f t="shared" si="61"/>
+        <f>HD34*(1+$AB$95)</f>
         <v>1407295.1615084356</v>
       </c>
       <c r="HF34" s="3">
-        <f t="shared" si="61"/>
+        <f>HE34*(1+$AB$95)</f>
         <v>1421368.11312352</v>
       </c>
       <c r="HG34" s="3">
-        <f t="shared" si="61"/>
+        <f>HF34*(1+$AB$95)</f>
         <v>1435581.7942547554</v>
       </c>
       <c r="HH34" s="3">
-        <f t="shared" si="61"/>
+        <f>HG34*(1+$AB$95)</f>
         <v>1449937.612197303</v>
       </c>
       <c r="HI34" s="3">
-        <f t="shared" si="61"/>
+        <f>HH34*(1+$AB$95)</f>
         <v>1464436.9883192761</v>
       </c>
       <c r="HJ34" s="3">
-        <f t="shared" si="61"/>
+        <f>HI34*(1+$AB$95)</f>
         <v>1479081.3582024688</v>
       </c>
       <c r="HK34" s="3">
-        <f t="shared" si="61"/>
+        <f>HJ34*(1+$AB$95)</f>
         <v>1493872.1717844936</v>
       </c>
     </row>
     <row r="35" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="7" t="e">
         <f>B34/B36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:F35" si="62">C34/C36</f>
+        <f t="shared" ref="C35:F35" si="56">C34/C36</f>
         <v>1.439047320589157</v>
       </c>
       <c r="D35" s="7" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="7" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="7" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" s="7">
@@ -4304,21 +4307,21 @@
         <f>I34/I36</f>
         <v>2.1662040816326531</v>
       </c>
-      <c r="J35" s="7">
-        <f t="shared" ref="J35:M35" si="63">J34/J36</f>
-        <v>2.0466117581311396</v>
-      </c>
-      <c r="K35" s="7">
-        <f t="shared" si="63"/>
-        <v>2.0897288057788201</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="63"/>
-        <v>2.2392461439481317</v>
-      </c>
-      <c r="M35" s="7">
-        <f t="shared" si="63"/>
-        <v>2.4023083257864766</v>
+      <c r="J35" s="7" t="e">
+        <f t="shared" ref="J35:M35" si="57">J34/J36</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K35" s="7" t="e">
+        <f t="shared" si="57"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L35" s="7" t="e">
+        <f t="shared" si="57"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M35" s="7" t="e">
+        <f t="shared" si="57"/>
+        <v>#REF!</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -4327,27 +4330,27 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
       <c r="T35" s="7">
-        <f t="shared" ref="T35" si="64">T34/T36</f>
+        <f t="shared" ref="T35" si="58">T34/T36</f>
         <v>8.1732244897959188</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" ref="U35" si="65">U34/U36</f>
+        <f t="shared" ref="U35" si="59">U34/U36</f>
         <v>8.9896908929963608</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" ref="V35" si="66">V34/V36</f>
+        <f t="shared" ref="V35" si="60">V34/V36</f>
         <v>10.594996643734714</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" ref="W35" si="67">W34/W36</f>
+        <f t="shared" ref="W35" si="61">W34/W36</f>
         <v>12.182850135333325</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" ref="X35" si="68">X34/X36</f>
+        <f t="shared" ref="X35" si="62">X34/X36</f>
         <v>13.98321560755892</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" ref="Y35" si="69">Y34/Y36</f>
+        <f t="shared" ref="Y35" si="63">Y34/Y36</f>
         <v>16.026178508767135</v>
       </c>
     </row>
@@ -4389,19 +4392,19 @@
         <v>12495</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" ref="V36:Y36" si="70">U36*1.02</f>
+        <f t="shared" ref="V36:Y36" si="64">U36*1.02</f>
         <v>12744.9</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>12999.798000000001</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>13259.793960000001</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>13524.989839200001</v>
       </c>
       <c r="AA36" s="1"/>
@@ -4420,134 +4423,134 @@
     </row>
     <row r="38" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <f t="shared" ref="F38:M38" si="71">F22/B22-1</f>
+        <f t="shared" ref="F38:M38" si="65">F22/B22-1</f>
         <v>0.15406880937710454</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0.13841766100895225</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0.15802114653890631</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0.19130734404314143</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>0.16940848375872064</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5">
-        <f t="shared" ref="P38:Y38" si="72">P22/O22-1</f>
+        <f t="shared" ref="P38:Y38" si="66">P22/O22-1</f>
         <v>0.12770532012826141</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>8.6827702272695095E-2</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.13866243322901561</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.16504303111188579</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.11875127619067283</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.12051303986115847</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.1222592095586934</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.12399397442452242</v>
       </c>
       <c r="AB38" s="9"/>
     </row>
     <row r="39" spans="1:219" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:M39" si="73">C22/B22-1</f>
+        <f t="shared" ref="C39:M39" si="67">C22/B22-1</f>
         <v>6.9024316849843004E-2</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>2.8001179561417677E-2</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>0.12539605961430644</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>-6.6863631097207721E-2</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>5.218589751548941E-2</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>4.1608647423945655E-2</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9.2910227942176071E-2</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>-4.9570120971503706E-2</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7.0304477122279607E-2</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7.1548680266953602E-2</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7.2820123986388374E-2</v>
       </c>
       <c r="N39" s="5"/>
@@ -4560,420 +4563,389 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="4">
-        <f t="shared" ref="B40:I40" si="74">B33/B32</f>
-        <v>0.17324910738808019</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="74"/>
-        <v>0.16139341642697347</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" si="74"/>
-        <v>7.1142142756050381E-2</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="74"/>
-        <v>0.15258889070948714</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="74"/>
-        <v>0.16432986049796927</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="74"/>
-        <v>0.14271714275343908</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="74"/>
-        <v>0.17047246577934777</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="74"/>
-        <v>0.17699965884067859</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0.19</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="4">
-        <f t="shared" ref="O40:T40" si="75">O33/O32</f>
-        <v>0.13329968454258675</v>
-      </c>
-      <c r="P40" s="4">
-        <f t="shared" si="75"/>
-        <v>0.16249324071378063</v>
-      </c>
-      <c r="Q40" s="4">
-        <f t="shared" si="75"/>
-        <v>0.18676474324770689</v>
-      </c>
-      <c r="R40" s="4">
-        <f t="shared" si="75"/>
-        <v>0.15173298415328293</v>
-      </c>
-      <c r="S40" s="4">
-        <f t="shared" si="75"/>
-        <v>0.13879413716427816</v>
-      </c>
-      <c r="T40" s="4">
-        <f t="shared" si="75"/>
-        <v>0.16438962101169263</v>
-      </c>
-      <c r="U40" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="V40" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="W40" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="X40" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="AB40" s="7"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
     </row>
     <row r="41" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B34/B22</f>
+        <v>0.21567054035851949</v>
+      </c>
+      <c r="C41" s="4">
+        <f>C34/C22</f>
+        <v>0.2462066377137955</v>
+      </c>
+      <c r="D41" s="4">
+        <f>D34/D22</f>
+        <v>0.25672486406842865</v>
+      </c>
+      <c r="E41" s="4">
+        <f>E34/E22</f>
+        <v>0.23968253968253969</v>
+      </c>
+      <c r="F41" s="4">
+        <f>F34/F22</f>
+        <v>0.29379555246526529</v>
+      </c>
+      <c r="G41" s="4">
+        <f>G34/G22</f>
+        <v>0.27871657501593072</v>
+      </c>
+      <c r="H41" s="4">
+        <f>H34/H22</f>
+        <v>0.29796755336022113</v>
+      </c>
+      <c r="I41" s="4">
+        <f>I34/I22</f>
+        <v>0.27507282132083882</v>
+      </c>
+      <c r="J41" s="4" t="e">
+        <f>J34/J22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K41" s="4" t="e">
+        <f>K34/K22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L41" s="4" t="e">
+        <f>L34/L22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M41" s="4" t="e">
+        <f>M34/M22</f>
+        <v>#REF!</v>
+      </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="AB41" s="4"/>
+      <c r="O41" s="4">
+        <f>O34/O22</f>
+        <v>0.21218112284300339</v>
+      </c>
+      <c r="P41" s="4">
+        <f>P34/P22</f>
+        <v>0.22061941520980458</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>Q34/Q22</f>
+        <v>0.24846198333313926</v>
+      </c>
+      <c r="R41" s="4">
+        <f>R34/R22</f>
+        <v>0.2244622325305124</v>
+      </c>
+      <c r="S41" s="4">
+        <f>S34/S22</f>
+        <v>0.24065206217427795</v>
+      </c>
+      <c r="T41" s="4">
+        <f>T34/T22</f>
+        <v>0.28604814609534368</v>
+      </c>
+      <c r="U41" s="4">
+        <f>U34/U22</f>
+        <v>0.27545374040820286</v>
+      </c>
+      <c r="V41" s="4">
+        <f>V34/V22</f>
+        <v>0.2959861342648753</v>
+      </c>
+      <c r="W41" s="4">
+        <f>W34/W22</f>
+        <v>0.3098151862527484</v>
+      </c>
+      <c r="X41" s="4">
+        <f>X34/X22</f>
+        <v>0.32319739211753179</v>
+      </c>
+      <c r="Y41" s="4">
+        <f>Y34/Y22</f>
+        <v>0.33614523417157183</v>
+      </c>
     </row>
     <row r="42" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="4">
-        <f t="shared" ref="B42:M42" si="76">B34/B22</f>
-        <v>0.21567054035851949</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.2462066377137955</v>
-      </c>
-      <c r="D42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.25672486406842865</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.23968253968253969</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.29379555246526529</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.27871657501593072</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.29796755336022113</v>
-      </c>
-      <c r="I42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.27507282132083882</v>
-      </c>
-      <c r="J42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.27344103927804025</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.26086199919145003</v>
-      </c>
-      <c r="L42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.26086199919145009</v>
-      </c>
-      <c r="M42" s="4">
-        <f t="shared" si="76"/>
-        <v>0.26086199919145003</v>
-      </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4">
-        <f t="shared" ref="O42:Y42" si="77">O34/O22</f>
-        <v>0.21218112284300339</v>
-      </c>
-      <c r="P42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.22061941520980458</v>
-      </c>
-      <c r="Q42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.24846198333313926</v>
-      </c>
-      <c r="R42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.2244622325305124</v>
-      </c>
-      <c r="S42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.24065206217427795</v>
-      </c>
-      <c r="T42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.28604814609534368</v>
-      </c>
-      <c r="U42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.27545374040820286</v>
-      </c>
-      <c r="V42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.2959861342648753</v>
-      </c>
-      <c r="W42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.3098151862527484</v>
-      </c>
-      <c r="X42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.32319739211753179</v>
-      </c>
-      <c r="Y42" s="4">
-        <f t="shared" si="77"/>
-        <v>0.33614523417157183</v>
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="5">
+        <f>B24/B22</f>
+        <v>0.56135096794531936</v>
+      </c>
+      <c r="C42" s="5">
+        <f>C24/C22</f>
+        <v>0.5721945204010509</v>
+      </c>
+      <c r="D42" s="5">
+        <f>D24/D22</f>
+        <v>0.56672708069836886</v>
+      </c>
+      <c r="E42" s="5">
+        <f>E24/E22</f>
+        <v>0.56465067778936395</v>
+      </c>
+      <c r="F42" s="5">
+        <f>F24/F22</f>
+        <v>0.58142018152696207</v>
+      </c>
+      <c r="G42" s="5">
+        <f>G24/G22</f>
+        <v>0.58099879634655782</v>
+      </c>
+      <c r="H42" s="5">
+        <f>H24/H22</f>
+        <v>0.58678116644763678</v>
+      </c>
+      <c r="I42" s="5">
+        <f>I24/I22</f>
+        <v>0.5790046543449191</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5">
+        <f>O24/O22</f>
+        <v>0.5558054331910266</v>
+      </c>
+      <c r="P42" s="5">
+        <f>P24/P22</f>
+        <v>0.53578374706207854</v>
+      </c>
+      <c r="Q42" s="5">
+        <f>Q24/Q22</f>
+        <v>0.5693980290098084</v>
+      </c>
+      <c r="R42" s="5">
+        <f>R24/R22</f>
+        <v>0.55379442503783116</v>
+      </c>
+      <c r="S42" s="5">
+        <f>S24/S22</f>
+        <v>0.56625047984020505</v>
+      </c>
+      <c r="T42" s="5">
+        <f>T24/T22</f>
+        <v>0.58201578204549476</v>
+      </c>
+      <c r="U42" s="5">
+        <f>T42*1.01</f>
+        <v>0.58783593986594973</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" ref="V42:Y42" si="68">U42*1.01</f>
+        <v>0.59371429926460928</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="68"/>
+        <v>0.59965144225725542</v>
+      </c>
+      <c r="X42" s="5">
+        <f t="shared" si="68"/>
+        <v>0.60564795667982796</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="68"/>
+        <v>0.61170443624662629</v>
       </c>
     </row>
     <row r="43" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="5">
-        <f t="shared" ref="B43:I43" si="78">B24/B22</f>
-        <v>0.56135096794531936</v>
-      </c>
-      <c r="C43" s="5">
-        <f t="shared" si="78"/>
-        <v>0.5721945204010509</v>
-      </c>
-      <c r="D43" s="5">
-        <f t="shared" si="78"/>
-        <v>0.56672708069836886</v>
-      </c>
-      <c r="E43" s="5">
-        <f t="shared" si="78"/>
-        <v>0.56465067778936395</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="78"/>
-        <v>0.58142018152696207</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="78"/>
-        <v>0.58099879634655782</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="78"/>
-        <v>0.58678116644763678</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="78"/>
-        <v>0.5790046543449191</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K43" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5">
-        <f t="shared" ref="O43:T43" si="79">O24/O22</f>
-        <v>0.5558054331910266</v>
-      </c>
-      <c r="P43" s="5">
-        <f t="shared" si="79"/>
-        <v>0.53578374706207854</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" si="79"/>
-        <v>0.5693980290098084</v>
-      </c>
-      <c r="R43" s="5">
-        <f t="shared" si="79"/>
-        <v>0.55379442503783116</v>
-      </c>
-      <c r="S43" s="5">
-        <f t="shared" si="79"/>
-        <v>0.56625047984020505</v>
-      </c>
-      <c r="T43" s="5">
-        <f t="shared" si="79"/>
-        <v>0.58201578204549476</v>
-      </c>
-      <c r="U43" s="5">
-        <f>T43*1.01</f>
-        <v>0.58783593986594973</v>
-      </c>
-      <c r="V43" s="5">
-        <f t="shared" ref="V43:Y43" si="80">U43*1.01</f>
-        <v>0.59371429926460928</v>
-      </c>
-      <c r="W43" s="5">
-        <f t="shared" si="80"/>
-        <v>0.59965144225725542</v>
-      </c>
-      <c r="X43" s="5">
-        <f t="shared" si="80"/>
-        <v>0.60564795667982796</v>
-      </c>
-      <c r="Y43" s="5">
-        <f t="shared" si="80"/>
-        <v>0.61170443624662629</v>
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B29/B22</f>
+        <v>0.24954504420594092</v>
+      </c>
+      <c r="C43" s="4">
+        <f>C29/C22</f>
+        <v>0.29271888906761029</v>
+      </c>
+      <c r="D43" s="4">
+        <f>D29/D22</f>
+        <v>0.27829136948613303</v>
+      </c>
+      <c r="E43" s="4">
+        <f>E29/E22</f>
+        <v>0.27455683003128256</v>
+      </c>
+      <c r="F43" s="4">
+        <f>F29/F22</f>
+        <v>0.31626913669154072</v>
+      </c>
+      <c r="G43" s="4">
+        <f>G29/G22</f>
+        <v>0.32362936914398999</v>
+      </c>
+      <c r="H43" s="4">
+        <f>H29/H22</f>
+        <v>0.32311823084243441</v>
+      </c>
+      <c r="I43" s="4">
+        <f>I29/I22</f>
+        <v>0.32105650519856122</v>
+      </c>
+      <c r="J43" s="4">
+        <f>J29/J22</f>
+        <v>0.32205185085364202</v>
+      </c>
+      <c r="K43" s="4">
+        <f>K29/K22</f>
+        <v>0.32205185085364202</v>
+      </c>
+      <c r="L43" s="4">
+        <f>L29/L22</f>
+        <v>0.32205185085364207</v>
+      </c>
+      <c r="M43" s="4">
+        <f>M29/M22</f>
+        <v>0.32205185085364202</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4">
+        <f>O29/O22</f>
+        <v>0.21148915400631421</v>
+      </c>
+      <c r="P43" s="4">
+        <f>P29/P22</f>
+        <v>0.22585151785763202</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>Q29/Q22</f>
+        <v>0.3055228868524319</v>
+      </c>
+      <c r="R43" s="4">
+        <f>R29/R22</f>
+        <v>0.26461270842467011</v>
+      </c>
+      <c r="S43" s="4">
+        <f>S29/S22</f>
+        <v>0.27480367216015927</v>
+      </c>
+      <c r="T43" s="4">
+        <f>T29/T22</f>
+        <v>0.32110920009828064</v>
+      </c>
+      <c r="U43" s="4">
+        <f>U29/U22</f>
+        <v>0.33198495117648519</v>
+      </c>
+      <c r="V43" s="4">
+        <f>V29/V22</f>
+        <v>0.35323201697177942</v>
+      </c>
+      <c r="W43" s="4">
+        <f>W29/W22</f>
+        <v>0.36630055949532131</v>
+      </c>
+      <c r="X43" s="4">
+        <f>X29/X22</f>
+        <v>0.37903552558270126</v>
+      </c>
+      <c r="Y43" s="4">
+        <f>Y29/Y22</f>
+        <v>0.39144747479413017</v>
       </c>
     </row>
     <row r="44" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="4">
-        <f t="shared" ref="B44:M44" si="81">B29/B22</f>
-        <v>0.24954504420594092</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.29271888906761029</v>
-      </c>
-      <c r="D44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.27829136948613303</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.27455683003128256</v>
-      </c>
-      <c r="F44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.31626913669154072</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.32362936914398999</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.32311823084243441</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.32105650519856122</v>
-      </c>
-      <c r="J44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.32205185085364202</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.32205185085364202</v>
-      </c>
-      <c r="L44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.32205185085364207</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" si="81"/>
-        <v>0.32205185085364202</v>
-      </c>
+        <f>I102/I22</f>
+        <v>0.25746094600337932</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4">
-        <f t="shared" ref="O44:Y44" si="82">O29/O22</f>
-        <v>0.21148915400631421</v>
+        <f>O102/O22</f>
+        <v>0</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.22585151785763202</v>
+        <f>P102/P22</f>
+        <v>0</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.3055228868524319</v>
+        <f>Q102/Q22</f>
+        <v>0</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.26461270842467011</v>
+        <f>R102/R22</f>
+        <v>0.21217242500954617</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.27480367216015927</v>
+        <f>S102/S22</f>
+        <v>0.22607793255561268</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.32110920009828064</v>
+        <f>T102/T22</f>
+        <v>0.20354381774651589</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.33198495117648519</v>
+        <f>U102/U22</f>
+        <v>0.1521403057892165</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.35323201697177942</v>
+        <f>V102/V22</f>
+        <v>0.18979577894979532</v>
       </c>
       <c r="W44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.36630055949532131</v>
+        <f>W102/W22</f>
+        <v>0.21900898373725583</v>
       </c>
       <c r="X44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.37903552558270126</v>
+        <f>X102/X22</f>
+        <v>0.24617824470848923</v>
       </c>
       <c r="Y44" s="4">
-        <f t="shared" si="82"/>
-        <v>0.39144747479413017</v>
+        <f>Y102/Y22</f>
+        <v>0.27144991584388622</v>
       </c>
     </row>
     <row r="45" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -4981,403 +4953,382 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="4">
-        <f>I103/I22</f>
-        <v>0.25746094600337932</v>
-      </c>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="4">
-        <f>O103/O22</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
-        <f>P103/P22</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="4">
-        <f t="shared" ref="Q45:Y45" si="83">Q103/Q22</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="4">
-        <f t="shared" si="83"/>
-        <v>0.21217242500954617</v>
-      </c>
-      <c r="S45" s="4">
-        <f t="shared" si="83"/>
-        <v>0.22607793255561268</v>
-      </c>
-      <c r="T45" s="4">
-        <f t="shared" si="83"/>
-        <v>0.20354381774651589</v>
-      </c>
-      <c r="U45" s="4">
-        <f t="shared" si="83"/>
-        <v>0.1521403057892165</v>
-      </c>
-      <c r="V45" s="4">
-        <f t="shared" si="83"/>
-        <v>0.18979577894979532</v>
-      </c>
-      <c r="W45" s="4">
-        <f t="shared" si="83"/>
-        <v>0.21900898373725583</v>
-      </c>
-      <c r="X45" s="4">
-        <f t="shared" si="83"/>
-        <v>0.24617824470848923</v>
-      </c>
-      <c r="Y45" s="4">
-        <f t="shared" si="83"/>
-        <v>0.27144991584388622</v>
-      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="4">
+        <f>C19/B19-1</f>
+        <v>6.9785833023998878E-2</v>
+      </c>
+      <c r="D46" s="4">
+        <f>D19/C19-1</f>
+        <v>2.5661914460285207E-2</v>
+      </c>
+      <c r="E46" s="4">
+        <f>E19/D19-1</f>
+        <v>0.12245168122848815</v>
+      </c>
+      <c r="F46" s="4">
+        <f>F19/E19-1</f>
+        <v>-7.7485552541573299E-2</v>
+      </c>
+      <c r="G46" s="4">
+        <f>G19/F19-1</f>
+        <v>5.014346998494279E-2</v>
+      </c>
+      <c r="H46" s="4">
+        <f>H19/G19-1</f>
+        <v>3.4925873823179243E-2</v>
+      </c>
+      <c r="I46" s="4">
+        <f>I19/H19-1</f>
+        <v>9.9124297477453993E-2</v>
+      </c>
+      <c r="J46" s="4">
+        <f>J19/I19-1</f>
+        <v>-7.357457131305456E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <f>K19/J19-1</f>
+        <v>6.2015674622581507E-2</v>
+      </c>
+      <c r="L46" s="4">
+        <f>L19/K19-1</f>
+        <v>6.3015078053849427E-2</v>
+      </c>
+      <c r="M46" s="4">
+        <f>M19/L19-1</f>
+        <v>6.4054389239795784E-2</v>
+      </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
+      <c r="P46" s="4">
+        <f>P19/O19-1</f>
+        <v>0.12770532012826141</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>Q19/P19-1</f>
+        <v>0.41150076427049154</v>
+      </c>
+      <c r="R46" s="4">
+        <f>R19/Q19-1</f>
+        <v>-1.5948796174462543E-2</v>
+      </c>
+      <c r="S46" s="4">
+        <f>S19/R19-1</f>
+        <v>7.5001577735003711E-2</v>
+      </c>
+      <c r="T46" s="4">
+        <f>T19/S19-1</f>
+        <v>0.11883262457667221</v>
+      </c>
+      <c r="U46" s="4">
+        <f>U19/T19-1</f>
+        <v>0.12216850224681064</v>
+      </c>
+      <c r="V46" s="4">
+        <f>V19/U19-1</f>
+        <v>0.10388001480843156</v>
+      </c>
+      <c r="W46" s="4">
+        <f>W19/V19-1</f>
+        <v>0.10466896434707929</v>
+      </c>
+      <c r="X46" s="4">
+        <f>X19/W19-1</f>
+        <v>0.10539802685306121</v>
+      </c>
+      <c r="Y46" s="4">
+        <f>Y19/X19-1</f>
+        <v>0.10607098023462114</v>
+      </c>
+      <c r="AB46" s="7"/>
     </row>
     <row r="47" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" ref="C47:M47" si="84">C19/B19-1</f>
-        <v>6.9785833023998878E-2</v>
+        <f>C20/B20-1</f>
+        <v>7.7408103031929132E-2</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="84"/>
-        <v>2.5661914460285207E-2</v>
+        <f>D20/C20-1</f>
+        <v>4.731664798904256E-2</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="84"/>
-        <v>0.12245168122848815</v>
+        <f>E20/D20-1</f>
+        <v>9.2854595172987775E-2</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="84"/>
-        <v>-7.7485552541573299E-2</v>
+        <f>F20/E20-1</f>
+        <v>4.155787641427322E-2</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="84"/>
-        <v>5.014346998494279E-2</v>
+        <f>G20/F20-1</f>
+        <v>8.0739502820137865E-2</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="84"/>
-        <v>3.4925873823179243E-2</v>
+        <f>H20/G20-1</f>
+        <v>9.7226249154344302E-2</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="84"/>
-        <v>9.9124297477453993E-2</v>
+        <f>I20/H20-1</f>
+        <v>5.3025631991544087E-2</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="84"/>
-        <v>-7.357457131305456E-2</v>
+        <f>J20/I20-1</f>
+        <v>0.12000000000000011</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="84"/>
-        <v>6.2015674622581507E-2</v>
+        <f>K20/J20-1</f>
+        <v>0.12000000000000011</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="84"/>
-        <v>6.3015078053849427E-2</v>
+        <f>L20/K20-1</f>
+        <v>0.12000000000000011</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="84"/>
-        <v>6.4054389239795784E-2</v>
+        <f>M20/L20-1</f>
+        <v>0.12000000000000011</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="4">
-        <f t="shared" ref="P47:Y47" si="85">P19/O19-1</f>
-        <v>0.12770532012826141</v>
-      </c>
-      <c r="Q47" s="4">
-        <f t="shared" si="85"/>
-        <v>0.41150076427049154</v>
-      </c>
-      <c r="R47" s="4">
-        <f t="shared" si="85"/>
-        <v>-1.5948796174462543E-2</v>
-      </c>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
       <c r="S47" s="4">
-        <f t="shared" si="85"/>
-        <v>7.5001577735003711E-2</v>
+        <f>S20/R20-1</f>
+        <v>0.25905631659056327</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="85"/>
-        <v>0.11883262457667221</v>
+        <f>T20/S20-1</f>
+        <v>0.30648573500967125</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="85"/>
-        <v>0.12216850224681064</v>
+        <f>U20/T20-1</f>
+        <v>0.48033242010687305</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="85"/>
-        <v>0.10388001480843156</v>
+        <f>V20/U20-1</f>
+        <v>0.19999999999999996</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="85"/>
-        <v>0.10466896434707929</v>
+        <f>W20/V20-1</f>
+        <v>0.19999999999999996</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="85"/>
-        <v>0.10539802685306121</v>
+        <f>X20/W20-1</f>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="85"/>
-        <v>0.10607098023462114</v>
+        <f>Y20/X20-1</f>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AB47" s="7"/>
     </row>
     <row r="48" spans="1:219" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="B48" s="4">
+        <f>B20/B22</f>
+        <v>0.10681072406035508</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" ref="C48:M48" si="86">C20/B20-1</f>
-        <v>7.7408103031929132E-2</v>
+        <f>C20/C22</f>
+        <v>0.10764838346469358</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="86"/>
-        <v>4.731664798904256E-2</v>
+        <f>D20/D22</f>
+        <v>0.10967102603888229</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="86"/>
-        <v>9.2854595172987775E-2</v>
+        <f>E20/E22</f>
+        <v>0.10649982620785541</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="86"/>
-        <v>4.155787641427322E-2</v>
+        <f>F20/F22</f>
+        <v>0.11887408584660848</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="86"/>
-        <v>8.0739502820137865E-2</v>
+        <f>G20/G22</f>
+        <v>0.1221000212409431</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="86"/>
-        <v>9.7226249154344302E-2</v>
+        <f>H20/H22</f>
+        <v>0.12861965831331854</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="86"/>
-        <v>5.3025631991544087E-2</v>
+        <f>I20/I22</f>
+        <v>0.12392582072997543</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="86"/>
-        <v>0.12000000000000011</v>
+        <f>J20/J22</f>
+        <v>0.14603593834765272</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="86"/>
-        <v>0.12000000000000011</v>
+        <f>K20/K22</f>
+        <v>0.1528165624319674</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="86"/>
-        <v>0.12000000000000011</v>
+        <f>L20/L22</f>
+        <v>0.15972634101995625</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="86"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
+        <f>M20/M22</f>
+        <v>0.16675069561299613</v>
+      </c>
+      <c r="O48" s="4">
+        <f>O20/O22</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <f>P20/P22</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>Q20/Q22</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="4">
+        <f>R20/R22</f>
+        <v>9.2916036148156522E-2</v>
+      </c>
       <c r="S48" s="4">
-        <f t="shared" ref="S48:Y48" si="87">S20/R20-1</f>
-        <v>0.25905631659056327</v>
+        <f>S20/S22</f>
+        <v>0.10764035732642797</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="87"/>
-        <v>0.30648573500967125</v>
+        <f>T20/T22</f>
+        <v>0.12350507688176036</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="87"/>
-        <v>0.48033242010687305</v>
+        <f>U20/U22</f>
+        <v>0.15692859789168051</v>
       </c>
       <c r="V48" s="4">
-        <f t="shared" si="87"/>
-        <v>0.19999999999999996</v>
+        <f>V20/V22</f>
+        <v>0.16832545488683004</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="87"/>
-        <v>0.19999999999999996</v>
+        <f>W20/W22</f>
+        <v>0.18026612692452421</v>
       </c>
       <c r="X48" s="4">
-        <f t="shared" si="87"/>
-        <v>0.19999999999999996</v>
+        <f>X20/X22</f>
+        <v>0.19275346592565937</v>
       </c>
       <c r="Y48" s="4">
-        <f t="shared" si="87"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AB48" s="7"/>
+        <f>Y20/Y22</f>
+        <v>0.20578772161943079</v>
+      </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="4">
-        <f t="shared" ref="B49:M49" si="88">B20/B22</f>
-        <v>0.10681072406035508</v>
-      </c>
-      <c r="C49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.10764838346469358</v>
-      </c>
-      <c r="D49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.10967102603888229</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.10649982620785541</v>
-      </c>
-      <c r="F49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.11887408584660848</v>
-      </c>
-      <c r="G49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.1221000212409431</v>
-      </c>
-      <c r="H49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.12861965831331854</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.12392582072997543</v>
-      </c>
-      <c r="J49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.14603593834765272</v>
-      </c>
-      <c r="K49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.1528165624319674</v>
-      </c>
-      <c r="L49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.15972634101995625</v>
-      </c>
-      <c r="M49" s="4">
-        <f t="shared" si="88"/>
-        <v>0.16675069561299613</v>
-      </c>
-      <c r="O49" s="4">
-        <f t="shared" ref="O49:Y49" si="89">O20/O22</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="4">
-        <f t="shared" si="89"/>
-        <v>9.2916036148156522E-2</v>
-      </c>
-      <c r="S49" s="4">
-        <f t="shared" si="89"/>
-        <v>0.10764035732642797</v>
-      </c>
-      <c r="T49" s="4">
-        <f t="shared" si="89"/>
-        <v>0.12350507688176036</v>
-      </c>
-      <c r="U49" s="4">
-        <f t="shared" si="89"/>
-        <v>0.15692859789168051</v>
-      </c>
-      <c r="V49" s="4">
-        <f t="shared" si="89"/>
-        <v>0.16832545488683004</v>
-      </c>
-      <c r="W49" s="4">
-        <f t="shared" si="89"/>
-        <v>0.18026612692452421</v>
-      </c>
-      <c r="X49" s="4">
-        <f t="shared" si="89"/>
-        <v>0.19275346592565937</v>
-      </c>
-      <c r="Y49" s="4">
-        <f t="shared" si="89"/>
-        <v>0.20578772161943079</v>
-      </c>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="1">
+        <v>41995</v>
+      </c>
+      <c r="I50" s="1">
+        <v>47375</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="R50" s="1">
+        <v>134814</v>
+      </c>
+      <c r="S50" s="1">
+        <v>146286</v>
+      </c>
+      <c r="T50" s="1">
+        <v>170447</v>
+      </c>
+      <c r="U50" s="1">
+        <f>T50*(1+U38)</f>
+        <v>198578.0895239276</v>
+      </c>
+      <c r="V50" s="1">
+        <f>U50*(1+V38)</f>
+        <v>222159.49107839967</v>
+      </c>
+      <c r="W50" s="1">
+        <f>V50*(1+W38)</f>
+        <v>248932.60668226553</v>
+      </c>
+      <c r="X50" s="1">
+        <f>W50*(1+X38)</f>
+        <v>279366.91040862445</v>
+      </c>
+      <c r="Y50" s="1">
+        <f>X50*(1+Y38)</f>
+        <v>314006.72395288927</v>
+      </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E51" s="1">
-        <v>41995</v>
+        <v>25010</v>
       </c>
       <c r="I51" s="1">
-        <v>47375</v>
+        <v>28184</v>
       </c>
       <c r="J51" s="4"/>
       <c r="R51" s="1">
-        <v>134814</v>
+        <v>82062</v>
       </c>
       <c r="S51" s="1">
-        <v>146286</v>
+        <v>91038</v>
       </c>
       <c r="T51" s="1">
-        <v>170447</v>
+        <v>102127</v>
       </c>
       <c r="U51" s="1">
         <f>T51*(1+U38)</f>
-        <v>198578.0895239276</v>
+        <v>118982.34963836356</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" ref="V51:Y51" si="90">U51*(1+V38)</f>
-        <v>222159.49107839967</v>
+        <f>U51*(1+V38)</f>
+        <v>133111.65550208409</v>
       </c>
       <c r="W51" s="1">
-        <f t="shared" si="90"/>
-        <v>248932.60668226553</v>
+        <f>V51*(1+W38)</f>
+        <v>149153.34574759155</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="90"/>
-        <v>279366.91040862445</v>
+        <f>W51*(1+X38)</f>
+        <v>167388.71590172659</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="90"/>
-        <v>314006.72395288927</v>
+        <f>X51*(1+Y38)</f>
+        <v>188143.90806019894</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
@@ -5385,40 +5336,40 @@
         <v>84</v>
       </c>
       <c r="E52" s="1">
-        <v>25010</v>
+        <v>13979</v>
       </c>
       <c r="I52" s="1">
-        <v>28184</v>
+        <v>15156</v>
       </c>
       <c r="J52" s="4"/>
       <c r="R52" s="1">
-        <v>82062</v>
+        <v>47024</v>
       </c>
       <c r="S52" s="1">
-        <v>91038</v>
+        <v>51514</v>
       </c>
       <c r="T52" s="1">
-        <v>102127</v>
+        <v>56815</v>
       </c>
       <c r="U52" s="1">
         <f>T52*(1+U38)</f>
-        <v>118982.34963836356</v>
+        <v>66191.919812621796</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" ref="V52:Y52" si="91">U52*(1+V38)</f>
-        <v>133111.65550208409</v>
+        <f>U52*(1+V38)</f>
+        <v>74052.29476388132</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" si="91"/>
-        <v>149153.34574759155</v>
+        <f>V52*(1+W38)</f>
+        <v>82976.561914571212</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" si="91"/>
-        <v>167388.71590172659</v>
+        <f>W52*(1+X38)</f>
+        <v>93121.210786144671</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="91"/>
-        <v>188143.90806019894</v>
+        <f>X52*(1+Y38)</f>
+        <v>104667.67981474246</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
@@ -5426,384 +5377,377 @@
         <v>85</v>
       </c>
       <c r="E53" s="1">
-        <v>13979</v>
+        <v>5176</v>
       </c>
       <c r="I53" s="1">
-        <v>15156</v>
+        <v>5734</v>
       </c>
       <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
       <c r="R53" s="1">
-        <v>47024</v>
+        <v>16976</v>
       </c>
       <c r="S53" s="1">
-        <v>51514</v>
+        <v>18320</v>
       </c>
       <c r="T53" s="1">
-        <v>56815</v>
+        <v>20418</v>
       </c>
       <c r="U53" s="1">
         <f>T53*(1+U38)</f>
-        <v>66191.919812621796</v>
+        <v>23787.848609242483</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" ref="V53:Y53" si="92">U53*(1+V38)</f>
-        <v>74052.29476388132</v>
+        <f>U53*(1+V38)</f>
+        <v>26612.685989420548</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="92"/>
-        <v>82976.561914571212</v>
+        <f>V53*(1+W38)</f>
+        <v>29819.86167687608</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="92"/>
-        <v>93121.210786144671</v>
+        <f>W53*(1+X38)</f>
+        <v>33465.614394640521</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="92"/>
-        <v>104667.67981474246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="1">
-        <v>5176</v>
-      </c>
-      <c r="I54" s="1">
-        <v>5734</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="R54" s="1">
-        <v>16976</v>
-      </c>
-      <c r="S54" s="1">
-        <v>18320</v>
-      </c>
-      <c r="T54" s="1">
-        <v>20418</v>
-      </c>
-      <c r="U54" s="1">
-        <f>T54*(1+U38)</f>
-        <v>23787.848609242483</v>
-      </c>
-      <c r="V54" s="1">
-        <f t="shared" ref="V54:Y54" si="93">U54*(1+V38)</f>
-        <v>26612.685989420548</v>
-      </c>
-      <c r="W54" s="1">
-        <f t="shared" si="93"/>
-        <v>29819.86167687608</v>
-      </c>
-      <c r="X54" s="1">
-        <f t="shared" si="93"/>
-        <v>33465.614394640521</v>
-      </c>
-      <c r="Y54" s="1">
-        <f t="shared" si="93"/>
+        <f>X53*(1+Y38)</f>
         <v>37615.148929990508</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" ref="B56:M56" si="94">B58-B73</f>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ref="B55:M55" si="69">B57-B72</f>
         <v>0</v>
       </c>
-      <c r="C56" s="1">
-        <f t="shared" si="94"/>
+      <c r="C55" s="1">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="D56" s="1">
-        <f t="shared" si="94"/>
+      <c r="D55" s="1">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="E56" s="1">
-        <f t="shared" si="94"/>
+      <c r="E55" s="1">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="F56" s="1">
-        <f t="shared" si="94"/>
+      <c r="F55" s="1">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="G56" s="1">
-        <f t="shared" si="94"/>
+      <c r="G55" s="1">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="H56" s="1">
-        <f t="shared" si="94"/>
+      <c r="H55" s="1">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="I56" s="1">
-        <f t="shared" si="94"/>
+      <c r="I55" s="1">
+        <f t="shared" si="69"/>
         <v>84774</v>
       </c>
-      <c r="J56" s="1">
-        <f t="shared" si="94"/>
-        <v>71727.994037106459</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="94"/>
-        <v>114327.17190789701</v>
-      </c>
-      <c r="L56" s="1">
-        <f t="shared" si="94"/>
-        <v>141757.93717126161</v>
-      </c>
-      <c r="M56" s="1">
-        <f t="shared" si="94"/>
-        <v>171186.21416214595</v>
-      </c>
-      <c r="O56" s="1">
-        <f t="shared" ref="O56:T56" si="95">O58-O73</f>
+      <c r="J55" s="1" t="e">
+        <f t="shared" si="69"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K55" s="1" t="e">
+        <f t="shared" si="69"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L55" s="1" t="e">
+        <f t="shared" si="69"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M55" s="1" t="e">
+        <f t="shared" si="69"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" ref="O55:T55" si="70">O57-O72</f>
         <v>0</v>
       </c>
-      <c r="P56" s="1">
-        <f t="shared" si="95"/>
+      <c r="P55" s="1">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="1">
-        <f t="shared" si="95"/>
+      <c r="Q55" s="1">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="R56" s="1">
-        <f t="shared" si="95"/>
+      <c r="R55" s="1">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="S56" s="1">
-        <f t="shared" si="95"/>
+      <c r="S55" s="1">
+        <f t="shared" si="70"/>
         <v>99046</v>
       </c>
-      <c r="T56" s="1">
-        <f t="shared" si="95"/>
+      <c r="T55" s="1">
+        <f t="shared" si="70"/>
         <v>84774</v>
       </c>
-      <c r="U56" s="1">
-        <f>T56+U34</f>
+      <c r="U55" s="1">
+        <f>T55+U34</f>
         <v>197100.18770798953</v>
       </c>
-      <c r="V56" s="1">
-        <f>U56+V34</f>
+      <c r="V55" s="1">
+        <f>U55+V34</f>
         <v>332132.36043272412</v>
       </c>
-      <c r="W56" s="1">
-        <f>V56+W34</f>
+      <c r="W55" s="1">
+        <f>V55+W34</f>
         <v>490506.95125633001</v>
       </c>
-      <c r="X56" s="1">
-        <f>W56+X34</f>
+      <c r="X55" s="1">
+        <f>W55+X34</f>
         <v>675921.50911081745</v>
       </c>
-      <c r="Y56" s="1">
-        <f>X56+Y34</f>
+      <c r="Y55" s="1">
+        <f>X55+Y34</f>
         <v>892675.41060309834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="1">
+        <f>23466+72191</f>
+        <v>95657</v>
+      </c>
+      <c r="J57" s="1" t="e">
+        <f>I57+J34+J99</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K57" s="1" t="e">
+        <f>J57+K34+K99</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L57" s="1" t="e">
+        <f>K57+L34+L99</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M57" s="1" t="e">
+        <f>L57+M34+M99</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S57" s="1">
+        <f>24048+86868</f>
+        <v>110916</v>
+      </c>
+      <c r="T57" s="1">
+        <f>23466+72191</f>
+        <v>95657</v>
+      </c>
+      <c r="U57" s="1">
+        <f>T57+U34+U99</f>
+        <v>204568.4465838006</v>
+      </c>
+      <c r="V57" s="1">
+        <f>U57+V34+V99</f>
+        <v>335780.37331798801</v>
+      </c>
+      <c r="W57" s="1">
+        <f>V57+W34+W99</f>
+        <v>489874.32869370852</v>
+      </c>
+      <c r="X57" s="1">
+        <f>W57+X34+X99</f>
+        <v>670484.90399404324</v>
+      </c>
+      <c r="Y57" s="1">
+        <f>X57+Y34+Y99</f>
+        <v>881839.15804221586</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I58" s="1">
-        <f>23466+72191</f>
-        <v>95657</v>
+        <v>52340</v>
       </c>
       <c r="J58" s="1">
-        <f>I58+J34+J100</f>
-        <v>88727.994037106459</v>
+        <f>J79*J22/90</f>
+        <v>55012.212</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" ref="K58:M58" si="96">J58+K34+K100</f>
-        <v>114327.17190789701</v>
+        <f>K79*K22/90</f>
+        <v>58879.816800000001</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="96"/>
-        <v>141757.93717126161</v>
+        <f>L79*L22/90</f>
+        <v>63092.589986400009</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="96"/>
-        <v>171186.21416214595</v>
+        <f>M79*M22/90</f>
+        <v>67687.000211832026</v>
       </c>
       <c r="S58" s="1">
-        <f>24048+86868</f>
-        <v>110916</v>
+        <v>47964</v>
       </c>
       <c r="T58" s="1">
-        <f>23466+72191</f>
-        <v>95657</v>
+        <v>52340</v>
       </c>
       <c r="U58" s="1">
-        <f>T58+U34+U100</f>
-        <v>204568.4465838006</v>
+        <f>U79*U22/360</f>
+        <v>61167.904749558009</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" ref="V58" si="97">U58+V34+V100</f>
-        <v>335780.37331798801</v>
+        <f>V79*V22/360</f>
+        <v>68431.671500477532</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" ref="W58" si="98">V58+W34+W100</f>
-        <v>489874.32869370852</v>
+        <f>W79*W22/360</f>
+        <v>76678.580255780282</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" ref="X58:Y58" si="99">W58+X34+X100</f>
-        <v>670484.90399404324</v>
+        <f>X79*X22/360</f>
+        <v>86053.242867934823</v>
       </c>
       <c r="Y58" s="1">
-        <f t="shared" si="99"/>
-        <v>881839.15804221586</v>
+        <f>Y79*Y22/360</f>
+        <v>96723.326463248741</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I59" s="1">
-        <v>52340</v>
-      </c>
-      <c r="J59" s="1">
-        <f>J80*J22/90</f>
-        <v>55012.212</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" ref="K59:M59" si="100">K80*K22/90</f>
-        <v>58879.816800000001</v>
-      </c>
-      <c r="L59" s="1">
-        <f t="shared" si="100"/>
-        <v>63092.589986400009</v>
-      </c>
-      <c r="M59" s="1">
-        <f t="shared" si="100"/>
-        <v>67687.000211832026</v>
+        <v>37982</v>
       </c>
       <c r="S59" s="1">
-        <v>47964</v>
+        <v>31008</v>
       </c>
       <c r="T59" s="1">
-        <v>52340</v>
+        <v>37982</v>
       </c>
       <c r="U59" s="1">
-        <f>U80*U22/360</f>
-        <v>61167.904749558009</v>
+        <f>T59*(1+U38)</f>
+        <v>44250.664407691649</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" ref="V59:Y59" si="101">V80*V22/360</f>
-        <v>68431.671500477532</v>
+        <f>U59*(1+V38)</f>
+        <v>49505.487278390217</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="101"/>
-        <v>76678.580255780282</v>
+        <f>V59*(1+W38)</f>
+        <v>55471.544040116933</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="101"/>
-        <v>86053.242867934823</v>
+        <f>W59*(1+X38)</f>
+        <v>62253.451167461877</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" si="101"/>
-        <v>96723.326463248741</v>
+        <f>X59*(1+Y38)</f>
+        <v>69972.503999358407</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I60" s="1">
-        <v>37982</v>
+        <v>17180</v>
       </c>
       <c r="S60" s="1">
-        <v>31008</v>
+        <v>12169</v>
       </c>
       <c r="T60" s="1">
-        <v>37982</v>
+        <v>17180</v>
       </c>
       <c r="U60" s="1">
         <f>T60*(1+U38)</f>
-        <v>44250.664407691649</v>
+        <v>20015.439274502198</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" ref="V60:Y60" si="102">U60*(1+V38)</f>
-        <v>49505.487278390217</v>
+        <f>U60*(1+V38)</f>
+        <v>22392.298231866247</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="102"/>
-        <v>55471.544040116933</v>
+        <f>V60*(1+W38)</f>
+        <v>25090.862161266094</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="102"/>
-        <v>62253.451167461877</v>
+        <f>W60*(1+X38)</f>
+        <v>28158.451136248616</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="102"/>
-        <v>69972.503999358407</v>
+        <f>X60*(1+Y38)</f>
+        <v>31649.929406270792</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="I61" s="1">
-        <v>17180</v>
+        <v>171036</v>
       </c>
       <c r="S61" s="1">
-        <v>12169</v>
+        <v>134345</v>
       </c>
       <c r="T61" s="1">
-        <v>17180</v>
+        <v>171036</v>
       </c>
       <c r="U61" s="1">
         <f>T61*(1+U38)</f>
-        <v>20015.439274502198</v>
+        <v>199264.29986925249</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" ref="V61:Y61" si="103">U61*(1+V38)</f>
-        <v>22392.298231866247</v>
+        <f>U61*(1+V38)</f>
+        <v>222927.18977796714</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="103"/>
-        <v>25090.862161266094</v>
+        <f>V61*(1+W38)</f>
+        <v>249792.82308581533</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="103"/>
-        <v>28158.451136248616</v>
+        <f>W61*(1+X38)</f>
+        <v>280332.29618972167</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="103"/>
-        <v>31649.929406270792</v>
+        <f>X61*(1+Y38)</f>
+        <v>315091.81175383768</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I62" s="1">
-        <v>171036</v>
+        <v>13588</v>
       </c>
       <c r="S62" s="1">
-        <v>134345</v>
+        <v>14091</v>
       </c>
       <c r="T62" s="1">
-        <v>171036</v>
+        <v>13588</v>
       </c>
       <c r="U62" s="1">
         <f>T62*(1+U38)</f>
-        <v>199264.29986925249</v>
+        <v>15830.604706748303</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ref="V62:Y62" si="104">U62*(1+V38)</f>
-        <v>222927.18977796714</v>
+        <f>U62*(1+V38)</f>
+        <v>17710.509218544736</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="104"/>
-        <v>249792.82308581533</v>
+        <f>V62*(1+W38)</f>
+        <v>19844.856521960632</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="104"/>
-        <v>280332.29618972167</v>
+        <f>W62*(1+X38)</f>
+        <v>22271.072994141221</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" si="104"/>
-        <v>315091.81175383768</v>
+        <f>X62*(1+Y38)</f>
+        <v>25032.551849383439</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
@@ -5811,209 +5755,209 @@
         <v>64</v>
       </c>
       <c r="I63" s="1">
-        <v>13588</v>
+        <v>31885</v>
       </c>
       <c r="S63" s="1">
-        <v>14091</v>
+        <v>29198</v>
       </c>
       <c r="T63" s="1">
-        <v>13588</v>
+        <v>31885</v>
       </c>
       <c r="U63" s="1">
         <f>T63*(1+U38)</f>
-        <v>15830.604706748303</v>
+        <v>37147.39704700248</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" ref="V63:Y63" si="105">U63*(1+V38)</f>
-        <v>17710.509218544736</v>
+        <f>U63*(1+V38)</f>
+        <v>41558.697853495658</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" si="105"/>
-        <v>19844.856521960632</v>
+        <f>V63*(1+W38)</f>
+        <v>46567.062864491818</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" si="105"/>
-        <v>22271.072994141221</v>
+        <f>W63*(1+X38)</f>
+        <v>52260.315161774575</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" si="105"/>
-        <v>25032.551849383439</v>
+        <f>X63*(1+Y38)</f>
+        <v>58740.279343361137</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="I64" s="1">
-        <v>31885</v>
+        <f>15714+14874</f>
+        <v>30588</v>
       </c>
       <c r="S64" s="1">
-        <v>29198</v>
+        <f>12650+10051</f>
+        <v>22701</v>
       </c>
       <c r="T64" s="1">
-        <v>31885</v>
+        <f>15714+14874</f>
+        <v>30588</v>
       </c>
       <c r="U64" s="1">
         <f>T64*(1+U38)</f>
-        <v>37147.39704700248</v>
+        <v>35636.336235650364</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" ref="V64:Y64" si="106">U64*(1+V38)</f>
-        <v>41558.697853495658</v>
+        <f>U64*(1+V38)</f>
+        <v>39868.196642393763</v>
       </c>
       <c r="W64" s="1">
-        <f t="shared" si="106"/>
-        <v>46567.062864491818</v>
+        <f>V64*(1+W38)</f>
+        <v>44672.834213551068</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" si="106"/>
-        <v>52260.315161774575</v>
+        <f>W64*(1+X38)</f>
+        <v>50134.499613246378</v>
       </c>
       <c r="Y64" s="1">
-        <f t="shared" si="106"/>
-        <v>58740.279343361137</v>
+        <f>X64*(1+Y38)</f>
+        <v>56350.875476077483</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I65" s="1">
-        <f>15714+14874</f>
-        <v>30588</v>
+        <f>SUM(I57:I64)</f>
+        <v>450256</v>
       </c>
       <c r="S65" s="1">
-        <f>12650+10051</f>
-        <v>22701</v>
+        <f>SUM(S57:S64)</f>
+        <v>402392</v>
       </c>
       <c r="T65" s="1">
-        <f>15714+14874</f>
-        <v>30588</v>
+        <f>SUM(T57:T64)</f>
+        <v>450256</v>
       </c>
       <c r="U65" s="1">
-        <f>T65*(1+U38)</f>
-        <v>35636.336235650364</v>
+        <f t="shared" ref="U65:Y65" si="71">SUM(U57:U64)</f>
+        <v>617881.09287420602</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" ref="V65:Y65" si="107">U65*(1+V38)</f>
-        <v>39868.196642393763</v>
+        <f t="shared" si="71"/>
+        <v>798174.42382112332</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" si="107"/>
-        <v>44672.834213551068</v>
+        <f t="shared" si="71"/>
+        <v>1007992.8918366906</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="107"/>
-        <v>50134.499613246378</v>
+        <f t="shared" si="71"/>
+        <v>1251948.2331245726</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" si="107"/>
-        <v>56350.875476077483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I66" s="1">
-        <f>SUM(I58:I65)</f>
-        <v>450256</v>
-      </c>
-      <c r="S66" s="1">
-        <f>SUM(S58:S65)</f>
-        <v>402392</v>
-      </c>
-      <c r="T66" s="1">
-        <f>SUM(T58:T65)</f>
-        <v>450256</v>
-      </c>
-      <c r="U66" s="1">
-        <f t="shared" ref="U66:Y66" si="108">SUM(U58:U65)</f>
-        <v>617881.09287420602</v>
-      </c>
-      <c r="V66" s="1">
-        <f t="shared" si="108"/>
-        <v>798174.42382112332</v>
-      </c>
-      <c r="W66" s="1">
-        <f t="shared" si="108"/>
-        <v>1007992.8918366906</v>
-      </c>
-      <c r="X66" s="1">
-        <f t="shared" si="108"/>
-        <v>1251948.2331245726</v>
-      </c>
-      <c r="Y66" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="71"/>
         <v>1535400.4363337532</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" s="1">
+        <v>7987</v>
+      </c>
+      <c r="S67" s="1">
+        <v>7493</v>
+      </c>
+      <c r="T67" s="1">
+        <v>7987</v>
+      </c>
+      <c r="U67" s="1">
+        <f>T67*(1+U38)</f>
+        <v>9305.1986894906313</v>
+      </c>
+      <c r="V67" s="1">
+        <f>U67*(1+V38)</f>
+        <v>10410.20290907542</v>
+      </c>
+      <c r="W67" s="1">
+        <f>V67*(1+W38)</f>
+        <v>11664.768107219574</v>
+      </c>
+      <c r="X67" s="1">
+        <f>W67*(1+X38)</f>
+        <v>13090.893435693695</v>
+      </c>
+      <c r="Y67" s="1">
+        <f>X67*(1+Y38)</f>
+        <v>14714.085341553247</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I68" s="1">
-        <v>7987</v>
+        <v>15069</v>
       </c>
       <c r="S68" s="1">
-        <v>7493</v>
+        <v>15140</v>
       </c>
       <c r="T68" s="1">
-        <v>7987</v>
+        <v>15069</v>
       </c>
       <c r="U68" s="1">
         <f>T68*(1+U38)</f>
-        <v>9305.1986894906313</v>
+        <v>17556.033435825007</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" ref="V68:Y68" si="109">U68*(1+V38)</f>
-        <v>10410.20290907542</v>
+        <f>U68*(1+V38)</f>
+        <v>19640.834811175351</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="109"/>
-        <v>11664.768107219574</v>
+        <f>V68*(1+W38)</f>
+        <v>22007.811519680956</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="109"/>
-        <v>13090.893435693695</v>
+        <f>W68*(1+X38)</f>
+        <v>24698.469160193858</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" si="109"/>
-        <v>14714.085341553247</v>
+        <f>X68*(1+Y38)</f>
+        <v>27760.93051356779</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I69" s="1">
-        <v>15069</v>
+        <v>51228</v>
       </c>
       <c r="S69" s="1">
-        <v>15140</v>
+        <v>46168</v>
       </c>
       <c r="T69" s="1">
-        <v>15069</v>
+        <v>51228</v>
       </c>
       <c r="U69" s="1">
         <f>T69*(1+U38)</f>
-        <v>17556.033435825007</v>
+        <v>59682.824397799683</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" ref="V69:Y69" si="110">U69*(1+V38)</f>
-        <v>19640.834811175351</v>
+        <f>U69*(1+V38)</f>
+        <v>66770.235961702216</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" si="110"/>
-        <v>22007.811519680956</v>
+        <f>V69*(1+W38)</f>
+        <v>74816.920069693791</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="110"/>
-        <v>24698.469160193858</v>
+        <f>W69*(1+X38)</f>
+        <v>83963.977579030499</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" si="110"/>
-        <v>27760.93051356779</v>
+        <f>X69*(1+Y38)</f>
+        <v>94375.004867545984</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
@@ -6021,33 +5965,33 @@
         <v>66</v>
       </c>
       <c r="I70" s="1">
-        <v>51228</v>
+        <v>9802</v>
       </c>
       <c r="S70" s="1">
-        <v>46168</v>
+        <v>8876</v>
       </c>
       <c r="T70" s="1">
-        <v>51228</v>
+        <v>9802</v>
       </c>
       <c r="U70" s="1">
         <f>T70*(1+U38)</f>
-        <v>59682.824397799683</v>
+        <v>11419.751790958704</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" ref="V70:Y70" si="111">U70*(1+V38)</f>
-        <v>66770.235961702216</v>
+        <f>U70*(1+V38)</f>
+        <v>12775.861889915772</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="111"/>
-        <v>74816.920069693791</v>
+        <f>V70*(1+W38)</f>
+        <v>14315.519843115846</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="111"/>
-        <v>83963.977579030499</v>
+        <f>W70*(1+X38)</f>
+        <v>16065.72398355698</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="111"/>
-        <v>94375.004867545984</v>
+        <f>X70*(1+Y38)</f>
+        <v>18057.776952285582</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
@@ -6055,175 +5999,178 @@
         <v>67</v>
       </c>
       <c r="I71" s="1">
-        <v>9802</v>
+        <v>5036</v>
       </c>
       <c r="S71" s="1">
-        <v>8876</v>
+        <v>4137</v>
       </c>
       <c r="T71" s="1">
-        <v>9802</v>
+        <v>5036</v>
       </c>
       <c r="U71" s="1">
         <f>T71*(1+U38)</f>
-        <v>11419.751790958704</v>
+        <v>5867.1567046794571</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" ref="V71:Y71" si="112">U71*(1+V38)</f>
-        <v>12775.861889915772</v>
+        <f>U71*(1+V38)</f>
+        <v>6563.8890509708053</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="112"/>
-        <v>14315.519843115846</v>
+        <f>V71*(1+W38)</f>
+        <v>7354.923273814672</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" si="112"/>
-        <v>16065.72398355698</v>
+        <f>W71*(1+X38)</f>
+        <v>8254.1303796360917</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" si="112"/>
-        <v>18057.776952285582</v>
+        <f>X71*(1+Y38)</f>
+        <v>9277.5928108253629</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="I72" s="1">
-        <v>5036</v>
+        <v>10883</v>
+      </c>
+      <c r="J72" s="1">
+        <v>17000</v>
       </c>
       <c r="S72" s="1">
-        <v>4137</v>
+        <v>11870</v>
       </c>
       <c r="T72" s="1">
-        <v>5036</v>
+        <v>10883</v>
       </c>
       <c r="U72" s="1">
         <f>T72*(1+U38)</f>
-        <v>5867.1567046794571</v>
+        <v>12679.163307590654</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" ref="V72:Y72" si="113">U72*(1+V38)</f>
-        <v>6563.8890509708053</v>
+        <f>U72*(1+V38)</f>
+        <v>14184.830131396997</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="113"/>
-        <v>7354.923273814672</v>
+        <f>V72*(1+W38)</f>
+        <v>15894.287130445804</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="113"/>
-        <v>8254.1303796360917</v>
+        <f>W72*(1+X38)</f>
+        <v>17837.51011151302</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" si="113"/>
-        <v>9277.5928108253629</v>
+        <f>X72*(1+Y38)</f>
+        <v>20049.253884077127</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="I73" s="1">
-        <v>10883</v>
-      </c>
-      <c r="J73" s="1">
-        <v>17000</v>
+        <v>8782</v>
       </c>
       <c r="S73" s="1">
-        <v>11870</v>
+        <v>8474</v>
       </c>
       <c r="T73" s="1">
-        <v>10883</v>
+        <v>8782</v>
       </c>
       <c r="U73" s="1">
         <f>T73*(1+U38)</f>
-        <v>12679.163307590654</v>
+        <v>10231.407899224581</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" ref="V73:Y73" si="114">U73*(1+V38)</f>
-        <v>14184.830131396997</v>
+        <f>U73*(1+V38)</f>
+        <v>11446.400644484831</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="114"/>
-        <v>15894.287130445804</v>
+        <f>V73*(1+W38)</f>
+        <v>12825.841181620421</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="114"/>
-        <v>17837.51011151302</v>
+        <f>W73*(1+X38)</f>
+        <v>14393.918386410671</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" si="114"/>
-        <v>20049.253884077127</v>
+        <f>X73*(1+Y38)</f>
+        <v>16178.677534683939</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I74" s="1">
-        <v>8782</v>
+        <f>11691+4694</f>
+        <v>16385</v>
       </c>
       <c r="S74" s="1">
-        <v>8474</v>
+        <f>12460+4395</f>
+        <v>16855</v>
       </c>
       <c r="T74" s="1">
-        <v>8782</v>
+        <f>11691+4694</f>
+        <v>16385</v>
       </c>
       <c r="U74" s="1">
         <f>T74*(1+U38)</f>
-        <v>10231.407899224581</v>
+        <v>19089.23006476825</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74:Y74" si="115">U74*(1+V38)</f>
-        <v>11446.400644484831</v>
+        <f>U74*(1+V38)</f>
+        <v>21356.100496456838</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="115"/>
-        <v>12825.841181620421</v>
+        <f>V74*(1+W38)</f>
+        <v>23929.789086865247</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" si="115"/>
-        <v>14393.918386410671</v>
+        <f>W74*(1+X38)</f>
+        <v>26855.42618553164</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" si="115"/>
-        <v>16178.677534683939</v>
+        <f>X74*(1+Y38)</f>
+        <v>30185.337213140101</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I75" s="1">
-        <f>11691+4694</f>
-        <v>16385</v>
+        <f>SUM(I67:I74)</f>
+        <v>125172</v>
       </c>
       <c r="S75" s="1">
-        <f>12460+4395</f>
-        <v>16855</v>
+        <f>SUM(S67:S74)</f>
+        <v>119013</v>
       </c>
       <c r="T75" s="1">
-        <f>11691+4694</f>
-        <v>16385</v>
+        <f>SUM(T67:T74)</f>
+        <v>125172</v>
       </c>
       <c r="U75" s="1">
-        <f>T75*(1+U38)</f>
-        <v>19089.23006476825</v>
+        <f t="shared" ref="U75:Y75" si="72">SUM(U67:U74)</f>
+        <v>145830.76629033696</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" ref="V75:Y75" si="116">U75*(1+V38)</f>
-        <v>21356.100496456838</v>
+        <f t="shared" si="72"/>
+        <v>163148.35589517825</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="116"/>
-        <v>23929.789086865247</v>
+        <f t="shared" si="72"/>
+        <v>182809.86021245632</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="116"/>
-        <v>26855.42618553164</v>
+        <f t="shared" si="72"/>
+        <v>205160.04922156644</v>
       </c>
       <c r="Y75" s="1">
-        <f t="shared" si="116"/>
-        <v>30185.337213140101</v>
+        <f t="shared" si="72"/>
+        <v>230598.65911767911</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -6231,36 +6178,36 @@
         <v>59</v>
       </c>
       <c r="I76" s="1">
-        <f>SUM(I68:I75)</f>
-        <v>125172</v>
+        <f>I65-I75</f>
+        <v>325084</v>
       </c>
       <c r="S76" s="1">
-        <f>SUM(S68:S75)</f>
-        <v>119013</v>
+        <f>S65-S75</f>
+        <v>283379</v>
       </c>
       <c r="T76" s="1">
-        <f>SUM(T68:T75)</f>
-        <v>125172</v>
+        <f>T65-T75</f>
+        <v>325084</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" ref="U76:Y76" si="117">SUM(U68:U75)</f>
-        <v>145830.76629033696</v>
+        <f t="shared" ref="U76:Y76" si="73">U65-U75</f>
+        <v>472050.32658386906</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="117"/>
-        <v>163148.35589517825</v>
+        <f t="shared" si="73"/>
+        <v>635026.06792594504</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="117"/>
-        <v>182809.86021245632</v>
+        <f t="shared" si="73"/>
+        <v>825183.03162423428</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="117"/>
-        <v>205160.04922156644</v>
+        <f t="shared" si="73"/>
+        <v>1046788.1839030061</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" si="117"/>
-        <v>230598.65911767911</v>
+        <f t="shared" si="73"/>
+        <v>1304801.7772160741</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
@@ -6268,297 +6215,297 @@
         <v>60</v>
       </c>
       <c r="I77" s="1">
-        <f>I66-I76</f>
-        <v>325084</v>
+        <f>I75+I76</f>
+        <v>450256</v>
       </c>
       <c r="S77" s="1">
-        <f>S66-S76</f>
-        <v>283379</v>
+        <f>S75+S76</f>
+        <v>402392</v>
       </c>
       <c r="T77" s="1">
-        <f>T66-T76</f>
-        <v>325084</v>
+        <f>T75+T76</f>
+        <v>450256</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" ref="U77:Y77" si="118">U66-U76</f>
-        <v>472050.32658386906</v>
+        <f t="shared" ref="U77:Y77" si="74">U75+U76</f>
+        <v>617881.09287420602</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="118"/>
-        <v>635026.06792594504</v>
+        <f t="shared" si="74"/>
+        <v>798174.42382112332</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="118"/>
-        <v>825183.03162423428</v>
+        <f t="shared" si="74"/>
+        <v>1007992.8918366906</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" si="118"/>
-        <v>1046788.1839030061</v>
+        <f t="shared" si="74"/>
+        <v>1251948.2331245726</v>
       </c>
       <c r="Y77" s="1">
-        <f t="shared" si="118"/>
-        <v>1304801.7772160741</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I78" s="1">
-        <f>I76+I77</f>
-        <v>450256</v>
-      </c>
-      <c r="S78" s="1">
-        <f>S76+S77</f>
-        <v>402392</v>
-      </c>
-      <c r="T78" s="1">
-        <f>T76+T77</f>
-        <v>450256</v>
-      </c>
-      <c r="U78" s="1">
-        <f t="shared" ref="U78:Y78" si="119">U76+U77</f>
-        <v>617881.09287420602</v>
-      </c>
-      <c r="V78" s="1">
-        <f t="shared" si="119"/>
-        <v>798174.42382112332</v>
-      </c>
-      <c r="W78" s="1">
-        <f t="shared" si="119"/>
-        <v>1007992.8918366906</v>
-      </c>
-      <c r="X78" s="1">
-        <f t="shared" si="119"/>
-        <v>1251948.2331245726</v>
-      </c>
-      <c r="Y78" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="74"/>
         <v>1535400.4363337532</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="1">
+        <f>(B58/B22)*90</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <f>(C58/C22)*90</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <f>(D58/D22)*90</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <f>(E58/E22)*90</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <f>(F58/F22)*90</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <f>(G58/G22)*90</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <f>(H58/H22)*90</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <f>(I58/I22)*90</f>
+        <v>48.830194155635489</v>
+      </c>
+      <c r="J79" s="1">
+        <v>54</v>
+      </c>
+      <c r="K79" s="1">
+        <v>54</v>
+      </c>
+      <c r="L79" s="1">
+        <v>54</v>
+      </c>
+      <c r="M79" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q79" s="1">
+        <f>(Q58/Q22)*360</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <f>(R58/R22)*360</f>
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <f>(S58/S22)*360</f>
+        <v>56.172339082740713</v>
+      </c>
+      <c r="T79" s="1">
+        <f>(T58/T22)*360</f>
+        <v>53.832660034626791</v>
+      </c>
+      <c r="U79" s="1">
+        <v>54</v>
+      </c>
+      <c r="V79" s="1">
+        <v>54</v>
+      </c>
+      <c r="W79" s="1">
+        <v>54</v>
+      </c>
+      <c r="X79" s="1">
+        <v>54</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="1">
-        <f t="shared" ref="B80:I80" si="120">(B59/B22)*90</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="1">
-        <f t="shared" si="120"/>
-        <v>48.830194155635489</v>
-      </c>
-      <c r="J80" s="1">
-        <v>54</v>
-      </c>
-      <c r="K80" s="1">
-        <v>54</v>
-      </c>
-      <c r="L80" s="1">
-        <v>54</v>
-      </c>
-      <c r="M80" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q80" s="1">
-        <f t="shared" ref="Q80:T80" si="121">(Q59/Q22)*360</f>
-        <v>0</v>
-      </c>
-      <c r="R80" s="1">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="S80" s="1">
-        <f t="shared" si="121"/>
-        <v>56.172339082740713</v>
-      </c>
-      <c r="T80" s="1">
-        <f t="shared" si="121"/>
-        <v>53.832660034626791</v>
-      </c>
-      <c r="U80" s="1">
-        <v>54</v>
-      </c>
-      <c r="V80" s="1">
-        <v>54</v>
-      </c>
-      <c r="W80" s="1">
-        <v>54</v>
-      </c>
-      <c r="X80" s="1">
-        <v>54</v>
-      </c>
-      <c r="Y80" s="1">
-        <v>54</v>
+      <c r="B81" s="1">
+        <f>+B34</f>
+        <v>15051</v>
+      </c>
+      <c r="C81" s="1">
+        <f>+C34</f>
+        <v>18368</v>
+      </c>
+      <c r="D81" s="1">
+        <f>+D34</f>
+        <v>19689</v>
+      </c>
+      <c r="E81" s="1">
+        <f>+E34</f>
+        <v>20687</v>
+      </c>
+      <c r="F81" s="1">
+        <f>+F34</f>
+        <v>23662</v>
+      </c>
+      <c r="G81" s="1">
+        <f>+G34</f>
+        <v>23619</v>
+      </c>
+      <c r="H81" s="1">
+        <f>+H34</f>
+        <v>26301</v>
+      </c>
+      <c r="I81" s="1">
+        <f>+I34</f>
+        <v>26536</v>
+      </c>
+      <c r="J81" s="1" t="e">
+        <f>+J34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K81" s="1" t="e">
+        <f>+K34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L81" s="1" t="e">
+        <f>+L34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M81" s="1" t="e">
+        <f>+M34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R81" s="1">
+        <f>+R34</f>
+        <v>63486</v>
+      </c>
+      <c r="S81" s="1">
+        <f>+S34</f>
+        <v>73975</v>
+      </c>
+      <c r="T81" s="1">
+        <f>+T34</f>
+        <v>100122</v>
+      </c>
+      <c r="U81" s="1">
+        <f>+U34</f>
+        <v>112326.18770798953</v>
+      </c>
+      <c r="V81" s="1">
+        <f>+V34</f>
+        <v>135032.17272473456</v>
+      </c>
+      <c r="W81" s="1">
+        <f>+W34</f>
+        <v>158374.59082360589</v>
+      </c>
+      <c r="X81" s="1">
+        <f>+X34</f>
+        <v>185414.5578544875</v>
+      </c>
+      <c r="Y81" s="1">
+        <f>+Y34</f>
+        <v>216753.90149228091</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="1">
-        <f t="shared" ref="B82:M82" si="122">+B34</f>
-        <v>15051</v>
-      </c>
       <c r="C82" s="1">
-        <f t="shared" si="122"/>
         <v>18368</v>
       </c>
-      <c r="D82" s="1">
-        <f t="shared" si="122"/>
-        <v>19689</v>
-      </c>
-      <c r="E82" s="1">
-        <f t="shared" si="122"/>
-        <v>20687</v>
-      </c>
-      <c r="F82" s="1">
-        <f t="shared" si="122"/>
-        <v>23662</v>
-      </c>
       <c r="G82" s="1">
-        <f t="shared" si="122"/>
         <v>23619</v>
       </c>
-      <c r="H82" s="1">
-        <f t="shared" si="122"/>
-        <v>26301</v>
-      </c>
       <c r="I82" s="1">
-        <f t="shared" si="122"/>
         <v>26536</v>
       </c>
-      <c r="J82" s="1">
-        <f t="shared" si="122"/>
-        <v>25070.994037106462</v>
-      </c>
-      <c r="K82" s="1">
-        <f t="shared" si="122"/>
-        <v>25599.177870790547</v>
-      </c>
-      <c r="L82" s="1">
-        <f t="shared" si="122"/>
-        <v>27430.765263364614</v>
-      </c>
-      <c r="M82" s="1">
-        <f t="shared" si="122"/>
-        <v>29428.276990884337</v>
+      <c r="J82" s="1" t="e">
+        <f>J81</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K82" s="1" t="e">
+        <f t="shared" ref="K82:M82" si="75">K81</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L82" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M82" s="1" t="e">
+        <f t="shared" si="75"/>
+        <v>#REF!</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" ref="R82:Y82" si="123">+R34</f>
-        <v>63486</v>
+        <v>59972</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="123"/>
-        <v>73975</v>
+        <v>73795</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="123"/>
-        <v>100122</v>
+        <v>100118</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="123"/>
+        <f>U81</f>
         <v>112326.18770798953</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" ref="V82:Y82" si="76">V81</f>
         <v>135032.17272473456</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="76"/>
         <v>158374.59082360589</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="76"/>
         <v>185414.5578544875</v>
       </c>
       <c r="Y82" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="76"/>
         <v>216753.90149228091</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="1">
-        <v>18368</v>
-      </c>
-      <c r="G83" s="1">
-        <v>23619</v>
+        <v>70</v>
       </c>
       <c r="I83" s="1">
-        <v>26536</v>
-      </c>
-      <c r="J83" s="1">
-        <f>J82</f>
-        <v>25070.994037106462</v>
-      </c>
-      <c r="K83" s="1">
-        <f t="shared" ref="K83:M83" si="124">K82</f>
-        <v>25599.177870790547</v>
-      </c>
-      <c r="L83" s="1">
-        <f t="shared" si="124"/>
-        <v>27430.765263364614</v>
-      </c>
-      <c r="M83" s="1">
-        <f t="shared" si="124"/>
-        <v>29428.276990884337</v>
+        <v>4205</v>
       </c>
       <c r="R83" s="1">
-        <v>59972</v>
+        <v>13475</v>
       </c>
       <c r="S83" s="1">
-        <v>73795</v>
+        <v>11946</v>
       </c>
       <c r="T83" s="1">
-        <v>100118</v>
+        <v>15311</v>
       </c>
       <c r="U83" s="1">
-        <f>U82</f>
-        <v>112326.18770798953</v>
+        <f>T83*1.15</f>
+        <v>17607.649999999998</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" ref="V83:Y83" si="125">V82</f>
-        <v>135032.17272473456</v>
+        <f t="shared" ref="V83:Y83" si="77">U83*1.15</f>
+        <v>20248.797499999997</v>
       </c>
       <c r="W83" s="1">
-        <f t="shared" si="125"/>
-        <v>158374.59082360589</v>
+        <f t="shared" si="77"/>
+        <v>23286.117124999993</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="125"/>
-        <v>185414.5578544875</v>
+        <f t="shared" si="77"/>
+        <v>26779.034693749989</v>
       </c>
       <c r="Y83" s="1">
-        <f t="shared" si="125"/>
-        <v>216753.90149228091</v>
+        <f t="shared" si="77"/>
+        <v>30795.889897812485</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
@@ -6566,309 +6513,309 @@
         <v>71</v>
       </c>
       <c r="I84" s="1">
-        <v>4205</v>
+        <v>5810</v>
       </c>
       <c r="R84" s="1">
-        <v>13475</v>
+        <v>19362</v>
       </c>
       <c r="S84" s="1">
-        <v>11946</v>
+        <v>22460</v>
       </c>
       <c r="T84" s="1">
-        <v>15311</v>
+        <v>22785</v>
       </c>
       <c r="U84" s="1">
-        <f>T84*1.15</f>
-        <v>17607.649999999998</v>
+        <f>T84*1.05</f>
+        <v>23924.25</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" ref="V84:Y84" si="126">U84*1.15</f>
-        <v>20248.797499999997</v>
+        <f t="shared" ref="V84:Y84" si="78">U84*1.05</f>
+        <v>25120.462500000001</v>
       </c>
       <c r="W84" s="1">
-        <f t="shared" si="126"/>
-        <v>23286.117124999993</v>
+        <f t="shared" si="78"/>
+        <v>26376.485625000001</v>
       </c>
       <c r="X84" s="1">
-        <f t="shared" si="126"/>
-        <v>26779.034693749989</v>
+        <f t="shared" si="78"/>
+        <v>27695.309906250004</v>
       </c>
       <c r="Y84" s="1">
-        <f t="shared" si="126"/>
-        <v>30795.889897812485</v>
+        <f t="shared" si="78"/>
+        <v>29080.075401562506</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I85" s="1">
-        <v>5810</v>
+        <v>-1448</v>
       </c>
       <c r="R85" s="1">
-        <v>19362</v>
+        <v>-8081</v>
       </c>
       <c r="S85" s="1">
-        <v>22460</v>
+        <v>-7763</v>
       </c>
       <c r="T85" s="1">
-        <v>22785</v>
+        <v>-5257</v>
       </c>
       <c r="U85" s="1">
-        <f>T85*1.05</f>
-        <v>23924.25</v>
+        <f>T85*(1+U38)</f>
+        <v>-6124.6312145551838</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" ref="V85:Y85" si="127">U85*1.05</f>
-        <v>25120.462500000001</v>
+        <f>U85*(1+V38)</f>
+        <v>-6851.9389874808421</v>
       </c>
       <c r="W85" s="1">
-        <f t="shared" si="127"/>
-        <v>26376.485625000001</v>
+        <f>V85*(1+W38)</f>
+        <v>-7677.6869838053462</v>
       </c>
       <c r="X85" s="1">
-        <f t="shared" si="127"/>
-        <v>27695.309906250004</v>
+        <f>W85*(1+X38)</f>
+        <v>-8616.3549256844562</v>
       </c>
       <c r="Y85" s="1">
-        <f t="shared" si="127"/>
-        <v>29080.075401562506</v>
+        <f>X85*(1+Y38)</f>
+        <v>-9684.7310179723827</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I86" s="1">
-        <v>-1448</v>
+        <v>67</v>
       </c>
       <c r="R86" s="1">
-        <v>-8081</v>
+        <v>5519</v>
       </c>
       <c r="S86" s="1">
-        <v>-7763</v>
+        <v>823</v>
       </c>
       <c r="T86" s="1">
-        <v>-5257</v>
+        <v>-2671</v>
       </c>
       <c r="U86" s="1">
         <f>T86*(1+U38)</f>
-        <v>-6124.6312145551838</v>
+        <v>-3111.8299360998471</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" ref="V86:Y86" si="128">U86*(1+V38)</f>
-        <v>-6851.9389874808421</v>
+        <f>U86*(1+V38)</f>
+        <v>-3481.363712300044</v>
       </c>
       <c r="W86" s="1">
-        <f t="shared" si="128"/>
-        <v>-7677.6869838053462</v>
+        <f>V86*(1+W38)</f>
+        <v>-3900.9134361316496</v>
       </c>
       <c r="X86" s="1">
-        <f t="shared" si="128"/>
-        <v>-8616.3549256844562</v>
+        <f>W86*(1+X38)</f>
+        <v>-4377.8360293899914</v>
       </c>
       <c r="Y86" s="1">
-        <f t="shared" si="128"/>
-        <v>-9684.7310179723827</v>
+        <f>X86*(1+Y38)</f>
+        <v>-4920.6613180529266</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="I87" s="1">
-        <v>67</v>
+        <v>827</v>
       </c>
       <c r="R87" s="1">
-        <v>5519</v>
+        <v>3483</v>
       </c>
       <c r="S87" s="1">
-        <v>823</v>
+        <v>4330</v>
       </c>
       <c r="T87" s="1">
-        <v>-2671</v>
+        <v>3419</v>
       </c>
       <c r="U87" s="1">
         <f>T87*(1+U38)</f>
-        <v>-3111.8299360998471</v>
+        <v>3983.2821233715376</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" ref="V87:Y87" si="129">U87*(1+V38)</f>
-        <v>-3481.363712300044</v>
+        <f>U87*(1+V38)</f>
+        <v>4456.3019589494006</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" si="129"/>
-        <v>-3900.9134361316496</v>
+        <f>V87*(1+W38)</f>
+        <v>4993.3444545616285</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" si="129"/>
-        <v>-4377.8360293899914</v>
+        <f>W87*(1+X38)</f>
+        <v>5603.826800630618</v>
       </c>
       <c r="Y87" s="1">
-        <f t="shared" si="129"/>
-        <v>-4920.6613180529266</v>
+        <f>X87*(1+Y38)</f>
+        <v>6298.6675576274638</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="I88" s="1">
-        <v>827</v>
+        <v>-4570</v>
       </c>
       <c r="R88" s="1">
-        <v>3483</v>
+        <v>-2317</v>
       </c>
       <c r="S88" s="1">
-        <v>4330</v>
+        <v>-7833</v>
       </c>
       <c r="T88" s="1">
-        <v>3419</v>
+        <v>-5891</v>
       </c>
       <c r="U88" s="1">
         <f>T88*(1+U38)</f>
-        <v>3983.2821233715376</v>
+        <v>-6863.2684962801195</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" ref="V88:Y88" si="130">U88*(1+V38)</f>
-        <v>4456.3019589494006</v>
+        <f>U88*(1+V38)</f>
+        <v>-7678.2903890526241</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" si="130"/>
-        <v>4993.3444545616285</v>
+        <f>V88*(1+W38)</f>
+        <v>-8603.6245047740722</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" si="130"/>
-        <v>5603.826800630618</v>
+        <f>W88*(1+X38)</f>
+        <v>-9655.4968360675557</v>
       </c>
       <c r="Y88" s="1">
-        <f t="shared" si="130"/>
-        <v>6298.6675576274638</v>
+        <f>X88*(1+Y38)</f>
+        <v>-10852.720263814974</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="I89" s="1">
-        <v>-4570</v>
+        <v>379</v>
       </c>
       <c r="R89" s="1">
-        <v>-2317</v>
+        <v>584</v>
       </c>
       <c r="S89" s="1">
-        <v>-7833</v>
+        <v>523</v>
       </c>
       <c r="T89" s="1">
-        <v>-5891</v>
+        <v>-2418</v>
       </c>
       <c r="U89" s="1">
         <f>T89*(1+U38)</f>
-        <v>-6863.2684962801195</v>
+        <v>-2817.0740492285399</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" ref="V89:Y89" si="131">U89*(1+V38)</f>
-        <v>-7678.2903890526241</v>
+        <f>U89*(1+V38)</f>
+        <v>-3151.6051876980555</v>
       </c>
       <c r="W89" s="1">
-        <f t="shared" si="131"/>
-        <v>-8603.6245047740722</v>
+        <f>V89*(1+W38)</f>
+        <v>-3531.4147093097449</v>
       </c>
       <c r="X89" s="1">
-        <f t="shared" si="131"/>
-        <v>-9655.4968360675557</v>
+        <f>W89*(1+X38)</f>
+        <v>-3963.1626802938972</v>
       </c>
       <c r="Y89" s="1">
-        <f t="shared" si="131"/>
-        <v>-10852.720263814974</v>
+        <f>X89*(1+Y38)</f>
+        <v>-4454.5709723144801</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="I90" s="1">
-        <v>379</v>
+        <v>937</v>
       </c>
       <c r="R90" s="1">
-        <v>584</v>
+        <v>-5046</v>
       </c>
       <c r="S90" s="1">
-        <v>523</v>
+        <v>-2143</v>
       </c>
       <c r="T90" s="1">
-        <v>-2418</v>
+        <v>-1397</v>
       </c>
       <c r="U90" s="1">
         <f>T90*(1+U38)</f>
-        <v>-2817.0740492285399</v>
+        <v>-1627.5651144633046</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" ref="V90:Y90" si="132">U90*(1+V38)</f>
-        <v>-3151.6051876980555</v>
+        <f>U90*(1+V38)</f>
+        <v>-1820.8405488892404</v>
       </c>
       <c r="W90" s="1">
-        <f t="shared" si="132"/>
-        <v>-3531.4147093097449</v>
+        <f>V90*(1+W38)</f>
+        <v>-2040.2755785383431</v>
       </c>
       <c r="X90" s="1">
-        <f t="shared" si="132"/>
-        <v>-3963.1626802938972</v>
+        <f>W90*(1+X38)</f>
+        <v>-2289.7180580523468</v>
       </c>
       <c r="Y90" s="1">
-        <f t="shared" si="132"/>
-        <v>-4454.5709723144801</v>
+        <f>X90*(1+Y38)</f>
+        <v>-2573.6293003818569</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I91" s="1">
-        <v>937</v>
+        <v>401</v>
       </c>
       <c r="R91" s="1">
-        <v>-5046</v>
+        <v>707</v>
       </c>
       <c r="S91" s="1">
-        <v>-2143</v>
+        <v>664</v>
       </c>
       <c r="T91" s="1">
-        <v>-1397</v>
+        <v>-1161</v>
       </c>
       <c r="U91" s="1">
         <f>T91*(1+U38)</f>
-        <v>-1627.5651144633046</v>
+        <v>-1352.6149591208994</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" ref="V91:Y91" si="133">U91*(1+V38)</f>
-        <v>-1820.8405488892404</v>
+        <f>U91*(1+V38)</f>
+        <v>-1513.2397117111009</v>
       </c>
       <c r="W91" s="1">
-        <f t="shared" si="133"/>
-        <v>-2040.2755785383431</v>
+        <f>V91*(1+W38)</f>
+        <v>-1695.6048294080288</v>
       </c>
       <c r="X91" s="1">
-        <f t="shared" si="133"/>
-        <v>-2289.7180580523468</v>
+        <f>W91*(1+X38)</f>
+        <v>-1902.9081355753576</v>
       </c>
       <c r="Y91" s="1">
-        <f t="shared" si="133"/>
-        <v>-2573.6293003818569</v>
+        <f>X91*(1+Y38)</f>
+        <v>-2138.857278270104</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I92" s="1">
-        <v>401</v>
+        <v>5205</v>
       </c>
       <c r="R92" s="1">
-        <v>707</v>
+        <v>3915</v>
       </c>
       <c r="S92" s="1">
-        <v>664</v>
+        <v>3937</v>
       </c>
       <c r="T92" s="1">
         <v>-1161</v>
@@ -6878,19 +6825,19 @@
         <v>-1352.6149591208994</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" ref="V92:Y92" si="134">U92*(1+V38)</f>
+        <f>U92*(1+V38)</f>
         <v>-1513.2397117111009</v>
       </c>
       <c r="W92" s="1">
-        <f t="shared" si="134"/>
+        <f>V92*(1+W38)</f>
         <v>-1695.6048294080288</v>
       </c>
       <c r="X92" s="1">
-        <f t="shared" si="134"/>
+        <f>W92*(1+X38)</f>
         <v>-1902.9081355753576</v>
       </c>
       <c r="Y92" s="1">
-        <f t="shared" si="134"/>
+        <f>X92*(1+Y38)</f>
         <v>-2138.857278270104</v>
       </c>
     </row>
@@ -6899,176 +6846,188 @@
         <v>75</v>
       </c>
       <c r="I93" s="1">
-        <v>5205</v>
+        <v>581</v>
       </c>
       <c r="R93" s="1">
-        <v>3915</v>
+        <v>-445</v>
       </c>
       <c r="S93" s="1">
-        <v>3937</v>
+        <v>482</v>
       </c>
       <c r="T93" s="1">
-        <v>-1161</v>
+        <v>1059</v>
       </c>
       <c r="U93" s="1">
         <f>T93*(1+U38)</f>
-        <v>-1352.6149591208994</v>
+        <v>1233.780569947487</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" ref="V93:Y93" si="135">U93*(1+V38)</f>
-        <v>-1513.2397117111009</v>
+        <f>U93*(1+V38)</f>
+        <v>1380.2935871680068</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" si="135"/>
-        <v>-1695.6048294080288</v>
+        <f>V93*(1+W38)</f>
+        <v>1546.636963258486</v>
       </c>
       <c r="X93" s="1">
-        <f t="shared" si="135"/>
-        <v>-1902.9081355753576</v>
+        <f>W93*(1+X38)</f>
+        <v>1735.7275758607266</v>
       </c>
       <c r="Y93" s="1">
-        <f t="shared" si="135"/>
-        <v>-2138.857278270104</v>
+        <f>X93*(1+Y38)</f>
+        <v>1950.9473365099398</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I94" s="1">
-        <v>581</v>
+        <v>183</v>
       </c>
       <c r="R94" s="1">
-        <v>-445</v>
+        <v>367</v>
       </c>
       <c r="S94" s="1">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="T94" s="1">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="U94" s="1">
         <f>T94*(1+U38)</f>
-        <v>1233.780569947487</v>
+        <v>1215.139881449697</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" ref="V94:Y94" si="136">U94*(1+V38)</f>
-        <v>1380.2935871680068</v>
+        <f>U94*(1+V38)</f>
+        <v>1359.4392931220314</v>
       </c>
       <c r="W94" s="1">
-        <f t="shared" si="136"/>
-        <v>1546.636963258486</v>
+        <f>V94*(1+W38)</f>
+        <v>1523.2694548428717</v>
       </c>
       <c r="X94" s="1">
-        <f t="shared" si="136"/>
-        <v>1735.7275758607266</v>
+        <f>W94*(1+X38)</f>
+        <v>1709.5031743368629</v>
       </c>
       <c r="Y94" s="1">
-        <f t="shared" si="136"/>
-        <v>1950.9473365099398</v>
+        <f>X94*(1+Y38)</f>
+        <v>1921.4712672142277</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB94" s="4">
+        <v>0.02</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I95" s="1">
-        <v>183</v>
-      </c>
-      <c r="R95" s="1">
-        <v>367</v>
-      </c>
-      <c r="S95" s="1">
-        <v>525</v>
-      </c>
-      <c r="T95" s="1">
-        <v>1043</v>
-      </c>
-      <c r="U95" s="1">
-        <f>T95*(1+U38)</f>
-        <v>1215.139881449697</v>
-      </c>
-      <c r="V95" s="1">
-        <f t="shared" ref="V95:Y95" si="137">U95*(1+V38)</f>
-        <v>1359.4392931220314</v>
-      </c>
-      <c r="W95" s="1">
-        <f t="shared" si="137"/>
-        <v>1523.2694548428717</v>
-      </c>
-      <c r="X95" s="1">
-        <f t="shared" si="137"/>
-        <v>1709.5031743368629</v>
-      </c>
-      <c r="Y95" s="1">
-        <f t="shared" si="137"/>
-        <v>1921.4712672142277</v>
+      <c r="A95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3">
+        <v>28666</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3">
+        <v>26640</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3">
+        <f>SUM(I82:I94)</f>
+        <v>39113</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3">
+        <f>SUM(R82:R94)</f>
+        <v>91495</v>
+      </c>
+      <c r="S95" s="3">
+        <f t="shared" ref="S95:Y95" si="79">SUM(S82:S94)</f>
+        <v>101746</v>
+      </c>
+      <c r="T95" s="3">
+        <f t="shared" si="79"/>
+        <v>123779</v>
+      </c>
+      <c r="U95" s="3">
+        <f t="shared" si="79"/>
+        <v>137040.69155388948</v>
+      </c>
+      <c r="V95" s="3">
+        <f t="shared" si="79"/>
+        <v>161586.94931513094</v>
+      </c>
+      <c r="W95" s="3">
+        <f t="shared" si="79"/>
+        <v>186955.31957489366</v>
+      </c>
+      <c r="X95" s="3">
+        <f t="shared" si="79"/>
+        <v>216229.57520467674</v>
+      </c>
+      <c r="Y95" s="3">
+        <f t="shared" si="79"/>
+        <v>250036.92552393069</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB95" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3">
-        <v>28666</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3">
-        <v>26640</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3">
-        <f>SUM(I83:I95)</f>
-        <v>39113</v>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3">
-        <f>SUM(R83:R95)</f>
-        <v>91495</v>
-      </c>
-      <c r="S96" s="3">
-        <f t="shared" ref="S96:Y96" si="138">SUM(S83:S95)</f>
-        <v>101746</v>
-      </c>
-      <c r="T96" s="3">
-        <f t="shared" si="138"/>
-        <v>123779</v>
-      </c>
-      <c r="U96" s="3">
-        <f t="shared" si="138"/>
-        <v>137040.69155388948</v>
-      </c>
-      <c r="V96" s="3">
-        <f t="shared" si="138"/>
-        <v>161586.94931513094</v>
-      </c>
-      <c r="W96" s="3">
-        <f t="shared" si="138"/>
-        <v>186955.31957489366</v>
-      </c>
-      <c r="X96" s="3">
-        <f t="shared" si="138"/>
-        <v>216229.57520467674</v>
-      </c>
-      <c r="Y96" s="3">
-        <f t="shared" si="138"/>
-        <v>250036.92552393069</v>
+      <c r="A96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-14276</v>
+      </c>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="1">
+        <v>-31485</v>
+      </c>
+      <c r="S96" s="1">
+        <v>-32251</v>
+      </c>
+      <c r="T96" s="1">
+        <v>-52535</v>
+      </c>
+      <c r="U96" s="1">
+        <v>-75000</v>
+      </c>
+      <c r="V96" s="1">
+        <f>U96*1</f>
+        <v>-75000</v>
+      </c>
+      <c r="W96" s="1">
+        <f t="shared" ref="W96:Y96" si="80">V96*1</f>
+        <v>-75000</v>
+      </c>
+      <c r="X96" s="1">
+        <f t="shared" si="80"/>
+        <v>-75000</v>
+      </c>
+      <c r="Y96" s="1">
+        <f t="shared" si="80"/>
+        <v>-75000</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB96" s="9">
-        <v>0.02</v>
+        <v>29</v>
+      </c>
+      <c r="AB96" s="4">
+        <v>0.08</v>
       </c>
     </row>
     <row r="97" spans="1:162" x14ac:dyDescent="0.2">
@@ -7076,42 +7035,47 @@
         <v>77</v>
       </c>
       <c r="I97" s="1">
-        <v>-14276</v>
-      </c>
-      <c r="Q97" s="4"/>
+        <f>-21645-1800</f>
+        <v>-23445</v>
+      </c>
       <c r="R97" s="1">
-        <v>-31485</v>
+        <f>+-78874-2531</f>
+        <v>-81405</v>
       </c>
       <c r="S97" s="1">
-        <v>-32251</v>
+        <f>+-77858-3027</f>
+        <v>-80885</v>
       </c>
       <c r="T97" s="1">
-        <v>-52535</v>
+        <f>+-86679-5034</f>
+        <v>-91713</v>
       </c>
       <c r="U97" s="1">
-        <v>-75000</v>
+        <f>T97*(1+U38)</f>
+        <v>-106849.59151236438</v>
       </c>
       <c r="V97" s="1">
-        <f>U97*1</f>
-        <v>-75000</v>
+        <f>U97*(1+V38)</f>
+        <v>-119538.11686490974</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" ref="W97:Y97" si="139">V97*1</f>
-        <v>-75000</v>
+        <f>V97*(1+W38)</f>
+        <v>-133944.01870757842</v>
       </c>
       <c r="X97" s="1">
-        <f t="shared" si="139"/>
-        <v>-75000</v>
+        <f>W97*(1+X38)</f>
+        <v>-150319.90855988179</v>
       </c>
       <c r="Y97" s="1">
-        <f t="shared" si="139"/>
-        <v>-75000</v>
+        <f>X97*(1+Y38)</f>
+        <v>-168958.67145735232</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB97" s="9">
-        <v>0.01</v>
+        <v>27</v>
+      </c>
+      <c r="AB97" s="1">
+        <f>NPV(AB96,U102:FF102)+Main!N5-Main!N6</f>
+        <v>2246920.4039283502</v>
       </c>
     </row>
     <row r="98" spans="1:162" x14ac:dyDescent="0.2">
@@ -7119,46 +7083,47 @@
         <v>78</v>
       </c>
       <c r="I98" s="1">
-        <f>-21645-1800</f>
-        <v>-23445</v>
+        <f>21649+150</f>
+        <v>21799</v>
       </c>
       <c r="R98" s="1">
-        <f>+-78874-2531</f>
-        <v>-81405</v>
+        <f>97822+150</f>
+        <v>97972</v>
       </c>
       <c r="S98" s="1">
-        <f>+-77858-3027</f>
-        <v>-80885</v>
+        <f>86672+947</f>
+        <v>87619</v>
       </c>
       <c r="T98" s="1">
-        <f>+-86679-5034</f>
-        <v>-91713</v>
+        <f>103428+882</f>
+        <v>104310</v>
       </c>
       <c r="U98" s="1">
         <f>T98*(1+U38)</f>
-        <v>-106849.59151236438</v>
+        <v>121525.63857528081</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" ref="V98:Y98" si="140">U98*(1+V38)</f>
-        <v>-119538.11686490974</v>
+        <f>U98*(1+V38)</f>
+        <v>135956.96324598187</v>
       </c>
       <c r="W98" s="1">
-        <f t="shared" si="140"/>
-        <v>-133944.01870757842</v>
+        <f>V98*(1+W38)</f>
+        <v>152341.55017704694</v>
       </c>
       <c r="X98" s="1">
-        <f t="shared" si="140"/>
-        <v>-150319.90855988179</v>
+        <f>W98*(1+X38)</f>
+        <v>170966.70768463874</v>
       </c>
       <c r="Y98" s="1">
-        <f t="shared" si="140"/>
-        <v>-168958.67145735232</v>
+        <f>X98*(1+Y38)</f>
+        <v>192165.54926473263</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB98" s="9">
-        <v>0.08</v>
+        <v>0</v>
+      </c>
+      <c r="AB98" s="7">
+        <f>AB97/Main!N3</f>
+        <v>183.42207379006939</v>
       </c>
     </row>
     <row r="99" spans="1:162" x14ac:dyDescent="0.2">
@@ -7166,47 +7131,46 @@
         <v>79</v>
       </c>
       <c r="I99" s="1">
-        <f>21649+150</f>
-        <v>21799</v>
+        <v>-91</v>
+      </c>
+      <c r="J99" s="1">
+        <v>-32000</v>
       </c>
       <c r="R99" s="1">
-        <f>97822+150</f>
-        <v>97972</v>
+        <v>-6969</v>
       </c>
       <c r="S99" s="1">
-        <f>86672+947</f>
-        <v>87619</v>
+        <v>-495</v>
       </c>
       <c r="T99" s="1">
-        <f>103428+882</f>
-        <v>104310</v>
+        <v>-2931</v>
       </c>
       <c r="U99" s="1">
         <f>T99*(1+U38)</f>
-        <v>121525.63857528081</v>
+        <v>-3414.7411241889372</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" ref="V99:Y99" si="141">U99*(1+V38)</f>
-        <v>135956.96324598187</v>
+        <f>U99*(1+V38)</f>
+        <v>-3820.2459905471464</v>
       </c>
       <c r="W99" s="1">
-        <f t="shared" si="141"/>
-        <v>152341.55017704694</v>
+        <f>V99*(1+W38)</f>
+        <v>-4280.6354478853855</v>
       </c>
       <c r="X99" s="1">
-        <f t="shared" si="141"/>
-        <v>170966.70768463874</v>
+        <f>W99*(1+X38)</f>
+        <v>-4803.9825541527762</v>
       </c>
       <c r="Y99" s="1">
-        <f t="shared" si="141"/>
-        <v>192165.54926473263</v>
+        <f>X99*(1+Y38)</f>
+        <v>-5399.6474441082473</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB99" s="1">
-        <f>NPV(AB98,U103:FF103)+Main!N5-Main!N6</f>
-        <v>2246920.4039283502</v>
+        <v>30</v>
+      </c>
+      <c r="AB99" s="4">
+        <f>AB98/Main!N2-1</f>
+        <v>1.793703196664298E-2</v>
       </c>
     </row>
     <row r="100" spans="1:162" x14ac:dyDescent="0.2">
@@ -7214,813 +7178,759 @@
         <v>80</v>
       </c>
       <c r="I100" s="1">
-        <v>-91</v>
-      </c>
-      <c r="J100" s="1">
-        <v>-32000</v>
+        <v>-167</v>
       </c>
       <c r="R100" s="1">
-        <v>-6969</v>
+        <v>1589</v>
       </c>
       <c r="S100" s="1">
-        <v>-495</v>
+        <v>-1051</v>
       </c>
       <c r="T100" s="1">
-        <v>-2931</v>
+        <v>-2667</v>
       </c>
       <c r="U100" s="1">
         <f>T100*(1+U38)</f>
-        <v>-3414.7411241889372</v>
+        <v>-3107.1697639753993</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" ref="V100:Y100" si="142">U100*(1+V38)</f>
-        <v>-3820.2459905471464</v>
+        <f>U100*(1+V38)</f>
+        <v>-3476.1501387885496</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" si="142"/>
-        <v>-4280.6354478853855</v>
+        <f>V100*(1+W38)</f>
+        <v>-3895.0715590277455</v>
       </c>
       <c r="X100" s="1">
-        <f t="shared" si="142"/>
-        <v>-4803.9825541527762</v>
+        <f>W100*(1+X38)</f>
+        <v>-4371.2799290090252</v>
       </c>
       <c r="Y100" s="1">
-        <f t="shared" si="142"/>
-        <v>-5399.6474441082473</v>
-      </c>
-      <c r="AA100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="7">
-        <f>AB99/Main!N3</f>
-        <v>183.42207379006939</v>
+        <f>X100*(1+Y38)</f>
+        <v>-4913.2923007289983</v>
       </c>
     </row>
     <row r="101" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="C101" s="1">
+        <v>10800</v>
+      </c>
+      <c r="G101" s="1">
+        <v>13746</v>
+      </c>
       <c r="I101" s="1">
-        <v>-167</v>
+        <f>I96</f>
+        <v>-14276</v>
+      </c>
+      <c r="J101" s="1">
+        <f>J96</f>
+        <v>0</v>
       </c>
       <c r="R101" s="1">
-        <v>1589</v>
+        <f>R96</f>
+        <v>-31485</v>
       </c>
       <c r="S101" s="1">
-        <v>-1051</v>
+        <f t="shared" ref="S101:Y101" si="81">S96</f>
+        <v>-32251</v>
       </c>
       <c r="T101" s="1">
-        <v>-2667</v>
+        <f t="shared" si="81"/>
+        <v>-52535</v>
       </c>
       <c r="U101" s="1">
-        <f>T101*(1+U38)</f>
-        <v>-3107.1697639753993</v>
+        <f t="shared" si="81"/>
+        <v>-75000</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" ref="V101:Y101" si="143">U101*(1+V38)</f>
-        <v>-3476.1501387885496</v>
+        <f t="shared" si="81"/>
+        <v>-75000</v>
       </c>
       <c r="W101" s="1">
-        <f t="shared" si="143"/>
-        <v>-3895.0715590277455</v>
+        <f t="shared" si="81"/>
+        <v>-75000</v>
       </c>
       <c r="X101" s="1">
-        <f t="shared" si="143"/>
-        <v>-4371.2799290090252</v>
+        <f t="shared" si="81"/>
+        <v>-75000</v>
       </c>
       <c r="Y101" s="1">
-        <f t="shared" si="143"/>
-        <v>-4913.2923007289983</v>
-      </c>
-      <c r="AA101" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB101" s="4">
-        <f>AB100/Main!N2-1</f>
-        <v>1.793703196664298E-2</v>
+        <f t="shared" si="81"/>
+        <v>-75000</v>
       </c>
     </row>
     <row r="102" spans="1:162" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C102" s="1">
-        <v>10800</v>
-      </c>
-      <c r="G102" s="1">
-        <v>13746</v>
-      </c>
-      <c r="I102" s="1">
-        <f>I97</f>
-        <v>-14276</v>
-      </c>
-      <c r="J102" s="1">
-        <f>J97</f>
+      <c r="A102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="3">
+        <f>B95+B101</f>
         <v>0</v>
       </c>
-      <c r="R102" s="1">
-        <f>R97</f>
-        <v>-31485</v>
-      </c>
-      <c r="S102" s="1">
-        <f t="shared" ref="S102:Y102" si="144">S97</f>
-        <v>-32251</v>
-      </c>
-      <c r="T102" s="1">
-        <f t="shared" si="144"/>
-        <v>-52535</v>
-      </c>
-      <c r="U102" s="1">
-        <f t="shared" si="144"/>
-        <v>-75000</v>
-      </c>
-      <c r="V102" s="1">
-        <f t="shared" si="144"/>
-        <v>-75000</v>
-      </c>
-      <c r="W102" s="1">
-        <f t="shared" si="144"/>
-        <v>-75000</v>
-      </c>
-      <c r="X102" s="1">
-        <f t="shared" si="144"/>
-        <v>-75000</v>
-      </c>
-      <c r="Y102" s="1">
-        <f t="shared" si="144"/>
-        <v>-75000</v>
+      <c r="C102" s="3">
+        <f t="shared" ref="C102:K102" si="82">C95+C101</f>
+        <v>39466</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="82"/>
+        <v>40386</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="82"/>
+        <v>24837</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3">
+        <f>R95+R101</f>
+        <v>60010</v>
+      </c>
+      <c r="S102" s="3">
+        <f>S95+S101</f>
+        <v>69495</v>
+      </c>
+      <c r="T102" s="3">
+        <f>T95+T101</f>
+        <v>71244</v>
+      </c>
+      <c r="U102" s="3">
+        <f>U95+U101</f>
+        <v>62040.691553889483</v>
+      </c>
+      <c r="V102" s="3">
+        <f t="shared" ref="V102:Y102" si="83">V95+V101</f>
+        <v>86586.949315130943</v>
+      </c>
+      <c r="W102" s="3">
+        <f t="shared" si="83"/>
+        <v>111955.31957489366</v>
+      </c>
+      <c r="X102" s="3">
+        <f t="shared" si="83"/>
+        <v>141229.57520467674</v>
+      </c>
+      <c r="Y102" s="3">
+        <f t="shared" si="83"/>
+        <v>175036.92552393069</v>
+      </c>
+      <c r="Z102" s="3">
+        <f t="shared" ref="Z102:BE102" si="84">Y102*(1+$AB$95)</f>
+        <v>176787.29477917001</v>
+      </c>
+      <c r="AA102" s="3">
+        <f t="shared" si="84"/>
+        <v>178555.16772696172</v>
+      </c>
+      <c r="AB102" s="3">
+        <f t="shared" si="84"/>
+        <v>180340.71940423135</v>
+      </c>
+      <c r="AC102" s="3">
+        <f t="shared" si="84"/>
+        <v>182144.12659827367</v>
+      </c>
+      <c r="AD102" s="3">
+        <f t="shared" si="84"/>
+        <v>183965.56786425642</v>
+      </c>
+      <c r="AE102" s="3">
+        <f t="shared" si="84"/>
+        <v>185805.22354289898</v>
+      </c>
+      <c r="AF102" s="3">
+        <f t="shared" si="84"/>
+        <v>187663.27577832798</v>
+      </c>
+      <c r="AG102" s="3">
+        <f t="shared" si="84"/>
+        <v>189539.90853611127</v>
+      </c>
+      <c r="AH102" s="3">
+        <f t="shared" si="84"/>
+        <v>191435.30762147237</v>
+      </c>
+      <c r="AI102" s="3">
+        <f t="shared" si="84"/>
+        <v>193349.6606976871</v>
+      </c>
+      <c r="AJ102" s="3">
+        <f t="shared" si="84"/>
+        <v>195283.15730466397</v>
+      </c>
+      <c r="AK102" s="3">
+        <f t="shared" si="84"/>
+        <v>197235.9888777106</v>
+      </c>
+      <c r="AL102" s="3">
+        <f t="shared" si="84"/>
+        <v>199208.3487664877</v>
+      </c>
+      <c r="AM102" s="3">
+        <f t="shared" si="84"/>
+        <v>201200.43225415258</v>
+      </c>
+      <c r="AN102" s="3">
+        <f t="shared" si="84"/>
+        <v>203212.4365766941</v>
+      </c>
+      <c r="AO102" s="3">
+        <f t="shared" si="84"/>
+        <v>205244.56094246104</v>
+      </c>
+      <c r="AP102" s="3">
+        <f t="shared" si="84"/>
+        <v>207297.00655188566</v>
+      </c>
+      <c r="AQ102" s="3">
+        <f t="shared" si="84"/>
+        <v>209369.97661740452</v>
+      </c>
+      <c r="AR102" s="3">
+        <f t="shared" si="84"/>
+        <v>211463.67638357857</v>
+      </c>
+      <c r="AS102" s="3">
+        <f t="shared" si="84"/>
+        <v>213578.31314741436</v>
+      </c>
+      <c r="AT102" s="3">
+        <f t="shared" si="84"/>
+        <v>215714.09627888849</v>
+      </c>
+      <c r="AU102" s="3">
+        <f t="shared" si="84"/>
+        <v>217871.23724167739</v>
+      </c>
+      <c r="AV102" s="3">
+        <f t="shared" si="84"/>
+        <v>220049.94961409416</v>
+      </c>
+      <c r="AW102" s="3">
+        <f t="shared" si="84"/>
+        <v>222250.44911023512</v>
+      </c>
+      <c r="AX102" s="3">
+        <f t="shared" si="84"/>
+        <v>224472.95360133747</v>
+      </c>
+      <c r="AY102" s="3">
+        <f t="shared" si="84"/>
+        <v>226717.68313735086</v>
+      </c>
+      <c r="AZ102" s="3">
+        <f t="shared" si="84"/>
+        <v>228984.85996872437</v>
+      </c>
+      <c r="BA102" s="3">
+        <f t="shared" si="84"/>
+        <v>231274.70856841162</v>
+      </c>
+      <c r="BB102" s="3">
+        <f t="shared" si="84"/>
+        <v>233587.45565409574</v>
+      </c>
+      <c r="BC102" s="3">
+        <f t="shared" si="84"/>
+        <v>235923.33021063669</v>
+      </c>
+      <c r="BD102" s="3">
+        <f t="shared" si="84"/>
+        <v>238282.56351274307</v>
+      </c>
+      <c r="BE102" s="3">
+        <f t="shared" si="84"/>
+        <v>240665.3891478705</v>
+      </c>
+      <c r="BF102" s="3">
+        <f t="shared" ref="BF102:CK102" si="85">BE102*(1+$AB$95)</f>
+        <v>243072.0430393492</v>
+      </c>
+      <c r="BG102" s="3">
+        <f t="shared" si="85"/>
+        <v>245502.7634697427</v>
+      </c>
+      <c r="BH102" s="3">
+        <f t="shared" si="85"/>
+        <v>247957.79110444014</v>
+      </c>
+      <c r="BI102" s="3">
+        <f t="shared" si="85"/>
+        <v>250437.36901548455</v>
+      </c>
+      <c r="BJ102" s="3">
+        <f t="shared" si="85"/>
+        <v>252941.74270563939</v>
+      </c>
+      <c r="BK102" s="3">
+        <f t="shared" si="85"/>
+        <v>255471.16013269578</v>
+      </c>
+      <c r="BL102" s="3">
+        <f t="shared" si="85"/>
+        <v>258025.87173402274</v>
+      </c>
+      <c r="BM102" s="3">
+        <f t="shared" si="85"/>
+        <v>260606.13045136299</v>
+      </c>
+      <c r="BN102" s="3">
+        <f t="shared" si="85"/>
+        <v>263212.19175587664</v>
+      </c>
+      <c r="BO102" s="3">
+        <f t="shared" si="85"/>
+        <v>265844.31367343542</v>
+      </c>
+      <c r="BP102" s="3">
+        <f t="shared" si="85"/>
+        <v>268502.75681016978</v>
+      </c>
+      <c r="BQ102" s="3">
+        <f t="shared" si="85"/>
+        <v>271187.78437827149</v>
+      </c>
+      <c r="BR102" s="3">
+        <f t="shared" si="85"/>
+        <v>273899.6622220542</v>
+      </c>
+      <c r="BS102" s="3">
+        <f t="shared" si="85"/>
+        <v>276638.65884427476</v>
+      </c>
+      <c r="BT102" s="3">
+        <f t="shared" si="85"/>
+        <v>279405.04543271748</v>
+      </c>
+      <c r="BU102" s="3">
+        <f t="shared" si="85"/>
+        <v>282199.09588704468</v>
+      </c>
+      <c r="BV102" s="3">
+        <f t="shared" si="85"/>
+        <v>285021.08684591512</v>
+      </c>
+      <c r="BW102" s="3">
+        <f t="shared" si="85"/>
+        <v>287871.29771437426</v>
+      </c>
+      <c r="BX102" s="3">
+        <f t="shared" si="85"/>
+        <v>290750.01069151802</v>
+      </c>
+      <c r="BY102" s="3">
+        <f t="shared" si="85"/>
+        <v>293657.51079843321</v>
+      </c>
+      <c r="BZ102" s="3">
+        <f t="shared" si="85"/>
+        <v>296594.08590641757</v>
+      </c>
+      <c r="CA102" s="3">
+        <f t="shared" si="85"/>
+        <v>299560.02676548174</v>
+      </c>
+      <c r="CB102" s="3">
+        <f t="shared" si="85"/>
+        <v>302555.62703313655</v>
+      </c>
+      <c r="CC102" s="3">
+        <f t="shared" si="85"/>
+        <v>305581.18330346793</v>
+      </c>
+      <c r="CD102" s="3">
+        <f t="shared" si="85"/>
+        <v>308636.99513650261</v>
+      </c>
+      <c r="CE102" s="3">
+        <f t="shared" si="85"/>
+        <v>311723.36508786766</v>
+      </c>
+      <c r="CF102" s="3">
+        <f t="shared" si="85"/>
+        <v>314840.59873874631</v>
+      </c>
+      <c r="CG102" s="3">
+        <f t="shared" si="85"/>
+        <v>317989.00472613377</v>
+      </c>
+      <c r="CH102" s="3">
+        <f t="shared" si="85"/>
+        <v>321168.89477339509</v>
+      </c>
+      <c r="CI102" s="3">
+        <f t="shared" si="85"/>
+        <v>324380.58372112905</v>
+      </c>
+      <c r="CJ102" s="3">
+        <f t="shared" si="85"/>
+        <v>327624.38955834036</v>
+      </c>
+      <c r="CK102" s="3">
+        <f t="shared" si="85"/>
+        <v>330900.63345392374</v>
+      </c>
+      <c r="CL102" s="3">
+        <f t="shared" ref="CL102:DQ102" si="86">CK102*(1+$AB$95)</f>
+        <v>334209.63978846296</v>
+      </c>
+      <c r="CM102" s="3">
+        <f t="shared" si="86"/>
+        <v>337551.73618634761</v>
+      </c>
+      <c r="CN102" s="3">
+        <f t="shared" si="86"/>
+        <v>340927.25354821107</v>
+      </c>
+      <c r="CO102" s="3">
+        <f t="shared" si="86"/>
+        <v>344336.5260836932</v>
+      </c>
+      <c r="CP102" s="3">
+        <f t="shared" si="86"/>
+        <v>347779.89134453016</v>
+      </c>
+      <c r="CQ102" s="3">
+        <f t="shared" si="86"/>
+        <v>351257.69025797548</v>
+      </c>
+      <c r="CR102" s="3">
+        <f t="shared" si="86"/>
+        <v>354770.26716055523</v>
+      </c>
+      <c r="CS102" s="3">
+        <f t="shared" si="86"/>
+        <v>358317.9698321608</v>
+      </c>
+      <c r="CT102" s="3">
+        <f t="shared" si="86"/>
+        <v>361901.14953048242</v>
+      </c>
+      <c r="CU102" s="3">
+        <f t="shared" si="86"/>
+        <v>365520.16102578724</v>
+      </c>
+      <c r="CV102" s="3">
+        <f t="shared" si="86"/>
+        <v>369175.36263604509</v>
+      </c>
+      <c r="CW102" s="3">
+        <f t="shared" si="86"/>
+        <v>372867.11626240553</v>
+      </c>
+      <c r="CX102" s="3">
+        <f t="shared" si="86"/>
+        <v>376595.78742502962</v>
+      </c>
+      <c r="CY102" s="3">
+        <f t="shared" si="86"/>
+        <v>380361.74529927992</v>
+      </c>
+      <c r="CZ102" s="3">
+        <f t="shared" si="86"/>
+        <v>384165.36275227275</v>
+      </c>
+      <c r="DA102" s="3">
+        <f t="shared" si="86"/>
+        <v>388007.0163797955</v>
+      </c>
+      <c r="DB102" s="3">
+        <f t="shared" si="86"/>
+        <v>391887.08654359344</v>
+      </c>
+      <c r="DC102" s="3">
+        <f t="shared" si="86"/>
+        <v>395805.95740902936</v>
+      </c>
+      <c r="DD102" s="3">
+        <f t="shared" si="86"/>
+        <v>399764.01698311965</v>
+      </c>
+      <c r="DE102" s="3">
+        <f t="shared" si="86"/>
+        <v>403761.65715295088</v>
+      </c>
+      <c r="DF102" s="3">
+        <f t="shared" si="86"/>
+        <v>407799.27372448042</v>
+      </c>
+      <c r="DG102" s="3">
+        <f t="shared" si="86"/>
+        <v>411877.26646172523</v>
+      </c>
+      <c r="DH102" s="3">
+        <f t="shared" si="86"/>
+        <v>415996.03912634251</v>
+      </c>
+      <c r="DI102" s="3">
+        <f t="shared" si="86"/>
+        <v>420155.99951760593</v>
+      </c>
+      <c r="DJ102" s="3">
+        <f t="shared" si="86"/>
+        <v>424357.55951278197</v>
+      </c>
+      <c r="DK102" s="3">
+        <f t="shared" si="86"/>
+        <v>428601.13510790979</v>
+      </c>
+      <c r="DL102" s="3">
+        <f t="shared" si="86"/>
+        <v>432887.14645898889</v>
+      </c>
+      <c r="DM102" s="3">
+        <f t="shared" si="86"/>
+        <v>437216.01792357879</v>
+      </c>
+      <c r="DN102" s="3">
+        <f t="shared" si="86"/>
+        <v>441588.17810281459</v>
+      </c>
+      <c r="DO102" s="3">
+        <f t="shared" si="86"/>
+        <v>446004.05988384277</v>
+      </c>
+      <c r="DP102" s="3">
+        <f t="shared" si="86"/>
+        <v>450464.10048268118</v>
+      </c>
+      <c r="DQ102" s="3">
+        <f t="shared" si="86"/>
+        <v>454968.741487508</v>
+      </c>
+      <c r="DR102" s="3">
+        <f t="shared" ref="DR102:EW102" si="87">DQ102*(1+$AB$95)</f>
+        <v>459518.42890238308</v>
+      </c>
+      <c r="DS102" s="3">
+        <f t="shared" si="87"/>
+        <v>464113.61319140694</v>
+      </c>
+      <c r="DT102" s="3">
+        <f t="shared" si="87"/>
+        <v>468754.74932332104</v>
+      </c>
+      <c r="DU102" s="3">
+        <f t="shared" si="87"/>
+        <v>473442.29681655427</v>
+      </c>
+      <c r="DV102" s="3">
+        <f t="shared" si="87"/>
+        <v>478176.71978471981</v>
+      </c>
+      <c r="DW102" s="3">
+        <f t="shared" si="87"/>
+        <v>482958.486982567</v>
+      </c>
+      <c r="DX102" s="3">
+        <f t="shared" si="87"/>
+        <v>487788.07185239269</v>
+      </c>
+      <c r="DY102" s="3">
+        <f t="shared" si="87"/>
+        <v>492665.95257091662</v>
+      </c>
+      <c r="DZ102" s="3">
+        <f t="shared" si="87"/>
+        <v>497592.61209662579</v>
+      </c>
+      <c r="EA102" s="3">
+        <f t="shared" si="87"/>
+        <v>502568.53821759205</v>
+      </c>
+      <c r="EB102" s="3">
+        <f t="shared" si="87"/>
+        <v>507594.22359976795</v>
+      </c>
+      <c r="EC102" s="3">
+        <f t="shared" si="87"/>
+        <v>512670.16583576566</v>
+      </c>
+      <c r="ED102" s="3">
+        <f t="shared" si="87"/>
+        <v>517796.86749412329</v>
+      </c>
+      <c r="EE102" s="3">
+        <f t="shared" si="87"/>
+        <v>522974.83616906451</v>
+      </c>
+      <c r="EF102" s="3">
+        <f t="shared" si="87"/>
+        <v>528204.58453075518</v>
+      </c>
+      <c r="EG102" s="3">
+        <f t="shared" si="87"/>
+        <v>533486.63037606271</v>
+      </c>
+      <c r="EH102" s="3">
+        <f t="shared" si="87"/>
+        <v>538821.49667982338</v>
+      </c>
+      <c r="EI102" s="3">
+        <f t="shared" si="87"/>
+        <v>544209.71164662158</v>
+      </c>
+      <c r="EJ102" s="3">
+        <f t="shared" si="87"/>
+        <v>549651.80876308784</v>
+      </c>
+      <c r="EK102" s="3">
+        <f t="shared" si="87"/>
+        <v>555148.3268507187</v>
+      </c>
+      <c r="EL102" s="3">
+        <f t="shared" si="87"/>
+        <v>560699.81011922588</v>
+      </c>
+      <c r="EM102" s="3">
+        <f t="shared" si="87"/>
+        <v>566306.80822041817</v>
+      </c>
+      <c r="EN102" s="3">
+        <f t="shared" si="87"/>
+        <v>571969.87630262238</v>
+      </c>
+      <c r="EO102" s="3">
+        <f t="shared" si="87"/>
+        <v>577689.57506564865</v>
+      </c>
+      <c r="EP102" s="3">
+        <f t="shared" si="87"/>
+        <v>583466.47081630514</v>
+      </c>
+      <c r="EQ102" s="3">
+        <f t="shared" si="87"/>
+        <v>589301.13552446815</v>
+      </c>
+      <c r="ER102" s="3">
+        <f t="shared" si="87"/>
+        <v>595194.14687971282</v>
+      </c>
+      <c r="ES102" s="3">
+        <f t="shared" si="87"/>
+        <v>601146.08834850998</v>
+      </c>
+      <c r="ET102" s="3">
+        <f t="shared" si="87"/>
+        <v>607157.54923199513</v>
+      </c>
+      <c r="EU102" s="3">
+        <f t="shared" si="87"/>
+        <v>613229.12472431513</v>
+      </c>
+      <c r="EV102" s="3">
+        <f t="shared" si="87"/>
+        <v>619361.41597155831</v>
+      </c>
+      <c r="EW102" s="3">
+        <f t="shared" si="87"/>
+        <v>625555.0301312739</v>
+      </c>
+      <c r="EX102" s="3">
+        <f t="shared" ref="EX102:FF102" si="88">EW102*(1+$AB$95)</f>
+        <v>631810.5804325866</v>
+      </c>
+      <c r="EY102" s="3">
+        <f t="shared" si="88"/>
+        <v>638128.6862369125</v>
+      </c>
+      <c r="EZ102" s="3">
+        <f t="shared" si="88"/>
+        <v>644509.97309928166</v>
+      </c>
+      <c r="FA102" s="3">
+        <f t="shared" si="88"/>
+        <v>650955.07283027447</v>
+      </c>
+      <c r="FB102" s="3">
+        <f t="shared" si="88"/>
+        <v>657464.62355857727</v>
+      </c>
+      <c r="FC102" s="3">
+        <f t="shared" si="88"/>
+        <v>664039.26979416306</v>
+      </c>
+      <c r="FD102" s="3">
+        <f t="shared" si="88"/>
+        <v>670679.66249210469</v>
+      </c>
+      <c r="FE102" s="3">
+        <f t="shared" si="88"/>
+        <v>677386.45911702572</v>
+      </c>
+      <c r="FF102" s="3">
+        <f t="shared" si="88"/>
+        <v>684160.32370819594</v>
       </c>
     </row>
     <row r="103" spans="1:162" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="3">
-        <f>B96+B102</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="3">
-        <f t="shared" ref="C103:K103" si="145">C96+C102</f>
-        <v>39466</v>
-      </c>
-      <c r="D103" s="3">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="3">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="3">
-        <f t="shared" si="145"/>
-        <v>40386</v>
-      </c>
-      <c r="H103" s="3">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="3">
-        <f t="shared" si="145"/>
-        <v>24837</v>
-      </c>
-      <c r="J103" s="3">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="3">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3">
-        <f>R96+R102</f>
-        <v>60010</v>
-      </c>
-      <c r="S103" s="3">
-        <f>S96+S102</f>
-        <v>69495</v>
-      </c>
-      <c r="T103" s="3">
-        <f>T96+T102</f>
-        <v>71244</v>
-      </c>
-      <c r="U103" s="3">
-        <f>U96+U102</f>
-        <v>62040.691553889483</v>
-      </c>
-      <c r="V103" s="3">
-        <f t="shared" ref="V103:Y103" si="146">V96+V102</f>
-        <v>86586.949315130943</v>
-      </c>
-      <c r="W103" s="3">
-        <f t="shared" si="146"/>
-        <v>111955.31957489366</v>
-      </c>
-      <c r="X103" s="3">
-        <f t="shared" si="146"/>
-        <v>141229.57520467674</v>
-      </c>
-      <c r="Y103" s="3">
-        <f t="shared" si="146"/>
-        <v>175036.92552393069</v>
-      </c>
-      <c r="Z103" s="3">
-        <f t="shared" ref="Z103:BE103" si="147">Y103*(1+$AB$97)</f>
-        <v>176787.29477917001</v>
-      </c>
-      <c r="AA103" s="3">
-        <f t="shared" si="147"/>
-        <v>178555.16772696172</v>
-      </c>
-      <c r="AB103" s="3">
-        <f t="shared" si="147"/>
-        <v>180340.71940423135</v>
-      </c>
-      <c r="AC103" s="3">
-        <f t="shared" si="147"/>
-        <v>182144.12659827367</v>
-      </c>
-      <c r="AD103" s="3">
-        <f t="shared" si="147"/>
-        <v>183965.56786425642</v>
-      </c>
-      <c r="AE103" s="3">
-        <f t="shared" si="147"/>
-        <v>185805.22354289898</v>
-      </c>
-      <c r="AF103" s="3">
-        <f t="shared" si="147"/>
-        <v>187663.27577832798</v>
-      </c>
-      <c r="AG103" s="3">
-        <f t="shared" si="147"/>
-        <v>189539.90853611127</v>
-      </c>
-      <c r="AH103" s="3">
-        <f t="shared" si="147"/>
-        <v>191435.30762147237</v>
-      </c>
-      <c r="AI103" s="3">
-        <f t="shared" si="147"/>
-        <v>193349.6606976871</v>
-      </c>
-      <c r="AJ103" s="3">
-        <f t="shared" si="147"/>
-        <v>195283.15730466397</v>
-      </c>
-      <c r="AK103" s="3">
-        <f t="shared" si="147"/>
-        <v>197235.9888777106</v>
-      </c>
-      <c r="AL103" s="3">
-        <f t="shared" si="147"/>
-        <v>199208.3487664877</v>
-      </c>
-      <c r="AM103" s="3">
-        <f t="shared" si="147"/>
-        <v>201200.43225415258</v>
-      </c>
-      <c r="AN103" s="3">
-        <f t="shared" si="147"/>
-        <v>203212.4365766941</v>
-      </c>
-      <c r="AO103" s="3">
-        <f t="shared" si="147"/>
-        <v>205244.56094246104</v>
-      </c>
-      <c r="AP103" s="3">
-        <f t="shared" si="147"/>
-        <v>207297.00655188566</v>
-      </c>
-      <c r="AQ103" s="3">
-        <f t="shared" si="147"/>
-        <v>209369.97661740452</v>
-      </c>
-      <c r="AR103" s="3">
-        <f t="shared" si="147"/>
-        <v>211463.67638357857</v>
-      </c>
-      <c r="AS103" s="3">
-        <f t="shared" si="147"/>
-        <v>213578.31314741436</v>
-      </c>
-      <c r="AT103" s="3">
-        <f t="shared" si="147"/>
-        <v>215714.09627888849</v>
-      </c>
-      <c r="AU103" s="3">
-        <f t="shared" si="147"/>
-        <v>217871.23724167739</v>
-      </c>
-      <c r="AV103" s="3">
-        <f t="shared" si="147"/>
-        <v>220049.94961409416</v>
-      </c>
-      <c r="AW103" s="3">
-        <f t="shared" si="147"/>
-        <v>222250.44911023512</v>
-      </c>
-      <c r="AX103" s="3">
-        <f t="shared" si="147"/>
-        <v>224472.95360133747</v>
-      </c>
-      <c r="AY103" s="3">
-        <f t="shared" si="147"/>
-        <v>226717.68313735086</v>
-      </c>
-      <c r="AZ103" s="3">
-        <f t="shared" si="147"/>
-        <v>228984.85996872437</v>
-      </c>
-      <c r="BA103" s="3">
-        <f t="shared" si="147"/>
-        <v>231274.70856841162</v>
-      </c>
-      <c r="BB103" s="3">
-        <f t="shared" si="147"/>
-        <v>233587.45565409574</v>
-      </c>
-      <c r="BC103" s="3">
-        <f t="shared" si="147"/>
-        <v>235923.33021063669</v>
-      </c>
-      <c r="BD103" s="3">
-        <f t="shared" si="147"/>
-        <v>238282.56351274307</v>
-      </c>
-      <c r="BE103" s="3">
-        <f t="shared" si="147"/>
-        <v>240665.3891478705</v>
-      </c>
-      <c r="BF103" s="3">
-        <f t="shared" ref="BF103:CK103" si="148">BE103*(1+$AB$97)</f>
-        <v>243072.0430393492</v>
-      </c>
-      <c r="BG103" s="3">
-        <f t="shared" si="148"/>
-        <v>245502.7634697427</v>
-      </c>
-      <c r="BH103" s="3">
-        <f t="shared" si="148"/>
-        <v>247957.79110444014</v>
-      </c>
-      <c r="BI103" s="3">
-        <f t="shared" si="148"/>
-        <v>250437.36901548455</v>
-      </c>
-      <c r="BJ103" s="3">
-        <f t="shared" si="148"/>
-        <v>252941.74270563939</v>
-      </c>
-      <c r="BK103" s="3">
-        <f t="shared" si="148"/>
-        <v>255471.16013269578</v>
-      </c>
-      <c r="BL103" s="3">
-        <f t="shared" si="148"/>
-        <v>258025.87173402274</v>
-      </c>
-      <c r="BM103" s="3">
-        <f t="shared" si="148"/>
-        <v>260606.13045136299</v>
-      </c>
-      <c r="BN103" s="3">
-        <f t="shared" si="148"/>
-        <v>263212.19175587664</v>
-      </c>
-      <c r="BO103" s="3">
-        <f t="shared" si="148"/>
-        <v>265844.31367343542</v>
-      </c>
-      <c r="BP103" s="3">
-        <f t="shared" si="148"/>
-        <v>268502.75681016978</v>
-      </c>
-      <c r="BQ103" s="3">
-        <f t="shared" si="148"/>
-        <v>271187.78437827149</v>
-      </c>
-      <c r="BR103" s="3">
-        <f t="shared" si="148"/>
-        <v>273899.6622220542</v>
-      </c>
-      <c r="BS103" s="3">
-        <f t="shared" si="148"/>
-        <v>276638.65884427476</v>
-      </c>
-      <c r="BT103" s="3">
-        <f t="shared" si="148"/>
-        <v>279405.04543271748</v>
-      </c>
-      <c r="BU103" s="3">
-        <f t="shared" si="148"/>
-        <v>282199.09588704468</v>
-      </c>
-      <c r="BV103" s="3">
-        <f t="shared" si="148"/>
-        <v>285021.08684591512</v>
-      </c>
-      <c r="BW103" s="3">
-        <f t="shared" si="148"/>
-        <v>287871.29771437426</v>
-      </c>
-      <c r="BX103" s="3">
-        <f t="shared" si="148"/>
-        <v>290750.01069151802</v>
-      </c>
-      <c r="BY103" s="3">
-        <f t="shared" si="148"/>
-        <v>293657.51079843321</v>
-      </c>
-      <c r="BZ103" s="3">
-        <f t="shared" si="148"/>
-        <v>296594.08590641757</v>
-      </c>
-      <c r="CA103" s="3">
-        <f t="shared" si="148"/>
-        <v>299560.02676548174</v>
-      </c>
-      <c r="CB103" s="3">
-        <f t="shared" si="148"/>
-        <v>302555.62703313655</v>
-      </c>
-      <c r="CC103" s="3">
-        <f t="shared" si="148"/>
-        <v>305581.18330346793</v>
-      </c>
-      <c r="CD103" s="3">
-        <f t="shared" si="148"/>
-        <v>308636.99513650261</v>
-      </c>
-      <c r="CE103" s="3">
-        <f t="shared" si="148"/>
-        <v>311723.36508786766</v>
-      </c>
-      <c r="CF103" s="3">
-        <f t="shared" si="148"/>
-        <v>314840.59873874631</v>
-      </c>
-      <c r="CG103" s="3">
-        <f t="shared" si="148"/>
-        <v>317989.00472613377</v>
-      </c>
-      <c r="CH103" s="3">
-        <f t="shared" si="148"/>
-        <v>321168.89477339509</v>
-      </c>
-      <c r="CI103" s="3">
-        <f t="shared" si="148"/>
-        <v>324380.58372112905</v>
-      </c>
-      <c r="CJ103" s="3">
-        <f t="shared" si="148"/>
-        <v>327624.38955834036</v>
-      </c>
-      <c r="CK103" s="3">
-        <f t="shared" si="148"/>
-        <v>330900.63345392374</v>
-      </c>
-      <c r="CL103" s="3">
-        <f t="shared" ref="CL103:DQ103" si="149">CK103*(1+$AB$97)</f>
-        <v>334209.63978846296</v>
-      </c>
-      <c r="CM103" s="3">
-        <f t="shared" si="149"/>
-        <v>337551.73618634761</v>
-      </c>
-      <c r="CN103" s="3">
-        <f t="shared" si="149"/>
-        <v>340927.25354821107</v>
-      </c>
-      <c r="CO103" s="3">
-        <f t="shared" si="149"/>
-        <v>344336.5260836932</v>
-      </c>
-      <c r="CP103" s="3">
-        <f t="shared" si="149"/>
-        <v>347779.89134453016</v>
-      </c>
-      <c r="CQ103" s="3">
-        <f t="shared" si="149"/>
-        <v>351257.69025797548</v>
-      </c>
-      <c r="CR103" s="3">
-        <f t="shared" si="149"/>
-        <v>354770.26716055523</v>
-      </c>
-      <c r="CS103" s="3">
-        <f t="shared" si="149"/>
-        <v>358317.9698321608</v>
-      </c>
-      <c r="CT103" s="3">
-        <f t="shared" si="149"/>
-        <v>361901.14953048242</v>
-      </c>
-      <c r="CU103" s="3">
-        <f t="shared" si="149"/>
-        <v>365520.16102578724</v>
-      </c>
-      <c r="CV103" s="3">
-        <f t="shared" si="149"/>
-        <v>369175.36263604509</v>
-      </c>
-      <c r="CW103" s="3">
-        <f t="shared" si="149"/>
-        <v>372867.11626240553</v>
-      </c>
-      <c r="CX103" s="3">
-        <f t="shared" si="149"/>
-        <v>376595.78742502962</v>
-      </c>
-      <c r="CY103" s="3">
-        <f t="shared" si="149"/>
-        <v>380361.74529927992</v>
-      </c>
-      <c r="CZ103" s="3">
-        <f t="shared" si="149"/>
-        <v>384165.36275227275</v>
-      </c>
-      <c r="DA103" s="3">
-        <f t="shared" si="149"/>
-        <v>388007.0163797955</v>
-      </c>
-      <c r="DB103" s="3">
-        <f t="shared" si="149"/>
-        <v>391887.08654359344</v>
-      </c>
-      <c r="DC103" s="3">
-        <f t="shared" si="149"/>
-        <v>395805.95740902936</v>
-      </c>
-      <c r="DD103" s="3">
-        <f t="shared" si="149"/>
-        <v>399764.01698311965</v>
-      </c>
-      <c r="DE103" s="3">
-        <f t="shared" si="149"/>
-        <v>403761.65715295088</v>
-      </c>
-      <c r="DF103" s="3">
-        <f t="shared" si="149"/>
-        <v>407799.27372448042</v>
-      </c>
-      <c r="DG103" s="3">
-        <f t="shared" si="149"/>
-        <v>411877.26646172523</v>
-      </c>
-      <c r="DH103" s="3">
-        <f t="shared" si="149"/>
-        <v>415996.03912634251</v>
-      </c>
-      <c r="DI103" s="3">
-        <f t="shared" si="149"/>
-        <v>420155.99951760593</v>
-      </c>
-      <c r="DJ103" s="3">
-        <f t="shared" si="149"/>
-        <v>424357.55951278197</v>
-      </c>
-      <c r="DK103" s="3">
-        <f t="shared" si="149"/>
-        <v>428601.13510790979</v>
-      </c>
-      <c r="DL103" s="3">
-        <f t="shared" si="149"/>
-        <v>432887.14645898889</v>
-      </c>
-      <c r="DM103" s="3">
-        <f t="shared" si="149"/>
-        <v>437216.01792357879</v>
-      </c>
-      <c r="DN103" s="3">
-        <f t="shared" si="149"/>
-        <v>441588.17810281459</v>
-      </c>
-      <c r="DO103" s="3">
-        <f t="shared" si="149"/>
-        <v>446004.05988384277</v>
-      </c>
-      <c r="DP103" s="3">
-        <f t="shared" si="149"/>
-        <v>450464.10048268118</v>
-      </c>
-      <c r="DQ103" s="3">
-        <f t="shared" si="149"/>
-        <v>454968.741487508</v>
-      </c>
-      <c r="DR103" s="3">
-        <f t="shared" ref="DR103:EW103" si="150">DQ103*(1+$AB$97)</f>
-        <v>459518.42890238308</v>
-      </c>
-      <c r="DS103" s="3">
-        <f t="shared" si="150"/>
-        <v>464113.61319140694</v>
-      </c>
-      <c r="DT103" s="3">
-        <f t="shared" si="150"/>
-        <v>468754.74932332104</v>
-      </c>
-      <c r="DU103" s="3">
-        <f t="shared" si="150"/>
-        <v>473442.29681655427</v>
-      </c>
-      <c r="DV103" s="3">
-        <f t="shared" si="150"/>
-        <v>478176.71978471981</v>
-      </c>
-      <c r="DW103" s="3">
-        <f t="shared" si="150"/>
-        <v>482958.486982567</v>
-      </c>
-      <c r="DX103" s="3">
-        <f t="shared" si="150"/>
-        <v>487788.07185239269</v>
-      </c>
-      <c r="DY103" s="3">
-        <f t="shared" si="150"/>
-        <v>492665.95257091662</v>
-      </c>
-      <c r="DZ103" s="3">
-        <f t="shared" si="150"/>
-        <v>497592.61209662579</v>
-      </c>
-      <c r="EA103" s="3">
-        <f t="shared" si="150"/>
-        <v>502568.53821759205</v>
-      </c>
-      <c r="EB103" s="3">
-        <f t="shared" si="150"/>
-        <v>507594.22359976795</v>
-      </c>
-      <c r="EC103" s="3">
-        <f t="shared" si="150"/>
-        <v>512670.16583576566</v>
-      </c>
-      <c r="ED103" s="3">
-        <f t="shared" si="150"/>
-        <v>517796.86749412329</v>
-      </c>
-      <c r="EE103" s="3">
-        <f t="shared" si="150"/>
-        <v>522974.83616906451</v>
-      </c>
-      <c r="EF103" s="3">
-        <f t="shared" si="150"/>
-        <v>528204.58453075518</v>
-      </c>
-      <c r="EG103" s="3">
-        <f t="shared" si="150"/>
-        <v>533486.63037606271</v>
-      </c>
-      <c r="EH103" s="3">
-        <f t="shared" si="150"/>
-        <v>538821.49667982338</v>
-      </c>
-      <c r="EI103" s="3">
-        <f t="shared" si="150"/>
-        <v>544209.71164662158</v>
-      </c>
-      <c r="EJ103" s="3">
-        <f t="shared" si="150"/>
-        <v>549651.80876308784</v>
-      </c>
-      <c r="EK103" s="3">
-        <f t="shared" si="150"/>
-        <v>555148.3268507187</v>
-      </c>
-      <c r="EL103" s="3">
-        <f t="shared" si="150"/>
-        <v>560699.81011922588</v>
-      </c>
-      <c r="EM103" s="3">
-        <f t="shared" si="150"/>
-        <v>566306.80822041817</v>
-      </c>
-      <c r="EN103" s="3">
-        <f t="shared" si="150"/>
-        <v>571969.87630262238</v>
-      </c>
-      <c r="EO103" s="3">
-        <f t="shared" si="150"/>
-        <v>577689.57506564865</v>
-      </c>
-      <c r="EP103" s="3">
-        <f t="shared" si="150"/>
-        <v>583466.47081630514</v>
-      </c>
-      <c r="EQ103" s="3">
-        <f t="shared" si="150"/>
-        <v>589301.13552446815</v>
-      </c>
-      <c r="ER103" s="3">
-        <f t="shared" si="150"/>
-        <v>595194.14687971282</v>
-      </c>
-      <c r="ES103" s="3">
-        <f t="shared" si="150"/>
-        <v>601146.08834850998</v>
-      </c>
-      <c r="ET103" s="3">
-        <f t="shared" si="150"/>
-        <v>607157.54923199513</v>
-      </c>
-      <c r="EU103" s="3">
-        <f t="shared" si="150"/>
-        <v>613229.12472431513</v>
-      </c>
-      <c r="EV103" s="3">
-        <f t="shared" si="150"/>
-        <v>619361.41597155831</v>
-      </c>
-      <c r="EW103" s="3">
-        <f t="shared" si="150"/>
-        <v>625555.0301312739</v>
-      </c>
-      <c r="EX103" s="3">
-        <f t="shared" ref="EX103:FF103" si="151">EW103*(1+$AB$97)</f>
-        <v>631810.5804325866</v>
-      </c>
-      <c r="EY103" s="3">
-        <f t="shared" si="151"/>
-        <v>638128.6862369125</v>
-      </c>
-      <c r="EZ103" s="3">
-        <f t="shared" si="151"/>
-        <v>644509.97309928166</v>
-      </c>
-      <c r="FA103" s="3">
-        <f t="shared" si="151"/>
-        <v>650955.07283027447</v>
-      </c>
-      <c r="FB103" s="3">
-        <f t="shared" si="151"/>
-        <v>657464.62355857727</v>
-      </c>
-      <c r="FC103" s="3">
-        <f t="shared" si="151"/>
-        <v>664039.26979416306</v>
-      </c>
-      <c r="FD103" s="3">
-        <f t="shared" si="151"/>
-        <v>670679.66249210469</v>
-      </c>
-      <c r="FE103" s="3">
-        <f t="shared" si="151"/>
-        <v>677386.45911702572</v>
-      </c>
-      <c r="FF103" s="3">
-        <f t="shared" si="151"/>
-        <v>684160.32370819594</v>
-      </c>
-    </row>
-    <row r="104" spans="1:162" x14ac:dyDescent="0.2">
-      <c r="R104" s="4">
-        <f t="shared" ref="R104:Y104" si="152">R103/R96</f>
+      <c r="R103" s="4">
+        <f t="shared" ref="R103:Y103" si="89">R102/R95</f>
         <v>0.65588283512760259</v>
       </c>
-      <c r="S104" s="4">
-        <f t="shared" si="152"/>
+      <c r="S103" s="4">
+        <f t="shared" si="89"/>
         <v>0.6830243940793741</v>
       </c>
-      <c r="T104" s="4">
-        <f t="shared" si="152"/>
+      <c r="T103" s="4">
+        <f t="shared" si="89"/>
         <v>0.57557420887226429</v>
       </c>
-      <c r="U104" s="4">
-        <f t="shared" si="152"/>
+      <c r="U103" s="4">
+        <f t="shared" si="89"/>
         <v>0.45271729769031982</v>
       </c>
-      <c r="V104" s="4">
-        <f t="shared" si="152"/>
+      <c r="V103" s="4">
+        <f t="shared" si="89"/>
         <v>0.53585360502268586</v>
       </c>
-      <c r="W104" s="4">
-        <f t="shared" si="152"/>
+      <c r="W103" s="4">
+        <f t="shared" si="89"/>
         <v>0.59883462973646351</v>
       </c>
-      <c r="X104" s="4">
-        <f t="shared" si="152"/>
+      <c r="X103" s="4">
+        <f t="shared" si="89"/>
         <v>0.65314643045935261</v>
       </c>
-      <c r="Y104" s="4">
-        <f t="shared" si="152"/>
+      <c r="Y103" s="4">
+        <f t="shared" si="89"/>
         <v>0.7000443040849107</v>
       </c>
     </row>
-    <row r="109" spans="1:162" x14ac:dyDescent="0.2">
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
+    <row r="108" spans="1:162" x14ac:dyDescent="0.2">
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11290F6E-5ACE-4C9B-B6C2-2EB0DEF6FB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC423FC7-C55D-489C-96D2-37A4805FC32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
+    <workbookView xWindow="5835" yWindow="480" windowWidth="20805" windowHeight="14475" activeTab="1" xr2:uid="{59A50694-CE02-43AA-9A79-230E58E3805C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1203,10 +1203,10 @@
   <dimension ref="A1:HO100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH87" sqref="AH87"/>
+      <selection pane="bottomRight" activeCell="AD94" sqref="AD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="AF90" s="1">
         <f>NPV(AF89,Y94:FJ94)+Main!K5-Main!K6</f>
-        <v>2582169.3392004068</v>
+        <v>2568643.8918113653</v>
       </c>
     </row>
     <row r="91" spans="1:166" x14ac:dyDescent="0.2">
@@ -6705,27 +6705,27 @@
         <v>-85000</v>
       </c>
       <c r="Z91" s="1">
-        <f>Y91*1.03</f>
-        <v>-87550</v>
+        <f>Y91*1.05</f>
+        <v>-89250</v>
       </c>
       <c r="AA91" s="1">
-        <f t="shared" ref="AA91:AC91" si="100">Z91*1.03</f>
-        <v>-90176.5</v>
+        <f t="shared" ref="AA91:AC91" si="100">Z91*1.05</f>
+        <v>-93712.5</v>
       </c>
       <c r="AB91" s="1">
         <f t="shared" si="100"/>
-        <v>-92881.794999999998</v>
+        <v>-98398.125</v>
       </c>
       <c r="AC91" s="1">
         <f t="shared" si="100"/>
-        <v>-95668.248850000004</v>
+        <v>-103318.03125</v>
       </c>
       <c r="AE91" s="18" t="s">
         <v>107</v>
       </c>
       <c r="AF91" s="7">
         <f>AF90/Main!K3</f>
-        <v>213.50829660992284</v>
+        <v>212.38993648183936</v>
       </c>
     </row>
     <row r="92" spans="1:166" x14ac:dyDescent="0.2">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="AF92" s="4">
         <f>AF91/Main!K2-1</f>
-        <v>4.6609297107464975E-2</v>
+        <v>4.1127139616859543E-2</v>
       </c>
     </row>
     <row r="93" spans="1:166" x14ac:dyDescent="0.2">
@@ -6904,19 +6904,19 @@
       </c>
       <c r="Z94" s="3">
         <f t="shared" si="103"/>
-        <v>76923.592352537788</v>
+        <v>75223.592352537788</v>
       </c>
       <c r="AA94" s="3">
         <f t="shared" si="103"/>
-        <v>99036.518231397233</v>
+        <v>95500.518231397233</v>
       </c>
       <c r="AB94" s="3">
         <f t="shared" si="103"/>
-        <v>124795.91680235245</v>
+        <v>119279.58680235245</v>
       </c>
       <c r="AC94" s="3">
         <f t="shared" si="103"/>
-        <v>154788.16431080215</v>
+        <v>147138.38191080216</v>
       </c>
       <c r="AD94" s="3">
         <f>AD34</f>
@@ -7554,19 +7554,19 @@
       </c>
       <c r="Z95" s="4">
         <f t="shared" si="110"/>
-        <v>0.55967776654608326</v>
+        <v>0.54730897078355734</v>
       </c>
       <c r="AA95" s="4">
         <f t="shared" si="110"/>
-        <v>0.61883323359009779</v>
+        <v>0.59673841086155732</v>
       </c>
       <c r="AB95" s="4">
         <f t="shared" si="110"/>
-        <v>0.67049073743799059</v>
+        <v>0.6408531638344479</v>
       </c>
       <c r="AC95" s="4">
         <f t="shared" si="110"/>
-        <v>0.71572352562326658</v>
+        <v>0.6803517693009602</v>
       </c>
     </row>
     <row r="100" spans="22:25" x14ac:dyDescent="0.2">
